--- a/jogos.xlsx
+++ b/jogos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\mycollections-cli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B573828F-F878-4774-9DAE-99E2886E44BA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F4AE9A-6296-4A8E-ADDE-CF72E52C7635}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{0C35237A-6EB4-4B02-9651-931FED775CEC}"/>
   </bookViews>
@@ -951,9 +951,6 @@
     <t>http://media.steampowered.com/steamcommunity/public/images/apps/313690/802a54c3e6bf7209cbf8b0b9359966393db16705.jpg</t>
   </si>
   <si>
-    <t>Resident Evil 6 / Biohazard 6</t>
-  </si>
-  <si>
     <t>http://media.steampowered.com/steamcommunity/public/images/apps/221040/2398457399f20b979f0e5d0641262560a72408d5.jpg</t>
   </si>
   <si>
@@ -969,9 +966,6 @@
     <t>http://media.steampowered.com/steamcommunity/public/images/apps/275180/424c83b6825582c439696a47718cfb0dd8defcec.jpg</t>
   </si>
   <si>
-    <t>Resident Evil / biohazard HD REMASTER</t>
-  </si>
-  <si>
     <t>http://media.steampowered.com/steamcommunity/public/images/apps/304240/3bb107ed29b854c5c5a5db1da709ca9950830c19.jpg</t>
   </si>
   <si>
@@ -1023,9 +1017,6 @@
     <t>http://media.steampowered.com/steamcommunity/public/images/apps/406310/09202e1caf67e3e45127d63a0ded2d7c4f7b7196.jpg</t>
   </si>
   <si>
-    <t>Resident Evil 0 / biohazard 0 HD REMASTER</t>
-  </si>
-  <si>
     <t>http://media.steampowered.com/steamcommunity/public/images/apps/339340/1718a3f2dd34e4905d31b122a08e0bfff2daaa17.jpg</t>
   </si>
   <si>
@@ -1203,9 +1194,6 @@
     <t>http://media.steampowered.com/steamcommunity/public/images/apps/71260/fad43b313c2f6869c42bf0d7c4959363c5394d9a.jpg</t>
   </si>
   <si>
-    <t>Resident Evil 5 / Biohazard 5</t>
-  </si>
-  <si>
     <t>http://media.steampowered.com/steamcommunity/public/images/apps/21690/e277ab70fff98bb2300a39bf8e2371a746fe50b1.jpg</t>
   </si>
   <si>
@@ -3366,9 +3354,6 @@
     <t>http://media.steampowered.com/steamcommunity/public/images/apps/528510/71898a636323201976ab9ad9f208656d6b116abf.jpg</t>
   </si>
   <si>
-    <t>RESIDENT EVIL 7 biohazard / BIOHAZARD 7 resident evil</t>
-  </si>
-  <si>
     <t>http://media.steampowered.com/steamcommunity/public/images/apps/418370/15324b81cc2f6c477c16ddc1f476525dd1afe96e.jpg</t>
   </si>
   <si>
@@ -3582,9 +3567,6 @@
     <t>http://media.steampowered.com/steamcommunity/public/images/apps/235210/dd5f5ed41ebc12d5c0b20ce8073dfd163bf83c90.jpg</t>
   </si>
   <si>
-    <t>resident evil 4 / biohazard 4</t>
-  </si>
-  <si>
     <t>http://media.steampowered.com/steamcommunity/public/images/apps/254700/532d72710af44f29cc123c5796e95e0382461ee5.jpg</t>
   </si>
   <si>
@@ -4210,13 +4192,31 @@
   </si>
   <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTYqebUvvcf7HqWgRDTawX1IIordGRc7R-TWsV-Q50-jkER0TXKag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resident evil 4 </t>
+  </si>
+  <si>
+    <t>Resident Evil HD REMASTER</t>
+  </si>
+  <si>
+    <t>Resident Evil 0 HD REMASTER</t>
+  </si>
+  <si>
+    <t>Resident Evil 5</t>
+  </si>
+  <si>
+    <t>Resident Evil 6</t>
+  </si>
+  <si>
+    <t>RESIDENT EVIL 7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4228,6 +4228,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4254,9 +4262,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -4574,8 +4583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E073D1A-5126-4785-A652-5C66939BBDE3}">
   <dimension ref="A1:F707"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A457" workbookViewId="0">
+      <selection activeCell="A479" sqref="A479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4589,10 +4598,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="B1" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="C1" t="s">
         <v>236</v>
@@ -4609,10 +4618,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="B2" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="C2" t="s">
         <v>236</v>
@@ -4629,10 +4638,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B3" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C3" t="s">
         <v>236</v>
@@ -4649,10 +4658,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="B4" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="C4" t="s">
         <v>236</v>
@@ -4669,10 +4678,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B5" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C5" t="s">
         <v>236</v>
@@ -4689,10 +4698,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B6" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C6" t="s">
         <v>236</v>
@@ -4729,10 +4738,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="B8" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
       <c r="C8" t="s">
         <v>236</v>
@@ -4749,10 +4758,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
       <c r="B9" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="C9" t="s">
         <v>236</v>
@@ -4769,10 +4778,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="B10" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="C10" t="s">
         <v>236</v>
@@ -4806,10 +4815,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
       <c r="B12" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
       <c r="C12" t="s">
         <v>236</v>
@@ -4843,10 +4852,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="B14" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="C14" t="s">
         <v>236</v>
@@ -4883,10 +4892,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="B16" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="C16" t="s">
         <v>236</v>
@@ -4903,10 +4912,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="B17" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="C17" t="s">
         <v>236</v>
@@ -4943,7 +4952,7 @@
         <v>143</v>
       </c>
       <c r="B19" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C19" t="s">
         <v>236</v>
@@ -4960,10 +4969,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="B20" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="C20" t="s">
         <v>236</v>
@@ -4980,10 +4989,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B21" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C21" t="s">
         <v>236</v>
@@ -5000,10 +5009,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B22" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="C22" t="s">
         <v>236</v>
@@ -5020,10 +5029,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B23" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C23" t="s">
         <v>236</v>
@@ -5057,10 +5066,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B25" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="C25" t="s">
         <v>236</v>
@@ -5097,7 +5106,7 @@
         <v>122</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="C27" t="s">
         <v>59</v>
@@ -5128,10 +5137,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B29" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C29" t="s">
         <v>236</v>
@@ -5148,10 +5157,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="B30" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="C30" t="s">
         <v>236</v>
@@ -5168,10 +5177,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B31" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C31" t="s">
         <v>236</v>
@@ -5188,10 +5197,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="B32" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="C32" t="s">
         <v>236</v>
@@ -5208,10 +5217,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B33" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C33" t="s">
         <v>236</v>
@@ -5228,10 +5237,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="B34" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="C34" t="s">
         <v>236</v>
@@ -5248,7 +5257,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="B35" t="s">
         <v>29</v>
@@ -5265,10 +5274,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="B36" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
       <c r="C36" t="s">
         <v>236</v>
@@ -5285,10 +5294,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="B37" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="C37" t="s">
         <v>236</v>
@@ -5328,7 +5337,7 @@
         <v>206</v>
       </c>
       <c r="B39" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="C39" t="s">
         <v>167</v>
@@ -5345,7 +5354,7 @@
         <v>206</v>
       </c>
       <c r="B40" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="C40" t="s">
         <v>236</v>
@@ -5362,10 +5371,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="B41" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="C41" t="s">
         <v>236</v>
@@ -5402,10 +5411,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B43" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C43" t="s">
         <v>236</v>
@@ -5422,10 +5431,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B44" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C44" t="s">
         <v>236</v>
@@ -5547,10 +5556,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="B51" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="C51" t="s">
         <v>236</v>
@@ -5581,10 +5590,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B53" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C53" t="s">
         <v>236</v>
@@ -5601,10 +5610,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="B54" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="C54" t="s">
         <v>236</v>
@@ -5621,10 +5630,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="B55" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="C55" t="s">
         <v>236</v>
@@ -5641,10 +5650,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="B56" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="C56" t="s">
         <v>236</v>
@@ -5701,10 +5710,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="B59" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="C59" t="s">
         <v>236</v>
@@ -5721,10 +5730,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="B60" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="C60" t="s">
         <v>236</v>
@@ -5741,10 +5750,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B61" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C61" t="s">
         <v>236</v>
@@ -5761,10 +5770,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B62" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C62" t="s">
         <v>236</v>
@@ -5781,10 +5790,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="B63" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="C63" t="s">
         <v>236</v>
@@ -5801,10 +5810,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="B64" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="C64" t="s">
         <v>236</v>
@@ -5838,10 +5847,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="B66" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="C66" t="s">
         <v>236</v>
@@ -5858,10 +5867,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="B67" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="C67" t="s">
         <v>236</v>
@@ -5878,10 +5887,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B68" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C68" t="s">
         <v>236</v>
@@ -5898,10 +5907,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B69" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C69" t="s">
         <v>236</v>
@@ -5918,10 +5927,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B70" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C70" t="s">
         <v>236</v>
@@ -5938,10 +5947,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B71" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="C71" t="s">
         <v>236</v>
@@ -5958,10 +5967,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B72" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C72" t="s">
         <v>236</v>
@@ -5978,10 +5987,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="B73" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="C73" t="s">
         <v>236</v>
@@ -5998,10 +6007,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B74" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C74" t="s">
         <v>236</v>
@@ -6035,10 +6044,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B76" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C76" t="s">
         <v>236</v>
@@ -6055,10 +6064,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B77" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C77" t="s">
         <v>236</v>
@@ -6092,10 +6101,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B79" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C79" t="s">
         <v>236</v>
@@ -6112,10 +6121,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="B80" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="C80" t="s">
         <v>236</v>
@@ -6132,10 +6141,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="B81" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="C81" t="s">
         <v>236</v>
@@ -6152,10 +6161,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
       <c r="B82" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
       <c r="C82" t="s">
         <v>236</v>
@@ -6189,10 +6198,10 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B84" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C84" t="s">
         <v>236</v>
@@ -6229,10 +6238,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="B86" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="C86" t="s">
         <v>236</v>
@@ -6249,10 +6258,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="B87" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="C87" t="s">
         <v>236</v>
@@ -6269,10 +6278,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="B88" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="C88" t="s">
         <v>236</v>
@@ -6289,10 +6298,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="B89" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="C89" t="s">
         <v>236</v>
@@ -6309,10 +6318,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="B90" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="C90" t="s">
         <v>236</v>
@@ -6329,10 +6338,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B91" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C91" t="s">
         <v>236</v>
@@ -6349,10 +6358,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B92" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C92" t="s">
         <v>236</v>
@@ -6369,10 +6378,10 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B93" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C93" t="s">
         <v>236</v>
@@ -6389,10 +6398,10 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B94" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C94" t="s">
         <v>236</v>
@@ -6409,10 +6418,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="B95" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
       <c r="C95" t="s">
         <v>236</v>
@@ -6446,10 +6455,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
       <c r="B97" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="C97" t="s">
         <v>236</v>
@@ -6466,10 +6475,10 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="B98" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="C98" t="s">
         <v>236</v>
@@ -6486,10 +6495,10 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="B99" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="C99" t="s">
         <v>236</v>
@@ -6506,10 +6515,10 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="B100" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="C100" t="s">
         <v>236</v>
@@ -6526,10 +6535,10 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B101" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="C101" t="s">
         <v>236</v>
@@ -6546,10 +6555,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="B102" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="C102" t="s">
         <v>236</v>
@@ -6566,10 +6575,10 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="B103" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="C103" t="s">
         <v>236</v>
@@ -6586,10 +6595,10 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="B104" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="C104" t="s">
         <v>236</v>
@@ -6606,10 +6615,10 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B105" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C105" t="s">
         <v>236</v>
@@ -6626,10 +6635,10 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="B106" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="C106" t="s">
         <v>236</v>
@@ -6646,10 +6655,10 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="B107" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="C107" t="s">
         <v>236</v>
@@ -6666,10 +6675,10 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>307</v>
+      </c>
+      <c r="B108" t="s">
         <v>308</v>
-      </c>
-      <c r="B108" t="s">
-        <v>309</v>
       </c>
       <c r="C108" t="s">
         <v>236</v>
@@ -6686,10 +6695,10 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>309</v>
+      </c>
+      <c r="B109" t="s">
         <v>310</v>
-      </c>
-      <c r="B109" t="s">
-        <v>311</v>
       </c>
       <c r="C109" t="s">
         <v>236</v>
@@ -6706,10 +6715,10 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="B110" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="C110" t="s">
         <v>236</v>
@@ -6726,10 +6735,10 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="B111" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="C111" t="s">
         <v>236</v>
@@ -6746,10 +6755,10 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B112" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C112" t="s">
         <v>236</v>
@@ -6766,10 +6775,10 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="B113" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="C113" t="s">
         <v>236</v>
@@ -6786,10 +6795,10 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="B114" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="C114" t="s">
         <v>236</v>
@@ -6860,7 +6869,7 @@
         <v>112</v>
       </c>
       <c r="B118" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="C118" t="s">
         <v>236</v>
@@ -6911,10 +6920,10 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="B121" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="C121" t="s">
         <v>236</v>
@@ -6951,10 +6960,10 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="B123" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="C123" t="s">
         <v>236</v>
@@ -6971,10 +6980,10 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="B124" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="C124" t="s">
         <v>236</v>
@@ -6991,10 +7000,10 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B125" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C125" t="s">
         <v>236</v>
@@ -7011,10 +7020,10 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B126" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="C126" t="s">
         <v>236</v>
@@ -7031,10 +7040,10 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="B127" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="C127" t="s">
         <v>236</v>
@@ -7051,10 +7060,10 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="B128" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C128" t="s">
         <v>236</v>
@@ -7071,10 +7080,10 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B129" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C129" t="s">
         <v>236</v>
@@ -7091,10 +7100,10 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="B130" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="C130" t="s">
         <v>236</v>
@@ -7111,10 +7120,10 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="B131" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="C131" t="s">
         <v>236</v>
@@ -7131,10 +7140,10 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
       <c r="B132" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
       <c r="C132" t="s">
         <v>236</v>
@@ -7171,7 +7180,7 @@
         <v>116</v>
       </c>
       <c r="B134" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C134" t="s">
         <v>236</v>
@@ -7222,10 +7231,10 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B137" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C137" t="s">
         <v>236</v>
@@ -7242,10 +7251,10 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="B138" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C138" t="s">
         <v>236</v>
@@ -7279,10 +7288,10 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B140" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C140" t="s">
         <v>236</v>
@@ -7299,10 +7308,10 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="B141" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="C141" t="s">
         <v>236</v>
@@ -7319,10 +7328,10 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="B142" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="C142" t="s">
         <v>236</v>
@@ -7339,10 +7348,10 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B143" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C143" t="s">
         <v>236</v>
@@ -7359,10 +7368,10 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B144" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C144" t="s">
         <v>236</v>
@@ -7379,10 +7388,10 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="B145" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="C145" t="s">
         <v>236</v>
@@ -7399,10 +7408,10 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="B146" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="C146" t="s">
         <v>236</v>
@@ -7419,10 +7428,10 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="B147" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="C147" t="s">
         <v>236</v>
@@ -7439,10 +7448,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="B148" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="C148" t="s">
         <v>236</v>
@@ -7459,10 +7468,10 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="B149" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C149" t="s">
         <v>236</v>
@@ -7479,10 +7488,10 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="B150" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="C150" t="s">
         <v>236</v>
@@ -7499,10 +7508,10 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="B151" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="C151" t="s">
         <v>236</v>
@@ -7519,10 +7528,10 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="B152" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="C152" t="s">
         <v>236</v>
@@ -7539,10 +7548,10 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="B153" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="C153" t="s">
         <v>236</v>
@@ -7559,10 +7568,10 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
       <c r="B154" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
       <c r="C154" t="s">
         <v>236</v>
@@ -7579,10 +7588,10 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="B155" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="C155" t="s">
         <v>236</v>
@@ -7599,7 +7608,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="C156" t="s">
         <v>236</v>
@@ -7616,10 +7625,10 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="B157" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="C157" t="s">
         <v>236</v>
@@ -7670,10 +7679,10 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B160" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C160" t="s">
         <v>236</v>
@@ -7690,10 +7699,10 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="B161" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="C161" t="s">
         <v>236</v>
@@ -7710,10 +7719,10 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B162" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C162" t="s">
         <v>236</v>
@@ -7730,10 +7739,10 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="B163" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="C163" t="s">
         <v>236</v>
@@ -7750,10 +7759,10 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B164" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C164" t="s">
         <v>236</v>
@@ -7787,10 +7796,10 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B166" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C166" t="s">
         <v>236</v>
@@ -7807,10 +7816,10 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="B167" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
       <c r="C167" t="s">
         <v>236</v>
@@ -7827,10 +7836,10 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B168" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C168" t="s">
         <v>236</v>
@@ -7847,10 +7856,10 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="B169" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="C169" t="s">
         <v>236</v>
@@ -7887,10 +7896,10 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B171" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C171" t="s">
         <v>236</v>
@@ -7907,10 +7916,10 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B172" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C172" t="s">
         <v>236</v>
@@ -7927,10 +7936,10 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B173" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C173" t="s">
         <v>236</v>
@@ -7947,10 +7956,10 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="B174" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C174" t="s">
         <v>236</v>
@@ -7967,10 +7976,10 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="B175" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="C175" t="s">
         <v>236</v>
@@ -7987,10 +7996,10 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="B176" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="C176" t="s">
         <v>236</v>
@@ -8007,10 +8016,10 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="B177" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
       <c r="C177" t="s">
         <v>236</v>
@@ -8027,10 +8036,10 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
       <c r="B178" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="C178" t="s">
         <v>236</v>
@@ -8047,10 +8056,10 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B179" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C179" t="s">
         <v>236</v>
@@ -8067,10 +8076,10 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="B180" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="C180" t="s">
         <v>236</v>
@@ -8107,10 +8116,10 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B182" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C182" t="s">
         <v>236</v>
@@ -8127,10 +8136,10 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="B183" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="C183" t="s">
         <v>236</v>
@@ -8167,10 +8176,10 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
       <c r="B185" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="C185" t="s">
         <v>236</v>
@@ -8187,10 +8196,10 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B186" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C186" t="s">
         <v>236</v>
@@ -8207,10 +8216,10 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B187" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C187" t="s">
         <v>236</v>
@@ -8227,10 +8236,10 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B188" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C188" t="s">
         <v>236</v>
@@ -8247,10 +8256,10 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="B189" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="C189" t="s">
         <v>236</v>
@@ -8267,10 +8276,10 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="B190" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="C190" t="s">
         <v>236</v>
@@ -8287,10 +8296,10 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="B191" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="C191" t="s">
         <v>236</v>
@@ -8307,10 +8316,10 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B192" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C192" t="s">
         <v>236</v>
@@ -8327,10 +8336,10 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="B193" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="C193" t="s">
         <v>236</v>
@@ -8347,10 +8356,10 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B194" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C194" t="s">
         <v>236</v>
@@ -8367,10 +8376,10 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B195" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C195" t="s">
         <v>236</v>
@@ -8421,10 +8430,10 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="B198" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="C198" t="s">
         <v>236</v>
@@ -8469,10 +8478,10 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="B201" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="C201" t="s">
         <v>236</v>
@@ -8526,10 +8535,10 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="B204" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C204" t="s">
         <v>236</v>
@@ -8546,10 +8555,10 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="B205" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
       <c r="C205" t="s">
         <v>236</v>
@@ -8634,10 +8643,10 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="B210" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="C210" t="s">
         <v>236</v>
@@ -8654,10 +8663,10 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="B211" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="C211" t="s">
         <v>236</v>
@@ -8691,10 +8700,10 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="B213" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="C213" t="s">
         <v>236</v>
@@ -8711,10 +8720,10 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="B214" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="C214" t="s">
         <v>236</v>
@@ -8731,10 +8740,10 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B215" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C215" t="s">
         <v>236</v>
@@ -8751,10 +8760,10 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="B216" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="C216" t="s">
         <v>236</v>
@@ -8771,10 +8780,10 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="B217" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="C217" t="s">
         <v>236</v>
@@ -8791,10 +8800,10 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="B218" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="C218" t="s">
         <v>236</v>
@@ -8811,10 +8820,10 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="B219" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="C219" t="s">
         <v>236</v>
@@ -8865,10 +8874,10 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B222" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C222" t="s">
         <v>236</v>
@@ -8885,10 +8894,10 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="B223" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="C223" t="s">
         <v>236</v>
@@ -8905,7 +8914,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="C224" t="s">
         <v>236</v>
@@ -8922,10 +8931,10 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B225" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C225" t="s">
         <v>236</v>
@@ -8962,10 +8971,10 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B227" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C227" t="s">
         <v>236</v>
@@ -8982,10 +8991,10 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="B228" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="C228" t="s">
         <v>236</v>
@@ -9022,10 +9031,10 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B230" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C230" t="s">
         <v>236</v>
@@ -9042,10 +9051,10 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B231" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C231" t="s">
         <v>236</v>
@@ -9062,10 +9071,10 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
       <c r="B232" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="C232" t="s">
         <v>236</v>
@@ -9082,10 +9091,10 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="B233" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="C233" t="s">
         <v>236</v>
@@ -9119,10 +9128,10 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B235" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C235" t="s">
         <v>236</v>
@@ -9139,10 +9148,10 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B236" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="C236" t="s">
         <v>236</v>
@@ -9159,10 +9168,10 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="B237" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="C237" t="s">
         <v>236</v>
@@ -9179,10 +9188,10 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="B238" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="C238" t="s">
         <v>236</v>
@@ -9216,10 +9225,10 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B240" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C240" t="s">
         <v>236</v>
@@ -9236,10 +9245,10 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B241" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="C241" t="s">
         <v>236</v>
@@ -9336,7 +9345,7 @@
         <v>192</v>
       </c>
       <c r="B246" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C246" t="s">
         <v>236</v>
@@ -9390,10 +9399,10 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
       <c r="B249" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
       <c r="C249" t="s">
         <v>236</v>
@@ -9410,10 +9419,10 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
       <c r="B250" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
       <c r="C250" t="s">
         <v>236</v>
@@ -9430,10 +9439,10 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="B251" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C251" t="s">
         <v>236</v>
@@ -9450,10 +9459,10 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B252" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C252" t="s">
         <v>236</v>
@@ -9470,10 +9479,10 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="B253" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="C253" t="s">
         <v>236</v>
@@ -9527,10 +9536,10 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B256" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C256" t="s">
         <v>236</v>
@@ -9547,10 +9556,10 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B257" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C257" t="s">
         <v>236</v>
@@ -9567,10 +9576,10 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B258" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C258" t="s">
         <v>236</v>
@@ -9587,10 +9596,10 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B259" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C259" t="s">
         <v>236</v>
@@ -9607,10 +9616,10 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B260" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C260" t="s">
         <v>236</v>
@@ -9627,10 +9636,10 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B261" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C261" t="s">
         <v>236</v>
@@ -9647,10 +9656,10 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B262" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C262" t="s">
         <v>236</v>
@@ -9667,10 +9676,10 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="B263" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="C263" t="s">
         <v>236</v>
@@ -9687,10 +9696,10 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B264" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C264" t="s">
         <v>236</v>
@@ -9707,10 +9716,10 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B265" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C265" t="s">
         <v>236</v>
@@ -9727,10 +9736,10 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B266" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C266" t="s">
         <v>236</v>
@@ -9747,10 +9756,10 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B267" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C267" t="s">
         <v>236</v>
@@ -9767,10 +9776,10 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B268" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C268" t="s">
         <v>236</v>
@@ -9787,10 +9796,10 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B269" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C269" t="s">
         <v>236</v>
@@ -9807,10 +9816,10 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B270" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C270" t="s">
         <v>236</v>
@@ -9827,10 +9836,10 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B271" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C271" t="s">
         <v>236</v>
@@ -9847,10 +9856,10 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B272" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C272" t="s">
         <v>236</v>
@@ -9867,10 +9876,10 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B273" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="C273" t="s">
         <v>236</v>
@@ -9887,10 +9896,10 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B274" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C274" t="s">
         <v>236</v>
@@ -9927,10 +9936,10 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="B276" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="C276" t="s">
         <v>236</v>
@@ -9947,10 +9956,10 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>1383</v>
+        <v>1377</v>
       </c>
       <c r="B277" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
       <c r="C277" t="s">
         <v>236</v>
@@ -9967,10 +9976,10 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B278" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C278" t="s">
         <v>236</v>
@@ -9987,10 +9996,10 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="B279" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="C279" t="s">
         <v>236</v>
@@ -10007,10 +10016,10 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="B280" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="C280" t="s">
         <v>236</v>
@@ -10027,10 +10036,10 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="B281" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="C281" t="s">
         <v>236</v>
@@ -10047,10 +10056,10 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="B282" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="C282" t="s">
         <v>236</v>
@@ -10067,10 +10076,10 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="B283" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="C283" t="s">
         <v>236</v>
@@ -10087,10 +10096,10 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="B284" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="C284" t="s">
         <v>236</v>
@@ -10107,10 +10116,10 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="B285" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="C285" t="s">
         <v>236</v>
@@ -10147,10 +10156,10 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B287" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C287" t="s">
         <v>236</v>
@@ -10167,10 +10176,10 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B288" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C288" t="s">
         <v>236</v>
@@ -10187,10 +10196,10 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B289" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="C289" t="s">
         <v>236</v>
@@ -10207,10 +10216,10 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="B290" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="C290" t="s">
         <v>236</v>
@@ -10227,10 +10236,10 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B291" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C291" t="s">
         <v>236</v>
@@ -10247,10 +10256,10 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B292" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="C292" t="s">
         <v>236</v>
@@ -10287,10 +10296,10 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="B294" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="C294" t="s">
         <v>236</v>
@@ -10307,10 +10316,10 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B295" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C295" t="s">
         <v>236</v>
@@ -10327,10 +10336,10 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B296" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C296" t="s">
         <v>236</v>
@@ -10347,10 +10356,10 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="B297" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="C297" t="s">
         <v>236</v>
@@ -10367,10 +10376,10 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B298" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C298" t="s">
         <v>236</v>
@@ -10387,10 +10396,10 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
       <c r="B299" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="C299" t="s">
         <v>236</v>
@@ -10424,10 +10433,10 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="B301" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
       <c r="C301" t="s">
         <v>236</v>
@@ -10444,10 +10453,10 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="B302" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="C302" t="s">
         <v>236</v>
@@ -10464,10 +10473,10 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B303" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="C303" t="s">
         <v>236</v>
@@ -10484,10 +10493,10 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B304" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C304" t="s">
         <v>236</v>
@@ -10504,10 +10513,10 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B305" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C305" t="s">
         <v>236</v>
@@ -10541,10 +10550,10 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="B307" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="C307" t="s">
         <v>236</v>
@@ -10561,10 +10570,10 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="B308" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="C308" t="s">
         <v>236</v>
@@ -10601,10 +10610,10 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="B310" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="C310" t="s">
         <v>236</v>
@@ -10641,10 +10650,10 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B312" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C312" t="s">
         <v>236</v>
@@ -10661,10 +10670,10 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
       <c r="B313" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="C313" t="s">
         <v>236</v>
@@ -10681,10 +10690,10 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="B314" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="C314" t="s">
         <v>236</v>
@@ -10701,10 +10710,10 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="B315" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="C315" t="s">
         <v>236</v>
@@ -10721,10 +10730,10 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="B316" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="C316" t="s">
         <v>236</v>
@@ -10758,10 +10767,10 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="B318" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="C318" t="s">
         <v>236</v>
@@ -10778,10 +10787,10 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="B319" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="C319" t="s">
         <v>236</v>
@@ -10798,10 +10807,10 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B320" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C320" t="s">
         <v>236</v>
@@ -10818,10 +10827,10 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B321" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C321" t="s">
         <v>236</v>
@@ -10838,10 +10847,10 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="B322" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="C322" t="s">
         <v>236</v>
@@ -10858,10 +10867,10 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B323" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C323" t="s">
         <v>236</v>
@@ -10878,7 +10887,7 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C324" t="s">
         <v>236</v>
@@ -10895,10 +10904,10 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="B325" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="C325" t="s">
         <v>236</v>
@@ -10915,7 +10924,7 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C326" t="s">
         <v>236</v>
@@ -10932,10 +10941,10 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B327" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C327" t="s">
         <v>236</v>
@@ -10952,10 +10961,10 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B328" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C328" t="s">
         <v>236</v>
@@ -10972,10 +10981,10 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B329" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C329" t="s">
         <v>236</v>
@@ -10992,10 +11001,10 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B330" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C330" t="s">
         <v>236</v>
@@ -11052,10 +11061,10 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="B333" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="C333" t="s">
         <v>236</v>
@@ -11072,10 +11081,10 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B334" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C334" t="s">
         <v>236</v>
@@ -11092,10 +11101,10 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="B335" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="C335" t="s">
         <v>236</v>
@@ -11112,10 +11121,10 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="B336" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="C336" t="s">
         <v>236</v>
@@ -11149,10 +11158,10 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="B338" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="C338" t="s">
         <v>236</v>
@@ -11169,10 +11178,10 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B339" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C339" t="s">
         <v>236</v>
@@ -11189,10 +11198,10 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B340" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C340" t="s">
         <v>236</v>
@@ -11209,10 +11218,10 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="B341" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="C341" t="s">
         <v>236</v>
@@ -11249,10 +11258,10 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B343" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C343" t="s">
         <v>236</v>
@@ -11269,10 +11278,10 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="B344" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="C344" t="s">
         <v>236</v>
@@ -11289,10 +11298,10 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="B345" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="C345" t="s">
         <v>236</v>
@@ -11309,10 +11318,10 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B346" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C346" t="s">
         <v>236</v>
@@ -11329,10 +11338,10 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="B347" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="C347" t="s">
         <v>236</v>
@@ -11349,10 +11358,10 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B348" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C348" t="s">
         <v>236</v>
@@ -11403,10 +11412,10 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="B351" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="C351" t="s">
         <v>236</v>
@@ -11474,10 +11483,10 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="B355" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="C355" t="s">
         <v>236</v>
@@ -11494,10 +11503,10 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="B356" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C356" t="s">
         <v>236</v>
@@ -11514,10 +11523,10 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="B357" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="C357" t="s">
         <v>236</v>
@@ -11551,10 +11560,10 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="B359" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="C359" t="s">
         <v>236</v>
@@ -11588,10 +11597,10 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B361" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="C361" t="s">
         <v>236</v>
@@ -11608,10 +11617,10 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B362" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C362" t="s">
         <v>236</v>
@@ -11662,10 +11671,10 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="B365" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="C365" t="s">
         <v>236</v>
@@ -11682,10 +11691,10 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B366" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C366" t="s">
         <v>236</v>
@@ -11736,10 +11745,10 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B369" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C369" t="s">
         <v>236</v>
@@ -11756,10 +11765,10 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
       <c r="B370" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
       <c r="C370" t="s">
         <v>236</v>
@@ -11776,10 +11785,10 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="B371" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="C371" t="s">
         <v>236</v>
@@ -11796,10 +11805,10 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B372" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C372" t="s">
         <v>236</v>
@@ -11816,10 +11825,10 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
       <c r="B373" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
       <c r="C373" t="s">
         <v>236</v>
@@ -11836,10 +11845,10 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="B374" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="C374" t="s">
         <v>236</v>
@@ -11876,7 +11885,7 @@
         <v>22</v>
       </c>
       <c r="B376" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C376" t="s">
         <v>236</v>
@@ -11910,10 +11919,10 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="B378" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="C378" t="s">
         <v>236</v>
@@ -11930,10 +11939,10 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="B379" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="C379" t="s">
         <v>236</v>
@@ -11950,10 +11959,10 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="B380" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C380" t="s">
         <v>236</v>
@@ -11970,10 +11979,10 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="B381" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="C381" t="s">
         <v>236</v>
@@ -11990,10 +11999,10 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B382" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C382" t="s">
         <v>236</v>
@@ -12010,10 +12019,10 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="B383" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="C383" t="s">
         <v>236</v>
@@ -12030,10 +12039,10 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="B384" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="C384" t="s">
         <v>236</v>
@@ -12050,10 +12059,10 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="B385" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="C385" t="s">
         <v>236</v>
@@ -12070,10 +12079,10 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="B386" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="C386" t="s">
         <v>236</v>
@@ -12090,10 +12099,10 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="B387" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="C387" t="s">
         <v>236</v>
@@ -12110,10 +12119,10 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="B388" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="C388" t="s">
         <v>236</v>
@@ -12130,10 +12139,10 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="B389" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="C389" t="s">
         <v>236</v>
@@ -12150,7 +12159,7 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C390" t="s">
         <v>236</v>
@@ -12167,10 +12176,10 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="B391" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="C391" t="s">
         <v>236</v>
@@ -12187,10 +12196,10 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="B392" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="C392" t="s">
         <v>236</v>
@@ -12207,10 +12216,10 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="B393" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="C393" t="s">
         <v>236</v>
@@ -12227,10 +12236,10 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="B394" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="C394" t="s">
         <v>236</v>
@@ -12247,10 +12256,10 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="B395" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="C395" t="s">
         <v>236</v>
@@ -12267,7 +12276,7 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="C396" t="s">
         <v>236</v>
@@ -12284,7 +12293,7 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C397" t="s">
         <v>236</v>
@@ -12301,10 +12310,10 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="B398" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C398" t="s">
         <v>236</v>
@@ -12321,10 +12330,10 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="B399" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C399" t="s">
         <v>236</v>
@@ -12341,10 +12350,10 @@
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="B400" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="C400" t="s">
         <v>236</v>
@@ -12361,10 +12370,10 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="B401" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="C401" t="s">
         <v>236</v>
@@ -12381,10 +12390,10 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="B402" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="C402" t="s">
         <v>236</v>
@@ -12401,10 +12410,10 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="B403" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="C403" t="s">
         <v>236</v>
@@ -12421,10 +12430,10 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
       <c r="B404" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
       <c r="C404" t="s">
         <v>236</v>
@@ -12441,10 +12450,10 @@
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B405" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C405" t="s">
         <v>236</v>
@@ -12478,10 +12487,10 @@
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="B407" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="C407" t="s">
         <v>236</v>
@@ -12498,10 +12507,10 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="B408" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="C408" t="s">
         <v>236</v>
@@ -12527,7 +12536,7 @@
         <v>231</v>
       </c>
       <c r="D409" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
       <c r="E409" t="s">
         <v>232</v>
@@ -12555,10 +12564,10 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="B411" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="C411" t="s">
         <v>236</v>
@@ -12575,10 +12584,10 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="B412" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="C412" t="s">
         <v>236</v>
@@ -12595,10 +12604,10 @@
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="B413" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="C413" t="s">
         <v>236</v>
@@ -12615,10 +12624,10 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="B414" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="C414" t="s">
         <v>236</v>
@@ -12635,10 +12644,10 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="B415" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="C415" t="s">
         <v>236</v>
@@ -12672,10 +12681,10 @@
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B417" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C417" t="s">
         <v>236</v>
@@ -12709,10 +12718,10 @@
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B419" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C419" t="s">
         <v>236</v>
@@ -12729,10 +12738,10 @@
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="B420" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="C420" t="s">
         <v>236</v>
@@ -12749,10 +12758,10 @@
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B421" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C421" t="s">
         <v>236</v>
@@ -12789,10 +12798,10 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="B423" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="C423" t="s">
         <v>236</v>
@@ -12809,10 +12818,10 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="B424" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="C424" t="s">
         <v>236</v>
@@ -12829,10 +12838,10 @@
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B425" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C425" t="s">
         <v>236</v>
@@ -12849,10 +12858,10 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
       <c r="B426" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="C426" t="s">
         <v>236</v>
@@ -12869,10 +12878,10 @@
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B427" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C427" t="s">
         <v>236</v>
@@ -12889,10 +12898,10 @@
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="B428" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="C428" t="s">
         <v>236</v>
@@ -12926,10 +12935,10 @@
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B430" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C430" t="s">
         <v>236</v>
@@ -12946,10 +12955,10 @@
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="B431" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="C431" t="s">
         <v>236</v>
@@ -12983,10 +12992,10 @@
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B433" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C433" t="s">
         <v>236</v>
@@ -13003,10 +13012,10 @@
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="B434" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="C434" t="s">
         <v>236</v>
@@ -13023,10 +13032,10 @@
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B435" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C435" t="s">
         <v>236</v>
@@ -13060,10 +13069,10 @@
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B437" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C437" t="s">
         <v>236</v>
@@ -13080,10 +13089,10 @@
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B438" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C438" t="s">
         <v>236</v>
@@ -13117,7 +13126,7 @@
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B440" t="s">
         <v>152</v>
@@ -13137,10 +13146,10 @@
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="B441" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="C441" t="s">
         <v>236</v>
@@ -13174,10 +13183,10 @@
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="B443" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="C443" t="s">
         <v>236</v>
@@ -13194,10 +13203,10 @@
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B444" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C444" t="s">
         <v>236</v>
@@ -13214,10 +13223,10 @@
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B445" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C445" t="s">
         <v>236</v>
@@ -13251,10 +13260,10 @@
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="B447" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="C447" t="s">
         <v>236</v>
@@ -13288,10 +13297,10 @@
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="B449" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="C449" t="s">
         <v>236</v>
@@ -13308,10 +13317,10 @@
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B450" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="C450" t="s">
         <v>236</v>
@@ -13328,10 +13337,10 @@
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B451" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="C451" t="s">
         <v>236</v>
@@ -13348,10 +13357,10 @@
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B452" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C452" t="s">
         <v>236</v>
@@ -13368,10 +13377,10 @@
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B453" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C453" t="s">
         <v>236</v>
@@ -13388,10 +13397,10 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="B454" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="C454" t="s">
         <v>236</v>
@@ -13408,10 +13417,10 @@
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>1355</v>
+        <v>1349</v>
       </c>
       <c r="B455" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
       <c r="C455" t="s">
         <v>236</v>
@@ -13428,10 +13437,10 @@
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="B456" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="C456" t="s">
         <v>236</v>
@@ -13448,10 +13457,10 @@
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B457" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C457" t="s">
         <v>236</v>
@@ -13468,10 +13477,10 @@
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="B458" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="C458" t="s">
         <v>236</v>
@@ -13488,10 +13497,10 @@
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B459" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C459" t="s">
         <v>236</v>
@@ -13508,10 +13517,10 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
       <c r="B460" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
       <c r="C460" t="s">
         <v>236</v>
@@ -13545,10 +13554,10 @@
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B462" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C462" t="s">
         <v>236</v>
@@ -13565,10 +13574,10 @@
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B463" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C463" t="s">
         <v>236</v>
@@ -13585,10 +13594,10 @@
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B464" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C464" t="s">
         <v>236</v>
@@ -13625,10 +13634,10 @@
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B466" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C466" t="s">
         <v>236</v>
@@ -13662,10 +13671,10 @@
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="B468" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C468" t="s">
         <v>236</v>
@@ -13682,10 +13691,10 @@
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="B469" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="C469" t="s">
         <v>236</v>
@@ -13702,10 +13711,10 @@
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B470" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C470" t="s">
         <v>236</v>
@@ -13722,10 +13731,10 @@
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B471" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="C471" t="s">
         <v>236</v>
@@ -13742,10 +13751,10 @@
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="B472" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="C472" t="s">
         <v>236</v>
@@ -13762,10 +13771,10 @@
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>312</v>
+        <v>1388</v>
       </c>
       <c r="B473" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C473" t="s">
         <v>236</v>
@@ -13782,10 +13791,10 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>330</v>
+        <v>1389</v>
       </c>
       <c r="B474" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C474" t="s">
         <v>236</v>
@@ -13802,10 +13811,10 @@
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1183</v>
+        <v>1387</v>
       </c>
       <c r="B475" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="C475" t="s">
         <v>236</v>
@@ -13822,10 +13831,10 @@
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>390</v>
+        <v>1390</v>
       </c>
       <c r="B476" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C476" t="s">
         <v>236</v>
@@ -13842,10 +13851,10 @@
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B477" t="s">
         <v>306</v>
-      </c>
-      <c r="B477" t="s">
-        <v>307</v>
       </c>
       <c r="C477" t="s">
         <v>236</v>
@@ -13862,10 +13871,10 @@
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>1111</v>
+        <v>1392</v>
       </c>
       <c r="B478" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="C478" t="s">
         <v>236</v>
@@ -13881,11 +13890,11 @@
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A479" t="s">
-        <v>573</v>
+      <c r="A479" s="2" t="s">
+        <v>569</v>
       </c>
       <c r="B479" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C479" t="s">
         <v>236</v>
@@ -13902,10 +13911,10 @@
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B480" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C480" t="s">
         <v>236</v>
@@ -13922,10 +13931,10 @@
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="B481" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="C481" t="s">
         <v>236</v>
@@ -13942,10 +13951,10 @@
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B482" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C482" t="s">
         <v>236</v>
@@ -13962,10 +13971,10 @@
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B483" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C483" t="s">
         <v>236</v>
@@ -13982,10 +13991,10 @@
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B484" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C484" t="s">
         <v>236</v>
@@ -14002,10 +14011,10 @@
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="B485" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="C485" t="s">
         <v>236</v>
@@ -14022,10 +14031,10 @@
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="B486" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="C486" t="s">
         <v>236</v>
@@ -14042,10 +14051,10 @@
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B487" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C487" t="s">
         <v>236</v>
@@ -14062,10 +14071,10 @@
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="B488" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="C488" t="s">
         <v>236</v>
@@ -14082,10 +14091,10 @@
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="B489" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="C489" t="s">
         <v>236</v>
@@ -14122,10 +14131,10 @@
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B491" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C491" t="s">
         <v>236</v>
@@ -14142,10 +14151,10 @@
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B492" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C492" t="s">
         <v>236</v>
@@ -14162,10 +14171,10 @@
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
       <c r="B493" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
       <c r="C493" t="s">
         <v>236</v>
@@ -14182,10 +14191,10 @@
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="B494" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="C494" t="s">
         <v>236</v>
@@ -14202,10 +14211,10 @@
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B495" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C495" t="s">
         <v>236</v>
@@ -14222,10 +14231,10 @@
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="B496" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="C496" t="s">
         <v>236</v>
@@ -14242,10 +14251,10 @@
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B497" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C497" t="s">
         <v>236</v>
@@ -14302,7 +14311,7 @@
         <v>44</v>
       </c>
       <c r="B500" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C500" t="s">
         <v>236</v>
@@ -14319,10 +14328,10 @@
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="B501" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
       <c r="C501" t="s">
         <v>236</v>
@@ -14339,10 +14348,10 @@
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B502" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C502" t="s">
         <v>236</v>
@@ -14413,10 +14422,10 @@
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B506" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C506" t="s">
         <v>236</v>
@@ -14433,10 +14442,10 @@
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="B507" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="C507" t="s">
         <v>236</v>
@@ -14453,10 +14462,10 @@
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="B508" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="C508" t="s">
         <v>236</v>
@@ -14473,10 +14482,10 @@
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="B509" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="C509" t="s">
         <v>236</v>
@@ -14493,10 +14502,10 @@
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="B510" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="C510" t="s">
         <v>236</v>
@@ -14513,10 +14522,10 @@
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="B511" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="C511" t="s">
         <v>236</v>
@@ -14533,10 +14542,10 @@
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B512" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C512" t="s">
         <v>236</v>
@@ -14570,10 +14579,10 @@
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="B514" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
       <c r="C514" t="s">
         <v>236</v>
@@ -14590,10 +14599,10 @@
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="B515" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C515" t="s">
         <v>236</v>
@@ -14610,10 +14619,10 @@
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="B516" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="C516" t="s">
         <v>236</v>
@@ -14630,10 +14639,10 @@
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="B517" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="C517" t="s">
         <v>236</v>
@@ -14667,10 +14676,10 @@
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B519" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C519" t="s">
         <v>236</v>
@@ -14704,10 +14713,10 @@
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B521" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C521" t="s">
         <v>236</v>
@@ -14724,10 +14733,10 @@
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B522" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C522" t="s">
         <v>236</v>
@@ -14744,10 +14753,10 @@
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="B523" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="C523" t="s">
         <v>236</v>
@@ -14764,10 +14773,10 @@
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="B524" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="C524" t="s">
         <v>236</v>
@@ -14784,10 +14793,10 @@
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="B525" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="C525" t="s">
         <v>236</v>
@@ -14804,10 +14813,10 @@
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B526" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C526" t="s">
         <v>236</v>
@@ -14824,10 +14833,10 @@
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="B527" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="C527" t="s">
         <v>236</v>
@@ -14844,10 +14853,10 @@
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="B528" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="C528" t="s">
         <v>236</v>
@@ -14864,10 +14873,10 @@
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="B529" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="C529" t="s">
         <v>236</v>
@@ -14884,10 +14893,10 @@
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="B530" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="C530" t="s">
         <v>236</v>
@@ -14924,10 +14933,10 @@
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="B532" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="C532" t="s">
         <v>236</v>
@@ -14944,10 +14953,10 @@
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="B533" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="C533" t="s">
         <v>236</v>
@@ -14964,10 +14973,10 @@
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="B534" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="C534" t="s">
         <v>236</v>
@@ -15018,10 +15027,10 @@
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B537" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C537" t="s">
         <v>236</v>
@@ -15038,10 +15047,10 @@
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B538" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C538" t="s">
         <v>236</v>
@@ -15058,10 +15067,10 @@
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="B539" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="C539" t="s">
         <v>236</v>
@@ -15078,10 +15087,10 @@
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B540" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C540" t="s">
         <v>236</v>
@@ -15098,10 +15107,10 @@
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
       <c r="B541" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
       <c r="C541" t="s">
         <v>236</v>
@@ -15118,10 +15127,10 @@
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="B542" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="C542" t="s">
         <v>236</v>
@@ -15138,10 +15147,10 @@
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="B543" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="C543" t="s">
         <v>236</v>
@@ -15158,10 +15167,10 @@
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="B544" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="C544" t="s">
         <v>236</v>
@@ -15178,10 +15187,10 @@
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="B545" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="C545" t="s">
         <v>236</v>
@@ -15198,10 +15207,10 @@
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="B546" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="C546" t="s">
         <v>236</v>
@@ -15218,10 +15227,10 @@
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="B547" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C547" t="s">
         <v>236</v>
@@ -15238,10 +15247,10 @@
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B548" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C548" t="s">
         <v>236</v>
@@ -15258,10 +15267,10 @@
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B549" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C549" t="s">
         <v>236</v>
@@ -15278,10 +15287,10 @@
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="B550" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="C550" t="s">
         <v>236</v>
@@ -15298,7 +15307,7 @@
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C551" t="s">
         <v>236</v>
@@ -15315,10 +15324,10 @@
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
       <c r="B552" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="C552" t="s">
         <v>236</v>
@@ -15335,10 +15344,10 @@
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B553" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C553" t="s">
         <v>236</v>
@@ -15355,10 +15364,10 @@
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B554" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C554" t="s">
         <v>236</v>
@@ -15375,10 +15384,10 @@
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="B555" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="C555" t="s">
         <v>236</v>
@@ -15395,10 +15404,10 @@
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="B556" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="C556" t="s">
         <v>236</v>
@@ -15415,10 +15424,10 @@
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
       <c r="B557" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="C557" t="s">
         <v>236</v>
@@ -15503,10 +15512,10 @@
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B562" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C562" t="s">
         <v>236</v>
@@ -15523,10 +15532,10 @@
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B563" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C563" t="s">
         <v>236</v>
@@ -15543,10 +15552,10 @@
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B564" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C564" t="s">
         <v>236</v>
@@ -15563,10 +15572,10 @@
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="B565" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="C565" t="s">
         <v>236</v>
@@ -15583,10 +15592,10 @@
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="B566" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="C566" t="s">
         <v>236</v>
@@ -15603,10 +15612,10 @@
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="B567" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="C567" t="s">
         <v>236</v>
@@ -15623,10 +15632,10 @@
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B568" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C568" t="s">
         <v>236</v>
@@ -15643,10 +15652,10 @@
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B569" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C569" t="s">
         <v>236</v>
@@ -15663,10 +15672,10 @@
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="B570" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="C570" t="s">
         <v>236</v>
@@ -15683,10 +15692,10 @@
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B571" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C571" t="s">
         <v>236</v>
@@ -15703,10 +15712,10 @@
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B572" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C572" t="s">
         <v>236</v>
@@ -15723,10 +15732,10 @@
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="B573" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="C573" t="s">
         <v>236</v>
@@ -15743,10 +15752,10 @@
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B574" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C574" t="s">
         <v>236</v>
@@ -15763,10 +15772,10 @@
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B575" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C575" t="s">
         <v>236</v>
@@ -15783,10 +15792,10 @@
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="B576" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="C576" t="s">
         <v>236</v>
@@ -15823,10 +15832,10 @@
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="B578" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
       <c r="C578" t="s">
         <v>236</v>
@@ -15843,10 +15852,10 @@
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="B579" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="C579" t="s">
         <v>236</v>
@@ -15863,10 +15872,10 @@
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B580" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C580" t="s">
         <v>236</v>
@@ -15883,10 +15892,10 @@
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="B581" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="C581" t="s">
         <v>236</v>
@@ -15903,10 +15912,10 @@
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
       <c r="B582" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="C582" t="s">
         <v>236</v>
@@ -15923,10 +15932,10 @@
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B583" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C583" t="s">
         <v>236</v>
@@ -15943,10 +15952,10 @@
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="B584" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="C584" t="s">
         <v>236</v>
@@ -15963,10 +15972,10 @@
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B585" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C585" t="s">
         <v>236</v>
@@ -15983,10 +15992,10 @@
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="B586" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="C586" t="s">
         <v>236</v>
@@ -16003,10 +16012,10 @@
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="B587" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="C587" t="s">
         <v>236</v>
@@ -16040,10 +16049,10 @@
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B589" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C589" t="s">
         <v>236</v>
@@ -16094,10 +16103,10 @@
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B592" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C592" t="s">
         <v>236</v>
@@ -16114,10 +16123,10 @@
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B593" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C593" t="s">
         <v>236</v>
@@ -16134,10 +16143,10 @@
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B594" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C594" t="s">
         <v>236</v>
@@ -16154,10 +16163,10 @@
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B595" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C595" t="s">
         <v>236</v>
@@ -16174,10 +16183,10 @@
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B596" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C596" t="s">
         <v>236</v>
@@ -16194,7 +16203,7 @@
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C597" t="s">
         <v>236</v>
@@ -16211,10 +16220,10 @@
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B598" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C598" t="s">
         <v>236</v>
@@ -16231,10 +16240,10 @@
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B599" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C599" t="s">
         <v>236</v>
@@ -16251,10 +16260,10 @@
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="B600" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="C600" t="s">
         <v>236</v>
@@ -16288,10 +16297,10 @@
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="B602" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="C602" t="s">
         <v>236</v>
@@ -16308,10 +16317,10 @@
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B603" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C603" t="s">
         <v>236</v>
@@ -16345,10 +16354,10 @@
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B605" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C605" t="s">
         <v>236</v>
@@ -16365,10 +16374,10 @@
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="B606" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="C606" t="s">
         <v>236</v>
@@ -16385,10 +16394,10 @@
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B607" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C607" t="s">
         <v>236</v>
@@ -16422,10 +16431,10 @@
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B609" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C609" t="s">
         <v>236</v>
@@ -16442,10 +16451,10 @@
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B610" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C610" t="s">
         <v>236</v>
@@ -16479,10 +16488,10 @@
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B612" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C612" t="s">
         <v>236</v>
@@ -16499,10 +16508,10 @@
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="B613" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="C613" t="s">
         <v>236</v>
@@ -16519,10 +16528,10 @@
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B614" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C614" t="s">
         <v>236</v>
@@ -16556,10 +16565,10 @@
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B616" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C616" t="s">
         <v>236</v>
@@ -16576,10 +16585,10 @@
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B617" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C617" t="s">
         <v>236</v>
@@ -16596,10 +16605,10 @@
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="B618" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C618" t="s">
         <v>236</v>
@@ -16616,10 +16625,10 @@
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
       <c r="B619" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="C619" t="s">
         <v>236</v>
@@ -16636,10 +16645,10 @@
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B620" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C620" t="s">
         <v>236</v>
@@ -16656,10 +16665,10 @@
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B621" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C621" t="s">
         <v>236</v>
@@ -16676,10 +16685,10 @@
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="B622" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="C622" t="s">
         <v>236</v>
@@ -16713,10 +16722,10 @@
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B624" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C624" t="s">
         <v>236</v>
@@ -16733,10 +16742,10 @@
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="B625" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="C625" t="s">
         <v>236</v>
@@ -16753,10 +16762,10 @@
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="B626" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="C626" t="s">
         <v>236</v>
@@ -16773,10 +16782,10 @@
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B627" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C627" t="s">
         <v>236</v>
@@ -16793,10 +16802,10 @@
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="B628" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="C628" t="s">
         <v>236</v>
@@ -16813,10 +16822,10 @@
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="B629" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="C629" t="s">
         <v>236</v>
@@ -16833,10 +16842,10 @@
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="B630" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="C630" t="s">
         <v>236</v>
@@ -16853,10 +16862,10 @@
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B631" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C631" t="s">
         <v>236</v>
@@ -16873,10 +16882,10 @@
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B632" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C632" t="s">
         <v>236</v>
@@ -16893,10 +16902,10 @@
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="B633" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="C633" t="s">
         <v>236</v>
@@ -16913,10 +16922,10 @@
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
       <c r="B634" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
       <c r="C634" t="s">
         <v>236</v>
@@ -16950,10 +16959,10 @@
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="B636" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="C636" t="s">
         <v>236</v>
@@ -16970,10 +16979,10 @@
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="B637" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="C637" t="s">
         <v>236</v>
@@ -16990,10 +16999,10 @@
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="B638" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="C638" t="s">
         <v>236</v>
@@ -17010,10 +17019,10 @@
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B639" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C639" t="s">
         <v>236</v>
@@ -17030,10 +17039,10 @@
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="B640" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="C640" t="s">
         <v>236</v>
@@ -17050,10 +17059,10 @@
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="B641" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
       <c r="C641" t="s">
         <v>236</v>
@@ -17070,10 +17079,10 @@
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="B642" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="C642" t="s">
         <v>236</v>
@@ -17090,10 +17099,10 @@
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="B643" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="C643" t="s">
         <v>236</v>
@@ -17110,7 +17119,7 @@
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="C644" t="s">
         <v>236</v>
@@ -17144,10 +17153,10 @@
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="B646" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="C646" t="s">
         <v>236</v>
@@ -17164,10 +17173,10 @@
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="B647" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="C647" t="s">
         <v>236</v>
@@ -17184,10 +17193,10 @@
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
       <c r="B648" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
       <c r="C648" t="s">
         <v>236</v>
@@ -17221,10 +17230,10 @@
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="B650" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="C650" t="s">
         <v>236</v>
@@ -17241,10 +17250,10 @@
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B651" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C651" t="s">
         <v>236</v>
@@ -17261,10 +17270,10 @@
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="B652" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="C652" t="s">
         <v>236</v>
@@ -17281,10 +17290,10 @@
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="B653" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="C653" t="s">
         <v>236</v>
@@ -17335,10 +17344,10 @@
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B656" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C656" t="s">
         <v>236</v>
@@ -17355,10 +17364,10 @@
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="B657" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="C657" t="s">
         <v>236</v>
@@ -17375,10 +17384,10 @@
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B658" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C658" t="s">
         <v>236</v>
@@ -17395,10 +17404,10 @@
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B659" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C659" t="s">
         <v>236</v>
@@ -17415,10 +17424,10 @@
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B660" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C660" t="s">
         <v>236</v>
@@ -17435,10 +17444,10 @@
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="B661" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="C661" t="s">
         <v>236</v>
@@ -17455,10 +17464,10 @@
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="B662" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="C662" t="s">
         <v>236</v>
@@ -17475,10 +17484,10 @@
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="B663" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="C663" t="s">
         <v>236</v>
@@ -17512,10 +17521,10 @@
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B665" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C665" t="s">
         <v>236</v>
@@ -17532,10 +17541,10 @@
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B666" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C666" t="s">
         <v>236</v>
@@ -17569,10 +17578,10 @@
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B668" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C668" t="s">
         <v>236</v>
@@ -17606,10 +17615,10 @@
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B670" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C670" t="s">
         <v>236</v>
@@ -17626,10 +17635,10 @@
     </row>
     <row r="671" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B671" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C671" t="s">
         <v>236</v>
@@ -17646,10 +17655,10 @@
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="B672" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="C672" t="s">
         <v>236</v>
@@ -17666,10 +17675,10 @@
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="B673" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="C673" t="s">
         <v>236</v>
@@ -17686,10 +17695,10 @@
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="B674" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="C674" t="s">
         <v>236</v>
@@ -17706,10 +17715,10 @@
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="B675" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="C675" t="s">
         <v>236</v>
@@ -17726,10 +17735,10 @@
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B676" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C676" t="s">
         <v>236</v>
@@ -17746,10 +17755,10 @@
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="B677" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="C677" t="s">
         <v>236</v>
@@ -17766,10 +17775,10 @@
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B678" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C678" t="s">
         <v>236</v>
@@ -17786,10 +17795,10 @@
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="B679" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="C679" t="s">
         <v>236</v>
@@ -17806,10 +17815,10 @@
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="B680" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="C680" t="s">
         <v>236</v>
@@ -17826,10 +17835,10 @@
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="B681" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="C681" t="s">
         <v>236</v>
@@ -17846,10 +17855,10 @@
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B682" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C682" t="s">
         <v>236</v>
@@ -17866,10 +17875,10 @@
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="B683" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="C683" t="s">
         <v>236</v>
@@ -17886,10 +17895,10 @@
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="B684" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="C684" t="s">
         <v>236</v>
@@ -17906,10 +17915,10 @@
     </row>
     <row r="685" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B685" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C685" t="s">
         <v>236</v>
@@ -17957,10 +17966,10 @@
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B688" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C688" t="s">
         <v>236</v>
@@ -17977,10 +17986,10 @@
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B689" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C689" t="s">
         <v>236</v>
@@ -18011,10 +18020,10 @@
     </row>
     <row r="691" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="B691" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="C691" t="s">
         <v>236</v>
@@ -18031,10 +18040,10 @@
     </row>
     <row r="692" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
       <c r="B692" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
       <c r="C692" t="s">
         <v>236</v>
@@ -18082,10 +18091,10 @@
     </row>
     <row r="695" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B695" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C695" t="s">
         <v>236</v>
@@ -18122,10 +18131,10 @@
     </row>
     <row r="697" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="B697" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="C697" t="s">
         <v>236</v>
@@ -18142,10 +18151,10 @@
     </row>
     <row r="698" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B698" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C698" t="s">
         <v>236</v>
@@ -18182,10 +18191,10 @@
     </row>
     <row r="700" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="B700" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="C700" t="s">
         <v>236</v>
@@ -18202,10 +18211,10 @@
     </row>
     <row r="701" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B701" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="C701" t="s">
         <v>236</v>
@@ -18222,10 +18231,10 @@
     </row>
     <row r="702" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="B702" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="C702" t="s">
         <v>236</v>
@@ -18242,10 +18251,10 @@
     </row>
     <row r="703" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="B703" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="C703" t="s">
         <v>236</v>
@@ -18262,10 +18271,10 @@
     </row>
     <row r="704" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
       <c r="B704" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
       <c r="C704" t="s">
         <v>236</v>
@@ -18282,10 +18291,10 @@
     </row>
     <row r="705" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B705" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="C705" t="s">
         <v>236</v>
@@ -18342,5 +18351,6 @@
     <hyperlink ref="B27" r:id="rId1" xr:uid="{2726AE12-75BD-43F3-877F-718C53B6A31E}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/jogos.xlsx
+++ b/jogos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\mycollections-cli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0741F484-7B33-40F0-87B5-DAC5D5A97C8E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680F8C90-BF13-4AC9-B486-43B8EB4E9234}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{0C35237A-6EB4-4B02-9651-931FED775CEC}"/>
   </bookViews>
@@ -3780,9 +3780,6 @@
     <t>Cortex Command</t>
   </si>
   <si>
-    <t>http://media.steampowered.com/steamcommunity/public/images/apps/209670/2976d0e44d338d1f6136d222d8b2a764a1dfee2e.jpg</t>
-  </si>
-  <si>
     <t>PRO EVOLUTION SOCCER 2019</t>
   </si>
   <si>
@@ -4216,6 +4213,9 @@
   </si>
   <si>
     <t>Zumas Revenge</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQgE2bxt4n_HZNKm5mUUHvG56ufWfAARPN5YghQRDHmLYdo-ktGpg</t>
   </si>
 </sst>
 </file>
@@ -4589,8 +4589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E073D1A-5126-4785-A652-5C66939BBDE3}">
   <dimension ref="A1:F707"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A685" workbookViewId="0">
-      <selection activeCell="B707" sqref="B707"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4624,10 +4624,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B2" t="s">
         <v>1299</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1300</v>
       </c>
       <c r="C2" t="s">
         <v>233</v>
@@ -4744,10 +4744,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B8" t="s">
         <v>1323</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1324</v>
       </c>
       <c r="C8" t="s">
         <v>233</v>
@@ -4764,10 +4764,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B9" t="s">
         <v>1288</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1289</v>
       </c>
       <c r="C9" t="s">
         <v>233</v>
@@ -4821,10 +4821,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B12" t="s">
         <v>1335</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1336</v>
       </c>
       <c r="C12" t="s">
         <v>233</v>
@@ -4918,10 +4918,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B17" t="s">
         <v>1367</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1368</v>
       </c>
       <c r="C17" t="s">
         <v>233</v>
@@ -5112,7 +5112,7 @@
         <v>121</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C27" t="s">
         <v>58</v>
@@ -5163,10 +5163,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B30" t="s">
         <v>1252</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1253</v>
       </c>
       <c r="C30" t="s">
         <v>233</v>
@@ -5263,7 +5263,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B35" t="s">
         <v>28</v>
@@ -5280,10 +5280,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B36" t="s">
         <v>1357</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1358</v>
       </c>
       <c r="C36" t="s">
         <v>233</v>
@@ -5562,10 +5562,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B51" t="s">
         <v>1319</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1320</v>
       </c>
       <c r="C51" t="s">
         <v>233</v>
@@ -5873,10 +5873,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B67" t="s">
         <v>1284</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1285</v>
       </c>
       <c r="C67" t="s">
         <v>233</v>
@@ -6167,10 +6167,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B82" t="s">
         <v>1309</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1310</v>
       </c>
       <c r="C82" t="s">
         <v>233</v>
@@ -6424,10 +6424,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B95" t="s">
         <v>1327</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1328</v>
       </c>
       <c r="C95" t="s">
         <v>233</v>
@@ -6461,10 +6461,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B97" t="s">
         <v>1268</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1269</v>
       </c>
       <c r="C97" t="s">
         <v>233</v>
@@ -6561,10 +6561,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B102" t="s">
         <v>1294</v>
-      </c>
-      <c r="B102" t="s">
-        <v>1295</v>
       </c>
       <c r="C102" t="s">
         <v>233</v>
@@ -6643,8 +6643,8 @@
       <c r="A106" t="s">
         <v>1248</v>
       </c>
-      <c r="B106" t="s">
-        <v>1249</v>
+      <c r="B106" s="1" t="s">
+        <v>1394</v>
       </c>
       <c r="C106" t="s">
         <v>233</v>
@@ -7146,10 +7146,10 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B132" t="s">
         <v>1369</v>
-      </c>
-      <c r="B132" t="s">
-        <v>1370</v>
       </c>
       <c r="C132" t="s">
         <v>233</v>
@@ -7454,10 +7454,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B148" t="s">
         <v>1331</v>
-      </c>
-      <c r="B148" t="s">
-        <v>1332</v>
       </c>
       <c r="C148" t="s">
         <v>233</v>
@@ -7574,10 +7574,10 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B154" t="s">
         <v>1379</v>
-      </c>
-      <c r="B154" t="s">
-        <v>1380</v>
       </c>
       <c r="C154" t="s">
         <v>233</v>
@@ -7654,7 +7654,7 @@
         <v>0</v>
       </c>
       <c r="B158" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C158" t="s">
         <v>1</v>
@@ -7822,10 +7822,10 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B167" t="s">
         <v>1339</v>
-      </c>
-      <c r="B167" t="s">
-        <v>1340</v>
       </c>
       <c r="C167" t="s">
         <v>233</v>
@@ -8022,10 +8022,10 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B177" t="s">
         <v>1297</v>
-      </c>
-      <c r="B177" t="s">
-        <v>1298</v>
       </c>
       <c r="C177" t="s">
         <v>233</v>
@@ -8042,10 +8042,10 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B178" t="s">
         <v>1274</v>
-      </c>
-      <c r="B178" t="s">
-        <v>1275</v>
       </c>
       <c r="C178" t="s">
         <v>233</v>
@@ -8182,10 +8182,10 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B185" t="s">
         <v>1292</v>
-      </c>
-      <c r="B185" t="s">
-        <v>1293</v>
       </c>
       <c r="C185" t="s">
         <v>233</v>
@@ -8262,10 +8262,10 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B189" t="s">
         <v>1266</v>
-      </c>
-      <c r="B189" t="s">
-        <v>1267</v>
       </c>
       <c r="C189" t="s">
         <v>233</v>
@@ -8436,10 +8436,10 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C198" t="s">
         <v>233</v>
@@ -8459,7 +8459,7 @@
         <v>87</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C199" t="s">
         <v>58</v>
@@ -8476,7 +8476,7 @@
         <v>88</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C200" t="s">
         <v>58</v>
@@ -8547,10 +8547,10 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B204" t="s">
         <v>1325</v>
-      </c>
-      <c r="B204" t="s">
-        <v>1326</v>
       </c>
       <c r="C204" t="s">
         <v>233</v>
@@ -8567,10 +8567,10 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B205" t="s">
         <v>1303</v>
-      </c>
-      <c r="B205" t="s">
-        <v>1304</v>
       </c>
       <c r="C205" t="s">
         <v>233</v>
@@ -8792,10 +8792,10 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B217" t="s">
         <v>1255</v>
-      </c>
-      <c r="B217" t="s">
-        <v>1256</v>
       </c>
       <c r="C217" t="s">
         <v>233</v>
@@ -8812,10 +8812,10 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B218" t="s">
         <v>1257</v>
-      </c>
-      <c r="B218" t="s">
-        <v>1258</v>
       </c>
       <c r="C218" t="s">
         <v>233</v>
@@ -9003,10 +9003,10 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B228" t="s">
         <v>1365</v>
-      </c>
-      <c r="B228" t="s">
-        <v>1366</v>
       </c>
       <c r="C228" t="s">
         <v>233</v>
@@ -9083,10 +9083,10 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B232" t="s">
         <v>1315</v>
-      </c>
-      <c r="B232" t="s">
-        <v>1316</v>
       </c>
       <c r="C232" t="s">
         <v>233</v>
@@ -9260,7 +9260,7 @@
         <v>674</v>
       </c>
       <c r="B241" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C241" t="s">
         <v>233</v>
@@ -9411,10 +9411,10 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B249" t="s">
         <v>1262</v>
-      </c>
-      <c r="B249" t="s">
-        <v>1263</v>
       </c>
       <c r="C249" t="s">
         <v>233</v>
@@ -9431,10 +9431,10 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B250" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C250" t="s">
         <v>233</v>
@@ -9968,10 +9968,10 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B277" t="s">
         <v>1373</v>
-      </c>
-      <c r="B277" t="s">
-        <v>1374</v>
       </c>
       <c r="C277" t="s">
         <v>233</v>
@@ -10368,10 +10368,10 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B297" t="s">
         <v>1321</v>
-      </c>
-      <c r="B297" t="s">
-        <v>1322</v>
       </c>
       <c r="C297" t="s">
         <v>233</v>
@@ -10408,10 +10408,10 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B299" t="s">
         <v>1347</v>
-      </c>
-      <c r="B299" t="s">
-        <v>1348</v>
       </c>
       <c r="C299" t="s">
         <v>233</v>
@@ -10445,10 +10445,10 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B301" t="s">
         <v>1363</v>
-      </c>
-      <c r="B301" t="s">
-        <v>1364</v>
       </c>
       <c r="C301" t="s">
         <v>233</v>
@@ -10682,10 +10682,10 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B313" t="s">
         <v>1353</v>
-      </c>
-      <c r="B313" t="s">
-        <v>1354</v>
       </c>
       <c r="C313" t="s">
         <v>233</v>
@@ -11073,10 +11073,10 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B333" t="s">
         <v>1317</v>
-      </c>
-      <c r="B333" t="s">
-        <v>1318</v>
       </c>
       <c r="C333" t="s">
         <v>233</v>
@@ -11310,10 +11310,10 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B345" t="s">
         <v>1290</v>
-      </c>
-      <c r="B345" t="s">
-        <v>1291</v>
       </c>
       <c r="C345" t="s">
         <v>233</v>
@@ -11777,10 +11777,10 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B370" t="s">
         <v>1337</v>
-      </c>
-      <c r="B370" t="s">
-        <v>1338</v>
       </c>
       <c r="C370" t="s">
         <v>233</v>
@@ -11837,10 +11837,10 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B373" t="s">
         <v>1311</v>
-      </c>
-      <c r="B373" t="s">
-        <v>1312</v>
       </c>
       <c r="C373" t="s">
         <v>233</v>
@@ -12442,10 +12442,10 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B404" t="s">
         <v>1355</v>
-      </c>
-      <c r="B404" t="s">
-        <v>1356</v>
       </c>
       <c r="C404" t="s">
         <v>233</v>
@@ -12548,7 +12548,7 @@
         <v>228</v>
       </c>
       <c r="D409" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="E409" t="s">
         <v>229</v>
@@ -12576,10 +12576,10 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B411" t="s">
         <v>1278</v>
-      </c>
-      <c r="B411" t="s">
-        <v>1279</v>
       </c>
       <c r="C411" t="s">
         <v>233</v>
@@ -12596,10 +12596,10 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B412" t="s">
         <v>1371</v>
-      </c>
-      <c r="B412" t="s">
-        <v>1372</v>
       </c>
       <c r="C412" t="s">
         <v>233</v>
@@ -12636,10 +12636,10 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B414" t="s">
         <v>1359</v>
-      </c>
-      <c r="B414" t="s">
-        <v>1360</v>
       </c>
       <c r="C414" t="s">
         <v>233</v>
@@ -12870,10 +12870,10 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B426" t="s">
         <v>1341</v>
-      </c>
-      <c r="B426" t="s">
-        <v>1342</v>
       </c>
       <c r="C426" t="s">
         <v>233</v>
@@ -13409,10 +13409,10 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B454" t="s">
         <v>1250</v>
-      </c>
-      <c r="B454" t="s">
-        <v>1251</v>
       </c>
       <c r="C454" t="s">
         <v>233</v>
@@ -13429,10 +13429,10 @@
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B455" t="s">
         <v>1345</v>
-      </c>
-      <c r="B455" t="s">
-        <v>1346</v>
       </c>
       <c r="C455" t="s">
         <v>233</v>
@@ -13529,10 +13529,10 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B460" t="s">
         <v>1329</v>
-      </c>
-      <c r="B460" t="s">
-        <v>1330</v>
       </c>
       <c r="C460" t="s">
         <v>233</v>
@@ -13783,7 +13783,7 @@
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B473" t="s">
         <v>308</v>
@@ -13803,7 +13803,7 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B474" t="s">
         <v>325</v>
@@ -13823,7 +13823,7 @@
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B475" t="s">
         <v>1175</v>
@@ -13843,7 +13843,7 @@
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B476" t="s">
         <v>384</v>
@@ -13863,7 +13863,7 @@
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B477" t="s">
         <v>303</v>
@@ -13883,7 +13883,7 @@
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B478" t="s">
         <v>1104</v>
@@ -14183,10 +14183,10 @@
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B493" t="s">
         <v>1313</v>
-      </c>
-      <c r="B493" t="s">
-        <v>1314</v>
       </c>
       <c r="C493" t="s">
         <v>233</v>
@@ -14340,10 +14340,10 @@
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B501" t="s">
         <v>1333</v>
-      </c>
-      <c r="B501" t="s">
-        <v>1334</v>
       </c>
       <c r="C501" t="s">
         <v>233</v>
@@ -14591,10 +14591,10 @@
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B514" t="s">
         <v>1307</v>
-      </c>
-      <c r="B514" t="s">
-        <v>1308</v>
       </c>
       <c r="C514" t="s">
         <v>233</v>
@@ -14908,7 +14908,7 @@
         <v>974</v>
       </c>
       <c r="B530" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C530" t="s">
         <v>233</v>
@@ -14968,7 +14968,7 @@
         <v>972</v>
       </c>
       <c r="B533" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C533" t="s">
         <v>233</v>
@@ -15119,10 +15119,10 @@
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B541" t="s">
         <v>1349</v>
-      </c>
-      <c r="B541" t="s">
-        <v>1350</v>
       </c>
       <c r="C541" t="s">
         <v>233</v>
@@ -15336,10 +15336,10 @@
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B552" t="s">
         <v>1264</v>
-      </c>
-      <c r="B552" t="s">
-        <v>1265</v>
       </c>
       <c r="C552" t="s">
         <v>233</v>
@@ -15436,10 +15436,10 @@
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B557" t="s">
         <v>1301</v>
-      </c>
-      <c r="B557" t="s">
-        <v>1302</v>
       </c>
       <c r="C557" t="s">
         <v>233</v>
@@ -15844,10 +15844,10 @@
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B578" t="s">
         <v>1343</v>
-      </c>
-      <c r="B578" t="s">
-        <v>1344</v>
       </c>
       <c r="C578" t="s">
         <v>233</v>
@@ -15904,10 +15904,10 @@
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B581" t="s">
         <v>1276</v>
-      </c>
-      <c r="B581" t="s">
-        <v>1277</v>
       </c>
       <c r="C581" t="s">
         <v>233</v>
@@ -16637,10 +16637,10 @@
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B619" t="s">
         <v>1286</v>
-      </c>
-      <c r="B619" t="s">
-        <v>1287</v>
       </c>
       <c r="C619" t="s">
         <v>233</v>
@@ -16720,7 +16720,7 @@
         <v>134</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C623" t="s">
         <v>1</v>
@@ -16814,10 +16814,10 @@
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B628" t="s">
         <v>1259</v>
-      </c>
-      <c r="B628" t="s">
-        <v>1260</v>
       </c>
       <c r="C628" t="s">
         <v>233</v>
@@ -16834,10 +16834,10 @@
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B629" t="s">
         <v>1361</v>
-      </c>
-      <c r="B629" t="s">
-        <v>1362</v>
       </c>
       <c r="C629" t="s">
         <v>233</v>
@@ -16934,10 +16934,10 @@
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B634" t="s">
         <v>1270</v>
-      </c>
-      <c r="B634" t="s">
-        <v>1271</v>
       </c>
       <c r="C634" t="s">
         <v>233</v>
@@ -17051,10 +17051,10 @@
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B640" t="s">
         <v>1280</v>
-      </c>
-      <c r="B640" t="s">
-        <v>1281</v>
       </c>
       <c r="C640" t="s">
         <v>233</v>
@@ -17071,10 +17071,10 @@
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B641" t="s">
         <v>1282</v>
-      </c>
-      <c r="B641" t="s">
-        <v>1283</v>
       </c>
       <c r="C641" t="s">
         <v>233</v>
@@ -17185,10 +17185,10 @@
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B647" t="s">
         <v>1375</v>
-      </c>
-      <c r="B647" t="s">
-        <v>1376</v>
       </c>
       <c r="C647" t="s">
         <v>233</v>
@@ -17205,10 +17205,10 @@
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B648" t="s">
         <v>1377</v>
-      </c>
-      <c r="B648" t="s">
-        <v>1378</v>
       </c>
       <c r="C648" t="s">
         <v>233</v>
@@ -18052,10 +18052,10 @@
     </row>
     <row r="692" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B692" t="s">
         <v>1351</v>
-      </c>
-      <c r="B692" t="s">
-        <v>1352</v>
       </c>
       <c r="C692" t="s">
         <v>233</v>
@@ -18283,10 +18283,10 @@
     </row>
     <row r="704" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B704" t="s">
         <v>1305</v>
-      </c>
-      <c r="B704" t="s">
-        <v>1306</v>
       </c>
       <c r="C704" t="s">
         <v>233</v>
@@ -18323,7 +18323,7 @@
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B706" t="s">
         <v>232</v>
@@ -18343,7 +18343,7 @@
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B707" t="s">
         <v>232</v>
@@ -18368,8 +18368,9 @@
     <hyperlink ref="B200" r:id="rId3" xr:uid="{4E35327B-7306-4FE5-9D1E-D0901F76B578}"/>
     <hyperlink ref="B199" r:id="rId4" xr:uid="{C4FF15A8-DCFB-45FE-9508-C49A5355DD2E}"/>
     <hyperlink ref="B623" r:id="rId5" xr:uid="{1E7235ED-C73D-4A75-ACE8-FC1876A7D02C}"/>
+    <hyperlink ref="B106" r:id="rId6" xr:uid="{419B2CD6-76F3-456C-894C-496997E3F2C1}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/jogos.xlsx
+++ b/jogos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\mycollections-cli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680F8C90-BF13-4AC9-B486-43B8EB4E9234}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAC52A4-40B5-4670-95E5-56904E5D9B47}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{0C35237A-6EB4-4B02-9651-931FED775CEC}"/>
   </bookViews>
@@ -2910,9 +2910,6 @@
     <t>Driver: Parallel Lines</t>
   </si>
   <si>
-    <t>http://media.steampowered.com/steamcommunity/public/images/apps/21780/cb76160a706b1a3132910c1c608b698e8cbfeeab.jpg</t>
-  </si>
-  <si>
     <t>Streamline</t>
   </si>
   <si>
@@ -4216,6 +4213,9 @@
   </si>
   <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQgE2bxt4n_HZNKm5mUUHvG56ufWfAARPN5YghQRDHmLYdo-ktGpg</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQeuWnfympcGNeoUmmKFBkQQ5jK53OYuRPzPaA1liReMib6zA0T</t>
   </si>
 </sst>
 </file>
@@ -4589,8 +4589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E073D1A-5126-4785-A652-5C66939BBDE3}">
   <dimension ref="A1:F707"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B164" sqref="B164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4604,10 +4604,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B1" t="s">
         <v>1098</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1099</v>
       </c>
       <c r="C1" t="s">
         <v>233</v>
@@ -4624,10 +4624,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B2" t="s">
         <v>1298</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1299</v>
       </c>
       <c r="C2" t="s">
         <v>233</v>
@@ -4744,10 +4744,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B8" t="s">
         <v>1322</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1323</v>
       </c>
       <c r="C8" t="s">
         <v>233</v>
@@ -4764,10 +4764,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B9" t="s">
         <v>1287</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1288</v>
       </c>
       <c r="C9" t="s">
         <v>233</v>
@@ -4784,10 +4784,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>985</v>
+      </c>
+      <c r="B10" t="s">
         <v>986</v>
-      </c>
-      <c r="B10" t="s">
-        <v>987</v>
       </c>
       <c r="C10" t="s">
         <v>233</v>
@@ -4821,10 +4821,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B12" t="s">
         <v>1334</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1335</v>
       </c>
       <c r="C12" t="s">
         <v>233</v>
@@ -4858,10 +4858,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B14" t="s">
         <v>1171</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1172</v>
       </c>
       <c r="C14" t="s">
         <v>233</v>
@@ -4898,10 +4898,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B16" t="s">
         <v>1137</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1138</v>
       </c>
       <c r="C16" t="s">
         <v>233</v>
@@ -4918,10 +4918,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B17" t="s">
         <v>1366</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1367</v>
       </c>
       <c r="C17" t="s">
         <v>233</v>
@@ -4975,10 +4975,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B20" t="s">
         <v>1054</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1055</v>
       </c>
       <c r="C20" t="s">
         <v>233</v>
@@ -5112,7 +5112,7 @@
         <v>121</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C27" t="s">
         <v>58</v>
@@ -5163,10 +5163,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B30" t="s">
         <v>1251</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1252</v>
       </c>
       <c r="C30" t="s">
         <v>233</v>
@@ -5203,10 +5203,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>963</v>
+      </c>
+      <c r="B32" t="s">
         <v>964</v>
-      </c>
-      <c r="B32" t="s">
-        <v>965</v>
       </c>
       <c r="C32" t="s">
         <v>233</v>
@@ -5263,7 +5263,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B35" t="s">
         <v>28</v>
@@ -5280,10 +5280,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B36" t="s">
         <v>1356</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1357</v>
       </c>
       <c r="C36" t="s">
         <v>233</v>
@@ -5343,7 +5343,7 @@
         <v>203</v>
       </c>
       <c r="B39" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C39" t="s">
         <v>164</v>
@@ -5360,7 +5360,7 @@
         <v>203</v>
       </c>
       <c r="B40" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C40" t="s">
         <v>233</v>
@@ -5377,10 +5377,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B41" t="s">
         <v>1190</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1191</v>
       </c>
       <c r="C41" t="s">
         <v>233</v>
@@ -5562,10 +5562,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B51" t="s">
         <v>1318</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1319</v>
       </c>
       <c r="C51" t="s">
         <v>233</v>
@@ -5656,10 +5656,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>987</v>
+      </c>
+      <c r="B56" t="s">
         <v>988</v>
-      </c>
-      <c r="B56" t="s">
-        <v>989</v>
       </c>
       <c r="C56" t="s">
         <v>233</v>
@@ -5716,10 +5716,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B59" t="s">
         <v>1146</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1147</v>
       </c>
       <c r="C59" t="s">
         <v>233</v>
@@ -5736,10 +5736,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>989</v>
+      </c>
+      <c r="B60" t="s">
         <v>990</v>
-      </c>
-      <c r="B60" t="s">
-        <v>991</v>
       </c>
       <c r="C60" t="s">
         <v>233</v>
@@ -5796,10 +5796,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B63" t="s">
         <v>1042</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1043</v>
       </c>
       <c r="C63" t="s">
         <v>233</v>
@@ -5816,10 +5816,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B64" t="s">
         <v>1052</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1053</v>
       </c>
       <c r="C64" t="s">
         <v>233</v>
@@ -5853,10 +5853,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B66" t="s">
         <v>1070</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1071</v>
       </c>
       <c r="C66" t="s">
         <v>233</v>
@@ -5873,10 +5873,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B67" t="s">
         <v>1283</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1284</v>
       </c>
       <c r="C67" t="s">
         <v>233</v>
@@ -5953,10 +5953,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B71" t="s">
         <v>1044</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1045</v>
       </c>
       <c r="C71" t="s">
         <v>233</v>
@@ -5993,10 +5993,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B73" t="s">
         <v>1022</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1023</v>
       </c>
       <c r="C73" t="s">
         <v>233</v>
@@ -6127,10 +6127,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B80" t="s">
         <v>1036</v>
-      </c>
-      <c r="B80" t="s">
-        <v>1037</v>
       </c>
       <c r="C80" t="s">
         <v>233</v>
@@ -6147,10 +6147,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B81" t="s">
         <v>1090</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1091</v>
       </c>
       <c r="C81" t="s">
         <v>233</v>
@@ -6167,10 +6167,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B82" t="s">
         <v>1308</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1309</v>
       </c>
       <c r="C82" t="s">
         <v>233</v>
@@ -6244,10 +6244,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B86" t="s">
         <v>1030</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1031</v>
       </c>
       <c r="C86" t="s">
         <v>233</v>
@@ -6264,10 +6264,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B87" t="s">
         <v>1161</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1162</v>
       </c>
       <c r="C87" t="s">
         <v>233</v>
@@ -6284,10 +6284,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B88" t="s">
         <v>1092</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1093</v>
       </c>
       <c r="C88" t="s">
         <v>233</v>
@@ -6324,10 +6324,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>998</v>
+      </c>
+      <c r="B90" t="s">
         <v>999</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1000</v>
       </c>
       <c r="C90" t="s">
         <v>233</v>
@@ -6424,10 +6424,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B95" t="s">
         <v>1326</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1327</v>
       </c>
       <c r="C95" t="s">
         <v>233</v>
@@ -6461,10 +6461,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B97" t="s">
         <v>1267</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1268</v>
       </c>
       <c r="C97" t="s">
         <v>233</v>
@@ -6521,10 +6521,10 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B100" t="s">
         <v>1142</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1143</v>
       </c>
       <c r="C100" t="s">
         <v>233</v>
@@ -6541,10 +6541,10 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B101" t="s">
         <v>1080</v>
-      </c>
-      <c r="B101" t="s">
-        <v>1081</v>
       </c>
       <c r="C101" t="s">
         <v>233</v>
@@ -6561,10 +6561,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B102" t="s">
         <v>1293</v>
-      </c>
-      <c r="B102" t="s">
-        <v>1294</v>
       </c>
       <c r="C102" t="s">
         <v>233</v>
@@ -6601,10 +6601,10 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B104" t="s">
         <v>1072</v>
-      </c>
-      <c r="B104" t="s">
-        <v>1073</v>
       </c>
       <c r="C104" t="s">
         <v>233</v>
@@ -6641,10 +6641,10 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C106" t="s">
         <v>233</v>
@@ -6741,10 +6741,10 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>969</v>
+      </c>
+      <c r="B111" t="s">
         <v>970</v>
-      </c>
-      <c r="B111" t="s">
-        <v>971</v>
       </c>
       <c r="C111" t="s">
         <v>233</v>
@@ -6781,10 +6781,10 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B113" t="s">
         <v>1009</v>
-      </c>
-      <c r="B113" t="s">
-        <v>1010</v>
       </c>
       <c r="C113" t="s">
         <v>233</v>
@@ -6875,7 +6875,7 @@
         <v>111</v>
       </c>
       <c r="B118" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C118" t="s">
         <v>233</v>
@@ -6966,10 +6966,10 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B123" t="s">
         <v>1224</v>
-      </c>
-      <c r="B123" t="s">
-        <v>1225</v>
       </c>
       <c r="C123" t="s">
         <v>233</v>
@@ -7106,10 +7106,10 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B130" t="s">
         <v>1015</v>
-      </c>
-      <c r="B130" t="s">
-        <v>1016</v>
       </c>
       <c r="C130" t="s">
         <v>233</v>
@@ -7126,10 +7126,10 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>991</v>
+      </c>
+      <c r="B131" t="s">
         <v>992</v>
-      </c>
-      <c r="B131" t="s">
-        <v>993</v>
       </c>
       <c r="C131" t="s">
         <v>233</v>
@@ -7146,10 +7146,10 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B132" t="s">
         <v>1368</v>
-      </c>
-      <c r="B132" t="s">
-        <v>1369</v>
       </c>
       <c r="C132" t="s">
         <v>233</v>
@@ -7257,10 +7257,10 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B138" t="s">
         <v>1005</v>
-      </c>
-      <c r="B138" t="s">
-        <v>1006</v>
       </c>
       <c r="C138" t="s">
         <v>233</v>
@@ -7334,10 +7334,10 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B142" t="s">
         <v>1232</v>
-      </c>
-      <c r="B142" t="s">
-        <v>1233</v>
       </c>
       <c r="C142" t="s">
         <v>233</v>
@@ -7394,10 +7394,10 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B145" t="s">
         <v>1056</v>
-      </c>
-      <c r="B145" t="s">
-        <v>1057</v>
       </c>
       <c r="C145" t="s">
         <v>233</v>
@@ -7454,10 +7454,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B148" t="s">
         <v>1330</v>
-      </c>
-      <c r="B148" t="s">
-        <v>1331</v>
       </c>
       <c r="C148" t="s">
         <v>233</v>
@@ -7494,10 +7494,10 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>993</v>
+      </c>
+      <c r="B150" t="s">
         <v>994</v>
-      </c>
-      <c r="B150" t="s">
-        <v>995</v>
       </c>
       <c r="C150" t="s">
         <v>233</v>
@@ -7534,10 +7534,10 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B152" t="s">
         <v>1105</v>
-      </c>
-      <c r="B152" t="s">
-        <v>1106</v>
       </c>
       <c r="C152" t="s">
         <v>233</v>
@@ -7574,10 +7574,10 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B154" t="s">
         <v>1378</v>
-      </c>
-      <c r="B154" t="s">
-        <v>1379</v>
       </c>
       <c r="C154" t="s">
         <v>233</v>
@@ -7594,10 +7594,10 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>996</v>
+      </c>
+      <c r="B155" t="s">
         <v>997</v>
-      </c>
-      <c r="B155" t="s">
-        <v>998</v>
       </c>
       <c r="C155" t="s">
         <v>233</v>
@@ -7614,7 +7614,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C156" t="s">
         <v>233</v>
@@ -7631,10 +7631,10 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B157" t="s">
         <v>1034</v>
-      </c>
-      <c r="B157" t="s">
-        <v>1035</v>
       </c>
       <c r="C157" t="s">
         <v>233</v>
@@ -7654,7 +7654,7 @@
         <v>0</v>
       </c>
       <c r="B158" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C158" t="s">
         <v>1</v>
@@ -7747,8 +7747,8 @@
       <c r="A163" t="s">
         <v>958</v>
       </c>
-      <c r="B163" t="s">
-        <v>959</v>
+      <c r="B163" s="1" t="s">
+        <v>1394</v>
       </c>
       <c r="C163" t="s">
         <v>233</v>
@@ -7822,10 +7822,10 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B167" t="s">
         <v>1338</v>
-      </c>
-      <c r="B167" t="s">
-        <v>1339</v>
       </c>
       <c r="C167" t="s">
         <v>233</v>
@@ -7862,10 +7862,10 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B169" t="s">
         <v>1156</v>
-      </c>
-      <c r="B169" t="s">
-        <v>1157</v>
       </c>
       <c r="C169" t="s">
         <v>233</v>
@@ -8022,10 +8022,10 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B177" t="s">
         <v>1296</v>
-      </c>
-      <c r="B177" t="s">
-        <v>1297</v>
       </c>
       <c r="C177" t="s">
         <v>233</v>
@@ -8042,10 +8042,10 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B178" t="s">
         <v>1273</v>
-      </c>
-      <c r="B178" t="s">
-        <v>1274</v>
       </c>
       <c r="C178" t="s">
         <v>233</v>
@@ -8082,10 +8082,10 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>977</v>
+      </c>
+      <c r="B180" t="s">
         <v>978</v>
-      </c>
-      <c r="B180" t="s">
-        <v>979</v>
       </c>
       <c r="C180" t="s">
         <v>233</v>
@@ -8142,10 +8142,10 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>979</v>
+      </c>
+      <c r="B183" t="s">
         <v>980</v>
-      </c>
-      <c r="B183" t="s">
-        <v>981</v>
       </c>
       <c r="C183" t="s">
         <v>233</v>
@@ -8182,10 +8182,10 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B185" t="s">
         <v>1291</v>
-      </c>
-      <c r="B185" t="s">
-        <v>1292</v>
       </c>
       <c r="C185" t="s">
         <v>233</v>
@@ -8262,10 +8262,10 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B189" t="s">
         <v>1265</v>
-      </c>
-      <c r="B189" t="s">
-        <v>1266</v>
       </c>
       <c r="C189" t="s">
         <v>233</v>
@@ -8302,10 +8302,10 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B191" t="s">
         <v>1184</v>
-      </c>
-      <c r="B191" t="s">
-        <v>1185</v>
       </c>
       <c r="C191" t="s">
         <v>233</v>
@@ -8342,10 +8342,10 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>975</v>
+      </c>
+      <c r="B193" t="s">
         <v>976</v>
-      </c>
-      <c r="B193" t="s">
-        <v>977</v>
       </c>
       <c r="C193" t="s">
         <v>233</v>
@@ -8436,10 +8436,10 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C198" t="s">
         <v>233</v>
@@ -8459,7 +8459,7 @@
         <v>87</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C199" t="s">
         <v>58</v>
@@ -8476,7 +8476,7 @@
         <v>88</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C200" t="s">
         <v>58</v>
@@ -8547,10 +8547,10 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B204" t="s">
         <v>1324</v>
-      </c>
-      <c r="B204" t="s">
-        <v>1325</v>
       </c>
       <c r="C204" t="s">
         <v>233</v>
@@ -8567,10 +8567,10 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B205" t="s">
         <v>1302</v>
-      </c>
-      <c r="B205" t="s">
-        <v>1303</v>
       </c>
       <c r="C205" t="s">
         <v>233</v>
@@ -8675,10 +8675,10 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B211" t="s">
         <v>1040</v>
-      </c>
-      <c r="B211" t="s">
-        <v>1041</v>
       </c>
       <c r="C211" t="s">
         <v>233</v>
@@ -8712,10 +8712,10 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B213" t="s">
         <v>1242</v>
-      </c>
-      <c r="B213" t="s">
-        <v>1243</v>
       </c>
       <c r="C213" t="s">
         <v>233</v>
@@ -8732,10 +8732,10 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B214" t="s">
         <v>1244</v>
-      </c>
-      <c r="B214" t="s">
-        <v>1245</v>
       </c>
       <c r="C214" t="s">
         <v>233</v>
@@ -8772,10 +8772,10 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B216" t="s">
         <v>1220</v>
-      </c>
-      <c r="B216" t="s">
-        <v>1221</v>
       </c>
       <c r="C216" t="s">
         <v>233</v>
@@ -8792,10 +8792,10 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B217" t="s">
         <v>1254</v>
-      </c>
-      <c r="B217" t="s">
-        <v>1255</v>
       </c>
       <c r="C217" t="s">
         <v>233</v>
@@ -8812,10 +8812,10 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B218" t="s">
         <v>1256</v>
-      </c>
-      <c r="B218" t="s">
-        <v>1257</v>
       </c>
       <c r="C218" t="s">
         <v>233</v>
@@ -8832,10 +8832,10 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
+        <v>965</v>
+      </c>
+      <c r="B219" t="s">
         <v>966</v>
-      </c>
-      <c r="B219" t="s">
-        <v>967</v>
       </c>
       <c r="C219" t="s">
         <v>233</v>
@@ -8906,10 +8906,10 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B223" t="s">
         <v>1017</v>
-      </c>
-      <c r="B223" t="s">
-        <v>1018</v>
       </c>
       <c r="C223" t="s">
         <v>233</v>
@@ -8926,7 +8926,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C224" t="s">
         <v>233</v>
@@ -9003,10 +9003,10 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B228" t="s">
         <v>1364</v>
-      </c>
-      <c r="B228" t="s">
-        <v>1365</v>
       </c>
       <c r="C228" t="s">
         <v>233</v>
@@ -9083,10 +9083,10 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B232" t="s">
         <v>1314</v>
-      </c>
-      <c r="B232" t="s">
-        <v>1315</v>
       </c>
       <c r="C232" t="s">
         <v>233</v>
@@ -9160,10 +9160,10 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B236" t="s">
         <v>1064</v>
-      </c>
-      <c r="B236" t="s">
-        <v>1065</v>
       </c>
       <c r="C236" t="s">
         <v>233</v>
@@ -9180,10 +9180,10 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B237" t="s">
         <v>1003</v>
-      </c>
-      <c r="B237" t="s">
-        <v>1004</v>
       </c>
       <c r="C237" t="s">
         <v>233</v>
@@ -9200,10 +9200,10 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B238" t="s">
         <v>1062</v>
-      </c>
-      <c r="B238" t="s">
-        <v>1063</v>
       </c>
       <c r="C238" t="s">
         <v>233</v>
@@ -9260,7 +9260,7 @@
         <v>674</v>
       </c>
       <c r="B241" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C241" t="s">
         <v>233</v>
@@ -9411,10 +9411,10 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B249" t="s">
         <v>1261</v>
-      </c>
-      <c r="B249" t="s">
-        <v>1262</v>
       </c>
       <c r="C249" t="s">
         <v>233</v>
@@ -9431,10 +9431,10 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B250" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C250" t="s">
         <v>233</v>
@@ -9451,10 +9451,10 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B251" t="s">
         <v>1058</v>
-      </c>
-      <c r="B251" t="s">
-        <v>1059</v>
       </c>
       <c r="C251" t="s">
         <v>233</v>
@@ -9688,10 +9688,10 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B263" t="s">
         <v>1050</v>
-      </c>
-      <c r="B263" t="s">
-        <v>1051</v>
       </c>
       <c r="C263" t="s">
         <v>233</v>
@@ -9948,10 +9948,10 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B276" t="s">
         <v>1115</v>
-      </c>
-      <c r="B276" t="s">
-        <v>1116</v>
       </c>
       <c r="C276" t="s">
         <v>233</v>
@@ -9968,10 +9968,10 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B277" t="s">
         <v>1372</v>
-      </c>
-      <c r="B277" t="s">
-        <v>1373</v>
       </c>
       <c r="C277" t="s">
         <v>233</v>
@@ -10008,10 +10008,10 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B279" t="s">
         <v>1111</v>
-      </c>
-      <c r="B279" t="s">
-        <v>1112</v>
       </c>
       <c r="C279" t="s">
         <v>233</v>
@@ -10028,10 +10028,10 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B280" t="s">
         <v>1074</v>
-      </c>
-      <c r="B280" t="s">
-        <v>1075</v>
       </c>
       <c r="C280" t="s">
         <v>233</v>
@@ -10068,10 +10068,10 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B282" t="s">
         <v>1167</v>
-      </c>
-      <c r="B282" t="s">
-        <v>1168</v>
       </c>
       <c r="C282" t="s">
         <v>233</v>
@@ -10108,10 +10108,10 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B284" t="s">
         <v>1107</v>
-      </c>
-      <c r="B284" t="s">
-        <v>1108</v>
       </c>
       <c r="C284" t="s">
         <v>233</v>
@@ -10128,10 +10128,10 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B285" t="s">
         <v>1230</v>
-      </c>
-      <c r="B285" t="s">
-        <v>1231</v>
       </c>
       <c r="C285" t="s">
         <v>233</v>
@@ -10228,10 +10228,10 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B290" t="s">
         <v>1060</v>
-      </c>
-      <c r="B290" t="s">
-        <v>1061</v>
       </c>
       <c r="C290" t="s">
         <v>233</v>
@@ -10368,10 +10368,10 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B297" t="s">
         <v>1320</v>
-      </c>
-      <c r="B297" t="s">
-        <v>1321</v>
       </c>
       <c r="C297" t="s">
         <v>233</v>
@@ -10408,10 +10408,10 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B299" t="s">
         <v>1346</v>
-      </c>
-      <c r="B299" t="s">
-        <v>1347</v>
       </c>
       <c r="C299" t="s">
         <v>233</v>
@@ -10445,10 +10445,10 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B301" t="s">
         <v>1362</v>
-      </c>
-      <c r="B301" t="s">
-        <v>1363</v>
       </c>
       <c r="C301" t="s">
         <v>233</v>
@@ -10562,10 +10562,10 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B307" t="s">
         <v>1068</v>
-      </c>
-      <c r="B307" t="s">
-        <v>1069</v>
       </c>
       <c r="C307" t="s">
         <v>233</v>
@@ -10582,10 +10582,10 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B308" t="s">
         <v>1163</v>
-      </c>
-      <c r="B308" t="s">
-        <v>1164</v>
       </c>
       <c r="C308" t="s">
         <v>233</v>
@@ -10622,10 +10622,10 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B310" t="s">
         <v>1082</v>
-      </c>
-      <c r="B310" t="s">
-        <v>1083</v>
       </c>
       <c r="C310" t="s">
         <v>233</v>
@@ -10682,10 +10682,10 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B313" t="s">
         <v>1352</v>
-      </c>
-      <c r="B313" t="s">
-        <v>1353</v>
       </c>
       <c r="C313" t="s">
         <v>233</v>
@@ -10702,10 +10702,10 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B314" t="s">
         <v>1038</v>
-      </c>
-      <c r="B314" t="s">
-        <v>1039</v>
       </c>
       <c r="C314" t="s">
         <v>233</v>
@@ -10779,10 +10779,10 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B318" t="s">
         <v>1109</v>
-      </c>
-      <c r="B318" t="s">
-        <v>1110</v>
       </c>
       <c r="C318" t="s">
         <v>233</v>
@@ -10799,10 +10799,10 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B319" t="s">
         <v>1088</v>
-      </c>
-      <c r="B319" t="s">
-        <v>1089</v>
       </c>
       <c r="C319" t="s">
         <v>233</v>
@@ -10859,10 +10859,10 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B322" t="s">
         <v>1240</v>
-      </c>
-      <c r="B322" t="s">
-        <v>1241</v>
       </c>
       <c r="C322" t="s">
         <v>233</v>
@@ -10916,10 +10916,10 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B325" t="s">
         <v>1121</v>
-      </c>
-      <c r="B325" t="s">
-        <v>1122</v>
       </c>
       <c r="C325" t="s">
         <v>233</v>
@@ -11073,10 +11073,10 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B333" t="s">
         <v>1316</v>
-      </c>
-      <c r="B333" t="s">
-        <v>1317</v>
       </c>
       <c r="C333" t="s">
         <v>233</v>
@@ -11113,10 +11113,10 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B335" t="s">
         <v>1234</v>
-      </c>
-      <c r="B335" t="s">
-        <v>1235</v>
       </c>
       <c r="C335" t="s">
         <v>233</v>
@@ -11133,10 +11133,10 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B336" t="s">
         <v>1135</v>
-      </c>
-      <c r="B336" t="s">
-        <v>1136</v>
       </c>
       <c r="C336" t="s">
         <v>233</v>
@@ -11290,10 +11290,10 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B344" t="s">
         <v>1086</v>
-      </c>
-      <c r="B344" t="s">
-        <v>1087</v>
       </c>
       <c r="C344" t="s">
         <v>233</v>
@@ -11310,10 +11310,10 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B345" t="s">
         <v>1289</v>
-      </c>
-      <c r="B345" t="s">
-        <v>1290</v>
       </c>
       <c r="C345" t="s">
         <v>233</v>
@@ -11350,10 +11350,10 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B347" t="s">
         <v>1126</v>
-      </c>
-      <c r="B347" t="s">
-        <v>1127</v>
       </c>
       <c r="C347" t="s">
         <v>233</v>
@@ -11777,10 +11777,10 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B370" t="s">
         <v>1336</v>
-      </c>
-      <c r="B370" t="s">
-        <v>1337</v>
       </c>
       <c r="C370" t="s">
         <v>233</v>
@@ -11837,10 +11837,10 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B373" t="s">
         <v>1310</v>
-      </c>
-      <c r="B373" t="s">
-        <v>1311</v>
       </c>
       <c r="C373" t="s">
         <v>233</v>
@@ -11857,10 +11857,10 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
+        <v>961</v>
+      </c>
+      <c r="B374" t="s">
         <v>962</v>
-      </c>
-      <c r="B374" t="s">
-        <v>963</v>
       </c>
       <c r="C374" t="s">
         <v>233</v>
@@ -11931,10 +11931,10 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B378" t="s">
         <v>1096</v>
-      </c>
-      <c r="B378" t="s">
-        <v>1097</v>
       </c>
       <c r="C378" t="s">
         <v>233</v>
@@ -11951,10 +11951,10 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B379" t="s">
         <v>1128</v>
-      </c>
-      <c r="B379" t="s">
-        <v>1129</v>
       </c>
       <c r="C379" t="s">
         <v>233</v>
@@ -12031,10 +12031,10 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B383" t="s">
         <v>1216</v>
-      </c>
-      <c r="B383" t="s">
-        <v>1217</v>
       </c>
       <c r="C383" t="s">
         <v>233</v>
@@ -12051,10 +12051,10 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B384" t="s">
         <v>1206</v>
-      </c>
-      <c r="B384" t="s">
-        <v>1207</v>
       </c>
       <c r="C384" t="s">
         <v>233</v>
@@ -12071,10 +12071,10 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B385" t="s">
         <v>1202</v>
-      </c>
-      <c r="B385" t="s">
-        <v>1203</v>
       </c>
       <c r="C385" t="s">
         <v>233</v>
@@ -12091,10 +12091,10 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B386" t="s">
         <v>1200</v>
-      </c>
-      <c r="B386" t="s">
-        <v>1201</v>
       </c>
       <c r="C386" t="s">
         <v>233</v>
@@ -12111,10 +12111,10 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B387" t="s">
         <v>1204</v>
-      </c>
-      <c r="B387" t="s">
-        <v>1205</v>
       </c>
       <c r="C387" t="s">
         <v>233</v>
@@ -12131,10 +12131,10 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B388" t="s">
         <v>1212</v>
-      </c>
-      <c r="B388" t="s">
-        <v>1213</v>
       </c>
       <c r="C388" t="s">
         <v>233</v>
@@ -12151,10 +12151,10 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B389" t="s">
         <v>1214</v>
-      </c>
-      <c r="B389" t="s">
-        <v>1215</v>
       </c>
       <c r="C389" t="s">
         <v>233</v>
@@ -12188,10 +12188,10 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B391" t="s">
         <v>1196</v>
-      </c>
-      <c r="B391" t="s">
-        <v>1197</v>
       </c>
       <c r="C391" t="s">
         <v>233</v>
@@ -12208,10 +12208,10 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B392" t="s">
         <v>1208</v>
-      </c>
-      <c r="B392" t="s">
-        <v>1209</v>
       </c>
       <c r="C392" t="s">
         <v>233</v>
@@ -12228,10 +12228,10 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B393" t="s">
         <v>1210</v>
-      </c>
-      <c r="B393" t="s">
-        <v>1211</v>
       </c>
       <c r="C393" t="s">
         <v>233</v>
@@ -12248,10 +12248,10 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B394" t="s">
         <v>1198</v>
-      </c>
-      <c r="B394" t="s">
-        <v>1199</v>
       </c>
       <c r="C394" t="s">
         <v>233</v>
@@ -12442,10 +12442,10 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B404" t="s">
         <v>1354</v>
-      </c>
-      <c r="B404" t="s">
-        <v>1355</v>
       </c>
       <c r="C404" t="s">
         <v>233</v>
@@ -12519,10 +12519,10 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B408" t="s">
         <v>1124</v>
-      </c>
-      <c r="B408" t="s">
-        <v>1125</v>
       </c>
       <c r="C408" t="s">
         <v>233</v>
@@ -12548,7 +12548,7 @@
         <v>228</v>
       </c>
       <c r="D409" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="E409" t="s">
         <v>229</v>
@@ -12576,10 +12576,10 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B411" t="s">
         <v>1277</v>
-      </c>
-      <c r="B411" t="s">
-        <v>1278</v>
       </c>
       <c r="C411" t="s">
         <v>233</v>
@@ -12596,10 +12596,10 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B412" t="s">
         <v>1370</v>
-      </c>
-      <c r="B412" t="s">
-        <v>1371</v>
       </c>
       <c r="C412" t="s">
         <v>233</v>
@@ -12636,10 +12636,10 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B414" t="s">
         <v>1358</v>
-      </c>
-      <c r="B414" t="s">
-        <v>1359</v>
       </c>
       <c r="C414" t="s">
         <v>233</v>
@@ -12656,10 +12656,10 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B415" t="s">
         <v>1007</v>
-      </c>
-      <c r="B415" t="s">
-        <v>1008</v>
       </c>
       <c r="C415" t="s">
         <v>233</v>
@@ -12750,10 +12750,10 @@
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B420" t="s">
         <v>1046</v>
-      </c>
-      <c r="B420" t="s">
-        <v>1047</v>
       </c>
       <c r="C420" t="s">
         <v>233</v>
@@ -12810,10 +12810,10 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B423" t="s">
         <v>1246</v>
-      </c>
-      <c r="B423" t="s">
-        <v>1247</v>
       </c>
       <c r="C423" t="s">
         <v>233</v>
@@ -12830,10 +12830,10 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B424" t="s">
         <v>1119</v>
-      </c>
-      <c r="B424" t="s">
-        <v>1120</v>
       </c>
       <c r="C424" t="s">
         <v>233</v>
@@ -12870,10 +12870,10 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B426" t="s">
         <v>1340</v>
-      </c>
-      <c r="B426" t="s">
-        <v>1341</v>
       </c>
       <c r="C426" t="s">
         <v>233</v>
@@ -12967,10 +12967,10 @@
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B431" t="s">
         <v>1066</v>
-      </c>
-      <c r="B431" t="s">
-        <v>1067</v>
       </c>
       <c r="C431" t="s">
         <v>233</v>
@@ -13024,10 +13024,10 @@
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B434" t="s">
         <v>1032</v>
-      </c>
-      <c r="B434" t="s">
-        <v>1033</v>
       </c>
       <c r="C434" t="s">
         <v>233</v>
@@ -13158,10 +13158,10 @@
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B441" t="s">
         <v>1169</v>
-      </c>
-      <c r="B441" t="s">
-        <v>1170</v>
       </c>
       <c r="C441" t="s">
         <v>233</v>
@@ -13409,10 +13409,10 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B454" t="s">
         <v>1249</v>
-      </c>
-      <c r="B454" t="s">
-        <v>1250</v>
       </c>
       <c r="C454" t="s">
         <v>233</v>
@@ -13429,10 +13429,10 @@
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B455" t="s">
         <v>1344</v>
-      </c>
-      <c r="B455" t="s">
-        <v>1345</v>
       </c>
       <c r="C455" t="s">
         <v>233</v>
@@ -13449,10 +13449,10 @@
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B456" t="s">
         <v>1117</v>
-      </c>
-      <c r="B456" t="s">
-        <v>1118</v>
       </c>
       <c r="C456" t="s">
         <v>233</v>
@@ -13489,10 +13489,10 @@
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B458" t="s">
         <v>1133</v>
-      </c>
-      <c r="B458" t="s">
-        <v>1134</v>
       </c>
       <c r="C458" t="s">
         <v>233</v>
@@ -13529,10 +13529,10 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B460" t="s">
         <v>1328</v>
-      </c>
-      <c r="B460" t="s">
-        <v>1329</v>
       </c>
       <c r="C460" t="s">
         <v>233</v>
@@ -13703,10 +13703,10 @@
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B469" t="s">
         <v>1150</v>
-      </c>
-      <c r="B469" t="s">
-        <v>1151</v>
       </c>
       <c r="C469" t="s">
         <v>233</v>
@@ -13763,10 +13763,10 @@
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B472" t="s">
         <v>1026</v>
-      </c>
-      <c r="B472" t="s">
-        <v>1027</v>
       </c>
       <c r="C472" t="s">
         <v>233</v>
@@ -13783,7 +13783,7 @@
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B473" t="s">
         <v>308</v>
@@ -13803,7 +13803,7 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B474" t="s">
         <v>325</v>
@@ -13823,10 +13823,10 @@
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B475" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C475" t="s">
         <v>233</v>
@@ -13843,7 +13843,7 @@
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B476" t="s">
         <v>384</v>
@@ -13863,7 +13863,7 @@
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B477" t="s">
         <v>303</v>
@@ -13883,10 +13883,10 @@
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B478" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C478" t="s">
         <v>233</v>
@@ -14023,10 +14023,10 @@
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B485" t="s">
         <v>1192</v>
-      </c>
-      <c r="B485" t="s">
-        <v>1193</v>
       </c>
       <c r="C485" t="s">
         <v>233</v>
@@ -14043,10 +14043,10 @@
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B486" t="s">
         <v>1176</v>
-      </c>
-      <c r="B486" t="s">
-        <v>1177</v>
       </c>
       <c r="C486" t="s">
         <v>233</v>
@@ -14083,10 +14083,10 @@
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B488" t="s">
         <v>1028</v>
-      </c>
-      <c r="B488" t="s">
-        <v>1029</v>
       </c>
       <c r="C488" t="s">
         <v>233</v>
@@ -14183,10 +14183,10 @@
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B493" t="s">
         <v>1312</v>
-      </c>
-      <c r="B493" t="s">
-        <v>1313</v>
       </c>
       <c r="C493" t="s">
         <v>233</v>
@@ -14203,10 +14203,10 @@
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B494" t="s">
         <v>1182</v>
-      </c>
-      <c r="B494" t="s">
-        <v>1183</v>
       </c>
       <c r="C494" t="s">
         <v>233</v>
@@ -14243,10 +14243,10 @@
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B496" t="s">
         <v>1154</v>
-      </c>
-      <c r="B496" t="s">
-        <v>1155</v>
       </c>
       <c r="C496" t="s">
         <v>233</v>
@@ -14340,10 +14340,10 @@
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B501" t="s">
         <v>1332</v>
-      </c>
-      <c r="B501" t="s">
-        <v>1333</v>
       </c>
       <c r="C501" t="s">
         <v>233</v>
@@ -14454,10 +14454,10 @@
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B507" t="s">
         <v>1222</v>
-      </c>
-      <c r="B507" t="s">
-        <v>1223</v>
       </c>
       <c r="C507" t="s">
         <v>233</v>
@@ -14474,10 +14474,10 @@
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B508" t="s">
         <v>1001</v>
-      </c>
-      <c r="B508" t="s">
-        <v>1002</v>
       </c>
       <c r="C508" t="s">
         <v>233</v>
@@ -14494,10 +14494,10 @@
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B509" t="s">
         <v>1011</v>
-      </c>
-      <c r="B509" t="s">
-        <v>1012</v>
       </c>
       <c r="C509" t="s">
         <v>233</v>
@@ -14514,10 +14514,10 @@
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B510" t="s">
         <v>1228</v>
-      </c>
-      <c r="B510" t="s">
-        <v>1229</v>
       </c>
       <c r="C510" t="s">
         <v>233</v>
@@ -14534,10 +14534,10 @@
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B511" t="s">
         <v>1078</v>
-      </c>
-      <c r="B511" t="s">
-        <v>1079</v>
       </c>
       <c r="C511" t="s">
         <v>233</v>
@@ -14591,10 +14591,10 @@
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B514" t="s">
         <v>1306</v>
-      </c>
-      <c r="B514" t="s">
-        <v>1307</v>
       </c>
       <c r="C514" t="s">
         <v>233</v>
@@ -14785,10 +14785,10 @@
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B524" t="s">
         <v>1218</v>
-      </c>
-      <c r="B524" t="s">
-        <v>1219</v>
       </c>
       <c r="C524" t="s">
         <v>233</v>
@@ -14805,10 +14805,10 @@
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B525" t="s">
         <v>1076</v>
-      </c>
-      <c r="B525" t="s">
-        <v>1077</v>
       </c>
       <c r="C525" t="s">
         <v>233</v>
@@ -14868,7 +14868,7 @@
         <v>807</v>
       </c>
       <c r="B528" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C528" t="s">
         <v>233</v>
@@ -14885,10 +14885,10 @@
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
+        <v>973</v>
+      </c>
+      <c r="B529" t="s">
         <v>974</v>
-      </c>
-      <c r="B529" t="s">
-        <v>975</v>
       </c>
       <c r="C529" t="s">
         <v>233</v>
@@ -14905,10 +14905,10 @@
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B530" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C530" t="s">
         <v>233</v>
@@ -14945,10 +14945,10 @@
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
+        <v>971</v>
+      </c>
+      <c r="B532" t="s">
         <v>972</v>
-      </c>
-      <c r="B532" t="s">
-        <v>973</v>
       </c>
       <c r="C532" t="s">
         <v>233</v>
@@ -14965,10 +14965,10 @@
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B533" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C533" t="s">
         <v>233</v>
@@ -15119,10 +15119,10 @@
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B541" t="s">
         <v>1348</v>
-      </c>
-      <c r="B541" t="s">
-        <v>1349</v>
       </c>
       <c r="C541" t="s">
         <v>233</v>
@@ -15219,10 +15219,10 @@
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B546" t="s">
         <v>1020</v>
-      </c>
-      <c r="B546" t="s">
-        <v>1021</v>
       </c>
       <c r="C546" t="s">
         <v>233</v>
@@ -15336,10 +15336,10 @@
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B552" t="s">
         <v>1263</v>
-      </c>
-      <c r="B552" t="s">
-        <v>1264</v>
       </c>
       <c r="C552" t="s">
         <v>233</v>
@@ -15396,10 +15396,10 @@
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
+        <v>983</v>
+      </c>
+      <c r="B555" t="s">
         <v>984</v>
-      </c>
-      <c r="B555" t="s">
-        <v>985</v>
       </c>
       <c r="C555" t="s">
         <v>233</v>
@@ -15416,10 +15416,10 @@
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B556" t="s">
         <v>1100</v>
-      </c>
-      <c r="B556" t="s">
-        <v>1101</v>
       </c>
       <c r="C556" t="s">
         <v>233</v>
@@ -15436,10 +15436,10 @@
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B557" t="s">
         <v>1300</v>
-      </c>
-      <c r="B557" t="s">
-        <v>1301</v>
       </c>
       <c r="C557" t="s">
         <v>233</v>
@@ -15584,10 +15584,10 @@
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B565" t="s">
         <v>1024</v>
-      </c>
-      <c r="B565" t="s">
-        <v>1025</v>
       </c>
       <c r="C565" t="s">
         <v>233</v>
@@ -15684,10 +15684,10 @@
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B570" t="s">
         <v>1236</v>
-      </c>
-      <c r="B570" t="s">
-        <v>1237</v>
       </c>
       <c r="C570" t="s">
         <v>233</v>
@@ -15744,10 +15744,10 @@
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
+        <v>959</v>
+      </c>
+      <c r="B573" t="s">
         <v>960</v>
-      </c>
-      <c r="B573" t="s">
-        <v>961</v>
       </c>
       <c r="C573" t="s">
         <v>233</v>
@@ -15804,10 +15804,10 @@
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B576" t="s">
         <v>1173</v>
-      </c>
-      <c r="B576" t="s">
-        <v>1174</v>
       </c>
       <c r="C576" t="s">
         <v>233</v>
@@ -15844,10 +15844,10 @@
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B578" t="s">
         <v>1342</v>
-      </c>
-      <c r="B578" t="s">
-        <v>1343</v>
       </c>
       <c r="C578" t="s">
         <v>233</v>
@@ -15864,10 +15864,10 @@
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B579" t="s">
         <v>1226</v>
-      </c>
-      <c r="B579" t="s">
-        <v>1227</v>
       </c>
       <c r="C579" t="s">
         <v>233</v>
@@ -15904,10 +15904,10 @@
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B581" t="s">
         <v>1275</v>
-      </c>
-      <c r="B581" t="s">
-        <v>1276</v>
       </c>
       <c r="C581" t="s">
         <v>233</v>
@@ -15924,10 +15924,10 @@
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B582" t="s">
         <v>1238</v>
-      </c>
-      <c r="B582" t="s">
-        <v>1239</v>
       </c>
       <c r="C582" t="s">
         <v>233</v>
@@ -15964,10 +15964,10 @@
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B584" t="s">
         <v>1094</v>
-      </c>
-      <c r="B584" t="s">
-        <v>1095</v>
       </c>
       <c r="C584" t="s">
         <v>233</v>
@@ -16004,10 +16004,10 @@
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B586" t="s">
         <v>1139</v>
-      </c>
-      <c r="B586" t="s">
-        <v>1140</v>
       </c>
       <c r="C586" t="s">
         <v>233</v>
@@ -16024,10 +16024,10 @@
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B587" t="s">
         <v>1148</v>
-      </c>
-      <c r="B587" t="s">
-        <v>1149</v>
       </c>
       <c r="C587" t="s">
         <v>233</v>
@@ -16272,10 +16272,10 @@
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B600" t="s">
         <v>1144</v>
-      </c>
-      <c r="B600" t="s">
-        <v>1145</v>
       </c>
       <c r="C600" t="s">
         <v>233</v>
@@ -16309,10 +16309,10 @@
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
+        <v>981</v>
+      </c>
+      <c r="B602" t="s">
         <v>982</v>
-      </c>
-      <c r="B602" t="s">
-        <v>983</v>
       </c>
       <c r="C602" t="s">
         <v>233</v>
@@ -16386,10 +16386,10 @@
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B606" t="s">
         <v>1194</v>
-      </c>
-      <c r="B606" t="s">
-        <v>1195</v>
       </c>
       <c r="C606" t="s">
         <v>233</v>
@@ -16637,10 +16637,10 @@
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B619" t="s">
         <v>1285</v>
-      </c>
-      <c r="B619" t="s">
-        <v>1286</v>
       </c>
       <c r="C619" t="s">
         <v>233</v>
@@ -16720,7 +16720,7 @@
         <v>134</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C623" t="s">
         <v>1</v>
@@ -16814,10 +16814,10 @@
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B628" t="s">
         <v>1258</v>
-      </c>
-      <c r="B628" t="s">
-        <v>1259</v>
       </c>
       <c r="C628" t="s">
         <v>233</v>
@@ -16834,10 +16834,10 @@
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B629" t="s">
         <v>1360</v>
-      </c>
-      <c r="B629" t="s">
-        <v>1361</v>
       </c>
       <c r="C629" t="s">
         <v>233</v>
@@ -16854,10 +16854,10 @@
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B630" t="s">
         <v>1186</v>
-      </c>
-      <c r="B630" t="s">
-        <v>1187</v>
       </c>
       <c r="C630" t="s">
         <v>233</v>
@@ -16934,10 +16934,10 @@
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B634" t="s">
         <v>1269</v>
-      </c>
-      <c r="B634" t="s">
-        <v>1270</v>
       </c>
       <c r="C634" t="s">
         <v>233</v>
@@ -16991,10 +16991,10 @@
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
+        <v>967</v>
+      </c>
+      <c r="B637" t="s">
         <v>968</v>
-      </c>
-      <c r="B637" t="s">
-        <v>969</v>
       </c>
       <c r="C637" t="s">
         <v>233</v>
@@ -17011,10 +17011,10 @@
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B638" t="s">
         <v>1084</v>
-      </c>
-      <c r="B638" t="s">
-        <v>1085</v>
       </c>
       <c r="C638" t="s">
         <v>233</v>
@@ -17051,10 +17051,10 @@
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B640" t="s">
         <v>1279</v>
-      </c>
-      <c r="B640" t="s">
-        <v>1280</v>
       </c>
       <c r="C640" t="s">
         <v>233</v>
@@ -17071,10 +17071,10 @@
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B641" t="s">
         <v>1281</v>
-      </c>
-      <c r="B641" t="s">
-        <v>1282</v>
       </c>
       <c r="C641" t="s">
         <v>233</v>
@@ -17091,10 +17091,10 @@
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B642" t="s">
         <v>1152</v>
-      </c>
-      <c r="B642" t="s">
-        <v>1153</v>
       </c>
       <c r="C642" t="s">
         <v>233</v>
@@ -17111,10 +17111,10 @@
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B643" t="s">
         <v>1158</v>
-      </c>
-      <c r="B643" t="s">
-        <v>1159</v>
       </c>
       <c r="C643" t="s">
         <v>233</v>
@@ -17131,7 +17131,7 @@
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C644" t="s">
         <v>233</v>
@@ -17165,10 +17165,10 @@
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B646" t="s">
         <v>1165</v>
-      </c>
-      <c r="B646" t="s">
-        <v>1166</v>
       </c>
       <c r="C646" t="s">
         <v>233</v>
@@ -17185,10 +17185,10 @@
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B647" t="s">
         <v>1374</v>
-      </c>
-      <c r="B647" t="s">
-        <v>1375</v>
       </c>
       <c r="C647" t="s">
         <v>233</v>
@@ -17205,10 +17205,10 @@
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B648" t="s">
         <v>1376</v>
-      </c>
-      <c r="B648" t="s">
-        <v>1377</v>
       </c>
       <c r="C648" t="s">
         <v>233</v>
@@ -17282,10 +17282,10 @@
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B652" t="s">
         <v>1048</v>
-      </c>
-      <c r="B652" t="s">
-        <v>1049</v>
       </c>
       <c r="C652" t="s">
         <v>233</v>
@@ -17302,10 +17302,10 @@
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B653" t="s">
         <v>1180</v>
-      </c>
-      <c r="B653" t="s">
-        <v>1181</v>
       </c>
       <c r="C653" t="s">
         <v>233</v>
@@ -17476,10 +17476,10 @@
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B662" t="s">
         <v>1102</v>
-      </c>
-      <c r="B662" t="s">
-        <v>1103</v>
       </c>
       <c r="C662" t="s">
         <v>233</v>
@@ -17667,10 +17667,10 @@
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B672" t="s">
         <v>1178</v>
-      </c>
-      <c r="B672" t="s">
-        <v>1179</v>
       </c>
       <c r="C672" t="s">
         <v>233</v>
@@ -17687,10 +17687,10 @@
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B673" t="s">
         <v>1188</v>
-      </c>
-      <c r="B673" t="s">
-        <v>1189</v>
       </c>
       <c r="C673" t="s">
         <v>233</v>
@@ -17847,10 +17847,10 @@
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B681" t="s">
         <v>1013</v>
-      </c>
-      <c r="B681" t="s">
-        <v>1014</v>
       </c>
       <c r="C681" t="s">
         <v>233</v>
@@ -17907,10 +17907,10 @@
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B684" t="s">
         <v>1113</v>
-      </c>
-      <c r="B684" t="s">
-        <v>1114</v>
       </c>
       <c r="C684" t="s">
         <v>233</v>
@@ -18052,10 +18052,10 @@
     </row>
     <row r="692" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B692" t="s">
         <v>1350</v>
-      </c>
-      <c r="B692" t="s">
-        <v>1351</v>
       </c>
       <c r="C692" t="s">
         <v>233</v>
@@ -18203,10 +18203,10 @@
     </row>
     <row r="700" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B700" t="s">
         <v>1130</v>
-      </c>
-      <c r="B700" t="s">
-        <v>1131</v>
       </c>
       <c r="C700" t="s">
         <v>233</v>
@@ -18283,10 +18283,10 @@
     </row>
     <row r="704" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B704" t="s">
         <v>1304</v>
-      </c>
-      <c r="B704" t="s">
-        <v>1305</v>
       </c>
       <c r="C704" t="s">
         <v>233</v>
@@ -18323,7 +18323,7 @@
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B706" t="s">
         <v>232</v>
@@ -18343,7 +18343,7 @@
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B707" t="s">
         <v>232</v>
@@ -18369,8 +18369,9 @@
     <hyperlink ref="B199" r:id="rId4" xr:uid="{C4FF15A8-DCFB-45FE-9508-C49A5355DD2E}"/>
     <hyperlink ref="B623" r:id="rId5" xr:uid="{1E7235ED-C73D-4A75-ACE8-FC1876A7D02C}"/>
     <hyperlink ref="B106" r:id="rId6" xr:uid="{419B2CD6-76F3-456C-894C-496997E3F2C1}"/>
+    <hyperlink ref="B163" r:id="rId7" xr:uid="{F723D508-E6CE-40BC-960E-F2B1B9CA372B}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/jogos.xlsx
+++ b/jogos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\mycollections-cli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAC52A4-40B5-4670-95E5-56904E5D9B47}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29C46EB-922B-40C6-9AF0-FD4853AB55FA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{0C35237A-6EB4-4B02-9651-931FED775CEC}"/>
   </bookViews>
@@ -3795,9 +3795,6 @@
     <t>For Honor</t>
   </si>
   <si>
-    <t>http://media.steampowered.com/steamcommunity/public/images/apps/304390/64dd8eca34f0b5faeda135f057da1973806852f2.jpg</t>
-  </si>
-  <si>
     <t>For Honor - Public Test</t>
   </si>
   <si>
@@ -4216,6 +4213,9 @@
   </si>
   <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQeuWnfympcGNeoUmmKFBkQQ5jK53OYuRPzPaA1liReMib6zA0T</t>
+  </si>
+  <si>
+    <t>https://www.oficinadanet.com.br/imagens/post/18102/for-honor.jpg</t>
   </si>
 </sst>
 </file>
@@ -4589,8 +4589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E073D1A-5126-4785-A652-5C66939BBDE3}">
   <dimension ref="A1:F707"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B164" sqref="B164"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="B218" sqref="B218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4624,10 +4624,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B2" t="s">
         <v>1297</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1298</v>
       </c>
       <c r="C2" t="s">
         <v>233</v>
@@ -4744,10 +4744,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B8" t="s">
         <v>1321</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1322</v>
       </c>
       <c r="C8" t="s">
         <v>233</v>
@@ -4764,10 +4764,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B9" t="s">
         <v>1286</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1287</v>
       </c>
       <c r="C9" t="s">
         <v>233</v>
@@ -4821,10 +4821,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B12" t="s">
         <v>1333</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1334</v>
       </c>
       <c r="C12" t="s">
         <v>233</v>
@@ -4918,10 +4918,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B17" t="s">
         <v>1365</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1366</v>
       </c>
       <c r="C17" t="s">
         <v>233</v>
@@ -5112,7 +5112,7 @@
         <v>121</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C27" t="s">
         <v>58</v>
@@ -5263,7 +5263,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B35" t="s">
         <v>28</v>
@@ -5280,10 +5280,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B36" t="s">
         <v>1355</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1356</v>
       </c>
       <c r="C36" t="s">
         <v>233</v>
@@ -5562,10 +5562,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B51" t="s">
         <v>1317</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1318</v>
       </c>
       <c r="C51" t="s">
         <v>233</v>
@@ -5873,10 +5873,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B67" t="s">
         <v>1282</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1283</v>
       </c>
       <c r="C67" t="s">
         <v>233</v>
@@ -6167,10 +6167,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B82" t="s">
         <v>1307</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1308</v>
       </c>
       <c r="C82" t="s">
         <v>233</v>
@@ -6424,10 +6424,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B95" t="s">
         <v>1325</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1326</v>
       </c>
       <c r="C95" t="s">
         <v>233</v>
@@ -6461,10 +6461,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B97" t="s">
         <v>1266</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1267</v>
       </c>
       <c r="C97" t="s">
         <v>233</v>
@@ -6561,10 +6561,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B102" t="s">
         <v>1292</v>
-      </c>
-      <c r="B102" t="s">
-        <v>1293</v>
       </c>
       <c r="C102" t="s">
         <v>233</v>
@@ -6644,7 +6644,7 @@
         <v>1247</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C106" t="s">
         <v>233</v>
@@ -7146,10 +7146,10 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B132" t="s">
         <v>1367</v>
-      </c>
-      <c r="B132" t="s">
-        <v>1368</v>
       </c>
       <c r="C132" t="s">
         <v>233</v>
@@ -7454,10 +7454,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B148" t="s">
         <v>1329</v>
-      </c>
-      <c r="B148" t="s">
-        <v>1330</v>
       </c>
       <c r="C148" t="s">
         <v>233</v>
@@ -7574,10 +7574,10 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B154" t="s">
         <v>1377</v>
-      </c>
-      <c r="B154" t="s">
-        <v>1378</v>
       </c>
       <c r="C154" t="s">
         <v>233</v>
@@ -7654,7 +7654,7 @@
         <v>0</v>
       </c>
       <c r="B158" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C158" t="s">
         <v>1</v>
@@ -7748,7 +7748,7 @@
         <v>958</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C163" t="s">
         <v>233</v>
@@ -7822,10 +7822,10 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B167" t="s">
         <v>1337</v>
-      </c>
-      <c r="B167" t="s">
-        <v>1338</v>
       </c>
       <c r="C167" t="s">
         <v>233</v>
@@ -8022,10 +8022,10 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B177" t="s">
         <v>1295</v>
-      </c>
-      <c r="B177" t="s">
-        <v>1296</v>
       </c>
       <c r="C177" t="s">
         <v>233</v>
@@ -8042,10 +8042,10 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B178" t="s">
         <v>1272</v>
-      </c>
-      <c r="B178" t="s">
-        <v>1273</v>
       </c>
       <c r="C178" t="s">
         <v>233</v>
@@ -8182,10 +8182,10 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B185" t="s">
         <v>1290</v>
-      </c>
-      <c r="B185" t="s">
-        <v>1291</v>
       </c>
       <c r="C185" t="s">
         <v>233</v>
@@ -8262,10 +8262,10 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B189" t="s">
         <v>1264</v>
-      </c>
-      <c r="B189" t="s">
-        <v>1265</v>
       </c>
       <c r="C189" t="s">
         <v>233</v>
@@ -8439,7 +8439,7 @@
         <v>1252</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C198" t="s">
         <v>233</v>
@@ -8459,7 +8459,7 @@
         <v>87</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C199" t="s">
         <v>58</v>
@@ -8476,7 +8476,7 @@
         <v>88</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C200" t="s">
         <v>58</v>
@@ -8547,10 +8547,10 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B204" t="s">
         <v>1323</v>
-      </c>
-      <c r="B204" t="s">
-        <v>1324</v>
       </c>
       <c r="C204" t="s">
         <v>233</v>
@@ -8567,10 +8567,10 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B205" t="s">
         <v>1301</v>
-      </c>
-      <c r="B205" t="s">
-        <v>1302</v>
       </c>
       <c r="C205" t="s">
         <v>233</v>
@@ -8794,8 +8794,8 @@
       <c r="A217" t="s">
         <v>1253</v>
       </c>
-      <c r="B217" t="s">
-        <v>1254</v>
+      <c r="B217" s="1" t="s">
+        <v>1394</v>
       </c>
       <c r="C217" t="s">
         <v>233</v>
@@ -8812,10 +8812,10 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B218" t="s">
         <v>1255</v>
-      </c>
-      <c r="B218" t="s">
-        <v>1256</v>
       </c>
       <c r="C218" t="s">
         <v>233</v>
@@ -9003,10 +9003,10 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B228" t="s">
         <v>1363</v>
-      </c>
-      <c r="B228" t="s">
-        <v>1364</v>
       </c>
       <c r="C228" t="s">
         <v>233</v>
@@ -9083,10 +9083,10 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B232" t="s">
         <v>1313</v>
-      </c>
-      <c r="B232" t="s">
-        <v>1314</v>
       </c>
       <c r="C232" t="s">
         <v>233</v>
@@ -9260,7 +9260,7 @@
         <v>674</v>
       </c>
       <c r="B241" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C241" t="s">
         <v>233</v>
@@ -9411,10 +9411,10 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B249" t="s">
         <v>1260</v>
-      </c>
-      <c r="B249" t="s">
-        <v>1261</v>
       </c>
       <c r="C249" t="s">
         <v>233</v>
@@ -9431,10 +9431,10 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B250" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C250" t="s">
         <v>233</v>
@@ -9968,10 +9968,10 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B277" t="s">
         <v>1371</v>
-      </c>
-      <c r="B277" t="s">
-        <v>1372</v>
       </c>
       <c r="C277" t="s">
         <v>233</v>
@@ -10368,10 +10368,10 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B297" t="s">
         <v>1319</v>
-      </c>
-      <c r="B297" t="s">
-        <v>1320</v>
       </c>
       <c r="C297" t="s">
         <v>233</v>
@@ -10408,10 +10408,10 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B299" t="s">
         <v>1345</v>
-      </c>
-      <c r="B299" t="s">
-        <v>1346</v>
       </c>
       <c r="C299" t="s">
         <v>233</v>
@@ -10445,10 +10445,10 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B301" t="s">
         <v>1361</v>
-      </c>
-      <c r="B301" t="s">
-        <v>1362</v>
       </c>
       <c r="C301" t="s">
         <v>233</v>
@@ -10682,10 +10682,10 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B313" t="s">
         <v>1351</v>
-      </c>
-      <c r="B313" t="s">
-        <v>1352</v>
       </c>
       <c r="C313" t="s">
         <v>233</v>
@@ -11073,10 +11073,10 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B333" t="s">
         <v>1315</v>
-      </c>
-      <c r="B333" t="s">
-        <v>1316</v>
       </c>
       <c r="C333" t="s">
         <v>233</v>
@@ -11310,10 +11310,10 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B345" t="s">
         <v>1288</v>
-      </c>
-      <c r="B345" t="s">
-        <v>1289</v>
       </c>
       <c r="C345" t="s">
         <v>233</v>
@@ -11777,10 +11777,10 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B370" t="s">
         <v>1335</v>
-      </c>
-      <c r="B370" t="s">
-        <v>1336</v>
       </c>
       <c r="C370" t="s">
         <v>233</v>
@@ -11837,10 +11837,10 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B373" t="s">
         <v>1309</v>
-      </c>
-      <c r="B373" t="s">
-        <v>1310</v>
       </c>
       <c r="C373" t="s">
         <v>233</v>
@@ -12442,10 +12442,10 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B404" t="s">
         <v>1353</v>
-      </c>
-      <c r="B404" t="s">
-        <v>1354</v>
       </c>
       <c r="C404" t="s">
         <v>233</v>
@@ -12548,7 +12548,7 @@
         <v>228</v>
       </c>
       <c r="D409" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="E409" t="s">
         <v>229</v>
@@ -12576,10 +12576,10 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B411" t="s">
         <v>1276</v>
-      </c>
-      <c r="B411" t="s">
-        <v>1277</v>
       </c>
       <c r="C411" t="s">
         <v>233</v>
@@ -12596,10 +12596,10 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B412" t="s">
         <v>1369</v>
-      </c>
-      <c r="B412" t="s">
-        <v>1370</v>
       </c>
       <c r="C412" t="s">
         <v>233</v>
@@ -12636,10 +12636,10 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B414" t="s">
         <v>1357</v>
-      </c>
-      <c r="B414" t="s">
-        <v>1358</v>
       </c>
       <c r="C414" t="s">
         <v>233</v>
@@ -12870,10 +12870,10 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B426" t="s">
         <v>1339</v>
-      </c>
-      <c r="B426" t="s">
-        <v>1340</v>
       </c>
       <c r="C426" t="s">
         <v>233</v>
@@ -13429,10 +13429,10 @@
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B455" t="s">
         <v>1343</v>
-      </c>
-      <c r="B455" t="s">
-        <v>1344</v>
       </c>
       <c r="C455" t="s">
         <v>233</v>
@@ -13529,10 +13529,10 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B460" t="s">
         <v>1327</v>
-      </c>
-      <c r="B460" t="s">
-        <v>1328</v>
       </c>
       <c r="C460" t="s">
         <v>233</v>
@@ -13783,7 +13783,7 @@
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B473" t="s">
         <v>308</v>
@@ -13803,7 +13803,7 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B474" t="s">
         <v>325</v>
@@ -13823,7 +13823,7 @@
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B475" t="s">
         <v>1174</v>
@@ -13843,7 +13843,7 @@
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B476" t="s">
         <v>384</v>
@@ -13863,7 +13863,7 @@
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B477" t="s">
         <v>303</v>
@@ -13883,7 +13883,7 @@
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B478" t="s">
         <v>1103</v>
@@ -14183,10 +14183,10 @@
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B493" t="s">
         <v>1311</v>
-      </c>
-      <c r="B493" t="s">
-        <v>1312</v>
       </c>
       <c r="C493" t="s">
         <v>233</v>
@@ -14340,10 +14340,10 @@
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B501" t="s">
         <v>1331</v>
-      </c>
-      <c r="B501" t="s">
-        <v>1332</v>
       </c>
       <c r="C501" t="s">
         <v>233</v>
@@ -14591,10 +14591,10 @@
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B514" t="s">
         <v>1305</v>
-      </c>
-      <c r="B514" t="s">
-        <v>1306</v>
       </c>
       <c r="C514" t="s">
         <v>233</v>
@@ -14908,7 +14908,7 @@
         <v>973</v>
       </c>
       <c r="B530" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C530" t="s">
         <v>233</v>
@@ -14968,7 +14968,7 @@
         <v>971</v>
       </c>
       <c r="B533" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C533" t="s">
         <v>233</v>
@@ -15119,10 +15119,10 @@
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B541" t="s">
         <v>1347</v>
-      </c>
-      <c r="B541" t="s">
-        <v>1348</v>
       </c>
       <c r="C541" t="s">
         <v>233</v>
@@ -15336,10 +15336,10 @@
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B552" t="s">
         <v>1262</v>
-      </c>
-      <c r="B552" t="s">
-        <v>1263</v>
       </c>
       <c r="C552" t="s">
         <v>233</v>
@@ -15436,10 +15436,10 @@
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B557" t="s">
         <v>1299</v>
-      </c>
-      <c r="B557" t="s">
-        <v>1300</v>
       </c>
       <c r="C557" t="s">
         <v>233</v>
@@ -15844,10 +15844,10 @@
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B578" t="s">
         <v>1341</v>
-      </c>
-      <c r="B578" t="s">
-        <v>1342</v>
       </c>
       <c r="C578" t="s">
         <v>233</v>
@@ -15904,10 +15904,10 @@
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B581" t="s">
         <v>1274</v>
-      </c>
-      <c r="B581" t="s">
-        <v>1275</v>
       </c>
       <c r="C581" t="s">
         <v>233</v>
@@ -16637,10 +16637,10 @@
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B619" t="s">
         <v>1284</v>
-      </c>
-      <c r="B619" t="s">
-        <v>1285</v>
       </c>
       <c r="C619" t="s">
         <v>233</v>
@@ -16720,7 +16720,7 @@
         <v>134</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C623" t="s">
         <v>1</v>
@@ -16814,10 +16814,10 @@
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B628" t="s">
         <v>1257</v>
-      </c>
-      <c r="B628" t="s">
-        <v>1258</v>
       </c>
       <c r="C628" t="s">
         <v>233</v>
@@ -16834,10 +16834,10 @@
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B629" t="s">
         <v>1359</v>
-      </c>
-      <c r="B629" t="s">
-        <v>1360</v>
       </c>
       <c r="C629" t="s">
         <v>233</v>
@@ -16934,10 +16934,10 @@
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B634" t="s">
         <v>1268</v>
-      </c>
-      <c r="B634" t="s">
-        <v>1269</v>
       </c>
       <c r="C634" t="s">
         <v>233</v>
@@ -17051,10 +17051,10 @@
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B640" t="s">
         <v>1278</v>
-      </c>
-      <c r="B640" t="s">
-        <v>1279</v>
       </c>
       <c r="C640" t="s">
         <v>233</v>
@@ -17071,10 +17071,10 @@
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B641" t="s">
         <v>1280</v>
-      </c>
-      <c r="B641" t="s">
-        <v>1281</v>
       </c>
       <c r="C641" t="s">
         <v>233</v>
@@ -17185,10 +17185,10 @@
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B647" t="s">
         <v>1373</v>
-      </c>
-      <c r="B647" t="s">
-        <v>1374</v>
       </c>
       <c r="C647" t="s">
         <v>233</v>
@@ -17205,10 +17205,10 @@
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B648" t="s">
         <v>1375</v>
-      </c>
-      <c r="B648" t="s">
-        <v>1376</v>
       </c>
       <c r="C648" t="s">
         <v>233</v>
@@ -18052,10 +18052,10 @@
     </row>
     <row r="692" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B692" t="s">
         <v>1349</v>
-      </c>
-      <c r="B692" t="s">
-        <v>1350</v>
       </c>
       <c r="C692" t="s">
         <v>233</v>
@@ -18283,10 +18283,10 @@
     </row>
     <row r="704" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B704" t="s">
         <v>1303</v>
-      </c>
-      <c r="B704" t="s">
-        <v>1304</v>
       </c>
       <c r="C704" t="s">
         <v>233</v>
@@ -18323,7 +18323,7 @@
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B706" t="s">
         <v>232</v>
@@ -18343,7 +18343,7 @@
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B707" t="s">
         <v>232</v>
@@ -18370,8 +18370,9 @@
     <hyperlink ref="B623" r:id="rId5" xr:uid="{1E7235ED-C73D-4A75-ACE8-FC1876A7D02C}"/>
     <hyperlink ref="B106" r:id="rId6" xr:uid="{419B2CD6-76F3-456C-894C-496997E3F2C1}"/>
     <hyperlink ref="B163" r:id="rId7" xr:uid="{F723D508-E6CE-40BC-960E-F2B1B9CA372B}"/>
+    <hyperlink ref="B217" r:id="rId8" xr:uid="{FB40AEB8-DF48-4191-A4BC-673A6FD43EA3}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/jogos.xlsx
+++ b/jogos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\mycollections-cli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29C46EB-922B-40C6-9AF0-FD4853AB55FA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F047B37-2103-4368-9F2C-1D3365400348}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{0C35237A-6EB4-4B02-9651-931FED775CEC}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3522" uniqueCount="1395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3524" uniqueCount="1397">
   <si>
     <t>Dragon Age Origins</t>
   </si>
@@ -4216,6 +4216,12 @@
   </si>
   <si>
     <t>https://www.oficinadanet.com.br/imagens/post/18102/for-honor.jpg</t>
+  </si>
+  <si>
+    <t>http://www.mweb.co.za/DesktopModules/DigArticle/MediaHandler.ashx?portalid=20&amp;moduleid=5259&amp;mediaid=52965&amp;width=665&amp;height=400</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ6FucwiR-HCKJMJigIUR6g4vNSbsSXUtUPFgsxGOtNNeVL9eRZLA</t>
   </si>
 </sst>
 </file>
@@ -4589,8 +4595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E073D1A-5126-4785-A652-5C66939BBDE3}">
   <dimension ref="A1:F707"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="B218" sqref="B218"/>
+    <sheetView tabSelected="1" topLeftCell="A667" workbookViewId="0">
+      <selection activeCell="B691" sqref="B691"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18020,6 +18026,9 @@
       <c r="A690" t="s">
         <v>139</v>
       </c>
+      <c r="B690" s="1" t="s">
+        <v>1396</v>
+      </c>
       <c r="C690" t="s">
         <v>1</v>
       </c>
@@ -18073,6 +18082,9 @@
     <row r="693" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>59</v>
+      </c>
+      <c r="B693" s="1" t="s">
+        <v>1395</v>
       </c>
       <c r="C693" t="s">
         <v>58</v>
@@ -18371,8 +18383,10 @@
     <hyperlink ref="B106" r:id="rId6" xr:uid="{419B2CD6-76F3-456C-894C-496997E3F2C1}"/>
     <hyperlink ref="B163" r:id="rId7" xr:uid="{F723D508-E6CE-40BC-960E-F2B1B9CA372B}"/>
     <hyperlink ref="B217" r:id="rId8" xr:uid="{FB40AEB8-DF48-4191-A4BC-673A6FD43EA3}"/>
+    <hyperlink ref="B693" r:id="rId9" xr:uid="{E69B2788-3231-4301-AA5A-C0EC9C810CA9}"/>
+    <hyperlink ref="B690" r:id="rId10" xr:uid="{AA568B96-FA0C-458D-8733-B95E26833E38}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/jogos.xlsx
+++ b/jogos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\mycollections-cli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F047B37-2103-4368-9F2C-1D3365400348}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A290E5E2-47C8-4177-BD58-F446E3C2F6F3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{0C35237A-6EB4-4B02-9651-931FED775CEC}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3524" uniqueCount="1397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3525" uniqueCount="1398">
   <si>
     <t>Dragon Age Origins</t>
   </si>
@@ -4222,6 +4222,9 @@
   </si>
   <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ6FucwiR-HCKJMJigIUR6g4vNSbsSXUtUPFgsxGOtNNeVL9eRZLA</t>
+  </si>
+  <si>
+    <t>https://steamcdn-a.akamaihd.net/steam/apps/15130/header.jpg?t=1447351297</t>
   </si>
 </sst>
 </file>
@@ -4595,8 +4598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E073D1A-5126-4785-A652-5C66939BBDE3}">
   <dimension ref="A1:F707"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A667" workbookViewId="0">
-      <selection activeCell="B691" sqref="B691"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5589,6 +5592,9 @@
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>84</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1397</v>
       </c>
       <c r="C52" t="s">
         <v>58</v>
@@ -18385,8 +18391,9 @@
     <hyperlink ref="B217" r:id="rId8" xr:uid="{FB40AEB8-DF48-4191-A4BC-673A6FD43EA3}"/>
     <hyperlink ref="B693" r:id="rId9" xr:uid="{E69B2788-3231-4301-AA5A-C0EC9C810CA9}"/>
     <hyperlink ref="B690" r:id="rId10" xr:uid="{AA568B96-FA0C-458D-8733-B95E26833E38}"/>
+    <hyperlink ref="B52" r:id="rId11" xr:uid="{42256FEE-B4A9-42EE-A425-53B52A85F2F0}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/jogos.xlsx
+++ b/jogos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\mycollections-cli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A290E5E2-47C8-4177-BD58-F446E3C2F6F3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79041ED5-9C95-4668-B5B9-3D892CEC67D6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{0C35237A-6EB4-4B02-9651-931FED775CEC}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3525" uniqueCount="1398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3526" uniqueCount="1399">
   <si>
     <t>Dragon Age Origins</t>
   </si>
@@ -4225,6 +4225,9 @@
   </si>
   <si>
     <t>https://steamcdn-a.akamaihd.net/steam/apps/15130/header.jpg?t=1447351297</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRksyZJ8rXgnEethNlSN_mSWi1MULYzsi4ClsHtzOwUsS6G5sHSdQ</t>
   </si>
 </sst>
 </file>
@@ -4598,8 +4601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E073D1A-5126-4785-A652-5C66939BBDE3}">
   <dimension ref="A1:F707"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A673" workbookViewId="0">
+      <selection activeCell="B688" sqref="B688"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17977,6 +17980,9 @@
     <row r="687" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>57</v>
+      </c>
+      <c r="B687" s="1" t="s">
+        <v>1398</v>
       </c>
       <c r="C687" t="s">
         <v>58</v>
@@ -18392,8 +18398,9 @@
     <hyperlink ref="B693" r:id="rId9" xr:uid="{E69B2788-3231-4301-AA5A-C0EC9C810CA9}"/>
     <hyperlink ref="B690" r:id="rId10" xr:uid="{AA568B96-FA0C-458D-8733-B95E26833E38}"/>
     <hyperlink ref="B52" r:id="rId11" xr:uid="{42256FEE-B4A9-42EE-A425-53B52A85F2F0}"/>
+    <hyperlink ref="B687" r:id="rId12" xr:uid="{80AC7A6C-2585-434D-8440-D423D1E44702}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/jogos.xlsx
+++ b/jogos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\mycollections-cli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79041ED5-9C95-4668-B5B9-3D892CEC67D6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50AABB5-BAC4-484F-A18F-3267B3798635}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{0C35237A-6EB4-4B02-9651-931FED775CEC}"/>
   </bookViews>
@@ -1995,9 +1995,6 @@
     <t>Desert Law</t>
   </si>
   <si>
-    <t>http://media.steampowered.com/steamcommunity/public/images/apps/356280/9513e97a23b98d0f09dd1fdd2ca5c3ded956d6c8.jpg</t>
-  </si>
-  <si>
     <t>Day of Defeat: Source</t>
   </si>
   <si>
@@ -4228,6 +4225,9 @@
   </si>
   <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRksyZJ8rXgnEethNlSN_mSWi1MULYzsi4ClsHtzOwUsS6G5sHSdQ</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT3N4EFlywVNWufo1INuxGNI78gIt_E1NadML9JaScHSDH2ev7X0g</t>
   </si>
 </sst>
 </file>
@@ -4601,8 +4601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E073D1A-5126-4785-A652-5C66939BBDE3}">
   <dimension ref="A1:F707"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A673" workbookViewId="0">
-      <selection activeCell="B688" sqref="B688"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4616,10 +4616,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B1" t="s">
         <v>1097</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1098</v>
       </c>
       <c r="C1" t="s">
         <v>233</v>
@@ -4636,10 +4636,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B2" t="s">
         <v>1296</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1297</v>
       </c>
       <c r="C2" t="s">
         <v>233</v>
@@ -4676,10 +4676,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>882</v>
+      </c>
+      <c r="B4" t="s">
         <v>883</v>
-      </c>
-      <c r="B4" t="s">
-        <v>884</v>
       </c>
       <c r="C4" t="s">
         <v>233</v>
@@ -4756,10 +4756,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B8" t="s">
         <v>1320</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1321</v>
       </c>
       <c r="C8" t="s">
         <v>233</v>
@@ -4776,10 +4776,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B9" t="s">
         <v>1285</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1286</v>
       </c>
       <c r="C9" t="s">
         <v>233</v>
@@ -4796,10 +4796,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>984</v>
+      </c>
+      <c r="B10" t="s">
         <v>985</v>
-      </c>
-      <c r="B10" t="s">
-        <v>986</v>
       </c>
       <c r="C10" t="s">
         <v>233</v>
@@ -4833,10 +4833,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B12" t="s">
         <v>1332</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1333</v>
       </c>
       <c r="C12" t="s">
         <v>233</v>
@@ -4870,10 +4870,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B14" t="s">
         <v>1170</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1171</v>
       </c>
       <c r="C14" t="s">
         <v>233</v>
@@ -4910,10 +4910,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B16" t="s">
         <v>1136</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1137</v>
       </c>
       <c r="C16" t="s">
         <v>233</v>
@@ -4930,10 +4930,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B17" t="s">
         <v>1364</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1365</v>
       </c>
       <c r="C17" t="s">
         <v>233</v>
@@ -4970,7 +4970,7 @@
         <v>140</v>
       </c>
       <c r="B19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C19" t="s">
         <v>233</v>
@@ -4987,10 +4987,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B20" t="s">
         <v>1053</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1054</v>
       </c>
       <c r="C20" t="s">
         <v>233</v>
@@ -5027,10 +5027,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>680</v>
+      </c>
+      <c r="B22" t="s">
         <v>681</v>
-      </c>
-      <c r="B22" t="s">
-        <v>682</v>
       </c>
       <c r="C22" t="s">
         <v>233</v>
@@ -5047,10 +5047,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>721</v>
+      </c>
+      <c r="B23" t="s">
         <v>722</v>
-      </c>
-      <c r="B23" t="s">
-        <v>723</v>
       </c>
       <c r="C23" t="s">
         <v>233</v>
@@ -5084,10 +5084,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>711</v>
+      </c>
+      <c r="B25" t="s">
         <v>712</v>
-      </c>
-      <c r="B25" t="s">
-        <v>713</v>
       </c>
       <c r="C25" t="s">
         <v>233</v>
@@ -5124,7 +5124,7 @@
         <v>121</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C27" t="s">
         <v>58</v>
@@ -5175,10 +5175,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B30" t="s">
         <v>1250</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1251</v>
       </c>
       <c r="C30" t="s">
         <v>233</v>
@@ -5215,10 +5215,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>962</v>
+      </c>
+      <c r="B32" t="s">
         <v>963</v>
-      </c>
-      <c r="B32" t="s">
-        <v>964</v>
       </c>
       <c r="C32" t="s">
         <v>233</v>
@@ -5235,10 +5235,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>738</v>
+      </c>
+      <c r="B33" t="s">
         <v>739</v>
-      </c>
-      <c r="B33" t="s">
-        <v>740</v>
       </c>
       <c r="C33" t="s">
         <v>233</v>
@@ -5255,10 +5255,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>870</v>
+      </c>
+      <c r="B34" t="s">
         <v>871</v>
-      </c>
-      <c r="B34" t="s">
-        <v>872</v>
       </c>
       <c r="C34" t="s">
         <v>233</v>
@@ -5275,7 +5275,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B35" t="s">
         <v>28</v>
@@ -5292,10 +5292,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B36" t="s">
         <v>1354</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1355</v>
       </c>
       <c r="C36" t="s">
         <v>233</v>
@@ -5312,10 +5312,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>830</v>
+      </c>
+      <c r="B37" t="s">
         <v>831</v>
-      </c>
-      <c r="B37" t="s">
-        <v>832</v>
       </c>
       <c r="C37" t="s">
         <v>233</v>
@@ -5355,7 +5355,7 @@
         <v>203</v>
       </c>
       <c r="B39" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C39" t="s">
         <v>164</v>
@@ -5372,7 +5372,7 @@
         <v>203</v>
       </c>
       <c r="B40" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C40" t="s">
         <v>233</v>
@@ -5389,10 +5389,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B41" t="s">
         <v>1189</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1190</v>
       </c>
       <c r="C41" t="s">
         <v>233</v>
@@ -5574,10 +5574,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B51" t="s">
         <v>1316</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1317</v>
       </c>
       <c r="C51" t="s">
         <v>233</v>
@@ -5597,7 +5597,7 @@
         <v>84</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C52" t="s">
         <v>58</v>
@@ -5611,10 +5611,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>730</v>
+      </c>
+      <c r="B53" t="s">
         <v>731</v>
-      </c>
-      <c r="B53" t="s">
-        <v>732</v>
       </c>
       <c r="C53" t="s">
         <v>233</v>
@@ -5631,10 +5631,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>804</v>
+      </c>
+      <c r="B54" t="s">
         <v>805</v>
-      </c>
-      <c r="B54" t="s">
-        <v>806</v>
       </c>
       <c r="C54" t="s">
         <v>233</v>
@@ -5651,10 +5651,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>802</v>
+      </c>
+      <c r="B55" t="s">
         <v>803</v>
-      </c>
-      <c r="B55" t="s">
-        <v>804</v>
       </c>
       <c r="C55" t="s">
         <v>233</v>
@@ -5671,10 +5671,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>986</v>
+      </c>
+      <c r="B56" t="s">
         <v>987</v>
-      </c>
-      <c r="B56" t="s">
-        <v>988</v>
       </c>
       <c r="C56" t="s">
         <v>233</v>
@@ -5731,10 +5731,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B59" t="s">
         <v>1145</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1146</v>
       </c>
       <c r="C59" t="s">
         <v>233</v>
@@ -5751,10 +5751,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>988</v>
+      </c>
+      <c r="B60" t="s">
         <v>989</v>
-      </c>
-      <c r="B60" t="s">
-        <v>990</v>
       </c>
       <c r="C60" t="s">
         <v>233</v>
@@ -5791,10 +5791,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>719</v>
+      </c>
+      <c r="B62" t="s">
         <v>720</v>
-      </c>
-      <c r="B62" t="s">
-        <v>721</v>
       </c>
       <c r="C62" t="s">
         <v>233</v>
@@ -5811,10 +5811,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B63" t="s">
         <v>1041</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1042</v>
       </c>
       <c r="C63" t="s">
         <v>233</v>
@@ -5831,10 +5831,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B64" t="s">
         <v>1051</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1052</v>
       </c>
       <c r="C64" t="s">
         <v>233</v>
@@ -5868,10 +5868,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B66" t="s">
         <v>1069</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1070</v>
       </c>
       <c r="C66" t="s">
         <v>233</v>
@@ -5888,10 +5888,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B67" t="s">
         <v>1281</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1282</v>
       </c>
       <c r="C67" t="s">
         <v>233</v>
@@ -5968,10 +5968,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B71" t="s">
         <v>1043</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1044</v>
       </c>
       <c r="C71" t="s">
         <v>233</v>
@@ -6008,10 +6008,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B73" t="s">
         <v>1021</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1022</v>
       </c>
       <c r="C73" t="s">
         <v>233</v>
@@ -6142,10 +6142,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B80" t="s">
         <v>1035</v>
-      </c>
-      <c r="B80" t="s">
-        <v>1036</v>
       </c>
       <c r="C80" t="s">
         <v>233</v>
@@ -6162,10 +6162,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B81" t="s">
         <v>1089</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1090</v>
       </c>
       <c r="C81" t="s">
         <v>233</v>
@@ -6182,10 +6182,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B82" t="s">
         <v>1306</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1307</v>
       </c>
       <c r="C82" t="s">
         <v>233</v>
@@ -6259,10 +6259,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B86" t="s">
         <v>1029</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1030</v>
       </c>
       <c r="C86" t="s">
         <v>233</v>
@@ -6279,10 +6279,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B87" t="s">
         <v>1160</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1161</v>
       </c>
       <c r="C87" t="s">
         <v>233</v>
@@ -6299,10 +6299,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B88" t="s">
         <v>1091</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1092</v>
       </c>
       <c r="C88" t="s">
         <v>233</v>
@@ -6319,10 +6319,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>766</v>
+      </c>
+      <c r="B89" t="s">
         <v>767</v>
-      </c>
-      <c r="B89" t="s">
-        <v>768</v>
       </c>
       <c r="C89" t="s">
         <v>233</v>
@@ -6339,10 +6339,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>997</v>
+      </c>
+      <c r="B90" t="s">
         <v>998</v>
-      </c>
-      <c r="B90" t="s">
-        <v>999</v>
       </c>
       <c r="C90" t="s">
         <v>233</v>
@@ -6439,10 +6439,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B95" t="s">
         <v>1324</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1325</v>
       </c>
       <c r="C95" t="s">
         <v>233</v>
@@ -6476,10 +6476,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B97" t="s">
         <v>1265</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1266</v>
       </c>
       <c r="C97" t="s">
         <v>233</v>
@@ -6496,10 +6496,10 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>898</v>
+      </c>
+      <c r="B98" t="s">
         <v>899</v>
-      </c>
-      <c r="B98" t="s">
-        <v>900</v>
       </c>
       <c r="C98" t="s">
         <v>233</v>
@@ -6516,10 +6516,10 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>748</v>
+      </c>
+      <c r="B99" t="s">
         <v>749</v>
-      </c>
-      <c r="B99" t="s">
-        <v>750</v>
       </c>
       <c r="C99" t="s">
         <v>233</v>
@@ -6536,10 +6536,10 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B100" t="s">
         <v>1141</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1142</v>
       </c>
       <c r="C100" t="s">
         <v>233</v>
@@ -6556,10 +6556,10 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B101" t="s">
         <v>1079</v>
-      </c>
-      <c r="B101" t="s">
-        <v>1080</v>
       </c>
       <c r="C101" t="s">
         <v>233</v>
@@ -6576,10 +6576,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B102" t="s">
         <v>1291</v>
-      </c>
-      <c r="B102" t="s">
-        <v>1292</v>
       </c>
       <c r="C102" t="s">
         <v>233</v>
@@ -6596,10 +6596,10 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>742</v>
+      </c>
+      <c r="B103" t="s">
         <v>743</v>
-      </c>
-      <c r="B103" t="s">
-        <v>744</v>
       </c>
       <c r="C103" t="s">
         <v>233</v>
@@ -6616,10 +6616,10 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B104" t="s">
         <v>1071</v>
-      </c>
-      <c r="B104" t="s">
-        <v>1072</v>
       </c>
       <c r="C104" t="s">
         <v>233</v>
@@ -6656,10 +6656,10 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C106" t="s">
         <v>233</v>
@@ -6676,10 +6676,10 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>945</v>
+      </c>
+      <c r="B107" t="s">
         <v>946</v>
-      </c>
-      <c r="B107" t="s">
-        <v>947</v>
       </c>
       <c r="C107" t="s">
         <v>233</v>
@@ -6736,10 +6736,10 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>838</v>
+      </c>
+      <c r="B110" t="s">
         <v>839</v>
-      </c>
-      <c r="B110" t="s">
-        <v>840</v>
       </c>
       <c r="C110" t="s">
         <v>233</v>
@@ -6756,10 +6756,10 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>968</v>
+      </c>
+      <c r="B111" t="s">
         <v>969</v>
-      </c>
-      <c r="B111" t="s">
-        <v>970</v>
       </c>
       <c r="C111" t="s">
         <v>233</v>
@@ -6796,10 +6796,10 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B113" t="s">
         <v>1008</v>
-      </c>
-      <c r="B113" t="s">
-        <v>1009</v>
       </c>
       <c r="C113" t="s">
         <v>233</v>
@@ -6816,10 +6816,10 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>955</v>
+      </c>
+      <c r="B114" t="s">
         <v>956</v>
-      </c>
-      <c r="B114" t="s">
-        <v>957</v>
       </c>
       <c r="C114" t="s">
         <v>233</v>
@@ -6890,7 +6890,7 @@
         <v>111</v>
       </c>
       <c r="B118" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C118" t="s">
         <v>233</v>
@@ -6941,10 +6941,10 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>772</v>
+      </c>
+      <c r="B121" t="s">
         <v>773</v>
-      </c>
-      <c r="B121" t="s">
-        <v>774</v>
       </c>
       <c r="C121" t="s">
         <v>233</v>
@@ -6981,10 +6981,10 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B123" t="s">
         <v>1223</v>
-      </c>
-      <c r="B123" t="s">
-        <v>1224</v>
       </c>
       <c r="C123" t="s">
         <v>233</v>
@@ -7001,10 +7001,10 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>790</v>
+      </c>
+      <c r="B124" t="s">
         <v>791</v>
-      </c>
-      <c r="B124" t="s">
-        <v>792</v>
       </c>
       <c r="C124" t="s">
         <v>233</v>
@@ -7041,10 +7041,10 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>744</v>
+      </c>
+      <c r="B126" t="s">
         <v>745</v>
-      </c>
-      <c r="B126" t="s">
-        <v>746</v>
       </c>
       <c r="C126" t="s">
         <v>233</v>
@@ -7061,10 +7061,10 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>834</v>
+      </c>
+      <c r="B127" t="s">
         <v>835</v>
-      </c>
-      <c r="B127" t="s">
-        <v>836</v>
       </c>
       <c r="C127" t="s">
         <v>233</v>
@@ -7081,10 +7081,10 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>750</v>
+      </c>
+      <c r="B128" t="s">
         <v>751</v>
-      </c>
-      <c r="B128" t="s">
-        <v>752</v>
       </c>
       <c r="C128" t="s">
         <v>233</v>
@@ -7101,10 +7101,10 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>654</v>
+      </c>
+      <c r="B129" t="s">
         <v>655</v>
-      </c>
-      <c r="B129" t="s">
-        <v>656</v>
       </c>
       <c r="C129" t="s">
         <v>233</v>
@@ -7121,10 +7121,10 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B130" t="s">
         <v>1014</v>
-      </c>
-      <c r="B130" t="s">
-        <v>1015</v>
       </c>
       <c r="C130" t="s">
         <v>233</v>
@@ -7141,10 +7141,10 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>990</v>
+      </c>
+      <c r="B131" t="s">
         <v>991</v>
-      </c>
-      <c r="B131" t="s">
-        <v>992</v>
       </c>
       <c r="C131" t="s">
         <v>233</v>
@@ -7161,10 +7161,10 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B132" t="s">
         <v>1366</v>
-      </c>
-      <c r="B132" t="s">
-        <v>1367</v>
       </c>
       <c r="C132" t="s">
         <v>233</v>
@@ -7272,10 +7272,10 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B138" t="s">
         <v>1004</v>
-      </c>
-      <c r="B138" t="s">
-        <v>1005</v>
       </c>
       <c r="C138" t="s">
         <v>233</v>
@@ -7329,10 +7329,10 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>892</v>
+      </c>
+      <c r="B141" t="s">
         <v>893</v>
-      </c>
-      <c r="B141" t="s">
-        <v>894</v>
       </c>
       <c r="C141" t="s">
         <v>233</v>
@@ -7349,10 +7349,10 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B142" t="s">
         <v>1231</v>
-      </c>
-      <c r="B142" t="s">
-        <v>1232</v>
       </c>
       <c r="C142" t="s">
         <v>233</v>
@@ -7371,8 +7371,8 @@
       <c r="A143" t="s">
         <v>653</v>
       </c>
-      <c r="B143" t="s">
-        <v>654</v>
+      <c r="B143" s="1" t="s">
+        <v>1398</v>
       </c>
       <c r="C143" t="s">
         <v>233</v>
@@ -7409,10 +7409,10 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B145" t="s">
         <v>1055</v>
-      </c>
-      <c r="B145" t="s">
-        <v>1056</v>
       </c>
       <c r="C145" t="s">
         <v>233</v>
@@ -7429,10 +7429,10 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>822</v>
+      </c>
+      <c r="B146" t="s">
         <v>823</v>
-      </c>
-      <c r="B146" t="s">
-        <v>824</v>
       </c>
       <c r="C146" t="s">
         <v>233</v>
@@ -7449,10 +7449,10 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>824</v>
+      </c>
+      <c r="B147" t="s">
         <v>825</v>
-      </c>
-      <c r="B147" t="s">
-        <v>826</v>
       </c>
       <c r="C147" t="s">
         <v>233</v>
@@ -7469,10 +7469,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B148" t="s">
         <v>1328</v>
-      </c>
-      <c r="B148" t="s">
-        <v>1329</v>
       </c>
       <c r="C148" t="s">
         <v>233</v>
@@ -7489,10 +7489,10 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>734</v>
+      </c>
+      <c r="B149" t="s">
         <v>735</v>
-      </c>
-      <c r="B149" t="s">
-        <v>736</v>
       </c>
       <c r="C149" t="s">
         <v>233</v>
@@ -7509,10 +7509,10 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>992</v>
+      </c>
+      <c r="B150" t="s">
         <v>993</v>
-      </c>
-      <c r="B150" t="s">
-        <v>994</v>
       </c>
       <c r="C150" t="s">
         <v>233</v>
@@ -7529,10 +7529,10 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>862</v>
+      </c>
+      <c r="B151" t="s">
         <v>863</v>
-      </c>
-      <c r="B151" t="s">
-        <v>864</v>
       </c>
       <c r="C151" t="s">
         <v>233</v>
@@ -7549,10 +7549,10 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B152" t="s">
         <v>1104</v>
-      </c>
-      <c r="B152" t="s">
-        <v>1105</v>
       </c>
       <c r="C152" t="s">
         <v>233</v>
@@ -7569,10 +7569,10 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>752</v>
+      </c>
+      <c r="B153" t="s">
         <v>753</v>
-      </c>
-      <c r="B153" t="s">
-        <v>754</v>
       </c>
       <c r="C153" t="s">
         <v>233</v>
@@ -7589,10 +7589,10 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B154" t="s">
         <v>1376</v>
-      </c>
-      <c r="B154" t="s">
-        <v>1377</v>
       </c>
       <c r="C154" t="s">
         <v>233</v>
@@ -7609,10 +7609,10 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>995</v>
+      </c>
+      <c r="B155" t="s">
         <v>996</v>
-      </c>
-      <c r="B155" t="s">
-        <v>997</v>
       </c>
       <c r="C155" t="s">
         <v>233</v>
@@ -7629,7 +7629,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C156" t="s">
         <v>233</v>
@@ -7646,10 +7646,10 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B157" t="s">
         <v>1033</v>
-      </c>
-      <c r="B157" t="s">
-        <v>1034</v>
       </c>
       <c r="C157" t="s">
         <v>233</v>
@@ -7669,7 +7669,7 @@
         <v>0</v>
       </c>
       <c r="B158" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C158" t="s">
         <v>1</v>
@@ -7720,10 +7720,10 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>780</v>
+      </c>
+      <c r="B161" t="s">
         <v>781</v>
-      </c>
-      <c r="B161" t="s">
-        <v>782</v>
       </c>
       <c r="C161" t="s">
         <v>233</v>
@@ -7760,10 +7760,10 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C163" t="s">
         <v>233</v>
@@ -7837,10 +7837,10 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B167" t="s">
         <v>1336</v>
-      </c>
-      <c r="B167" t="s">
-        <v>1337</v>
       </c>
       <c r="C167" t="s">
         <v>233</v>
@@ -7877,10 +7877,10 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B169" t="s">
         <v>1155</v>
-      </c>
-      <c r="B169" t="s">
-        <v>1156</v>
       </c>
       <c r="C169" t="s">
         <v>233</v>
@@ -7977,10 +7977,10 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>774</v>
+      </c>
+      <c r="B174" t="s">
         <v>775</v>
-      </c>
-      <c r="B174" t="s">
-        <v>776</v>
       </c>
       <c r="C174" t="s">
         <v>233</v>
@@ -7997,10 +7997,10 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>878</v>
+      </c>
+      <c r="B175" t="s">
         <v>879</v>
-      </c>
-      <c r="B175" t="s">
-        <v>880</v>
       </c>
       <c r="C175" t="s">
         <v>233</v>
@@ -8017,10 +8017,10 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>756</v>
+      </c>
+      <c r="B176" t="s">
         <v>757</v>
-      </c>
-      <c r="B176" t="s">
-        <v>758</v>
       </c>
       <c r="C176" t="s">
         <v>233</v>
@@ -8037,10 +8037,10 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B177" t="s">
         <v>1294</v>
-      </c>
-      <c r="B177" t="s">
-        <v>1295</v>
       </c>
       <c r="C177" t="s">
         <v>233</v>
@@ -8057,10 +8057,10 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B178" t="s">
         <v>1271</v>
-      </c>
-      <c r="B178" t="s">
-        <v>1272</v>
       </c>
       <c r="C178" t="s">
         <v>233</v>
@@ -8097,10 +8097,10 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>976</v>
+      </c>
+      <c r="B180" t="s">
         <v>977</v>
-      </c>
-      <c r="B180" t="s">
-        <v>978</v>
       </c>
       <c r="C180" t="s">
         <v>233</v>
@@ -8157,10 +8157,10 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>978</v>
+      </c>
+      <c r="B183" t="s">
         <v>979</v>
-      </c>
-      <c r="B183" t="s">
-        <v>980</v>
       </c>
       <c r="C183" t="s">
         <v>233</v>
@@ -8197,10 +8197,10 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B185" t="s">
         <v>1289</v>
-      </c>
-      <c r="B185" t="s">
-        <v>1290</v>
       </c>
       <c r="C185" t="s">
         <v>233</v>
@@ -8277,10 +8277,10 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B189" t="s">
         <v>1263</v>
-      </c>
-      <c r="B189" t="s">
-        <v>1264</v>
       </c>
       <c r="C189" t="s">
         <v>233</v>
@@ -8297,10 +8297,10 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>850</v>
+      </c>
+      <c r="B190" t="s">
         <v>851</v>
-      </c>
-      <c r="B190" t="s">
-        <v>852</v>
       </c>
       <c r="C190" t="s">
         <v>233</v>
@@ -8317,10 +8317,10 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B191" t="s">
         <v>1183</v>
-      </c>
-      <c r="B191" t="s">
-        <v>1184</v>
       </c>
       <c r="C191" t="s">
         <v>233</v>
@@ -8357,10 +8357,10 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>974</v>
+      </c>
+      <c r="B193" t="s">
         <v>975</v>
-      </c>
-      <c r="B193" t="s">
-        <v>976</v>
       </c>
       <c r="C193" t="s">
         <v>233</v>
@@ -8377,10 +8377,10 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>678</v>
+      </c>
+      <c r="B194" t="s">
         <v>679</v>
-      </c>
-      <c r="B194" t="s">
-        <v>680</v>
       </c>
       <c r="C194" t="s">
         <v>233</v>
@@ -8397,10 +8397,10 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>708</v>
+      </c>
+      <c r="B195" t="s">
         <v>709</v>
-      </c>
-      <c r="B195" t="s">
-        <v>710</v>
       </c>
       <c r="C195" t="s">
         <v>233</v>
@@ -8451,10 +8451,10 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C198" t="s">
         <v>233</v>
@@ -8474,7 +8474,7 @@
         <v>87</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C199" t="s">
         <v>58</v>
@@ -8491,7 +8491,7 @@
         <v>88</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C200" t="s">
         <v>58</v>
@@ -8505,10 +8505,10 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>848</v>
+      </c>
+      <c r="B201" t="s">
         <v>849</v>
-      </c>
-      <c r="B201" t="s">
-        <v>850</v>
       </c>
       <c r="C201" t="s">
         <v>233</v>
@@ -8562,10 +8562,10 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B204" t="s">
         <v>1322</v>
-      </c>
-      <c r="B204" t="s">
-        <v>1323</v>
       </c>
       <c r="C204" t="s">
         <v>233</v>
@@ -8582,10 +8582,10 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B205" t="s">
         <v>1300</v>
-      </c>
-      <c r="B205" t="s">
-        <v>1301</v>
       </c>
       <c r="C205" t="s">
         <v>233</v>
@@ -8670,10 +8670,10 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>758</v>
+      </c>
+      <c r="B210" t="s">
         <v>759</v>
-      </c>
-      <c r="B210" t="s">
-        <v>760</v>
       </c>
       <c r="C210" t="s">
         <v>233</v>
@@ -8690,10 +8690,10 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B211" t="s">
         <v>1039</v>
-      </c>
-      <c r="B211" t="s">
-        <v>1040</v>
       </c>
       <c r="C211" t="s">
         <v>233</v>
@@ -8727,10 +8727,10 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B213" t="s">
         <v>1241</v>
-      </c>
-      <c r="B213" t="s">
-        <v>1242</v>
       </c>
       <c r="C213" t="s">
         <v>233</v>
@@ -8747,10 +8747,10 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B214" t="s">
         <v>1243</v>
-      </c>
-      <c r="B214" t="s">
-        <v>1244</v>
       </c>
       <c r="C214" t="s">
         <v>233</v>
@@ -8767,10 +8767,10 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>660</v>
+      </c>
+      <c r="B215" t="s">
         <v>661</v>
-      </c>
-      <c r="B215" t="s">
-        <v>662</v>
       </c>
       <c r="C215" t="s">
         <v>233</v>
@@ -8787,10 +8787,10 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B216" t="s">
         <v>1219</v>
-      </c>
-      <c r="B216" t="s">
-        <v>1220</v>
       </c>
       <c r="C216" t="s">
         <v>233</v>
@@ -8807,10 +8807,10 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C217" t="s">
         <v>233</v>
@@ -8827,10 +8827,10 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B218" t="s">
         <v>1254</v>
-      </c>
-      <c r="B218" t="s">
-        <v>1255</v>
       </c>
       <c r="C218" t="s">
         <v>233</v>
@@ -8847,10 +8847,10 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
+        <v>964</v>
+      </c>
+      <c r="B219" t="s">
         <v>965</v>
-      </c>
-      <c r="B219" t="s">
-        <v>966</v>
       </c>
       <c r="C219" t="s">
         <v>233</v>
@@ -8921,10 +8921,10 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B223" t="s">
         <v>1016</v>
-      </c>
-      <c r="B223" t="s">
-        <v>1017</v>
       </c>
       <c r="C223" t="s">
         <v>233</v>
@@ -8941,7 +8941,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C224" t="s">
         <v>233</v>
@@ -9018,10 +9018,10 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B228" t="s">
         <v>1362</v>
-      </c>
-      <c r="B228" t="s">
-        <v>1363</v>
       </c>
       <c r="C228" t="s">
         <v>233</v>
@@ -9078,10 +9078,10 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
+        <v>658</v>
+      </c>
+      <c r="B231" t="s">
         <v>659</v>
-      </c>
-      <c r="B231" t="s">
-        <v>660</v>
       </c>
       <c r="C231" t="s">
         <v>233</v>
@@ -9098,10 +9098,10 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B232" t="s">
         <v>1312</v>
-      </c>
-      <c r="B232" t="s">
-        <v>1313</v>
       </c>
       <c r="C232" t="s">
         <v>233</v>
@@ -9118,10 +9118,10 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
+        <v>786</v>
+      </c>
+      <c r="B233" t="s">
         <v>787</v>
-      </c>
-      <c r="B233" t="s">
-        <v>788</v>
       </c>
       <c r="C233" t="s">
         <v>233</v>
@@ -9175,10 +9175,10 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B236" t="s">
         <v>1063</v>
-      </c>
-      <c r="B236" t="s">
-        <v>1064</v>
       </c>
       <c r="C236" t="s">
         <v>233</v>
@@ -9195,10 +9195,10 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B237" t="s">
         <v>1002</v>
-      </c>
-      <c r="B237" t="s">
-        <v>1003</v>
       </c>
       <c r="C237" t="s">
         <v>233</v>
@@ -9215,10 +9215,10 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B238" t="s">
         <v>1061</v>
-      </c>
-      <c r="B238" t="s">
-        <v>1062</v>
       </c>
       <c r="C238" t="s">
         <v>233</v>
@@ -9252,10 +9252,10 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>673</v>
+      </c>
+      <c r="B240" t="s">
         <v>674</v>
-      </c>
-      <c r="B240" t="s">
-        <v>675</v>
       </c>
       <c r="C240" t="s">
         <v>233</v>
@@ -9272,10 +9272,10 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B241" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C241" t="s">
         <v>233</v>
@@ -9372,7 +9372,7 @@
         <v>189</v>
       </c>
       <c r="B246" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C246" t="s">
         <v>233</v>
@@ -9426,10 +9426,10 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B249" t="s">
         <v>1259</v>
-      </c>
-      <c r="B249" t="s">
-        <v>1260</v>
       </c>
       <c r="C249" t="s">
         <v>233</v>
@@ -9446,10 +9446,10 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B250" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C250" t="s">
         <v>233</v>
@@ -9466,10 +9466,10 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B251" t="s">
         <v>1057</v>
-      </c>
-      <c r="B251" t="s">
-        <v>1058</v>
       </c>
       <c r="C251" t="s">
         <v>233</v>
@@ -9486,10 +9486,10 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
+        <v>704</v>
+      </c>
+      <c r="B252" t="s">
         <v>705</v>
-      </c>
-      <c r="B252" t="s">
-        <v>706</v>
       </c>
       <c r="C252" t="s">
         <v>233</v>
@@ -9506,10 +9506,10 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
+        <v>874</v>
+      </c>
+      <c r="B253" t="s">
         <v>875</v>
-      </c>
-      <c r="B253" t="s">
-        <v>876</v>
       </c>
       <c r="C253" t="s">
         <v>233</v>
@@ -9603,10 +9603,10 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
+        <v>706</v>
+      </c>
+      <c r="B258" t="s">
         <v>707</v>
-      </c>
-      <c r="B258" t="s">
-        <v>708</v>
       </c>
       <c r="C258" t="s">
         <v>233</v>
@@ -9703,10 +9703,10 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B263" t="s">
         <v>1049</v>
-      </c>
-      <c r="B263" t="s">
-        <v>1050</v>
       </c>
       <c r="C263" t="s">
         <v>233</v>
@@ -9743,10 +9743,10 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
+        <v>686</v>
+      </c>
+      <c r="B265" t="s">
         <v>687</v>
-      </c>
-      <c r="B265" t="s">
-        <v>688</v>
       </c>
       <c r="C265" t="s">
         <v>233</v>
@@ -9763,10 +9763,10 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
+        <v>690</v>
+      </c>
+      <c r="B266" t="s">
         <v>691</v>
-      </c>
-      <c r="B266" t="s">
-        <v>692</v>
       </c>
       <c r="C266" t="s">
         <v>233</v>
@@ -9783,10 +9783,10 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
+        <v>694</v>
+      </c>
+      <c r="B267" t="s">
         <v>695</v>
-      </c>
-      <c r="B267" t="s">
-        <v>696</v>
       </c>
       <c r="C267" t="s">
         <v>233</v>
@@ -9803,10 +9803,10 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
+        <v>700</v>
+      </c>
+      <c r="B268" t="s">
         <v>701</v>
-      </c>
-      <c r="B268" t="s">
-        <v>702</v>
       </c>
       <c r="C268" t="s">
         <v>233</v>
@@ -9823,10 +9823,10 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
+        <v>702</v>
+      </c>
+      <c r="B269" t="s">
         <v>703</v>
-      </c>
-      <c r="B269" t="s">
-        <v>704</v>
       </c>
       <c r="C269" t="s">
         <v>233</v>
@@ -9843,10 +9843,10 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
+        <v>696</v>
+      </c>
+      <c r="B270" t="s">
         <v>697</v>
-      </c>
-      <c r="B270" t="s">
-        <v>698</v>
       </c>
       <c r="C270" t="s">
         <v>233</v>
@@ -9863,10 +9863,10 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
+        <v>698</v>
+      </c>
+      <c r="B271" t="s">
         <v>699</v>
-      </c>
-      <c r="B271" t="s">
-        <v>700</v>
       </c>
       <c r="C271" t="s">
         <v>233</v>
@@ -9883,10 +9883,10 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
+        <v>688</v>
+      </c>
+      <c r="B272" t="s">
         <v>689</v>
-      </c>
-      <c r="B272" t="s">
-        <v>690</v>
       </c>
       <c r="C272" t="s">
         <v>233</v>
@@ -9903,10 +9903,10 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
+        <v>684</v>
+      </c>
+      <c r="B273" t="s">
         <v>685</v>
-      </c>
-      <c r="B273" t="s">
-        <v>686</v>
       </c>
       <c r="C273" t="s">
         <v>233</v>
@@ -9923,10 +9923,10 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
+        <v>692</v>
+      </c>
+      <c r="B274" t="s">
         <v>693</v>
-      </c>
-      <c r="B274" t="s">
-        <v>694</v>
       </c>
       <c r="C274" t="s">
         <v>233</v>
@@ -9963,10 +9963,10 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B276" t="s">
         <v>1114</v>
-      </c>
-      <c r="B276" t="s">
-        <v>1115</v>
       </c>
       <c r="C276" t="s">
         <v>233</v>
@@ -9983,10 +9983,10 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B277" t="s">
         <v>1370</v>
-      </c>
-      <c r="B277" t="s">
-        <v>1371</v>
       </c>
       <c r="C277" t="s">
         <v>233</v>
@@ -10023,10 +10023,10 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B279" t="s">
         <v>1110</v>
-      </c>
-      <c r="B279" t="s">
-        <v>1111</v>
       </c>
       <c r="C279" t="s">
         <v>233</v>
@@ -10043,10 +10043,10 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B280" t="s">
         <v>1073</v>
-      </c>
-      <c r="B280" t="s">
-        <v>1074</v>
       </c>
       <c r="C280" t="s">
         <v>233</v>
@@ -10063,10 +10063,10 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
+        <v>854</v>
+      </c>
+      <c r="B281" t="s">
         <v>855</v>
-      </c>
-      <c r="B281" t="s">
-        <v>856</v>
       </c>
       <c r="C281" t="s">
         <v>233</v>
@@ -10083,10 +10083,10 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B282" t="s">
         <v>1166</v>
-      </c>
-      <c r="B282" t="s">
-        <v>1167</v>
       </c>
       <c r="C282" t="s">
         <v>233</v>
@@ -10103,10 +10103,10 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
+        <v>856</v>
+      </c>
+      <c r="B283" t="s">
         <v>857</v>
-      </c>
-      <c r="B283" t="s">
-        <v>858</v>
       </c>
       <c r="C283" t="s">
         <v>233</v>
@@ -10123,10 +10123,10 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B284" t="s">
         <v>1106</v>
-      </c>
-      <c r="B284" t="s">
-        <v>1107</v>
       </c>
       <c r="C284" t="s">
         <v>233</v>
@@ -10143,10 +10143,10 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B285" t="s">
         <v>1229</v>
-      </c>
-      <c r="B285" t="s">
-        <v>1230</v>
       </c>
       <c r="C285" t="s">
         <v>233</v>
@@ -10203,10 +10203,10 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
+        <v>717</v>
+      </c>
+      <c r="B288" t="s">
         <v>718</v>
-      </c>
-      <c r="B288" t="s">
-        <v>719</v>
       </c>
       <c r="C288" t="s">
         <v>233</v>
@@ -10223,10 +10223,10 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
+        <v>740</v>
+      </c>
+      <c r="B289" t="s">
         <v>741</v>
-      </c>
-      <c r="B289" t="s">
-        <v>742</v>
       </c>
       <c r="C289" t="s">
         <v>233</v>
@@ -10243,10 +10243,10 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B290" t="s">
         <v>1059</v>
-      </c>
-      <c r="B290" t="s">
-        <v>1060</v>
       </c>
       <c r="C290" t="s">
         <v>233</v>
@@ -10283,10 +10283,10 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
+        <v>844</v>
+      </c>
+      <c r="B292" t="s">
         <v>845</v>
-      </c>
-      <c r="B292" t="s">
-        <v>846</v>
       </c>
       <c r="C292" t="s">
         <v>233</v>
@@ -10323,10 +10323,10 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
+        <v>927</v>
+      </c>
+      <c r="B294" t="s">
         <v>928</v>
-      </c>
-      <c r="B294" t="s">
-        <v>929</v>
       </c>
       <c r="C294" t="s">
         <v>233</v>
@@ -10383,10 +10383,10 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B297" t="s">
         <v>1318</v>
-      </c>
-      <c r="B297" t="s">
-        <v>1319</v>
       </c>
       <c r="C297" t="s">
         <v>233</v>
@@ -10423,10 +10423,10 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B299" t="s">
         <v>1344</v>
-      </c>
-      <c r="B299" t="s">
-        <v>1345</v>
       </c>
       <c r="C299" t="s">
         <v>233</v>
@@ -10460,10 +10460,10 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B301" t="s">
         <v>1360</v>
-      </c>
-      <c r="B301" t="s">
-        <v>1361</v>
       </c>
       <c r="C301" t="s">
         <v>233</v>
@@ -10480,10 +10480,10 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
+        <v>860</v>
+      </c>
+      <c r="B302" t="s">
         <v>861</v>
-      </c>
-      <c r="B302" t="s">
-        <v>862</v>
       </c>
       <c r="C302" t="s">
         <v>233</v>
@@ -10500,10 +10500,10 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
+        <v>768</v>
+      </c>
+      <c r="B303" t="s">
         <v>769</v>
-      </c>
-      <c r="B303" t="s">
-        <v>770</v>
       </c>
       <c r="C303" t="s">
         <v>233</v>
@@ -10577,10 +10577,10 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B307" t="s">
         <v>1067</v>
-      </c>
-      <c r="B307" t="s">
-        <v>1068</v>
       </c>
       <c r="C307" t="s">
         <v>233</v>
@@ -10597,10 +10597,10 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B308" t="s">
         <v>1162</v>
-      </c>
-      <c r="B308" t="s">
-        <v>1163</v>
       </c>
       <c r="C308" t="s">
         <v>233</v>
@@ -10637,10 +10637,10 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B310" t="s">
         <v>1081</v>
-      </c>
-      <c r="B310" t="s">
-        <v>1082</v>
       </c>
       <c r="C310" t="s">
         <v>233</v>
@@ -10697,10 +10697,10 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B313" t="s">
         <v>1350</v>
-      </c>
-      <c r="B313" t="s">
-        <v>1351</v>
       </c>
       <c r="C313" t="s">
         <v>233</v>
@@ -10717,10 +10717,10 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B314" t="s">
         <v>1037</v>
-      </c>
-      <c r="B314" t="s">
-        <v>1038</v>
       </c>
       <c r="C314" t="s">
         <v>233</v>
@@ -10737,10 +10737,10 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
+        <v>798</v>
+      </c>
+      <c r="B315" t="s">
         <v>799</v>
-      </c>
-      <c r="B315" t="s">
-        <v>800</v>
       </c>
       <c r="C315" t="s">
         <v>233</v>
@@ -10757,10 +10757,10 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
+        <v>800</v>
+      </c>
+      <c r="B316" t="s">
         <v>801</v>
-      </c>
-      <c r="B316" t="s">
-        <v>802</v>
       </c>
       <c r="C316" t="s">
         <v>233</v>
@@ -10794,10 +10794,10 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B318" t="s">
         <v>1108</v>
-      </c>
-      <c r="B318" t="s">
-        <v>1109</v>
       </c>
       <c r="C318" t="s">
         <v>233</v>
@@ -10814,10 +10814,10 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B319" t="s">
         <v>1087</v>
-      </c>
-      <c r="B319" t="s">
-        <v>1088</v>
       </c>
       <c r="C319" t="s">
         <v>233</v>
@@ -10874,10 +10874,10 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B322" t="s">
         <v>1239</v>
-      </c>
-      <c r="B322" t="s">
-        <v>1240</v>
       </c>
       <c r="C322" t="s">
         <v>233</v>
@@ -10931,10 +10931,10 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B325" t="s">
         <v>1120</v>
-      </c>
-      <c r="B325" t="s">
-        <v>1121</v>
       </c>
       <c r="C325" t="s">
         <v>233</v>
@@ -11088,10 +11088,10 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B333" t="s">
         <v>1314</v>
-      </c>
-      <c r="B333" t="s">
-        <v>1315</v>
       </c>
       <c r="C333" t="s">
         <v>233</v>
@@ -11128,10 +11128,10 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B335" t="s">
         <v>1233</v>
-      </c>
-      <c r="B335" t="s">
-        <v>1234</v>
       </c>
       <c r="C335" t="s">
         <v>233</v>
@@ -11148,10 +11148,10 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B336" t="s">
         <v>1134</v>
-      </c>
-      <c r="B336" t="s">
-        <v>1135</v>
       </c>
       <c r="C336" t="s">
         <v>233</v>
@@ -11185,10 +11185,10 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
+        <v>876</v>
+      </c>
+      <c r="B338" t="s">
         <v>877</v>
-      </c>
-      <c r="B338" t="s">
-        <v>878</v>
       </c>
       <c r="C338" t="s">
         <v>233</v>
@@ -11245,10 +11245,10 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
+        <v>812</v>
+      </c>
+      <c r="B341" t="s">
         <v>813</v>
-      </c>
-      <c r="B341" t="s">
-        <v>814</v>
       </c>
       <c r="C341" t="s">
         <v>233</v>
@@ -11285,10 +11285,10 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
+        <v>662</v>
+      </c>
+      <c r="B343" t="s">
         <v>663</v>
-      </c>
-      <c r="B343" t="s">
-        <v>664</v>
       </c>
       <c r="C343" t="s">
         <v>233</v>
@@ -11305,10 +11305,10 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B344" t="s">
         <v>1085</v>
-      </c>
-      <c r="B344" t="s">
-        <v>1086</v>
       </c>
       <c r="C344" t="s">
         <v>233</v>
@@ -11325,10 +11325,10 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B345" t="s">
         <v>1287</v>
-      </c>
-      <c r="B345" t="s">
-        <v>1288</v>
       </c>
       <c r="C345" t="s">
         <v>233</v>
@@ -11365,10 +11365,10 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B347" t="s">
         <v>1125</v>
-      </c>
-      <c r="B347" t="s">
-        <v>1126</v>
       </c>
       <c r="C347" t="s">
         <v>233</v>
@@ -11385,10 +11385,10 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
+        <v>676</v>
+      </c>
+      <c r="B348" t="s">
         <v>677</v>
-      </c>
-      <c r="B348" t="s">
-        <v>678</v>
       </c>
       <c r="C348" t="s">
         <v>233</v>
@@ -11439,10 +11439,10 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
+        <v>832</v>
+      </c>
+      <c r="B351" t="s">
         <v>833</v>
-      </c>
-      <c r="B351" t="s">
-        <v>834</v>
       </c>
       <c r="C351" t="s">
         <v>233</v>
@@ -11510,10 +11510,10 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
+        <v>872</v>
+      </c>
+      <c r="B355" t="s">
         <v>873</v>
-      </c>
-      <c r="B355" t="s">
-        <v>874</v>
       </c>
       <c r="C355" t="s">
         <v>233</v>
@@ -11530,10 +11530,10 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
+        <v>762</v>
+      </c>
+      <c r="B356" t="s">
         <v>763</v>
-      </c>
-      <c r="B356" t="s">
-        <v>764</v>
       </c>
       <c r="C356" t="s">
         <v>233</v>
@@ -11550,10 +11550,10 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
+        <v>931</v>
+      </c>
+      <c r="B357" t="s">
         <v>932</v>
-      </c>
-      <c r="B357" t="s">
-        <v>933</v>
       </c>
       <c r="C357" t="s">
         <v>233</v>
@@ -11587,10 +11587,10 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
+        <v>917</v>
+      </c>
+      <c r="B359" t="s">
         <v>918</v>
-      </c>
-      <c r="B359" t="s">
-        <v>919</v>
       </c>
       <c r="C359" t="s">
         <v>233</v>
@@ -11624,10 +11624,10 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
+        <v>919</v>
+      </c>
+      <c r="B361" t="s">
         <v>920</v>
-      </c>
-      <c r="B361" t="s">
-        <v>921</v>
       </c>
       <c r="C361" t="s">
         <v>233</v>
@@ -11698,10 +11698,10 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
+        <v>888</v>
+      </c>
+      <c r="B365" t="s">
         <v>889</v>
-      </c>
-      <c r="B365" t="s">
-        <v>890</v>
       </c>
       <c r="C365" t="s">
         <v>233</v>
@@ -11792,10 +11792,10 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B370" t="s">
         <v>1334</v>
-      </c>
-      <c r="B370" t="s">
-        <v>1335</v>
       </c>
       <c r="C370" t="s">
         <v>233</v>
@@ -11812,10 +11812,10 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
+        <v>951</v>
+      </c>
+      <c r="B371" t="s">
         <v>952</v>
-      </c>
-      <c r="B371" t="s">
-        <v>953</v>
       </c>
       <c r="C371" t="s">
         <v>233</v>
@@ -11852,10 +11852,10 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B373" t="s">
         <v>1308</v>
-      </c>
-      <c r="B373" t="s">
-        <v>1309</v>
       </c>
       <c r="C373" t="s">
         <v>233</v>
@@ -11872,10 +11872,10 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
+        <v>960</v>
+      </c>
+      <c r="B374" t="s">
         <v>961</v>
-      </c>
-      <c r="B374" t="s">
-        <v>962</v>
       </c>
       <c r="C374" t="s">
         <v>233</v>
@@ -11946,10 +11946,10 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B378" t="s">
         <v>1095</v>
-      </c>
-      <c r="B378" t="s">
-        <v>1096</v>
       </c>
       <c r="C378" t="s">
         <v>233</v>
@@ -11966,10 +11966,10 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B379" t="s">
         <v>1127</v>
-      </c>
-      <c r="B379" t="s">
-        <v>1128</v>
       </c>
       <c r="C379" t="s">
         <v>233</v>
@@ -11986,10 +11986,10 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
+        <v>760</v>
+      </c>
+      <c r="B380" t="s">
         <v>761</v>
-      </c>
-      <c r="B380" t="s">
-        <v>762</v>
       </c>
       <c r="C380" t="s">
         <v>233</v>
@@ -12006,10 +12006,10 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
+        <v>896</v>
+      </c>
+      <c r="B381" t="s">
         <v>897</v>
-      </c>
-      <c r="B381" t="s">
-        <v>898</v>
       </c>
       <c r="C381" t="s">
         <v>233</v>
@@ -12046,10 +12046,10 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B383" t="s">
         <v>1215</v>
-      </c>
-      <c r="B383" t="s">
-        <v>1216</v>
       </c>
       <c r="C383" t="s">
         <v>233</v>
@@ -12066,10 +12066,10 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B384" t="s">
         <v>1205</v>
-      </c>
-      <c r="B384" t="s">
-        <v>1206</v>
       </c>
       <c r="C384" t="s">
         <v>233</v>
@@ -12086,10 +12086,10 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B385" t="s">
         <v>1201</v>
-      </c>
-      <c r="B385" t="s">
-        <v>1202</v>
       </c>
       <c r="C385" t="s">
         <v>233</v>
@@ -12106,10 +12106,10 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B386" t="s">
         <v>1199</v>
-      </c>
-      <c r="B386" t="s">
-        <v>1200</v>
       </c>
       <c r="C386" t="s">
         <v>233</v>
@@ -12126,10 +12126,10 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B387" t="s">
         <v>1203</v>
-      </c>
-      <c r="B387" t="s">
-        <v>1204</v>
       </c>
       <c r="C387" t="s">
         <v>233</v>
@@ -12146,10 +12146,10 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B388" t="s">
         <v>1211</v>
-      </c>
-      <c r="B388" t="s">
-        <v>1212</v>
       </c>
       <c r="C388" t="s">
         <v>233</v>
@@ -12166,10 +12166,10 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B389" t="s">
         <v>1213</v>
-      </c>
-      <c r="B389" t="s">
-        <v>1214</v>
       </c>
       <c r="C389" t="s">
         <v>233</v>
@@ -12203,10 +12203,10 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B391" t="s">
         <v>1195</v>
-      </c>
-      <c r="B391" t="s">
-        <v>1196</v>
       </c>
       <c r="C391" t="s">
         <v>233</v>
@@ -12223,10 +12223,10 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B392" t="s">
         <v>1207</v>
-      </c>
-      <c r="B392" t="s">
-        <v>1208</v>
       </c>
       <c r="C392" t="s">
         <v>233</v>
@@ -12243,10 +12243,10 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B393" t="s">
         <v>1209</v>
-      </c>
-      <c r="B393" t="s">
-        <v>1210</v>
       </c>
       <c r="C393" t="s">
         <v>233</v>
@@ -12263,10 +12263,10 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B394" t="s">
         <v>1197</v>
-      </c>
-      <c r="B394" t="s">
-        <v>1198</v>
       </c>
       <c r="C394" t="s">
         <v>233</v>
@@ -12283,10 +12283,10 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
+        <v>914</v>
+      </c>
+      <c r="B395" t="s">
         <v>915</v>
-      </c>
-      <c r="B395" t="s">
-        <v>916</v>
       </c>
       <c r="C395" t="s">
         <v>233</v>
@@ -12303,7 +12303,7 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C396" t="s">
         <v>233</v>
@@ -12320,7 +12320,7 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C397" t="s">
         <v>233</v>
@@ -12337,10 +12337,10 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
+        <v>902</v>
+      </c>
+      <c r="B398" t="s">
         <v>903</v>
-      </c>
-      <c r="B398" t="s">
-        <v>904</v>
       </c>
       <c r="C398" t="s">
         <v>233</v>
@@ -12357,10 +12357,10 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
+        <v>904</v>
+      </c>
+      <c r="B399" t="s">
         <v>905</v>
-      </c>
-      <c r="B399" t="s">
-        <v>906</v>
       </c>
       <c r="C399" t="s">
         <v>233</v>
@@ -12377,10 +12377,10 @@
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
+        <v>906</v>
+      </c>
+      <c r="B400" t="s">
         <v>907</v>
-      </c>
-      <c r="B400" t="s">
-        <v>908</v>
       </c>
       <c r="C400" t="s">
         <v>233</v>
@@ -12397,10 +12397,10 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
+        <v>908</v>
+      </c>
+      <c r="B401" t="s">
         <v>909</v>
-      </c>
-      <c r="B401" t="s">
-        <v>910</v>
       </c>
       <c r="C401" t="s">
         <v>233</v>
@@ -12417,10 +12417,10 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
+        <v>910</v>
+      </c>
+      <c r="B402" t="s">
         <v>911</v>
-      </c>
-      <c r="B402" t="s">
-        <v>912</v>
       </c>
       <c r="C402" t="s">
         <v>233</v>
@@ -12437,10 +12437,10 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
+        <v>912</v>
+      </c>
+      <c r="B403" t="s">
         <v>913</v>
-      </c>
-      <c r="B403" t="s">
-        <v>914</v>
       </c>
       <c r="C403" t="s">
         <v>233</v>
@@ -12457,10 +12457,10 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B404" t="s">
         <v>1352</v>
-      </c>
-      <c r="B404" t="s">
-        <v>1353</v>
       </c>
       <c r="C404" t="s">
         <v>233</v>
@@ -12514,10 +12514,10 @@
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
+        <v>778</v>
+      </c>
+      <c r="B407" t="s">
         <v>779</v>
-      </c>
-      <c r="B407" t="s">
-        <v>780</v>
       </c>
       <c r="C407" t="s">
         <v>233</v>
@@ -12534,10 +12534,10 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B408" t="s">
         <v>1123</v>
-      </c>
-      <c r="B408" t="s">
-        <v>1124</v>
       </c>
       <c r="C408" t="s">
         <v>233</v>
@@ -12563,7 +12563,7 @@
         <v>228</v>
       </c>
       <c r="D409" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="E409" t="s">
         <v>229</v>
@@ -12591,10 +12591,10 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B411" t="s">
         <v>1275</v>
-      </c>
-      <c r="B411" t="s">
-        <v>1276</v>
       </c>
       <c r="C411" t="s">
         <v>233</v>
@@ -12611,10 +12611,10 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B412" t="s">
         <v>1368</v>
-      </c>
-      <c r="B412" t="s">
-        <v>1369</v>
       </c>
       <c r="C412" t="s">
         <v>233</v>
@@ -12631,10 +12631,10 @@
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
+        <v>943</v>
+      </c>
+      <c r="B413" t="s">
         <v>944</v>
-      </c>
-      <c r="B413" t="s">
-        <v>945</v>
       </c>
       <c r="C413" t="s">
         <v>233</v>
@@ -12651,10 +12651,10 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B414" t="s">
         <v>1356</v>
-      </c>
-      <c r="B414" t="s">
-        <v>1357</v>
       </c>
       <c r="C414" t="s">
         <v>233</v>
@@ -12671,10 +12671,10 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B415" t="s">
         <v>1006</v>
-      </c>
-      <c r="B415" t="s">
-        <v>1007</v>
       </c>
       <c r="C415" t="s">
         <v>233</v>
@@ -12765,10 +12765,10 @@
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B420" t="s">
         <v>1045</v>
-      </c>
-      <c r="B420" t="s">
-        <v>1046</v>
       </c>
       <c r="C420" t="s">
         <v>233</v>
@@ -12825,10 +12825,10 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B423" t="s">
         <v>1245</v>
-      </c>
-      <c r="B423" t="s">
-        <v>1246</v>
       </c>
       <c r="C423" t="s">
         <v>233</v>
@@ -12845,10 +12845,10 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B424" t="s">
         <v>1118</v>
-      </c>
-      <c r="B424" t="s">
-        <v>1119</v>
       </c>
       <c r="C424" t="s">
         <v>233</v>
@@ -12885,10 +12885,10 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B426" t="s">
         <v>1338</v>
-      </c>
-      <c r="B426" t="s">
-        <v>1339</v>
       </c>
       <c r="C426" t="s">
         <v>233</v>
@@ -12905,10 +12905,10 @@
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
+        <v>671</v>
+      </c>
+      <c r="B427" t="s">
         <v>672</v>
-      </c>
-      <c r="B427" t="s">
-        <v>673</v>
       </c>
       <c r="C427" t="s">
         <v>233</v>
@@ -12925,10 +12925,10 @@
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
+        <v>796</v>
+      </c>
+      <c r="B428" t="s">
         <v>797</v>
-      </c>
-      <c r="B428" t="s">
-        <v>798</v>
       </c>
       <c r="C428" t="s">
         <v>233</v>
@@ -12982,10 +12982,10 @@
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B431" t="s">
         <v>1065</v>
-      </c>
-      <c r="B431" t="s">
-        <v>1066</v>
       </c>
       <c r="C431" t="s">
         <v>233</v>
@@ -13039,10 +13039,10 @@
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B434" t="s">
         <v>1031</v>
-      </c>
-      <c r="B434" t="s">
-        <v>1032</v>
       </c>
       <c r="C434" t="s">
         <v>233</v>
@@ -13153,7 +13153,7 @@
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B440" t="s">
         <v>149</v>
@@ -13173,10 +13173,10 @@
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B441" t="s">
         <v>1168</v>
-      </c>
-      <c r="B441" t="s">
-        <v>1169</v>
       </c>
       <c r="C441" t="s">
         <v>233</v>
@@ -13210,10 +13210,10 @@
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
+        <v>900</v>
+      </c>
+      <c r="B443" t="s">
         <v>901</v>
-      </c>
-      <c r="B443" t="s">
-        <v>902</v>
       </c>
       <c r="C443" t="s">
         <v>233</v>
@@ -13230,10 +13230,10 @@
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
+        <v>664</v>
+      </c>
+      <c r="B444" t="s">
         <v>665</v>
-      </c>
-      <c r="B444" t="s">
-        <v>666</v>
       </c>
       <c r="C444" t="s">
         <v>233</v>
@@ -13250,10 +13250,10 @@
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
+        <v>723</v>
+      </c>
+      <c r="B445" t="s">
         <v>724</v>
-      </c>
-      <c r="B445" t="s">
-        <v>725</v>
       </c>
       <c r="C445" t="s">
         <v>233</v>
@@ -13287,10 +13287,10 @@
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
+        <v>818</v>
+      </c>
+      <c r="B447" t="s">
         <v>819</v>
-      </c>
-      <c r="B447" t="s">
-        <v>820</v>
       </c>
       <c r="C447" t="s">
         <v>233</v>
@@ -13324,10 +13324,10 @@
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
+        <v>820</v>
+      </c>
+      <c r="B449" t="s">
         <v>821</v>
-      </c>
-      <c r="B449" t="s">
-        <v>822</v>
       </c>
       <c r="C449" t="s">
         <v>233</v>
@@ -13344,10 +13344,10 @@
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
+        <v>816</v>
+      </c>
+      <c r="B450" t="s">
         <v>817</v>
-      </c>
-      <c r="B450" t="s">
-        <v>818</v>
       </c>
       <c r="C450" t="s">
         <v>233</v>
@@ -13364,10 +13364,10 @@
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
+        <v>814</v>
+      </c>
+      <c r="B451" t="s">
         <v>815</v>
-      </c>
-      <c r="B451" t="s">
-        <v>816</v>
       </c>
       <c r="C451" t="s">
         <v>233</v>
@@ -13424,10 +13424,10 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B454" t="s">
         <v>1248</v>
-      </c>
-      <c r="B454" t="s">
-        <v>1249</v>
       </c>
       <c r="C454" t="s">
         <v>233</v>
@@ -13444,10 +13444,10 @@
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B455" t="s">
         <v>1342</v>
-      </c>
-      <c r="B455" t="s">
-        <v>1343</v>
       </c>
       <c r="C455" t="s">
         <v>233</v>
@@ -13464,10 +13464,10 @@
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B456" t="s">
         <v>1116</v>
-      </c>
-      <c r="B456" t="s">
-        <v>1117</v>
       </c>
       <c r="C456" t="s">
         <v>233</v>
@@ -13504,10 +13504,10 @@
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B458" t="s">
         <v>1132</v>
-      </c>
-      <c r="B458" t="s">
-        <v>1133</v>
       </c>
       <c r="C458" t="s">
         <v>233</v>
@@ -13544,10 +13544,10 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B460" t="s">
         <v>1326</v>
-      </c>
-      <c r="B460" t="s">
-        <v>1327</v>
       </c>
       <c r="C460" t="s">
         <v>233</v>
@@ -13581,10 +13581,10 @@
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
+        <v>667</v>
+      </c>
+      <c r="B462" t="s">
         <v>668</v>
-      </c>
-      <c r="B462" t="s">
-        <v>669</v>
       </c>
       <c r="C462" t="s">
         <v>233</v>
@@ -13601,10 +13601,10 @@
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
+        <v>669</v>
+      </c>
+      <c r="B463" t="s">
         <v>670</v>
-      </c>
-      <c r="B463" t="s">
-        <v>671</v>
       </c>
       <c r="C463" t="s">
         <v>233</v>
@@ -13698,10 +13698,10 @@
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
+        <v>782</v>
+      </c>
+      <c r="B468" t="s">
         <v>783</v>
-      </c>
-      <c r="B468" t="s">
-        <v>784</v>
       </c>
       <c r="C468" t="s">
         <v>233</v>
@@ -13718,10 +13718,10 @@
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B469" t="s">
         <v>1149</v>
-      </c>
-      <c r="B469" t="s">
-        <v>1150</v>
       </c>
       <c r="C469" t="s">
         <v>233</v>
@@ -13758,10 +13758,10 @@
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
+        <v>746</v>
+      </c>
+      <c r="B471" t="s">
         <v>747</v>
-      </c>
-      <c r="B471" t="s">
-        <v>748</v>
       </c>
       <c r="C471" t="s">
         <v>233</v>
@@ -13778,10 +13778,10 @@
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B472" t="s">
         <v>1025</v>
-      </c>
-      <c r="B472" t="s">
-        <v>1026</v>
       </c>
       <c r="C472" t="s">
         <v>233</v>
@@ -13798,7 +13798,7 @@
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B473" t="s">
         <v>308</v>
@@ -13818,7 +13818,7 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B474" t="s">
         <v>325</v>
@@ -13838,10 +13838,10 @@
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B475" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C475" t="s">
         <v>233</v>
@@ -13858,7 +13858,7 @@
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B476" t="s">
         <v>384</v>
@@ -13878,7 +13878,7 @@
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B477" t="s">
         <v>303</v>
@@ -13898,10 +13898,10 @@
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B478" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C478" t="s">
         <v>233</v>
@@ -13958,10 +13958,10 @@
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
+        <v>736</v>
+      </c>
+      <c r="B481" t="s">
         <v>737</v>
-      </c>
-      <c r="B481" t="s">
-        <v>738</v>
       </c>
       <c r="C481" t="s">
         <v>233</v>
@@ -14038,10 +14038,10 @@
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B485" t="s">
         <v>1191</v>
-      </c>
-      <c r="B485" t="s">
-        <v>1192</v>
       </c>
       <c r="C485" t="s">
         <v>233</v>
@@ -14058,10 +14058,10 @@
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B486" t="s">
         <v>1175</v>
-      </c>
-      <c r="B486" t="s">
-        <v>1176</v>
       </c>
       <c r="C486" t="s">
         <v>233</v>
@@ -14098,10 +14098,10 @@
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B488" t="s">
         <v>1027</v>
-      </c>
-      <c r="B488" t="s">
-        <v>1028</v>
       </c>
       <c r="C488" t="s">
         <v>233</v>
@@ -14118,10 +14118,10 @@
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
+        <v>880</v>
+      </c>
+      <c r="B489" t="s">
         <v>881</v>
-      </c>
-      <c r="B489" t="s">
-        <v>882</v>
       </c>
       <c r="C489" t="s">
         <v>233</v>
@@ -14198,10 +14198,10 @@
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B493" t="s">
         <v>1310</v>
-      </c>
-      <c r="B493" t="s">
-        <v>1311</v>
       </c>
       <c r="C493" t="s">
         <v>233</v>
@@ -14218,10 +14218,10 @@
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B494" t="s">
         <v>1181</v>
-      </c>
-      <c r="B494" t="s">
-        <v>1182</v>
       </c>
       <c r="C494" t="s">
         <v>233</v>
@@ -14238,10 +14238,10 @@
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
+        <v>732</v>
+      </c>
+      <c r="B495" t="s">
         <v>733</v>
-      </c>
-      <c r="B495" t="s">
-        <v>734</v>
       </c>
       <c r="C495" t="s">
         <v>233</v>
@@ -14258,10 +14258,10 @@
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B496" t="s">
         <v>1153</v>
-      </c>
-      <c r="B496" t="s">
-        <v>1154</v>
       </c>
       <c r="C496" t="s">
         <v>233</v>
@@ -14355,10 +14355,10 @@
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B501" t="s">
         <v>1330</v>
-      </c>
-      <c r="B501" t="s">
-        <v>1331</v>
       </c>
       <c r="C501" t="s">
         <v>233</v>
@@ -14469,10 +14469,10 @@
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B507" t="s">
         <v>1221</v>
-      </c>
-      <c r="B507" t="s">
-        <v>1222</v>
       </c>
       <c r="C507" t="s">
         <v>233</v>
@@ -14489,10 +14489,10 @@
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
+        <v>999</v>
+      </c>
+      <c r="B508" t="s">
         <v>1000</v>
-      </c>
-      <c r="B508" t="s">
-        <v>1001</v>
       </c>
       <c r="C508" t="s">
         <v>233</v>
@@ -14509,10 +14509,10 @@
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B509" t="s">
         <v>1010</v>
-      </c>
-      <c r="B509" t="s">
-        <v>1011</v>
       </c>
       <c r="C509" t="s">
         <v>233</v>
@@ -14529,10 +14529,10 @@
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B510" t="s">
         <v>1227</v>
-      </c>
-      <c r="B510" t="s">
-        <v>1228</v>
       </c>
       <c r="C510" t="s">
         <v>233</v>
@@ -14549,10 +14549,10 @@
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B511" t="s">
         <v>1077</v>
-      </c>
-      <c r="B511" t="s">
-        <v>1078</v>
       </c>
       <c r="C511" t="s">
         <v>233</v>
@@ -14606,10 +14606,10 @@
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B514" t="s">
         <v>1304</v>
-      </c>
-      <c r="B514" t="s">
-        <v>1305</v>
       </c>
       <c r="C514" t="s">
         <v>233</v>
@@ -14626,10 +14626,10 @@
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
+        <v>776</v>
+      </c>
+      <c r="B515" t="s">
         <v>777</v>
-      </c>
-      <c r="B515" t="s">
-        <v>778</v>
       </c>
       <c r="C515" t="s">
         <v>233</v>
@@ -14646,10 +14646,10 @@
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
+        <v>947</v>
+      </c>
+      <c r="B516" t="s">
         <v>948</v>
-      </c>
-      <c r="B516" t="s">
-        <v>949</v>
       </c>
       <c r="C516" t="s">
         <v>233</v>
@@ -14666,10 +14666,10 @@
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
+        <v>929</v>
+      </c>
+      <c r="B517" t="s">
         <v>930</v>
-      </c>
-      <c r="B517" t="s">
-        <v>931</v>
       </c>
       <c r="C517" t="s">
         <v>233</v>
@@ -14780,10 +14780,10 @@
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
+        <v>935</v>
+      </c>
+      <c r="B523" t="s">
         <v>936</v>
-      </c>
-      <c r="B523" t="s">
-        <v>937</v>
       </c>
       <c r="C523" t="s">
         <v>233</v>
@@ -14800,10 +14800,10 @@
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B524" t="s">
         <v>1217</v>
-      </c>
-      <c r="B524" t="s">
-        <v>1218</v>
       </c>
       <c r="C524" t="s">
         <v>233</v>
@@ -14820,10 +14820,10 @@
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B525" t="s">
         <v>1075</v>
-      </c>
-      <c r="B525" t="s">
-        <v>1076</v>
       </c>
       <c r="C525" t="s">
         <v>233</v>
@@ -14840,10 +14840,10 @@
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
+        <v>656</v>
+      </c>
+      <c r="B526" t="s">
         <v>657</v>
-      </c>
-      <c r="B526" t="s">
-        <v>658</v>
       </c>
       <c r="C526" t="s">
         <v>233</v>
@@ -14860,10 +14860,10 @@
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
+        <v>806</v>
+      </c>
+      <c r="B527" t="s">
         <v>807</v>
-      </c>
-      <c r="B527" t="s">
-        <v>808</v>
       </c>
       <c r="C527" t="s">
         <v>233</v>
@@ -14880,10 +14880,10 @@
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B528" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C528" t="s">
         <v>233</v>
@@ -14900,10 +14900,10 @@
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
+        <v>972</v>
+      </c>
+      <c r="B529" t="s">
         <v>973</v>
-      </c>
-      <c r="B529" t="s">
-        <v>974</v>
       </c>
       <c r="C529" t="s">
         <v>233</v>
@@ -14920,10 +14920,10 @@
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B530" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C530" t="s">
         <v>233</v>
@@ -14960,10 +14960,10 @@
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
+        <v>970</v>
+      </c>
+      <c r="B532" t="s">
         <v>971</v>
-      </c>
-      <c r="B532" t="s">
-        <v>972</v>
       </c>
       <c r="C532" t="s">
         <v>233</v>
@@ -14980,10 +14980,10 @@
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B533" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C533" t="s">
         <v>233</v>
@@ -15000,10 +15000,10 @@
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
+        <v>810</v>
+      </c>
+      <c r="B534" t="s">
         <v>811</v>
-      </c>
-      <c r="B534" t="s">
-        <v>812</v>
       </c>
       <c r="C534" t="s">
         <v>233</v>
@@ -15054,10 +15054,10 @@
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
+        <v>715</v>
+      </c>
+      <c r="B537" t="s">
         <v>716</v>
-      </c>
-      <c r="B537" t="s">
-        <v>717</v>
       </c>
       <c r="C537" t="s">
         <v>233</v>
@@ -15094,10 +15094,10 @@
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
+        <v>846</v>
+      </c>
+      <c r="B539" t="s">
         <v>847</v>
-      </c>
-      <c r="B539" t="s">
-        <v>848</v>
       </c>
       <c r="C539" t="s">
         <v>233</v>
@@ -15114,10 +15114,10 @@
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
+        <v>713</v>
+      </c>
+      <c r="B540" t="s">
         <v>714</v>
-      </c>
-      <c r="B540" t="s">
-        <v>715</v>
       </c>
       <c r="C540" t="s">
         <v>233</v>
@@ -15134,10 +15134,10 @@
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B541" t="s">
         <v>1346</v>
-      </c>
-      <c r="B541" t="s">
-        <v>1347</v>
       </c>
       <c r="C541" t="s">
         <v>233</v>
@@ -15154,10 +15154,10 @@
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
+        <v>836</v>
+      </c>
+      <c r="B542" t="s">
         <v>837</v>
-      </c>
-      <c r="B542" t="s">
-        <v>838</v>
       </c>
       <c r="C542" t="s">
         <v>233</v>
@@ -15174,10 +15174,10 @@
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
+        <v>921</v>
+      </c>
+      <c r="B543" t="s">
         <v>922</v>
-      </c>
-      <c r="B543" t="s">
-        <v>923</v>
       </c>
       <c r="C543" t="s">
         <v>233</v>
@@ -15194,10 +15194,10 @@
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
+        <v>925</v>
+      </c>
+      <c r="B544" t="s">
         <v>926</v>
-      </c>
-      <c r="B544" t="s">
-        <v>927</v>
       </c>
       <c r="C544" t="s">
         <v>233</v>
@@ -15214,10 +15214,10 @@
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
+        <v>923</v>
+      </c>
+      <c r="B545" t="s">
         <v>924</v>
-      </c>
-      <c r="B545" t="s">
-        <v>925</v>
       </c>
       <c r="C545" t="s">
         <v>233</v>
@@ -15234,10 +15234,10 @@
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B546" t="s">
         <v>1019</v>
-      </c>
-      <c r="B546" t="s">
-        <v>1020</v>
       </c>
       <c r="C546" t="s">
         <v>233</v>
@@ -15254,10 +15254,10 @@
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
+        <v>784</v>
+      </c>
+      <c r="B547" t="s">
         <v>785</v>
-      </c>
-      <c r="B547" t="s">
-        <v>786</v>
       </c>
       <c r="C547" t="s">
         <v>233</v>
@@ -15314,10 +15314,10 @@
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
+        <v>852</v>
+      </c>
+      <c r="B550" t="s">
         <v>853</v>
-      </c>
-      <c r="B550" t="s">
-        <v>854</v>
       </c>
       <c r="C550" t="s">
         <v>233</v>
@@ -15351,10 +15351,10 @@
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B552" t="s">
         <v>1261</v>
-      </c>
-      <c r="B552" t="s">
-        <v>1262</v>
       </c>
       <c r="C552" t="s">
         <v>233</v>
@@ -15411,10 +15411,10 @@
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
+        <v>982</v>
+      </c>
+      <c r="B555" t="s">
         <v>983</v>
-      </c>
-      <c r="B555" t="s">
-        <v>984</v>
       </c>
       <c r="C555" t="s">
         <v>233</v>
@@ -15431,10 +15431,10 @@
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B556" t="s">
         <v>1099</v>
-      </c>
-      <c r="B556" t="s">
-        <v>1100</v>
       </c>
       <c r="C556" t="s">
         <v>233</v>
@@ -15451,10 +15451,10 @@
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B557" t="s">
         <v>1298</v>
-      </c>
-      <c r="B557" t="s">
-        <v>1299</v>
       </c>
       <c r="C557" t="s">
         <v>233</v>
@@ -15599,10 +15599,10 @@
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B565" t="s">
         <v>1023</v>
-      </c>
-      <c r="B565" t="s">
-        <v>1024</v>
       </c>
       <c r="C565" t="s">
         <v>233</v>
@@ -15619,10 +15619,10 @@
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
+        <v>840</v>
+      </c>
+      <c r="B566" t="s">
         <v>841</v>
-      </c>
-      <c r="B566" t="s">
-        <v>842</v>
       </c>
       <c r="C566" t="s">
         <v>233</v>
@@ -15639,10 +15639,10 @@
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
+        <v>953</v>
+      </c>
+      <c r="B567" t="s">
         <v>954</v>
-      </c>
-      <c r="B567" t="s">
-        <v>955</v>
       </c>
       <c r="C567" t="s">
         <v>233</v>
@@ -15699,10 +15699,10 @@
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B570" t="s">
         <v>1235</v>
-      </c>
-      <c r="B570" t="s">
-        <v>1236</v>
       </c>
       <c r="C570" t="s">
         <v>233</v>
@@ -15759,10 +15759,10 @@
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
+        <v>958</v>
+      </c>
+      <c r="B573" t="s">
         <v>959</v>
-      </c>
-      <c r="B573" t="s">
-        <v>960</v>
       </c>
       <c r="C573" t="s">
         <v>233</v>
@@ -15819,10 +15819,10 @@
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B576" t="s">
         <v>1172</v>
-      </c>
-      <c r="B576" t="s">
-        <v>1173</v>
       </c>
       <c r="C576" t="s">
         <v>233</v>
@@ -15859,10 +15859,10 @@
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B578" t="s">
         <v>1340</v>
-      </c>
-      <c r="B578" t="s">
-        <v>1341</v>
       </c>
       <c r="C578" t="s">
         <v>233</v>
@@ -15879,10 +15879,10 @@
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B579" t="s">
         <v>1225</v>
-      </c>
-      <c r="B579" t="s">
-        <v>1226</v>
       </c>
       <c r="C579" t="s">
         <v>233</v>
@@ -15919,10 +15919,10 @@
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B581" t="s">
         <v>1273</v>
-      </c>
-      <c r="B581" t="s">
-        <v>1274</v>
       </c>
       <c r="C581" t="s">
         <v>233</v>
@@ -15939,10 +15939,10 @@
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B582" t="s">
         <v>1237</v>
-      </c>
-      <c r="B582" t="s">
-        <v>1238</v>
       </c>
       <c r="C582" t="s">
         <v>233</v>
@@ -15979,10 +15979,10 @@
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B584" t="s">
         <v>1093</v>
-      </c>
-      <c r="B584" t="s">
-        <v>1094</v>
       </c>
       <c r="C584" t="s">
         <v>233</v>
@@ -16019,10 +16019,10 @@
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B586" t="s">
         <v>1138</v>
-      </c>
-      <c r="B586" t="s">
-        <v>1139</v>
       </c>
       <c r="C586" t="s">
         <v>233</v>
@@ -16039,10 +16039,10 @@
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B587" t="s">
         <v>1147</v>
-      </c>
-      <c r="B587" t="s">
-        <v>1148</v>
       </c>
       <c r="C587" t="s">
         <v>233</v>
@@ -16130,10 +16130,10 @@
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
+        <v>682</v>
+      </c>
+      <c r="B592" t="s">
         <v>683</v>
-      </c>
-      <c r="B592" t="s">
-        <v>684</v>
       </c>
       <c r="C592" t="s">
         <v>233</v>
@@ -16170,10 +16170,10 @@
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
+        <v>725</v>
+      </c>
+      <c r="B594" t="s">
         <v>726</v>
-      </c>
-      <c r="B594" t="s">
-        <v>727</v>
       </c>
       <c r="C594" t="s">
         <v>233</v>
@@ -16287,10 +16287,10 @@
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B600" t="s">
         <v>1143</v>
-      </c>
-      <c r="B600" t="s">
-        <v>1144</v>
       </c>
       <c r="C600" t="s">
         <v>233</v>
@@ -16324,10 +16324,10 @@
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
+        <v>980</v>
+      </c>
+      <c r="B602" t="s">
         <v>981</v>
-      </c>
-      <c r="B602" t="s">
-        <v>982</v>
       </c>
       <c r="C602" t="s">
         <v>233</v>
@@ -16401,10 +16401,10 @@
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B606" t="s">
         <v>1193</v>
-      </c>
-      <c r="B606" t="s">
-        <v>1194</v>
       </c>
       <c r="C606" t="s">
         <v>233</v>
@@ -16535,10 +16535,10 @@
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
+        <v>792</v>
+      </c>
+      <c r="B613" t="s">
         <v>793</v>
-      </c>
-      <c r="B613" t="s">
-        <v>794</v>
       </c>
       <c r="C613" t="s">
         <v>233</v>
@@ -16632,10 +16632,10 @@
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
+        <v>770</v>
+      </c>
+      <c r="B618" t="s">
         <v>771</v>
-      </c>
-      <c r="B618" t="s">
-        <v>772</v>
       </c>
       <c r="C618" t="s">
         <v>233</v>
@@ -16652,10 +16652,10 @@
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B619" t="s">
         <v>1283</v>
-      </c>
-      <c r="B619" t="s">
-        <v>1284</v>
       </c>
       <c r="C619" t="s">
         <v>233</v>
@@ -16712,10 +16712,10 @@
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
+        <v>864</v>
+      </c>
+      <c r="B622" t="s">
         <v>865</v>
-      </c>
-      <c r="B622" t="s">
-        <v>866</v>
       </c>
       <c r="C622" t="s">
         <v>233</v>
@@ -16735,7 +16735,7 @@
         <v>134</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C623" t="s">
         <v>1</v>
@@ -16769,10 +16769,10 @@
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
+        <v>794</v>
+      </c>
+      <c r="B625" t="s">
         <v>795</v>
-      </c>
-      <c r="B625" t="s">
-        <v>796</v>
       </c>
       <c r="C625" t="s">
         <v>233</v>
@@ -16789,10 +16789,10 @@
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
+        <v>866</v>
+      </c>
+      <c r="B626" t="s">
         <v>867</v>
-      </c>
-      <c r="B626" t="s">
-        <v>868</v>
       </c>
       <c r="C626" t="s">
         <v>233</v>
@@ -16829,10 +16829,10 @@
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B628" t="s">
         <v>1256</v>
-      </c>
-      <c r="B628" t="s">
-        <v>1257</v>
       </c>
       <c r="C628" t="s">
         <v>233</v>
@@ -16849,10 +16849,10 @@
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B629" t="s">
         <v>1358</v>
-      </c>
-      <c r="B629" t="s">
-        <v>1359</v>
       </c>
       <c r="C629" t="s">
         <v>233</v>
@@ -16869,10 +16869,10 @@
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B630" t="s">
         <v>1185</v>
-      </c>
-      <c r="B630" t="s">
-        <v>1186</v>
       </c>
       <c r="C630" t="s">
         <v>233</v>
@@ -16909,10 +16909,10 @@
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
+        <v>727</v>
+      </c>
+      <c r="B632" t="s">
         <v>728</v>
-      </c>
-      <c r="B632" t="s">
-        <v>729</v>
       </c>
       <c r="C632" t="s">
         <v>233</v>
@@ -16929,10 +16929,10 @@
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
+        <v>884</v>
+      </c>
+      <c r="B633" t="s">
         <v>885</v>
-      </c>
-      <c r="B633" t="s">
-        <v>886</v>
       </c>
       <c r="C633" t="s">
         <v>233</v>
@@ -16949,10 +16949,10 @@
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B634" t="s">
         <v>1267</v>
-      </c>
-      <c r="B634" t="s">
-        <v>1268</v>
       </c>
       <c r="C634" t="s">
         <v>233</v>
@@ -16986,10 +16986,10 @@
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
+        <v>788</v>
+      </c>
+      <c r="B636" t="s">
         <v>789</v>
-      </c>
-      <c r="B636" t="s">
-        <v>790</v>
       </c>
       <c r="C636" t="s">
         <v>233</v>
@@ -17006,10 +17006,10 @@
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
+        <v>966</v>
+      </c>
+      <c r="B637" t="s">
         <v>967</v>
-      </c>
-      <c r="B637" t="s">
-        <v>968</v>
       </c>
       <c r="C637" t="s">
         <v>233</v>
@@ -17026,10 +17026,10 @@
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B638" t="s">
         <v>1083</v>
-      </c>
-      <c r="B638" t="s">
-        <v>1084</v>
       </c>
       <c r="C638" t="s">
         <v>233</v>
@@ -17066,10 +17066,10 @@
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B640" t="s">
         <v>1277</v>
-      </c>
-      <c r="B640" t="s">
-        <v>1278</v>
       </c>
       <c r="C640" t="s">
         <v>233</v>
@@ -17086,10 +17086,10 @@
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B641" t="s">
         <v>1279</v>
-      </c>
-      <c r="B641" t="s">
-        <v>1280</v>
       </c>
       <c r="C641" t="s">
         <v>233</v>
@@ -17106,10 +17106,10 @@
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B642" t="s">
         <v>1151</v>
-      </c>
-      <c r="B642" t="s">
-        <v>1152</v>
       </c>
       <c r="C642" t="s">
         <v>233</v>
@@ -17126,10 +17126,10 @@
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B643" t="s">
         <v>1157</v>
-      </c>
-      <c r="B643" t="s">
-        <v>1158</v>
       </c>
       <c r="C643" t="s">
         <v>233</v>
@@ -17146,7 +17146,7 @@
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C644" t="s">
         <v>233</v>
@@ -17180,10 +17180,10 @@
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B646" t="s">
         <v>1164</v>
-      </c>
-      <c r="B646" t="s">
-        <v>1165</v>
       </c>
       <c r="C646" t="s">
         <v>233</v>
@@ -17200,10 +17200,10 @@
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B647" t="s">
         <v>1372</v>
-      </c>
-      <c r="B647" t="s">
-        <v>1373</v>
       </c>
       <c r="C647" t="s">
         <v>233</v>
@@ -17220,10 +17220,10 @@
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B648" t="s">
         <v>1374</v>
-      </c>
-      <c r="B648" t="s">
-        <v>1375</v>
       </c>
       <c r="C648" t="s">
         <v>233</v>
@@ -17257,10 +17257,10 @@
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
+        <v>890</v>
+      </c>
+      <c r="B650" t="s">
         <v>891</v>
-      </c>
-      <c r="B650" t="s">
-        <v>892</v>
       </c>
       <c r="C650" t="s">
         <v>233</v>
@@ -17297,10 +17297,10 @@
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B652" t="s">
         <v>1047</v>
-      </c>
-      <c r="B652" t="s">
-        <v>1048</v>
       </c>
       <c r="C652" t="s">
         <v>233</v>
@@ -17317,10 +17317,10 @@
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B653" t="s">
         <v>1179</v>
-      </c>
-      <c r="B653" t="s">
-        <v>1180</v>
       </c>
       <c r="C653" t="s">
         <v>233</v>
@@ -17391,10 +17391,10 @@
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
+        <v>868</v>
+      </c>
+      <c r="B657" t="s">
         <v>869</v>
-      </c>
-      <c r="B657" t="s">
-        <v>870</v>
       </c>
       <c r="C657" t="s">
         <v>233</v>
@@ -17471,10 +17471,10 @@
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
+        <v>937</v>
+      </c>
+      <c r="B661" t="s">
         <v>938</v>
-      </c>
-      <c r="B661" t="s">
-        <v>939</v>
       </c>
       <c r="C661" t="s">
         <v>233</v>
@@ -17491,10 +17491,10 @@
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B662" t="s">
         <v>1101</v>
-      </c>
-      <c r="B662" t="s">
-        <v>1102</v>
       </c>
       <c r="C662" t="s">
         <v>233</v>
@@ -17511,10 +17511,10 @@
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
+        <v>949</v>
+      </c>
+      <c r="B663" t="s">
         <v>950</v>
-      </c>
-      <c r="B663" t="s">
-        <v>951</v>
       </c>
       <c r="C663" t="s">
         <v>233</v>
@@ -17682,10 +17682,10 @@
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B672" t="s">
         <v>1177</v>
-      </c>
-      <c r="B672" t="s">
-        <v>1178</v>
       </c>
       <c r="C672" t="s">
         <v>233</v>
@@ -17702,10 +17702,10 @@
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B673" t="s">
         <v>1187</v>
-      </c>
-      <c r="B673" t="s">
-        <v>1188</v>
       </c>
       <c r="C673" t="s">
         <v>233</v>
@@ -17722,10 +17722,10 @@
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
+        <v>828</v>
+      </c>
+      <c r="B674" t="s">
         <v>829</v>
-      </c>
-      <c r="B674" t="s">
-        <v>830</v>
       </c>
       <c r="C674" t="s">
         <v>233</v>
@@ -17742,10 +17742,10 @@
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
+        <v>933</v>
+      </c>
+      <c r="B675" t="s">
         <v>934</v>
-      </c>
-      <c r="B675" t="s">
-        <v>935</v>
       </c>
       <c r="C675" t="s">
         <v>233</v>
@@ -17782,10 +17782,10 @@
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
+        <v>808</v>
+      </c>
+      <c r="B677" t="s">
         <v>809</v>
-      </c>
-      <c r="B677" t="s">
-        <v>810</v>
       </c>
       <c r="C677" t="s">
         <v>233</v>
@@ -17822,10 +17822,10 @@
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
+        <v>754</v>
+      </c>
+      <c r="B679" t="s">
         <v>755</v>
-      </c>
-      <c r="B679" t="s">
-        <v>756</v>
       </c>
       <c r="C679" t="s">
         <v>233</v>
@@ -17842,10 +17842,10 @@
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
+        <v>939</v>
+      </c>
+      <c r="B680" t="s">
         <v>940</v>
-      </c>
-      <c r="B680" t="s">
-        <v>941</v>
       </c>
       <c r="C680" t="s">
         <v>233</v>
@@ -17862,10 +17862,10 @@
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B681" t="s">
         <v>1012</v>
-      </c>
-      <c r="B681" t="s">
-        <v>1013</v>
       </c>
       <c r="C681" t="s">
         <v>233</v>
@@ -17902,10 +17902,10 @@
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
+        <v>858</v>
+      </c>
+      <c r="B683" t="s">
         <v>859</v>
-      </c>
-      <c r="B683" t="s">
-        <v>860</v>
       </c>
       <c r="C683" t="s">
         <v>233</v>
@@ -17922,10 +17922,10 @@
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B684" t="s">
         <v>1112</v>
-      </c>
-      <c r="B684" t="s">
-        <v>1113</v>
       </c>
       <c r="C684" t="s">
         <v>233</v>
@@ -17982,7 +17982,7 @@
         <v>57</v>
       </c>
       <c r="B687" s="1" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="C687" t="s">
         <v>58</v>
@@ -18039,7 +18039,7 @@
         <v>139</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="C690" t="s">
         <v>1</v>
@@ -18053,10 +18053,10 @@
     </row>
     <row r="691" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
+        <v>764</v>
+      </c>
+      <c r="B691" t="s">
         <v>765</v>
-      </c>
-      <c r="B691" t="s">
-        <v>766</v>
       </c>
       <c r="C691" t="s">
         <v>233</v>
@@ -18073,10 +18073,10 @@
     </row>
     <row r="692" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B692" t="s">
         <v>1348</v>
-      </c>
-      <c r="B692" t="s">
-        <v>1349</v>
       </c>
       <c r="C692" t="s">
         <v>233</v>
@@ -18096,7 +18096,7 @@
         <v>59</v>
       </c>
       <c r="B693" s="1" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="C693" t="s">
         <v>58</v>
@@ -18167,10 +18167,10 @@
     </row>
     <row r="697" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
+        <v>842</v>
+      </c>
+      <c r="B697" t="s">
         <v>843</v>
-      </c>
-      <c r="B697" t="s">
-        <v>844</v>
       </c>
       <c r="C697" t="s">
         <v>233</v>
@@ -18227,10 +18227,10 @@
     </row>
     <row r="700" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B700" t="s">
         <v>1129</v>
-      </c>
-      <c r="B700" t="s">
-        <v>1130</v>
       </c>
       <c r="C700" t="s">
         <v>233</v>
@@ -18247,10 +18247,10 @@
     </row>
     <row r="701" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
+        <v>826</v>
+      </c>
+      <c r="B701" t="s">
         <v>827</v>
-      </c>
-      <c r="B701" t="s">
-        <v>828</v>
       </c>
       <c r="C701" t="s">
         <v>233</v>
@@ -18267,10 +18267,10 @@
     </row>
     <row r="702" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
+        <v>886</v>
+      </c>
+      <c r="B702" t="s">
         <v>887</v>
-      </c>
-      <c r="B702" t="s">
-        <v>888</v>
       </c>
       <c r="C702" t="s">
         <v>233</v>
@@ -18287,10 +18287,10 @@
     </row>
     <row r="703" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
+        <v>941</v>
+      </c>
+      <c r="B703" t="s">
         <v>942</v>
-      </c>
-      <c r="B703" t="s">
-        <v>943</v>
       </c>
       <c r="C703" t="s">
         <v>233</v>
@@ -18307,10 +18307,10 @@
     </row>
     <row r="704" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B704" t="s">
         <v>1302</v>
-      </c>
-      <c r="B704" t="s">
-        <v>1303</v>
       </c>
       <c r="C704" t="s">
         <v>233</v>
@@ -18327,10 +18327,10 @@
     </row>
     <row r="705" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
+        <v>894</v>
+      </c>
+      <c r="B705" t="s">
         <v>895</v>
-      </c>
-      <c r="B705" t="s">
-        <v>896</v>
       </c>
       <c r="C705" t="s">
         <v>233</v>
@@ -18347,7 +18347,7 @@
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B706" t="s">
         <v>232</v>
@@ -18367,7 +18367,7 @@
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B707" t="s">
         <v>232</v>
@@ -18399,8 +18399,9 @@
     <hyperlink ref="B690" r:id="rId10" xr:uid="{AA568B96-FA0C-458D-8733-B95E26833E38}"/>
     <hyperlink ref="B52" r:id="rId11" xr:uid="{42256FEE-B4A9-42EE-A425-53B52A85F2F0}"/>
     <hyperlink ref="B687" r:id="rId12" xr:uid="{80AC7A6C-2585-434D-8440-D423D1E44702}"/>
+    <hyperlink ref="B143" r:id="rId13" xr:uid="{CDB438B1-006B-4DFB-89E8-D2D1CCBA5052}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/jogos.xlsx
+++ b/jogos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\mycollections-cli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50AABB5-BAC4-484F-A18F-3267B3798635}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EABA46-B5A8-4019-85D7-9E15E55D8EE3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{0C35237A-6EB4-4B02-9651-931FED775CEC}"/>
   </bookViews>
@@ -2928,9 +2928,6 @@
     <t>Fortified</t>
   </si>
   <si>
-    <t>http://media.steampowered.com/steamcommunity/public/images/apps/334210/535ed4d2687fbab89d9e60d8cd0fffd2cbeb4b4f.jpg</t>
-  </si>
-  <si>
     <t>TimeShift</t>
   </si>
   <si>
@@ -4228,6 +4225,9 @@
   </si>
   <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT3N4EFlywVNWufo1INuxGNI78gIt_E1NadML9JaScHSDH2ev7X0g</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSzODULzVWSC76Ga5Yi7fDIsuFfQd9Yf9ES4q_CEqAaYXM4H4UqjA</t>
   </si>
 </sst>
 </file>
@@ -4601,8 +4601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E073D1A-5126-4785-A652-5C66939BBDE3}">
   <dimension ref="A1:F707"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="B144" sqref="B144"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="B220" sqref="B220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4616,10 +4616,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B1" t="s">
         <v>1096</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1097</v>
       </c>
       <c r="C1" t="s">
         <v>233</v>
@@ -4636,10 +4636,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B2" t="s">
         <v>1295</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1296</v>
       </c>
       <c r="C2" t="s">
         <v>233</v>
@@ -4756,10 +4756,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B8" t="s">
         <v>1319</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1320</v>
       </c>
       <c r="C8" t="s">
         <v>233</v>
@@ -4776,10 +4776,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B9" t="s">
         <v>1284</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1285</v>
       </c>
       <c r="C9" t="s">
         <v>233</v>
@@ -4796,10 +4796,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>983</v>
+      </c>
+      <c r="B10" t="s">
         <v>984</v>
-      </c>
-      <c r="B10" t="s">
-        <v>985</v>
       </c>
       <c r="C10" t="s">
         <v>233</v>
@@ -4833,10 +4833,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B12" t="s">
         <v>1331</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1332</v>
       </c>
       <c r="C12" t="s">
         <v>233</v>
@@ -4870,10 +4870,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B14" t="s">
         <v>1169</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1170</v>
       </c>
       <c r="C14" t="s">
         <v>233</v>
@@ -4910,10 +4910,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B16" t="s">
         <v>1135</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1136</v>
       </c>
       <c r="C16" t="s">
         <v>233</v>
@@ -4930,10 +4930,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B17" t="s">
         <v>1363</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1364</v>
       </c>
       <c r="C17" t="s">
         <v>233</v>
@@ -4987,10 +4987,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B20" t="s">
         <v>1052</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1053</v>
       </c>
       <c r="C20" t="s">
         <v>233</v>
@@ -5124,7 +5124,7 @@
         <v>121</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C27" t="s">
         <v>58</v>
@@ -5175,10 +5175,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B30" t="s">
         <v>1249</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1250</v>
       </c>
       <c r="C30" t="s">
         <v>233</v>
@@ -5275,7 +5275,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B35" t="s">
         <v>28</v>
@@ -5292,10 +5292,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B36" t="s">
         <v>1353</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1354</v>
       </c>
       <c r="C36" t="s">
         <v>233</v>
@@ -5355,7 +5355,7 @@
         <v>203</v>
       </c>
       <c r="B39" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C39" t="s">
         <v>164</v>
@@ -5372,7 +5372,7 @@
         <v>203</v>
       </c>
       <c r="B40" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C40" t="s">
         <v>233</v>
@@ -5389,10 +5389,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B41" t="s">
         <v>1188</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1189</v>
       </c>
       <c r="C41" t="s">
         <v>233</v>
@@ -5574,10 +5574,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B51" t="s">
         <v>1315</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1316</v>
       </c>
       <c r="C51" t="s">
         <v>233</v>
@@ -5597,7 +5597,7 @@
         <v>84</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="C52" t="s">
         <v>58</v>
@@ -5671,10 +5671,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>985</v>
+      </c>
+      <c r="B56" t="s">
         <v>986</v>
-      </c>
-      <c r="B56" t="s">
-        <v>987</v>
       </c>
       <c r="C56" t="s">
         <v>233</v>
@@ -5731,10 +5731,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B59" t="s">
         <v>1144</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1145</v>
       </c>
       <c r="C59" t="s">
         <v>233</v>
@@ -5751,10 +5751,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>987</v>
+      </c>
+      <c r="B60" t="s">
         <v>988</v>
-      </c>
-      <c r="B60" t="s">
-        <v>989</v>
       </c>
       <c r="C60" t="s">
         <v>233</v>
@@ -5811,10 +5811,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B63" t="s">
         <v>1040</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1041</v>
       </c>
       <c r="C63" t="s">
         <v>233</v>
@@ -5831,10 +5831,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B64" t="s">
         <v>1050</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1051</v>
       </c>
       <c r="C64" t="s">
         <v>233</v>
@@ -5868,10 +5868,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B66" t="s">
         <v>1068</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1069</v>
       </c>
       <c r="C66" t="s">
         <v>233</v>
@@ -5888,10 +5888,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B67" t="s">
         <v>1280</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1281</v>
       </c>
       <c r="C67" t="s">
         <v>233</v>
@@ -5968,10 +5968,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B71" t="s">
         <v>1042</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1043</v>
       </c>
       <c r="C71" t="s">
         <v>233</v>
@@ -6008,10 +6008,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B73" t="s">
         <v>1020</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1021</v>
       </c>
       <c r="C73" t="s">
         <v>233</v>
@@ -6142,10 +6142,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B80" t="s">
         <v>1034</v>
-      </c>
-      <c r="B80" t="s">
-        <v>1035</v>
       </c>
       <c r="C80" t="s">
         <v>233</v>
@@ -6162,10 +6162,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B81" t="s">
         <v>1088</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1089</v>
       </c>
       <c r="C81" t="s">
         <v>233</v>
@@ -6182,10 +6182,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B82" t="s">
         <v>1305</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1306</v>
       </c>
       <c r="C82" t="s">
         <v>233</v>
@@ -6259,10 +6259,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B86" t="s">
         <v>1028</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1029</v>
       </c>
       <c r="C86" t="s">
         <v>233</v>
@@ -6279,10 +6279,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B87" t="s">
         <v>1159</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1160</v>
       </c>
       <c r="C87" t="s">
         <v>233</v>
@@ -6299,10 +6299,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B88" t="s">
         <v>1090</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1091</v>
       </c>
       <c r="C88" t="s">
         <v>233</v>
@@ -6339,10 +6339,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>996</v>
+      </c>
+      <c r="B90" t="s">
         <v>997</v>
-      </c>
-      <c r="B90" t="s">
-        <v>998</v>
       </c>
       <c r="C90" t="s">
         <v>233</v>
@@ -6439,10 +6439,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B95" t="s">
         <v>1323</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1324</v>
       </c>
       <c r="C95" t="s">
         <v>233</v>
@@ -6476,10 +6476,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B97" t="s">
         <v>1264</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1265</v>
       </c>
       <c r="C97" t="s">
         <v>233</v>
@@ -6536,10 +6536,10 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B100" t="s">
         <v>1140</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1141</v>
       </c>
       <c r="C100" t="s">
         <v>233</v>
@@ -6556,10 +6556,10 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B101" t="s">
         <v>1078</v>
-      </c>
-      <c r="B101" t="s">
-        <v>1079</v>
       </c>
       <c r="C101" t="s">
         <v>233</v>
@@ -6576,10 +6576,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B102" t="s">
         <v>1290</v>
-      </c>
-      <c r="B102" t="s">
-        <v>1291</v>
       </c>
       <c r="C102" t="s">
         <v>233</v>
@@ -6616,10 +6616,10 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B104" t="s">
         <v>1070</v>
-      </c>
-      <c r="B104" t="s">
-        <v>1071</v>
       </c>
       <c r="C104" t="s">
         <v>233</v>
@@ -6656,10 +6656,10 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C106" t="s">
         <v>233</v>
@@ -6756,10 +6756,10 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>967</v>
+      </c>
+      <c r="B111" t="s">
         <v>968</v>
-      </c>
-      <c r="B111" t="s">
-        <v>969</v>
       </c>
       <c r="C111" t="s">
         <v>233</v>
@@ -6796,10 +6796,10 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B113" t="s">
         <v>1007</v>
-      </c>
-      <c r="B113" t="s">
-        <v>1008</v>
       </c>
       <c r="C113" t="s">
         <v>233</v>
@@ -6890,7 +6890,7 @@
         <v>111</v>
       </c>
       <c r="B118" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C118" t="s">
         <v>233</v>
@@ -6981,10 +6981,10 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B123" t="s">
         <v>1222</v>
-      </c>
-      <c r="B123" t="s">
-        <v>1223</v>
       </c>
       <c r="C123" t="s">
         <v>233</v>
@@ -7121,10 +7121,10 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B130" t="s">
         <v>1013</v>
-      </c>
-      <c r="B130" t="s">
-        <v>1014</v>
       </c>
       <c r="C130" t="s">
         <v>233</v>
@@ -7141,10 +7141,10 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>989</v>
+      </c>
+      <c r="B131" t="s">
         <v>990</v>
-      </c>
-      <c r="B131" t="s">
-        <v>991</v>
       </c>
       <c r="C131" t="s">
         <v>233</v>
@@ -7161,10 +7161,10 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B132" t="s">
         <v>1365</v>
-      </c>
-      <c r="B132" t="s">
-        <v>1366</v>
       </c>
       <c r="C132" t="s">
         <v>233</v>
@@ -7272,10 +7272,10 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B138" t="s">
         <v>1003</v>
-      </c>
-      <c r="B138" t="s">
-        <v>1004</v>
       </c>
       <c r="C138" t="s">
         <v>233</v>
@@ -7349,10 +7349,10 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B142" t="s">
         <v>1230</v>
-      </c>
-      <c r="B142" t="s">
-        <v>1231</v>
       </c>
       <c r="C142" t="s">
         <v>233</v>
@@ -7372,7 +7372,7 @@
         <v>653</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="C143" t="s">
         <v>233</v>
@@ -7409,10 +7409,10 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B145" t="s">
         <v>1054</v>
-      </c>
-      <c r="B145" t="s">
-        <v>1055</v>
       </c>
       <c r="C145" t="s">
         <v>233</v>
@@ -7469,10 +7469,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B148" t="s">
         <v>1327</v>
-      </c>
-      <c r="B148" t="s">
-        <v>1328</v>
       </c>
       <c r="C148" t="s">
         <v>233</v>
@@ -7509,10 +7509,10 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>991</v>
+      </c>
+      <c r="B150" t="s">
         <v>992</v>
-      </c>
-      <c r="B150" t="s">
-        <v>993</v>
       </c>
       <c r="C150" t="s">
         <v>233</v>
@@ -7549,10 +7549,10 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B152" t="s">
         <v>1103</v>
-      </c>
-      <c r="B152" t="s">
-        <v>1104</v>
       </c>
       <c r="C152" t="s">
         <v>233</v>
@@ -7589,10 +7589,10 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B154" t="s">
         <v>1375</v>
-      </c>
-      <c r="B154" t="s">
-        <v>1376</v>
       </c>
       <c r="C154" t="s">
         <v>233</v>
@@ -7609,10 +7609,10 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>994</v>
+      </c>
+      <c r="B155" t="s">
         <v>995</v>
-      </c>
-      <c r="B155" t="s">
-        <v>996</v>
       </c>
       <c r="C155" t="s">
         <v>233</v>
@@ -7629,7 +7629,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C156" t="s">
         <v>233</v>
@@ -7646,10 +7646,10 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B157" t="s">
         <v>1032</v>
-      </c>
-      <c r="B157" t="s">
-        <v>1033</v>
       </c>
       <c r="C157" t="s">
         <v>233</v>
@@ -7669,7 +7669,7 @@
         <v>0</v>
       </c>
       <c r="B158" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C158" t="s">
         <v>1</v>
@@ -7763,7 +7763,7 @@
         <v>957</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C163" t="s">
         <v>233</v>
@@ -7837,10 +7837,10 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B167" t="s">
         <v>1335</v>
-      </c>
-      <c r="B167" t="s">
-        <v>1336</v>
       </c>
       <c r="C167" t="s">
         <v>233</v>
@@ -7877,10 +7877,10 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B169" t="s">
         <v>1154</v>
-      </c>
-      <c r="B169" t="s">
-        <v>1155</v>
       </c>
       <c r="C169" t="s">
         <v>233</v>
@@ -8037,10 +8037,10 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B177" t="s">
         <v>1293</v>
-      </c>
-      <c r="B177" t="s">
-        <v>1294</v>
       </c>
       <c r="C177" t="s">
         <v>233</v>
@@ -8057,10 +8057,10 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B178" t="s">
         <v>1270</v>
-      </c>
-      <c r="B178" t="s">
-        <v>1271</v>
       </c>
       <c r="C178" t="s">
         <v>233</v>
@@ -8097,10 +8097,10 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>975</v>
+      </c>
+      <c r="B180" t="s">
         <v>976</v>
-      </c>
-      <c r="B180" t="s">
-        <v>977</v>
       </c>
       <c r="C180" t="s">
         <v>233</v>
@@ -8157,10 +8157,10 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>977</v>
+      </c>
+      <c r="B183" t="s">
         <v>978</v>
-      </c>
-      <c r="B183" t="s">
-        <v>979</v>
       </c>
       <c r="C183" t="s">
         <v>233</v>
@@ -8197,10 +8197,10 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B185" t="s">
         <v>1288</v>
-      </c>
-      <c r="B185" t="s">
-        <v>1289</v>
       </c>
       <c r="C185" t="s">
         <v>233</v>
@@ -8277,10 +8277,10 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B189" t="s">
         <v>1262</v>
-      </c>
-      <c r="B189" t="s">
-        <v>1263</v>
       </c>
       <c r="C189" t="s">
         <v>233</v>
@@ -8317,10 +8317,10 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B191" t="s">
         <v>1182</v>
-      </c>
-      <c r="B191" t="s">
-        <v>1183</v>
       </c>
       <c r="C191" t="s">
         <v>233</v>
@@ -8357,10 +8357,10 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>973</v>
+      </c>
+      <c r="B193" t="s">
         <v>974</v>
-      </c>
-      <c r="B193" t="s">
-        <v>975</v>
       </c>
       <c r="C193" t="s">
         <v>233</v>
@@ -8451,10 +8451,10 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C198" t="s">
         <v>233</v>
@@ -8474,7 +8474,7 @@
         <v>87</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C199" t="s">
         <v>58</v>
@@ -8491,7 +8491,7 @@
         <v>88</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C200" t="s">
         <v>58</v>
@@ -8562,10 +8562,10 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B204" t="s">
         <v>1321</v>
-      </c>
-      <c r="B204" t="s">
-        <v>1322</v>
       </c>
       <c r="C204" t="s">
         <v>233</v>
@@ -8582,10 +8582,10 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B205" t="s">
         <v>1299</v>
-      </c>
-      <c r="B205" t="s">
-        <v>1300</v>
       </c>
       <c r="C205" t="s">
         <v>233</v>
@@ -8690,10 +8690,10 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B211" t="s">
         <v>1038</v>
-      </c>
-      <c r="B211" t="s">
-        <v>1039</v>
       </c>
       <c r="C211" t="s">
         <v>233</v>
@@ -8727,10 +8727,10 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B213" t="s">
         <v>1240</v>
-      </c>
-      <c r="B213" t="s">
-        <v>1241</v>
       </c>
       <c r="C213" t="s">
         <v>233</v>
@@ -8747,10 +8747,10 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B214" t="s">
         <v>1242</v>
-      </c>
-      <c r="B214" t="s">
-        <v>1243</v>
       </c>
       <c r="C214" t="s">
         <v>233</v>
@@ -8787,10 +8787,10 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B216" t="s">
         <v>1218</v>
-      </c>
-      <c r="B216" t="s">
-        <v>1219</v>
       </c>
       <c r="C216" t="s">
         <v>233</v>
@@ -8807,10 +8807,10 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C217" t="s">
         <v>233</v>
@@ -8827,10 +8827,10 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B218" t="s">
         <v>1253</v>
-      </c>
-      <c r="B218" t="s">
-        <v>1254</v>
       </c>
       <c r="C218" t="s">
         <v>233</v>
@@ -8849,8 +8849,8 @@
       <c r="A219" t="s">
         <v>964</v>
       </c>
-      <c r="B219" t="s">
-        <v>965</v>
+      <c r="B219" s="1" t="s">
+        <v>1398</v>
       </c>
       <c r="C219" t="s">
         <v>233</v>
@@ -8921,10 +8921,10 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B223" t="s">
         <v>1015</v>
-      </c>
-      <c r="B223" t="s">
-        <v>1016</v>
       </c>
       <c r="C223" t="s">
         <v>233</v>
@@ -8941,7 +8941,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C224" t="s">
         <v>233</v>
@@ -9018,10 +9018,10 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B228" t="s">
         <v>1361</v>
-      </c>
-      <c r="B228" t="s">
-        <v>1362</v>
       </c>
       <c r="C228" t="s">
         <v>233</v>
@@ -9098,10 +9098,10 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B232" t="s">
         <v>1311</v>
-      </c>
-      <c r="B232" t="s">
-        <v>1312</v>
       </c>
       <c r="C232" t="s">
         <v>233</v>
@@ -9175,10 +9175,10 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B236" t="s">
         <v>1062</v>
-      </c>
-      <c r="B236" t="s">
-        <v>1063</v>
       </c>
       <c r="C236" t="s">
         <v>233</v>
@@ -9195,10 +9195,10 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B237" t="s">
         <v>1001</v>
-      </c>
-      <c r="B237" t="s">
-        <v>1002</v>
       </c>
       <c r="C237" t="s">
         <v>233</v>
@@ -9215,10 +9215,10 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B238" t="s">
         <v>1060</v>
-      </c>
-      <c r="B238" t="s">
-        <v>1061</v>
       </c>
       <c r="C238" t="s">
         <v>233</v>
@@ -9275,7 +9275,7 @@
         <v>673</v>
       </c>
       <c r="B241" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C241" t="s">
         <v>233</v>
@@ -9426,10 +9426,10 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B249" t="s">
         <v>1258</v>
-      </c>
-      <c r="B249" t="s">
-        <v>1259</v>
       </c>
       <c r="C249" t="s">
         <v>233</v>
@@ -9446,10 +9446,10 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B250" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C250" t="s">
         <v>233</v>
@@ -9466,10 +9466,10 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B251" t="s">
         <v>1056</v>
-      </c>
-      <c r="B251" t="s">
-        <v>1057</v>
       </c>
       <c r="C251" t="s">
         <v>233</v>
@@ -9703,10 +9703,10 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B263" t="s">
         <v>1048</v>
-      </c>
-      <c r="B263" t="s">
-        <v>1049</v>
       </c>
       <c r="C263" t="s">
         <v>233</v>
@@ -9963,10 +9963,10 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B276" t="s">
         <v>1113</v>
-      </c>
-      <c r="B276" t="s">
-        <v>1114</v>
       </c>
       <c r="C276" t="s">
         <v>233</v>
@@ -9983,10 +9983,10 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B277" t="s">
         <v>1369</v>
-      </c>
-      <c r="B277" t="s">
-        <v>1370</v>
       </c>
       <c r="C277" t="s">
         <v>233</v>
@@ -10023,10 +10023,10 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B279" t="s">
         <v>1109</v>
-      </c>
-      <c r="B279" t="s">
-        <v>1110</v>
       </c>
       <c r="C279" t="s">
         <v>233</v>
@@ -10043,10 +10043,10 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B280" t="s">
         <v>1072</v>
-      </c>
-      <c r="B280" t="s">
-        <v>1073</v>
       </c>
       <c r="C280" t="s">
         <v>233</v>
@@ -10083,10 +10083,10 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B282" t="s">
         <v>1165</v>
-      </c>
-      <c r="B282" t="s">
-        <v>1166</v>
       </c>
       <c r="C282" t="s">
         <v>233</v>
@@ -10123,10 +10123,10 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B284" t="s">
         <v>1105</v>
-      </c>
-      <c r="B284" t="s">
-        <v>1106</v>
       </c>
       <c r="C284" t="s">
         <v>233</v>
@@ -10143,10 +10143,10 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B285" t="s">
         <v>1228</v>
-      </c>
-      <c r="B285" t="s">
-        <v>1229</v>
       </c>
       <c r="C285" t="s">
         <v>233</v>
@@ -10243,10 +10243,10 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B290" t="s">
         <v>1058</v>
-      </c>
-      <c r="B290" t="s">
-        <v>1059</v>
       </c>
       <c r="C290" t="s">
         <v>233</v>
@@ -10383,10 +10383,10 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B297" t="s">
         <v>1317</v>
-      </c>
-      <c r="B297" t="s">
-        <v>1318</v>
       </c>
       <c r="C297" t="s">
         <v>233</v>
@@ -10423,10 +10423,10 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B299" t="s">
         <v>1343</v>
-      </c>
-      <c r="B299" t="s">
-        <v>1344</v>
       </c>
       <c r="C299" t="s">
         <v>233</v>
@@ -10460,10 +10460,10 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B301" t="s">
         <v>1359</v>
-      </c>
-      <c r="B301" t="s">
-        <v>1360</v>
       </c>
       <c r="C301" t="s">
         <v>233</v>
@@ -10577,10 +10577,10 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B307" t="s">
         <v>1066</v>
-      </c>
-      <c r="B307" t="s">
-        <v>1067</v>
       </c>
       <c r="C307" t="s">
         <v>233</v>
@@ -10597,10 +10597,10 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B308" t="s">
         <v>1161</v>
-      </c>
-      <c r="B308" t="s">
-        <v>1162</v>
       </c>
       <c r="C308" t="s">
         <v>233</v>
@@ -10637,10 +10637,10 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B310" t="s">
         <v>1080</v>
-      </c>
-      <c r="B310" t="s">
-        <v>1081</v>
       </c>
       <c r="C310" t="s">
         <v>233</v>
@@ -10697,10 +10697,10 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B313" t="s">
         <v>1349</v>
-      </c>
-      <c r="B313" t="s">
-        <v>1350</v>
       </c>
       <c r="C313" t="s">
         <v>233</v>
@@ -10717,10 +10717,10 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B314" t="s">
         <v>1036</v>
-      </c>
-      <c r="B314" t="s">
-        <v>1037</v>
       </c>
       <c r="C314" t="s">
         <v>233</v>
@@ -10794,10 +10794,10 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B318" t="s">
         <v>1107</v>
-      </c>
-      <c r="B318" t="s">
-        <v>1108</v>
       </c>
       <c r="C318" t="s">
         <v>233</v>
@@ -10814,10 +10814,10 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B319" t="s">
         <v>1086</v>
-      </c>
-      <c r="B319" t="s">
-        <v>1087</v>
       </c>
       <c r="C319" t="s">
         <v>233</v>
@@ -10874,10 +10874,10 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B322" t="s">
         <v>1238</v>
-      </c>
-      <c r="B322" t="s">
-        <v>1239</v>
       </c>
       <c r="C322" t="s">
         <v>233</v>
@@ -10931,10 +10931,10 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B325" t="s">
         <v>1119</v>
-      </c>
-      <c r="B325" t="s">
-        <v>1120</v>
       </c>
       <c r="C325" t="s">
         <v>233</v>
@@ -11088,10 +11088,10 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B333" t="s">
         <v>1313</v>
-      </c>
-      <c r="B333" t="s">
-        <v>1314</v>
       </c>
       <c r="C333" t="s">
         <v>233</v>
@@ -11128,10 +11128,10 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B335" t="s">
         <v>1232</v>
-      </c>
-      <c r="B335" t="s">
-        <v>1233</v>
       </c>
       <c r="C335" t="s">
         <v>233</v>
@@ -11148,10 +11148,10 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B336" t="s">
         <v>1133</v>
-      </c>
-      <c r="B336" t="s">
-        <v>1134</v>
       </c>
       <c r="C336" t="s">
         <v>233</v>
@@ -11305,10 +11305,10 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B344" t="s">
         <v>1084</v>
-      </c>
-      <c r="B344" t="s">
-        <v>1085</v>
       </c>
       <c r="C344" t="s">
         <v>233</v>
@@ -11325,10 +11325,10 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B345" t="s">
         <v>1286</v>
-      </c>
-      <c r="B345" t="s">
-        <v>1287</v>
       </c>
       <c r="C345" t="s">
         <v>233</v>
@@ -11365,10 +11365,10 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B347" t="s">
         <v>1124</v>
-      </c>
-      <c r="B347" t="s">
-        <v>1125</v>
       </c>
       <c r="C347" t="s">
         <v>233</v>
@@ -11792,10 +11792,10 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B370" t="s">
         <v>1333</v>
-      </c>
-      <c r="B370" t="s">
-        <v>1334</v>
       </c>
       <c r="C370" t="s">
         <v>233</v>
@@ -11852,10 +11852,10 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B373" t="s">
         <v>1307</v>
-      </c>
-      <c r="B373" t="s">
-        <v>1308</v>
       </c>
       <c r="C373" t="s">
         <v>233</v>
@@ -11946,10 +11946,10 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B378" t="s">
         <v>1094</v>
-      </c>
-      <c r="B378" t="s">
-        <v>1095</v>
       </c>
       <c r="C378" t="s">
         <v>233</v>
@@ -11966,10 +11966,10 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B379" t="s">
         <v>1126</v>
-      </c>
-      <c r="B379" t="s">
-        <v>1127</v>
       </c>
       <c r="C379" t="s">
         <v>233</v>
@@ -12046,10 +12046,10 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B383" t="s">
         <v>1214</v>
-      </c>
-      <c r="B383" t="s">
-        <v>1215</v>
       </c>
       <c r="C383" t="s">
         <v>233</v>
@@ -12066,10 +12066,10 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B384" t="s">
         <v>1204</v>
-      </c>
-      <c r="B384" t="s">
-        <v>1205</v>
       </c>
       <c r="C384" t="s">
         <v>233</v>
@@ -12086,10 +12086,10 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B385" t="s">
         <v>1200</v>
-      </c>
-      <c r="B385" t="s">
-        <v>1201</v>
       </c>
       <c r="C385" t="s">
         <v>233</v>
@@ -12106,10 +12106,10 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B386" t="s">
         <v>1198</v>
-      </c>
-      <c r="B386" t="s">
-        <v>1199</v>
       </c>
       <c r="C386" t="s">
         <v>233</v>
@@ -12126,10 +12126,10 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B387" t="s">
         <v>1202</v>
-      </c>
-      <c r="B387" t="s">
-        <v>1203</v>
       </c>
       <c r="C387" t="s">
         <v>233</v>
@@ -12146,10 +12146,10 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B388" t="s">
         <v>1210</v>
-      </c>
-      <c r="B388" t="s">
-        <v>1211</v>
       </c>
       <c r="C388" t="s">
         <v>233</v>
@@ -12166,10 +12166,10 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B389" t="s">
         <v>1212</v>
-      </c>
-      <c r="B389" t="s">
-        <v>1213</v>
       </c>
       <c r="C389" t="s">
         <v>233</v>
@@ -12203,10 +12203,10 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B391" t="s">
         <v>1194</v>
-      </c>
-      <c r="B391" t="s">
-        <v>1195</v>
       </c>
       <c r="C391" t="s">
         <v>233</v>
@@ -12223,10 +12223,10 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B392" t="s">
         <v>1206</v>
-      </c>
-      <c r="B392" t="s">
-        <v>1207</v>
       </c>
       <c r="C392" t="s">
         <v>233</v>
@@ -12243,10 +12243,10 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B393" t="s">
         <v>1208</v>
-      </c>
-      <c r="B393" t="s">
-        <v>1209</v>
       </c>
       <c r="C393" t="s">
         <v>233</v>
@@ -12263,10 +12263,10 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B394" t="s">
         <v>1196</v>
-      </c>
-      <c r="B394" t="s">
-        <v>1197</v>
       </c>
       <c r="C394" t="s">
         <v>233</v>
@@ -12457,10 +12457,10 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B404" t="s">
         <v>1351</v>
-      </c>
-      <c r="B404" t="s">
-        <v>1352</v>
       </c>
       <c r="C404" t="s">
         <v>233</v>
@@ -12534,10 +12534,10 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B408" t="s">
         <v>1122</v>
-      </c>
-      <c r="B408" t="s">
-        <v>1123</v>
       </c>
       <c r="C408" t="s">
         <v>233</v>
@@ -12563,7 +12563,7 @@
         <v>228</v>
       </c>
       <c r="D409" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="E409" t="s">
         <v>229</v>
@@ -12591,10 +12591,10 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B411" t="s">
         <v>1274</v>
-      </c>
-      <c r="B411" t="s">
-        <v>1275</v>
       </c>
       <c r="C411" t="s">
         <v>233</v>
@@ -12611,10 +12611,10 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B412" t="s">
         <v>1367</v>
-      </c>
-      <c r="B412" t="s">
-        <v>1368</v>
       </c>
       <c r="C412" t="s">
         <v>233</v>
@@ -12651,10 +12651,10 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B414" t="s">
         <v>1355</v>
-      </c>
-      <c r="B414" t="s">
-        <v>1356</v>
       </c>
       <c r="C414" t="s">
         <v>233</v>
@@ -12671,10 +12671,10 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B415" t="s">
         <v>1005</v>
-      </c>
-      <c r="B415" t="s">
-        <v>1006</v>
       </c>
       <c r="C415" t="s">
         <v>233</v>
@@ -12765,10 +12765,10 @@
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B420" t="s">
         <v>1044</v>
-      </c>
-      <c r="B420" t="s">
-        <v>1045</v>
       </c>
       <c r="C420" t="s">
         <v>233</v>
@@ -12825,10 +12825,10 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B423" t="s">
         <v>1244</v>
-      </c>
-      <c r="B423" t="s">
-        <v>1245</v>
       </c>
       <c r="C423" t="s">
         <v>233</v>
@@ -12845,10 +12845,10 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B424" t="s">
         <v>1117</v>
-      </c>
-      <c r="B424" t="s">
-        <v>1118</v>
       </c>
       <c r="C424" t="s">
         <v>233</v>
@@ -12885,10 +12885,10 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B426" t="s">
         <v>1337</v>
-      </c>
-      <c r="B426" t="s">
-        <v>1338</v>
       </c>
       <c r="C426" t="s">
         <v>233</v>
@@ -12982,10 +12982,10 @@
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B431" t="s">
         <v>1064</v>
-      </c>
-      <c r="B431" t="s">
-        <v>1065</v>
       </c>
       <c r="C431" t="s">
         <v>233</v>
@@ -13039,10 +13039,10 @@
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B434" t="s">
         <v>1030</v>
-      </c>
-      <c r="B434" t="s">
-        <v>1031</v>
       </c>
       <c r="C434" t="s">
         <v>233</v>
@@ -13173,10 +13173,10 @@
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B441" t="s">
         <v>1167</v>
-      </c>
-      <c r="B441" t="s">
-        <v>1168</v>
       </c>
       <c r="C441" t="s">
         <v>233</v>
@@ -13424,10 +13424,10 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B454" t="s">
         <v>1247</v>
-      </c>
-      <c r="B454" t="s">
-        <v>1248</v>
       </c>
       <c r="C454" t="s">
         <v>233</v>
@@ -13444,10 +13444,10 @@
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B455" t="s">
         <v>1341</v>
-      </c>
-      <c r="B455" t="s">
-        <v>1342</v>
       </c>
       <c r="C455" t="s">
         <v>233</v>
@@ -13464,10 +13464,10 @@
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B456" t="s">
         <v>1115</v>
-      </c>
-      <c r="B456" t="s">
-        <v>1116</v>
       </c>
       <c r="C456" t="s">
         <v>233</v>
@@ -13504,10 +13504,10 @@
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B458" t="s">
         <v>1131</v>
-      </c>
-      <c r="B458" t="s">
-        <v>1132</v>
       </c>
       <c r="C458" t="s">
         <v>233</v>
@@ -13544,10 +13544,10 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B460" t="s">
         <v>1325</v>
-      </c>
-      <c r="B460" t="s">
-        <v>1326</v>
       </c>
       <c r="C460" t="s">
         <v>233</v>
@@ -13718,10 +13718,10 @@
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B469" t="s">
         <v>1148</v>
-      </c>
-      <c r="B469" t="s">
-        <v>1149</v>
       </c>
       <c r="C469" t="s">
         <v>233</v>
@@ -13778,10 +13778,10 @@
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B472" t="s">
         <v>1024</v>
-      </c>
-      <c r="B472" t="s">
-        <v>1025</v>
       </c>
       <c r="C472" t="s">
         <v>233</v>
@@ -13798,7 +13798,7 @@
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B473" t="s">
         <v>308</v>
@@ -13818,7 +13818,7 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B474" t="s">
         <v>325</v>
@@ -13838,10 +13838,10 @@
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B475" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C475" t="s">
         <v>233</v>
@@ -13858,7 +13858,7 @@
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B476" t="s">
         <v>384</v>
@@ -13878,7 +13878,7 @@
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B477" t="s">
         <v>303</v>
@@ -13898,10 +13898,10 @@
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B478" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C478" t="s">
         <v>233</v>
@@ -14038,10 +14038,10 @@
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B485" t="s">
         <v>1190</v>
-      </c>
-      <c r="B485" t="s">
-        <v>1191</v>
       </c>
       <c r="C485" t="s">
         <v>233</v>
@@ -14058,10 +14058,10 @@
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B486" t="s">
         <v>1174</v>
-      </c>
-      <c r="B486" t="s">
-        <v>1175</v>
       </c>
       <c r="C486" t="s">
         <v>233</v>
@@ -14098,10 +14098,10 @@
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B488" t="s">
         <v>1026</v>
-      </c>
-      <c r="B488" t="s">
-        <v>1027</v>
       </c>
       <c r="C488" t="s">
         <v>233</v>
@@ -14198,10 +14198,10 @@
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B493" t="s">
         <v>1309</v>
-      </c>
-      <c r="B493" t="s">
-        <v>1310</v>
       </c>
       <c r="C493" t="s">
         <v>233</v>
@@ -14218,10 +14218,10 @@
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B494" t="s">
         <v>1180</v>
-      </c>
-      <c r="B494" t="s">
-        <v>1181</v>
       </c>
       <c r="C494" t="s">
         <v>233</v>
@@ -14258,10 +14258,10 @@
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B496" t="s">
         <v>1152</v>
-      </c>
-      <c r="B496" t="s">
-        <v>1153</v>
       </c>
       <c r="C496" t="s">
         <v>233</v>
@@ -14355,10 +14355,10 @@
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B501" t="s">
         <v>1329</v>
-      </c>
-      <c r="B501" t="s">
-        <v>1330</v>
       </c>
       <c r="C501" t="s">
         <v>233</v>
@@ -14469,10 +14469,10 @@
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B507" t="s">
         <v>1220</v>
-      </c>
-      <c r="B507" t="s">
-        <v>1221</v>
       </c>
       <c r="C507" t="s">
         <v>233</v>
@@ -14489,10 +14489,10 @@
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
+        <v>998</v>
+      </c>
+      <c r="B508" t="s">
         <v>999</v>
-      </c>
-      <c r="B508" t="s">
-        <v>1000</v>
       </c>
       <c r="C508" t="s">
         <v>233</v>
@@ -14509,10 +14509,10 @@
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B509" t="s">
         <v>1009</v>
-      </c>
-      <c r="B509" t="s">
-        <v>1010</v>
       </c>
       <c r="C509" t="s">
         <v>233</v>
@@ -14529,10 +14529,10 @@
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B510" t="s">
         <v>1226</v>
-      </c>
-      <c r="B510" t="s">
-        <v>1227</v>
       </c>
       <c r="C510" t="s">
         <v>233</v>
@@ -14549,10 +14549,10 @@
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B511" t="s">
         <v>1076</v>
-      </c>
-      <c r="B511" t="s">
-        <v>1077</v>
       </c>
       <c r="C511" t="s">
         <v>233</v>
@@ -14606,10 +14606,10 @@
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B514" t="s">
         <v>1303</v>
-      </c>
-      <c r="B514" t="s">
-        <v>1304</v>
       </c>
       <c r="C514" t="s">
         <v>233</v>
@@ -14800,10 +14800,10 @@
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B524" t="s">
         <v>1216</v>
-      </c>
-      <c r="B524" t="s">
-        <v>1217</v>
       </c>
       <c r="C524" t="s">
         <v>233</v>
@@ -14820,10 +14820,10 @@
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B525" t="s">
         <v>1074</v>
-      </c>
-      <c r="B525" t="s">
-        <v>1075</v>
       </c>
       <c r="C525" t="s">
         <v>233</v>
@@ -14883,7 +14883,7 @@
         <v>806</v>
       </c>
       <c r="B528" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C528" t="s">
         <v>233</v>
@@ -14900,10 +14900,10 @@
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
+        <v>971</v>
+      </c>
+      <c r="B529" t="s">
         <v>972</v>
-      </c>
-      <c r="B529" t="s">
-        <v>973</v>
       </c>
       <c r="C529" t="s">
         <v>233</v>
@@ -14920,10 +14920,10 @@
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B530" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C530" t="s">
         <v>233</v>
@@ -14960,10 +14960,10 @@
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
+        <v>969</v>
+      </c>
+      <c r="B532" t="s">
         <v>970</v>
-      </c>
-      <c r="B532" t="s">
-        <v>971</v>
       </c>
       <c r="C532" t="s">
         <v>233</v>
@@ -14980,10 +14980,10 @@
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B533" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C533" t="s">
         <v>233</v>
@@ -15134,10 +15134,10 @@
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B541" t="s">
         <v>1345</v>
-      </c>
-      <c r="B541" t="s">
-        <v>1346</v>
       </c>
       <c r="C541" t="s">
         <v>233</v>
@@ -15234,10 +15234,10 @@
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B546" t="s">
         <v>1018</v>
-      </c>
-      <c r="B546" t="s">
-        <v>1019</v>
       </c>
       <c r="C546" t="s">
         <v>233</v>
@@ -15351,10 +15351,10 @@
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B552" t="s">
         <v>1260</v>
-      </c>
-      <c r="B552" t="s">
-        <v>1261</v>
       </c>
       <c r="C552" t="s">
         <v>233</v>
@@ -15411,10 +15411,10 @@
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
+        <v>981</v>
+      </c>
+      <c r="B555" t="s">
         <v>982</v>
-      </c>
-      <c r="B555" t="s">
-        <v>983</v>
       </c>
       <c r="C555" t="s">
         <v>233</v>
@@ -15431,10 +15431,10 @@
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B556" t="s">
         <v>1098</v>
-      </c>
-      <c r="B556" t="s">
-        <v>1099</v>
       </c>
       <c r="C556" t="s">
         <v>233</v>
@@ -15451,10 +15451,10 @@
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B557" t="s">
         <v>1297</v>
-      </c>
-      <c r="B557" t="s">
-        <v>1298</v>
       </c>
       <c r="C557" t="s">
         <v>233</v>
@@ -15599,10 +15599,10 @@
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B565" t="s">
         <v>1022</v>
-      </c>
-      <c r="B565" t="s">
-        <v>1023</v>
       </c>
       <c r="C565" t="s">
         <v>233</v>
@@ -15699,10 +15699,10 @@
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B570" t="s">
         <v>1234</v>
-      </c>
-      <c r="B570" t="s">
-        <v>1235</v>
       </c>
       <c r="C570" t="s">
         <v>233</v>
@@ -15819,10 +15819,10 @@
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B576" t="s">
         <v>1171</v>
-      </c>
-      <c r="B576" t="s">
-        <v>1172</v>
       </c>
       <c r="C576" t="s">
         <v>233</v>
@@ -15859,10 +15859,10 @@
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B578" t="s">
         <v>1339</v>
-      </c>
-      <c r="B578" t="s">
-        <v>1340</v>
       </c>
       <c r="C578" t="s">
         <v>233</v>
@@ -15879,10 +15879,10 @@
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B579" t="s">
         <v>1224</v>
-      </c>
-      <c r="B579" t="s">
-        <v>1225</v>
       </c>
       <c r="C579" t="s">
         <v>233</v>
@@ -15919,10 +15919,10 @@
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B581" t="s">
         <v>1272</v>
-      </c>
-      <c r="B581" t="s">
-        <v>1273</v>
       </c>
       <c r="C581" t="s">
         <v>233</v>
@@ -15939,10 +15939,10 @@
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B582" t="s">
         <v>1236</v>
-      </c>
-      <c r="B582" t="s">
-        <v>1237</v>
       </c>
       <c r="C582" t="s">
         <v>233</v>
@@ -15979,10 +15979,10 @@
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B584" t="s">
         <v>1092</v>
-      </c>
-      <c r="B584" t="s">
-        <v>1093</v>
       </c>
       <c r="C584" t="s">
         <v>233</v>
@@ -16019,10 +16019,10 @@
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B586" t="s">
         <v>1137</v>
-      </c>
-      <c r="B586" t="s">
-        <v>1138</v>
       </c>
       <c r="C586" t="s">
         <v>233</v>
@@ -16039,10 +16039,10 @@
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B587" t="s">
         <v>1146</v>
-      </c>
-      <c r="B587" t="s">
-        <v>1147</v>
       </c>
       <c r="C587" t="s">
         <v>233</v>
@@ -16287,10 +16287,10 @@
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B600" t="s">
         <v>1142</v>
-      </c>
-      <c r="B600" t="s">
-        <v>1143</v>
       </c>
       <c r="C600" t="s">
         <v>233</v>
@@ -16324,10 +16324,10 @@
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
+        <v>979</v>
+      </c>
+      <c r="B602" t="s">
         <v>980</v>
-      </c>
-      <c r="B602" t="s">
-        <v>981</v>
       </c>
       <c r="C602" t="s">
         <v>233</v>
@@ -16401,10 +16401,10 @@
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B606" t="s">
         <v>1192</v>
-      </c>
-      <c r="B606" t="s">
-        <v>1193</v>
       </c>
       <c r="C606" t="s">
         <v>233</v>
@@ -16652,10 +16652,10 @@
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B619" t="s">
         <v>1282</v>
-      </c>
-      <c r="B619" t="s">
-        <v>1283</v>
       </c>
       <c r="C619" t="s">
         <v>233</v>
@@ -16735,7 +16735,7 @@
         <v>134</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C623" t="s">
         <v>1</v>
@@ -16829,10 +16829,10 @@
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B628" t="s">
         <v>1255</v>
-      </c>
-      <c r="B628" t="s">
-        <v>1256</v>
       </c>
       <c r="C628" t="s">
         <v>233</v>
@@ -16849,10 +16849,10 @@
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B629" t="s">
         <v>1357</v>
-      </c>
-      <c r="B629" t="s">
-        <v>1358</v>
       </c>
       <c r="C629" t="s">
         <v>233</v>
@@ -16869,10 +16869,10 @@
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B630" t="s">
         <v>1184</v>
-      </c>
-      <c r="B630" t="s">
-        <v>1185</v>
       </c>
       <c r="C630" t="s">
         <v>233</v>
@@ -16949,10 +16949,10 @@
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B634" t="s">
         <v>1266</v>
-      </c>
-      <c r="B634" t="s">
-        <v>1267</v>
       </c>
       <c r="C634" t="s">
         <v>233</v>
@@ -17006,10 +17006,10 @@
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
+        <v>965</v>
+      </c>
+      <c r="B637" t="s">
         <v>966</v>
-      </c>
-      <c r="B637" t="s">
-        <v>967</v>
       </c>
       <c r="C637" t="s">
         <v>233</v>
@@ -17026,10 +17026,10 @@
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B638" t="s">
         <v>1082</v>
-      </c>
-      <c r="B638" t="s">
-        <v>1083</v>
       </c>
       <c r="C638" t="s">
         <v>233</v>
@@ -17066,10 +17066,10 @@
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B640" t="s">
         <v>1276</v>
-      </c>
-      <c r="B640" t="s">
-        <v>1277</v>
       </c>
       <c r="C640" t="s">
         <v>233</v>
@@ -17086,10 +17086,10 @@
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B641" t="s">
         <v>1278</v>
-      </c>
-      <c r="B641" t="s">
-        <v>1279</v>
       </c>
       <c r="C641" t="s">
         <v>233</v>
@@ -17106,10 +17106,10 @@
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B642" t="s">
         <v>1150</v>
-      </c>
-      <c r="B642" t="s">
-        <v>1151</v>
       </c>
       <c r="C642" t="s">
         <v>233</v>
@@ -17126,10 +17126,10 @@
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B643" t="s">
         <v>1156</v>
-      </c>
-      <c r="B643" t="s">
-        <v>1157</v>
       </c>
       <c r="C643" t="s">
         <v>233</v>
@@ -17146,7 +17146,7 @@
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C644" t="s">
         <v>233</v>
@@ -17180,10 +17180,10 @@
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B646" t="s">
         <v>1163</v>
-      </c>
-      <c r="B646" t="s">
-        <v>1164</v>
       </c>
       <c r="C646" t="s">
         <v>233</v>
@@ -17200,10 +17200,10 @@
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B647" t="s">
         <v>1371</v>
-      </c>
-      <c r="B647" t="s">
-        <v>1372</v>
       </c>
       <c r="C647" t="s">
         <v>233</v>
@@ -17220,10 +17220,10 @@
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B648" t="s">
         <v>1373</v>
-      </c>
-      <c r="B648" t="s">
-        <v>1374</v>
       </c>
       <c r="C648" t="s">
         <v>233</v>
@@ -17297,10 +17297,10 @@
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B652" t="s">
         <v>1046</v>
-      </c>
-      <c r="B652" t="s">
-        <v>1047</v>
       </c>
       <c r="C652" t="s">
         <v>233</v>
@@ -17317,10 +17317,10 @@
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B653" t="s">
         <v>1178</v>
-      </c>
-      <c r="B653" t="s">
-        <v>1179</v>
       </c>
       <c r="C653" t="s">
         <v>233</v>
@@ -17491,10 +17491,10 @@
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B662" t="s">
         <v>1100</v>
-      </c>
-      <c r="B662" t="s">
-        <v>1101</v>
       </c>
       <c r="C662" t="s">
         <v>233</v>
@@ -17682,10 +17682,10 @@
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B672" t="s">
         <v>1176</v>
-      </c>
-      <c r="B672" t="s">
-        <v>1177</v>
       </c>
       <c r="C672" t="s">
         <v>233</v>
@@ -17702,10 +17702,10 @@
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B673" t="s">
         <v>1186</v>
-      </c>
-      <c r="B673" t="s">
-        <v>1187</v>
       </c>
       <c r="C673" t="s">
         <v>233</v>
@@ -17862,10 +17862,10 @@
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B681" t="s">
         <v>1011</v>
-      </c>
-      <c r="B681" t="s">
-        <v>1012</v>
       </c>
       <c r="C681" t="s">
         <v>233</v>
@@ -17922,10 +17922,10 @@
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B684" t="s">
         <v>1111</v>
-      </c>
-      <c r="B684" t="s">
-        <v>1112</v>
       </c>
       <c r="C684" t="s">
         <v>233</v>
@@ -17982,7 +17982,7 @@
         <v>57</v>
       </c>
       <c r="B687" s="1" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C687" t="s">
         <v>58</v>
@@ -18039,7 +18039,7 @@
         <v>139</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="C690" t="s">
         <v>1</v>
@@ -18073,10 +18073,10 @@
     </row>
     <row r="692" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B692" t="s">
         <v>1347</v>
-      </c>
-      <c r="B692" t="s">
-        <v>1348</v>
       </c>
       <c r="C692" t="s">
         <v>233</v>
@@ -18096,7 +18096,7 @@
         <v>59</v>
       </c>
       <c r="B693" s="1" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C693" t="s">
         <v>58</v>
@@ -18227,10 +18227,10 @@
     </row>
     <row r="700" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B700" t="s">
         <v>1128</v>
-      </c>
-      <c r="B700" t="s">
-        <v>1129</v>
       </c>
       <c r="C700" t="s">
         <v>233</v>
@@ -18307,10 +18307,10 @@
     </row>
     <row r="704" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B704" t="s">
         <v>1301</v>
-      </c>
-      <c r="B704" t="s">
-        <v>1302</v>
       </c>
       <c r="C704" t="s">
         <v>233</v>
@@ -18347,7 +18347,7 @@
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B706" t="s">
         <v>232</v>
@@ -18367,7 +18367,7 @@
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B707" t="s">
         <v>232</v>
@@ -18400,8 +18400,9 @@
     <hyperlink ref="B52" r:id="rId11" xr:uid="{42256FEE-B4A9-42EE-A425-53B52A85F2F0}"/>
     <hyperlink ref="B687" r:id="rId12" xr:uid="{80AC7A6C-2585-434D-8440-D423D1E44702}"/>
     <hyperlink ref="B143" r:id="rId13" xr:uid="{CDB438B1-006B-4DFB-89E8-D2D1CCBA5052}"/>
+    <hyperlink ref="B219" r:id="rId14" xr:uid="{339843D2-85DC-4628-A722-25E26AA8AF0D}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/jogos.xlsx
+++ b/jogos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\mycollections-cli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EABA46-B5A8-4019-85D7-9E15E55D8EE3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAD3C74-2A5A-477E-ACE6-89DA01C0D516}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{0C35237A-6EB4-4B02-9651-931FED775CEC}"/>
   </bookViews>
@@ -3780,9 +3780,6 @@
     <t>Assetto Corsa Competizione</t>
   </si>
   <si>
-    <t>http://media.steampowered.com/steamcommunity/public/images/apps/805550/962d309a59d3e069c393e8340fcd18a2867025e8.jpg</t>
-  </si>
-  <si>
     <t>Far Cry 5</t>
   </si>
   <si>
@@ -4228,6 +4225,9 @@
   </si>
   <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSzODULzVWSC76Ga5Yi7fDIsuFfQd9Yf9ES4q_CEqAaYXM4H4UqjA</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRabv9IJ2KnKZNzUVXQcLPHHUpgaWek2CyhylEtMIBKbq_Io9Z-vw</t>
   </si>
 </sst>
 </file>
@@ -4601,8 +4601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E073D1A-5126-4785-A652-5C66939BBDE3}">
   <dimension ref="A1:F707"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="B220" sqref="B220"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4636,10 +4636,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B2" t="s">
         <v>1294</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1295</v>
       </c>
       <c r="C2" t="s">
         <v>233</v>
@@ -4756,10 +4756,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B8" t="s">
         <v>1318</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1319</v>
       </c>
       <c r="C8" t="s">
         <v>233</v>
@@ -4776,10 +4776,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B9" t="s">
         <v>1283</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1284</v>
       </c>
       <c r="C9" t="s">
         <v>233</v>
@@ -4833,10 +4833,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B12" t="s">
         <v>1330</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1331</v>
       </c>
       <c r="C12" t="s">
         <v>233</v>
@@ -4930,10 +4930,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B17" t="s">
         <v>1362</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1363</v>
       </c>
       <c r="C17" t="s">
         <v>233</v>
@@ -5124,7 +5124,7 @@
         <v>121</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C27" t="s">
         <v>58</v>
@@ -5177,8 +5177,8 @@
       <c r="A30" t="s">
         <v>1248</v>
       </c>
-      <c r="B30" t="s">
-        <v>1249</v>
+      <c r="B30" s="1" t="s">
+        <v>1398</v>
       </c>
       <c r="C30" t="s">
         <v>233</v>
@@ -5275,7 +5275,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B35" t="s">
         <v>28</v>
@@ -5292,10 +5292,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B36" t="s">
         <v>1352</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1353</v>
       </c>
       <c r="C36" t="s">
         <v>233</v>
@@ -5574,10 +5574,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B51" t="s">
         <v>1314</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1315</v>
       </c>
       <c r="C51" t="s">
         <v>233</v>
@@ -5597,7 +5597,7 @@
         <v>84</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="C52" t="s">
         <v>58</v>
@@ -5888,10 +5888,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B67" t="s">
         <v>1279</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1280</v>
       </c>
       <c r="C67" t="s">
         <v>233</v>
@@ -6182,10 +6182,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B82" t="s">
         <v>1304</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1305</v>
       </c>
       <c r="C82" t="s">
         <v>233</v>
@@ -6439,10 +6439,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B95" t="s">
         <v>1322</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1323</v>
       </c>
       <c r="C95" t="s">
         <v>233</v>
@@ -6476,10 +6476,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B97" t="s">
         <v>1263</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1264</v>
       </c>
       <c r="C97" t="s">
         <v>233</v>
@@ -6576,10 +6576,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B102" t="s">
         <v>1289</v>
-      </c>
-      <c r="B102" t="s">
-        <v>1290</v>
       </c>
       <c r="C102" t="s">
         <v>233</v>
@@ -6659,7 +6659,7 @@
         <v>1245</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C106" t="s">
         <v>233</v>
@@ -7161,10 +7161,10 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B132" t="s">
         <v>1364</v>
-      </c>
-      <c r="B132" t="s">
-        <v>1365</v>
       </c>
       <c r="C132" t="s">
         <v>233</v>
@@ -7372,7 +7372,7 @@
         <v>653</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C143" t="s">
         <v>233</v>
@@ -7469,10 +7469,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B148" t="s">
         <v>1326</v>
-      </c>
-      <c r="B148" t="s">
-        <v>1327</v>
       </c>
       <c r="C148" t="s">
         <v>233</v>
@@ -7589,10 +7589,10 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B154" t="s">
         <v>1374</v>
-      </c>
-      <c r="B154" t="s">
-        <v>1375</v>
       </c>
       <c r="C154" t="s">
         <v>233</v>
@@ -7669,7 +7669,7 @@
         <v>0</v>
       </c>
       <c r="B158" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C158" t="s">
         <v>1</v>
@@ -7763,7 +7763,7 @@
         <v>957</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C163" t="s">
         <v>233</v>
@@ -7837,10 +7837,10 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B167" t="s">
         <v>1334</v>
-      </c>
-      <c r="B167" t="s">
-        <v>1335</v>
       </c>
       <c r="C167" t="s">
         <v>233</v>
@@ -8037,10 +8037,10 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B177" t="s">
         <v>1292</v>
-      </c>
-      <c r="B177" t="s">
-        <v>1293</v>
       </c>
       <c r="C177" t="s">
         <v>233</v>
@@ -8057,10 +8057,10 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B178" t="s">
         <v>1269</v>
-      </c>
-      <c r="B178" t="s">
-        <v>1270</v>
       </c>
       <c r="C178" t="s">
         <v>233</v>
@@ -8197,10 +8197,10 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B185" t="s">
         <v>1287</v>
-      </c>
-      <c r="B185" t="s">
-        <v>1288</v>
       </c>
       <c r="C185" t="s">
         <v>233</v>
@@ -8277,10 +8277,10 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B189" t="s">
         <v>1261</v>
-      </c>
-      <c r="B189" t="s">
-        <v>1262</v>
       </c>
       <c r="C189" t="s">
         <v>233</v>
@@ -8451,10 +8451,10 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C198" t="s">
         <v>233</v>
@@ -8474,7 +8474,7 @@
         <v>87</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C199" t="s">
         <v>58</v>
@@ -8491,7 +8491,7 @@
         <v>88</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C200" t="s">
         <v>58</v>
@@ -8562,10 +8562,10 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B204" t="s">
         <v>1320</v>
-      </c>
-      <c r="B204" t="s">
-        <v>1321</v>
       </c>
       <c r="C204" t="s">
         <v>233</v>
@@ -8582,10 +8582,10 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B205" t="s">
         <v>1298</v>
-      </c>
-      <c r="B205" t="s">
-        <v>1299</v>
       </c>
       <c r="C205" t="s">
         <v>233</v>
@@ -8807,10 +8807,10 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C217" t="s">
         <v>233</v>
@@ -8827,10 +8827,10 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B218" t="s">
         <v>1252</v>
-      </c>
-      <c r="B218" t="s">
-        <v>1253</v>
       </c>
       <c r="C218" t="s">
         <v>233</v>
@@ -8850,7 +8850,7 @@
         <v>964</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="C219" t="s">
         <v>233</v>
@@ -9018,10 +9018,10 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B228" t="s">
         <v>1360</v>
-      </c>
-      <c r="B228" t="s">
-        <v>1361</v>
       </c>
       <c r="C228" t="s">
         <v>233</v>
@@ -9098,10 +9098,10 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B232" t="s">
         <v>1310</v>
-      </c>
-      <c r="B232" t="s">
-        <v>1311</v>
       </c>
       <c r="C232" t="s">
         <v>233</v>
@@ -9275,7 +9275,7 @@
         <v>673</v>
       </c>
       <c r="B241" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C241" t="s">
         <v>233</v>
@@ -9426,10 +9426,10 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B249" t="s">
         <v>1257</v>
-      </c>
-      <c r="B249" t="s">
-        <v>1258</v>
       </c>
       <c r="C249" t="s">
         <v>233</v>
@@ -9446,10 +9446,10 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B250" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C250" t="s">
         <v>233</v>
@@ -9983,10 +9983,10 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B277" t="s">
         <v>1368</v>
-      </c>
-      <c r="B277" t="s">
-        <v>1369</v>
       </c>
       <c r="C277" t="s">
         <v>233</v>
@@ -10383,10 +10383,10 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B297" t="s">
         <v>1316</v>
-      </c>
-      <c r="B297" t="s">
-        <v>1317</v>
       </c>
       <c r="C297" t="s">
         <v>233</v>
@@ -10423,10 +10423,10 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B299" t="s">
         <v>1342</v>
-      </c>
-      <c r="B299" t="s">
-        <v>1343</v>
       </c>
       <c r="C299" t="s">
         <v>233</v>
@@ -10460,10 +10460,10 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B301" t="s">
         <v>1358</v>
-      </c>
-      <c r="B301" t="s">
-        <v>1359</v>
       </c>
       <c r="C301" t="s">
         <v>233</v>
@@ -10697,10 +10697,10 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B313" t="s">
         <v>1348</v>
-      </c>
-      <c r="B313" t="s">
-        <v>1349</v>
       </c>
       <c r="C313" t="s">
         <v>233</v>
@@ -11088,10 +11088,10 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B333" t="s">
         <v>1312</v>
-      </c>
-      <c r="B333" t="s">
-        <v>1313</v>
       </c>
       <c r="C333" t="s">
         <v>233</v>
@@ -11325,10 +11325,10 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B345" t="s">
         <v>1285</v>
-      </c>
-      <c r="B345" t="s">
-        <v>1286</v>
       </c>
       <c r="C345" t="s">
         <v>233</v>
@@ -11792,10 +11792,10 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B370" t="s">
         <v>1332</v>
-      </c>
-      <c r="B370" t="s">
-        <v>1333</v>
       </c>
       <c r="C370" t="s">
         <v>233</v>
@@ -11852,10 +11852,10 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B373" t="s">
         <v>1306</v>
-      </c>
-      <c r="B373" t="s">
-        <v>1307</v>
       </c>
       <c r="C373" t="s">
         <v>233</v>
@@ -12457,10 +12457,10 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B404" t="s">
         <v>1350</v>
-      </c>
-      <c r="B404" t="s">
-        <v>1351</v>
       </c>
       <c r="C404" t="s">
         <v>233</v>
@@ -12563,7 +12563,7 @@
         <v>228</v>
       </c>
       <c r="D409" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="E409" t="s">
         <v>229</v>
@@ -12591,10 +12591,10 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B411" t="s">
         <v>1273</v>
-      </c>
-      <c r="B411" t="s">
-        <v>1274</v>
       </c>
       <c r="C411" t="s">
         <v>233</v>
@@ -12611,10 +12611,10 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B412" t="s">
         <v>1366</v>
-      </c>
-      <c r="B412" t="s">
-        <v>1367</v>
       </c>
       <c r="C412" t="s">
         <v>233</v>
@@ -12651,10 +12651,10 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B414" t="s">
         <v>1354</v>
-      </c>
-      <c r="B414" t="s">
-        <v>1355</v>
       </c>
       <c r="C414" t="s">
         <v>233</v>
@@ -12885,10 +12885,10 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B426" t="s">
         <v>1336</v>
-      </c>
-      <c r="B426" t="s">
-        <v>1337</v>
       </c>
       <c r="C426" t="s">
         <v>233</v>
@@ -13444,10 +13444,10 @@
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B455" t="s">
         <v>1340</v>
-      </c>
-      <c r="B455" t="s">
-        <v>1341</v>
       </c>
       <c r="C455" t="s">
         <v>233</v>
@@ -13544,10 +13544,10 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B460" t="s">
         <v>1324</v>
-      </c>
-      <c r="B460" t="s">
-        <v>1325</v>
       </c>
       <c r="C460" t="s">
         <v>233</v>
@@ -13798,7 +13798,7 @@
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B473" t="s">
         <v>308</v>
@@ -13818,7 +13818,7 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B474" t="s">
         <v>325</v>
@@ -13838,7 +13838,7 @@
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B475" t="s">
         <v>1172</v>
@@ -13858,7 +13858,7 @@
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B476" t="s">
         <v>384</v>
@@ -13878,7 +13878,7 @@
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B477" t="s">
         <v>303</v>
@@ -13898,7 +13898,7 @@
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B478" t="s">
         <v>1101</v>
@@ -14198,10 +14198,10 @@
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B493" t="s">
         <v>1308</v>
-      </c>
-      <c r="B493" t="s">
-        <v>1309</v>
       </c>
       <c r="C493" t="s">
         <v>233</v>
@@ -14355,10 +14355,10 @@
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B501" t="s">
         <v>1328</v>
-      </c>
-      <c r="B501" t="s">
-        <v>1329</v>
       </c>
       <c r="C501" t="s">
         <v>233</v>
@@ -14606,10 +14606,10 @@
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B514" t="s">
         <v>1302</v>
-      </c>
-      <c r="B514" t="s">
-        <v>1303</v>
       </c>
       <c r="C514" t="s">
         <v>233</v>
@@ -14923,7 +14923,7 @@
         <v>971</v>
       </c>
       <c r="B530" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C530" t="s">
         <v>233</v>
@@ -14983,7 +14983,7 @@
         <v>969</v>
       </c>
       <c r="B533" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C533" t="s">
         <v>233</v>
@@ -15134,10 +15134,10 @@
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B541" t="s">
         <v>1344</v>
-      </c>
-      <c r="B541" t="s">
-        <v>1345</v>
       </c>
       <c r="C541" t="s">
         <v>233</v>
@@ -15351,10 +15351,10 @@
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B552" t="s">
         <v>1259</v>
-      </c>
-      <c r="B552" t="s">
-        <v>1260</v>
       </c>
       <c r="C552" t="s">
         <v>233</v>
@@ -15451,10 +15451,10 @@
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B557" t="s">
         <v>1296</v>
-      </c>
-      <c r="B557" t="s">
-        <v>1297</v>
       </c>
       <c r="C557" t="s">
         <v>233</v>
@@ -15859,10 +15859,10 @@
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B578" t="s">
         <v>1338</v>
-      </c>
-      <c r="B578" t="s">
-        <v>1339</v>
       </c>
       <c r="C578" t="s">
         <v>233</v>
@@ -15919,10 +15919,10 @@
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B581" t="s">
         <v>1271</v>
-      </c>
-      <c r="B581" t="s">
-        <v>1272</v>
       </c>
       <c r="C581" t="s">
         <v>233</v>
@@ -16652,10 +16652,10 @@
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B619" t="s">
         <v>1281</v>
-      </c>
-      <c r="B619" t="s">
-        <v>1282</v>
       </c>
       <c r="C619" t="s">
         <v>233</v>
@@ -16735,7 +16735,7 @@
         <v>134</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C623" t="s">
         <v>1</v>
@@ -16829,10 +16829,10 @@
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B628" t="s">
         <v>1254</v>
-      </c>
-      <c r="B628" t="s">
-        <v>1255</v>
       </c>
       <c r="C628" t="s">
         <v>233</v>
@@ -16849,10 +16849,10 @@
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B629" t="s">
         <v>1356</v>
-      </c>
-      <c r="B629" t="s">
-        <v>1357</v>
       </c>
       <c r="C629" t="s">
         <v>233</v>
@@ -16949,10 +16949,10 @@
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B634" t="s">
         <v>1265</v>
-      </c>
-      <c r="B634" t="s">
-        <v>1266</v>
       </c>
       <c r="C634" t="s">
         <v>233</v>
@@ -17066,10 +17066,10 @@
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B640" t="s">
         <v>1275</v>
-      </c>
-      <c r="B640" t="s">
-        <v>1276</v>
       </c>
       <c r="C640" t="s">
         <v>233</v>
@@ -17086,10 +17086,10 @@
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B641" t="s">
         <v>1277</v>
-      </c>
-      <c r="B641" t="s">
-        <v>1278</v>
       </c>
       <c r="C641" t="s">
         <v>233</v>
@@ -17200,10 +17200,10 @@
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B647" t="s">
         <v>1370</v>
-      </c>
-      <c r="B647" t="s">
-        <v>1371</v>
       </c>
       <c r="C647" t="s">
         <v>233</v>
@@ -17220,10 +17220,10 @@
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B648" t="s">
         <v>1372</v>
-      </c>
-      <c r="B648" t="s">
-        <v>1373</v>
       </c>
       <c r="C648" t="s">
         <v>233</v>
@@ -17982,7 +17982,7 @@
         <v>57</v>
       </c>
       <c r="B687" s="1" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="C687" t="s">
         <v>58</v>
@@ -18039,7 +18039,7 @@
         <v>139</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C690" t="s">
         <v>1</v>
@@ -18073,10 +18073,10 @@
     </row>
     <row r="692" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B692" t="s">
         <v>1346</v>
-      </c>
-      <c r="B692" t="s">
-        <v>1347</v>
       </c>
       <c r="C692" t="s">
         <v>233</v>
@@ -18096,7 +18096,7 @@
         <v>59</v>
       </c>
       <c r="B693" s="1" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C693" t="s">
         <v>58</v>
@@ -18307,10 +18307,10 @@
     </row>
     <row r="704" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B704" t="s">
         <v>1300</v>
-      </c>
-      <c r="B704" t="s">
-        <v>1301</v>
       </c>
       <c r="C704" t="s">
         <v>233</v>
@@ -18347,7 +18347,7 @@
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B706" t="s">
         <v>232</v>
@@ -18367,7 +18367,7 @@
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B707" t="s">
         <v>232</v>
@@ -18401,8 +18401,9 @@
     <hyperlink ref="B687" r:id="rId12" xr:uid="{80AC7A6C-2585-434D-8440-D423D1E44702}"/>
     <hyperlink ref="B143" r:id="rId13" xr:uid="{CDB438B1-006B-4DFB-89E8-D2D1CCBA5052}"/>
     <hyperlink ref="B219" r:id="rId14" xr:uid="{339843D2-85DC-4628-A722-25E26AA8AF0D}"/>
+    <hyperlink ref="B30" r:id="rId15" xr:uid="{215A46A2-82E0-4B6D-B504-0E5A5A70C33F}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/jogos.xlsx
+++ b/jogos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\mycollections-cli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAD3C74-2A5A-477E-ACE6-89DA01C0D516}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A059DAD3-37DE-4CC7-A91F-19ED77C902FB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{0C35237A-6EB4-4B02-9651-931FED775CEC}"/>
   </bookViews>
@@ -1065,9 +1065,6 @@
     <t>PRO EVOLUTION SOCCER 2018</t>
   </si>
   <si>
-    <t>http://media.steampowered.com/steamcommunity/public/images/apps/592580/e3912b31d7e822fe34db4138117672a8ae67a345.jpg</t>
-  </si>
-  <si>
     <t>Oddworld: Abe's Oddysee</t>
   </si>
   <si>
@@ -3774,9 +3771,6 @@
     <t>PRO EVOLUTION SOCCER 2019</t>
   </si>
   <si>
-    <t>http://media.steampowered.com/steamcommunity/public/images/apps/770240/27dfb1d8c6683c96a694de63f6cc13a0fbae9327.jpg</t>
-  </si>
-  <si>
     <t>Assetto Corsa Competizione</t>
   </si>
   <si>
@@ -4228,6 +4222,12 @@
   </si>
   <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRabv9IJ2KnKZNzUVXQcLPHHUpgaWek2CyhylEtMIBKbq_Io9Z-vw</t>
+  </si>
+  <si>
+    <t>https://www.temfutebol.com.br/wp-content/uploads/2018/03/oi-2.jpg</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQoCbHaSnD7Xanw7k9aL5Y-FBr8GNouCHm8TmC-G5zX-bkG1H6F</t>
   </si>
 </sst>
 </file>
@@ -4601,8 +4601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E073D1A-5126-4785-A652-5C66939BBDE3}">
   <dimension ref="A1:F707"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A433" workbookViewId="0">
+      <selection activeCell="B455" sqref="B455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4616,10 +4616,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B1" t="s">
         <v>1095</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1096</v>
       </c>
       <c r="C1" t="s">
         <v>233</v>
@@ -4636,10 +4636,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="B2" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="C2" t="s">
         <v>233</v>
@@ -4656,10 +4656,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B3" t="s">
         <v>491</v>
-      </c>
-      <c r="B3" t="s">
-        <v>492</v>
       </c>
       <c r="C3" t="s">
         <v>233</v>
@@ -4676,10 +4676,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>881</v>
+      </c>
+      <c r="B4" t="s">
         <v>882</v>
-      </c>
-      <c r="B4" t="s">
-        <v>883</v>
       </c>
       <c r="C4" t="s">
         <v>233</v>
@@ -4696,10 +4696,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>406</v>
+      </c>
+      <c r="B5" t="s">
         <v>407</v>
-      </c>
-      <c r="B5" t="s">
-        <v>408</v>
       </c>
       <c r="C5" t="s">
         <v>233</v>
@@ -4716,10 +4716,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B6" t="s">
         <v>409</v>
-      </c>
-      <c r="B6" t="s">
-        <v>410</v>
       </c>
       <c r="C6" t="s">
         <v>233</v>
@@ -4756,10 +4756,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="B8" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="C8" t="s">
         <v>233</v>
@@ -4776,10 +4776,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="B9" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="C9" t="s">
         <v>233</v>
@@ -4796,10 +4796,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>982</v>
+      </c>
+      <c r="B10" t="s">
         <v>983</v>
-      </c>
-      <c r="B10" t="s">
-        <v>984</v>
       </c>
       <c r="C10" t="s">
         <v>233</v>
@@ -4833,10 +4833,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="B12" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="C12" t="s">
         <v>233</v>
@@ -4870,10 +4870,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B14" t="s">
         <v>1168</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1169</v>
       </c>
       <c r="C14" t="s">
         <v>233</v>
@@ -4910,10 +4910,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B16" t="s">
         <v>1134</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1135</v>
       </c>
       <c r="C16" t="s">
         <v>233</v>
@@ -4930,10 +4930,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="B17" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="C17" t="s">
         <v>233</v>
@@ -4970,7 +4970,7 @@
         <v>140</v>
       </c>
       <c r="B19" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C19" t="s">
         <v>233</v>
@@ -4987,10 +4987,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B20" t="s">
         <v>1051</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1052</v>
       </c>
       <c r="C20" t="s">
         <v>233</v>
@@ -5007,10 +5007,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>594</v>
+      </c>
+      <c r="B21" t="s">
         <v>595</v>
-      </c>
-      <c r="B21" t="s">
-        <v>596</v>
       </c>
       <c r="C21" t="s">
         <v>233</v>
@@ -5027,10 +5027,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>679</v>
+      </c>
+      <c r="B22" t="s">
         <v>680</v>
-      </c>
-      <c r="B22" t="s">
-        <v>681</v>
       </c>
       <c r="C22" t="s">
         <v>233</v>
@@ -5047,10 +5047,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>720</v>
+      </c>
+      <c r="B23" t="s">
         <v>721</v>
-      </c>
-      <c r="B23" t="s">
-        <v>722</v>
       </c>
       <c r="C23" t="s">
         <v>233</v>
@@ -5084,10 +5084,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>710</v>
+      </c>
+      <c r="B25" t="s">
         <v>711</v>
-      </c>
-      <c r="B25" t="s">
-        <v>712</v>
       </c>
       <c r="C25" t="s">
         <v>233</v>
@@ -5124,7 +5124,7 @@
         <v>121</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="C27" t="s">
         <v>58</v>
@@ -5175,10 +5175,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="C30" t="s">
         <v>233</v>
@@ -5195,10 +5195,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>586</v>
+      </c>
+      <c r="B31" t="s">
         <v>587</v>
-      </c>
-      <c r="B31" t="s">
-        <v>588</v>
       </c>
       <c r="C31" t="s">
         <v>233</v>
@@ -5215,10 +5215,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>961</v>
+      </c>
+      <c r="B32" t="s">
         <v>962</v>
-      </c>
-      <c r="B32" t="s">
-        <v>963</v>
       </c>
       <c r="C32" t="s">
         <v>233</v>
@@ -5235,10 +5235,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>737</v>
+      </c>
+      <c r="B33" t="s">
         <v>738</v>
-      </c>
-      <c r="B33" t="s">
-        <v>739</v>
       </c>
       <c r="C33" t="s">
         <v>233</v>
@@ -5255,10 +5255,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>869</v>
+      </c>
+      <c r="B34" t="s">
         <v>870</v>
-      </c>
-      <c r="B34" t="s">
-        <v>871</v>
       </c>
       <c r="C34" t="s">
         <v>233</v>
@@ -5275,7 +5275,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="B35" t="s">
         <v>28</v>
@@ -5292,10 +5292,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="B36" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="C36" t="s">
         <v>233</v>
@@ -5312,10 +5312,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>829</v>
+      </c>
+      <c r="B37" t="s">
         <v>830</v>
-      </c>
-      <c r="B37" t="s">
-        <v>831</v>
       </c>
       <c r="C37" t="s">
         <v>233</v>
@@ -5355,7 +5355,7 @@
         <v>203</v>
       </c>
       <c r="B39" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C39" t="s">
         <v>164</v>
@@ -5372,7 +5372,7 @@
         <v>203</v>
       </c>
       <c r="B40" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C40" t="s">
         <v>233</v>
@@ -5389,10 +5389,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B41" t="s">
         <v>1187</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1188</v>
       </c>
       <c r="C41" t="s">
         <v>233</v>
@@ -5429,10 +5429,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>420</v>
+      </c>
+      <c r="B43" t="s">
         <v>421</v>
-      </c>
-      <c r="B43" t="s">
-        <v>422</v>
       </c>
       <c r="C43" t="s">
         <v>233</v>
@@ -5449,10 +5449,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>466</v>
+      </c>
+      <c r="B44" t="s">
         <v>467</v>
-      </c>
-      <c r="B44" t="s">
-        <v>468</v>
       </c>
       <c r="C44" t="s">
         <v>233</v>
@@ -5574,10 +5574,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="B51" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="C51" t="s">
         <v>233</v>
@@ -5597,7 +5597,7 @@
         <v>84</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="C52" t="s">
         <v>58</v>
@@ -5611,10 +5611,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>729</v>
+      </c>
+      <c r="B53" t="s">
         <v>730</v>
-      </c>
-      <c r="B53" t="s">
-        <v>731</v>
       </c>
       <c r="C53" t="s">
         <v>233</v>
@@ -5631,10 +5631,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>803</v>
+      </c>
+      <c r="B54" t="s">
         <v>804</v>
-      </c>
-      <c r="B54" t="s">
-        <v>805</v>
       </c>
       <c r="C54" t="s">
         <v>233</v>
@@ -5651,10 +5651,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>801</v>
+      </c>
+      <c r="B55" t="s">
         <v>802</v>
-      </c>
-      <c r="B55" t="s">
-        <v>803</v>
       </c>
       <c r="C55" t="s">
         <v>233</v>
@@ -5671,10 +5671,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>984</v>
+      </c>
+      <c r="B56" t="s">
         <v>985</v>
-      </c>
-      <c r="B56" t="s">
-        <v>986</v>
       </c>
       <c r="C56" t="s">
         <v>233</v>
@@ -5731,10 +5731,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B59" t="s">
         <v>1143</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1144</v>
       </c>
       <c r="C59" t="s">
         <v>233</v>
@@ -5751,10 +5751,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>986</v>
+      </c>
+      <c r="B60" t="s">
         <v>987</v>
-      </c>
-      <c r="B60" t="s">
-        <v>988</v>
       </c>
       <c r="C60" t="s">
         <v>233</v>
@@ -5771,10 +5771,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>602</v>
+      </c>
+      <c r="B61" t="s">
         <v>603</v>
-      </c>
-      <c r="B61" t="s">
-        <v>604</v>
       </c>
       <c r="C61" t="s">
         <v>233</v>
@@ -5791,10 +5791,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>718</v>
+      </c>
+      <c r="B62" t="s">
         <v>719</v>
-      </c>
-      <c r="B62" t="s">
-        <v>720</v>
       </c>
       <c r="C62" t="s">
         <v>233</v>
@@ -5811,10 +5811,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B63" t="s">
         <v>1039</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1040</v>
       </c>
       <c r="C63" t="s">
         <v>233</v>
@@ -5831,10 +5831,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B64" t="s">
         <v>1049</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1050</v>
       </c>
       <c r="C64" t="s">
         <v>233</v>
@@ -5868,10 +5868,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B66" t="s">
         <v>1067</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1068</v>
       </c>
       <c r="C66" t="s">
         <v>233</v>
@@ -5888,10 +5888,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="B67" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="C67" t="s">
         <v>233</v>
@@ -5908,10 +5908,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>371</v>
+      </c>
+      <c r="B68" t="s">
         <v>372</v>
-      </c>
-      <c r="B68" t="s">
-        <v>373</v>
       </c>
       <c r="C68" t="s">
         <v>233</v>
@@ -5928,10 +5928,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>440</v>
+      </c>
+      <c r="B69" t="s">
         <v>441</v>
-      </c>
-      <c r="B69" t="s">
-        <v>442</v>
       </c>
       <c r="C69" t="s">
         <v>233</v>
@@ -5948,10 +5948,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>365</v>
+      </c>
+      <c r="B70" t="s">
         <v>366</v>
-      </c>
-      <c r="B70" t="s">
-        <v>367</v>
       </c>
       <c r="C70" t="s">
         <v>233</v>
@@ -5968,10 +5968,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B71" t="s">
         <v>1041</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1042</v>
       </c>
       <c r="C71" t="s">
         <v>233</v>
@@ -5988,10 +5988,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>386</v>
+      </c>
+      <c r="B72" t="s">
         <v>387</v>
-      </c>
-      <c r="B72" t="s">
-        <v>388</v>
       </c>
       <c r="C72" t="s">
         <v>233</v>
@@ -6008,10 +6008,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B73" t="s">
         <v>1019</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1020</v>
       </c>
       <c r="C73" t="s">
         <v>233</v>
@@ -6028,10 +6028,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>500</v>
+      </c>
+      <c r="B74" t="s">
         <v>501</v>
-      </c>
-      <c r="B74" t="s">
-        <v>502</v>
       </c>
       <c r="C74" t="s">
         <v>233</v>
@@ -6065,10 +6065,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>518</v>
+      </c>
+      <c r="B76" t="s">
         <v>519</v>
-      </c>
-      <c r="B76" t="s">
-        <v>520</v>
       </c>
       <c r="C76" t="s">
         <v>233</v>
@@ -6085,10 +6085,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>464</v>
+      </c>
+      <c r="B77" t="s">
         <v>465</v>
-      </c>
-      <c r="B77" t="s">
-        <v>466</v>
       </c>
       <c r="C77" t="s">
         <v>233</v>
@@ -6122,10 +6122,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>526</v>
+      </c>
+      <c r="B79" t="s">
         <v>527</v>
-      </c>
-      <c r="B79" t="s">
-        <v>528</v>
       </c>
       <c r="C79" t="s">
         <v>233</v>
@@ -6142,10 +6142,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B80" t="s">
         <v>1033</v>
-      </c>
-      <c r="B80" t="s">
-        <v>1034</v>
       </c>
       <c r="C80" t="s">
         <v>233</v>
@@ -6162,10 +6162,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B81" t="s">
         <v>1087</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1088</v>
       </c>
       <c r="C81" t="s">
         <v>233</v>
@@ -6182,10 +6182,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="B82" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="C82" t="s">
         <v>233</v>
@@ -6219,10 +6219,10 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>369</v>
+      </c>
+      <c r="B84" t="s">
         <v>370</v>
-      </c>
-      <c r="B84" t="s">
-        <v>371</v>
       </c>
       <c r="C84" t="s">
         <v>233</v>
@@ -6259,10 +6259,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B86" t="s">
         <v>1027</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1028</v>
       </c>
       <c r="C86" t="s">
         <v>233</v>
@@ -6279,10 +6279,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B87" t="s">
         <v>1158</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1159</v>
       </c>
       <c r="C87" t="s">
         <v>233</v>
@@ -6299,10 +6299,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B88" t="s">
         <v>1089</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1090</v>
       </c>
       <c r="C88" t="s">
         <v>233</v>
@@ -6319,10 +6319,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>765</v>
+      </c>
+      <c r="B89" t="s">
         <v>766</v>
-      </c>
-      <c r="B89" t="s">
-        <v>767</v>
       </c>
       <c r="C89" t="s">
         <v>233</v>
@@ -6339,10 +6339,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>995</v>
+      </c>
+      <c r="B90" t="s">
         <v>996</v>
-      </c>
-      <c r="B90" t="s">
-        <v>997</v>
       </c>
       <c r="C90" t="s">
         <v>233</v>
@@ -6359,10 +6359,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>394</v>
+      </c>
+      <c r="B91" t="s">
         <v>395</v>
-      </c>
-      <c r="B91" t="s">
-        <v>396</v>
       </c>
       <c r="C91" t="s">
         <v>233</v>
@@ -6379,10 +6379,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>608</v>
+      </c>
+      <c r="B92" t="s">
         <v>609</v>
-      </c>
-      <c r="B92" t="s">
-        <v>610</v>
       </c>
       <c r="C92" t="s">
         <v>233</v>
@@ -6419,10 +6419,10 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>448</v>
+      </c>
+      <c r="B94" t="s">
         <v>449</v>
-      </c>
-      <c r="B94" t="s">
-        <v>450</v>
       </c>
       <c r="C94" t="s">
         <v>233</v>
@@ -6439,10 +6439,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="B95" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="C95" t="s">
         <v>233</v>
@@ -6476,10 +6476,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="B97" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="C97" t="s">
         <v>233</v>
@@ -6496,10 +6496,10 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>897</v>
+      </c>
+      <c r="B98" t="s">
         <v>898</v>
-      </c>
-      <c r="B98" t="s">
-        <v>899</v>
       </c>
       <c r="C98" t="s">
         <v>233</v>
@@ -6516,10 +6516,10 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>747</v>
+      </c>
+      <c r="B99" t="s">
         <v>748</v>
-      </c>
-      <c r="B99" t="s">
-        <v>749</v>
       </c>
       <c r="C99" t="s">
         <v>233</v>
@@ -6536,10 +6536,10 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B100" t="s">
         <v>1139</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1140</v>
       </c>
       <c r="C100" t="s">
         <v>233</v>
@@ -6556,10 +6556,10 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B101" t="s">
         <v>1077</v>
-      </c>
-      <c r="B101" t="s">
-        <v>1078</v>
       </c>
       <c r="C101" t="s">
         <v>233</v>
@@ -6576,10 +6576,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="B102" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C102" t="s">
         <v>233</v>
@@ -6596,10 +6596,10 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>741</v>
+      </c>
+      <c r="B103" t="s">
         <v>742</v>
-      </c>
-      <c r="B103" t="s">
-        <v>743</v>
       </c>
       <c r="C103" t="s">
         <v>233</v>
@@ -6616,10 +6616,10 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B104" t="s">
         <v>1069</v>
-      </c>
-      <c r="B104" t="s">
-        <v>1070</v>
       </c>
       <c r="C104" t="s">
         <v>233</v>
@@ -6636,10 +6636,10 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>567</v>
+      </c>
+      <c r="B105" t="s">
         <v>568</v>
-      </c>
-      <c r="B105" t="s">
-        <v>569</v>
       </c>
       <c r="C105" t="s">
         <v>233</v>
@@ -6656,10 +6656,10 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="C106" t="s">
         <v>233</v>
@@ -6676,10 +6676,10 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>944</v>
+      </c>
+      <c r="B107" t="s">
         <v>945</v>
-      </c>
-      <c r="B107" t="s">
-        <v>946</v>
       </c>
       <c r="C107" t="s">
         <v>233</v>
@@ -6736,10 +6736,10 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>837</v>
+      </c>
+      <c r="B110" t="s">
         <v>838</v>
-      </c>
-      <c r="B110" t="s">
-        <v>839</v>
       </c>
       <c r="C110" t="s">
         <v>233</v>
@@ -6756,10 +6756,10 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>966</v>
+      </c>
+      <c r="B111" t="s">
         <v>967</v>
-      </c>
-      <c r="B111" t="s">
-        <v>968</v>
       </c>
       <c r="C111" t="s">
         <v>233</v>
@@ -6776,10 +6776,10 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>529</v>
+      </c>
+      <c r="B112" t="s">
         <v>530</v>
-      </c>
-      <c r="B112" t="s">
-        <v>531</v>
       </c>
       <c r="C112" t="s">
         <v>233</v>
@@ -6796,10 +6796,10 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B113" t="s">
         <v>1006</v>
-      </c>
-      <c r="B113" t="s">
-        <v>1007</v>
       </c>
       <c r="C113" t="s">
         <v>233</v>
@@ -6816,10 +6816,10 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>954</v>
+      </c>
+      <c r="B114" t="s">
         <v>955</v>
-      </c>
-      <c r="B114" t="s">
-        <v>956</v>
       </c>
       <c r="C114" t="s">
         <v>233</v>
@@ -6890,7 +6890,7 @@
         <v>111</v>
       </c>
       <c r="B118" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C118" t="s">
         <v>233</v>
@@ -6941,10 +6941,10 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>771</v>
+      </c>
+      <c r="B121" t="s">
         <v>772</v>
-      </c>
-      <c r="B121" t="s">
-        <v>773</v>
       </c>
       <c r="C121" t="s">
         <v>233</v>
@@ -6981,10 +6981,10 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B123" t="s">
         <v>1221</v>
-      </c>
-      <c r="B123" t="s">
-        <v>1222</v>
       </c>
       <c r="C123" t="s">
         <v>233</v>
@@ -7001,10 +7001,10 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>789</v>
+      </c>
+      <c r="B124" t="s">
         <v>790</v>
-      </c>
-      <c r="B124" t="s">
-        <v>791</v>
       </c>
       <c r="C124" t="s">
         <v>233</v>
@@ -7021,10 +7021,10 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>418</v>
+      </c>
+      <c r="B125" t="s">
         <v>419</v>
-      </c>
-      <c r="B125" t="s">
-        <v>420</v>
       </c>
       <c r="C125" t="s">
         <v>233</v>
@@ -7041,10 +7041,10 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>743</v>
+      </c>
+      <c r="B126" t="s">
         <v>744</v>
-      </c>
-      <c r="B126" t="s">
-        <v>745</v>
       </c>
       <c r="C126" t="s">
         <v>233</v>
@@ -7061,10 +7061,10 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>833</v>
+      </c>
+      <c r="B127" t="s">
         <v>834</v>
-      </c>
-      <c r="B127" t="s">
-        <v>835</v>
       </c>
       <c r="C127" t="s">
         <v>233</v>
@@ -7081,10 +7081,10 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>749</v>
+      </c>
+      <c r="B128" t="s">
         <v>750</v>
-      </c>
-      <c r="B128" t="s">
-        <v>751</v>
       </c>
       <c r="C128" t="s">
         <v>233</v>
@@ -7101,10 +7101,10 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>653</v>
+      </c>
+      <c r="B129" t="s">
         <v>654</v>
-      </c>
-      <c r="B129" t="s">
-        <v>655</v>
       </c>
       <c r="C129" t="s">
         <v>233</v>
@@ -7121,10 +7121,10 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B130" t="s">
         <v>1012</v>
-      </c>
-      <c r="B130" t="s">
-        <v>1013</v>
       </c>
       <c r="C130" t="s">
         <v>233</v>
@@ -7141,10 +7141,10 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>988</v>
+      </c>
+      <c r="B131" t="s">
         <v>989</v>
-      </c>
-      <c r="B131" t="s">
-        <v>990</v>
       </c>
       <c r="C131" t="s">
         <v>233</v>
@@ -7161,10 +7161,10 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="B132" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C132" t="s">
         <v>233</v>
@@ -7201,7 +7201,7 @@
         <v>115</v>
       </c>
       <c r="B134" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C134" t="s">
         <v>233</v>
@@ -7252,10 +7252,10 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>588</v>
+      </c>
+      <c r="B137" t="s">
         <v>589</v>
-      </c>
-      <c r="B137" t="s">
-        <v>590</v>
       </c>
       <c r="C137" t="s">
         <v>233</v>
@@ -7272,10 +7272,10 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B138" t="s">
         <v>1002</v>
-      </c>
-      <c r="B138" t="s">
-        <v>1003</v>
       </c>
       <c r="C138" t="s">
         <v>233</v>
@@ -7309,10 +7309,10 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>427</v>
+      </c>
+      <c r="B140" t="s">
         <v>428</v>
-      </c>
-      <c r="B140" t="s">
-        <v>429</v>
       </c>
       <c r="C140" t="s">
         <v>233</v>
@@ -7329,10 +7329,10 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>891</v>
+      </c>
+      <c r="B141" t="s">
         <v>892</v>
-      </c>
-      <c r="B141" t="s">
-        <v>893</v>
       </c>
       <c r="C141" t="s">
         <v>233</v>
@@ -7349,10 +7349,10 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B142" t="s">
         <v>1229</v>
-      </c>
-      <c r="B142" t="s">
-        <v>1230</v>
       </c>
       <c r="C142" t="s">
         <v>233</v>
@@ -7369,10 +7369,10 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="C143" t="s">
         <v>233</v>
@@ -7389,10 +7389,10 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>539</v>
+      </c>
+      <c r="B144" t="s">
         <v>540</v>
-      </c>
-      <c r="B144" t="s">
-        <v>541</v>
       </c>
       <c r="C144" t="s">
         <v>233</v>
@@ -7409,10 +7409,10 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B145" t="s">
         <v>1053</v>
-      </c>
-      <c r="B145" t="s">
-        <v>1054</v>
       </c>
       <c r="C145" t="s">
         <v>233</v>
@@ -7429,10 +7429,10 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>821</v>
+      </c>
+      <c r="B146" t="s">
         <v>822</v>
-      </c>
-      <c r="B146" t="s">
-        <v>823</v>
       </c>
       <c r="C146" t="s">
         <v>233</v>
@@ -7449,10 +7449,10 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>823</v>
+      </c>
+      <c r="B147" t="s">
         <v>824</v>
-      </c>
-      <c r="B147" t="s">
-        <v>825</v>
       </c>
       <c r="C147" t="s">
         <v>233</v>
@@ -7469,10 +7469,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="B148" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="C148" t="s">
         <v>233</v>
@@ -7489,10 +7489,10 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>733</v>
+      </c>
+      <c r="B149" t="s">
         <v>734</v>
-      </c>
-      <c r="B149" t="s">
-        <v>735</v>
       </c>
       <c r="C149" t="s">
         <v>233</v>
@@ -7509,10 +7509,10 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>990</v>
+      </c>
+      <c r="B150" t="s">
         <v>991</v>
-      </c>
-      <c r="B150" t="s">
-        <v>992</v>
       </c>
       <c r="C150" t="s">
         <v>233</v>
@@ -7529,10 +7529,10 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>861</v>
+      </c>
+      <c r="B151" t="s">
         <v>862</v>
-      </c>
-      <c r="B151" t="s">
-        <v>863</v>
       </c>
       <c r="C151" t="s">
         <v>233</v>
@@ -7549,10 +7549,10 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B152" t="s">
         <v>1102</v>
-      </c>
-      <c r="B152" t="s">
-        <v>1103</v>
       </c>
       <c r="C152" t="s">
         <v>233</v>
@@ -7569,10 +7569,10 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>751</v>
+      </c>
+      <c r="B153" t="s">
         <v>752</v>
-      </c>
-      <c r="B153" t="s">
-        <v>753</v>
       </c>
       <c r="C153" t="s">
         <v>233</v>
@@ -7589,10 +7589,10 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="B154" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="C154" t="s">
         <v>233</v>
@@ -7609,10 +7609,10 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>993</v>
+      </c>
+      <c r="B155" t="s">
         <v>994</v>
-      </c>
-      <c r="B155" t="s">
-        <v>995</v>
       </c>
       <c r="C155" t="s">
         <v>233</v>
@@ -7629,7 +7629,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C156" t="s">
         <v>233</v>
@@ -7646,10 +7646,10 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B157" t="s">
         <v>1031</v>
-      </c>
-      <c r="B157" t="s">
-        <v>1032</v>
       </c>
       <c r="C157" t="s">
         <v>233</v>
@@ -7669,7 +7669,7 @@
         <v>0</v>
       </c>
       <c r="B158" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="C158" t="s">
         <v>1</v>
@@ -7720,10 +7720,10 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>779</v>
+      </c>
+      <c r="B161" t="s">
         <v>780</v>
-      </c>
-      <c r="B161" t="s">
-        <v>781</v>
       </c>
       <c r="C161" t="s">
         <v>233</v>
@@ -7740,10 +7740,10 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>642</v>
+      </c>
+      <c r="B162" t="s">
         <v>643</v>
-      </c>
-      <c r="B162" t="s">
-        <v>644</v>
       </c>
       <c r="C162" t="s">
         <v>233</v>
@@ -7760,10 +7760,10 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="C163" t="s">
         <v>233</v>
@@ -7780,10 +7780,10 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>636</v>
+      </c>
+      <c r="B164" t="s">
         <v>637</v>
-      </c>
-      <c r="B164" t="s">
-        <v>638</v>
       </c>
       <c r="C164" t="s">
         <v>233</v>
@@ -7817,10 +7817,10 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>618</v>
+      </c>
+      <c r="B166" t="s">
         <v>619</v>
-      </c>
-      <c r="B166" t="s">
-        <v>620</v>
       </c>
       <c r="C166" t="s">
         <v>233</v>
@@ -7837,10 +7837,10 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="B167" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="C167" t="s">
         <v>233</v>
@@ -7857,10 +7857,10 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>630</v>
+      </c>
+      <c r="B168" t="s">
         <v>631</v>
-      </c>
-      <c r="B168" t="s">
-        <v>632</v>
       </c>
       <c r="C168" t="s">
         <v>233</v>
@@ -7877,10 +7877,10 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B169" t="s">
         <v>1153</v>
-      </c>
-      <c r="B169" t="s">
-        <v>1154</v>
       </c>
       <c r="C169" t="s">
         <v>233</v>
@@ -7917,10 +7917,10 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>504</v>
+      </c>
+      <c r="B171" t="s">
         <v>505</v>
-      </c>
-      <c r="B171" t="s">
-        <v>506</v>
       </c>
       <c r="C171" t="s">
         <v>233</v>
@@ -7937,10 +7937,10 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>432</v>
+      </c>
+      <c r="B172" t="s">
         <v>433</v>
-      </c>
-      <c r="B172" t="s">
-        <v>434</v>
       </c>
       <c r="C172" t="s">
         <v>233</v>
@@ -7957,10 +7957,10 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>584</v>
+      </c>
+      <c r="B173" t="s">
         <v>585</v>
-      </c>
-      <c r="B173" t="s">
-        <v>586</v>
       </c>
       <c r="C173" t="s">
         <v>233</v>
@@ -7977,10 +7977,10 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>773</v>
+      </c>
+      <c r="B174" t="s">
         <v>774</v>
-      </c>
-      <c r="B174" t="s">
-        <v>775</v>
       </c>
       <c r="C174" t="s">
         <v>233</v>
@@ -7997,10 +7997,10 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>877</v>
+      </c>
+      <c r="B175" t="s">
         <v>878</v>
-      </c>
-      <c r="B175" t="s">
-        <v>879</v>
       </c>
       <c r="C175" t="s">
         <v>233</v>
@@ -8017,10 +8017,10 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>755</v>
+      </c>
+      <c r="B176" t="s">
         <v>756</v>
-      </c>
-      <c r="B176" t="s">
-        <v>757</v>
       </c>
       <c r="C176" t="s">
         <v>233</v>
@@ -8037,10 +8037,10 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="B177" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="C177" t="s">
         <v>233</v>
@@ -8057,10 +8057,10 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="B178" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="C178" t="s">
         <v>233</v>
@@ -8077,10 +8077,10 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>460</v>
+      </c>
+      <c r="B179" t="s">
         <v>461</v>
-      </c>
-      <c r="B179" t="s">
-        <v>462</v>
       </c>
       <c r="C179" t="s">
         <v>233</v>
@@ -8097,10 +8097,10 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>974</v>
+      </c>
+      <c r="B180" t="s">
         <v>975</v>
-      </c>
-      <c r="B180" t="s">
-        <v>976</v>
       </c>
       <c r="C180" t="s">
         <v>233</v>
@@ -8137,10 +8137,10 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>535</v>
+      </c>
+      <c r="B182" t="s">
         <v>536</v>
-      </c>
-      <c r="B182" t="s">
-        <v>537</v>
       </c>
       <c r="C182" t="s">
         <v>233</v>
@@ -8157,10 +8157,10 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>976</v>
+      </c>
+      <c r="B183" t="s">
         <v>977</v>
-      </c>
-      <c r="B183" t="s">
-        <v>978</v>
       </c>
       <c r="C183" t="s">
         <v>233</v>
@@ -8197,10 +8197,10 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="B185" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="C185" t="s">
         <v>233</v>
@@ -8217,10 +8217,10 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>390</v>
+      </c>
+      <c r="B186" t="s">
         <v>391</v>
-      </c>
-      <c r="B186" t="s">
-        <v>392</v>
       </c>
       <c r="C186" t="s">
         <v>233</v>
@@ -8237,10 +8237,10 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>590</v>
+      </c>
+      <c r="B187" t="s">
         <v>591</v>
-      </c>
-      <c r="B187" t="s">
-        <v>592</v>
       </c>
       <c r="C187" t="s">
         <v>233</v>
@@ -8257,10 +8257,10 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>444</v>
+      </c>
+      <c r="B188" t="s">
         <v>445</v>
-      </c>
-      <c r="B188" t="s">
-        <v>446</v>
       </c>
       <c r="C188" t="s">
         <v>233</v>
@@ -8277,10 +8277,10 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="B189" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="C189" t="s">
         <v>233</v>
@@ -8297,10 +8297,10 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>849</v>
+      </c>
+      <c r="B190" t="s">
         <v>850</v>
-      </c>
-      <c r="B190" t="s">
-        <v>851</v>
       </c>
       <c r="C190" t="s">
         <v>233</v>
@@ -8317,10 +8317,10 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B191" t="s">
         <v>1181</v>
-      </c>
-      <c r="B191" t="s">
-        <v>1182</v>
       </c>
       <c r="C191" t="s">
         <v>233</v>
@@ -8337,10 +8337,10 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>531</v>
+      </c>
+      <c r="B192" t="s">
         <v>532</v>
-      </c>
-      <c r="B192" t="s">
-        <v>533</v>
       </c>
       <c r="C192" t="s">
         <v>233</v>
@@ -8357,10 +8357,10 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>972</v>
+      </c>
+      <c r="B193" t="s">
         <v>973</v>
-      </c>
-      <c r="B193" t="s">
-        <v>974</v>
       </c>
       <c r="C193" t="s">
         <v>233</v>
@@ -8377,10 +8377,10 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>677</v>
+      </c>
+      <c r="B194" t="s">
         <v>678</v>
-      </c>
-      <c r="B194" t="s">
-        <v>679</v>
       </c>
       <c r="C194" t="s">
         <v>233</v>
@@ -8397,10 +8397,10 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>707</v>
+      </c>
+      <c r="B195" t="s">
         <v>708</v>
-      </c>
-      <c r="B195" t="s">
-        <v>709</v>
       </c>
       <c r="C195" t="s">
         <v>233</v>
@@ -8451,10 +8451,10 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="C198" t="s">
         <v>233</v>
@@ -8474,7 +8474,7 @@
         <v>87</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="C199" t="s">
         <v>58</v>
@@ -8491,7 +8491,7 @@
         <v>88</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="C200" t="s">
         <v>58</v>
@@ -8505,10 +8505,10 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>847</v>
+      </c>
+      <c r="B201" t="s">
         <v>848</v>
-      </c>
-      <c r="B201" t="s">
-        <v>849</v>
       </c>
       <c r="C201" t="s">
         <v>233</v>
@@ -8562,10 +8562,10 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="B204" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="C204" t="s">
         <v>233</v>
@@ -8582,10 +8582,10 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="B205" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="C205" t="s">
         <v>233</v>
@@ -8670,10 +8670,10 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>757</v>
+      </c>
+      <c r="B210" t="s">
         <v>758</v>
-      </c>
-      <c r="B210" t="s">
-        <v>759</v>
       </c>
       <c r="C210" t="s">
         <v>233</v>
@@ -8690,10 +8690,10 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B211" t="s">
         <v>1037</v>
-      </c>
-      <c r="B211" t="s">
-        <v>1038</v>
       </c>
       <c r="C211" t="s">
         <v>233</v>
@@ -8727,10 +8727,10 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B213" t="s">
         <v>1239</v>
-      </c>
-      <c r="B213" t="s">
-        <v>1240</v>
       </c>
       <c r="C213" t="s">
         <v>233</v>
@@ -8747,10 +8747,10 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B214" t="s">
         <v>1241</v>
-      </c>
-      <c r="B214" t="s">
-        <v>1242</v>
       </c>
       <c r="C214" t="s">
         <v>233</v>
@@ -8767,10 +8767,10 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>659</v>
+      </c>
+      <c r="B215" t="s">
         <v>660</v>
-      </c>
-      <c r="B215" t="s">
-        <v>661</v>
       </c>
       <c r="C215" t="s">
         <v>233</v>
@@ -8787,10 +8787,10 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B216" t="s">
         <v>1217</v>
-      </c>
-      <c r="B216" t="s">
-        <v>1218</v>
       </c>
       <c r="C216" t="s">
         <v>233</v>
@@ -8807,10 +8807,10 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="C217" t="s">
         <v>233</v>
@@ -8827,10 +8827,10 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B218" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="C218" t="s">
         <v>233</v>
@@ -8847,10 +8847,10 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="C219" t="s">
         <v>233</v>
@@ -8901,10 +8901,10 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>452</v>
+      </c>
+      <c r="B222" t="s">
         <v>453</v>
-      </c>
-      <c r="B222" t="s">
-        <v>454</v>
       </c>
       <c r="C222" t="s">
         <v>233</v>
@@ -8921,10 +8921,10 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B223" t="s">
         <v>1014</v>
-      </c>
-      <c r="B223" t="s">
-        <v>1015</v>
       </c>
       <c r="C223" t="s">
         <v>233</v>
@@ -8941,7 +8941,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C224" t="s">
         <v>233</v>
@@ -8958,10 +8958,10 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
+        <v>458</v>
+      </c>
+      <c r="B225" t="s">
         <v>459</v>
-      </c>
-      <c r="B225" t="s">
-        <v>460</v>
       </c>
       <c r="C225" t="s">
         <v>233</v>
@@ -8998,10 +8998,10 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
+        <v>377</v>
+      </c>
+      <c r="B227" t="s">
         <v>378</v>
-      </c>
-      <c r="B227" t="s">
-        <v>379</v>
       </c>
       <c r="C227" t="s">
         <v>233</v>
@@ -9018,10 +9018,10 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="B228" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="C228" t="s">
         <v>233</v>
@@ -9058,10 +9058,10 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
+        <v>456</v>
+      </c>
+      <c r="B230" t="s">
         <v>457</v>
-      </c>
-      <c r="B230" t="s">
-        <v>458</v>
       </c>
       <c r="C230" t="s">
         <v>233</v>
@@ -9078,10 +9078,10 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
+        <v>657</v>
+      </c>
+      <c r="B231" t="s">
         <v>658</v>
-      </c>
-      <c r="B231" t="s">
-        <v>659</v>
       </c>
       <c r="C231" t="s">
         <v>233</v>
@@ -9098,10 +9098,10 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="B232" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="C232" t="s">
         <v>233</v>
@@ -9118,10 +9118,10 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
+        <v>785</v>
+      </c>
+      <c r="B233" t="s">
         <v>786</v>
-      </c>
-      <c r="B233" t="s">
-        <v>787</v>
       </c>
       <c r="C233" t="s">
         <v>233</v>
@@ -9175,10 +9175,10 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B236" t="s">
         <v>1061</v>
-      </c>
-      <c r="B236" t="s">
-        <v>1062</v>
       </c>
       <c r="C236" t="s">
         <v>233</v>
@@ -9195,10 +9195,10 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
+        <v>999</v>
+      </c>
+      <c r="B237" t="s">
         <v>1000</v>
-      </c>
-      <c r="B237" t="s">
-        <v>1001</v>
       </c>
       <c r="C237" t="s">
         <v>233</v>
@@ -9215,10 +9215,10 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B238" t="s">
         <v>1059</v>
-      </c>
-      <c r="B238" t="s">
-        <v>1060</v>
       </c>
       <c r="C238" t="s">
         <v>233</v>
@@ -9252,10 +9252,10 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>672</v>
+      </c>
+      <c r="B240" t="s">
         <v>673</v>
-      </c>
-      <c r="B240" t="s">
-        <v>674</v>
       </c>
       <c r="C240" t="s">
         <v>233</v>
@@ -9272,10 +9272,10 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B241" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="C241" t="s">
         <v>233</v>
@@ -9372,7 +9372,7 @@
         <v>189</v>
       </c>
       <c r="B246" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C246" t="s">
         <v>233</v>
@@ -9426,10 +9426,10 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B249" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="C249" t="s">
         <v>233</v>
@@ -9446,10 +9446,10 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B250" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="C250" t="s">
         <v>233</v>
@@ -9466,10 +9466,10 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B251" t="s">
         <v>1055</v>
-      </c>
-      <c r="B251" t="s">
-        <v>1056</v>
       </c>
       <c r="C251" t="s">
         <v>233</v>
@@ -9486,10 +9486,10 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
+        <v>703</v>
+      </c>
+      <c r="B252" t="s">
         <v>704</v>
-      </c>
-      <c r="B252" t="s">
-        <v>705</v>
       </c>
       <c r="C252" t="s">
         <v>233</v>
@@ -9506,10 +9506,10 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
+        <v>873</v>
+      </c>
+      <c r="B253" t="s">
         <v>874</v>
-      </c>
-      <c r="B253" t="s">
-        <v>875</v>
       </c>
       <c r="C253" t="s">
         <v>233</v>
@@ -9563,10 +9563,10 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
+        <v>416</v>
+      </c>
+      <c r="B256" t="s">
         <v>417</v>
-      </c>
-      <c r="B256" t="s">
-        <v>418</v>
       </c>
       <c r="C256" t="s">
         <v>233</v>
@@ -9583,10 +9583,10 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
+        <v>561</v>
+      </c>
+      <c r="B257" t="s">
         <v>562</v>
-      </c>
-      <c r="B257" t="s">
-        <v>563</v>
       </c>
       <c r="C257" t="s">
         <v>233</v>
@@ -9603,10 +9603,10 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
+        <v>705</v>
+      </c>
+      <c r="B258" t="s">
         <v>706</v>
-      </c>
-      <c r="B258" t="s">
-        <v>707</v>
       </c>
       <c r="C258" t="s">
         <v>233</v>
@@ -9623,10 +9623,10 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
+        <v>392</v>
+      </c>
+      <c r="B259" t="s">
         <v>393</v>
-      </c>
-      <c r="B259" t="s">
-        <v>394</v>
       </c>
       <c r="C259" t="s">
         <v>233</v>
@@ -9643,10 +9643,10 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
+        <v>474</v>
+      </c>
+      <c r="B260" t="s">
         <v>475</v>
-      </c>
-      <c r="B260" t="s">
-        <v>476</v>
       </c>
       <c r="C260" t="s">
         <v>233</v>
@@ -9663,10 +9663,10 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
+        <v>348</v>
+      </c>
+      <c r="B261" t="s">
         <v>349</v>
-      </c>
-      <c r="B261" t="s">
-        <v>350</v>
       </c>
       <c r="C261" t="s">
         <v>233</v>
@@ -9683,10 +9683,10 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
+        <v>592</v>
+      </c>
+      <c r="B262" t="s">
         <v>593</v>
-      </c>
-      <c r="B262" t="s">
-        <v>594</v>
       </c>
       <c r="C262" t="s">
         <v>233</v>
@@ -9703,10 +9703,10 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B263" t="s">
         <v>1047</v>
-      </c>
-      <c r="B263" t="s">
-        <v>1048</v>
       </c>
       <c r="C263" t="s">
         <v>233</v>
@@ -9723,10 +9723,10 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
+        <v>612</v>
+      </c>
+      <c r="B264" t="s">
         <v>613</v>
-      </c>
-      <c r="B264" t="s">
-        <v>614</v>
       </c>
       <c r="C264" t="s">
         <v>233</v>
@@ -9743,10 +9743,10 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
+        <v>685</v>
+      </c>
+      <c r="B265" t="s">
         <v>686</v>
-      </c>
-      <c r="B265" t="s">
-        <v>687</v>
       </c>
       <c r="C265" t="s">
         <v>233</v>
@@ -9763,10 +9763,10 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
+        <v>689</v>
+      </c>
+      <c r="B266" t="s">
         <v>690</v>
-      </c>
-      <c r="B266" t="s">
-        <v>691</v>
       </c>
       <c r="C266" t="s">
         <v>233</v>
@@ -9783,10 +9783,10 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
+        <v>693</v>
+      </c>
+      <c r="B267" t="s">
         <v>694</v>
-      </c>
-      <c r="B267" t="s">
-        <v>695</v>
       </c>
       <c r="C267" t="s">
         <v>233</v>
@@ -9803,10 +9803,10 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
+        <v>699</v>
+      </c>
+      <c r="B268" t="s">
         <v>700</v>
-      </c>
-      <c r="B268" t="s">
-        <v>701</v>
       </c>
       <c r="C268" t="s">
         <v>233</v>
@@ -9823,10 +9823,10 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
+        <v>701</v>
+      </c>
+      <c r="B269" t="s">
         <v>702</v>
-      </c>
-      <c r="B269" t="s">
-        <v>703</v>
       </c>
       <c r="C269" t="s">
         <v>233</v>
@@ -9843,10 +9843,10 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
+        <v>695</v>
+      </c>
+      <c r="B270" t="s">
         <v>696</v>
-      </c>
-      <c r="B270" t="s">
-        <v>697</v>
       </c>
       <c r="C270" t="s">
         <v>233</v>
@@ -9863,10 +9863,10 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
+        <v>697</v>
+      </c>
+      <c r="B271" t="s">
         <v>698</v>
-      </c>
-      <c r="B271" t="s">
-        <v>699</v>
       </c>
       <c r="C271" t="s">
         <v>233</v>
@@ -9883,10 +9883,10 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
+        <v>687</v>
+      </c>
+      <c r="B272" t="s">
         <v>688</v>
-      </c>
-      <c r="B272" t="s">
-        <v>689</v>
       </c>
       <c r="C272" t="s">
         <v>233</v>
@@ -9903,10 +9903,10 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
+        <v>683</v>
+      </c>
+      <c r="B273" t="s">
         <v>684</v>
-      </c>
-      <c r="B273" t="s">
-        <v>685</v>
       </c>
       <c r="C273" t="s">
         <v>233</v>
@@ -9923,10 +9923,10 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
+        <v>691</v>
+      </c>
+      <c r="B274" t="s">
         <v>692</v>
-      </c>
-      <c r="B274" t="s">
-        <v>693</v>
       </c>
       <c r="C274" t="s">
         <v>233</v>
@@ -9963,10 +9963,10 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B276" t="s">
         <v>1112</v>
-      </c>
-      <c r="B276" t="s">
-        <v>1113</v>
       </c>
       <c r="C276" t="s">
         <v>233</v>
@@ -9983,10 +9983,10 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="B277" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="C277" t="s">
         <v>233</v>
@@ -10023,10 +10023,10 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B279" t="s">
         <v>1108</v>
-      </c>
-      <c r="B279" t="s">
-        <v>1109</v>
       </c>
       <c r="C279" t="s">
         <v>233</v>
@@ -10043,10 +10043,10 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B280" t="s">
         <v>1071</v>
-      </c>
-      <c r="B280" t="s">
-        <v>1072</v>
       </c>
       <c r="C280" t="s">
         <v>233</v>
@@ -10063,10 +10063,10 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
+        <v>853</v>
+      </c>
+      <c r="B281" t="s">
         <v>854</v>
-      </c>
-      <c r="B281" t="s">
-        <v>855</v>
       </c>
       <c r="C281" t="s">
         <v>233</v>
@@ -10083,10 +10083,10 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B282" t="s">
         <v>1164</v>
-      </c>
-      <c r="B282" t="s">
-        <v>1165</v>
       </c>
       <c r="C282" t="s">
         <v>233</v>
@@ -10103,10 +10103,10 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
+        <v>855</v>
+      </c>
+      <c r="B283" t="s">
         <v>856</v>
-      </c>
-      <c r="B283" t="s">
-        <v>857</v>
       </c>
       <c r="C283" t="s">
         <v>233</v>
@@ -10123,10 +10123,10 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B284" t="s">
         <v>1104</v>
-      </c>
-      <c r="B284" t="s">
-        <v>1105</v>
       </c>
       <c r="C284" t="s">
         <v>233</v>
@@ -10143,10 +10143,10 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B285" t="s">
         <v>1227</v>
-      </c>
-      <c r="B285" t="s">
-        <v>1228</v>
       </c>
       <c r="C285" t="s">
         <v>233</v>
@@ -10183,10 +10183,10 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
+        <v>632</v>
+      </c>
+      <c r="B287" t="s">
         <v>633</v>
-      </c>
-      <c r="B287" t="s">
-        <v>634</v>
       </c>
       <c r="C287" t="s">
         <v>233</v>
@@ -10203,10 +10203,10 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
+        <v>716</v>
+      </c>
+      <c r="B288" t="s">
         <v>717</v>
-      </c>
-      <c r="B288" t="s">
-        <v>718</v>
       </c>
       <c r="C288" t="s">
         <v>233</v>
@@ -10223,10 +10223,10 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
+        <v>739</v>
+      </c>
+      <c r="B289" t="s">
         <v>740</v>
-      </c>
-      <c r="B289" t="s">
-        <v>741</v>
       </c>
       <c r="C289" t="s">
         <v>233</v>
@@ -10243,10 +10243,10 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B290" t="s">
         <v>1057</v>
-      </c>
-      <c r="B290" t="s">
-        <v>1058</v>
       </c>
       <c r="C290" t="s">
         <v>233</v>
@@ -10263,10 +10263,10 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
+        <v>462</v>
+      </c>
+      <c r="B291" t="s">
         <v>463</v>
-      </c>
-      <c r="B291" t="s">
-        <v>464</v>
       </c>
       <c r="C291" t="s">
         <v>233</v>
@@ -10283,10 +10283,10 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
+        <v>843</v>
+      </c>
+      <c r="B292" t="s">
         <v>844</v>
-      </c>
-      <c r="B292" t="s">
-        <v>845</v>
       </c>
       <c r="C292" t="s">
         <v>233</v>
@@ -10323,10 +10323,10 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
+        <v>926</v>
+      </c>
+      <c r="B294" t="s">
         <v>927</v>
-      </c>
-      <c r="B294" t="s">
-        <v>928</v>
       </c>
       <c r="C294" t="s">
         <v>233</v>
@@ -10363,10 +10363,10 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
+        <v>547</v>
+      </c>
+      <c r="B296" t="s">
         <v>548</v>
-      </c>
-      <c r="B296" t="s">
-        <v>549</v>
       </c>
       <c r="C296" t="s">
         <v>233</v>
@@ -10383,10 +10383,10 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="B297" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="C297" t="s">
         <v>233</v>
@@ -10403,10 +10403,10 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
+        <v>551</v>
+      </c>
+      <c r="B298" t="s">
         <v>552</v>
-      </c>
-      <c r="B298" t="s">
-        <v>553</v>
       </c>
       <c r="C298" t="s">
         <v>233</v>
@@ -10423,10 +10423,10 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="B299" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="C299" t="s">
         <v>233</v>
@@ -10460,10 +10460,10 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="B301" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="C301" t="s">
         <v>233</v>
@@ -10480,10 +10480,10 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
+        <v>859</v>
+      </c>
+      <c r="B302" t="s">
         <v>860</v>
-      </c>
-      <c r="B302" t="s">
-        <v>861</v>
       </c>
       <c r="C302" t="s">
         <v>233</v>
@@ -10500,10 +10500,10 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
+        <v>767</v>
+      </c>
+      <c r="B303" t="s">
         <v>768</v>
-      </c>
-      <c r="B303" t="s">
-        <v>769</v>
       </c>
       <c r="C303" t="s">
         <v>233</v>
@@ -10520,10 +10520,10 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
+        <v>508</v>
+      </c>
+      <c r="B304" t="s">
         <v>509</v>
-      </c>
-      <c r="B304" t="s">
-        <v>510</v>
       </c>
       <c r="C304" t="s">
         <v>233</v>
@@ -10540,10 +10540,10 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
+        <v>472</v>
+      </c>
+      <c r="B305" t="s">
         <v>473</v>
-      </c>
-      <c r="B305" t="s">
-        <v>474</v>
       </c>
       <c r="C305" t="s">
         <v>233</v>
@@ -10577,10 +10577,10 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B307" t="s">
         <v>1065</v>
-      </c>
-      <c r="B307" t="s">
-        <v>1066</v>
       </c>
       <c r="C307" t="s">
         <v>233</v>
@@ -10597,10 +10597,10 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B308" t="s">
         <v>1160</v>
-      </c>
-      <c r="B308" t="s">
-        <v>1161</v>
       </c>
       <c r="C308" t="s">
         <v>233</v>
@@ -10637,10 +10637,10 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B310" t="s">
         <v>1079</v>
-      </c>
-      <c r="B310" t="s">
-        <v>1080</v>
       </c>
       <c r="C310" t="s">
         <v>233</v>
@@ -10677,10 +10677,10 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
+        <v>404</v>
+      </c>
+      <c r="B312" t="s">
         <v>405</v>
-      </c>
-      <c r="B312" t="s">
-        <v>406</v>
       </c>
       <c r="C312" t="s">
         <v>233</v>
@@ -10697,10 +10697,10 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="B313" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="C313" t="s">
         <v>233</v>
@@ -10717,10 +10717,10 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B314" t="s">
         <v>1035</v>
-      </c>
-      <c r="B314" t="s">
-        <v>1036</v>
       </c>
       <c r="C314" t="s">
         <v>233</v>
@@ -10737,10 +10737,10 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
+        <v>797</v>
+      </c>
+      <c r="B315" t="s">
         <v>798</v>
-      </c>
-      <c r="B315" t="s">
-        <v>799</v>
       </c>
       <c r="C315" t="s">
         <v>233</v>
@@ -10757,10 +10757,10 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
+        <v>799</v>
+      </c>
+      <c r="B316" t="s">
         <v>800</v>
-      </c>
-      <c r="B316" t="s">
-        <v>801</v>
       </c>
       <c r="C316" t="s">
         <v>233</v>
@@ -10794,10 +10794,10 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B318" t="s">
         <v>1106</v>
-      </c>
-      <c r="B318" t="s">
-        <v>1107</v>
       </c>
       <c r="C318" t="s">
         <v>233</v>
@@ -10814,10 +10814,10 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B319" t="s">
         <v>1085</v>
-      </c>
-      <c r="B319" t="s">
-        <v>1086</v>
       </c>
       <c r="C319" t="s">
         <v>233</v>
@@ -10834,10 +10834,10 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
+        <v>488</v>
+      </c>
+      <c r="B320" t="s">
         <v>489</v>
-      </c>
-      <c r="B320" t="s">
-        <v>490</v>
       </c>
       <c r="C320" t="s">
         <v>233</v>
@@ -10854,10 +10854,10 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
+        <v>363</v>
+      </c>
+      <c r="B321" t="s">
         <v>364</v>
-      </c>
-      <c r="B321" t="s">
-        <v>365</v>
       </c>
       <c r="C321" t="s">
         <v>233</v>
@@ -10874,10 +10874,10 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B322" t="s">
         <v>1237</v>
-      </c>
-      <c r="B322" t="s">
-        <v>1238</v>
       </c>
       <c r="C322" t="s">
         <v>233</v>
@@ -10894,10 +10894,10 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
+        <v>620</v>
+      </c>
+      <c r="B323" t="s">
         <v>621</v>
-      </c>
-      <c r="B323" t="s">
-        <v>622</v>
       </c>
       <c r="C323" t="s">
         <v>233</v>
@@ -10931,10 +10931,10 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B325" t="s">
         <v>1118</v>
-      </c>
-      <c r="B325" t="s">
-        <v>1119</v>
       </c>
       <c r="C325" t="s">
         <v>233</v>
@@ -10951,7 +10951,7 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C326" t="s">
         <v>233</v>
@@ -10968,10 +10968,10 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
+        <v>555</v>
+      </c>
+      <c r="B327" t="s">
         <v>556</v>
-      </c>
-      <c r="B327" t="s">
-        <v>557</v>
       </c>
       <c r="C327" t="s">
         <v>233</v>
@@ -10988,10 +10988,10 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
+        <v>557</v>
+      </c>
+      <c r="B328" t="s">
         <v>558</v>
-      </c>
-      <c r="B328" t="s">
-        <v>559</v>
       </c>
       <c r="C328" t="s">
         <v>233</v>
@@ -11008,10 +11008,10 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
+        <v>559</v>
+      </c>
+      <c r="B329" t="s">
         <v>560</v>
-      </c>
-      <c r="B329" t="s">
-        <v>561</v>
       </c>
       <c r="C329" t="s">
         <v>233</v>
@@ -11028,10 +11028,10 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
+        <v>533</v>
+      </c>
+      <c r="B330" t="s">
         <v>534</v>
-      </c>
-      <c r="B330" t="s">
-        <v>535</v>
       </c>
       <c r="C330" t="s">
         <v>233</v>
@@ -11088,10 +11088,10 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="B333" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C333" t="s">
         <v>233</v>
@@ -11108,10 +11108,10 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
+        <v>514</v>
+      </c>
+      <c r="B334" t="s">
         <v>515</v>
-      </c>
-      <c r="B334" t="s">
-        <v>516</v>
       </c>
       <c r="C334" t="s">
         <v>233</v>
@@ -11128,10 +11128,10 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B335" t="s">
         <v>1231</v>
-      </c>
-      <c r="B335" t="s">
-        <v>1232</v>
       </c>
       <c r="C335" t="s">
         <v>233</v>
@@ -11148,10 +11148,10 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B336" t="s">
         <v>1132</v>
-      </c>
-      <c r="B336" t="s">
-        <v>1133</v>
       </c>
       <c r="C336" t="s">
         <v>233</v>
@@ -11185,10 +11185,10 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
+        <v>875</v>
+      </c>
+      <c r="B338" t="s">
         <v>876</v>
-      </c>
-      <c r="B338" t="s">
-        <v>877</v>
       </c>
       <c r="C338" t="s">
         <v>233</v>
@@ -11205,10 +11205,10 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
+        <v>367</v>
+      </c>
+      <c r="B339" t="s">
         <v>368</v>
-      </c>
-      <c r="B339" t="s">
-        <v>369</v>
       </c>
       <c r="C339" t="s">
         <v>233</v>
@@ -11225,10 +11225,10 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
+        <v>398</v>
+      </c>
+      <c r="B340" t="s">
         <v>399</v>
-      </c>
-      <c r="B340" t="s">
-        <v>400</v>
       </c>
       <c r="C340" t="s">
         <v>233</v>
@@ -11245,10 +11245,10 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
+        <v>811</v>
+      </c>
+      <c r="B341" t="s">
         <v>812</v>
-      </c>
-      <c r="B341" t="s">
-        <v>813</v>
       </c>
       <c r="C341" t="s">
         <v>233</v>
@@ -11285,10 +11285,10 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
+        <v>661</v>
+      </c>
+      <c r="B343" t="s">
         <v>662</v>
-      </c>
-      <c r="B343" t="s">
-        <v>663</v>
       </c>
       <c r="C343" t="s">
         <v>233</v>
@@ -11305,10 +11305,10 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B344" t="s">
         <v>1083</v>
-      </c>
-      <c r="B344" t="s">
-        <v>1084</v>
       </c>
       <c r="C344" t="s">
         <v>233</v>
@@ -11325,10 +11325,10 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="B345" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="C345" t="s">
         <v>233</v>
@@ -11345,10 +11345,10 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
+        <v>494</v>
+      </c>
+      <c r="B346" t="s">
         <v>495</v>
-      </c>
-      <c r="B346" t="s">
-        <v>496</v>
       </c>
       <c r="C346" t="s">
         <v>233</v>
@@ -11365,10 +11365,10 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B347" t="s">
         <v>1123</v>
-      </c>
-      <c r="B347" t="s">
-        <v>1124</v>
       </c>
       <c r="C347" t="s">
         <v>233</v>
@@ -11385,10 +11385,10 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
+        <v>675</v>
+      </c>
+      <c r="B348" t="s">
         <v>676</v>
-      </c>
-      <c r="B348" t="s">
-        <v>677</v>
       </c>
       <c r="C348" t="s">
         <v>233</v>
@@ -11439,10 +11439,10 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
+        <v>831</v>
+      </c>
+      <c r="B351" t="s">
         <v>832</v>
-      </c>
-      <c r="B351" t="s">
-        <v>833</v>
       </c>
       <c r="C351" t="s">
         <v>233</v>
@@ -11510,10 +11510,10 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
+        <v>871</v>
+      </c>
+      <c r="B355" t="s">
         <v>872</v>
-      </c>
-      <c r="B355" t="s">
-        <v>873</v>
       </c>
       <c r="C355" t="s">
         <v>233</v>
@@ -11530,10 +11530,10 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
+        <v>761</v>
+      </c>
+      <c r="B356" t="s">
         <v>762</v>
-      </c>
-      <c r="B356" t="s">
-        <v>763</v>
       </c>
       <c r="C356" t="s">
         <v>233</v>
@@ -11550,10 +11550,10 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
+        <v>930</v>
+      </c>
+      <c r="B357" t="s">
         <v>931</v>
-      </c>
-      <c r="B357" t="s">
-        <v>932</v>
       </c>
       <c r="C357" t="s">
         <v>233</v>
@@ -11587,10 +11587,10 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
+        <v>916</v>
+      </c>
+      <c r="B359" t="s">
         <v>917</v>
-      </c>
-      <c r="B359" t="s">
-        <v>918</v>
       </c>
       <c r="C359" t="s">
         <v>233</v>
@@ -11624,10 +11624,10 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
+        <v>918</v>
+      </c>
+      <c r="B361" t="s">
         <v>919</v>
-      </c>
-      <c r="B361" t="s">
-        <v>920</v>
       </c>
       <c r="C361" t="s">
         <v>233</v>
@@ -11644,10 +11644,10 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
+        <v>388</v>
+      </c>
+      <c r="B362" t="s">
         <v>389</v>
-      </c>
-      <c r="B362" t="s">
-        <v>390</v>
       </c>
       <c r="C362" t="s">
         <v>233</v>
@@ -11698,10 +11698,10 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
+        <v>887</v>
+      </c>
+      <c r="B365" t="s">
         <v>888</v>
-      </c>
-      <c r="B365" t="s">
-        <v>889</v>
       </c>
       <c r="C365" t="s">
         <v>233</v>
@@ -11718,10 +11718,10 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
+        <v>352</v>
+      </c>
+      <c r="B366" t="s">
         <v>353</v>
-      </c>
-      <c r="B366" t="s">
-        <v>354</v>
       </c>
       <c r="C366" t="s">
         <v>233</v>
@@ -11772,10 +11772,10 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
+        <v>596</v>
+      </c>
+      <c r="B369" t="s">
         <v>597</v>
-      </c>
-      <c r="B369" t="s">
-        <v>598</v>
       </c>
       <c r="C369" t="s">
         <v>233</v>
@@ -11792,10 +11792,10 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="B370" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="C370" t="s">
         <v>233</v>
@@ -11812,10 +11812,10 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
+        <v>950</v>
+      </c>
+      <c r="B371" t="s">
         <v>951</v>
-      </c>
-      <c r="B371" t="s">
-        <v>952</v>
       </c>
       <c r="C371" t="s">
         <v>233</v>
@@ -11852,10 +11852,10 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="B373" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="C373" t="s">
         <v>233</v>
@@ -11872,10 +11872,10 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
+        <v>959</v>
+      </c>
+      <c r="B374" t="s">
         <v>960</v>
-      </c>
-      <c r="B374" t="s">
-        <v>961</v>
       </c>
       <c r="C374" t="s">
         <v>233</v>
@@ -11912,7 +11912,7 @@
         <v>21</v>
       </c>
       <c r="B376" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C376" t="s">
         <v>233</v>
@@ -11946,10 +11946,10 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B378" t="s">
         <v>1093</v>
-      </c>
-      <c r="B378" t="s">
-        <v>1094</v>
       </c>
       <c r="C378" t="s">
         <v>233</v>
@@ -11966,10 +11966,10 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B379" t="s">
         <v>1125</v>
-      </c>
-      <c r="B379" t="s">
-        <v>1126</v>
       </c>
       <c r="C379" t="s">
         <v>233</v>
@@ -11986,10 +11986,10 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
+        <v>759</v>
+      </c>
+      <c r="B380" t="s">
         <v>760</v>
-      </c>
-      <c r="B380" t="s">
-        <v>761</v>
       </c>
       <c r="C380" t="s">
         <v>233</v>
@@ -12006,10 +12006,10 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
+        <v>895</v>
+      </c>
+      <c r="B381" t="s">
         <v>896</v>
-      </c>
-      <c r="B381" t="s">
-        <v>897</v>
       </c>
       <c r="C381" t="s">
         <v>233</v>
@@ -12026,10 +12026,10 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
+        <v>484</v>
+      </c>
+      <c r="B382" t="s">
         <v>485</v>
-      </c>
-      <c r="B382" t="s">
-        <v>486</v>
       </c>
       <c r="C382" t="s">
         <v>233</v>
@@ -12046,10 +12046,10 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B383" t="s">
         <v>1213</v>
-      </c>
-      <c r="B383" t="s">
-        <v>1214</v>
       </c>
       <c r="C383" t="s">
         <v>233</v>
@@ -12066,10 +12066,10 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B384" t="s">
         <v>1203</v>
-      </c>
-      <c r="B384" t="s">
-        <v>1204</v>
       </c>
       <c r="C384" t="s">
         <v>233</v>
@@ -12086,10 +12086,10 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B385" t="s">
         <v>1199</v>
-      </c>
-      <c r="B385" t="s">
-        <v>1200</v>
       </c>
       <c r="C385" t="s">
         <v>233</v>
@@ -12106,10 +12106,10 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B386" t="s">
         <v>1197</v>
-      </c>
-      <c r="B386" t="s">
-        <v>1198</v>
       </c>
       <c r="C386" t="s">
         <v>233</v>
@@ -12126,10 +12126,10 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B387" t="s">
         <v>1201</v>
-      </c>
-      <c r="B387" t="s">
-        <v>1202</v>
       </c>
       <c r="C387" t="s">
         <v>233</v>
@@ -12146,10 +12146,10 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B388" t="s">
         <v>1209</v>
-      </c>
-      <c r="B388" t="s">
-        <v>1210</v>
       </c>
       <c r="C388" t="s">
         <v>233</v>
@@ -12166,10 +12166,10 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B389" t="s">
         <v>1211</v>
-      </c>
-      <c r="B389" t="s">
-        <v>1212</v>
       </c>
       <c r="C389" t="s">
         <v>233</v>
@@ -12186,7 +12186,7 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C390" t="s">
         <v>233</v>
@@ -12203,10 +12203,10 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B391" t="s">
         <v>1193</v>
-      </c>
-      <c r="B391" t="s">
-        <v>1194</v>
       </c>
       <c r="C391" t="s">
         <v>233</v>
@@ -12223,10 +12223,10 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B392" t="s">
         <v>1205</v>
-      </c>
-      <c r="B392" t="s">
-        <v>1206</v>
       </c>
       <c r="C392" t="s">
         <v>233</v>
@@ -12243,10 +12243,10 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B393" t="s">
         <v>1207</v>
-      </c>
-      <c r="B393" t="s">
-        <v>1208</v>
       </c>
       <c r="C393" t="s">
         <v>233</v>
@@ -12263,10 +12263,10 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B394" t="s">
         <v>1195</v>
-      </c>
-      <c r="B394" t="s">
-        <v>1196</v>
       </c>
       <c r="C394" t="s">
         <v>233</v>
@@ -12283,10 +12283,10 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
+        <v>913</v>
+      </c>
+      <c r="B395" t="s">
         <v>914</v>
-      </c>
-      <c r="B395" t="s">
-        <v>915</v>
       </c>
       <c r="C395" t="s">
         <v>233</v>
@@ -12303,7 +12303,7 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C396" t="s">
         <v>233</v>
@@ -12320,7 +12320,7 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C397" t="s">
         <v>233</v>
@@ -12337,10 +12337,10 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
+        <v>901</v>
+      </c>
+      <c r="B398" t="s">
         <v>902</v>
-      </c>
-      <c r="B398" t="s">
-        <v>903</v>
       </c>
       <c r="C398" t="s">
         <v>233</v>
@@ -12357,10 +12357,10 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
+        <v>903</v>
+      </c>
+      <c r="B399" t="s">
         <v>904</v>
-      </c>
-      <c r="B399" t="s">
-        <v>905</v>
       </c>
       <c r="C399" t="s">
         <v>233</v>
@@ -12377,10 +12377,10 @@
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
+        <v>905</v>
+      </c>
+      <c r="B400" t="s">
         <v>906</v>
-      </c>
-      <c r="B400" t="s">
-        <v>907</v>
       </c>
       <c r="C400" t="s">
         <v>233</v>
@@ -12397,10 +12397,10 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
+        <v>907</v>
+      </c>
+      <c r="B401" t="s">
         <v>908</v>
-      </c>
-      <c r="B401" t="s">
-        <v>909</v>
       </c>
       <c r="C401" t="s">
         <v>233</v>
@@ -12417,10 +12417,10 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
+        <v>909</v>
+      </c>
+      <c r="B402" t="s">
         <v>910</v>
-      </c>
-      <c r="B402" t="s">
-        <v>911</v>
       </c>
       <c r="C402" t="s">
         <v>233</v>
@@ -12437,10 +12437,10 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
+        <v>911</v>
+      </c>
+      <c r="B403" t="s">
         <v>912</v>
-      </c>
-      <c r="B403" t="s">
-        <v>913</v>
       </c>
       <c r="C403" t="s">
         <v>233</v>
@@ -12457,10 +12457,10 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="B404" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C404" t="s">
         <v>233</v>
@@ -12477,10 +12477,10 @@
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
+        <v>498</v>
+      </c>
+      <c r="B405" t="s">
         <v>499</v>
-      </c>
-      <c r="B405" t="s">
-        <v>500</v>
       </c>
       <c r="C405" t="s">
         <v>233</v>
@@ -12514,10 +12514,10 @@
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
+        <v>777</v>
+      </c>
+      <c r="B407" t="s">
         <v>778</v>
-      </c>
-      <c r="B407" t="s">
-        <v>779</v>
       </c>
       <c r="C407" t="s">
         <v>233</v>
@@ -12534,10 +12534,10 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B408" t="s">
         <v>1121</v>
-      </c>
-      <c r="B408" t="s">
-        <v>1122</v>
       </c>
       <c r="C408" t="s">
         <v>233</v>
@@ -12563,7 +12563,7 @@
         <v>228</v>
       </c>
       <c r="D409" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="E409" t="s">
         <v>229</v>
@@ -12591,10 +12591,10 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B411" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="C411" t="s">
         <v>233</v>
@@ -12611,10 +12611,10 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="B412" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="C412" t="s">
         <v>233</v>
@@ -12631,10 +12631,10 @@
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
+        <v>942</v>
+      </c>
+      <c r="B413" t="s">
         <v>943</v>
-      </c>
-      <c r="B413" t="s">
-        <v>944</v>
       </c>
       <c r="C413" t="s">
         <v>233</v>
@@ -12651,10 +12651,10 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="B414" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C414" t="s">
         <v>233</v>
@@ -12671,10 +12671,10 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B415" t="s">
         <v>1004</v>
-      </c>
-      <c r="B415" t="s">
-        <v>1005</v>
       </c>
       <c r="C415" t="s">
         <v>233</v>
@@ -12708,10 +12708,10 @@
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
+        <v>478</v>
+      </c>
+      <c r="B417" t="s">
         <v>479</v>
-      </c>
-      <c r="B417" t="s">
-        <v>480</v>
       </c>
       <c r="C417" t="s">
         <v>233</v>
@@ -12745,10 +12745,10 @@
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
+        <v>344</v>
+      </c>
+      <c r="B419" t="s">
         <v>345</v>
-      </c>
-      <c r="B419" t="s">
-        <v>346</v>
       </c>
       <c r="C419" t="s">
         <v>233</v>
@@ -12765,10 +12765,10 @@
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B420" t="s">
         <v>1043</v>
-      </c>
-      <c r="B420" t="s">
-        <v>1044</v>
       </c>
       <c r="C420" t="s">
         <v>233</v>
@@ -12825,10 +12825,10 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B423" t="s">
         <v>1243</v>
-      </c>
-      <c r="B423" t="s">
-        <v>1244</v>
       </c>
       <c r="C423" t="s">
         <v>233</v>
@@ -12845,10 +12845,10 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B424" t="s">
         <v>1116</v>
-      </c>
-      <c r="B424" t="s">
-        <v>1117</v>
       </c>
       <c r="C424" t="s">
         <v>233</v>
@@ -12865,10 +12865,10 @@
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
+        <v>468</v>
+      </c>
+      <c r="B425" t="s">
         <v>469</v>
-      </c>
-      <c r="B425" t="s">
-        <v>470</v>
       </c>
       <c r="C425" t="s">
         <v>233</v>
@@ -12885,10 +12885,10 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="B426" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="C426" t="s">
         <v>233</v>
@@ -12905,10 +12905,10 @@
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
+        <v>670</v>
+      </c>
+      <c r="B427" t="s">
         <v>671</v>
-      </c>
-      <c r="B427" t="s">
-        <v>672</v>
       </c>
       <c r="C427" t="s">
         <v>233</v>
@@ -12925,10 +12925,10 @@
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
+        <v>795</v>
+      </c>
+      <c r="B428" t="s">
         <v>796</v>
-      </c>
-      <c r="B428" t="s">
-        <v>797</v>
       </c>
       <c r="C428" t="s">
         <v>233</v>
@@ -12962,10 +12962,10 @@
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
+        <v>502</v>
+      </c>
+      <c r="B430" t="s">
         <v>503</v>
-      </c>
-      <c r="B430" t="s">
-        <v>504</v>
       </c>
       <c r="C430" t="s">
         <v>233</v>
@@ -12982,10 +12982,10 @@
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B431" t="s">
         <v>1063</v>
-      </c>
-      <c r="B431" t="s">
-        <v>1064</v>
       </c>
       <c r="C431" t="s">
         <v>233</v>
@@ -13019,10 +13019,10 @@
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
+        <v>492</v>
+      </c>
+      <c r="B433" t="s">
         <v>493</v>
-      </c>
-      <c r="B433" t="s">
-        <v>494</v>
       </c>
       <c r="C433" t="s">
         <v>233</v>
@@ -13039,10 +13039,10 @@
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B434" t="s">
         <v>1029</v>
-      </c>
-      <c r="B434" t="s">
-        <v>1030</v>
       </c>
       <c r="C434" t="s">
         <v>233</v>
@@ -13059,10 +13059,10 @@
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
+        <v>470</v>
+      </c>
+      <c r="B435" t="s">
         <v>471</v>
-      </c>
-      <c r="B435" t="s">
-        <v>472</v>
       </c>
       <c r="C435" t="s">
         <v>233</v>
@@ -13096,10 +13096,10 @@
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
+        <v>438</v>
+      </c>
+      <c r="B437" t="s">
         <v>439</v>
-      </c>
-      <c r="B437" t="s">
-        <v>440</v>
       </c>
       <c r="C437" t="s">
         <v>233</v>
@@ -13116,10 +13116,10 @@
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
+        <v>604</v>
+      </c>
+      <c r="B438" t="s">
         <v>605</v>
-      </c>
-      <c r="B438" t="s">
-        <v>606</v>
       </c>
       <c r="C438" t="s">
         <v>233</v>
@@ -13153,7 +13153,7 @@
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B440" t="s">
         <v>149</v>
@@ -13173,10 +13173,10 @@
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B441" t="s">
         <v>1166</v>
-      </c>
-      <c r="B441" t="s">
-        <v>1167</v>
       </c>
       <c r="C441" t="s">
         <v>233</v>
@@ -13210,10 +13210,10 @@
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
+        <v>899</v>
+      </c>
+      <c r="B443" t="s">
         <v>900</v>
-      </c>
-      <c r="B443" t="s">
-        <v>901</v>
       </c>
       <c r="C443" t="s">
         <v>233</v>
@@ -13230,10 +13230,10 @@
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
+        <v>663</v>
+      </c>
+      <c r="B444" t="s">
         <v>664</v>
-      </c>
-      <c r="B444" t="s">
-        <v>665</v>
       </c>
       <c r="C444" t="s">
         <v>233</v>
@@ -13250,10 +13250,10 @@
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
+        <v>722</v>
+      </c>
+      <c r="B445" t="s">
         <v>723</v>
-      </c>
-      <c r="B445" t="s">
-        <v>724</v>
       </c>
       <c r="C445" t="s">
         <v>233</v>
@@ -13287,10 +13287,10 @@
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
+        <v>817</v>
+      </c>
+      <c r="B447" t="s">
         <v>818</v>
-      </c>
-      <c r="B447" t="s">
-        <v>819</v>
       </c>
       <c r="C447" t="s">
         <v>233</v>
@@ -13324,10 +13324,10 @@
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
+        <v>819</v>
+      </c>
+      <c r="B449" t="s">
         <v>820</v>
-      </c>
-      <c r="B449" t="s">
-        <v>821</v>
       </c>
       <c r="C449" t="s">
         <v>233</v>
@@ -13344,10 +13344,10 @@
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
+        <v>815</v>
+      </c>
+      <c r="B450" t="s">
         <v>816</v>
-      </c>
-      <c r="B450" t="s">
-        <v>817</v>
       </c>
       <c r="C450" t="s">
         <v>233</v>
@@ -13364,10 +13364,10 @@
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
+        <v>813</v>
+      </c>
+      <c r="B451" t="s">
         <v>814</v>
-      </c>
-      <c r="B451" t="s">
-        <v>815</v>
       </c>
       <c r="C451" t="s">
         <v>233</v>
@@ -13384,10 +13384,10 @@
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
+        <v>357</v>
+      </c>
+      <c r="B452" t="s">
         <v>358</v>
-      </c>
-      <c r="B452" t="s">
-        <v>359</v>
       </c>
       <c r="C452" t="s">
         <v>233</v>
@@ -13406,8 +13406,8 @@
       <c r="A453" t="s">
         <v>343</v>
       </c>
-      <c r="B453" t="s">
-        <v>344</v>
+      <c r="B453" s="1" t="s">
+        <v>1397</v>
       </c>
       <c r="C453" t="s">
         <v>233</v>
@@ -13424,10 +13424,10 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>1246</v>
-      </c>
-      <c r="B454" t="s">
-        <v>1247</v>
+        <v>1245</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>1398</v>
       </c>
       <c r="C454" t="s">
         <v>233</v>
@@ -13444,10 +13444,10 @@
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="B455" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="C455" t="s">
         <v>233</v>
@@ -13464,10 +13464,10 @@
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B456" t="s">
         <v>1114</v>
-      </c>
-      <c r="B456" t="s">
-        <v>1115</v>
       </c>
       <c r="C456" t="s">
         <v>233</v>
@@ -13484,10 +13484,10 @@
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
+        <v>442</v>
+      </c>
+      <c r="B457" t="s">
         <v>443</v>
-      </c>
-      <c r="B457" t="s">
-        <v>444</v>
       </c>
       <c r="C457" t="s">
         <v>233</v>
@@ -13504,10 +13504,10 @@
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B458" t="s">
         <v>1130</v>
-      </c>
-      <c r="B458" t="s">
-        <v>1131</v>
       </c>
       <c r="C458" t="s">
         <v>233</v>
@@ -13524,10 +13524,10 @@
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
+        <v>496</v>
+      </c>
+      <c r="B459" t="s">
         <v>497</v>
-      </c>
-      <c r="B459" t="s">
-        <v>498</v>
       </c>
       <c r="C459" t="s">
         <v>233</v>
@@ -13544,10 +13544,10 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="B460" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="C460" t="s">
         <v>233</v>
@@ -13581,10 +13581,10 @@
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
+        <v>666</v>
+      </c>
+      <c r="B462" t="s">
         <v>667</v>
-      </c>
-      <c r="B462" t="s">
-        <v>668</v>
       </c>
       <c r="C462" t="s">
         <v>233</v>
@@ -13601,10 +13601,10 @@
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
+        <v>668</v>
+      </c>
+      <c r="B463" t="s">
         <v>669</v>
-      </c>
-      <c r="B463" t="s">
-        <v>670</v>
       </c>
       <c r="C463" t="s">
         <v>233</v>
@@ -13621,10 +13621,10 @@
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
+        <v>622</v>
+      </c>
+      <c r="B464" t="s">
         <v>623</v>
-      </c>
-      <c r="B464" t="s">
-        <v>624</v>
       </c>
       <c r="C464" t="s">
         <v>233</v>
@@ -13661,10 +13661,10 @@
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
+        <v>545</v>
+      </c>
+      <c r="B466" t="s">
         <v>546</v>
-      </c>
-      <c r="B466" t="s">
-        <v>547</v>
       </c>
       <c r="C466" t="s">
         <v>233</v>
@@ -13698,10 +13698,10 @@
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
+        <v>781</v>
+      </c>
+      <c r="B468" t="s">
         <v>782</v>
-      </c>
-      <c r="B468" t="s">
-        <v>783</v>
       </c>
       <c r="C468" t="s">
         <v>233</v>
@@ -13718,10 +13718,10 @@
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B469" t="s">
         <v>1147</v>
-      </c>
-      <c r="B469" t="s">
-        <v>1148</v>
       </c>
       <c r="C469" t="s">
         <v>233</v>
@@ -13738,10 +13738,10 @@
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
+        <v>450</v>
+      </c>
+      <c r="B470" t="s">
         <v>451</v>
-      </c>
-      <c r="B470" t="s">
-        <v>452</v>
       </c>
       <c r="C470" t="s">
         <v>233</v>
@@ -13758,10 +13758,10 @@
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
+        <v>745</v>
+      </c>
+      <c r="B471" t="s">
         <v>746</v>
-      </c>
-      <c r="B471" t="s">
-        <v>747</v>
       </c>
       <c r="C471" t="s">
         <v>233</v>
@@ -13778,10 +13778,10 @@
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B472" t="s">
         <v>1023</v>
-      </c>
-      <c r="B472" t="s">
-        <v>1024</v>
       </c>
       <c r="C472" t="s">
         <v>233</v>
@@ -13798,7 +13798,7 @@
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="B473" t="s">
         <v>308</v>
@@ -13818,7 +13818,7 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="B474" t="s">
         <v>325</v>
@@ -13838,10 +13838,10 @@
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="B475" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C475" t="s">
         <v>233</v>
@@ -13858,10 +13858,10 @@
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="B476" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C476" t="s">
         <v>233</v>
@@ -13878,7 +13878,7 @@
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="B477" t="s">
         <v>303</v>
@@ -13898,10 +13898,10 @@
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="B478" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C478" t="s">
         <v>233</v>
@@ -13918,10 +13918,10 @@
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B479" t="s">
         <v>566</v>
-      </c>
-      <c r="B479" t="s">
-        <v>567</v>
       </c>
       <c r="C479" t="s">
         <v>233</v>
@@ -13938,10 +13938,10 @@
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
+        <v>425</v>
+      </c>
+      <c r="B480" t="s">
         <v>426</v>
-      </c>
-      <c r="B480" t="s">
-        <v>427</v>
       </c>
       <c r="C480" t="s">
         <v>233</v>
@@ -13958,10 +13958,10 @@
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
+        <v>735</v>
+      </c>
+      <c r="B481" t="s">
         <v>736</v>
-      </c>
-      <c r="B481" t="s">
-        <v>737</v>
       </c>
       <c r="C481" t="s">
         <v>233</v>
@@ -13998,10 +13998,10 @@
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
+        <v>422</v>
+      </c>
+      <c r="B483" t="s">
         <v>423</v>
-      </c>
-      <c r="B483" t="s">
-        <v>424</v>
       </c>
       <c r="C483" t="s">
         <v>233</v>
@@ -14018,10 +14018,10 @@
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
+        <v>486</v>
+      </c>
+      <c r="B484" t="s">
         <v>487</v>
-      </c>
-      <c r="B484" t="s">
-        <v>488</v>
       </c>
       <c r="C484" t="s">
         <v>233</v>
@@ -14038,10 +14038,10 @@
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B485" t="s">
         <v>1189</v>
-      </c>
-      <c r="B485" t="s">
-        <v>1190</v>
       </c>
       <c r="C485" t="s">
         <v>233</v>
@@ -14058,10 +14058,10 @@
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B486" t="s">
         <v>1173</v>
-      </c>
-      <c r="B486" t="s">
-        <v>1174</v>
       </c>
       <c r="C486" t="s">
         <v>233</v>
@@ -14078,10 +14078,10 @@
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
+        <v>575</v>
+      </c>
+      <c r="B487" t="s">
         <v>576</v>
-      </c>
-      <c r="B487" t="s">
-        <v>577</v>
       </c>
       <c r="C487" t="s">
         <v>233</v>
@@ -14098,10 +14098,10 @@
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B488" t="s">
         <v>1025</v>
-      </c>
-      <c r="B488" t="s">
-        <v>1026</v>
       </c>
       <c r="C488" t="s">
         <v>233</v>
@@ -14118,10 +14118,10 @@
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
+        <v>879</v>
+      </c>
+      <c r="B489" t="s">
         <v>880</v>
-      </c>
-      <c r="B489" t="s">
-        <v>881</v>
       </c>
       <c r="C489" t="s">
         <v>233</v>
@@ -14158,10 +14158,10 @@
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
+        <v>354</v>
+      </c>
+      <c r="B491" t="s">
         <v>355</v>
-      </c>
-      <c r="B491" t="s">
-        <v>356</v>
       </c>
       <c r="C491" t="s">
         <v>233</v>
@@ -14178,10 +14178,10 @@
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
+        <v>375</v>
+      </c>
+      <c r="B492" t="s">
         <v>376</v>
-      </c>
-      <c r="B492" t="s">
-        <v>377</v>
       </c>
       <c r="C492" t="s">
         <v>233</v>
@@ -14198,10 +14198,10 @@
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="B493" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="C493" t="s">
         <v>233</v>
@@ -14218,10 +14218,10 @@
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B494" t="s">
         <v>1179</v>
-      </c>
-      <c r="B494" t="s">
-        <v>1180</v>
       </c>
       <c r="C494" t="s">
         <v>233</v>
@@ -14238,10 +14238,10 @@
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
+        <v>731</v>
+      </c>
+      <c r="B495" t="s">
         <v>732</v>
-      </c>
-      <c r="B495" t="s">
-        <v>733</v>
       </c>
       <c r="C495" t="s">
         <v>233</v>
@@ -14258,10 +14258,10 @@
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B496" t="s">
         <v>1151</v>
-      </c>
-      <c r="B496" t="s">
-        <v>1152</v>
       </c>
       <c r="C496" t="s">
         <v>233</v>
@@ -14278,10 +14278,10 @@
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
+        <v>600</v>
+      </c>
+      <c r="B497" t="s">
         <v>601</v>
-      </c>
-      <c r="B497" t="s">
-        <v>602</v>
       </c>
       <c r="C497" t="s">
         <v>233</v>
@@ -14338,7 +14338,7 @@
         <v>43</v>
       </c>
       <c r="B500" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C500" t="s">
         <v>233</v>
@@ -14355,10 +14355,10 @@
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="B501" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="C501" t="s">
         <v>233</v>
@@ -14375,10 +14375,10 @@
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
+        <v>361</v>
+      </c>
+      <c r="B502" t="s">
         <v>362</v>
-      </c>
-      <c r="B502" t="s">
-        <v>363</v>
       </c>
       <c r="C502" t="s">
         <v>233</v>
@@ -14449,10 +14449,10 @@
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
+        <v>648</v>
+      </c>
+      <c r="B506" t="s">
         <v>649</v>
-      </c>
-      <c r="B506" t="s">
-        <v>650</v>
       </c>
       <c r="C506" t="s">
         <v>233</v>
@@ -14469,10 +14469,10 @@
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B507" t="s">
         <v>1219</v>
-      </c>
-      <c r="B507" t="s">
-        <v>1220</v>
       </c>
       <c r="C507" t="s">
         <v>233</v>
@@ -14489,10 +14489,10 @@
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
+        <v>997</v>
+      </c>
+      <c r="B508" t="s">
         <v>998</v>
-      </c>
-      <c r="B508" t="s">
-        <v>999</v>
       </c>
       <c r="C508" t="s">
         <v>233</v>
@@ -14509,10 +14509,10 @@
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B509" t="s">
         <v>1008</v>
-      </c>
-      <c r="B509" t="s">
-        <v>1009</v>
       </c>
       <c r="C509" t="s">
         <v>233</v>
@@ -14529,10 +14529,10 @@
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B510" t="s">
         <v>1225</v>
-      </c>
-      <c r="B510" t="s">
-        <v>1226</v>
       </c>
       <c r="C510" t="s">
         <v>233</v>
@@ -14549,10 +14549,10 @@
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B511" t="s">
         <v>1075</v>
-      </c>
-      <c r="B511" t="s">
-        <v>1076</v>
       </c>
       <c r="C511" t="s">
         <v>233</v>
@@ -14569,10 +14569,10 @@
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
+        <v>571</v>
+      </c>
+      <c r="B512" t="s">
         <v>572</v>
-      </c>
-      <c r="B512" t="s">
-        <v>573</v>
       </c>
       <c r="C512" t="s">
         <v>233</v>
@@ -14606,10 +14606,10 @@
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="B514" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="C514" t="s">
         <v>233</v>
@@ -14626,10 +14626,10 @@
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
+        <v>775</v>
+      </c>
+      <c r="B515" t="s">
         <v>776</v>
-      </c>
-      <c r="B515" t="s">
-        <v>777</v>
       </c>
       <c r="C515" t="s">
         <v>233</v>
@@ -14646,10 +14646,10 @@
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
+        <v>946</v>
+      </c>
+      <c r="B516" t="s">
         <v>947</v>
-      </c>
-      <c r="B516" t="s">
-        <v>948</v>
       </c>
       <c r="C516" t="s">
         <v>233</v>
@@ -14666,10 +14666,10 @@
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
+        <v>928</v>
+      </c>
+      <c r="B517" t="s">
         <v>929</v>
-      </c>
-      <c r="B517" t="s">
-        <v>930</v>
       </c>
       <c r="C517" t="s">
         <v>233</v>
@@ -14703,10 +14703,10 @@
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
+        <v>506</v>
+      </c>
+      <c r="B519" t="s">
         <v>507</v>
-      </c>
-      <c r="B519" t="s">
-        <v>508</v>
       </c>
       <c r="C519" t="s">
         <v>233</v>
@@ -14740,10 +14740,10 @@
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
+        <v>434</v>
+      </c>
+      <c r="B521" t="s">
         <v>435</v>
-      </c>
-      <c r="B521" t="s">
-        <v>436</v>
       </c>
       <c r="C521" t="s">
         <v>233</v>
@@ -14780,10 +14780,10 @@
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
+        <v>934</v>
+      </c>
+      <c r="B523" t="s">
         <v>935</v>
-      </c>
-      <c r="B523" t="s">
-        <v>936</v>
       </c>
       <c r="C523" t="s">
         <v>233</v>
@@ -14800,10 +14800,10 @@
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B524" t="s">
         <v>1215</v>
-      </c>
-      <c r="B524" t="s">
-        <v>1216</v>
       </c>
       <c r="C524" t="s">
         <v>233</v>
@@ -14820,10 +14820,10 @@
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B525" t="s">
         <v>1073</v>
-      </c>
-      <c r="B525" t="s">
-        <v>1074</v>
       </c>
       <c r="C525" t="s">
         <v>233</v>
@@ -14840,10 +14840,10 @@
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
+        <v>655</v>
+      </c>
+      <c r="B526" t="s">
         <v>656</v>
-      </c>
-      <c r="B526" t="s">
-        <v>657</v>
       </c>
       <c r="C526" t="s">
         <v>233</v>
@@ -14860,10 +14860,10 @@
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
+        <v>805</v>
+      </c>
+      <c r="B527" t="s">
         <v>806</v>
-      </c>
-      <c r="B527" t="s">
-        <v>807</v>
       </c>
       <c r="C527" t="s">
         <v>233</v>
@@ -14880,10 +14880,10 @@
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B528" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C528" t="s">
         <v>233</v>
@@ -14900,10 +14900,10 @@
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
+        <v>970</v>
+      </c>
+      <c r="B529" t="s">
         <v>971</v>
-      </c>
-      <c r="B529" t="s">
-        <v>972</v>
       </c>
       <c r="C529" t="s">
         <v>233</v>
@@ -14920,10 +14920,10 @@
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B530" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="C530" t="s">
         <v>233</v>
@@ -14960,10 +14960,10 @@
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
+        <v>968</v>
+      </c>
+      <c r="B532" t="s">
         <v>969</v>
-      </c>
-      <c r="B532" t="s">
-        <v>970</v>
       </c>
       <c r="C532" t="s">
         <v>233</v>
@@ -14980,10 +14980,10 @@
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B533" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="C533" t="s">
         <v>233</v>
@@ -15000,10 +15000,10 @@
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
+        <v>809</v>
+      </c>
+      <c r="B534" t="s">
         <v>810</v>
-      </c>
-      <c r="B534" t="s">
-        <v>811</v>
       </c>
       <c r="C534" t="s">
         <v>233</v>
@@ -15054,10 +15054,10 @@
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
+        <v>714</v>
+      </c>
+      <c r="B537" t="s">
         <v>715</v>
-      </c>
-      <c r="B537" t="s">
-        <v>716</v>
       </c>
       <c r="C537" t="s">
         <v>233</v>
@@ -15074,10 +15074,10 @@
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
+        <v>553</v>
+      </c>
+      <c r="B538" t="s">
         <v>554</v>
-      </c>
-      <c r="B538" t="s">
-        <v>555</v>
       </c>
       <c r="C538" t="s">
         <v>233</v>
@@ -15094,10 +15094,10 @@
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
+        <v>845</v>
+      </c>
+      <c r="B539" t="s">
         <v>846</v>
-      </c>
-      <c r="B539" t="s">
-        <v>847</v>
       </c>
       <c r="C539" t="s">
         <v>233</v>
@@ -15114,10 +15114,10 @@
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
+        <v>712</v>
+      </c>
+      <c r="B540" t="s">
         <v>713</v>
-      </c>
-      <c r="B540" t="s">
-        <v>714</v>
       </c>
       <c r="C540" t="s">
         <v>233</v>
@@ -15134,10 +15134,10 @@
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="B541" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="C541" t="s">
         <v>233</v>
@@ -15154,10 +15154,10 @@
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
+        <v>835</v>
+      </c>
+      <c r="B542" t="s">
         <v>836</v>
-      </c>
-      <c r="B542" t="s">
-        <v>837</v>
       </c>
       <c r="C542" t="s">
         <v>233</v>
@@ -15174,10 +15174,10 @@
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
+        <v>920</v>
+      </c>
+      <c r="B543" t="s">
         <v>921</v>
-      </c>
-      <c r="B543" t="s">
-        <v>922</v>
       </c>
       <c r="C543" t="s">
         <v>233</v>
@@ -15194,10 +15194,10 @@
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
+        <v>924</v>
+      </c>
+      <c r="B544" t="s">
         <v>925</v>
-      </c>
-      <c r="B544" t="s">
-        <v>926</v>
       </c>
       <c r="C544" t="s">
         <v>233</v>
@@ -15214,10 +15214,10 @@
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
+        <v>922</v>
+      </c>
+      <c r="B545" t="s">
         <v>923</v>
-      </c>
-      <c r="B545" t="s">
-        <v>924</v>
       </c>
       <c r="C545" t="s">
         <v>233</v>
@@ -15234,10 +15234,10 @@
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B546" t="s">
         <v>1017</v>
-      </c>
-      <c r="B546" t="s">
-        <v>1018</v>
       </c>
       <c r="C546" t="s">
         <v>233</v>
@@ -15254,10 +15254,10 @@
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
+        <v>783</v>
+      </c>
+      <c r="B547" t="s">
         <v>784</v>
-      </c>
-      <c r="B547" t="s">
-        <v>785</v>
       </c>
       <c r="C547" t="s">
         <v>233</v>
@@ -15274,10 +15274,10 @@
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
+        <v>579</v>
+      </c>
+      <c r="B548" t="s">
         <v>580</v>
-      </c>
-      <c r="B548" t="s">
-        <v>581</v>
       </c>
       <c r="C548" t="s">
         <v>233</v>
@@ -15294,10 +15294,10 @@
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
+        <v>379</v>
+      </c>
+      <c r="B549" t="s">
         <v>380</v>
-      </c>
-      <c r="B549" t="s">
-        <v>381</v>
       </c>
       <c r="C549" t="s">
         <v>233</v>
@@ -15314,10 +15314,10 @@
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
+        <v>851</v>
+      </c>
+      <c r="B550" t="s">
         <v>852</v>
-      </c>
-      <c r="B550" t="s">
-        <v>853</v>
       </c>
       <c r="C550" t="s">
         <v>233</v>
@@ -15334,7 +15334,7 @@
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C551" t="s">
         <v>233</v>
@@ -15351,10 +15351,10 @@
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B552" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C552" t="s">
         <v>233</v>
@@ -15371,10 +15371,10 @@
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
+        <v>646</v>
+      </c>
+      <c r="B553" t="s">
         <v>647</v>
-      </c>
-      <c r="B553" t="s">
-        <v>648</v>
       </c>
       <c r="C553" t="s">
         <v>233</v>
@@ -15391,10 +15391,10 @@
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
+        <v>381</v>
+      </c>
+      <c r="B554" t="s">
         <v>382</v>
-      </c>
-      <c r="B554" t="s">
-        <v>383</v>
       </c>
       <c r="C554" t="s">
         <v>233</v>
@@ -15411,10 +15411,10 @@
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
+        <v>980</v>
+      </c>
+      <c r="B555" t="s">
         <v>981</v>
-      </c>
-      <c r="B555" t="s">
-        <v>982</v>
       </c>
       <c r="C555" t="s">
         <v>233</v>
@@ -15431,10 +15431,10 @@
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B556" t="s">
         <v>1097</v>
-      </c>
-      <c r="B556" t="s">
-        <v>1098</v>
       </c>
       <c r="C556" t="s">
         <v>233</v>
@@ -15451,10 +15451,10 @@
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="B557" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="C557" t="s">
         <v>233</v>
@@ -15559,10 +15559,10 @@
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
+        <v>638</v>
+      </c>
+      <c r="B563" t="s">
         <v>639</v>
-      </c>
-      <c r="B563" t="s">
-        <v>640</v>
       </c>
       <c r="C563" t="s">
         <v>233</v>
@@ -15579,10 +15579,10 @@
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
+        <v>640</v>
+      </c>
+      <c r="B564" t="s">
         <v>641</v>
-      </c>
-      <c r="B564" t="s">
-        <v>642</v>
       </c>
       <c r="C564" t="s">
         <v>233</v>
@@ -15599,10 +15599,10 @@
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B565" t="s">
         <v>1021</v>
-      </c>
-      <c r="B565" t="s">
-        <v>1022</v>
       </c>
       <c r="C565" t="s">
         <v>233</v>
@@ -15619,10 +15619,10 @@
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
+        <v>839</v>
+      </c>
+      <c r="B566" t="s">
         <v>840</v>
-      </c>
-      <c r="B566" t="s">
-        <v>841</v>
       </c>
       <c r="C566" t="s">
         <v>233</v>
@@ -15639,10 +15639,10 @@
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
+        <v>952</v>
+      </c>
+      <c r="B567" t="s">
         <v>953</v>
-      </c>
-      <c r="B567" t="s">
-        <v>954</v>
       </c>
       <c r="C567" t="s">
         <v>233</v>
@@ -15659,10 +15659,10 @@
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
+        <v>446</v>
+      </c>
+      <c r="B568" t="s">
         <v>447</v>
-      </c>
-      <c r="B568" t="s">
-        <v>448</v>
       </c>
       <c r="C568" t="s">
         <v>233</v>
@@ -15679,10 +15679,10 @@
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
+        <v>400</v>
+      </c>
+      <c r="B569" t="s">
         <v>401</v>
-      </c>
-      <c r="B569" t="s">
-        <v>402</v>
       </c>
       <c r="C569" t="s">
         <v>233</v>
@@ -15699,10 +15699,10 @@
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B570" t="s">
         <v>1233</v>
-      </c>
-      <c r="B570" t="s">
-        <v>1234</v>
       </c>
       <c r="C570" t="s">
         <v>233</v>
@@ -15739,10 +15739,10 @@
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
+        <v>346</v>
+      </c>
+      <c r="B572" t="s">
         <v>347</v>
-      </c>
-      <c r="B572" t="s">
-        <v>348</v>
       </c>
       <c r="C572" t="s">
         <v>233</v>
@@ -15759,10 +15759,10 @@
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
+        <v>957</v>
+      </c>
+      <c r="B573" t="s">
         <v>958</v>
-      </c>
-      <c r="B573" t="s">
-        <v>959</v>
       </c>
       <c r="C573" t="s">
         <v>233</v>
@@ -15779,10 +15779,10 @@
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
+        <v>626</v>
+      </c>
+      <c r="B574" t="s">
         <v>627</v>
-      </c>
-      <c r="B574" t="s">
-        <v>628</v>
       </c>
       <c r="C574" t="s">
         <v>233</v>
@@ -15799,10 +15799,10 @@
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
+        <v>628</v>
+      </c>
+      <c r="B575" t="s">
         <v>629</v>
-      </c>
-      <c r="B575" t="s">
-        <v>630</v>
       </c>
       <c r="C575" t="s">
         <v>233</v>
@@ -15819,10 +15819,10 @@
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B576" t="s">
         <v>1170</v>
-      </c>
-      <c r="B576" t="s">
-        <v>1171</v>
       </c>
       <c r="C576" t="s">
         <v>233</v>
@@ -15859,10 +15859,10 @@
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="B578" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="C578" t="s">
         <v>233</v>
@@ -15879,10 +15879,10 @@
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B579" t="s">
         <v>1223</v>
-      </c>
-      <c r="B579" t="s">
-        <v>1224</v>
       </c>
       <c r="C579" t="s">
         <v>233</v>
@@ -15899,10 +15899,10 @@
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
+        <v>598</v>
+      </c>
+      <c r="B580" t="s">
         <v>599</v>
-      </c>
-      <c r="B580" t="s">
-        <v>600</v>
       </c>
       <c r="C580" t="s">
         <v>233</v>
@@ -15919,10 +15919,10 @@
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="B581" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="C581" t="s">
         <v>233</v>
@@ -15939,10 +15939,10 @@
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B582" t="s">
         <v>1235</v>
-      </c>
-      <c r="B582" t="s">
-        <v>1236</v>
       </c>
       <c r="C582" t="s">
         <v>233</v>
@@ -15959,10 +15959,10 @@
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
+        <v>634</v>
+      </c>
+      <c r="B583" t="s">
         <v>635</v>
-      </c>
-      <c r="B583" t="s">
-        <v>636</v>
       </c>
       <c r="C583" t="s">
         <v>233</v>
@@ -15979,10 +15979,10 @@
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B584" t="s">
         <v>1091</v>
-      </c>
-      <c r="B584" t="s">
-        <v>1092</v>
       </c>
       <c r="C584" t="s">
         <v>233</v>
@@ -15999,10 +15999,10 @@
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
+        <v>402</v>
+      </c>
+      <c r="B585" t="s">
         <v>403</v>
-      </c>
-      <c r="B585" t="s">
-        <v>404</v>
       </c>
       <c r="C585" t="s">
         <v>233</v>
@@ -16019,10 +16019,10 @@
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B586" t="s">
         <v>1136</v>
-      </c>
-      <c r="B586" t="s">
-        <v>1137</v>
       </c>
       <c r="C586" t="s">
         <v>233</v>
@@ -16039,10 +16039,10 @@
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B587" t="s">
         <v>1145</v>
-      </c>
-      <c r="B587" t="s">
-        <v>1146</v>
       </c>
       <c r="C587" t="s">
         <v>233</v>
@@ -16076,10 +16076,10 @@
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
+        <v>569</v>
+      </c>
+      <c r="B589" t="s">
         <v>570</v>
-      </c>
-      <c r="B589" t="s">
-        <v>571</v>
       </c>
       <c r="C589" t="s">
         <v>233</v>
@@ -16130,10 +16130,10 @@
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
+        <v>681</v>
+      </c>
+      <c r="B592" t="s">
         <v>682</v>
-      </c>
-      <c r="B592" t="s">
-        <v>683</v>
       </c>
       <c r="C592" t="s">
         <v>233</v>
@@ -16150,10 +16150,10 @@
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
+        <v>480</v>
+      </c>
+      <c r="B593" t="s">
         <v>481</v>
-      </c>
-      <c r="B593" t="s">
-        <v>482</v>
       </c>
       <c r="C593" t="s">
         <v>233</v>
@@ -16170,10 +16170,10 @@
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
+        <v>724</v>
+      </c>
+      <c r="B594" t="s">
         <v>725</v>
-      </c>
-      <c r="B594" t="s">
-        <v>726</v>
       </c>
       <c r="C594" t="s">
         <v>233</v>
@@ -16190,10 +16190,10 @@
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
+        <v>537</v>
+      </c>
+      <c r="B595" t="s">
         <v>538</v>
-      </c>
-      <c r="B595" t="s">
-        <v>539</v>
       </c>
       <c r="C595" t="s">
         <v>233</v>
@@ -16210,10 +16210,10 @@
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
+        <v>373</v>
+      </c>
+      <c r="B596" t="s">
         <v>374</v>
-      </c>
-      <c r="B596" t="s">
-        <v>375</v>
       </c>
       <c r="C596" t="s">
         <v>233</v>
@@ -16230,7 +16230,7 @@
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C597" t="s">
         <v>233</v>
@@ -16247,10 +16247,10 @@
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
+        <v>543</v>
+      </c>
+      <c r="B598" t="s">
         <v>544</v>
-      </c>
-      <c r="B598" t="s">
-        <v>545</v>
       </c>
       <c r="C598" t="s">
         <v>233</v>
@@ -16267,10 +16267,10 @@
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
+        <v>384</v>
+      </c>
+      <c r="B599" t="s">
         <v>385</v>
-      </c>
-      <c r="B599" t="s">
-        <v>386</v>
       </c>
       <c r="C599" t="s">
         <v>233</v>
@@ -16287,10 +16287,10 @@
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B600" t="s">
         <v>1141</v>
-      </c>
-      <c r="B600" t="s">
-        <v>1142</v>
       </c>
       <c r="C600" t="s">
         <v>233</v>
@@ -16324,10 +16324,10 @@
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
+        <v>978</v>
+      </c>
+      <c r="B602" t="s">
         <v>979</v>
-      </c>
-      <c r="B602" t="s">
-        <v>980</v>
       </c>
       <c r="C602" t="s">
         <v>233</v>
@@ -16344,10 +16344,10 @@
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
+        <v>512</v>
+      </c>
+      <c r="B603" t="s">
         <v>513</v>
-      </c>
-      <c r="B603" t="s">
-        <v>514</v>
       </c>
       <c r="C603" t="s">
         <v>233</v>
@@ -16381,10 +16381,10 @@
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
+        <v>350</v>
+      </c>
+      <c r="B605" t="s">
         <v>351</v>
-      </c>
-      <c r="B605" t="s">
-        <v>352</v>
       </c>
       <c r="C605" t="s">
         <v>233</v>
@@ -16401,10 +16401,10 @@
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B606" t="s">
         <v>1191</v>
-      </c>
-      <c r="B606" t="s">
-        <v>1192</v>
       </c>
       <c r="C606" t="s">
         <v>233</v>
@@ -16421,10 +16421,10 @@
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
+        <v>359</v>
+      </c>
+      <c r="B607" t="s">
         <v>360</v>
-      </c>
-      <c r="B607" t="s">
-        <v>361</v>
       </c>
       <c r="C607" t="s">
         <v>233</v>
@@ -16458,10 +16458,10 @@
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
+        <v>410</v>
+      </c>
+      <c r="B609" t="s">
         <v>411</v>
-      </c>
-      <c r="B609" t="s">
-        <v>412</v>
       </c>
       <c r="C609" t="s">
         <v>233</v>
@@ -16478,10 +16478,10 @@
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
+        <v>650</v>
+      </c>
+      <c r="B610" t="s">
         <v>651</v>
-      </c>
-      <c r="B610" t="s">
-        <v>652</v>
       </c>
       <c r="C610" t="s">
         <v>233</v>
@@ -16515,10 +16515,10 @@
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
+        <v>606</v>
+      </c>
+      <c r="B612" t="s">
         <v>607</v>
-      </c>
-      <c r="B612" t="s">
-        <v>608</v>
       </c>
       <c r="C612" t="s">
         <v>233</v>
@@ -16535,10 +16535,10 @@
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
+        <v>791</v>
+      </c>
+      <c r="B613" t="s">
         <v>792</v>
-      </c>
-      <c r="B613" t="s">
-        <v>793</v>
       </c>
       <c r="C613" t="s">
         <v>233</v>
@@ -16555,10 +16555,10 @@
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
+        <v>510</v>
+      </c>
+      <c r="B614" t="s">
         <v>511</v>
-      </c>
-      <c r="B614" t="s">
-        <v>512</v>
       </c>
       <c r="C614" t="s">
         <v>233</v>
@@ -16592,10 +16592,10 @@
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
+        <v>454</v>
+      </c>
+      <c r="B616" t="s">
         <v>455</v>
-      </c>
-      <c r="B616" t="s">
-        <v>456</v>
       </c>
       <c r="C616" t="s">
         <v>233</v>
@@ -16612,10 +16612,10 @@
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
+        <v>524</v>
+      </c>
+      <c r="B617" t="s">
         <v>525</v>
-      </c>
-      <c r="B617" t="s">
-        <v>526</v>
       </c>
       <c r="C617" t="s">
         <v>233</v>
@@ -16632,10 +16632,10 @@
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
+        <v>769</v>
+      </c>
+      <c r="B618" t="s">
         <v>770</v>
-      </c>
-      <c r="B618" t="s">
-        <v>771</v>
       </c>
       <c r="C618" t="s">
         <v>233</v>
@@ -16652,10 +16652,10 @@
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="B619" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="C619" t="s">
         <v>233</v>
@@ -16672,10 +16672,10 @@
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
+        <v>610</v>
+      </c>
+      <c r="B620" t="s">
         <v>611</v>
-      </c>
-      <c r="B620" t="s">
-        <v>612</v>
       </c>
       <c r="C620" t="s">
         <v>233</v>
@@ -16692,10 +16692,10 @@
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
+        <v>516</v>
+      </c>
+      <c r="B621" t="s">
         <v>517</v>
-      </c>
-      <c r="B621" t="s">
-        <v>518</v>
       </c>
       <c r="C621" t="s">
         <v>233</v>
@@ -16712,10 +16712,10 @@
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
+        <v>863</v>
+      </c>
+      <c r="B622" t="s">
         <v>864</v>
-      </c>
-      <c r="B622" t="s">
-        <v>865</v>
       </c>
       <c r="C622" t="s">
         <v>233</v>
@@ -16735,7 +16735,7 @@
         <v>134</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="C623" t="s">
         <v>1</v>
@@ -16749,10 +16749,10 @@
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
+        <v>582</v>
+      </c>
+      <c r="B624" t="s">
         <v>583</v>
-      </c>
-      <c r="B624" t="s">
-        <v>584</v>
       </c>
       <c r="C624" t="s">
         <v>233</v>
@@ -16769,10 +16769,10 @@
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
+        <v>793</v>
+      </c>
+      <c r="B625" t="s">
         <v>794</v>
-      </c>
-      <c r="B625" t="s">
-        <v>795</v>
       </c>
       <c r="C625" t="s">
         <v>233</v>
@@ -16789,10 +16789,10 @@
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
+        <v>865</v>
+      </c>
+      <c r="B626" t="s">
         <v>866</v>
-      </c>
-      <c r="B626" t="s">
-        <v>867</v>
       </c>
       <c r="C626" t="s">
         <v>233</v>
@@ -16809,10 +16809,10 @@
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
+        <v>476</v>
+      </c>
+      <c r="B627" t="s">
         <v>477</v>
-      </c>
-      <c r="B627" t="s">
-        <v>478</v>
       </c>
       <c r="C627" t="s">
         <v>233</v>
@@ -16829,10 +16829,10 @@
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B628" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="C628" t="s">
         <v>233</v>
@@ -16849,10 +16849,10 @@
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="B629" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C629" t="s">
         <v>233</v>
@@ -16869,10 +16869,10 @@
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B630" t="s">
         <v>1183</v>
-      </c>
-      <c r="B630" t="s">
-        <v>1184</v>
       </c>
       <c r="C630" t="s">
         <v>233</v>
@@ -16889,10 +16889,10 @@
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
+        <v>412</v>
+      </c>
+      <c r="B631" t="s">
         <v>413</v>
-      </c>
-      <c r="B631" t="s">
-        <v>414</v>
       </c>
       <c r="C631" t="s">
         <v>233</v>
@@ -16909,10 +16909,10 @@
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
+        <v>726</v>
+      </c>
+      <c r="B632" t="s">
         <v>727</v>
-      </c>
-      <c r="B632" t="s">
-        <v>728</v>
       </c>
       <c r="C632" t="s">
         <v>233</v>
@@ -16929,10 +16929,10 @@
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
+        <v>883</v>
+      </c>
+      <c r="B633" t="s">
         <v>884</v>
-      </c>
-      <c r="B633" t="s">
-        <v>885</v>
       </c>
       <c r="C633" t="s">
         <v>233</v>
@@ -16949,10 +16949,10 @@
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="B634" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="C634" t="s">
         <v>233</v>
@@ -16986,10 +16986,10 @@
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
+        <v>787</v>
+      </c>
+      <c r="B636" t="s">
         <v>788</v>
-      </c>
-      <c r="B636" t="s">
-        <v>789</v>
       </c>
       <c r="C636" t="s">
         <v>233</v>
@@ -17006,10 +17006,10 @@
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
+        <v>964</v>
+      </c>
+      <c r="B637" t="s">
         <v>965</v>
-      </c>
-      <c r="B637" t="s">
-        <v>966</v>
       </c>
       <c r="C637" t="s">
         <v>233</v>
@@ -17026,10 +17026,10 @@
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B638" t="s">
         <v>1081</v>
-      </c>
-      <c r="B638" t="s">
-        <v>1082</v>
       </c>
       <c r="C638" t="s">
         <v>233</v>
@@ -17046,10 +17046,10 @@
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
+        <v>614</v>
+      </c>
+      <c r="B639" t="s">
         <v>615</v>
-      </c>
-      <c r="B639" t="s">
-        <v>616</v>
       </c>
       <c r="C639" t="s">
         <v>233</v>
@@ -17066,10 +17066,10 @@
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="B640" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="C640" t="s">
         <v>233</v>
@@ -17086,10 +17086,10 @@
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="B641" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="C641" t="s">
         <v>233</v>
@@ -17106,10 +17106,10 @@
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B642" t="s">
         <v>1149</v>
-      </c>
-      <c r="B642" t="s">
-        <v>1150</v>
       </c>
       <c r="C642" t="s">
         <v>233</v>
@@ -17126,10 +17126,10 @@
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B643" t="s">
         <v>1155</v>
-      </c>
-      <c r="B643" t="s">
-        <v>1156</v>
       </c>
       <c r="C643" t="s">
         <v>233</v>
@@ -17146,7 +17146,7 @@
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C644" t="s">
         <v>233</v>
@@ -17180,10 +17180,10 @@
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B646" t="s">
         <v>1162</v>
-      </c>
-      <c r="B646" t="s">
-        <v>1163</v>
       </c>
       <c r="C646" t="s">
         <v>233</v>
@@ -17200,10 +17200,10 @@
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="B647" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C647" t="s">
         <v>233</v>
@@ -17220,10 +17220,10 @@
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="B648" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="C648" t="s">
         <v>233</v>
@@ -17257,10 +17257,10 @@
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
+        <v>889</v>
+      </c>
+      <c r="B650" t="s">
         <v>890</v>
-      </c>
-      <c r="B650" t="s">
-        <v>891</v>
       </c>
       <c r="C650" t="s">
         <v>233</v>
@@ -17277,10 +17277,10 @@
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
+        <v>644</v>
+      </c>
+      <c r="B651" t="s">
         <v>645</v>
-      </c>
-      <c r="B651" t="s">
-        <v>646</v>
       </c>
       <c r="C651" t="s">
         <v>233</v>
@@ -17297,10 +17297,10 @@
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B652" t="s">
         <v>1045</v>
-      </c>
-      <c r="B652" t="s">
-        <v>1046</v>
       </c>
       <c r="C652" t="s">
         <v>233</v>
@@ -17317,10 +17317,10 @@
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B653" t="s">
         <v>1177</v>
-      </c>
-      <c r="B653" t="s">
-        <v>1178</v>
       </c>
       <c r="C653" t="s">
         <v>233</v>
@@ -17371,10 +17371,10 @@
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
+        <v>616</v>
+      </c>
+      <c r="B656" t="s">
         <v>617</v>
-      </c>
-      <c r="B656" t="s">
-        <v>618</v>
       </c>
       <c r="C656" t="s">
         <v>233</v>
@@ -17391,10 +17391,10 @@
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
+        <v>867</v>
+      </c>
+      <c r="B657" t="s">
         <v>868</v>
-      </c>
-      <c r="B657" t="s">
-        <v>869</v>
       </c>
       <c r="C657" t="s">
         <v>233</v>
@@ -17451,10 +17451,10 @@
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
+        <v>541</v>
+      </c>
+      <c r="B660" t="s">
         <v>542</v>
-      </c>
-      <c r="B660" t="s">
-        <v>543</v>
       </c>
       <c r="C660" t="s">
         <v>233</v>
@@ -17471,10 +17471,10 @@
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
+        <v>936</v>
+      </c>
+      <c r="B661" t="s">
         <v>937</v>
-      </c>
-      <c r="B661" t="s">
-        <v>938</v>
       </c>
       <c r="C661" t="s">
         <v>233</v>
@@ -17491,10 +17491,10 @@
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B662" t="s">
         <v>1099</v>
-      </c>
-      <c r="B662" t="s">
-        <v>1100</v>
       </c>
       <c r="C662" t="s">
         <v>233</v>
@@ -17511,10 +17511,10 @@
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
+        <v>948</v>
+      </c>
+      <c r="B663" t="s">
         <v>949</v>
-      </c>
-      <c r="B663" t="s">
-        <v>950</v>
       </c>
       <c r="C663" t="s">
         <v>233</v>
@@ -17548,10 +17548,10 @@
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
+        <v>436</v>
+      </c>
+      <c r="B665" t="s">
         <v>437</v>
-      </c>
-      <c r="B665" t="s">
-        <v>438</v>
       </c>
       <c r="C665" t="s">
         <v>233</v>
@@ -17568,10 +17568,10 @@
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
+        <v>577</v>
+      </c>
+      <c r="B666" t="s">
         <v>578</v>
-      </c>
-      <c r="B666" t="s">
-        <v>579</v>
       </c>
       <c r="C666" t="s">
         <v>233</v>
@@ -17605,10 +17605,10 @@
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
+        <v>482</v>
+      </c>
+      <c r="B668" t="s">
         <v>483</v>
-      </c>
-      <c r="B668" t="s">
-        <v>484</v>
       </c>
       <c r="C668" t="s">
         <v>233</v>
@@ -17642,10 +17642,10 @@
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
+        <v>414</v>
+      </c>
+      <c r="B670" t="s">
         <v>415</v>
-      </c>
-      <c r="B670" t="s">
-        <v>416</v>
       </c>
       <c r="C670" t="s">
         <v>233</v>
@@ -17682,10 +17682,10 @@
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B672" t="s">
         <v>1175</v>
-      </c>
-      <c r="B672" t="s">
-        <v>1176</v>
       </c>
       <c r="C672" t="s">
         <v>233</v>
@@ -17702,10 +17702,10 @@
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B673" t="s">
         <v>1185</v>
-      </c>
-      <c r="B673" t="s">
-        <v>1186</v>
       </c>
       <c r="C673" t="s">
         <v>233</v>
@@ -17722,10 +17722,10 @@
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
+        <v>827</v>
+      </c>
+      <c r="B674" t="s">
         <v>828</v>
-      </c>
-      <c r="B674" t="s">
-        <v>829</v>
       </c>
       <c r="C674" t="s">
         <v>233</v>
@@ -17742,10 +17742,10 @@
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
+        <v>932</v>
+      </c>
+      <c r="B675" t="s">
         <v>933</v>
-      </c>
-      <c r="B675" t="s">
-        <v>934</v>
       </c>
       <c r="C675" t="s">
         <v>233</v>
@@ -17762,10 +17762,10 @@
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
+        <v>573</v>
+      </c>
+      <c r="B676" t="s">
         <v>574</v>
-      </c>
-      <c r="B676" t="s">
-        <v>575</v>
       </c>
       <c r="C676" t="s">
         <v>233</v>
@@ -17782,10 +17782,10 @@
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
+        <v>807</v>
+      </c>
+      <c r="B677" t="s">
         <v>808</v>
-      </c>
-      <c r="B677" t="s">
-        <v>809</v>
       </c>
       <c r="C677" t="s">
         <v>233</v>
@@ -17802,10 +17802,10 @@
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
+        <v>429</v>
+      </c>
+      <c r="B678" t="s">
         <v>430</v>
-      </c>
-      <c r="B678" t="s">
-        <v>431</v>
       </c>
       <c r="C678" t="s">
         <v>233</v>
@@ -17822,10 +17822,10 @@
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
+        <v>753</v>
+      </c>
+      <c r="B679" t="s">
         <v>754</v>
-      </c>
-      <c r="B679" t="s">
-        <v>755</v>
       </c>
       <c r="C679" t="s">
         <v>233</v>
@@ -17842,10 +17842,10 @@
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
+        <v>938</v>
+      </c>
+      <c r="B680" t="s">
         <v>939</v>
-      </c>
-      <c r="B680" t="s">
-        <v>940</v>
       </c>
       <c r="C680" t="s">
         <v>233</v>
@@ -17862,10 +17862,10 @@
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B681" t="s">
         <v>1010</v>
-      </c>
-      <c r="B681" t="s">
-        <v>1011</v>
       </c>
       <c r="C681" t="s">
         <v>233</v>
@@ -17882,10 +17882,10 @@
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
+        <v>563</v>
+      </c>
+      <c r="B682" t="s">
         <v>564</v>
-      </c>
-      <c r="B682" t="s">
-        <v>565</v>
       </c>
       <c r="C682" t="s">
         <v>233</v>
@@ -17902,10 +17902,10 @@
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
+        <v>857</v>
+      </c>
+      <c r="B683" t="s">
         <v>858</v>
-      </c>
-      <c r="B683" t="s">
-        <v>859</v>
       </c>
       <c r="C683" t="s">
         <v>233</v>
@@ -17922,10 +17922,10 @@
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B684" t="s">
         <v>1110</v>
-      </c>
-      <c r="B684" t="s">
-        <v>1111</v>
       </c>
       <c r="C684" t="s">
         <v>233</v>
@@ -17982,7 +17982,7 @@
         <v>57</v>
       </c>
       <c r="B687" s="1" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="C687" t="s">
         <v>58</v>
@@ -17996,10 +17996,10 @@
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
+        <v>522</v>
+      </c>
+      <c r="B688" t="s">
         <v>523</v>
-      </c>
-      <c r="B688" t="s">
-        <v>524</v>
       </c>
       <c r="C688" t="s">
         <v>233</v>
@@ -18016,10 +18016,10 @@
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
+        <v>624</v>
+      </c>
+      <c r="B689" t="s">
         <v>625</v>
-      </c>
-      <c r="B689" t="s">
-        <v>626</v>
       </c>
       <c r="C689" t="s">
         <v>233</v>
@@ -18039,7 +18039,7 @@
         <v>139</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="C690" t="s">
         <v>1</v>
@@ -18053,10 +18053,10 @@
     </row>
     <row r="691" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
+        <v>763</v>
+      </c>
+      <c r="B691" t="s">
         <v>764</v>
-      </c>
-      <c r="B691" t="s">
-        <v>765</v>
       </c>
       <c r="C691" t="s">
         <v>233</v>
@@ -18073,10 +18073,10 @@
     </row>
     <row r="692" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="B692" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="C692" t="s">
         <v>233</v>
@@ -18096,7 +18096,7 @@
         <v>59</v>
       </c>
       <c r="B693" s="1" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="C693" t="s">
         <v>58</v>
@@ -18127,10 +18127,10 @@
     </row>
     <row r="695" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
+        <v>396</v>
+      </c>
+      <c r="B695" t="s">
         <v>397</v>
-      </c>
-      <c r="B695" t="s">
-        <v>398</v>
       </c>
       <c r="C695" t="s">
         <v>233</v>
@@ -18167,10 +18167,10 @@
     </row>
     <row r="697" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
+        <v>841</v>
+      </c>
+      <c r="B697" t="s">
         <v>842</v>
-      </c>
-      <c r="B697" t="s">
-        <v>843</v>
       </c>
       <c r="C697" t="s">
         <v>233</v>
@@ -18187,10 +18187,10 @@
     </row>
     <row r="698" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
+        <v>549</v>
+      </c>
+      <c r="B698" t="s">
         <v>550</v>
-      </c>
-      <c r="B698" t="s">
-        <v>551</v>
       </c>
       <c r="C698" t="s">
         <v>233</v>
@@ -18227,10 +18227,10 @@
     </row>
     <row r="700" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B700" t="s">
         <v>1127</v>
-      </c>
-      <c r="B700" t="s">
-        <v>1128</v>
       </c>
       <c r="C700" t="s">
         <v>233</v>
@@ -18247,10 +18247,10 @@
     </row>
     <row r="701" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
+        <v>825</v>
+      </c>
+      <c r="B701" t="s">
         <v>826</v>
-      </c>
-      <c r="B701" t="s">
-        <v>827</v>
       </c>
       <c r="C701" t="s">
         <v>233</v>
@@ -18267,10 +18267,10 @@
     </row>
     <row r="702" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
+        <v>885</v>
+      </c>
+      <c r="B702" t="s">
         <v>886</v>
-      </c>
-      <c r="B702" t="s">
-        <v>887</v>
       </c>
       <c r="C702" t="s">
         <v>233</v>
@@ -18287,10 +18287,10 @@
     </row>
     <row r="703" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
+        <v>940</v>
+      </c>
+      <c r="B703" t="s">
         <v>941</v>
-      </c>
-      <c r="B703" t="s">
-        <v>942</v>
       </c>
       <c r="C703" t="s">
         <v>233</v>
@@ -18307,10 +18307,10 @@
     </row>
     <row r="704" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="B704" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="C704" t="s">
         <v>233</v>
@@ -18327,10 +18327,10 @@
     </row>
     <row r="705" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
+        <v>893</v>
+      </c>
+      <c r="B705" t="s">
         <v>894</v>
-      </c>
-      <c r="B705" t="s">
-        <v>895</v>
       </c>
       <c r="C705" t="s">
         <v>233</v>
@@ -18347,7 +18347,7 @@
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="B706" t="s">
         <v>232</v>
@@ -18367,7 +18367,7 @@
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="B707" t="s">
         <v>232</v>
@@ -18402,8 +18402,10 @@
     <hyperlink ref="B143" r:id="rId13" xr:uid="{CDB438B1-006B-4DFB-89E8-D2D1CCBA5052}"/>
     <hyperlink ref="B219" r:id="rId14" xr:uid="{339843D2-85DC-4628-A722-25E26AA8AF0D}"/>
     <hyperlink ref="B30" r:id="rId15" xr:uid="{215A46A2-82E0-4B6D-B504-0E5A5A70C33F}"/>
+    <hyperlink ref="B453" r:id="rId16" xr:uid="{7456A75E-B322-40A3-B0C6-9F7EA724B355}"/>
+    <hyperlink ref="B454" r:id="rId17" xr:uid="{AC1E1B17-333E-4473-AA0B-084C855E2282}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/jogos.xlsx
+++ b/jogos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\mycollections-cli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A059DAD3-37DE-4CC7-A91F-19ED77C902FB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29693EC9-12F8-4A06-AF0E-59EE18821250}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{0C35237A-6EB4-4B02-9651-931FED775CEC}"/>
   </bookViews>
@@ -3789,9 +3789,6 @@
     <t>The Tiny Bang Story</t>
   </si>
   <si>
-    <t>http://media.steampowered.com/steamcommunity/public/images/apps/96000/190760c7966fda0b4be9605de836e031f448fc49.jpg</t>
-  </si>
-  <si>
     <t>http://media.steampowered.com/steamcommunity/public/images/apps/12230/0e73825e3abd7bfe43b55a49bbcb862aee7c2e71.jpg</t>
   </si>
   <si>
@@ -4228,6 +4225,9 @@
   </si>
   <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQoCbHaSnD7Xanw7k9aL5Y-FBr8GNouCHm8TmC-G5zX-bkG1H6F</t>
+  </si>
+  <si>
+    <t>http://eucurtogames.com.br/wp-content/uploads/2018/09/apps.29866.9007199266365547.d9b2840a-cb1f-45b3-8c6b-ef1366711bbd.jpg</t>
   </si>
 </sst>
 </file>
@@ -4601,8 +4601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E073D1A-5126-4785-A652-5C66939BBDE3}">
   <dimension ref="A1:F707"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="B455" sqref="B455"/>
+    <sheetView tabSelected="1" topLeftCell="A595" workbookViewId="0">
+      <selection activeCell="B629" sqref="B629"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4636,10 +4636,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B2" t="s">
         <v>1291</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1292</v>
       </c>
       <c r="C2" t="s">
         <v>233</v>
@@ -4756,10 +4756,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B8" t="s">
         <v>1315</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1316</v>
       </c>
       <c r="C8" t="s">
         <v>233</v>
@@ -4776,10 +4776,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B9" t="s">
         <v>1280</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1281</v>
       </c>
       <c r="C9" t="s">
         <v>233</v>
@@ -4833,10 +4833,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B12" t="s">
         <v>1327</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1328</v>
       </c>
       <c r="C12" t="s">
         <v>233</v>
@@ -4930,10 +4930,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B17" t="s">
         <v>1359</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1360</v>
       </c>
       <c r="C17" t="s">
         <v>233</v>
@@ -5124,7 +5124,7 @@
         <v>121</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C27" t="s">
         <v>58</v>
@@ -5178,7 +5178,7 @@
         <v>1246</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="C30" t="s">
         <v>233</v>
@@ -5275,7 +5275,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B35" t="s">
         <v>28</v>
@@ -5292,10 +5292,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B36" t="s">
         <v>1349</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1350</v>
       </c>
       <c r="C36" t="s">
         <v>233</v>
@@ -5574,10 +5574,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B51" t="s">
         <v>1311</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1312</v>
       </c>
       <c r="C51" t="s">
         <v>233</v>
@@ -5597,7 +5597,7 @@
         <v>84</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C52" t="s">
         <v>58</v>
@@ -5888,10 +5888,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B67" t="s">
         <v>1276</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1277</v>
       </c>
       <c r="C67" t="s">
         <v>233</v>
@@ -6182,10 +6182,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B82" t="s">
         <v>1301</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1302</v>
       </c>
       <c r="C82" t="s">
         <v>233</v>
@@ -6439,10 +6439,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B95" t="s">
         <v>1319</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1320</v>
       </c>
       <c r="C95" t="s">
         <v>233</v>
@@ -6476,10 +6476,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B97" t="s">
         <v>1260</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1261</v>
       </c>
       <c r="C97" t="s">
         <v>233</v>
@@ -6576,10 +6576,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B102" t="s">
         <v>1286</v>
-      </c>
-      <c r="B102" t="s">
-        <v>1287</v>
       </c>
       <c r="C102" t="s">
         <v>233</v>
@@ -6659,7 +6659,7 @@
         <v>1244</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C106" t="s">
         <v>233</v>
@@ -7161,10 +7161,10 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B132" t="s">
         <v>1361</v>
-      </c>
-      <c r="B132" t="s">
-        <v>1362</v>
       </c>
       <c r="C132" t="s">
         <v>233</v>
@@ -7372,7 +7372,7 @@
         <v>652</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C143" t="s">
         <v>233</v>
@@ -7469,10 +7469,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B148" t="s">
         <v>1323</v>
-      </c>
-      <c r="B148" t="s">
-        <v>1324</v>
       </c>
       <c r="C148" t="s">
         <v>233</v>
@@ -7589,10 +7589,10 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B154" t="s">
         <v>1371</v>
-      </c>
-      <c r="B154" t="s">
-        <v>1372</v>
       </c>
       <c r="C154" t="s">
         <v>233</v>
@@ -7669,7 +7669,7 @@
         <v>0</v>
       </c>
       <c r="B158" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C158" t="s">
         <v>1</v>
@@ -7763,7 +7763,7 @@
         <v>956</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C163" t="s">
         <v>233</v>
@@ -7837,10 +7837,10 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B167" t="s">
         <v>1331</v>
-      </c>
-      <c r="B167" t="s">
-        <v>1332</v>
       </c>
       <c r="C167" t="s">
         <v>233</v>
@@ -8037,10 +8037,10 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B177" t="s">
         <v>1289</v>
-      </c>
-      <c r="B177" t="s">
-        <v>1290</v>
       </c>
       <c r="C177" t="s">
         <v>233</v>
@@ -8057,10 +8057,10 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B178" t="s">
         <v>1266</v>
-      </c>
-      <c r="B178" t="s">
-        <v>1267</v>
       </c>
       <c r="C178" t="s">
         <v>233</v>
@@ -8197,10 +8197,10 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B185" t="s">
         <v>1284</v>
-      </c>
-      <c r="B185" t="s">
-        <v>1285</v>
       </c>
       <c r="C185" t="s">
         <v>233</v>
@@ -8277,10 +8277,10 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B189" t="s">
         <v>1258</v>
-      </c>
-      <c r="B189" t="s">
-        <v>1259</v>
       </c>
       <c r="C189" t="s">
         <v>233</v>
@@ -8454,7 +8454,7 @@
         <v>1247</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C198" t="s">
         <v>233</v>
@@ -8474,7 +8474,7 @@
         <v>87</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C199" t="s">
         <v>58</v>
@@ -8491,7 +8491,7 @@
         <v>88</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C200" t="s">
         <v>58</v>
@@ -8562,10 +8562,10 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B204" t="s">
         <v>1317</v>
-      </c>
-      <c r="B204" t="s">
-        <v>1318</v>
       </c>
       <c r="C204" t="s">
         <v>233</v>
@@ -8582,10 +8582,10 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B205" t="s">
         <v>1295</v>
-      </c>
-      <c r="B205" t="s">
-        <v>1296</v>
       </c>
       <c r="C205" t="s">
         <v>233</v>
@@ -8810,7 +8810,7 @@
         <v>1248</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C217" t="s">
         <v>233</v>
@@ -8850,7 +8850,7 @@
         <v>963</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="C219" t="s">
         <v>233</v>
@@ -9018,10 +9018,10 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B228" t="s">
         <v>1357</v>
-      </c>
-      <c r="B228" t="s">
-        <v>1358</v>
       </c>
       <c r="C228" t="s">
         <v>233</v>
@@ -9098,10 +9098,10 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B232" t="s">
         <v>1307</v>
-      </c>
-      <c r="B232" t="s">
-        <v>1308</v>
       </c>
       <c r="C232" t="s">
         <v>233</v>
@@ -9275,7 +9275,7 @@
         <v>672</v>
       </c>
       <c r="B241" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C241" t="s">
         <v>233</v>
@@ -9426,10 +9426,10 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B249" t="s">
         <v>1254</v>
-      </c>
-      <c r="B249" t="s">
-        <v>1255</v>
       </c>
       <c r="C249" t="s">
         <v>233</v>
@@ -9446,10 +9446,10 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B250" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C250" t="s">
         <v>233</v>
@@ -9983,10 +9983,10 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B277" t="s">
         <v>1365</v>
-      </c>
-      <c r="B277" t="s">
-        <v>1366</v>
       </c>
       <c r="C277" t="s">
         <v>233</v>
@@ -10383,10 +10383,10 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B297" t="s">
         <v>1313</v>
-      </c>
-      <c r="B297" t="s">
-        <v>1314</v>
       </c>
       <c r="C297" t="s">
         <v>233</v>
@@ -10423,10 +10423,10 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B299" t="s">
         <v>1339</v>
-      </c>
-      <c r="B299" t="s">
-        <v>1340</v>
       </c>
       <c r="C299" t="s">
         <v>233</v>
@@ -10460,10 +10460,10 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B301" t="s">
         <v>1355</v>
-      </c>
-      <c r="B301" t="s">
-        <v>1356</v>
       </c>
       <c r="C301" t="s">
         <v>233</v>
@@ -10697,10 +10697,10 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B313" t="s">
         <v>1345</v>
-      </c>
-      <c r="B313" t="s">
-        <v>1346</v>
       </c>
       <c r="C313" t="s">
         <v>233</v>
@@ -11088,10 +11088,10 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B333" t="s">
         <v>1309</v>
-      </c>
-      <c r="B333" t="s">
-        <v>1310</v>
       </c>
       <c r="C333" t="s">
         <v>233</v>
@@ -11325,10 +11325,10 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B345" t="s">
         <v>1282</v>
-      </c>
-      <c r="B345" t="s">
-        <v>1283</v>
       </c>
       <c r="C345" t="s">
         <v>233</v>
@@ -11792,10 +11792,10 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B370" t="s">
         <v>1329</v>
-      </c>
-      <c r="B370" t="s">
-        <v>1330</v>
       </c>
       <c r="C370" t="s">
         <v>233</v>
@@ -11852,10 +11852,10 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B373" t="s">
         <v>1303</v>
-      </c>
-      <c r="B373" t="s">
-        <v>1304</v>
       </c>
       <c r="C373" t="s">
         <v>233</v>
@@ -12457,10 +12457,10 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B404" t="s">
         <v>1347</v>
-      </c>
-      <c r="B404" t="s">
-        <v>1348</v>
       </c>
       <c r="C404" t="s">
         <v>233</v>
@@ -12563,7 +12563,7 @@
         <v>228</v>
       </c>
       <c r="D409" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="E409" t="s">
         <v>229</v>
@@ -12591,10 +12591,10 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B411" t="s">
         <v>1270</v>
-      </c>
-      <c r="B411" t="s">
-        <v>1271</v>
       </c>
       <c r="C411" t="s">
         <v>233</v>
@@ -12611,10 +12611,10 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B412" t="s">
         <v>1363</v>
-      </c>
-      <c r="B412" t="s">
-        <v>1364</v>
       </c>
       <c r="C412" t="s">
         <v>233</v>
@@ -12651,10 +12651,10 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B414" t="s">
         <v>1351</v>
-      </c>
-      <c r="B414" t="s">
-        <v>1352</v>
       </c>
       <c r="C414" t="s">
         <v>233</v>
@@ -12885,10 +12885,10 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B426" t="s">
         <v>1333</v>
-      </c>
-      <c r="B426" t="s">
-        <v>1334</v>
       </c>
       <c r="C426" t="s">
         <v>233</v>
@@ -13407,7 +13407,7 @@
         <v>343</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C453" t="s">
         <v>233</v>
@@ -13427,7 +13427,7 @@
         <v>1245</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="C454" t="s">
         <v>233</v>
@@ -13444,10 +13444,10 @@
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B455" t="s">
         <v>1337</v>
-      </c>
-      <c r="B455" t="s">
-        <v>1338</v>
       </c>
       <c r="C455" t="s">
         <v>233</v>
@@ -13544,10 +13544,10 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B460" t="s">
         <v>1321</v>
-      </c>
-      <c r="B460" t="s">
-        <v>1322</v>
       </c>
       <c r="C460" t="s">
         <v>233</v>
@@ -13798,7 +13798,7 @@
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B473" t="s">
         <v>308</v>
@@ -13818,7 +13818,7 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B474" t="s">
         <v>325</v>
@@ -13838,7 +13838,7 @@
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B475" t="s">
         <v>1171</v>
@@ -13858,7 +13858,7 @@
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B476" t="s">
         <v>383</v>
@@ -13878,7 +13878,7 @@
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B477" t="s">
         <v>303</v>
@@ -13898,7 +13898,7 @@
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B478" t="s">
         <v>1100</v>
@@ -14198,10 +14198,10 @@
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B493" t="s">
         <v>1305</v>
-      </c>
-      <c r="B493" t="s">
-        <v>1306</v>
       </c>
       <c r="C493" t="s">
         <v>233</v>
@@ -14355,10 +14355,10 @@
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B501" t="s">
         <v>1325</v>
-      </c>
-      <c r="B501" t="s">
-        <v>1326</v>
       </c>
       <c r="C501" t="s">
         <v>233</v>
@@ -14606,10 +14606,10 @@
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B514" t="s">
         <v>1299</v>
-      </c>
-      <c r="B514" t="s">
-        <v>1300</v>
       </c>
       <c r="C514" t="s">
         <v>233</v>
@@ -14923,7 +14923,7 @@
         <v>970</v>
       </c>
       <c r="B530" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C530" t="s">
         <v>233</v>
@@ -14983,7 +14983,7 @@
         <v>968</v>
       </c>
       <c r="B533" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C533" t="s">
         <v>233</v>
@@ -15134,10 +15134,10 @@
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B541" t="s">
         <v>1341</v>
-      </c>
-      <c r="B541" t="s">
-        <v>1342</v>
       </c>
       <c r="C541" t="s">
         <v>233</v>
@@ -15351,10 +15351,10 @@
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B552" t="s">
         <v>1256</v>
-      </c>
-      <c r="B552" t="s">
-        <v>1257</v>
       </c>
       <c r="C552" t="s">
         <v>233</v>
@@ -15451,10 +15451,10 @@
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B557" t="s">
         <v>1293</v>
-      </c>
-      <c r="B557" t="s">
-        <v>1294</v>
       </c>
       <c r="C557" t="s">
         <v>233</v>
@@ -15859,10 +15859,10 @@
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B578" t="s">
         <v>1335</v>
-      </c>
-      <c r="B578" t="s">
-        <v>1336</v>
       </c>
       <c r="C578" t="s">
         <v>233</v>
@@ -15919,10 +15919,10 @@
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B581" t="s">
         <v>1268</v>
-      </c>
-      <c r="B581" t="s">
-        <v>1269</v>
       </c>
       <c r="C581" t="s">
         <v>233</v>
@@ -16652,10 +16652,10 @@
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B619" t="s">
         <v>1278</v>
-      </c>
-      <c r="B619" t="s">
-        <v>1279</v>
       </c>
       <c r="C619" t="s">
         <v>233</v>
@@ -16735,7 +16735,7 @@
         <v>134</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C623" t="s">
         <v>1</v>
@@ -16831,8 +16831,8 @@
       <c r="A628" t="s">
         <v>1251</v>
       </c>
-      <c r="B628" t="s">
-        <v>1252</v>
+      <c r="B628" s="1" t="s">
+        <v>1398</v>
       </c>
       <c r="C628" t="s">
         <v>233</v>
@@ -16849,10 +16849,10 @@
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B629" t="s">
         <v>1353</v>
-      </c>
-      <c r="B629" t="s">
-        <v>1354</v>
       </c>
       <c r="C629" t="s">
         <v>233</v>
@@ -16949,10 +16949,10 @@
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B634" t="s">
         <v>1262</v>
-      </c>
-      <c r="B634" t="s">
-        <v>1263</v>
       </c>
       <c r="C634" t="s">
         <v>233</v>
@@ -17066,10 +17066,10 @@
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B640" t="s">
         <v>1272</v>
-      </c>
-      <c r="B640" t="s">
-        <v>1273</v>
       </c>
       <c r="C640" t="s">
         <v>233</v>
@@ -17086,10 +17086,10 @@
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B641" t="s">
         <v>1274</v>
-      </c>
-      <c r="B641" t="s">
-        <v>1275</v>
       </c>
       <c r="C641" t="s">
         <v>233</v>
@@ -17200,10 +17200,10 @@
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B647" t="s">
         <v>1367</v>
-      </c>
-      <c r="B647" t="s">
-        <v>1368</v>
       </c>
       <c r="C647" t="s">
         <v>233</v>
@@ -17220,10 +17220,10 @@
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B648" t="s">
         <v>1369</v>
-      </c>
-      <c r="B648" t="s">
-        <v>1370</v>
       </c>
       <c r="C648" t="s">
         <v>233</v>
@@ -17982,7 +17982,7 @@
         <v>57</v>
       </c>
       <c r="B687" s="1" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C687" t="s">
         <v>58</v>
@@ -18039,7 +18039,7 @@
         <v>139</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C690" t="s">
         <v>1</v>
@@ -18073,10 +18073,10 @@
     </row>
     <row r="692" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B692" t="s">
         <v>1343</v>
-      </c>
-      <c r="B692" t="s">
-        <v>1344</v>
       </c>
       <c r="C692" t="s">
         <v>233</v>
@@ -18096,7 +18096,7 @@
         <v>59</v>
       </c>
       <c r="B693" s="1" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C693" t="s">
         <v>58</v>
@@ -18307,10 +18307,10 @@
     </row>
     <row r="704" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B704" t="s">
         <v>1297</v>
-      </c>
-      <c r="B704" t="s">
-        <v>1298</v>
       </c>
       <c r="C704" t="s">
         <v>233</v>
@@ -18347,7 +18347,7 @@
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B706" t="s">
         <v>232</v>
@@ -18367,7 +18367,7 @@
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B707" t="s">
         <v>232</v>
@@ -18404,8 +18404,9 @@
     <hyperlink ref="B30" r:id="rId15" xr:uid="{215A46A2-82E0-4B6D-B504-0E5A5A70C33F}"/>
     <hyperlink ref="B453" r:id="rId16" xr:uid="{7456A75E-B322-40A3-B0C6-9F7EA724B355}"/>
     <hyperlink ref="B454" r:id="rId17" xr:uid="{AC1E1B17-333E-4473-AA0B-084C855E2282}"/>
+    <hyperlink ref="B628" r:id="rId18" xr:uid="{664182BC-FA6A-43F8-8AAE-720A44F5C719}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
--- a/jogos.xlsx
+++ b/jogos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\mycollections-cli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29693EC9-12F8-4A06-AF0E-59EE18821250}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42B27A4-9DAD-45B5-B725-27FBF91A1CA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{0C35237A-6EB4-4B02-9651-931FED775CEC}"/>
   </bookViews>
@@ -1080,9 +1080,6 @@
     <t>Guns of Icarus Online</t>
   </si>
   <si>
-    <t>http://media.steampowered.com/steamcommunity/public/images/apps/209080/968e8c0b7a55f0229392278123dfd486140c9421.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">The Elder Scrolls IV: Oblivion </t>
   </si>
   <si>
@@ -4228,6 +4225,9 @@
   </si>
   <si>
     <t>http://eucurtogames.com.br/wp-content/uploads/2018/09/apps.29866.9007199266365547.d9b2840a-cb1f-45b3-8c6b-ef1366711bbd.jpg</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT_e2WrIxZZ8KpkRclllEpfjQG7veBK3t2Lk733WVqv_DF2iz13Vw</t>
   </si>
 </sst>
 </file>
@@ -4601,8 +4601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E073D1A-5126-4785-A652-5C66939BBDE3}">
   <dimension ref="A1:F707"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A595" workbookViewId="0">
-      <selection activeCell="B629" sqref="B629"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="B262" sqref="B262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4616,10 +4616,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B1" t="s">
         <v>1094</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1095</v>
       </c>
       <c r="C1" t="s">
         <v>233</v>
@@ -4636,10 +4636,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B2" t="s">
         <v>1290</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1291</v>
       </c>
       <c r="C2" t="s">
         <v>233</v>
@@ -4656,10 +4656,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B3" t="s">
         <v>490</v>
-      </c>
-      <c r="B3" t="s">
-        <v>491</v>
       </c>
       <c r="C3" t="s">
         <v>233</v>
@@ -4676,10 +4676,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>880</v>
+      </c>
+      <c r="B4" t="s">
         <v>881</v>
-      </c>
-      <c r="B4" t="s">
-        <v>882</v>
       </c>
       <c r="C4" t="s">
         <v>233</v>
@@ -4696,10 +4696,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5" t="s">
         <v>406</v>
-      </c>
-      <c r="B5" t="s">
-        <v>407</v>
       </c>
       <c r="C5" t="s">
         <v>233</v>
@@ -4716,10 +4716,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>407</v>
+      </c>
+      <c r="B6" t="s">
         <v>408</v>
-      </c>
-      <c r="B6" t="s">
-        <v>409</v>
       </c>
       <c r="C6" t="s">
         <v>233</v>
@@ -4756,10 +4756,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B8" t="s">
         <v>1314</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1315</v>
       </c>
       <c r="C8" t="s">
         <v>233</v>
@@ -4776,10 +4776,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B9" t="s">
         <v>1279</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1280</v>
       </c>
       <c r="C9" t="s">
         <v>233</v>
@@ -4796,10 +4796,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>981</v>
+      </c>
+      <c r="B10" t="s">
         <v>982</v>
-      </c>
-      <c r="B10" t="s">
-        <v>983</v>
       </c>
       <c r="C10" t="s">
         <v>233</v>
@@ -4833,10 +4833,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B12" t="s">
         <v>1326</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1327</v>
       </c>
       <c r="C12" t="s">
         <v>233</v>
@@ -4870,10 +4870,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B14" t="s">
         <v>1167</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1168</v>
       </c>
       <c r="C14" t="s">
         <v>233</v>
@@ -4910,10 +4910,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B16" t="s">
         <v>1133</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1134</v>
       </c>
       <c r="C16" t="s">
         <v>233</v>
@@ -4930,10 +4930,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B17" t="s">
         <v>1358</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1359</v>
       </c>
       <c r="C17" t="s">
         <v>233</v>
@@ -4970,7 +4970,7 @@
         <v>140</v>
       </c>
       <c r="B19" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C19" t="s">
         <v>233</v>
@@ -4987,10 +4987,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B20" t="s">
         <v>1050</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1051</v>
       </c>
       <c r="C20" t="s">
         <v>233</v>
@@ -5007,10 +5007,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>593</v>
+      </c>
+      <c r="B21" t="s">
         <v>594</v>
-      </c>
-      <c r="B21" t="s">
-        <v>595</v>
       </c>
       <c r="C21" t="s">
         <v>233</v>
@@ -5027,10 +5027,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>678</v>
+      </c>
+      <c r="B22" t="s">
         <v>679</v>
-      </c>
-      <c r="B22" t="s">
-        <v>680</v>
       </c>
       <c r="C22" t="s">
         <v>233</v>
@@ -5047,10 +5047,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>719</v>
+      </c>
+      <c r="B23" t="s">
         <v>720</v>
-      </c>
-      <c r="B23" t="s">
-        <v>721</v>
       </c>
       <c r="C23" t="s">
         <v>233</v>
@@ -5084,10 +5084,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>709</v>
+      </c>
+      <c r="B25" t="s">
         <v>710</v>
-      </c>
-      <c r="B25" t="s">
-        <v>711</v>
       </c>
       <c r="C25" t="s">
         <v>233</v>
@@ -5124,7 +5124,7 @@
         <v>121</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C27" t="s">
         <v>58</v>
@@ -5175,10 +5175,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="C30" t="s">
         <v>233</v>
@@ -5195,10 +5195,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>585</v>
+      </c>
+      <c r="B31" t="s">
         <v>586</v>
-      </c>
-      <c r="B31" t="s">
-        <v>587</v>
       </c>
       <c r="C31" t="s">
         <v>233</v>
@@ -5215,10 +5215,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>960</v>
+      </c>
+      <c r="B32" t="s">
         <v>961</v>
-      </c>
-      <c r="B32" t="s">
-        <v>962</v>
       </c>
       <c r="C32" t="s">
         <v>233</v>
@@ -5235,10 +5235,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>736</v>
+      </c>
+      <c r="B33" t="s">
         <v>737</v>
-      </c>
-      <c r="B33" t="s">
-        <v>738</v>
       </c>
       <c r="C33" t="s">
         <v>233</v>
@@ -5255,10 +5255,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>868</v>
+      </c>
+      <c r="B34" t="s">
         <v>869</v>
-      </c>
-      <c r="B34" t="s">
-        <v>870</v>
       </c>
       <c r="C34" t="s">
         <v>233</v>
@@ -5275,7 +5275,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B35" t="s">
         <v>28</v>
@@ -5292,10 +5292,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B36" t="s">
         <v>1348</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1349</v>
       </c>
       <c r="C36" t="s">
         <v>233</v>
@@ -5312,10 +5312,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>828</v>
+      </c>
+      <c r="B37" t="s">
         <v>829</v>
-      </c>
-      <c r="B37" t="s">
-        <v>830</v>
       </c>
       <c r="C37" t="s">
         <v>233</v>
@@ -5355,7 +5355,7 @@
         <v>203</v>
       </c>
       <c r="B39" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C39" t="s">
         <v>164</v>
@@ -5372,7 +5372,7 @@
         <v>203</v>
       </c>
       <c r="B40" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C40" t="s">
         <v>233</v>
@@ -5389,10 +5389,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B41" t="s">
         <v>1186</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1187</v>
       </c>
       <c r="C41" t="s">
         <v>233</v>
@@ -5429,10 +5429,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>419</v>
+      </c>
+      <c r="B43" t="s">
         <v>420</v>
-      </c>
-      <c r="B43" t="s">
-        <v>421</v>
       </c>
       <c r="C43" t="s">
         <v>233</v>
@@ -5449,10 +5449,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>465</v>
+      </c>
+      <c r="B44" t="s">
         <v>466</v>
-      </c>
-      <c r="B44" t="s">
-        <v>467</v>
       </c>
       <c r="C44" t="s">
         <v>233</v>
@@ -5574,10 +5574,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B51" t="s">
         <v>1310</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1311</v>
       </c>
       <c r="C51" t="s">
         <v>233</v>
@@ -5597,7 +5597,7 @@
         <v>84</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C52" t="s">
         <v>58</v>
@@ -5611,10 +5611,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>728</v>
+      </c>
+      <c r="B53" t="s">
         <v>729</v>
-      </c>
-      <c r="B53" t="s">
-        <v>730</v>
       </c>
       <c r="C53" t="s">
         <v>233</v>
@@ -5631,10 +5631,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>802</v>
+      </c>
+      <c r="B54" t="s">
         <v>803</v>
-      </c>
-      <c r="B54" t="s">
-        <v>804</v>
       </c>
       <c r="C54" t="s">
         <v>233</v>
@@ -5651,10 +5651,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>800</v>
+      </c>
+      <c r="B55" t="s">
         <v>801</v>
-      </c>
-      <c r="B55" t="s">
-        <v>802</v>
       </c>
       <c r="C55" t="s">
         <v>233</v>
@@ -5671,10 +5671,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>983</v>
+      </c>
+      <c r="B56" t="s">
         <v>984</v>
-      </c>
-      <c r="B56" t="s">
-        <v>985</v>
       </c>
       <c r="C56" t="s">
         <v>233</v>
@@ -5731,10 +5731,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B59" t="s">
         <v>1142</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1143</v>
       </c>
       <c r="C59" t="s">
         <v>233</v>
@@ -5751,10 +5751,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>985</v>
+      </c>
+      <c r="B60" t="s">
         <v>986</v>
-      </c>
-      <c r="B60" t="s">
-        <v>987</v>
       </c>
       <c r="C60" t="s">
         <v>233</v>
@@ -5771,10 +5771,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>601</v>
+      </c>
+      <c r="B61" t="s">
         <v>602</v>
-      </c>
-      <c r="B61" t="s">
-        <v>603</v>
       </c>
       <c r="C61" t="s">
         <v>233</v>
@@ -5791,10 +5791,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>717</v>
+      </c>
+      <c r="B62" t="s">
         <v>718</v>
-      </c>
-      <c r="B62" t="s">
-        <v>719</v>
       </c>
       <c r="C62" t="s">
         <v>233</v>
@@ -5811,10 +5811,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B63" t="s">
         <v>1038</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1039</v>
       </c>
       <c r="C63" t="s">
         <v>233</v>
@@ -5831,10 +5831,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B64" t="s">
         <v>1048</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1049</v>
       </c>
       <c r="C64" t="s">
         <v>233</v>
@@ -5868,10 +5868,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B66" t="s">
         <v>1066</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1067</v>
       </c>
       <c r="C66" t="s">
         <v>233</v>
@@ -5888,10 +5888,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B67" t="s">
         <v>1275</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1276</v>
       </c>
       <c r="C67" t="s">
         <v>233</v>
@@ -5908,10 +5908,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>370</v>
+      </c>
+      <c r="B68" t="s">
         <v>371</v>
-      </c>
-      <c r="B68" t="s">
-        <v>372</v>
       </c>
       <c r="C68" t="s">
         <v>233</v>
@@ -5928,10 +5928,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>439</v>
+      </c>
+      <c r="B69" t="s">
         <v>440</v>
-      </c>
-      <c r="B69" t="s">
-        <v>441</v>
       </c>
       <c r="C69" t="s">
         <v>233</v>
@@ -5948,10 +5948,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>364</v>
+      </c>
+      <c r="B70" t="s">
         <v>365</v>
-      </c>
-      <c r="B70" t="s">
-        <v>366</v>
       </c>
       <c r="C70" t="s">
         <v>233</v>
@@ -5968,10 +5968,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B71" t="s">
         <v>1040</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1041</v>
       </c>
       <c r="C71" t="s">
         <v>233</v>
@@ -5988,10 +5988,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>385</v>
+      </c>
+      <c r="B72" t="s">
         <v>386</v>
-      </c>
-      <c r="B72" t="s">
-        <v>387</v>
       </c>
       <c r="C72" t="s">
         <v>233</v>
@@ -6008,10 +6008,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B73" t="s">
         <v>1018</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1019</v>
       </c>
       <c r="C73" t="s">
         <v>233</v>
@@ -6028,10 +6028,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>499</v>
+      </c>
+      <c r="B74" t="s">
         <v>500</v>
-      </c>
-      <c r="B74" t="s">
-        <v>501</v>
       </c>
       <c r="C74" t="s">
         <v>233</v>
@@ -6065,10 +6065,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>517</v>
+      </c>
+      <c r="B76" t="s">
         <v>518</v>
-      </c>
-      <c r="B76" t="s">
-        <v>519</v>
       </c>
       <c r="C76" t="s">
         <v>233</v>
@@ -6085,10 +6085,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>463</v>
+      </c>
+      <c r="B77" t="s">
         <v>464</v>
-      </c>
-      <c r="B77" t="s">
-        <v>465</v>
       </c>
       <c r="C77" t="s">
         <v>233</v>
@@ -6122,10 +6122,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>525</v>
+      </c>
+      <c r="B79" t="s">
         <v>526</v>
-      </c>
-      <c r="B79" t="s">
-        <v>527</v>
       </c>
       <c r="C79" t="s">
         <v>233</v>
@@ -6142,10 +6142,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B80" t="s">
         <v>1032</v>
-      </c>
-      <c r="B80" t="s">
-        <v>1033</v>
       </c>
       <c r="C80" t="s">
         <v>233</v>
@@ -6162,10 +6162,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B81" t="s">
         <v>1086</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1087</v>
       </c>
       <c r="C81" t="s">
         <v>233</v>
@@ -6182,10 +6182,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B82" t="s">
         <v>1300</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1301</v>
       </c>
       <c r="C82" t="s">
         <v>233</v>
@@ -6219,10 +6219,10 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>368</v>
+      </c>
+      <c r="B84" t="s">
         <v>369</v>
-      </c>
-      <c r="B84" t="s">
-        <v>370</v>
       </c>
       <c r="C84" t="s">
         <v>233</v>
@@ -6259,10 +6259,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B86" t="s">
         <v>1026</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1027</v>
       </c>
       <c r="C86" t="s">
         <v>233</v>
@@ -6279,10 +6279,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B87" t="s">
         <v>1157</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1158</v>
       </c>
       <c r="C87" t="s">
         <v>233</v>
@@ -6299,10 +6299,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B88" t="s">
         <v>1088</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1089</v>
       </c>
       <c r="C88" t="s">
         <v>233</v>
@@ -6319,10 +6319,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>764</v>
+      </c>
+      <c r="B89" t="s">
         <v>765</v>
-      </c>
-      <c r="B89" t="s">
-        <v>766</v>
       </c>
       <c r="C89" t="s">
         <v>233</v>
@@ -6339,10 +6339,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>994</v>
+      </c>
+      <c r="B90" t="s">
         <v>995</v>
-      </c>
-      <c r="B90" t="s">
-        <v>996</v>
       </c>
       <c r="C90" t="s">
         <v>233</v>
@@ -6359,10 +6359,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>393</v>
+      </c>
+      <c r="B91" t="s">
         <v>394</v>
-      </c>
-      <c r="B91" t="s">
-        <v>395</v>
       </c>
       <c r="C91" t="s">
         <v>233</v>
@@ -6379,10 +6379,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>607</v>
+      </c>
+      <c r="B92" t="s">
         <v>608</v>
-      </c>
-      <c r="B92" t="s">
-        <v>609</v>
       </c>
       <c r="C92" t="s">
         <v>233</v>
@@ -6419,10 +6419,10 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>447</v>
+      </c>
+      <c r="B94" t="s">
         <v>448</v>
-      </c>
-      <c r="B94" t="s">
-        <v>449</v>
       </c>
       <c r="C94" t="s">
         <v>233</v>
@@ -6439,10 +6439,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B95" t="s">
         <v>1318</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1319</v>
       </c>
       <c r="C95" t="s">
         <v>233</v>
@@ -6476,10 +6476,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B97" t="s">
         <v>1259</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1260</v>
       </c>
       <c r="C97" t="s">
         <v>233</v>
@@ -6496,10 +6496,10 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>896</v>
+      </c>
+      <c r="B98" t="s">
         <v>897</v>
-      </c>
-      <c r="B98" t="s">
-        <v>898</v>
       </c>
       <c r="C98" t="s">
         <v>233</v>
@@ -6516,10 +6516,10 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>746</v>
+      </c>
+      <c r="B99" t="s">
         <v>747</v>
-      </c>
-      <c r="B99" t="s">
-        <v>748</v>
       </c>
       <c r="C99" t="s">
         <v>233</v>
@@ -6536,10 +6536,10 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B100" t="s">
         <v>1138</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1139</v>
       </c>
       <c r="C100" t="s">
         <v>233</v>
@@ -6556,10 +6556,10 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B101" t="s">
         <v>1076</v>
-      </c>
-      <c r="B101" t="s">
-        <v>1077</v>
       </c>
       <c r="C101" t="s">
         <v>233</v>
@@ -6576,10 +6576,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B102" t="s">
         <v>1285</v>
-      </c>
-      <c r="B102" t="s">
-        <v>1286</v>
       </c>
       <c r="C102" t="s">
         <v>233</v>
@@ -6596,10 +6596,10 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>740</v>
+      </c>
+      <c r="B103" t="s">
         <v>741</v>
-      </c>
-      <c r="B103" t="s">
-        <v>742</v>
       </c>
       <c r="C103" t="s">
         <v>233</v>
@@ -6616,10 +6616,10 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B104" t="s">
         <v>1068</v>
-      </c>
-      <c r="B104" t="s">
-        <v>1069</v>
       </c>
       <c r="C104" t="s">
         <v>233</v>
@@ -6636,10 +6636,10 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>566</v>
+      </c>
+      <c r="B105" t="s">
         <v>567</v>
-      </c>
-      <c r="B105" t="s">
-        <v>568</v>
       </c>
       <c r="C105" t="s">
         <v>233</v>
@@ -6656,10 +6656,10 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C106" t="s">
         <v>233</v>
@@ -6676,10 +6676,10 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>943</v>
+      </c>
+      <c r="B107" t="s">
         <v>944</v>
-      </c>
-      <c r="B107" t="s">
-        <v>945</v>
       </c>
       <c r="C107" t="s">
         <v>233</v>
@@ -6736,10 +6736,10 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>836</v>
+      </c>
+      <c r="B110" t="s">
         <v>837</v>
-      </c>
-      <c r="B110" t="s">
-        <v>838</v>
       </c>
       <c r="C110" t="s">
         <v>233</v>
@@ -6756,10 +6756,10 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>965</v>
+      </c>
+      <c r="B111" t="s">
         <v>966</v>
-      </c>
-      <c r="B111" t="s">
-        <v>967</v>
       </c>
       <c r="C111" t="s">
         <v>233</v>
@@ -6776,10 +6776,10 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>528</v>
+      </c>
+      <c r="B112" t="s">
         <v>529</v>
-      </c>
-      <c r="B112" t="s">
-        <v>530</v>
       </c>
       <c r="C112" t="s">
         <v>233</v>
@@ -6796,10 +6796,10 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B113" t="s">
         <v>1005</v>
-      </c>
-      <c r="B113" t="s">
-        <v>1006</v>
       </c>
       <c r="C113" t="s">
         <v>233</v>
@@ -6816,10 +6816,10 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>953</v>
+      </c>
+      <c r="B114" t="s">
         <v>954</v>
-      </c>
-      <c r="B114" t="s">
-        <v>955</v>
       </c>
       <c r="C114" t="s">
         <v>233</v>
@@ -6890,7 +6890,7 @@
         <v>111</v>
       </c>
       <c r="B118" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C118" t="s">
         <v>233</v>
@@ -6941,10 +6941,10 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>770</v>
+      </c>
+      <c r="B121" t="s">
         <v>771</v>
-      </c>
-      <c r="B121" t="s">
-        <v>772</v>
       </c>
       <c r="C121" t="s">
         <v>233</v>
@@ -6981,10 +6981,10 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B123" t="s">
         <v>1220</v>
-      </c>
-      <c r="B123" t="s">
-        <v>1221</v>
       </c>
       <c r="C123" t="s">
         <v>233</v>
@@ -7001,10 +7001,10 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>788</v>
+      </c>
+      <c r="B124" t="s">
         <v>789</v>
-      </c>
-      <c r="B124" t="s">
-        <v>790</v>
       </c>
       <c r="C124" t="s">
         <v>233</v>
@@ -7021,10 +7021,10 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>417</v>
+      </c>
+      <c r="B125" t="s">
         <v>418</v>
-      </c>
-      <c r="B125" t="s">
-        <v>419</v>
       </c>
       <c r="C125" t="s">
         <v>233</v>
@@ -7041,10 +7041,10 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>742</v>
+      </c>
+      <c r="B126" t="s">
         <v>743</v>
-      </c>
-      <c r="B126" t="s">
-        <v>744</v>
       </c>
       <c r="C126" t="s">
         <v>233</v>
@@ -7061,10 +7061,10 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>832</v>
+      </c>
+      <c r="B127" t="s">
         <v>833</v>
-      </c>
-      <c r="B127" t="s">
-        <v>834</v>
       </c>
       <c r="C127" t="s">
         <v>233</v>
@@ -7081,10 +7081,10 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>748</v>
+      </c>
+      <c r="B128" t="s">
         <v>749</v>
-      </c>
-      <c r="B128" t="s">
-        <v>750</v>
       </c>
       <c r="C128" t="s">
         <v>233</v>
@@ -7101,10 +7101,10 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>652</v>
+      </c>
+      <c r="B129" t="s">
         <v>653</v>
-      </c>
-      <c r="B129" t="s">
-        <v>654</v>
       </c>
       <c r="C129" t="s">
         <v>233</v>
@@ -7121,10 +7121,10 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B130" t="s">
         <v>1011</v>
-      </c>
-      <c r="B130" t="s">
-        <v>1012</v>
       </c>
       <c r="C130" t="s">
         <v>233</v>
@@ -7141,10 +7141,10 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>987</v>
+      </c>
+      <c r="B131" t="s">
         <v>988</v>
-      </c>
-      <c r="B131" t="s">
-        <v>989</v>
       </c>
       <c r="C131" t="s">
         <v>233</v>
@@ -7161,10 +7161,10 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B132" t="s">
         <v>1360</v>
-      </c>
-      <c r="B132" t="s">
-        <v>1361</v>
       </c>
       <c r="C132" t="s">
         <v>233</v>
@@ -7201,7 +7201,7 @@
         <v>115</v>
       </c>
       <c r="B134" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C134" t="s">
         <v>233</v>
@@ -7252,10 +7252,10 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>587</v>
+      </c>
+      <c r="B137" t="s">
         <v>588</v>
-      </c>
-      <c r="B137" t="s">
-        <v>589</v>
       </c>
       <c r="C137" t="s">
         <v>233</v>
@@ -7272,10 +7272,10 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B138" t="s">
         <v>1001</v>
-      </c>
-      <c r="B138" t="s">
-        <v>1002</v>
       </c>
       <c r="C138" t="s">
         <v>233</v>
@@ -7309,10 +7309,10 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>426</v>
+      </c>
+      <c r="B140" t="s">
         <v>427</v>
-      </c>
-      <c r="B140" t="s">
-        <v>428</v>
       </c>
       <c r="C140" t="s">
         <v>233</v>
@@ -7329,10 +7329,10 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>890</v>
+      </c>
+      <c r="B141" t="s">
         <v>891</v>
-      </c>
-      <c r="B141" t="s">
-        <v>892</v>
       </c>
       <c r="C141" t="s">
         <v>233</v>
@@ -7349,10 +7349,10 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B142" t="s">
         <v>1228</v>
-      </c>
-      <c r="B142" t="s">
-        <v>1229</v>
       </c>
       <c r="C142" t="s">
         <v>233</v>
@@ -7369,10 +7369,10 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C143" t="s">
         <v>233</v>
@@ -7389,10 +7389,10 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>538</v>
+      </c>
+      <c r="B144" t="s">
         <v>539</v>
-      </c>
-      <c r="B144" t="s">
-        <v>540</v>
       </c>
       <c r="C144" t="s">
         <v>233</v>
@@ -7409,10 +7409,10 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B145" t="s">
         <v>1052</v>
-      </c>
-      <c r="B145" t="s">
-        <v>1053</v>
       </c>
       <c r="C145" t="s">
         <v>233</v>
@@ -7429,10 +7429,10 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>820</v>
+      </c>
+      <c r="B146" t="s">
         <v>821</v>
-      </c>
-      <c r="B146" t="s">
-        <v>822</v>
       </c>
       <c r="C146" t="s">
         <v>233</v>
@@ -7449,10 +7449,10 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>822</v>
+      </c>
+      <c r="B147" t="s">
         <v>823</v>
-      </c>
-      <c r="B147" t="s">
-        <v>824</v>
       </c>
       <c r="C147" t="s">
         <v>233</v>
@@ -7469,10 +7469,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B148" t="s">
         <v>1322</v>
-      </c>
-      <c r="B148" t="s">
-        <v>1323</v>
       </c>
       <c r="C148" t="s">
         <v>233</v>
@@ -7489,10 +7489,10 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>732</v>
+      </c>
+      <c r="B149" t="s">
         <v>733</v>
-      </c>
-      <c r="B149" t="s">
-        <v>734</v>
       </c>
       <c r="C149" t="s">
         <v>233</v>
@@ -7509,10 +7509,10 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>989</v>
+      </c>
+      <c r="B150" t="s">
         <v>990</v>
-      </c>
-      <c r="B150" t="s">
-        <v>991</v>
       </c>
       <c r="C150" t="s">
         <v>233</v>
@@ -7529,10 +7529,10 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>860</v>
+      </c>
+      <c r="B151" t="s">
         <v>861</v>
-      </c>
-      <c r="B151" t="s">
-        <v>862</v>
       </c>
       <c r="C151" t="s">
         <v>233</v>
@@ -7549,10 +7549,10 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B152" t="s">
         <v>1101</v>
-      </c>
-      <c r="B152" t="s">
-        <v>1102</v>
       </c>
       <c r="C152" t="s">
         <v>233</v>
@@ -7569,10 +7569,10 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>750</v>
+      </c>
+      <c r="B153" t="s">
         <v>751</v>
-      </c>
-      <c r="B153" t="s">
-        <v>752</v>
       </c>
       <c r="C153" t="s">
         <v>233</v>
@@ -7589,10 +7589,10 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B154" t="s">
         <v>1370</v>
-      </c>
-      <c r="B154" t="s">
-        <v>1371</v>
       </c>
       <c r="C154" t="s">
         <v>233</v>
@@ -7609,10 +7609,10 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>992</v>
+      </c>
+      <c r="B155" t="s">
         <v>993</v>
-      </c>
-      <c r="B155" t="s">
-        <v>994</v>
       </c>
       <c r="C155" t="s">
         <v>233</v>
@@ -7629,7 +7629,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C156" t="s">
         <v>233</v>
@@ -7646,10 +7646,10 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B157" t="s">
         <v>1030</v>
-      </c>
-      <c r="B157" t="s">
-        <v>1031</v>
       </c>
       <c r="C157" t="s">
         <v>233</v>
@@ -7669,7 +7669,7 @@
         <v>0</v>
       </c>
       <c r="B158" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C158" t="s">
         <v>1</v>
@@ -7720,10 +7720,10 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>778</v>
+      </c>
+      <c r="B161" t="s">
         <v>779</v>
-      </c>
-      <c r="B161" t="s">
-        <v>780</v>
       </c>
       <c r="C161" t="s">
         <v>233</v>
@@ -7740,10 +7740,10 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>641</v>
+      </c>
+      <c r="B162" t="s">
         <v>642</v>
-      </c>
-      <c r="B162" t="s">
-        <v>643</v>
       </c>
       <c r="C162" t="s">
         <v>233</v>
@@ -7760,10 +7760,10 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C163" t="s">
         <v>233</v>
@@ -7780,10 +7780,10 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>635</v>
+      </c>
+      <c r="B164" t="s">
         <v>636</v>
-      </c>
-      <c r="B164" t="s">
-        <v>637</v>
       </c>
       <c r="C164" t="s">
         <v>233</v>
@@ -7817,10 +7817,10 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>617</v>
+      </c>
+      <c r="B166" t="s">
         <v>618</v>
-      </c>
-      <c r="B166" t="s">
-        <v>619</v>
       </c>
       <c r="C166" t="s">
         <v>233</v>
@@ -7837,10 +7837,10 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B167" t="s">
         <v>1330</v>
-      </c>
-      <c r="B167" t="s">
-        <v>1331</v>
       </c>
       <c r="C167" t="s">
         <v>233</v>
@@ -7857,10 +7857,10 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>629</v>
+      </c>
+      <c r="B168" t="s">
         <v>630</v>
-      </c>
-      <c r="B168" t="s">
-        <v>631</v>
       </c>
       <c r="C168" t="s">
         <v>233</v>
@@ -7877,10 +7877,10 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B169" t="s">
         <v>1152</v>
-      </c>
-      <c r="B169" t="s">
-        <v>1153</v>
       </c>
       <c r="C169" t="s">
         <v>233</v>
@@ -7917,10 +7917,10 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>503</v>
+      </c>
+      <c r="B171" t="s">
         <v>504</v>
-      </c>
-      <c r="B171" t="s">
-        <v>505</v>
       </c>
       <c r="C171" t="s">
         <v>233</v>
@@ -7937,10 +7937,10 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>431</v>
+      </c>
+      <c r="B172" t="s">
         <v>432</v>
-      </c>
-      <c r="B172" t="s">
-        <v>433</v>
       </c>
       <c r="C172" t="s">
         <v>233</v>
@@ -7957,10 +7957,10 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>583</v>
+      </c>
+      <c r="B173" t="s">
         <v>584</v>
-      </c>
-      <c r="B173" t="s">
-        <v>585</v>
       </c>
       <c r="C173" t="s">
         <v>233</v>
@@ -7977,10 +7977,10 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>772</v>
+      </c>
+      <c r="B174" t="s">
         <v>773</v>
-      </c>
-      <c r="B174" t="s">
-        <v>774</v>
       </c>
       <c r="C174" t="s">
         <v>233</v>
@@ -7997,10 +7997,10 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>876</v>
+      </c>
+      <c r="B175" t="s">
         <v>877</v>
-      </c>
-      <c r="B175" t="s">
-        <v>878</v>
       </c>
       <c r="C175" t="s">
         <v>233</v>
@@ -8017,10 +8017,10 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>754</v>
+      </c>
+      <c r="B176" t="s">
         <v>755</v>
-      </c>
-      <c r="B176" t="s">
-        <v>756</v>
       </c>
       <c r="C176" t="s">
         <v>233</v>
@@ -8037,10 +8037,10 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B177" t="s">
         <v>1288</v>
-      </c>
-      <c r="B177" t="s">
-        <v>1289</v>
       </c>
       <c r="C177" t="s">
         <v>233</v>
@@ -8057,10 +8057,10 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B178" t="s">
         <v>1265</v>
-      </c>
-      <c r="B178" t="s">
-        <v>1266</v>
       </c>
       <c r="C178" t="s">
         <v>233</v>
@@ -8077,10 +8077,10 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>459</v>
+      </c>
+      <c r="B179" t="s">
         <v>460</v>
-      </c>
-      <c r="B179" t="s">
-        <v>461</v>
       </c>
       <c r="C179" t="s">
         <v>233</v>
@@ -8097,10 +8097,10 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>973</v>
+      </c>
+      <c r="B180" t="s">
         <v>974</v>
-      </c>
-      <c r="B180" t="s">
-        <v>975</v>
       </c>
       <c r="C180" t="s">
         <v>233</v>
@@ -8137,10 +8137,10 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>534</v>
+      </c>
+      <c r="B182" t="s">
         <v>535</v>
-      </c>
-      <c r="B182" t="s">
-        <v>536</v>
       </c>
       <c r="C182" t="s">
         <v>233</v>
@@ -8157,10 +8157,10 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>975</v>
+      </c>
+      <c r="B183" t="s">
         <v>976</v>
-      </c>
-      <c r="B183" t="s">
-        <v>977</v>
       </c>
       <c r="C183" t="s">
         <v>233</v>
@@ -8197,10 +8197,10 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B185" t="s">
         <v>1283</v>
-      </c>
-      <c r="B185" t="s">
-        <v>1284</v>
       </c>
       <c r="C185" t="s">
         <v>233</v>
@@ -8217,10 +8217,10 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>389</v>
+      </c>
+      <c r="B186" t="s">
         <v>390</v>
-      </c>
-      <c r="B186" t="s">
-        <v>391</v>
       </c>
       <c r="C186" t="s">
         <v>233</v>
@@ -8237,10 +8237,10 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>589</v>
+      </c>
+      <c r="B187" t="s">
         <v>590</v>
-      </c>
-      <c r="B187" t="s">
-        <v>591</v>
       </c>
       <c r="C187" t="s">
         <v>233</v>
@@ -8257,10 +8257,10 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>443</v>
+      </c>
+      <c r="B188" t="s">
         <v>444</v>
-      </c>
-      <c r="B188" t="s">
-        <v>445</v>
       </c>
       <c r="C188" t="s">
         <v>233</v>
@@ -8277,10 +8277,10 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B189" t="s">
         <v>1257</v>
-      </c>
-      <c r="B189" t="s">
-        <v>1258</v>
       </c>
       <c r="C189" t="s">
         <v>233</v>
@@ -8297,10 +8297,10 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>848</v>
+      </c>
+      <c r="B190" t="s">
         <v>849</v>
-      </c>
-      <c r="B190" t="s">
-        <v>850</v>
       </c>
       <c r="C190" t="s">
         <v>233</v>
@@ -8317,10 +8317,10 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B191" t="s">
         <v>1180</v>
-      </c>
-      <c r="B191" t="s">
-        <v>1181</v>
       </c>
       <c r="C191" t="s">
         <v>233</v>
@@ -8337,10 +8337,10 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>530</v>
+      </c>
+      <c r="B192" t="s">
         <v>531</v>
-      </c>
-      <c r="B192" t="s">
-        <v>532</v>
       </c>
       <c r="C192" t="s">
         <v>233</v>
@@ -8357,10 +8357,10 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>971</v>
+      </c>
+      <c r="B193" t="s">
         <v>972</v>
-      </c>
-      <c r="B193" t="s">
-        <v>973</v>
       </c>
       <c r="C193" t="s">
         <v>233</v>
@@ -8377,10 +8377,10 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>676</v>
+      </c>
+      <c r="B194" t="s">
         <v>677</v>
-      </c>
-      <c r="B194" t="s">
-        <v>678</v>
       </c>
       <c r="C194" t="s">
         <v>233</v>
@@ -8397,10 +8397,10 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>706</v>
+      </c>
+      <c r="B195" t="s">
         <v>707</v>
-      </c>
-      <c r="B195" t="s">
-        <v>708</v>
       </c>
       <c r="C195" t="s">
         <v>233</v>
@@ -8451,10 +8451,10 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C198" t="s">
         <v>233</v>
@@ -8474,7 +8474,7 @@
         <v>87</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C199" t="s">
         <v>58</v>
@@ -8491,7 +8491,7 @@
         <v>88</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C200" t="s">
         <v>58</v>
@@ -8505,10 +8505,10 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>846</v>
+      </c>
+      <c r="B201" t="s">
         <v>847</v>
-      </c>
-      <c r="B201" t="s">
-        <v>848</v>
       </c>
       <c r="C201" t="s">
         <v>233</v>
@@ -8562,10 +8562,10 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B204" t="s">
         <v>1316</v>
-      </c>
-      <c r="B204" t="s">
-        <v>1317</v>
       </c>
       <c r="C204" t="s">
         <v>233</v>
@@ -8582,10 +8582,10 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B205" t="s">
         <v>1294</v>
-      </c>
-      <c r="B205" t="s">
-        <v>1295</v>
       </c>
       <c r="C205" t="s">
         <v>233</v>
@@ -8670,10 +8670,10 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>756</v>
+      </c>
+      <c r="B210" t="s">
         <v>757</v>
-      </c>
-      <c r="B210" t="s">
-        <v>758</v>
       </c>
       <c r="C210" t="s">
         <v>233</v>
@@ -8690,10 +8690,10 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B211" t="s">
         <v>1036</v>
-      </c>
-      <c r="B211" t="s">
-        <v>1037</v>
       </c>
       <c r="C211" t="s">
         <v>233</v>
@@ -8727,10 +8727,10 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B213" t="s">
         <v>1238</v>
-      </c>
-      <c r="B213" t="s">
-        <v>1239</v>
       </c>
       <c r="C213" t="s">
         <v>233</v>
@@ -8747,10 +8747,10 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B214" t="s">
         <v>1240</v>
-      </c>
-      <c r="B214" t="s">
-        <v>1241</v>
       </c>
       <c r="C214" t="s">
         <v>233</v>
@@ -8767,10 +8767,10 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>658</v>
+      </c>
+      <c r="B215" t="s">
         <v>659</v>
-      </c>
-      <c r="B215" t="s">
-        <v>660</v>
       </c>
       <c r="C215" t="s">
         <v>233</v>
@@ -8787,10 +8787,10 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B216" t="s">
         <v>1216</v>
-      </c>
-      <c r="B216" t="s">
-        <v>1217</v>
       </c>
       <c r="C216" t="s">
         <v>233</v>
@@ -8807,10 +8807,10 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C217" t="s">
         <v>233</v>
@@ -8827,10 +8827,10 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B218" t="s">
         <v>1249</v>
-      </c>
-      <c r="B218" t="s">
-        <v>1250</v>
       </c>
       <c r="C218" t="s">
         <v>233</v>
@@ -8847,10 +8847,10 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C219" t="s">
         <v>233</v>
@@ -8901,10 +8901,10 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>451</v>
+      </c>
+      <c r="B222" t="s">
         <v>452</v>
-      </c>
-      <c r="B222" t="s">
-        <v>453</v>
       </c>
       <c r="C222" t="s">
         <v>233</v>
@@ -8921,10 +8921,10 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B223" t="s">
         <v>1013</v>
-      </c>
-      <c r="B223" t="s">
-        <v>1014</v>
       </c>
       <c r="C223" t="s">
         <v>233</v>
@@ -8941,7 +8941,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C224" t="s">
         <v>233</v>
@@ -8958,10 +8958,10 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
+        <v>457</v>
+      </c>
+      <c r="B225" t="s">
         <v>458</v>
-      </c>
-      <c r="B225" t="s">
-        <v>459</v>
       </c>
       <c r="C225" t="s">
         <v>233</v>
@@ -8998,10 +8998,10 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
+        <v>376</v>
+      </c>
+      <c r="B227" t="s">
         <v>377</v>
-      </c>
-      <c r="B227" t="s">
-        <v>378</v>
       </c>
       <c r="C227" t="s">
         <v>233</v>
@@ -9018,10 +9018,10 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B228" t="s">
         <v>1356</v>
-      </c>
-      <c r="B228" t="s">
-        <v>1357</v>
       </c>
       <c r="C228" t="s">
         <v>233</v>
@@ -9058,10 +9058,10 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
+        <v>455</v>
+      </c>
+      <c r="B230" t="s">
         <v>456</v>
-      </c>
-      <c r="B230" t="s">
-        <v>457</v>
       </c>
       <c r="C230" t="s">
         <v>233</v>
@@ -9078,10 +9078,10 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
+        <v>656</v>
+      </c>
+      <c r="B231" t="s">
         <v>657</v>
-      </c>
-      <c r="B231" t="s">
-        <v>658</v>
       </c>
       <c r="C231" t="s">
         <v>233</v>
@@ -9098,10 +9098,10 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B232" t="s">
         <v>1306</v>
-      </c>
-      <c r="B232" t="s">
-        <v>1307</v>
       </c>
       <c r="C232" t="s">
         <v>233</v>
@@ -9118,10 +9118,10 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
+        <v>784</v>
+      </c>
+      <c r="B233" t="s">
         <v>785</v>
-      </c>
-      <c r="B233" t="s">
-        <v>786</v>
       </c>
       <c r="C233" t="s">
         <v>233</v>
@@ -9175,10 +9175,10 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B236" t="s">
         <v>1060</v>
-      </c>
-      <c r="B236" t="s">
-        <v>1061</v>
       </c>
       <c r="C236" t="s">
         <v>233</v>
@@ -9195,10 +9195,10 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
+        <v>998</v>
+      </c>
+      <c r="B237" t="s">
         <v>999</v>
-      </c>
-      <c r="B237" t="s">
-        <v>1000</v>
       </c>
       <c r="C237" t="s">
         <v>233</v>
@@ -9215,10 +9215,10 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B238" t="s">
         <v>1058</v>
-      </c>
-      <c r="B238" t="s">
-        <v>1059</v>
       </c>
       <c r="C238" t="s">
         <v>233</v>
@@ -9252,10 +9252,10 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>671</v>
+      </c>
+      <c r="B240" t="s">
         <v>672</v>
-      </c>
-      <c r="B240" t="s">
-        <v>673</v>
       </c>
       <c r="C240" t="s">
         <v>233</v>
@@ -9272,10 +9272,10 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B241" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C241" t="s">
         <v>233</v>
@@ -9372,7 +9372,7 @@
         <v>189</v>
       </c>
       <c r="B246" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C246" t="s">
         <v>233</v>
@@ -9426,10 +9426,10 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B249" t="s">
         <v>1253</v>
-      </c>
-      <c r="B249" t="s">
-        <v>1254</v>
       </c>
       <c r="C249" t="s">
         <v>233</v>
@@ -9446,10 +9446,10 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B250" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C250" t="s">
         <v>233</v>
@@ -9466,10 +9466,10 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B251" t="s">
         <v>1054</v>
-      </c>
-      <c r="B251" t="s">
-        <v>1055</v>
       </c>
       <c r="C251" t="s">
         <v>233</v>
@@ -9486,10 +9486,10 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
+        <v>702</v>
+      </c>
+      <c r="B252" t="s">
         <v>703</v>
-      </c>
-      <c r="B252" t="s">
-        <v>704</v>
       </c>
       <c r="C252" t="s">
         <v>233</v>
@@ -9506,10 +9506,10 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
+        <v>872</v>
+      </c>
+      <c r="B253" t="s">
         <v>873</v>
-      </c>
-      <c r="B253" t="s">
-        <v>874</v>
       </c>
       <c r="C253" t="s">
         <v>233</v>
@@ -9563,10 +9563,10 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
+        <v>415</v>
+      </c>
+      <c r="B256" t="s">
         <v>416</v>
-      </c>
-      <c r="B256" t="s">
-        <v>417</v>
       </c>
       <c r="C256" t="s">
         <v>233</v>
@@ -9583,10 +9583,10 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
+        <v>560</v>
+      </c>
+      <c r="B257" t="s">
         <v>561</v>
-      </c>
-      <c r="B257" t="s">
-        <v>562</v>
       </c>
       <c r="C257" t="s">
         <v>233</v>
@@ -9603,10 +9603,10 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
+        <v>704</v>
+      </c>
+      <c r="B258" t="s">
         <v>705</v>
-      </c>
-      <c r="B258" t="s">
-        <v>706</v>
       </c>
       <c r="C258" t="s">
         <v>233</v>
@@ -9623,10 +9623,10 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
+        <v>391</v>
+      </c>
+      <c r="B259" t="s">
         <v>392</v>
-      </c>
-      <c r="B259" t="s">
-        <v>393</v>
       </c>
       <c r="C259" t="s">
         <v>233</v>
@@ -9643,10 +9643,10 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
+        <v>473</v>
+      </c>
+      <c r="B260" t="s">
         <v>474</v>
-      </c>
-      <c r="B260" t="s">
-        <v>475</v>
       </c>
       <c r="C260" t="s">
         <v>233</v>
@@ -9665,8 +9665,8 @@
       <c r="A261" t="s">
         <v>348</v>
       </c>
-      <c r="B261" t="s">
-        <v>349</v>
+      <c r="B261" s="1" t="s">
+        <v>1398</v>
       </c>
       <c r="C261" t="s">
         <v>233</v>
@@ -9683,10 +9683,10 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
+        <v>591</v>
+      </c>
+      <c r="B262" t="s">
         <v>592</v>
-      </c>
-      <c r="B262" t="s">
-        <v>593</v>
       </c>
       <c r="C262" t="s">
         <v>233</v>
@@ -9703,10 +9703,10 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B263" t="s">
         <v>1046</v>
-      </c>
-      <c r="B263" t="s">
-        <v>1047</v>
       </c>
       <c r="C263" t="s">
         <v>233</v>
@@ -9723,10 +9723,10 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
+        <v>611</v>
+      </c>
+      <c r="B264" t="s">
         <v>612</v>
-      </c>
-      <c r="B264" t="s">
-        <v>613</v>
       </c>
       <c r="C264" t="s">
         <v>233</v>
@@ -9743,10 +9743,10 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
+        <v>684</v>
+      </c>
+      <c r="B265" t="s">
         <v>685</v>
-      </c>
-      <c r="B265" t="s">
-        <v>686</v>
       </c>
       <c r="C265" t="s">
         <v>233</v>
@@ -9763,10 +9763,10 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
+        <v>688</v>
+      </c>
+      <c r="B266" t="s">
         <v>689</v>
-      </c>
-      <c r="B266" t="s">
-        <v>690</v>
       </c>
       <c r="C266" t="s">
         <v>233</v>
@@ -9783,10 +9783,10 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
+        <v>692</v>
+      </c>
+      <c r="B267" t="s">
         <v>693</v>
-      </c>
-      <c r="B267" t="s">
-        <v>694</v>
       </c>
       <c r="C267" t="s">
         <v>233</v>
@@ -9803,10 +9803,10 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
+        <v>698</v>
+      </c>
+      <c r="B268" t="s">
         <v>699</v>
-      </c>
-      <c r="B268" t="s">
-        <v>700</v>
       </c>
       <c r="C268" t="s">
         <v>233</v>
@@ -9823,10 +9823,10 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
+        <v>700</v>
+      </c>
+      <c r="B269" t="s">
         <v>701</v>
-      </c>
-      <c r="B269" t="s">
-        <v>702</v>
       </c>
       <c r="C269" t="s">
         <v>233</v>
@@ -9843,10 +9843,10 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
+        <v>694</v>
+      </c>
+      <c r="B270" t="s">
         <v>695</v>
-      </c>
-      <c r="B270" t="s">
-        <v>696</v>
       </c>
       <c r="C270" t="s">
         <v>233</v>
@@ -9863,10 +9863,10 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
+        <v>696</v>
+      </c>
+      <c r="B271" t="s">
         <v>697</v>
-      </c>
-      <c r="B271" t="s">
-        <v>698</v>
       </c>
       <c r="C271" t="s">
         <v>233</v>
@@ -9883,10 +9883,10 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
+        <v>686</v>
+      </c>
+      <c r="B272" t="s">
         <v>687</v>
-      </c>
-      <c r="B272" t="s">
-        <v>688</v>
       </c>
       <c r="C272" t="s">
         <v>233</v>
@@ -9903,10 +9903,10 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
+        <v>682</v>
+      </c>
+      <c r="B273" t="s">
         <v>683</v>
-      </c>
-      <c r="B273" t="s">
-        <v>684</v>
       </c>
       <c r="C273" t="s">
         <v>233</v>
@@ -9923,10 +9923,10 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
+        <v>690</v>
+      </c>
+      <c r="B274" t="s">
         <v>691</v>
-      </c>
-      <c r="B274" t="s">
-        <v>692</v>
       </c>
       <c r="C274" t="s">
         <v>233</v>
@@ -9963,10 +9963,10 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B276" t="s">
         <v>1111</v>
-      </c>
-      <c r="B276" t="s">
-        <v>1112</v>
       </c>
       <c r="C276" t="s">
         <v>233</v>
@@ -9983,10 +9983,10 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B277" t="s">
         <v>1364</v>
-      </c>
-      <c r="B277" t="s">
-        <v>1365</v>
       </c>
       <c r="C277" t="s">
         <v>233</v>
@@ -10023,10 +10023,10 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B279" t="s">
         <v>1107</v>
-      </c>
-      <c r="B279" t="s">
-        <v>1108</v>
       </c>
       <c r="C279" t="s">
         <v>233</v>
@@ -10043,10 +10043,10 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B280" t="s">
         <v>1070</v>
-      </c>
-      <c r="B280" t="s">
-        <v>1071</v>
       </c>
       <c r="C280" t="s">
         <v>233</v>
@@ -10063,10 +10063,10 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
+        <v>852</v>
+      </c>
+      <c r="B281" t="s">
         <v>853</v>
-      </c>
-      <c r="B281" t="s">
-        <v>854</v>
       </c>
       <c r="C281" t="s">
         <v>233</v>
@@ -10083,10 +10083,10 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B282" t="s">
         <v>1163</v>
-      </c>
-      <c r="B282" t="s">
-        <v>1164</v>
       </c>
       <c r="C282" t="s">
         <v>233</v>
@@ -10103,10 +10103,10 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
+        <v>854</v>
+      </c>
+      <c r="B283" t="s">
         <v>855</v>
-      </c>
-      <c r="B283" t="s">
-        <v>856</v>
       </c>
       <c r="C283" t="s">
         <v>233</v>
@@ -10123,10 +10123,10 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B284" t="s">
         <v>1103</v>
-      </c>
-      <c r="B284" t="s">
-        <v>1104</v>
       </c>
       <c r="C284" t="s">
         <v>233</v>
@@ -10143,10 +10143,10 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B285" t="s">
         <v>1226</v>
-      </c>
-      <c r="B285" t="s">
-        <v>1227</v>
       </c>
       <c r="C285" t="s">
         <v>233</v>
@@ -10183,10 +10183,10 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
+        <v>631</v>
+      </c>
+      <c r="B287" t="s">
         <v>632</v>
-      </c>
-      <c r="B287" t="s">
-        <v>633</v>
       </c>
       <c r="C287" t="s">
         <v>233</v>
@@ -10203,10 +10203,10 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
+        <v>715</v>
+      </c>
+      <c r="B288" t="s">
         <v>716</v>
-      </c>
-      <c r="B288" t="s">
-        <v>717</v>
       </c>
       <c r="C288" t="s">
         <v>233</v>
@@ -10223,10 +10223,10 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
+        <v>738</v>
+      </c>
+      <c r="B289" t="s">
         <v>739</v>
-      </c>
-      <c r="B289" t="s">
-        <v>740</v>
       </c>
       <c r="C289" t="s">
         <v>233</v>
@@ -10243,10 +10243,10 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B290" t="s">
         <v>1056</v>
-      </c>
-      <c r="B290" t="s">
-        <v>1057</v>
       </c>
       <c r="C290" t="s">
         <v>233</v>
@@ -10263,10 +10263,10 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
+        <v>461</v>
+      </c>
+      <c r="B291" t="s">
         <v>462</v>
-      </c>
-      <c r="B291" t="s">
-        <v>463</v>
       </c>
       <c r="C291" t="s">
         <v>233</v>
@@ -10283,10 +10283,10 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
+        <v>842</v>
+      </c>
+      <c r="B292" t="s">
         <v>843</v>
-      </c>
-      <c r="B292" t="s">
-        <v>844</v>
       </c>
       <c r="C292" t="s">
         <v>233</v>
@@ -10323,10 +10323,10 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
+        <v>925</v>
+      </c>
+      <c r="B294" t="s">
         <v>926</v>
-      </c>
-      <c r="B294" t="s">
-        <v>927</v>
       </c>
       <c r="C294" t="s">
         <v>233</v>
@@ -10363,10 +10363,10 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
+        <v>546</v>
+      </c>
+      <c r="B296" t="s">
         <v>547</v>
-      </c>
-      <c r="B296" t="s">
-        <v>548</v>
       </c>
       <c r="C296" t="s">
         <v>233</v>
@@ -10383,10 +10383,10 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B297" t="s">
         <v>1312</v>
-      </c>
-      <c r="B297" t="s">
-        <v>1313</v>
       </c>
       <c r="C297" t="s">
         <v>233</v>
@@ -10403,10 +10403,10 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
+        <v>550</v>
+      </c>
+      <c r="B298" t="s">
         <v>551</v>
-      </c>
-      <c r="B298" t="s">
-        <v>552</v>
       </c>
       <c r="C298" t="s">
         <v>233</v>
@@ -10423,10 +10423,10 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B299" t="s">
         <v>1338</v>
-      </c>
-      <c r="B299" t="s">
-        <v>1339</v>
       </c>
       <c r="C299" t="s">
         <v>233</v>
@@ -10460,10 +10460,10 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B301" t="s">
         <v>1354</v>
-      </c>
-      <c r="B301" t="s">
-        <v>1355</v>
       </c>
       <c r="C301" t="s">
         <v>233</v>
@@ -10480,10 +10480,10 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
+        <v>858</v>
+      </c>
+      <c r="B302" t="s">
         <v>859</v>
-      </c>
-      <c r="B302" t="s">
-        <v>860</v>
       </c>
       <c r="C302" t="s">
         <v>233</v>
@@ -10500,10 +10500,10 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
+        <v>766</v>
+      </c>
+      <c r="B303" t="s">
         <v>767</v>
-      </c>
-      <c r="B303" t="s">
-        <v>768</v>
       </c>
       <c r="C303" t="s">
         <v>233</v>
@@ -10520,10 +10520,10 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
+        <v>507</v>
+      </c>
+      <c r="B304" t="s">
         <v>508</v>
-      </c>
-      <c r="B304" t="s">
-        <v>509</v>
       </c>
       <c r="C304" t="s">
         <v>233</v>
@@ -10540,10 +10540,10 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
+        <v>471</v>
+      </c>
+      <c r="B305" t="s">
         <v>472</v>
-      </c>
-      <c r="B305" t="s">
-        <v>473</v>
       </c>
       <c r="C305" t="s">
         <v>233</v>
@@ -10577,10 +10577,10 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B307" t="s">
         <v>1064</v>
-      </c>
-      <c r="B307" t="s">
-        <v>1065</v>
       </c>
       <c r="C307" t="s">
         <v>233</v>
@@ -10597,10 +10597,10 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B308" t="s">
         <v>1159</v>
-      </c>
-      <c r="B308" t="s">
-        <v>1160</v>
       </c>
       <c r="C308" t="s">
         <v>233</v>
@@ -10637,10 +10637,10 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B310" t="s">
         <v>1078</v>
-      </c>
-      <c r="B310" t="s">
-        <v>1079</v>
       </c>
       <c r="C310" t="s">
         <v>233</v>
@@ -10677,10 +10677,10 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
+        <v>403</v>
+      </c>
+      <c r="B312" t="s">
         <v>404</v>
-      </c>
-      <c r="B312" t="s">
-        <v>405</v>
       </c>
       <c r="C312" t="s">
         <v>233</v>
@@ -10697,10 +10697,10 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B313" t="s">
         <v>1344</v>
-      </c>
-      <c r="B313" t="s">
-        <v>1345</v>
       </c>
       <c r="C313" t="s">
         <v>233</v>
@@ -10717,10 +10717,10 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B314" t="s">
         <v>1034</v>
-      </c>
-      <c r="B314" t="s">
-        <v>1035</v>
       </c>
       <c r="C314" t="s">
         <v>233</v>
@@ -10737,10 +10737,10 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
+        <v>796</v>
+      </c>
+      <c r="B315" t="s">
         <v>797</v>
-      </c>
-      <c r="B315" t="s">
-        <v>798</v>
       </c>
       <c r="C315" t="s">
         <v>233</v>
@@ -10757,10 +10757,10 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
+        <v>798</v>
+      </c>
+      <c r="B316" t="s">
         <v>799</v>
-      </c>
-      <c r="B316" t="s">
-        <v>800</v>
       </c>
       <c r="C316" t="s">
         <v>233</v>
@@ -10794,10 +10794,10 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B318" t="s">
         <v>1105</v>
-      </c>
-      <c r="B318" t="s">
-        <v>1106</v>
       </c>
       <c r="C318" t="s">
         <v>233</v>
@@ -10814,10 +10814,10 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B319" t="s">
         <v>1084</v>
-      </c>
-      <c r="B319" t="s">
-        <v>1085</v>
       </c>
       <c r="C319" t="s">
         <v>233</v>
@@ -10834,10 +10834,10 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
+        <v>487</v>
+      </c>
+      <c r="B320" t="s">
         <v>488</v>
-      </c>
-      <c r="B320" t="s">
-        <v>489</v>
       </c>
       <c r="C320" t="s">
         <v>233</v>
@@ -10854,10 +10854,10 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
+        <v>362</v>
+      </c>
+      <c r="B321" t="s">
         <v>363</v>
-      </c>
-      <c r="B321" t="s">
-        <v>364</v>
       </c>
       <c r="C321" t="s">
         <v>233</v>
@@ -10874,10 +10874,10 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B322" t="s">
         <v>1236</v>
-      </c>
-      <c r="B322" t="s">
-        <v>1237</v>
       </c>
       <c r="C322" t="s">
         <v>233</v>
@@ -10894,10 +10894,10 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
+        <v>619</v>
+      </c>
+      <c r="B323" t="s">
         <v>620</v>
-      </c>
-      <c r="B323" t="s">
-        <v>621</v>
       </c>
       <c r="C323" t="s">
         <v>233</v>
@@ -10931,10 +10931,10 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B325" t="s">
         <v>1117</v>
-      </c>
-      <c r="B325" t="s">
-        <v>1118</v>
       </c>
       <c r="C325" t="s">
         <v>233</v>
@@ -10951,7 +10951,7 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C326" t="s">
         <v>233</v>
@@ -10968,10 +10968,10 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
+        <v>554</v>
+      </c>
+      <c r="B327" t="s">
         <v>555</v>
-      </c>
-      <c r="B327" t="s">
-        <v>556</v>
       </c>
       <c r="C327" t="s">
         <v>233</v>
@@ -10988,10 +10988,10 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
+        <v>556</v>
+      </c>
+      <c r="B328" t="s">
         <v>557</v>
-      </c>
-      <c r="B328" t="s">
-        <v>558</v>
       </c>
       <c r="C328" t="s">
         <v>233</v>
@@ -11008,10 +11008,10 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
+        <v>558</v>
+      </c>
+      <c r="B329" t="s">
         <v>559</v>
-      </c>
-      <c r="B329" t="s">
-        <v>560</v>
       </c>
       <c r="C329" t="s">
         <v>233</v>
@@ -11028,10 +11028,10 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
+        <v>532</v>
+      </c>
+      <c r="B330" t="s">
         <v>533</v>
-      </c>
-      <c r="B330" t="s">
-        <v>534</v>
       </c>
       <c r="C330" t="s">
         <v>233</v>
@@ -11088,10 +11088,10 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B333" t="s">
         <v>1308</v>
-      </c>
-      <c r="B333" t="s">
-        <v>1309</v>
       </c>
       <c r="C333" t="s">
         <v>233</v>
@@ -11108,10 +11108,10 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
+        <v>513</v>
+      </c>
+      <c r="B334" t="s">
         <v>514</v>
-      </c>
-      <c r="B334" t="s">
-        <v>515</v>
       </c>
       <c r="C334" t="s">
         <v>233</v>
@@ -11128,10 +11128,10 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B335" t="s">
         <v>1230</v>
-      </c>
-      <c r="B335" t="s">
-        <v>1231</v>
       </c>
       <c r="C335" t="s">
         <v>233</v>
@@ -11148,10 +11148,10 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B336" t="s">
         <v>1131</v>
-      </c>
-      <c r="B336" t="s">
-        <v>1132</v>
       </c>
       <c r="C336" t="s">
         <v>233</v>
@@ -11185,10 +11185,10 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
+        <v>874</v>
+      </c>
+      <c r="B338" t="s">
         <v>875</v>
-      </c>
-      <c r="B338" t="s">
-        <v>876</v>
       </c>
       <c r="C338" t="s">
         <v>233</v>
@@ -11205,10 +11205,10 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
+        <v>366</v>
+      </c>
+      <c r="B339" t="s">
         <v>367</v>
-      </c>
-      <c r="B339" t="s">
-        <v>368</v>
       </c>
       <c r="C339" t="s">
         <v>233</v>
@@ -11225,10 +11225,10 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
+        <v>397</v>
+      </c>
+      <c r="B340" t="s">
         <v>398</v>
-      </c>
-      <c r="B340" t="s">
-        <v>399</v>
       </c>
       <c r="C340" t="s">
         <v>233</v>
@@ -11245,10 +11245,10 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
+        <v>810</v>
+      </c>
+      <c r="B341" t="s">
         <v>811</v>
-      </c>
-      <c r="B341" t="s">
-        <v>812</v>
       </c>
       <c r="C341" t="s">
         <v>233</v>
@@ -11285,10 +11285,10 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
+        <v>660</v>
+      </c>
+      <c r="B343" t="s">
         <v>661</v>
-      </c>
-      <c r="B343" t="s">
-        <v>662</v>
       </c>
       <c r="C343" t="s">
         <v>233</v>
@@ -11305,10 +11305,10 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B344" t="s">
         <v>1082</v>
-      </c>
-      <c r="B344" t="s">
-        <v>1083</v>
       </c>
       <c r="C344" t="s">
         <v>233</v>
@@ -11325,10 +11325,10 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B345" t="s">
         <v>1281</v>
-      </c>
-      <c r="B345" t="s">
-        <v>1282</v>
       </c>
       <c r="C345" t="s">
         <v>233</v>
@@ -11345,10 +11345,10 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
+        <v>493</v>
+      </c>
+      <c r="B346" t="s">
         <v>494</v>
-      </c>
-      <c r="B346" t="s">
-        <v>495</v>
       </c>
       <c r="C346" t="s">
         <v>233</v>
@@ -11365,10 +11365,10 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B347" t="s">
         <v>1122</v>
-      </c>
-      <c r="B347" t="s">
-        <v>1123</v>
       </c>
       <c r="C347" t="s">
         <v>233</v>
@@ -11385,10 +11385,10 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
+        <v>674</v>
+      </c>
+      <c r="B348" t="s">
         <v>675</v>
-      </c>
-      <c r="B348" t="s">
-        <v>676</v>
       </c>
       <c r="C348" t="s">
         <v>233</v>
@@ -11439,10 +11439,10 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
+        <v>830</v>
+      </c>
+      <c r="B351" t="s">
         <v>831</v>
-      </c>
-      <c r="B351" t="s">
-        <v>832</v>
       </c>
       <c r="C351" t="s">
         <v>233</v>
@@ -11510,10 +11510,10 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
+        <v>870</v>
+      </c>
+      <c r="B355" t="s">
         <v>871</v>
-      </c>
-      <c r="B355" t="s">
-        <v>872</v>
       </c>
       <c r="C355" t="s">
         <v>233</v>
@@ -11530,10 +11530,10 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
+        <v>760</v>
+      </c>
+      <c r="B356" t="s">
         <v>761</v>
-      </c>
-      <c r="B356" t="s">
-        <v>762</v>
       </c>
       <c r="C356" t="s">
         <v>233</v>
@@ -11550,10 +11550,10 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
+        <v>929</v>
+      </c>
+      <c r="B357" t="s">
         <v>930</v>
-      </c>
-      <c r="B357" t="s">
-        <v>931</v>
       </c>
       <c r="C357" t="s">
         <v>233</v>
@@ -11587,10 +11587,10 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
+        <v>915</v>
+      </c>
+      <c r="B359" t="s">
         <v>916</v>
-      </c>
-      <c r="B359" t="s">
-        <v>917</v>
       </c>
       <c r="C359" t="s">
         <v>233</v>
@@ -11624,10 +11624,10 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
+        <v>917</v>
+      </c>
+      <c r="B361" t="s">
         <v>918</v>
-      </c>
-      <c r="B361" t="s">
-        <v>919</v>
       </c>
       <c r="C361" t="s">
         <v>233</v>
@@ -11644,10 +11644,10 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
+        <v>387</v>
+      </c>
+      <c r="B362" t="s">
         <v>388</v>
-      </c>
-      <c r="B362" t="s">
-        <v>389</v>
       </c>
       <c r="C362" t="s">
         <v>233</v>
@@ -11698,10 +11698,10 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
+        <v>886</v>
+      </c>
+      <c r="B365" t="s">
         <v>887</v>
-      </c>
-      <c r="B365" t="s">
-        <v>888</v>
       </c>
       <c r="C365" t="s">
         <v>233</v>
@@ -11718,10 +11718,10 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
+        <v>351</v>
+      </c>
+      <c r="B366" t="s">
         <v>352</v>
-      </c>
-      <c r="B366" t="s">
-        <v>353</v>
       </c>
       <c r="C366" t="s">
         <v>233</v>
@@ -11772,10 +11772,10 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
+        <v>595</v>
+      </c>
+      <c r="B369" t="s">
         <v>596</v>
-      </c>
-      <c r="B369" t="s">
-        <v>597</v>
       </c>
       <c r="C369" t="s">
         <v>233</v>
@@ -11792,10 +11792,10 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B370" t="s">
         <v>1328</v>
-      </c>
-      <c r="B370" t="s">
-        <v>1329</v>
       </c>
       <c r="C370" t="s">
         <v>233</v>
@@ -11812,10 +11812,10 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
+        <v>949</v>
+      </c>
+      <c r="B371" t="s">
         <v>950</v>
-      </c>
-      <c r="B371" t="s">
-        <v>951</v>
       </c>
       <c r="C371" t="s">
         <v>233</v>
@@ -11852,10 +11852,10 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B373" t="s">
         <v>1302</v>
-      </c>
-      <c r="B373" t="s">
-        <v>1303</v>
       </c>
       <c r="C373" t="s">
         <v>233</v>
@@ -11872,10 +11872,10 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
+        <v>958</v>
+      </c>
+      <c r="B374" t="s">
         <v>959</v>
-      </c>
-      <c r="B374" t="s">
-        <v>960</v>
       </c>
       <c r="C374" t="s">
         <v>233</v>
@@ -11912,7 +11912,7 @@
         <v>21</v>
       </c>
       <c r="B376" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C376" t="s">
         <v>233</v>
@@ -11946,10 +11946,10 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B378" t="s">
         <v>1092</v>
-      </c>
-      <c r="B378" t="s">
-        <v>1093</v>
       </c>
       <c r="C378" t="s">
         <v>233</v>
@@ -11966,10 +11966,10 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B379" t="s">
         <v>1124</v>
-      </c>
-      <c r="B379" t="s">
-        <v>1125</v>
       </c>
       <c r="C379" t="s">
         <v>233</v>
@@ -11986,10 +11986,10 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
+        <v>758</v>
+      </c>
+      <c r="B380" t="s">
         <v>759</v>
-      </c>
-      <c r="B380" t="s">
-        <v>760</v>
       </c>
       <c r="C380" t="s">
         <v>233</v>
@@ -12006,10 +12006,10 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
+        <v>894</v>
+      </c>
+      <c r="B381" t="s">
         <v>895</v>
-      </c>
-      <c r="B381" t="s">
-        <v>896</v>
       </c>
       <c r="C381" t="s">
         <v>233</v>
@@ -12026,10 +12026,10 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
+        <v>483</v>
+      </c>
+      <c r="B382" t="s">
         <v>484</v>
-      </c>
-      <c r="B382" t="s">
-        <v>485</v>
       </c>
       <c r="C382" t="s">
         <v>233</v>
@@ -12046,10 +12046,10 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B383" t="s">
         <v>1212</v>
-      </c>
-      <c r="B383" t="s">
-        <v>1213</v>
       </c>
       <c r="C383" t="s">
         <v>233</v>
@@ -12066,10 +12066,10 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B384" t="s">
         <v>1202</v>
-      </c>
-      <c r="B384" t="s">
-        <v>1203</v>
       </c>
       <c r="C384" t="s">
         <v>233</v>
@@ -12086,10 +12086,10 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B385" t="s">
         <v>1198</v>
-      </c>
-      <c r="B385" t="s">
-        <v>1199</v>
       </c>
       <c r="C385" t="s">
         <v>233</v>
@@ -12106,10 +12106,10 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B386" t="s">
         <v>1196</v>
-      </c>
-      <c r="B386" t="s">
-        <v>1197</v>
       </c>
       <c r="C386" t="s">
         <v>233</v>
@@ -12126,10 +12126,10 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B387" t="s">
         <v>1200</v>
-      </c>
-      <c r="B387" t="s">
-        <v>1201</v>
       </c>
       <c r="C387" t="s">
         <v>233</v>
@@ -12146,10 +12146,10 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B388" t="s">
         <v>1208</v>
-      </c>
-      <c r="B388" t="s">
-        <v>1209</v>
       </c>
       <c r="C388" t="s">
         <v>233</v>
@@ -12166,10 +12166,10 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B389" t="s">
         <v>1210</v>
-      </c>
-      <c r="B389" t="s">
-        <v>1211</v>
       </c>
       <c r="C389" t="s">
         <v>233</v>
@@ -12186,7 +12186,7 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C390" t="s">
         <v>233</v>
@@ -12203,10 +12203,10 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B391" t="s">
         <v>1192</v>
-      </c>
-      <c r="B391" t="s">
-        <v>1193</v>
       </c>
       <c r="C391" t="s">
         <v>233</v>
@@ -12223,10 +12223,10 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B392" t="s">
         <v>1204</v>
-      </c>
-      <c r="B392" t="s">
-        <v>1205</v>
       </c>
       <c r="C392" t="s">
         <v>233</v>
@@ -12243,10 +12243,10 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B393" t="s">
         <v>1206</v>
-      </c>
-      <c r="B393" t="s">
-        <v>1207</v>
       </c>
       <c r="C393" t="s">
         <v>233</v>
@@ -12263,10 +12263,10 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B394" t="s">
         <v>1194</v>
-      </c>
-      <c r="B394" t="s">
-        <v>1195</v>
       </c>
       <c r="C394" t="s">
         <v>233</v>
@@ -12283,10 +12283,10 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
+        <v>912</v>
+      </c>
+      <c r="B395" t="s">
         <v>913</v>
-      </c>
-      <c r="B395" t="s">
-        <v>914</v>
       </c>
       <c r="C395" t="s">
         <v>233</v>
@@ -12303,7 +12303,7 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C396" t="s">
         <v>233</v>
@@ -12320,7 +12320,7 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C397" t="s">
         <v>233</v>
@@ -12337,10 +12337,10 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
+        <v>900</v>
+      </c>
+      <c r="B398" t="s">
         <v>901</v>
-      </c>
-      <c r="B398" t="s">
-        <v>902</v>
       </c>
       <c r="C398" t="s">
         <v>233</v>
@@ -12357,10 +12357,10 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
+        <v>902</v>
+      </c>
+      <c r="B399" t="s">
         <v>903</v>
-      </c>
-      <c r="B399" t="s">
-        <v>904</v>
       </c>
       <c r="C399" t="s">
         <v>233</v>
@@ -12377,10 +12377,10 @@
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
+        <v>904</v>
+      </c>
+      <c r="B400" t="s">
         <v>905</v>
-      </c>
-      <c r="B400" t="s">
-        <v>906</v>
       </c>
       <c r="C400" t="s">
         <v>233</v>
@@ -12397,10 +12397,10 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
+        <v>906</v>
+      </c>
+      <c r="B401" t="s">
         <v>907</v>
-      </c>
-      <c r="B401" t="s">
-        <v>908</v>
       </c>
       <c r="C401" t="s">
         <v>233</v>
@@ -12417,10 +12417,10 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
+        <v>908</v>
+      </c>
+      <c r="B402" t="s">
         <v>909</v>
-      </c>
-      <c r="B402" t="s">
-        <v>910</v>
       </c>
       <c r="C402" t="s">
         <v>233</v>
@@ -12437,10 +12437,10 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
+        <v>910</v>
+      </c>
+      <c r="B403" t="s">
         <v>911</v>
-      </c>
-      <c r="B403" t="s">
-        <v>912</v>
       </c>
       <c r="C403" t="s">
         <v>233</v>
@@ -12457,10 +12457,10 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B404" t="s">
         <v>1346</v>
-      </c>
-      <c r="B404" t="s">
-        <v>1347</v>
       </c>
       <c r="C404" t="s">
         <v>233</v>
@@ -12477,10 +12477,10 @@
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
+        <v>497</v>
+      </c>
+      <c r="B405" t="s">
         <v>498</v>
-      </c>
-      <c r="B405" t="s">
-        <v>499</v>
       </c>
       <c r="C405" t="s">
         <v>233</v>
@@ -12514,10 +12514,10 @@
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
+        <v>776</v>
+      </c>
+      <c r="B407" t="s">
         <v>777</v>
-      </c>
-      <c r="B407" t="s">
-        <v>778</v>
       </c>
       <c r="C407" t="s">
         <v>233</v>
@@ -12534,10 +12534,10 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B408" t="s">
         <v>1120</v>
-      </c>
-      <c r="B408" t="s">
-        <v>1121</v>
       </c>
       <c r="C408" t="s">
         <v>233</v>
@@ -12563,7 +12563,7 @@
         <v>228</v>
       </c>
       <c r="D409" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E409" t="s">
         <v>229</v>
@@ -12591,10 +12591,10 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B411" t="s">
         <v>1269</v>
-      </c>
-      <c r="B411" t="s">
-        <v>1270</v>
       </c>
       <c r="C411" t="s">
         <v>233</v>
@@ -12611,10 +12611,10 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B412" t="s">
         <v>1362</v>
-      </c>
-      <c r="B412" t="s">
-        <v>1363</v>
       </c>
       <c r="C412" t="s">
         <v>233</v>
@@ -12631,10 +12631,10 @@
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
+        <v>941</v>
+      </c>
+      <c r="B413" t="s">
         <v>942</v>
-      </c>
-      <c r="B413" t="s">
-        <v>943</v>
       </c>
       <c r="C413" t="s">
         <v>233</v>
@@ -12651,10 +12651,10 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B414" t="s">
         <v>1350</v>
-      </c>
-      <c r="B414" t="s">
-        <v>1351</v>
       </c>
       <c r="C414" t="s">
         <v>233</v>
@@ -12671,10 +12671,10 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B415" t="s">
         <v>1003</v>
-      </c>
-      <c r="B415" t="s">
-        <v>1004</v>
       </c>
       <c r="C415" t="s">
         <v>233</v>
@@ -12708,10 +12708,10 @@
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
+        <v>477</v>
+      </c>
+      <c r="B417" t="s">
         <v>478</v>
-      </c>
-      <c r="B417" t="s">
-        <v>479</v>
       </c>
       <c r="C417" t="s">
         <v>233</v>
@@ -12765,10 +12765,10 @@
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B420" t="s">
         <v>1042</v>
-      </c>
-      <c r="B420" t="s">
-        <v>1043</v>
       </c>
       <c r="C420" t="s">
         <v>233</v>
@@ -12825,10 +12825,10 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B423" t="s">
         <v>1242</v>
-      </c>
-      <c r="B423" t="s">
-        <v>1243</v>
       </c>
       <c r="C423" t="s">
         <v>233</v>
@@ -12845,10 +12845,10 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B424" t="s">
         <v>1115</v>
-      </c>
-      <c r="B424" t="s">
-        <v>1116</v>
       </c>
       <c r="C424" t="s">
         <v>233</v>
@@ -12865,10 +12865,10 @@
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
+        <v>467</v>
+      </c>
+      <c r="B425" t="s">
         <v>468</v>
-      </c>
-      <c r="B425" t="s">
-        <v>469</v>
       </c>
       <c r="C425" t="s">
         <v>233</v>
@@ -12885,10 +12885,10 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B426" t="s">
         <v>1332</v>
-      </c>
-      <c r="B426" t="s">
-        <v>1333</v>
       </c>
       <c r="C426" t="s">
         <v>233</v>
@@ -12905,10 +12905,10 @@
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
+        <v>669</v>
+      </c>
+      <c r="B427" t="s">
         <v>670</v>
-      </c>
-      <c r="B427" t="s">
-        <v>671</v>
       </c>
       <c r="C427" t="s">
         <v>233</v>
@@ -12925,10 +12925,10 @@
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
+        <v>794</v>
+      </c>
+      <c r="B428" t="s">
         <v>795</v>
-      </c>
-      <c r="B428" t="s">
-        <v>796</v>
       </c>
       <c r="C428" t="s">
         <v>233</v>
@@ -12962,10 +12962,10 @@
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
+        <v>501</v>
+      </c>
+      <c r="B430" t="s">
         <v>502</v>
-      </c>
-      <c r="B430" t="s">
-        <v>503</v>
       </c>
       <c r="C430" t="s">
         <v>233</v>
@@ -12982,10 +12982,10 @@
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B431" t="s">
         <v>1062</v>
-      </c>
-      <c r="B431" t="s">
-        <v>1063</v>
       </c>
       <c r="C431" t="s">
         <v>233</v>
@@ -13019,10 +13019,10 @@
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
+        <v>491</v>
+      </c>
+      <c r="B433" t="s">
         <v>492</v>
-      </c>
-      <c r="B433" t="s">
-        <v>493</v>
       </c>
       <c r="C433" t="s">
         <v>233</v>
@@ -13039,10 +13039,10 @@
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B434" t="s">
         <v>1028</v>
-      </c>
-      <c r="B434" t="s">
-        <v>1029</v>
       </c>
       <c r="C434" t="s">
         <v>233</v>
@@ -13059,10 +13059,10 @@
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
+        <v>469</v>
+      </c>
+      <c r="B435" t="s">
         <v>470</v>
-      </c>
-      <c r="B435" t="s">
-        <v>471</v>
       </c>
       <c r="C435" t="s">
         <v>233</v>
@@ -13096,10 +13096,10 @@
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
+        <v>437</v>
+      </c>
+      <c r="B437" t="s">
         <v>438</v>
-      </c>
-      <c r="B437" t="s">
-        <v>439</v>
       </c>
       <c r="C437" t="s">
         <v>233</v>
@@ -13116,10 +13116,10 @@
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
+        <v>603</v>
+      </c>
+      <c r="B438" t="s">
         <v>604</v>
-      </c>
-      <c r="B438" t="s">
-        <v>605</v>
       </c>
       <c r="C438" t="s">
         <v>233</v>
@@ -13153,7 +13153,7 @@
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B440" t="s">
         <v>149</v>
@@ -13173,10 +13173,10 @@
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B441" t="s">
         <v>1165</v>
-      </c>
-      <c r="B441" t="s">
-        <v>1166</v>
       </c>
       <c r="C441" t="s">
         <v>233</v>
@@ -13210,10 +13210,10 @@
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
+        <v>898</v>
+      </c>
+      <c r="B443" t="s">
         <v>899</v>
-      </c>
-      <c r="B443" t="s">
-        <v>900</v>
       </c>
       <c r="C443" t="s">
         <v>233</v>
@@ -13230,10 +13230,10 @@
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
+        <v>662</v>
+      </c>
+      <c r="B444" t="s">
         <v>663</v>
-      </c>
-      <c r="B444" t="s">
-        <v>664</v>
       </c>
       <c r="C444" t="s">
         <v>233</v>
@@ -13250,10 +13250,10 @@
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
+        <v>721</v>
+      </c>
+      <c r="B445" t="s">
         <v>722</v>
-      </c>
-      <c r="B445" t="s">
-        <v>723</v>
       </c>
       <c r="C445" t="s">
         <v>233</v>
@@ -13287,10 +13287,10 @@
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
+        <v>816</v>
+      </c>
+      <c r="B447" t="s">
         <v>817</v>
-      </c>
-      <c r="B447" t="s">
-        <v>818</v>
       </c>
       <c r="C447" t="s">
         <v>233</v>
@@ -13324,10 +13324,10 @@
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
+        <v>818</v>
+      </c>
+      <c r="B449" t="s">
         <v>819</v>
-      </c>
-      <c r="B449" t="s">
-        <v>820</v>
       </c>
       <c r="C449" t="s">
         <v>233</v>
@@ -13344,10 +13344,10 @@
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
+        <v>814</v>
+      </c>
+      <c r="B450" t="s">
         <v>815</v>
-      </c>
-      <c r="B450" t="s">
-        <v>816</v>
       </c>
       <c r="C450" t="s">
         <v>233</v>
@@ -13364,10 +13364,10 @@
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
+        <v>812</v>
+      </c>
+      <c r="B451" t="s">
         <v>813</v>
-      </c>
-      <c r="B451" t="s">
-        <v>814</v>
       </c>
       <c r="C451" t="s">
         <v>233</v>
@@ -13384,10 +13384,10 @@
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
+        <v>356</v>
+      </c>
+      <c r="B452" t="s">
         <v>357</v>
-      </c>
-      <c r="B452" t="s">
-        <v>358</v>
       </c>
       <c r="C452" t="s">
         <v>233</v>
@@ -13407,7 +13407,7 @@
         <v>343</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="C453" t="s">
         <v>233</v>
@@ -13424,10 +13424,10 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C454" t="s">
         <v>233</v>
@@ -13444,10 +13444,10 @@
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B455" t="s">
         <v>1336</v>
-      </c>
-      <c r="B455" t="s">
-        <v>1337</v>
       </c>
       <c r="C455" t="s">
         <v>233</v>
@@ -13464,10 +13464,10 @@
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B456" t="s">
         <v>1113</v>
-      </c>
-      <c r="B456" t="s">
-        <v>1114</v>
       </c>
       <c r="C456" t="s">
         <v>233</v>
@@ -13484,10 +13484,10 @@
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
+        <v>441</v>
+      </c>
+      <c r="B457" t="s">
         <v>442</v>
-      </c>
-      <c r="B457" t="s">
-        <v>443</v>
       </c>
       <c r="C457" t="s">
         <v>233</v>
@@ -13504,10 +13504,10 @@
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B458" t="s">
         <v>1129</v>
-      </c>
-      <c r="B458" t="s">
-        <v>1130</v>
       </c>
       <c r="C458" t="s">
         <v>233</v>
@@ -13524,10 +13524,10 @@
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
+        <v>495</v>
+      </c>
+      <c r="B459" t="s">
         <v>496</v>
-      </c>
-      <c r="B459" t="s">
-        <v>497</v>
       </c>
       <c r="C459" t="s">
         <v>233</v>
@@ -13544,10 +13544,10 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B460" t="s">
         <v>1320</v>
-      </c>
-      <c r="B460" t="s">
-        <v>1321</v>
       </c>
       <c r="C460" t="s">
         <v>233</v>
@@ -13581,10 +13581,10 @@
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
+        <v>665</v>
+      </c>
+      <c r="B462" t="s">
         <v>666</v>
-      </c>
-      <c r="B462" t="s">
-        <v>667</v>
       </c>
       <c r="C462" t="s">
         <v>233</v>
@@ -13601,10 +13601,10 @@
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
+        <v>667</v>
+      </c>
+      <c r="B463" t="s">
         <v>668</v>
-      </c>
-      <c r="B463" t="s">
-        <v>669</v>
       </c>
       <c r="C463" t="s">
         <v>233</v>
@@ -13621,10 +13621,10 @@
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
+        <v>621</v>
+      </c>
+      <c r="B464" t="s">
         <v>622</v>
-      </c>
-      <c r="B464" t="s">
-        <v>623</v>
       </c>
       <c r="C464" t="s">
         <v>233</v>
@@ -13661,10 +13661,10 @@
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
+        <v>544</v>
+      </c>
+      <c r="B466" t="s">
         <v>545</v>
-      </c>
-      <c r="B466" t="s">
-        <v>546</v>
       </c>
       <c r="C466" t="s">
         <v>233</v>
@@ -13698,10 +13698,10 @@
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
+        <v>780</v>
+      </c>
+      <c r="B468" t="s">
         <v>781</v>
-      </c>
-      <c r="B468" t="s">
-        <v>782</v>
       </c>
       <c r="C468" t="s">
         <v>233</v>
@@ -13718,10 +13718,10 @@
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B469" t="s">
         <v>1146</v>
-      </c>
-      <c r="B469" t="s">
-        <v>1147</v>
       </c>
       <c r="C469" t="s">
         <v>233</v>
@@ -13738,10 +13738,10 @@
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
+        <v>449</v>
+      </c>
+      <c r="B470" t="s">
         <v>450</v>
-      </c>
-      <c r="B470" t="s">
-        <v>451</v>
       </c>
       <c r="C470" t="s">
         <v>233</v>
@@ -13758,10 +13758,10 @@
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
+        <v>744</v>
+      </c>
+      <c r="B471" t="s">
         <v>745</v>
-      </c>
-      <c r="B471" t="s">
-        <v>746</v>
       </c>
       <c r="C471" t="s">
         <v>233</v>
@@ -13778,10 +13778,10 @@
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B472" t="s">
         <v>1022</v>
-      </c>
-      <c r="B472" t="s">
-        <v>1023</v>
       </c>
       <c r="C472" t="s">
         <v>233</v>
@@ -13798,7 +13798,7 @@
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B473" t="s">
         <v>308</v>
@@ -13818,7 +13818,7 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B474" t="s">
         <v>325</v>
@@ -13838,10 +13838,10 @@
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B475" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C475" t="s">
         <v>233</v>
@@ -13858,10 +13858,10 @@
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B476" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C476" t="s">
         <v>233</v>
@@ -13878,7 +13878,7 @@
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B477" t="s">
         <v>303</v>
@@ -13898,10 +13898,10 @@
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B478" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C478" t="s">
         <v>233</v>
@@ -13918,10 +13918,10 @@
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B479" t="s">
         <v>565</v>
-      </c>
-      <c r="B479" t="s">
-        <v>566</v>
       </c>
       <c r="C479" t="s">
         <v>233</v>
@@ -13938,10 +13938,10 @@
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
+        <v>424</v>
+      </c>
+      <c r="B480" t="s">
         <v>425</v>
-      </c>
-      <c r="B480" t="s">
-        <v>426</v>
       </c>
       <c r="C480" t="s">
         <v>233</v>
@@ -13958,10 +13958,10 @@
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
+        <v>734</v>
+      </c>
+      <c r="B481" t="s">
         <v>735</v>
-      </c>
-      <c r="B481" t="s">
-        <v>736</v>
       </c>
       <c r="C481" t="s">
         <v>233</v>
@@ -13998,10 +13998,10 @@
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
+        <v>421</v>
+      </c>
+      <c r="B483" t="s">
         <v>422</v>
-      </c>
-      <c r="B483" t="s">
-        <v>423</v>
       </c>
       <c r="C483" t="s">
         <v>233</v>
@@ -14018,10 +14018,10 @@
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
+        <v>485</v>
+      </c>
+      <c r="B484" t="s">
         <v>486</v>
-      </c>
-      <c r="B484" t="s">
-        <v>487</v>
       </c>
       <c r="C484" t="s">
         <v>233</v>
@@ -14038,10 +14038,10 @@
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B485" t="s">
         <v>1188</v>
-      </c>
-      <c r="B485" t="s">
-        <v>1189</v>
       </c>
       <c r="C485" t="s">
         <v>233</v>
@@ -14058,10 +14058,10 @@
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B486" t="s">
         <v>1172</v>
-      </c>
-      <c r="B486" t="s">
-        <v>1173</v>
       </c>
       <c r="C486" t="s">
         <v>233</v>
@@ -14078,10 +14078,10 @@
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
+        <v>574</v>
+      </c>
+      <c r="B487" t="s">
         <v>575</v>
-      </c>
-      <c r="B487" t="s">
-        <v>576</v>
       </c>
       <c r="C487" t="s">
         <v>233</v>
@@ -14098,10 +14098,10 @@
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B488" t="s">
         <v>1024</v>
-      </c>
-      <c r="B488" t="s">
-        <v>1025</v>
       </c>
       <c r="C488" t="s">
         <v>233</v>
@@ -14118,10 +14118,10 @@
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
+        <v>878</v>
+      </c>
+      <c r="B489" t="s">
         <v>879</v>
-      </c>
-      <c r="B489" t="s">
-        <v>880</v>
       </c>
       <c r="C489" t="s">
         <v>233</v>
@@ -14158,10 +14158,10 @@
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
+        <v>353</v>
+      </c>
+      <c r="B491" t="s">
         <v>354</v>
-      </c>
-      <c r="B491" t="s">
-        <v>355</v>
       </c>
       <c r="C491" t="s">
         <v>233</v>
@@ -14178,10 +14178,10 @@
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
+        <v>374</v>
+      </c>
+      <c r="B492" t="s">
         <v>375</v>
-      </c>
-      <c r="B492" t="s">
-        <v>376</v>
       </c>
       <c r="C492" t="s">
         <v>233</v>
@@ -14198,10 +14198,10 @@
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B493" t="s">
         <v>1304</v>
-      </c>
-      <c r="B493" t="s">
-        <v>1305</v>
       </c>
       <c r="C493" t="s">
         <v>233</v>
@@ -14218,10 +14218,10 @@
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B494" t="s">
         <v>1178</v>
-      </c>
-      <c r="B494" t="s">
-        <v>1179</v>
       </c>
       <c r="C494" t="s">
         <v>233</v>
@@ -14238,10 +14238,10 @@
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
+        <v>730</v>
+      </c>
+      <c r="B495" t="s">
         <v>731</v>
-      </c>
-      <c r="B495" t="s">
-        <v>732</v>
       </c>
       <c r="C495" t="s">
         <v>233</v>
@@ -14258,10 +14258,10 @@
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B496" t="s">
         <v>1150</v>
-      </c>
-      <c r="B496" t="s">
-        <v>1151</v>
       </c>
       <c r="C496" t="s">
         <v>233</v>
@@ -14278,10 +14278,10 @@
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
+        <v>599</v>
+      </c>
+      <c r="B497" t="s">
         <v>600</v>
-      </c>
-      <c r="B497" t="s">
-        <v>601</v>
       </c>
       <c r="C497" t="s">
         <v>233</v>
@@ -14338,7 +14338,7 @@
         <v>43</v>
       </c>
       <c r="B500" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C500" t="s">
         <v>233</v>
@@ -14355,10 +14355,10 @@
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B501" t="s">
         <v>1324</v>
-      </c>
-      <c r="B501" t="s">
-        <v>1325</v>
       </c>
       <c r="C501" t="s">
         <v>233</v>
@@ -14375,10 +14375,10 @@
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
+        <v>360</v>
+      </c>
+      <c r="B502" t="s">
         <v>361</v>
-      </c>
-      <c r="B502" t="s">
-        <v>362</v>
       </c>
       <c r="C502" t="s">
         <v>233</v>
@@ -14449,10 +14449,10 @@
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
+        <v>647</v>
+      </c>
+      <c r="B506" t="s">
         <v>648</v>
-      </c>
-      <c r="B506" t="s">
-        <v>649</v>
       </c>
       <c r="C506" t="s">
         <v>233</v>
@@ -14469,10 +14469,10 @@
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B507" t="s">
         <v>1218</v>
-      </c>
-      <c r="B507" t="s">
-        <v>1219</v>
       </c>
       <c r="C507" t="s">
         <v>233</v>
@@ -14489,10 +14489,10 @@
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
+        <v>996</v>
+      </c>
+      <c r="B508" t="s">
         <v>997</v>
-      </c>
-      <c r="B508" t="s">
-        <v>998</v>
       </c>
       <c r="C508" t="s">
         <v>233</v>
@@ -14509,10 +14509,10 @@
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B509" t="s">
         <v>1007</v>
-      </c>
-      <c r="B509" t="s">
-        <v>1008</v>
       </c>
       <c r="C509" t="s">
         <v>233</v>
@@ -14529,10 +14529,10 @@
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B510" t="s">
         <v>1224</v>
-      </c>
-      <c r="B510" t="s">
-        <v>1225</v>
       </c>
       <c r="C510" t="s">
         <v>233</v>
@@ -14549,10 +14549,10 @@
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B511" t="s">
         <v>1074</v>
-      </c>
-      <c r="B511" t="s">
-        <v>1075</v>
       </c>
       <c r="C511" t="s">
         <v>233</v>
@@ -14569,10 +14569,10 @@
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
+        <v>570</v>
+      </c>
+      <c r="B512" t="s">
         <v>571</v>
-      </c>
-      <c r="B512" t="s">
-        <v>572</v>
       </c>
       <c r="C512" t="s">
         <v>233</v>
@@ -14606,10 +14606,10 @@
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B514" t="s">
         <v>1298</v>
-      </c>
-      <c r="B514" t="s">
-        <v>1299</v>
       </c>
       <c r="C514" t="s">
         <v>233</v>
@@ -14626,10 +14626,10 @@
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
+        <v>774</v>
+      </c>
+      <c r="B515" t="s">
         <v>775</v>
-      </c>
-      <c r="B515" t="s">
-        <v>776</v>
       </c>
       <c r="C515" t="s">
         <v>233</v>
@@ -14646,10 +14646,10 @@
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
+        <v>945</v>
+      </c>
+      <c r="B516" t="s">
         <v>946</v>
-      </c>
-      <c r="B516" t="s">
-        <v>947</v>
       </c>
       <c r="C516" t="s">
         <v>233</v>
@@ -14666,10 +14666,10 @@
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
+        <v>927</v>
+      </c>
+      <c r="B517" t="s">
         <v>928</v>
-      </c>
-      <c r="B517" t="s">
-        <v>929</v>
       </c>
       <c r="C517" t="s">
         <v>233</v>
@@ -14703,10 +14703,10 @@
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
+        <v>505</v>
+      </c>
+      <c r="B519" t="s">
         <v>506</v>
-      </c>
-      <c r="B519" t="s">
-        <v>507</v>
       </c>
       <c r="C519" t="s">
         <v>233</v>
@@ -14740,10 +14740,10 @@
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
+        <v>433</v>
+      </c>
+      <c r="B521" t="s">
         <v>434</v>
-      </c>
-      <c r="B521" t="s">
-        <v>435</v>
       </c>
       <c r="C521" t="s">
         <v>233</v>
@@ -14780,10 +14780,10 @@
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
+        <v>933</v>
+      </c>
+      <c r="B523" t="s">
         <v>934</v>
-      </c>
-      <c r="B523" t="s">
-        <v>935</v>
       </c>
       <c r="C523" t="s">
         <v>233</v>
@@ -14800,10 +14800,10 @@
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B524" t="s">
         <v>1214</v>
-      </c>
-      <c r="B524" t="s">
-        <v>1215</v>
       </c>
       <c r="C524" t="s">
         <v>233</v>
@@ -14820,10 +14820,10 @@
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B525" t="s">
         <v>1072</v>
-      </c>
-      <c r="B525" t="s">
-        <v>1073</v>
       </c>
       <c r="C525" t="s">
         <v>233</v>
@@ -14840,10 +14840,10 @@
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
+        <v>654</v>
+      </c>
+      <c r="B526" t="s">
         <v>655</v>
-      </c>
-      <c r="B526" t="s">
-        <v>656</v>
       </c>
       <c r="C526" t="s">
         <v>233</v>
@@ -14860,10 +14860,10 @@
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
+        <v>804</v>
+      </c>
+      <c r="B527" t="s">
         <v>805</v>
-      </c>
-      <c r="B527" t="s">
-        <v>806</v>
       </c>
       <c r="C527" t="s">
         <v>233</v>
@@ -14880,10 +14880,10 @@
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B528" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C528" t="s">
         <v>233</v>
@@ -14900,10 +14900,10 @@
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
+        <v>969</v>
+      </c>
+      <c r="B529" t="s">
         <v>970</v>
-      </c>
-      <c r="B529" t="s">
-        <v>971</v>
       </c>
       <c r="C529" t="s">
         <v>233</v>
@@ -14920,10 +14920,10 @@
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B530" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C530" t="s">
         <v>233</v>
@@ -14960,10 +14960,10 @@
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
+        <v>967</v>
+      </c>
+      <c r="B532" t="s">
         <v>968</v>
-      </c>
-      <c r="B532" t="s">
-        <v>969</v>
       </c>
       <c r="C532" t="s">
         <v>233</v>
@@ -14980,10 +14980,10 @@
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B533" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C533" t="s">
         <v>233</v>
@@ -15000,10 +15000,10 @@
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
+        <v>808</v>
+      </c>
+      <c r="B534" t="s">
         <v>809</v>
-      </c>
-      <c r="B534" t="s">
-        <v>810</v>
       </c>
       <c r="C534" t="s">
         <v>233</v>
@@ -15054,10 +15054,10 @@
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
+        <v>713</v>
+      </c>
+      <c r="B537" t="s">
         <v>714</v>
-      </c>
-      <c r="B537" t="s">
-        <v>715</v>
       </c>
       <c r="C537" t="s">
         <v>233</v>
@@ -15074,10 +15074,10 @@
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
+        <v>552</v>
+      </c>
+      <c r="B538" t="s">
         <v>553</v>
-      </c>
-      <c r="B538" t="s">
-        <v>554</v>
       </c>
       <c r="C538" t="s">
         <v>233</v>
@@ -15094,10 +15094,10 @@
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
+        <v>844</v>
+      </c>
+      <c r="B539" t="s">
         <v>845</v>
-      </c>
-      <c r="B539" t="s">
-        <v>846</v>
       </c>
       <c r="C539" t="s">
         <v>233</v>
@@ -15114,10 +15114,10 @@
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
+        <v>711</v>
+      </c>
+      <c r="B540" t="s">
         <v>712</v>
-      </c>
-      <c r="B540" t="s">
-        <v>713</v>
       </c>
       <c r="C540" t="s">
         <v>233</v>
@@ -15134,10 +15134,10 @@
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B541" t="s">
         <v>1340</v>
-      </c>
-      <c r="B541" t="s">
-        <v>1341</v>
       </c>
       <c r="C541" t="s">
         <v>233</v>
@@ -15154,10 +15154,10 @@
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
+        <v>834</v>
+      </c>
+      <c r="B542" t="s">
         <v>835</v>
-      </c>
-      <c r="B542" t="s">
-        <v>836</v>
       </c>
       <c r="C542" t="s">
         <v>233</v>
@@ -15174,10 +15174,10 @@
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
+        <v>919</v>
+      </c>
+      <c r="B543" t="s">
         <v>920</v>
-      </c>
-      <c r="B543" t="s">
-        <v>921</v>
       </c>
       <c r="C543" t="s">
         <v>233</v>
@@ -15194,10 +15194,10 @@
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
+        <v>923</v>
+      </c>
+      <c r="B544" t="s">
         <v>924</v>
-      </c>
-      <c r="B544" t="s">
-        <v>925</v>
       </c>
       <c r="C544" t="s">
         <v>233</v>
@@ -15214,10 +15214,10 @@
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
+        <v>921</v>
+      </c>
+      <c r="B545" t="s">
         <v>922</v>
-      </c>
-      <c r="B545" t="s">
-        <v>923</v>
       </c>
       <c r="C545" t="s">
         <v>233</v>
@@ -15234,10 +15234,10 @@
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B546" t="s">
         <v>1016</v>
-      </c>
-      <c r="B546" t="s">
-        <v>1017</v>
       </c>
       <c r="C546" t="s">
         <v>233</v>
@@ -15254,10 +15254,10 @@
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
+        <v>782</v>
+      </c>
+      <c r="B547" t="s">
         <v>783</v>
-      </c>
-      <c r="B547" t="s">
-        <v>784</v>
       </c>
       <c r="C547" t="s">
         <v>233</v>
@@ -15274,10 +15274,10 @@
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
+        <v>578</v>
+      </c>
+      <c r="B548" t="s">
         <v>579</v>
-      </c>
-      <c r="B548" t="s">
-        <v>580</v>
       </c>
       <c r="C548" t="s">
         <v>233</v>
@@ -15294,10 +15294,10 @@
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
+        <v>378</v>
+      </c>
+      <c r="B549" t="s">
         <v>379</v>
-      </c>
-      <c r="B549" t="s">
-        <v>380</v>
       </c>
       <c r="C549" t="s">
         <v>233</v>
@@ -15314,10 +15314,10 @@
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
+        <v>850</v>
+      </c>
+      <c r="B550" t="s">
         <v>851</v>
-      </c>
-      <c r="B550" t="s">
-        <v>852</v>
       </c>
       <c r="C550" t="s">
         <v>233</v>
@@ -15334,7 +15334,7 @@
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C551" t="s">
         <v>233</v>
@@ -15351,10 +15351,10 @@
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B552" t="s">
         <v>1255</v>
-      </c>
-      <c r="B552" t="s">
-        <v>1256</v>
       </c>
       <c r="C552" t="s">
         <v>233</v>
@@ -15371,10 +15371,10 @@
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
+        <v>645</v>
+      </c>
+      <c r="B553" t="s">
         <v>646</v>
-      </c>
-      <c r="B553" t="s">
-        <v>647</v>
       </c>
       <c r="C553" t="s">
         <v>233</v>
@@ -15391,10 +15391,10 @@
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
+        <v>380</v>
+      </c>
+      <c r="B554" t="s">
         <v>381</v>
-      </c>
-      <c r="B554" t="s">
-        <v>382</v>
       </c>
       <c r="C554" t="s">
         <v>233</v>
@@ -15411,10 +15411,10 @@
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
+        <v>979</v>
+      </c>
+      <c r="B555" t="s">
         <v>980</v>
-      </c>
-      <c r="B555" t="s">
-        <v>981</v>
       </c>
       <c r="C555" t="s">
         <v>233</v>
@@ -15431,10 +15431,10 @@
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B556" t="s">
         <v>1096</v>
-      </c>
-      <c r="B556" t="s">
-        <v>1097</v>
       </c>
       <c r="C556" t="s">
         <v>233</v>
@@ -15451,10 +15451,10 @@
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B557" t="s">
         <v>1292</v>
-      </c>
-      <c r="B557" t="s">
-        <v>1293</v>
       </c>
       <c r="C557" t="s">
         <v>233</v>
@@ -15559,10 +15559,10 @@
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
+        <v>637</v>
+      </c>
+      <c r="B563" t="s">
         <v>638</v>
-      </c>
-      <c r="B563" t="s">
-        <v>639</v>
       </c>
       <c r="C563" t="s">
         <v>233</v>
@@ -15579,10 +15579,10 @@
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
+        <v>639</v>
+      </c>
+      <c r="B564" t="s">
         <v>640</v>
-      </c>
-      <c r="B564" t="s">
-        <v>641</v>
       </c>
       <c r="C564" t="s">
         <v>233</v>
@@ -15599,10 +15599,10 @@
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B565" t="s">
         <v>1020</v>
-      </c>
-      <c r="B565" t="s">
-        <v>1021</v>
       </c>
       <c r="C565" t="s">
         <v>233</v>
@@ -15619,10 +15619,10 @@
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
+        <v>838</v>
+      </c>
+      <c r="B566" t="s">
         <v>839</v>
-      </c>
-      <c r="B566" t="s">
-        <v>840</v>
       </c>
       <c r="C566" t="s">
         <v>233</v>
@@ -15639,10 +15639,10 @@
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
+        <v>951</v>
+      </c>
+      <c r="B567" t="s">
         <v>952</v>
-      </c>
-      <c r="B567" t="s">
-        <v>953</v>
       </c>
       <c r="C567" t="s">
         <v>233</v>
@@ -15659,10 +15659,10 @@
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
+        <v>445</v>
+      </c>
+      <c r="B568" t="s">
         <v>446</v>
-      </c>
-      <c r="B568" t="s">
-        <v>447</v>
       </c>
       <c r="C568" t="s">
         <v>233</v>
@@ -15679,10 +15679,10 @@
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
+        <v>399</v>
+      </c>
+      <c r="B569" t="s">
         <v>400</v>
-      </c>
-      <c r="B569" t="s">
-        <v>401</v>
       </c>
       <c r="C569" t="s">
         <v>233</v>
@@ -15699,10 +15699,10 @@
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B570" t="s">
         <v>1232</v>
-      </c>
-      <c r="B570" t="s">
-        <v>1233</v>
       </c>
       <c r="C570" t="s">
         <v>233</v>
@@ -15759,10 +15759,10 @@
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
+        <v>956</v>
+      </c>
+      <c r="B573" t="s">
         <v>957</v>
-      </c>
-      <c r="B573" t="s">
-        <v>958</v>
       </c>
       <c r="C573" t="s">
         <v>233</v>
@@ -15779,10 +15779,10 @@
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
+        <v>625</v>
+      </c>
+      <c r="B574" t="s">
         <v>626</v>
-      </c>
-      <c r="B574" t="s">
-        <v>627</v>
       </c>
       <c r="C574" t="s">
         <v>233</v>
@@ -15799,10 +15799,10 @@
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
+        <v>627</v>
+      </c>
+      <c r="B575" t="s">
         <v>628</v>
-      </c>
-      <c r="B575" t="s">
-        <v>629</v>
       </c>
       <c r="C575" t="s">
         <v>233</v>
@@ -15819,10 +15819,10 @@
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B576" t="s">
         <v>1169</v>
-      </c>
-      <c r="B576" t="s">
-        <v>1170</v>
       </c>
       <c r="C576" t="s">
         <v>233</v>
@@ -15859,10 +15859,10 @@
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B578" t="s">
         <v>1334</v>
-      </c>
-      <c r="B578" t="s">
-        <v>1335</v>
       </c>
       <c r="C578" t="s">
         <v>233</v>
@@ -15879,10 +15879,10 @@
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B579" t="s">
         <v>1222</v>
-      </c>
-      <c r="B579" t="s">
-        <v>1223</v>
       </c>
       <c r="C579" t="s">
         <v>233</v>
@@ -15899,10 +15899,10 @@
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
+        <v>597</v>
+      </c>
+      <c r="B580" t="s">
         <v>598</v>
-      </c>
-      <c r="B580" t="s">
-        <v>599</v>
       </c>
       <c r="C580" t="s">
         <v>233</v>
@@ -15919,10 +15919,10 @@
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B581" t="s">
         <v>1267</v>
-      </c>
-      <c r="B581" t="s">
-        <v>1268</v>
       </c>
       <c r="C581" t="s">
         <v>233</v>
@@ -15939,10 +15939,10 @@
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B582" t="s">
         <v>1234</v>
-      </c>
-      <c r="B582" t="s">
-        <v>1235</v>
       </c>
       <c r="C582" t="s">
         <v>233</v>
@@ -15959,10 +15959,10 @@
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
+        <v>633</v>
+      </c>
+      <c r="B583" t="s">
         <v>634</v>
-      </c>
-      <c r="B583" t="s">
-        <v>635</v>
       </c>
       <c r="C583" t="s">
         <v>233</v>
@@ -15979,10 +15979,10 @@
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B584" t="s">
         <v>1090</v>
-      </c>
-      <c r="B584" t="s">
-        <v>1091</v>
       </c>
       <c r="C584" t="s">
         <v>233</v>
@@ -15999,10 +15999,10 @@
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
+        <v>401</v>
+      </c>
+      <c r="B585" t="s">
         <v>402</v>
-      </c>
-      <c r="B585" t="s">
-        <v>403</v>
       </c>
       <c r="C585" t="s">
         <v>233</v>
@@ -16019,10 +16019,10 @@
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B586" t="s">
         <v>1135</v>
-      </c>
-      <c r="B586" t="s">
-        <v>1136</v>
       </c>
       <c r="C586" t="s">
         <v>233</v>
@@ -16039,10 +16039,10 @@
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B587" t="s">
         <v>1144</v>
-      </c>
-      <c r="B587" t="s">
-        <v>1145</v>
       </c>
       <c r="C587" t="s">
         <v>233</v>
@@ -16076,10 +16076,10 @@
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
+        <v>568</v>
+      </c>
+      <c r="B589" t="s">
         <v>569</v>
-      </c>
-      <c r="B589" t="s">
-        <v>570</v>
       </c>
       <c r="C589" t="s">
         <v>233</v>
@@ -16130,10 +16130,10 @@
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
+        <v>680</v>
+      </c>
+      <c r="B592" t="s">
         <v>681</v>
-      </c>
-      <c r="B592" t="s">
-        <v>682</v>
       </c>
       <c r="C592" t="s">
         <v>233</v>
@@ -16150,10 +16150,10 @@
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
+        <v>479</v>
+      </c>
+      <c r="B593" t="s">
         <v>480</v>
-      </c>
-      <c r="B593" t="s">
-        <v>481</v>
       </c>
       <c r="C593" t="s">
         <v>233</v>
@@ -16170,10 +16170,10 @@
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
+        <v>723</v>
+      </c>
+      <c r="B594" t="s">
         <v>724</v>
-      </c>
-      <c r="B594" t="s">
-        <v>725</v>
       </c>
       <c r="C594" t="s">
         <v>233</v>
@@ -16190,10 +16190,10 @@
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
+        <v>536</v>
+      </c>
+      <c r="B595" t="s">
         <v>537</v>
-      </c>
-      <c r="B595" t="s">
-        <v>538</v>
       </c>
       <c r="C595" t="s">
         <v>233</v>
@@ -16210,10 +16210,10 @@
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
+        <v>372</v>
+      </c>
+      <c r="B596" t="s">
         <v>373</v>
-      </c>
-      <c r="B596" t="s">
-        <v>374</v>
       </c>
       <c r="C596" t="s">
         <v>233</v>
@@ -16230,7 +16230,7 @@
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C597" t="s">
         <v>233</v>
@@ -16247,10 +16247,10 @@
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
+        <v>542</v>
+      </c>
+      <c r="B598" t="s">
         <v>543</v>
-      </c>
-      <c r="B598" t="s">
-        <v>544</v>
       </c>
       <c r="C598" t="s">
         <v>233</v>
@@ -16267,10 +16267,10 @@
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
+        <v>383</v>
+      </c>
+      <c r="B599" t="s">
         <v>384</v>
-      </c>
-      <c r="B599" t="s">
-        <v>385</v>
       </c>
       <c r="C599" t="s">
         <v>233</v>
@@ -16287,10 +16287,10 @@
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B600" t="s">
         <v>1140</v>
-      </c>
-      <c r="B600" t="s">
-        <v>1141</v>
       </c>
       <c r="C600" t="s">
         <v>233</v>
@@ -16324,10 +16324,10 @@
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
+        <v>977</v>
+      </c>
+      <c r="B602" t="s">
         <v>978</v>
-      </c>
-      <c r="B602" t="s">
-        <v>979</v>
       </c>
       <c r="C602" t="s">
         <v>233</v>
@@ -16344,10 +16344,10 @@
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
+        <v>511</v>
+      </c>
+      <c r="B603" t="s">
         <v>512</v>
-      </c>
-      <c r="B603" t="s">
-        <v>513</v>
       </c>
       <c r="C603" t="s">
         <v>233</v>
@@ -16381,10 +16381,10 @@
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
+        <v>349</v>
+      </c>
+      <c r="B605" t="s">
         <v>350</v>
-      </c>
-      <c r="B605" t="s">
-        <v>351</v>
       </c>
       <c r="C605" t="s">
         <v>233</v>
@@ -16401,10 +16401,10 @@
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B606" t="s">
         <v>1190</v>
-      </c>
-      <c r="B606" t="s">
-        <v>1191</v>
       </c>
       <c r="C606" t="s">
         <v>233</v>
@@ -16421,10 +16421,10 @@
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
+        <v>358</v>
+      </c>
+      <c r="B607" t="s">
         <v>359</v>
-      </c>
-      <c r="B607" t="s">
-        <v>360</v>
       </c>
       <c r="C607" t="s">
         <v>233</v>
@@ -16458,10 +16458,10 @@
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
+        <v>409</v>
+      </c>
+      <c r="B609" t="s">
         <v>410</v>
-      </c>
-      <c r="B609" t="s">
-        <v>411</v>
       </c>
       <c r="C609" t="s">
         <v>233</v>
@@ -16478,10 +16478,10 @@
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
+        <v>649</v>
+      </c>
+      <c r="B610" t="s">
         <v>650</v>
-      </c>
-      <c r="B610" t="s">
-        <v>651</v>
       </c>
       <c r="C610" t="s">
         <v>233</v>
@@ -16515,10 +16515,10 @@
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
+        <v>605</v>
+      </c>
+      <c r="B612" t="s">
         <v>606</v>
-      </c>
-      <c r="B612" t="s">
-        <v>607</v>
       </c>
       <c r="C612" t="s">
         <v>233</v>
@@ -16535,10 +16535,10 @@
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
+        <v>790</v>
+      </c>
+      <c r="B613" t="s">
         <v>791</v>
-      </c>
-      <c r="B613" t="s">
-        <v>792</v>
       </c>
       <c r="C613" t="s">
         <v>233</v>
@@ -16555,10 +16555,10 @@
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
+        <v>509</v>
+      </c>
+      <c r="B614" t="s">
         <v>510</v>
-      </c>
-      <c r="B614" t="s">
-        <v>511</v>
       </c>
       <c r="C614" t="s">
         <v>233</v>
@@ -16592,10 +16592,10 @@
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
+        <v>453</v>
+      </c>
+      <c r="B616" t="s">
         <v>454</v>
-      </c>
-      <c r="B616" t="s">
-        <v>455</v>
       </c>
       <c r="C616" t="s">
         <v>233</v>
@@ -16612,10 +16612,10 @@
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
+        <v>523</v>
+      </c>
+      <c r="B617" t="s">
         <v>524</v>
-      </c>
-      <c r="B617" t="s">
-        <v>525</v>
       </c>
       <c r="C617" t="s">
         <v>233</v>
@@ -16632,10 +16632,10 @@
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
+        <v>768</v>
+      </c>
+      <c r="B618" t="s">
         <v>769</v>
-      </c>
-      <c r="B618" t="s">
-        <v>770</v>
       </c>
       <c r="C618" t="s">
         <v>233</v>
@@ -16652,10 +16652,10 @@
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B619" t="s">
         <v>1277</v>
-      </c>
-      <c r="B619" t="s">
-        <v>1278</v>
       </c>
       <c r="C619" t="s">
         <v>233</v>
@@ -16672,10 +16672,10 @@
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
+        <v>609</v>
+      </c>
+      <c r="B620" t="s">
         <v>610</v>
-      </c>
-      <c r="B620" t="s">
-        <v>611</v>
       </c>
       <c r="C620" t="s">
         <v>233</v>
@@ -16692,10 +16692,10 @@
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
+        <v>515</v>
+      </c>
+      <c r="B621" t="s">
         <v>516</v>
-      </c>
-      <c r="B621" t="s">
-        <v>517</v>
       </c>
       <c r="C621" t="s">
         <v>233</v>
@@ -16712,10 +16712,10 @@
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
+        <v>862</v>
+      </c>
+      <c r="B622" t="s">
         <v>863</v>
-      </c>
-      <c r="B622" t="s">
-        <v>864</v>
       </c>
       <c r="C622" t="s">
         <v>233</v>
@@ -16735,7 +16735,7 @@
         <v>134</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C623" t="s">
         <v>1</v>
@@ -16749,10 +16749,10 @@
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
+        <v>581</v>
+      </c>
+      <c r="B624" t="s">
         <v>582</v>
-      </c>
-      <c r="B624" t="s">
-        <v>583</v>
       </c>
       <c r="C624" t="s">
         <v>233</v>
@@ -16769,10 +16769,10 @@
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
+        <v>792</v>
+      </c>
+      <c r="B625" t="s">
         <v>793</v>
-      </c>
-      <c r="B625" t="s">
-        <v>794</v>
       </c>
       <c r="C625" t="s">
         <v>233</v>
@@ -16789,10 +16789,10 @@
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
+        <v>864</v>
+      </c>
+      <c r="B626" t="s">
         <v>865</v>
-      </c>
-      <c r="B626" t="s">
-        <v>866</v>
       </c>
       <c r="C626" t="s">
         <v>233</v>
@@ -16809,10 +16809,10 @@
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
+        <v>475</v>
+      </c>
+      <c r="B627" t="s">
         <v>476</v>
-      </c>
-      <c r="B627" t="s">
-        <v>477</v>
       </c>
       <c r="C627" t="s">
         <v>233</v>
@@ -16829,10 +16829,10 @@
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="C628" t="s">
         <v>233</v>
@@ -16849,10 +16849,10 @@
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B629" t="s">
         <v>1352</v>
-      </c>
-      <c r="B629" t="s">
-        <v>1353</v>
       </c>
       <c r="C629" t="s">
         <v>233</v>
@@ -16869,10 +16869,10 @@
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B630" t="s">
         <v>1182</v>
-      </c>
-      <c r="B630" t="s">
-        <v>1183</v>
       </c>
       <c r="C630" t="s">
         <v>233</v>
@@ -16889,10 +16889,10 @@
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
+        <v>411</v>
+      </c>
+      <c r="B631" t="s">
         <v>412</v>
-      </c>
-      <c r="B631" t="s">
-        <v>413</v>
       </c>
       <c r="C631" t="s">
         <v>233</v>
@@ -16909,10 +16909,10 @@
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
+        <v>725</v>
+      </c>
+      <c r="B632" t="s">
         <v>726</v>
-      </c>
-      <c r="B632" t="s">
-        <v>727</v>
       </c>
       <c r="C632" t="s">
         <v>233</v>
@@ -16929,10 +16929,10 @@
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
+        <v>882</v>
+      </c>
+      <c r="B633" t="s">
         <v>883</v>
-      </c>
-      <c r="B633" t="s">
-        <v>884</v>
       </c>
       <c r="C633" t="s">
         <v>233</v>
@@ -16949,10 +16949,10 @@
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B634" t="s">
         <v>1261</v>
-      </c>
-      <c r="B634" t="s">
-        <v>1262</v>
       </c>
       <c r="C634" t="s">
         <v>233</v>
@@ -16986,10 +16986,10 @@
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
+        <v>786</v>
+      </c>
+      <c r="B636" t="s">
         <v>787</v>
-      </c>
-      <c r="B636" t="s">
-        <v>788</v>
       </c>
       <c r="C636" t="s">
         <v>233</v>
@@ -17006,10 +17006,10 @@
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
+        <v>963</v>
+      </c>
+      <c r="B637" t="s">
         <v>964</v>
-      </c>
-      <c r="B637" t="s">
-        <v>965</v>
       </c>
       <c r="C637" t="s">
         <v>233</v>
@@ -17026,10 +17026,10 @@
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B638" t="s">
         <v>1080</v>
-      </c>
-      <c r="B638" t="s">
-        <v>1081</v>
       </c>
       <c r="C638" t="s">
         <v>233</v>
@@ -17046,10 +17046,10 @@
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
+        <v>613</v>
+      </c>
+      <c r="B639" t="s">
         <v>614</v>
-      </c>
-      <c r="B639" t="s">
-        <v>615</v>
       </c>
       <c r="C639" t="s">
         <v>233</v>
@@ -17066,10 +17066,10 @@
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B640" t="s">
         <v>1271</v>
-      </c>
-      <c r="B640" t="s">
-        <v>1272</v>
       </c>
       <c r="C640" t="s">
         <v>233</v>
@@ -17086,10 +17086,10 @@
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B641" t="s">
         <v>1273</v>
-      </c>
-      <c r="B641" t="s">
-        <v>1274</v>
       </c>
       <c r="C641" t="s">
         <v>233</v>
@@ -17106,10 +17106,10 @@
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B642" t="s">
         <v>1148</v>
-      </c>
-      <c r="B642" t="s">
-        <v>1149</v>
       </c>
       <c r="C642" t="s">
         <v>233</v>
@@ -17126,10 +17126,10 @@
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B643" t="s">
         <v>1154</v>
-      </c>
-      <c r="B643" t="s">
-        <v>1155</v>
       </c>
       <c r="C643" t="s">
         <v>233</v>
@@ -17146,7 +17146,7 @@
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C644" t="s">
         <v>233</v>
@@ -17180,10 +17180,10 @@
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B646" t="s">
         <v>1161</v>
-      </c>
-      <c r="B646" t="s">
-        <v>1162</v>
       </c>
       <c r="C646" t="s">
         <v>233</v>
@@ -17200,10 +17200,10 @@
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B647" t="s">
         <v>1366</v>
-      </c>
-      <c r="B647" t="s">
-        <v>1367</v>
       </c>
       <c r="C647" t="s">
         <v>233</v>
@@ -17220,10 +17220,10 @@
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B648" t="s">
         <v>1368</v>
-      </c>
-      <c r="B648" t="s">
-        <v>1369</v>
       </c>
       <c r="C648" t="s">
         <v>233</v>
@@ -17257,10 +17257,10 @@
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
+        <v>888</v>
+      </c>
+      <c r="B650" t="s">
         <v>889</v>
-      </c>
-      <c r="B650" t="s">
-        <v>890</v>
       </c>
       <c r="C650" t="s">
         <v>233</v>
@@ -17277,10 +17277,10 @@
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
+        <v>643</v>
+      </c>
+      <c r="B651" t="s">
         <v>644</v>
-      </c>
-      <c r="B651" t="s">
-        <v>645</v>
       </c>
       <c r="C651" t="s">
         <v>233</v>
@@ -17297,10 +17297,10 @@
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B652" t="s">
         <v>1044</v>
-      </c>
-      <c r="B652" t="s">
-        <v>1045</v>
       </c>
       <c r="C652" t="s">
         <v>233</v>
@@ -17317,10 +17317,10 @@
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B653" t="s">
         <v>1176</v>
-      </c>
-      <c r="B653" t="s">
-        <v>1177</v>
       </c>
       <c r="C653" t="s">
         <v>233</v>
@@ -17371,10 +17371,10 @@
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
+        <v>615</v>
+      </c>
+      <c r="B656" t="s">
         <v>616</v>
-      </c>
-      <c r="B656" t="s">
-        <v>617</v>
       </c>
       <c r="C656" t="s">
         <v>233</v>
@@ -17391,10 +17391,10 @@
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
+        <v>866</v>
+      </c>
+      <c r="B657" t="s">
         <v>867</v>
-      </c>
-      <c r="B657" t="s">
-        <v>868</v>
       </c>
       <c r="C657" t="s">
         <v>233</v>
@@ -17451,10 +17451,10 @@
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
+        <v>540</v>
+      </c>
+      <c r="B660" t="s">
         <v>541</v>
-      </c>
-      <c r="B660" t="s">
-        <v>542</v>
       </c>
       <c r="C660" t="s">
         <v>233</v>
@@ -17471,10 +17471,10 @@
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
+        <v>935</v>
+      </c>
+      <c r="B661" t="s">
         <v>936</v>
-      </c>
-      <c r="B661" t="s">
-        <v>937</v>
       </c>
       <c r="C661" t="s">
         <v>233</v>
@@ -17491,10 +17491,10 @@
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B662" t="s">
         <v>1098</v>
-      </c>
-      <c r="B662" t="s">
-        <v>1099</v>
       </c>
       <c r="C662" t="s">
         <v>233</v>
@@ -17511,10 +17511,10 @@
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
+        <v>947</v>
+      </c>
+      <c r="B663" t="s">
         <v>948</v>
-      </c>
-      <c r="B663" t="s">
-        <v>949</v>
       </c>
       <c r="C663" t="s">
         <v>233</v>
@@ -17548,10 +17548,10 @@
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
+        <v>435</v>
+      </c>
+      <c r="B665" t="s">
         <v>436</v>
-      </c>
-      <c r="B665" t="s">
-        <v>437</v>
       </c>
       <c r="C665" t="s">
         <v>233</v>
@@ -17568,10 +17568,10 @@
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
+        <v>576</v>
+      </c>
+      <c r="B666" t="s">
         <v>577</v>
-      </c>
-      <c r="B666" t="s">
-        <v>578</v>
       </c>
       <c r="C666" t="s">
         <v>233</v>
@@ -17605,10 +17605,10 @@
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
+        <v>481</v>
+      </c>
+      <c r="B668" t="s">
         <v>482</v>
-      </c>
-      <c r="B668" t="s">
-        <v>483</v>
       </c>
       <c r="C668" t="s">
         <v>233</v>
@@ -17642,10 +17642,10 @@
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
+        <v>413</v>
+      </c>
+      <c r="B670" t="s">
         <v>414</v>
-      </c>
-      <c r="B670" t="s">
-        <v>415</v>
       </c>
       <c r="C670" t="s">
         <v>233</v>
@@ -17682,10 +17682,10 @@
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B672" t="s">
         <v>1174</v>
-      </c>
-      <c r="B672" t="s">
-        <v>1175</v>
       </c>
       <c r="C672" t="s">
         <v>233</v>
@@ -17702,10 +17702,10 @@
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B673" t="s">
         <v>1184</v>
-      </c>
-      <c r="B673" t="s">
-        <v>1185</v>
       </c>
       <c r="C673" t="s">
         <v>233</v>
@@ -17722,10 +17722,10 @@
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
+        <v>826</v>
+      </c>
+      <c r="B674" t="s">
         <v>827</v>
-      </c>
-      <c r="B674" t="s">
-        <v>828</v>
       </c>
       <c r="C674" t="s">
         <v>233</v>
@@ -17742,10 +17742,10 @@
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
+        <v>931</v>
+      </c>
+      <c r="B675" t="s">
         <v>932</v>
-      </c>
-      <c r="B675" t="s">
-        <v>933</v>
       </c>
       <c r="C675" t="s">
         <v>233</v>
@@ -17762,10 +17762,10 @@
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
+        <v>572</v>
+      </c>
+      <c r="B676" t="s">
         <v>573</v>
-      </c>
-      <c r="B676" t="s">
-        <v>574</v>
       </c>
       <c r="C676" t="s">
         <v>233</v>
@@ -17782,10 +17782,10 @@
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
+        <v>806</v>
+      </c>
+      <c r="B677" t="s">
         <v>807</v>
-      </c>
-      <c r="B677" t="s">
-        <v>808</v>
       </c>
       <c r="C677" t="s">
         <v>233</v>
@@ -17802,10 +17802,10 @@
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
+        <v>428</v>
+      </c>
+      <c r="B678" t="s">
         <v>429</v>
-      </c>
-      <c r="B678" t="s">
-        <v>430</v>
       </c>
       <c r="C678" t="s">
         <v>233</v>
@@ -17822,10 +17822,10 @@
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
+        <v>752</v>
+      </c>
+      <c r="B679" t="s">
         <v>753</v>
-      </c>
-      <c r="B679" t="s">
-        <v>754</v>
       </c>
       <c r="C679" t="s">
         <v>233</v>
@@ -17842,10 +17842,10 @@
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
+        <v>937</v>
+      </c>
+      <c r="B680" t="s">
         <v>938</v>
-      </c>
-      <c r="B680" t="s">
-        <v>939</v>
       </c>
       <c r="C680" t="s">
         <v>233</v>
@@ -17862,10 +17862,10 @@
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B681" t="s">
         <v>1009</v>
-      </c>
-      <c r="B681" t="s">
-        <v>1010</v>
       </c>
       <c r="C681" t="s">
         <v>233</v>
@@ -17882,10 +17882,10 @@
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
+        <v>562</v>
+      </c>
+      <c r="B682" t="s">
         <v>563</v>
-      </c>
-      <c r="B682" t="s">
-        <v>564</v>
       </c>
       <c r="C682" t="s">
         <v>233</v>
@@ -17902,10 +17902,10 @@
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
+        <v>856</v>
+      </c>
+      <c r="B683" t="s">
         <v>857</v>
-      </c>
-      <c r="B683" t="s">
-        <v>858</v>
       </c>
       <c r="C683" t="s">
         <v>233</v>
@@ -17922,10 +17922,10 @@
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B684" t="s">
         <v>1109</v>
-      </c>
-      <c r="B684" t="s">
-        <v>1110</v>
       </c>
       <c r="C684" t="s">
         <v>233</v>
@@ -17982,7 +17982,7 @@
         <v>57</v>
       </c>
       <c r="B687" s="1" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C687" t="s">
         <v>58</v>
@@ -17996,10 +17996,10 @@
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
+        <v>521</v>
+      </c>
+      <c r="B688" t="s">
         <v>522</v>
-      </c>
-      <c r="B688" t="s">
-        <v>523</v>
       </c>
       <c r="C688" t="s">
         <v>233</v>
@@ -18016,10 +18016,10 @@
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
+        <v>623</v>
+      </c>
+      <c r="B689" t="s">
         <v>624</v>
-      </c>
-      <c r="B689" t="s">
-        <v>625</v>
       </c>
       <c r="C689" t="s">
         <v>233</v>
@@ -18039,7 +18039,7 @@
         <v>139</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C690" t="s">
         <v>1</v>
@@ -18053,10 +18053,10 @@
     </row>
     <row r="691" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
+        <v>762</v>
+      </c>
+      <c r="B691" t="s">
         <v>763</v>
-      </c>
-      <c r="B691" t="s">
-        <v>764</v>
       </c>
       <c r="C691" t="s">
         <v>233</v>
@@ -18073,10 +18073,10 @@
     </row>
     <row r="692" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B692" t="s">
         <v>1342</v>
-      </c>
-      <c r="B692" t="s">
-        <v>1343</v>
       </c>
       <c r="C692" t="s">
         <v>233</v>
@@ -18096,7 +18096,7 @@
         <v>59</v>
       </c>
       <c r="B693" s="1" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C693" t="s">
         <v>58</v>
@@ -18127,10 +18127,10 @@
     </row>
     <row r="695" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
+        <v>395</v>
+      </c>
+      <c r="B695" t="s">
         <v>396</v>
-      </c>
-      <c r="B695" t="s">
-        <v>397</v>
       </c>
       <c r="C695" t="s">
         <v>233</v>
@@ -18167,10 +18167,10 @@
     </row>
     <row r="697" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
+        <v>840</v>
+      </c>
+      <c r="B697" t="s">
         <v>841</v>
-      </c>
-      <c r="B697" t="s">
-        <v>842</v>
       </c>
       <c r="C697" t="s">
         <v>233</v>
@@ -18187,10 +18187,10 @@
     </row>
     <row r="698" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
+        <v>548</v>
+      </c>
+      <c r="B698" t="s">
         <v>549</v>
-      </c>
-      <c r="B698" t="s">
-        <v>550</v>
       </c>
       <c r="C698" t="s">
         <v>233</v>
@@ -18227,10 +18227,10 @@
     </row>
     <row r="700" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B700" t="s">
         <v>1126</v>
-      </c>
-      <c r="B700" t="s">
-        <v>1127</v>
       </c>
       <c r="C700" t="s">
         <v>233</v>
@@ -18247,10 +18247,10 @@
     </row>
     <row r="701" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
+        <v>824</v>
+      </c>
+      <c r="B701" t="s">
         <v>825</v>
-      </c>
-      <c r="B701" t="s">
-        <v>826</v>
       </c>
       <c r="C701" t="s">
         <v>233</v>
@@ -18267,10 +18267,10 @@
     </row>
     <row r="702" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
+        <v>884</v>
+      </c>
+      <c r="B702" t="s">
         <v>885</v>
-      </c>
-      <c r="B702" t="s">
-        <v>886</v>
       </c>
       <c r="C702" t="s">
         <v>233</v>
@@ -18287,10 +18287,10 @@
     </row>
     <row r="703" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
+        <v>939</v>
+      </c>
+      <c r="B703" t="s">
         <v>940</v>
-      </c>
-      <c r="B703" t="s">
-        <v>941</v>
       </c>
       <c r="C703" t="s">
         <v>233</v>
@@ -18307,10 +18307,10 @@
     </row>
     <row r="704" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B704" t="s">
         <v>1296</v>
-      </c>
-      <c r="B704" t="s">
-        <v>1297</v>
       </c>
       <c r="C704" t="s">
         <v>233</v>
@@ -18327,10 +18327,10 @@
     </row>
     <row r="705" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
+        <v>892</v>
+      </c>
+      <c r="B705" t="s">
         <v>893</v>
-      </c>
-      <c r="B705" t="s">
-        <v>894</v>
       </c>
       <c r="C705" t="s">
         <v>233</v>
@@ -18347,7 +18347,7 @@
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B706" t="s">
         <v>232</v>
@@ -18367,7 +18367,7 @@
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B707" t="s">
         <v>232</v>
@@ -18405,8 +18405,9 @@
     <hyperlink ref="B453" r:id="rId16" xr:uid="{7456A75E-B322-40A3-B0C6-9F7EA724B355}"/>
     <hyperlink ref="B454" r:id="rId17" xr:uid="{AC1E1B17-333E-4473-AA0B-084C855E2282}"/>
     <hyperlink ref="B628" r:id="rId18" xr:uid="{664182BC-FA6A-43F8-8AAE-720A44F5C719}"/>
+    <hyperlink ref="B261" r:id="rId19" xr:uid="{0266ACB1-89AB-4372-9D3C-E6857AF63B5D}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
--- a/jogos.xlsx
+++ b/jogos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\mycollections-cli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42B27A4-9DAD-45B5-B725-27FBF91A1CA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D90343-C4C5-425A-826F-AEA97AAE6BF0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{0C35237A-6EB4-4B02-9651-931FED775CEC}"/>
   </bookViews>
@@ -3366,9 +3366,6 @@
     <t>Heavy Metal Machines</t>
   </si>
   <si>
-    <t>http://media.steampowered.com/steamcommunity/public/images/apps/331360/59a4ad83116beaac2b473e17784cb3c5e4e9f7a2.jpg</t>
-  </si>
-  <si>
     <t>Project CARS 2</t>
   </si>
   <si>
@@ -4228,6 +4225,9 @@
   </si>
   <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT_e2WrIxZZ8KpkRclllEpfjQG7veBK3t2Lk733WVqv_DF2iz13Vw</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQTAdEqtPIxy-VZqHOdUuYiLH0Wj5PiUnELNKdGm2aLOOmhyNE33Q</t>
   </si>
 </sst>
 </file>
@@ -4601,8 +4601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E073D1A-5126-4785-A652-5C66939BBDE3}">
   <dimension ref="A1:F707"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="B262" sqref="B262"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="B277" sqref="B277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4636,10 +4636,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B2" t="s">
         <v>1289</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1290</v>
       </c>
       <c r="C2" t="s">
         <v>233</v>
@@ -4756,10 +4756,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B8" t="s">
         <v>1313</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1314</v>
       </c>
       <c r="C8" t="s">
         <v>233</v>
@@ -4776,10 +4776,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B9" t="s">
         <v>1278</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1279</v>
       </c>
       <c r="C9" t="s">
         <v>233</v>
@@ -4833,10 +4833,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B12" t="s">
         <v>1325</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1326</v>
       </c>
       <c r="C12" t="s">
         <v>233</v>
@@ -4870,10 +4870,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B14" t="s">
         <v>1166</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1167</v>
       </c>
       <c r="C14" t="s">
         <v>233</v>
@@ -4910,10 +4910,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B16" t="s">
         <v>1132</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1133</v>
       </c>
       <c r="C16" t="s">
         <v>233</v>
@@ -4930,10 +4930,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B17" t="s">
         <v>1357</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1358</v>
       </c>
       <c r="C17" t="s">
         <v>233</v>
@@ -5124,7 +5124,7 @@
         <v>121</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C27" t="s">
         <v>58</v>
@@ -5175,10 +5175,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C30" t="s">
         <v>233</v>
@@ -5275,7 +5275,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B35" t="s">
         <v>28</v>
@@ -5292,10 +5292,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B36" t="s">
         <v>1347</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1348</v>
       </c>
       <c r="C36" t="s">
         <v>233</v>
@@ -5355,7 +5355,7 @@
         <v>203</v>
       </c>
       <c r="B39" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C39" t="s">
         <v>164</v>
@@ -5372,7 +5372,7 @@
         <v>203</v>
       </c>
       <c r="B40" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C40" t="s">
         <v>233</v>
@@ -5389,10 +5389,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B41" t="s">
         <v>1185</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1186</v>
       </c>
       <c r="C41" t="s">
         <v>233</v>
@@ -5574,10 +5574,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B51" t="s">
         <v>1309</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1310</v>
       </c>
       <c r="C51" t="s">
         <v>233</v>
@@ -5597,7 +5597,7 @@
         <v>84</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C52" t="s">
         <v>58</v>
@@ -5731,10 +5731,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B59" t="s">
         <v>1141</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1142</v>
       </c>
       <c r="C59" t="s">
         <v>233</v>
@@ -5888,10 +5888,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B67" t="s">
         <v>1274</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1275</v>
       </c>
       <c r="C67" t="s">
         <v>233</v>
@@ -6182,10 +6182,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B82" t="s">
         <v>1299</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1300</v>
       </c>
       <c r="C82" t="s">
         <v>233</v>
@@ -6279,10 +6279,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B87" t="s">
         <v>1156</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1157</v>
       </c>
       <c r="C87" t="s">
         <v>233</v>
@@ -6439,10 +6439,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B95" t="s">
         <v>1317</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1318</v>
       </c>
       <c r="C95" t="s">
         <v>233</v>
@@ -6476,10 +6476,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B97" t="s">
         <v>1258</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1259</v>
       </c>
       <c r="C97" t="s">
         <v>233</v>
@@ -6536,10 +6536,10 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B100" t="s">
         <v>1137</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1138</v>
       </c>
       <c r="C100" t="s">
         <v>233</v>
@@ -6576,10 +6576,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B102" t="s">
         <v>1284</v>
-      </c>
-      <c r="B102" t="s">
-        <v>1285</v>
       </c>
       <c r="C102" t="s">
         <v>233</v>
@@ -6656,10 +6656,10 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C106" t="s">
         <v>233</v>
@@ -6890,7 +6890,7 @@
         <v>111</v>
       </c>
       <c r="B118" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C118" t="s">
         <v>233</v>
@@ -6981,10 +6981,10 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B123" t="s">
         <v>1219</v>
-      </c>
-      <c r="B123" t="s">
-        <v>1220</v>
       </c>
       <c r="C123" t="s">
         <v>233</v>
@@ -7161,10 +7161,10 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B132" t="s">
         <v>1359</v>
-      </c>
-      <c r="B132" t="s">
-        <v>1360</v>
       </c>
       <c r="C132" t="s">
         <v>233</v>
@@ -7349,10 +7349,10 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B142" t="s">
         <v>1227</v>
-      </c>
-      <c r="B142" t="s">
-        <v>1228</v>
       </c>
       <c r="C142" t="s">
         <v>233</v>
@@ -7372,7 +7372,7 @@
         <v>651</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C143" t="s">
         <v>233</v>
@@ -7469,10 +7469,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B148" t="s">
         <v>1321</v>
-      </c>
-      <c r="B148" t="s">
-        <v>1322</v>
       </c>
       <c r="C148" t="s">
         <v>233</v>
@@ -7589,10 +7589,10 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B154" t="s">
         <v>1369</v>
-      </c>
-      <c r="B154" t="s">
-        <v>1370</v>
       </c>
       <c r="C154" t="s">
         <v>233</v>
@@ -7669,7 +7669,7 @@
         <v>0</v>
       </c>
       <c r="B158" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C158" t="s">
         <v>1</v>
@@ -7763,7 +7763,7 @@
         <v>955</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C163" t="s">
         <v>233</v>
@@ -7837,10 +7837,10 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B167" t="s">
         <v>1329</v>
-      </c>
-      <c r="B167" t="s">
-        <v>1330</v>
       </c>
       <c r="C167" t="s">
         <v>233</v>
@@ -7877,10 +7877,10 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B169" t="s">
         <v>1151</v>
-      </c>
-      <c r="B169" t="s">
-        <v>1152</v>
       </c>
       <c r="C169" t="s">
         <v>233</v>
@@ -8037,10 +8037,10 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B177" t="s">
         <v>1287</v>
-      </c>
-      <c r="B177" t="s">
-        <v>1288</v>
       </c>
       <c r="C177" t="s">
         <v>233</v>
@@ -8057,10 +8057,10 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B178" t="s">
         <v>1264</v>
-      </c>
-      <c r="B178" t="s">
-        <v>1265</v>
       </c>
       <c r="C178" t="s">
         <v>233</v>
@@ -8197,10 +8197,10 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B185" t="s">
         <v>1282</v>
-      </c>
-      <c r="B185" t="s">
-        <v>1283</v>
       </c>
       <c r="C185" t="s">
         <v>233</v>
@@ -8277,10 +8277,10 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B189" t="s">
         <v>1256</v>
-      </c>
-      <c r="B189" t="s">
-        <v>1257</v>
       </c>
       <c r="C189" t="s">
         <v>233</v>
@@ -8317,10 +8317,10 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B191" t="s">
         <v>1179</v>
-      </c>
-      <c r="B191" t="s">
-        <v>1180</v>
       </c>
       <c r="C191" t="s">
         <v>233</v>
@@ -8451,10 +8451,10 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C198" t="s">
         <v>233</v>
@@ -8474,7 +8474,7 @@
         <v>87</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C199" t="s">
         <v>58</v>
@@ -8491,7 +8491,7 @@
         <v>88</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C200" t="s">
         <v>58</v>
@@ -8562,10 +8562,10 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B204" t="s">
         <v>1315</v>
-      </c>
-      <c r="B204" t="s">
-        <v>1316</v>
       </c>
       <c r="C204" t="s">
         <v>233</v>
@@ -8582,10 +8582,10 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B205" t="s">
         <v>1293</v>
-      </c>
-      <c r="B205" t="s">
-        <v>1294</v>
       </c>
       <c r="C205" t="s">
         <v>233</v>
@@ -8727,10 +8727,10 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B213" t="s">
         <v>1237</v>
-      </c>
-      <c r="B213" t="s">
-        <v>1238</v>
       </c>
       <c r="C213" t="s">
         <v>233</v>
@@ -8747,10 +8747,10 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B214" t="s">
         <v>1239</v>
-      </c>
-      <c r="B214" t="s">
-        <v>1240</v>
       </c>
       <c r="C214" t="s">
         <v>233</v>
@@ -8787,10 +8787,10 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B216" t="s">
         <v>1215</v>
-      </c>
-      <c r="B216" t="s">
-        <v>1216</v>
       </c>
       <c r="C216" t="s">
         <v>233</v>
@@ -8807,10 +8807,10 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C217" t="s">
         <v>233</v>
@@ -8827,10 +8827,10 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B218" t="s">
         <v>1248</v>
-      </c>
-      <c r="B218" t="s">
-        <v>1249</v>
       </c>
       <c r="C218" t="s">
         <v>233</v>
@@ -8850,7 +8850,7 @@
         <v>962</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C219" t="s">
         <v>233</v>
@@ -9018,10 +9018,10 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B228" t="s">
         <v>1355</v>
-      </c>
-      <c r="B228" t="s">
-        <v>1356</v>
       </c>
       <c r="C228" t="s">
         <v>233</v>
@@ -9098,10 +9098,10 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B232" t="s">
         <v>1305</v>
-      </c>
-      <c r="B232" t="s">
-        <v>1306</v>
       </c>
       <c r="C232" t="s">
         <v>233</v>
@@ -9275,7 +9275,7 @@
         <v>671</v>
       </c>
       <c r="B241" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C241" t="s">
         <v>233</v>
@@ -9426,10 +9426,10 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B249" t="s">
         <v>1252</v>
-      </c>
-      <c r="B249" t="s">
-        <v>1253</v>
       </c>
       <c r="C249" t="s">
         <v>233</v>
@@ -9446,10 +9446,10 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B250" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C250" t="s">
         <v>233</v>
@@ -9666,7 +9666,7 @@
         <v>348</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="C261" t="s">
         <v>233</v>
@@ -9965,8 +9965,8 @@
       <c r="A276" t="s">
         <v>1110</v>
       </c>
-      <c r="B276" t="s">
-        <v>1111</v>
+      <c r="B276" s="1" t="s">
+        <v>1398</v>
       </c>
       <c r="C276" t="s">
         <v>233</v>
@@ -9983,10 +9983,10 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B277" t="s">
         <v>1363</v>
-      </c>
-      <c r="B277" t="s">
-        <v>1364</v>
       </c>
       <c r="C277" t="s">
         <v>233</v>
@@ -10083,10 +10083,10 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B282" t="s">
         <v>1162</v>
-      </c>
-      <c r="B282" t="s">
-        <v>1163</v>
       </c>
       <c r="C282" t="s">
         <v>233</v>
@@ -10143,10 +10143,10 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B285" t="s">
         <v>1225</v>
-      </c>
-      <c r="B285" t="s">
-        <v>1226</v>
       </c>
       <c r="C285" t="s">
         <v>233</v>
@@ -10383,10 +10383,10 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B297" t="s">
         <v>1311</v>
-      </c>
-      <c r="B297" t="s">
-        <v>1312</v>
       </c>
       <c r="C297" t="s">
         <v>233</v>
@@ -10423,10 +10423,10 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B299" t="s">
         <v>1337</v>
-      </c>
-      <c r="B299" t="s">
-        <v>1338</v>
       </c>
       <c r="C299" t="s">
         <v>233</v>
@@ -10460,10 +10460,10 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B301" t="s">
         <v>1353</v>
-      </c>
-      <c r="B301" t="s">
-        <v>1354</v>
       </c>
       <c r="C301" t="s">
         <v>233</v>
@@ -10597,10 +10597,10 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B308" t="s">
         <v>1158</v>
-      </c>
-      <c r="B308" t="s">
-        <v>1159</v>
       </c>
       <c r="C308" t="s">
         <v>233</v>
@@ -10697,10 +10697,10 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B313" t="s">
         <v>1343</v>
-      </c>
-      <c r="B313" t="s">
-        <v>1344</v>
       </c>
       <c r="C313" t="s">
         <v>233</v>
@@ -10874,10 +10874,10 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B322" t="s">
         <v>1235</v>
-      </c>
-      <c r="B322" t="s">
-        <v>1236</v>
       </c>
       <c r="C322" t="s">
         <v>233</v>
@@ -10931,10 +10931,10 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B325" t="s">
         <v>1116</v>
-      </c>
-      <c r="B325" t="s">
-        <v>1117</v>
       </c>
       <c r="C325" t="s">
         <v>233</v>
@@ -11088,10 +11088,10 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B333" t="s">
         <v>1307</v>
-      </c>
-      <c r="B333" t="s">
-        <v>1308</v>
       </c>
       <c r="C333" t="s">
         <v>233</v>
@@ -11128,10 +11128,10 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B335" t="s">
         <v>1229</v>
-      </c>
-      <c r="B335" t="s">
-        <v>1230</v>
       </c>
       <c r="C335" t="s">
         <v>233</v>
@@ -11148,10 +11148,10 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B336" t="s">
         <v>1130</v>
-      </c>
-      <c r="B336" t="s">
-        <v>1131</v>
       </c>
       <c r="C336" t="s">
         <v>233</v>
@@ -11325,10 +11325,10 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B345" t="s">
         <v>1280</v>
-      </c>
-      <c r="B345" t="s">
-        <v>1281</v>
       </c>
       <c r="C345" t="s">
         <v>233</v>
@@ -11365,10 +11365,10 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B347" t="s">
         <v>1121</v>
-      </c>
-      <c r="B347" t="s">
-        <v>1122</v>
       </c>
       <c r="C347" t="s">
         <v>233</v>
@@ -11792,10 +11792,10 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B370" t="s">
         <v>1327</v>
-      </c>
-      <c r="B370" t="s">
-        <v>1328</v>
       </c>
       <c r="C370" t="s">
         <v>233</v>
@@ -11852,10 +11852,10 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B373" t="s">
         <v>1301</v>
-      </c>
-      <c r="B373" t="s">
-        <v>1302</v>
       </c>
       <c r="C373" t="s">
         <v>233</v>
@@ -11966,10 +11966,10 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B379" t="s">
         <v>1123</v>
-      </c>
-      <c r="B379" t="s">
-        <v>1124</v>
       </c>
       <c r="C379" t="s">
         <v>233</v>
@@ -12046,10 +12046,10 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B383" t="s">
         <v>1211</v>
-      </c>
-      <c r="B383" t="s">
-        <v>1212</v>
       </c>
       <c r="C383" t="s">
         <v>233</v>
@@ -12066,10 +12066,10 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B384" t="s">
         <v>1201</v>
-      </c>
-      <c r="B384" t="s">
-        <v>1202</v>
       </c>
       <c r="C384" t="s">
         <v>233</v>
@@ -12086,10 +12086,10 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B385" t="s">
         <v>1197</v>
-      </c>
-      <c r="B385" t="s">
-        <v>1198</v>
       </c>
       <c r="C385" t="s">
         <v>233</v>
@@ -12106,10 +12106,10 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B386" t="s">
         <v>1195</v>
-      </c>
-      <c r="B386" t="s">
-        <v>1196</v>
       </c>
       <c r="C386" t="s">
         <v>233</v>
@@ -12126,10 +12126,10 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B387" t="s">
         <v>1199</v>
-      </c>
-      <c r="B387" t="s">
-        <v>1200</v>
       </c>
       <c r="C387" t="s">
         <v>233</v>
@@ -12146,10 +12146,10 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B388" t="s">
         <v>1207</v>
-      </c>
-      <c r="B388" t="s">
-        <v>1208</v>
       </c>
       <c r="C388" t="s">
         <v>233</v>
@@ -12166,10 +12166,10 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B389" t="s">
         <v>1209</v>
-      </c>
-      <c r="B389" t="s">
-        <v>1210</v>
       </c>
       <c r="C389" t="s">
         <v>233</v>
@@ -12203,10 +12203,10 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B391" t="s">
         <v>1191</v>
-      </c>
-      <c r="B391" t="s">
-        <v>1192</v>
       </c>
       <c r="C391" t="s">
         <v>233</v>
@@ -12223,10 +12223,10 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B392" t="s">
         <v>1203</v>
-      </c>
-      <c r="B392" t="s">
-        <v>1204</v>
       </c>
       <c r="C392" t="s">
         <v>233</v>
@@ -12243,10 +12243,10 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B393" t="s">
         <v>1205</v>
-      </c>
-      <c r="B393" t="s">
-        <v>1206</v>
       </c>
       <c r="C393" t="s">
         <v>233</v>
@@ -12263,10 +12263,10 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B394" t="s">
         <v>1193</v>
-      </c>
-      <c r="B394" t="s">
-        <v>1194</v>
       </c>
       <c r="C394" t="s">
         <v>233</v>
@@ -12457,10 +12457,10 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B404" t="s">
         <v>1345</v>
-      </c>
-      <c r="B404" t="s">
-        <v>1346</v>
       </c>
       <c r="C404" t="s">
         <v>233</v>
@@ -12534,10 +12534,10 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B408" t="s">
         <v>1119</v>
-      </c>
-      <c r="B408" t="s">
-        <v>1120</v>
       </c>
       <c r="C408" t="s">
         <v>233</v>
@@ -12563,7 +12563,7 @@
         <v>228</v>
       </c>
       <c r="D409" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="E409" t="s">
         <v>229</v>
@@ -12591,10 +12591,10 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B411" t="s">
         <v>1268</v>
-      </c>
-      <c r="B411" t="s">
-        <v>1269</v>
       </c>
       <c r="C411" t="s">
         <v>233</v>
@@ -12611,10 +12611,10 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B412" t="s">
         <v>1361</v>
-      </c>
-      <c r="B412" t="s">
-        <v>1362</v>
       </c>
       <c r="C412" t="s">
         <v>233</v>
@@ -12651,10 +12651,10 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B414" t="s">
         <v>1349</v>
-      </c>
-      <c r="B414" t="s">
-        <v>1350</v>
       </c>
       <c r="C414" t="s">
         <v>233</v>
@@ -12825,10 +12825,10 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B423" t="s">
         <v>1241</v>
-      </c>
-      <c r="B423" t="s">
-        <v>1242</v>
       </c>
       <c r="C423" t="s">
         <v>233</v>
@@ -12845,10 +12845,10 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B424" t="s">
         <v>1114</v>
-      </c>
-      <c r="B424" t="s">
-        <v>1115</v>
       </c>
       <c r="C424" t="s">
         <v>233</v>
@@ -12885,10 +12885,10 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B426" t="s">
         <v>1331</v>
-      </c>
-      <c r="B426" t="s">
-        <v>1332</v>
       </c>
       <c r="C426" t="s">
         <v>233</v>
@@ -13173,10 +13173,10 @@
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B441" t="s">
         <v>1164</v>
-      </c>
-      <c r="B441" t="s">
-        <v>1165</v>
       </c>
       <c r="C441" t="s">
         <v>233</v>
@@ -13407,7 +13407,7 @@
         <v>343</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="C453" t="s">
         <v>233</v>
@@ -13424,10 +13424,10 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="C454" t="s">
         <v>233</v>
@@ -13444,10 +13444,10 @@
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B455" t="s">
         <v>1335</v>
-      </c>
-      <c r="B455" t="s">
-        <v>1336</v>
       </c>
       <c r="C455" t="s">
         <v>233</v>
@@ -13464,10 +13464,10 @@
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B456" t="s">
         <v>1112</v>
-      </c>
-      <c r="B456" t="s">
-        <v>1113</v>
       </c>
       <c r="C456" t="s">
         <v>233</v>
@@ -13504,10 +13504,10 @@
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B458" t="s">
         <v>1128</v>
-      </c>
-      <c r="B458" t="s">
-        <v>1129</v>
       </c>
       <c r="C458" t="s">
         <v>233</v>
@@ -13544,10 +13544,10 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B460" t="s">
         <v>1319</v>
-      </c>
-      <c r="B460" t="s">
-        <v>1320</v>
       </c>
       <c r="C460" t="s">
         <v>233</v>
@@ -13718,10 +13718,10 @@
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B469" t="s">
         <v>1145</v>
-      </c>
-      <c r="B469" t="s">
-        <v>1146</v>
       </c>
       <c r="C469" t="s">
         <v>233</v>
@@ -13798,7 +13798,7 @@
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B473" t="s">
         <v>308</v>
@@ -13818,7 +13818,7 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B474" t="s">
         <v>325</v>
@@ -13838,10 +13838,10 @@
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B475" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C475" t="s">
         <v>233</v>
@@ -13858,7 +13858,7 @@
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B476" t="s">
         <v>382</v>
@@ -13878,7 +13878,7 @@
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B477" t="s">
         <v>303</v>
@@ -13898,7 +13898,7 @@
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B478" t="s">
         <v>1099</v>
@@ -14038,10 +14038,10 @@
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B485" t="s">
         <v>1187</v>
-      </c>
-      <c r="B485" t="s">
-        <v>1188</v>
       </c>
       <c r="C485" t="s">
         <v>233</v>
@@ -14058,10 +14058,10 @@
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B486" t="s">
         <v>1171</v>
-      </c>
-      <c r="B486" t="s">
-        <v>1172</v>
       </c>
       <c r="C486" t="s">
         <v>233</v>
@@ -14198,10 +14198,10 @@
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B493" t="s">
         <v>1303</v>
-      </c>
-      <c r="B493" t="s">
-        <v>1304</v>
       </c>
       <c r="C493" t="s">
         <v>233</v>
@@ -14218,10 +14218,10 @@
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B494" t="s">
         <v>1177</v>
-      </c>
-      <c r="B494" t="s">
-        <v>1178</v>
       </c>
       <c r="C494" t="s">
         <v>233</v>
@@ -14258,10 +14258,10 @@
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B496" t="s">
         <v>1149</v>
-      </c>
-      <c r="B496" t="s">
-        <v>1150</v>
       </c>
       <c r="C496" t="s">
         <v>233</v>
@@ -14355,10 +14355,10 @@
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B501" t="s">
         <v>1323</v>
-      </c>
-      <c r="B501" t="s">
-        <v>1324</v>
       </c>
       <c r="C501" t="s">
         <v>233</v>
@@ -14469,10 +14469,10 @@
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B507" t="s">
         <v>1217</v>
-      </c>
-      <c r="B507" t="s">
-        <v>1218</v>
       </c>
       <c r="C507" t="s">
         <v>233</v>
@@ -14529,10 +14529,10 @@
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B510" t="s">
         <v>1223</v>
-      </c>
-      <c r="B510" t="s">
-        <v>1224</v>
       </c>
       <c r="C510" t="s">
         <v>233</v>
@@ -14606,10 +14606,10 @@
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B514" t="s">
         <v>1297</v>
-      </c>
-      <c r="B514" t="s">
-        <v>1298</v>
       </c>
       <c r="C514" t="s">
         <v>233</v>
@@ -14800,10 +14800,10 @@
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B524" t="s">
         <v>1213</v>
-      </c>
-      <c r="B524" t="s">
-        <v>1214</v>
       </c>
       <c r="C524" t="s">
         <v>233</v>
@@ -14883,7 +14883,7 @@
         <v>804</v>
       </c>
       <c r="B528" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C528" t="s">
         <v>233</v>
@@ -14923,7 +14923,7 @@
         <v>969</v>
       </c>
       <c r="B530" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C530" t="s">
         <v>233</v>
@@ -14983,7 +14983,7 @@
         <v>967</v>
       </c>
       <c r="B533" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C533" t="s">
         <v>233</v>
@@ -15134,10 +15134,10 @@
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B541" t="s">
         <v>1339</v>
-      </c>
-      <c r="B541" t="s">
-        <v>1340</v>
       </c>
       <c r="C541" t="s">
         <v>233</v>
@@ -15351,10 +15351,10 @@
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B552" t="s">
         <v>1254</v>
-      </c>
-      <c r="B552" t="s">
-        <v>1255</v>
       </c>
       <c r="C552" t="s">
         <v>233</v>
@@ -15451,10 +15451,10 @@
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B557" t="s">
         <v>1291</v>
-      </c>
-      <c r="B557" t="s">
-        <v>1292</v>
       </c>
       <c r="C557" t="s">
         <v>233</v>
@@ -15699,10 +15699,10 @@
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B570" t="s">
         <v>1231</v>
-      </c>
-      <c r="B570" t="s">
-        <v>1232</v>
       </c>
       <c r="C570" t="s">
         <v>233</v>
@@ -15819,10 +15819,10 @@
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B576" t="s">
         <v>1168</v>
-      </c>
-      <c r="B576" t="s">
-        <v>1169</v>
       </c>
       <c r="C576" t="s">
         <v>233</v>
@@ -15859,10 +15859,10 @@
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B578" t="s">
         <v>1333</v>
-      </c>
-      <c r="B578" t="s">
-        <v>1334</v>
       </c>
       <c r="C578" t="s">
         <v>233</v>
@@ -15879,10 +15879,10 @@
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B579" t="s">
         <v>1221</v>
-      </c>
-      <c r="B579" t="s">
-        <v>1222</v>
       </c>
       <c r="C579" t="s">
         <v>233</v>
@@ -15919,10 +15919,10 @@
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B581" t="s">
         <v>1266</v>
-      </c>
-      <c r="B581" t="s">
-        <v>1267</v>
       </c>
       <c r="C581" t="s">
         <v>233</v>
@@ -15939,10 +15939,10 @@
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B582" t="s">
         <v>1233</v>
-      </c>
-      <c r="B582" t="s">
-        <v>1234</v>
       </c>
       <c r="C582" t="s">
         <v>233</v>
@@ -16019,10 +16019,10 @@
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B586" t="s">
         <v>1134</v>
-      </c>
-      <c r="B586" t="s">
-        <v>1135</v>
       </c>
       <c r="C586" t="s">
         <v>233</v>
@@ -16039,10 +16039,10 @@
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B587" t="s">
         <v>1143</v>
-      </c>
-      <c r="B587" t="s">
-        <v>1144</v>
       </c>
       <c r="C587" t="s">
         <v>233</v>
@@ -16287,10 +16287,10 @@
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B600" t="s">
         <v>1139</v>
-      </c>
-      <c r="B600" t="s">
-        <v>1140</v>
       </c>
       <c r="C600" t="s">
         <v>233</v>
@@ -16401,10 +16401,10 @@
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B606" t="s">
         <v>1189</v>
-      </c>
-      <c r="B606" t="s">
-        <v>1190</v>
       </c>
       <c r="C606" t="s">
         <v>233</v>
@@ -16652,10 +16652,10 @@
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B619" t="s">
         <v>1276</v>
-      </c>
-      <c r="B619" t="s">
-        <v>1277</v>
       </c>
       <c r="C619" t="s">
         <v>233</v>
@@ -16735,7 +16735,7 @@
         <v>134</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C623" t="s">
         <v>1</v>
@@ -16829,10 +16829,10 @@
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C628" t="s">
         <v>233</v>
@@ -16849,10 +16849,10 @@
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B629" t="s">
         <v>1351</v>
-      </c>
-      <c r="B629" t="s">
-        <v>1352</v>
       </c>
       <c r="C629" t="s">
         <v>233</v>
@@ -16869,10 +16869,10 @@
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B630" t="s">
         <v>1181</v>
-      </c>
-      <c r="B630" t="s">
-        <v>1182</v>
       </c>
       <c r="C630" t="s">
         <v>233</v>
@@ -16949,10 +16949,10 @@
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B634" t="s">
         <v>1260</v>
-      </c>
-      <c r="B634" t="s">
-        <v>1261</v>
       </c>
       <c r="C634" t="s">
         <v>233</v>
@@ -17066,10 +17066,10 @@
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B640" t="s">
         <v>1270</v>
-      </c>
-      <c r="B640" t="s">
-        <v>1271</v>
       </c>
       <c r="C640" t="s">
         <v>233</v>
@@ -17086,10 +17086,10 @@
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B641" t="s">
         <v>1272</v>
-      </c>
-      <c r="B641" t="s">
-        <v>1273</v>
       </c>
       <c r="C641" t="s">
         <v>233</v>
@@ -17106,10 +17106,10 @@
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B642" t="s">
         <v>1147</v>
-      </c>
-      <c r="B642" t="s">
-        <v>1148</v>
       </c>
       <c r="C642" t="s">
         <v>233</v>
@@ -17126,10 +17126,10 @@
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B643" t="s">
         <v>1153</v>
-      </c>
-      <c r="B643" t="s">
-        <v>1154</v>
       </c>
       <c r="C643" t="s">
         <v>233</v>
@@ -17146,7 +17146,7 @@
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C644" t="s">
         <v>233</v>
@@ -17180,10 +17180,10 @@
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B646" t="s">
         <v>1160</v>
-      </c>
-      <c r="B646" t="s">
-        <v>1161</v>
       </c>
       <c r="C646" t="s">
         <v>233</v>
@@ -17200,10 +17200,10 @@
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B647" t="s">
         <v>1365</v>
-      </c>
-      <c r="B647" t="s">
-        <v>1366</v>
       </c>
       <c r="C647" t="s">
         <v>233</v>
@@ -17220,10 +17220,10 @@
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B648" t="s">
         <v>1367</v>
-      </c>
-      <c r="B648" t="s">
-        <v>1368</v>
       </c>
       <c r="C648" t="s">
         <v>233</v>
@@ -17317,10 +17317,10 @@
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B653" t="s">
         <v>1175</v>
-      </c>
-      <c r="B653" t="s">
-        <v>1176</v>
       </c>
       <c r="C653" t="s">
         <v>233</v>
@@ -17682,10 +17682,10 @@
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B672" t="s">
         <v>1173</v>
-      </c>
-      <c r="B672" t="s">
-        <v>1174</v>
       </c>
       <c r="C672" t="s">
         <v>233</v>
@@ -17702,10 +17702,10 @@
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B673" t="s">
         <v>1183</v>
-      </c>
-      <c r="B673" t="s">
-        <v>1184</v>
       </c>
       <c r="C673" t="s">
         <v>233</v>
@@ -17982,7 +17982,7 @@
         <v>57</v>
       </c>
       <c r="B687" s="1" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C687" t="s">
         <v>58</v>
@@ -18039,7 +18039,7 @@
         <v>139</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C690" t="s">
         <v>1</v>
@@ -18073,10 +18073,10 @@
     </row>
     <row r="692" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B692" t="s">
         <v>1341</v>
-      </c>
-      <c r="B692" t="s">
-        <v>1342</v>
       </c>
       <c r="C692" t="s">
         <v>233</v>
@@ -18096,7 +18096,7 @@
         <v>59</v>
       </c>
       <c r="B693" s="1" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C693" t="s">
         <v>58</v>
@@ -18227,10 +18227,10 @@
     </row>
     <row r="700" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B700" t="s">
         <v>1125</v>
-      </c>
-      <c r="B700" t="s">
-        <v>1126</v>
       </c>
       <c r="C700" t="s">
         <v>233</v>
@@ -18307,10 +18307,10 @@
     </row>
     <row r="704" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B704" t="s">
         <v>1295</v>
-      </c>
-      <c r="B704" t="s">
-        <v>1296</v>
       </c>
       <c r="C704" t="s">
         <v>233</v>
@@ -18347,7 +18347,7 @@
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B706" t="s">
         <v>232</v>
@@ -18367,7 +18367,7 @@
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B707" t="s">
         <v>232</v>
@@ -18406,8 +18406,9 @@
     <hyperlink ref="B454" r:id="rId17" xr:uid="{AC1E1B17-333E-4473-AA0B-084C855E2282}"/>
     <hyperlink ref="B628" r:id="rId18" xr:uid="{664182BC-FA6A-43F8-8AAE-720A44F5C719}"/>
     <hyperlink ref="B261" r:id="rId19" xr:uid="{0266ACB1-89AB-4372-9D3C-E6857AF63B5D}"/>
+    <hyperlink ref="B276" r:id="rId20" xr:uid="{5D9C1709-B0FF-4228-9905-47394063674E}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
--- a/jogos.xlsx
+++ b/jogos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\mycollections-cli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D90343-C4C5-425A-826F-AEA97AAE6BF0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB417D2-7280-475C-A5EC-B3533DD754E0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{0C35237A-6EB4-4B02-9651-931FED775CEC}"/>
   </bookViews>
@@ -1575,9 +1575,6 @@
     <t>Lethal League</t>
   </si>
   <si>
-    <t>http://media.steampowered.com/steamcommunity/public/images/apps/261180/9d667a8b47f936f99a96328c7835fcb3264511c7.jpg</t>
-  </si>
-  <si>
     <t>The Red Solstice</t>
   </si>
   <si>
@@ -4228,6 +4225,9 @@
   </si>
   <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQTAdEqtPIxy-VZqHOdUuYiLH0Wj5PiUnELNKdGm2aLOOmhyNE33Q</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSYdcWf_uFrKoB_IKa9tcyZ4_HfM4FFG8bYP94gqvfJo-u2nZW_</t>
   </si>
 </sst>
 </file>
@@ -4601,8 +4601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E073D1A-5126-4785-A652-5C66939BBDE3}">
   <dimension ref="A1:F707"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="B277" sqref="B277"/>
+    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
+      <selection activeCell="B335" sqref="B335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4616,10 +4616,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B1" t="s">
         <v>1093</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1094</v>
       </c>
       <c r="C1" t="s">
         <v>233</v>
@@ -4636,10 +4636,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B2" t="s">
         <v>1288</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1289</v>
       </c>
       <c r="C2" t="s">
         <v>233</v>
@@ -4676,10 +4676,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>879</v>
+      </c>
+      <c r="B4" t="s">
         <v>880</v>
-      </c>
-      <c r="B4" t="s">
-        <v>881</v>
       </c>
       <c r="C4" t="s">
         <v>233</v>
@@ -4756,10 +4756,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B8" t="s">
         <v>1312</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1313</v>
       </c>
       <c r="C8" t="s">
         <v>233</v>
@@ -4776,10 +4776,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B9" t="s">
         <v>1277</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1278</v>
       </c>
       <c r="C9" t="s">
         <v>233</v>
@@ -4796,10 +4796,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>980</v>
+      </c>
+      <c r="B10" t="s">
         <v>981</v>
-      </c>
-      <c r="B10" t="s">
-        <v>982</v>
       </c>
       <c r="C10" t="s">
         <v>233</v>
@@ -4833,10 +4833,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B12" t="s">
         <v>1324</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1325</v>
       </c>
       <c r="C12" t="s">
         <v>233</v>
@@ -4870,10 +4870,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B14" t="s">
         <v>1165</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1166</v>
       </c>
       <c r="C14" t="s">
         <v>233</v>
@@ -4910,10 +4910,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B16" t="s">
         <v>1131</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1132</v>
       </c>
       <c r="C16" t="s">
         <v>233</v>
@@ -4930,10 +4930,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B17" t="s">
         <v>1356</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1357</v>
       </c>
       <c r="C17" t="s">
         <v>233</v>
@@ -4970,7 +4970,7 @@
         <v>140</v>
       </c>
       <c r="B19" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C19" t="s">
         <v>233</v>
@@ -4987,10 +4987,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B20" t="s">
         <v>1049</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1050</v>
       </c>
       <c r="C20" t="s">
         <v>233</v>
@@ -5007,10 +5007,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>592</v>
+      </c>
+      <c r="B21" t="s">
         <v>593</v>
-      </c>
-      <c r="B21" t="s">
-        <v>594</v>
       </c>
       <c r="C21" t="s">
         <v>233</v>
@@ -5027,10 +5027,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>677</v>
+      </c>
+      <c r="B22" t="s">
         <v>678</v>
-      </c>
-      <c r="B22" t="s">
-        <v>679</v>
       </c>
       <c r="C22" t="s">
         <v>233</v>
@@ -5047,10 +5047,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>718</v>
+      </c>
+      <c r="B23" t="s">
         <v>719</v>
-      </c>
-      <c r="B23" t="s">
-        <v>720</v>
       </c>
       <c r="C23" t="s">
         <v>233</v>
@@ -5084,10 +5084,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>708</v>
+      </c>
+      <c r="B25" t="s">
         <v>709</v>
-      </c>
-      <c r="B25" t="s">
-        <v>710</v>
       </c>
       <c r="C25" t="s">
         <v>233</v>
@@ -5124,7 +5124,7 @@
         <v>121</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C27" t="s">
         <v>58</v>
@@ -5175,10 +5175,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C30" t="s">
         <v>233</v>
@@ -5195,10 +5195,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>584</v>
+      </c>
+      <c r="B31" t="s">
         <v>585</v>
-      </c>
-      <c r="B31" t="s">
-        <v>586</v>
       </c>
       <c r="C31" t="s">
         <v>233</v>
@@ -5215,10 +5215,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>959</v>
+      </c>
+      <c r="B32" t="s">
         <v>960</v>
-      </c>
-      <c r="B32" t="s">
-        <v>961</v>
       </c>
       <c r="C32" t="s">
         <v>233</v>
@@ -5235,10 +5235,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>735</v>
+      </c>
+      <c r="B33" t="s">
         <v>736</v>
-      </c>
-      <c r="B33" t="s">
-        <v>737</v>
       </c>
       <c r="C33" t="s">
         <v>233</v>
@@ -5255,10 +5255,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>867</v>
+      </c>
+      <c r="B34" t="s">
         <v>868</v>
-      </c>
-      <c r="B34" t="s">
-        <v>869</v>
       </c>
       <c r="C34" t="s">
         <v>233</v>
@@ -5275,7 +5275,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B35" t="s">
         <v>28</v>
@@ -5292,10 +5292,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B36" t="s">
         <v>1346</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1347</v>
       </c>
       <c r="C36" t="s">
         <v>233</v>
@@ -5312,10 +5312,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>827</v>
+      </c>
+      <c r="B37" t="s">
         <v>828</v>
-      </c>
-      <c r="B37" t="s">
-        <v>829</v>
       </c>
       <c r="C37" t="s">
         <v>233</v>
@@ -5355,7 +5355,7 @@
         <v>203</v>
       </c>
       <c r="B39" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C39" t="s">
         <v>164</v>
@@ -5372,7 +5372,7 @@
         <v>203</v>
       </c>
       <c r="B40" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C40" t="s">
         <v>233</v>
@@ -5389,10 +5389,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B41" t="s">
         <v>1184</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1185</v>
       </c>
       <c r="C41" t="s">
         <v>233</v>
@@ -5574,10 +5574,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B51" t="s">
         <v>1308</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1309</v>
       </c>
       <c r="C51" t="s">
         <v>233</v>
@@ -5597,7 +5597,7 @@
         <v>84</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C52" t="s">
         <v>58</v>
@@ -5611,10 +5611,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>727</v>
+      </c>
+      <c r="B53" t="s">
         <v>728</v>
-      </c>
-      <c r="B53" t="s">
-        <v>729</v>
       </c>
       <c r="C53" t="s">
         <v>233</v>
@@ -5631,10 +5631,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>801</v>
+      </c>
+      <c r="B54" t="s">
         <v>802</v>
-      </c>
-      <c r="B54" t="s">
-        <v>803</v>
       </c>
       <c r="C54" t="s">
         <v>233</v>
@@ -5651,10 +5651,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>799</v>
+      </c>
+      <c r="B55" t="s">
         <v>800</v>
-      </c>
-      <c r="B55" t="s">
-        <v>801</v>
       </c>
       <c r="C55" t="s">
         <v>233</v>
@@ -5671,10 +5671,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>982</v>
+      </c>
+      <c r="B56" t="s">
         <v>983</v>
-      </c>
-      <c r="B56" t="s">
-        <v>984</v>
       </c>
       <c r="C56" t="s">
         <v>233</v>
@@ -5731,10 +5731,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B59" t="s">
         <v>1140</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1141</v>
       </c>
       <c r="C59" t="s">
         <v>233</v>
@@ -5751,10 +5751,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>984</v>
+      </c>
+      <c r="B60" t="s">
         <v>985</v>
-      </c>
-      <c r="B60" t="s">
-        <v>986</v>
       </c>
       <c r="C60" t="s">
         <v>233</v>
@@ -5771,10 +5771,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>600</v>
+      </c>
+      <c r="B61" t="s">
         <v>601</v>
-      </c>
-      <c r="B61" t="s">
-        <v>602</v>
       </c>
       <c r="C61" t="s">
         <v>233</v>
@@ -5791,10 +5791,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>716</v>
+      </c>
+      <c r="B62" t="s">
         <v>717</v>
-      </c>
-      <c r="B62" t="s">
-        <v>718</v>
       </c>
       <c r="C62" t="s">
         <v>233</v>
@@ -5811,10 +5811,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B63" t="s">
         <v>1037</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1038</v>
       </c>
       <c r="C63" t="s">
         <v>233</v>
@@ -5831,10 +5831,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B64" t="s">
         <v>1047</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1048</v>
       </c>
       <c r="C64" t="s">
         <v>233</v>
@@ -5868,10 +5868,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B66" t="s">
         <v>1065</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1066</v>
       </c>
       <c r="C66" t="s">
         <v>233</v>
@@ -5888,10 +5888,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B67" t="s">
         <v>1273</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1274</v>
       </c>
       <c r="C67" t="s">
         <v>233</v>
@@ -5968,10 +5968,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B71" t="s">
         <v>1039</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1040</v>
       </c>
       <c r="C71" t="s">
         <v>233</v>
@@ -6008,10 +6008,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B73" t="s">
         <v>1017</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1018</v>
       </c>
       <c r="C73" t="s">
         <v>233</v>
@@ -6065,10 +6065,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>516</v>
+      </c>
+      <c r="B76" t="s">
         <v>517</v>
-      </c>
-      <c r="B76" t="s">
-        <v>518</v>
       </c>
       <c r="C76" t="s">
         <v>233</v>
@@ -6122,10 +6122,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>524</v>
+      </c>
+      <c r="B79" t="s">
         <v>525</v>
-      </c>
-      <c r="B79" t="s">
-        <v>526</v>
       </c>
       <c r="C79" t="s">
         <v>233</v>
@@ -6142,10 +6142,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B80" t="s">
         <v>1031</v>
-      </c>
-      <c r="B80" t="s">
-        <v>1032</v>
       </c>
       <c r="C80" t="s">
         <v>233</v>
@@ -6162,10 +6162,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B81" t="s">
         <v>1085</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1086</v>
       </c>
       <c r="C81" t="s">
         <v>233</v>
@@ -6182,10 +6182,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B82" t="s">
         <v>1298</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1299</v>
       </c>
       <c r="C82" t="s">
         <v>233</v>
@@ -6259,10 +6259,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B86" t="s">
         <v>1025</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1026</v>
       </c>
       <c r="C86" t="s">
         <v>233</v>
@@ -6279,10 +6279,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B87" t="s">
         <v>1155</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1156</v>
       </c>
       <c r="C87" t="s">
         <v>233</v>
@@ -6299,10 +6299,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B88" t="s">
         <v>1087</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1088</v>
       </c>
       <c r="C88" t="s">
         <v>233</v>
@@ -6319,10 +6319,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>763</v>
+      </c>
+      <c r="B89" t="s">
         <v>764</v>
-      </c>
-      <c r="B89" t="s">
-        <v>765</v>
       </c>
       <c r="C89" t="s">
         <v>233</v>
@@ -6339,10 +6339,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>993</v>
+      </c>
+      <c r="B90" t="s">
         <v>994</v>
-      </c>
-      <c r="B90" t="s">
-        <v>995</v>
       </c>
       <c r="C90" t="s">
         <v>233</v>
@@ -6379,10 +6379,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>606</v>
+      </c>
+      <c r="B92" t="s">
         <v>607</v>
-      </c>
-      <c r="B92" t="s">
-        <v>608</v>
       </c>
       <c r="C92" t="s">
         <v>233</v>
@@ -6439,10 +6439,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B95" t="s">
         <v>1316</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1317</v>
       </c>
       <c r="C95" t="s">
         <v>233</v>
@@ -6476,10 +6476,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B97" t="s">
         <v>1257</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1258</v>
       </c>
       <c r="C97" t="s">
         <v>233</v>
@@ -6496,10 +6496,10 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>895</v>
+      </c>
+      <c r="B98" t="s">
         <v>896</v>
-      </c>
-      <c r="B98" t="s">
-        <v>897</v>
       </c>
       <c r="C98" t="s">
         <v>233</v>
@@ -6516,10 +6516,10 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>745</v>
+      </c>
+      <c r="B99" t="s">
         <v>746</v>
-      </c>
-      <c r="B99" t="s">
-        <v>747</v>
       </c>
       <c r="C99" t="s">
         <v>233</v>
@@ -6536,10 +6536,10 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B100" t="s">
         <v>1136</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1137</v>
       </c>
       <c r="C100" t="s">
         <v>233</v>
@@ -6556,10 +6556,10 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B101" t="s">
         <v>1075</v>
-      </c>
-      <c r="B101" t="s">
-        <v>1076</v>
       </c>
       <c r="C101" t="s">
         <v>233</v>
@@ -6576,10 +6576,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B102" t="s">
         <v>1283</v>
-      </c>
-      <c r="B102" t="s">
-        <v>1284</v>
       </c>
       <c r="C102" t="s">
         <v>233</v>
@@ -6596,10 +6596,10 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>739</v>
+      </c>
+      <c r="B103" t="s">
         <v>740</v>
-      </c>
-      <c r="B103" t="s">
-        <v>741</v>
       </c>
       <c r="C103" t="s">
         <v>233</v>
@@ -6616,10 +6616,10 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B104" t="s">
         <v>1067</v>
-      </c>
-      <c r="B104" t="s">
-        <v>1068</v>
       </c>
       <c r="C104" t="s">
         <v>233</v>
@@ -6636,10 +6636,10 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>565</v>
+      </c>
+      <c r="B105" t="s">
         <v>566</v>
-      </c>
-      <c r="B105" t="s">
-        <v>567</v>
       </c>
       <c r="C105" t="s">
         <v>233</v>
@@ -6656,10 +6656,10 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C106" t="s">
         <v>233</v>
@@ -6676,10 +6676,10 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>942</v>
+      </c>
+      <c r="B107" t="s">
         <v>943</v>
-      </c>
-      <c r="B107" t="s">
-        <v>944</v>
       </c>
       <c r="C107" t="s">
         <v>233</v>
@@ -6736,10 +6736,10 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>835</v>
+      </c>
+      <c r="B110" t="s">
         <v>836</v>
-      </c>
-      <c r="B110" t="s">
-        <v>837</v>
       </c>
       <c r="C110" t="s">
         <v>233</v>
@@ -6756,10 +6756,10 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>964</v>
+      </c>
+      <c r="B111" t="s">
         <v>965</v>
-      </c>
-      <c r="B111" t="s">
-        <v>966</v>
       </c>
       <c r="C111" t="s">
         <v>233</v>
@@ -6776,10 +6776,10 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>527</v>
+      </c>
+      <c r="B112" t="s">
         <v>528</v>
-      </c>
-      <c r="B112" t="s">
-        <v>529</v>
       </c>
       <c r="C112" t="s">
         <v>233</v>
@@ -6796,10 +6796,10 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B113" t="s">
         <v>1004</v>
-      </c>
-      <c r="B113" t="s">
-        <v>1005</v>
       </c>
       <c r="C113" t="s">
         <v>233</v>
@@ -6816,10 +6816,10 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>952</v>
+      </c>
+      <c r="B114" t="s">
         <v>953</v>
-      </c>
-      <c r="B114" t="s">
-        <v>954</v>
       </c>
       <c r="C114" t="s">
         <v>233</v>
@@ -6890,7 +6890,7 @@
         <v>111</v>
       </c>
       <c r="B118" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C118" t="s">
         <v>233</v>
@@ -6941,10 +6941,10 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>769</v>
+      </c>
+      <c r="B121" t="s">
         <v>770</v>
-      </c>
-      <c r="B121" t="s">
-        <v>771</v>
       </c>
       <c r="C121" t="s">
         <v>233</v>
@@ -6981,10 +6981,10 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B123" t="s">
         <v>1218</v>
-      </c>
-      <c r="B123" t="s">
-        <v>1219</v>
       </c>
       <c r="C123" t="s">
         <v>233</v>
@@ -7001,10 +7001,10 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>787</v>
+      </c>
+      <c r="B124" t="s">
         <v>788</v>
-      </c>
-      <c r="B124" t="s">
-        <v>789</v>
       </c>
       <c r="C124" t="s">
         <v>233</v>
@@ -7041,10 +7041,10 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>741</v>
+      </c>
+      <c r="B126" t="s">
         <v>742</v>
-      </c>
-      <c r="B126" t="s">
-        <v>743</v>
       </c>
       <c r="C126" t="s">
         <v>233</v>
@@ -7061,10 +7061,10 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>831</v>
+      </c>
+      <c r="B127" t="s">
         <v>832</v>
-      </c>
-      <c r="B127" t="s">
-        <v>833</v>
       </c>
       <c r="C127" t="s">
         <v>233</v>
@@ -7081,10 +7081,10 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>747</v>
+      </c>
+      <c r="B128" t="s">
         <v>748</v>
-      </c>
-      <c r="B128" t="s">
-        <v>749</v>
       </c>
       <c r="C128" t="s">
         <v>233</v>
@@ -7101,10 +7101,10 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>651</v>
+      </c>
+      <c r="B129" t="s">
         <v>652</v>
-      </c>
-      <c r="B129" t="s">
-        <v>653</v>
       </c>
       <c r="C129" t="s">
         <v>233</v>
@@ -7121,10 +7121,10 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B130" t="s">
         <v>1010</v>
-      </c>
-      <c r="B130" t="s">
-        <v>1011</v>
       </c>
       <c r="C130" t="s">
         <v>233</v>
@@ -7141,10 +7141,10 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>986</v>
+      </c>
+      <c r="B131" t="s">
         <v>987</v>
-      </c>
-      <c r="B131" t="s">
-        <v>988</v>
       </c>
       <c r="C131" t="s">
         <v>233</v>
@@ -7161,10 +7161,10 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B132" t="s">
         <v>1358</v>
-      </c>
-      <c r="B132" t="s">
-        <v>1359</v>
       </c>
       <c r="C132" t="s">
         <v>233</v>
@@ -7201,7 +7201,7 @@
         <v>115</v>
       </c>
       <c r="B134" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C134" t="s">
         <v>233</v>
@@ -7252,10 +7252,10 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>586</v>
+      </c>
+      <c r="B137" t="s">
         <v>587</v>
-      </c>
-      <c r="B137" t="s">
-        <v>588</v>
       </c>
       <c r="C137" t="s">
         <v>233</v>
@@ -7272,10 +7272,10 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>999</v>
+      </c>
+      <c r="B138" t="s">
         <v>1000</v>
-      </c>
-      <c r="B138" t="s">
-        <v>1001</v>
       </c>
       <c r="C138" t="s">
         <v>233</v>
@@ -7329,10 +7329,10 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>889</v>
+      </c>
+      <c r="B141" t="s">
         <v>890</v>
-      </c>
-      <c r="B141" t="s">
-        <v>891</v>
       </c>
       <c r="C141" t="s">
         <v>233</v>
@@ -7349,10 +7349,10 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B142" t="s">
         <v>1226</v>
-      </c>
-      <c r="B142" t="s">
-        <v>1227</v>
       </c>
       <c r="C142" t="s">
         <v>233</v>
@@ -7369,10 +7369,10 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C143" t="s">
         <v>233</v>
@@ -7389,10 +7389,10 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>537</v>
+      </c>
+      <c r="B144" t="s">
         <v>538</v>
-      </c>
-      <c r="B144" t="s">
-        <v>539</v>
       </c>
       <c r="C144" t="s">
         <v>233</v>
@@ -7409,10 +7409,10 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B145" t="s">
         <v>1051</v>
-      </c>
-      <c r="B145" t="s">
-        <v>1052</v>
       </c>
       <c r="C145" t="s">
         <v>233</v>
@@ -7429,10 +7429,10 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>819</v>
+      </c>
+      <c r="B146" t="s">
         <v>820</v>
-      </c>
-      <c r="B146" t="s">
-        <v>821</v>
       </c>
       <c r="C146" t="s">
         <v>233</v>
@@ -7449,10 +7449,10 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>821</v>
+      </c>
+      <c r="B147" t="s">
         <v>822</v>
-      </c>
-      <c r="B147" t="s">
-        <v>823</v>
       </c>
       <c r="C147" t="s">
         <v>233</v>
@@ -7469,10 +7469,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B148" t="s">
         <v>1320</v>
-      </c>
-      <c r="B148" t="s">
-        <v>1321</v>
       </c>
       <c r="C148" t="s">
         <v>233</v>
@@ -7489,10 +7489,10 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>731</v>
+      </c>
+      <c r="B149" t="s">
         <v>732</v>
-      </c>
-      <c r="B149" t="s">
-        <v>733</v>
       </c>
       <c r="C149" t="s">
         <v>233</v>
@@ -7509,10 +7509,10 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>988</v>
+      </c>
+      <c r="B150" t="s">
         <v>989</v>
-      </c>
-      <c r="B150" t="s">
-        <v>990</v>
       </c>
       <c r="C150" t="s">
         <v>233</v>
@@ -7529,10 +7529,10 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>859</v>
+      </c>
+      <c r="B151" t="s">
         <v>860</v>
-      </c>
-      <c r="B151" t="s">
-        <v>861</v>
       </c>
       <c r="C151" t="s">
         <v>233</v>
@@ -7549,10 +7549,10 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B152" t="s">
         <v>1100</v>
-      </c>
-      <c r="B152" t="s">
-        <v>1101</v>
       </c>
       <c r="C152" t="s">
         <v>233</v>
@@ -7569,10 +7569,10 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>749</v>
+      </c>
+      <c r="B153" t="s">
         <v>750</v>
-      </c>
-      <c r="B153" t="s">
-        <v>751</v>
       </c>
       <c r="C153" t="s">
         <v>233</v>
@@ -7589,10 +7589,10 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B154" t="s">
         <v>1368</v>
-      </c>
-      <c r="B154" t="s">
-        <v>1369</v>
       </c>
       <c r="C154" t="s">
         <v>233</v>
@@ -7609,10 +7609,10 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>991</v>
+      </c>
+      <c r="B155" t="s">
         <v>992</v>
-      </c>
-      <c r="B155" t="s">
-        <v>993</v>
       </c>
       <c r="C155" t="s">
         <v>233</v>
@@ -7629,7 +7629,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C156" t="s">
         <v>233</v>
@@ -7646,10 +7646,10 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B157" t="s">
         <v>1029</v>
-      </c>
-      <c r="B157" t="s">
-        <v>1030</v>
       </c>
       <c r="C157" t="s">
         <v>233</v>
@@ -7669,7 +7669,7 @@
         <v>0</v>
       </c>
       <c r="B158" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C158" t="s">
         <v>1</v>
@@ -7720,10 +7720,10 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>777</v>
+      </c>
+      <c r="B161" t="s">
         <v>778</v>
-      </c>
-      <c r="B161" t="s">
-        <v>779</v>
       </c>
       <c r="C161" t="s">
         <v>233</v>
@@ -7740,10 +7740,10 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>640</v>
+      </c>
+      <c r="B162" t="s">
         <v>641</v>
-      </c>
-      <c r="B162" t="s">
-        <v>642</v>
       </c>
       <c r="C162" t="s">
         <v>233</v>
@@ -7760,10 +7760,10 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C163" t="s">
         <v>233</v>
@@ -7780,10 +7780,10 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>634</v>
+      </c>
+      <c r="B164" t="s">
         <v>635</v>
-      </c>
-      <c r="B164" t="s">
-        <v>636</v>
       </c>
       <c r="C164" t="s">
         <v>233</v>
@@ -7817,10 +7817,10 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>616</v>
+      </c>
+      <c r="B166" t="s">
         <v>617</v>
-      </c>
-      <c r="B166" t="s">
-        <v>618</v>
       </c>
       <c r="C166" t="s">
         <v>233</v>
@@ -7837,10 +7837,10 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B167" t="s">
         <v>1328</v>
-      </c>
-      <c r="B167" t="s">
-        <v>1329</v>
       </c>
       <c r="C167" t="s">
         <v>233</v>
@@ -7857,10 +7857,10 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>628</v>
+      </c>
+      <c r="B168" t="s">
         <v>629</v>
-      </c>
-      <c r="B168" t="s">
-        <v>630</v>
       </c>
       <c r="C168" t="s">
         <v>233</v>
@@ -7877,10 +7877,10 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B169" t="s">
         <v>1150</v>
-      </c>
-      <c r="B169" t="s">
-        <v>1151</v>
       </c>
       <c r="C169" t="s">
         <v>233</v>
@@ -7957,10 +7957,10 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>582</v>
+      </c>
+      <c r="B173" t="s">
         <v>583</v>
-      </c>
-      <c r="B173" t="s">
-        <v>584</v>
       </c>
       <c r="C173" t="s">
         <v>233</v>
@@ -7977,10 +7977,10 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>771</v>
+      </c>
+      <c r="B174" t="s">
         <v>772</v>
-      </c>
-      <c r="B174" t="s">
-        <v>773</v>
       </c>
       <c r="C174" t="s">
         <v>233</v>
@@ -7997,10 +7997,10 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>875</v>
+      </c>
+      <c r="B175" t="s">
         <v>876</v>
-      </c>
-      <c r="B175" t="s">
-        <v>877</v>
       </c>
       <c r="C175" t="s">
         <v>233</v>
@@ -8017,10 +8017,10 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>753</v>
+      </c>
+      <c r="B176" t="s">
         <v>754</v>
-      </c>
-      <c r="B176" t="s">
-        <v>755</v>
       </c>
       <c r="C176" t="s">
         <v>233</v>
@@ -8037,10 +8037,10 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B177" t="s">
         <v>1286</v>
-      </c>
-      <c r="B177" t="s">
-        <v>1287</v>
       </c>
       <c r="C177" t="s">
         <v>233</v>
@@ -8057,10 +8057,10 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B178" t="s">
         <v>1263</v>
-      </c>
-      <c r="B178" t="s">
-        <v>1264</v>
       </c>
       <c r="C178" t="s">
         <v>233</v>
@@ -8097,10 +8097,10 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>972</v>
+      </c>
+      <c r="B180" t="s">
         <v>973</v>
-      </c>
-      <c r="B180" t="s">
-        <v>974</v>
       </c>
       <c r="C180" t="s">
         <v>233</v>
@@ -8137,10 +8137,10 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>533</v>
+      </c>
+      <c r="B182" t="s">
         <v>534</v>
-      </c>
-      <c r="B182" t="s">
-        <v>535</v>
       </c>
       <c r="C182" t="s">
         <v>233</v>
@@ -8157,10 +8157,10 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>974</v>
+      </c>
+      <c r="B183" t="s">
         <v>975</v>
-      </c>
-      <c r="B183" t="s">
-        <v>976</v>
       </c>
       <c r="C183" t="s">
         <v>233</v>
@@ -8197,10 +8197,10 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B185" t="s">
         <v>1281</v>
-      </c>
-      <c r="B185" t="s">
-        <v>1282</v>
       </c>
       <c r="C185" t="s">
         <v>233</v>
@@ -8237,10 +8237,10 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>588</v>
+      </c>
+      <c r="B187" t="s">
         <v>589</v>
-      </c>
-      <c r="B187" t="s">
-        <v>590</v>
       </c>
       <c r="C187" t="s">
         <v>233</v>
@@ -8277,10 +8277,10 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B189" t="s">
         <v>1255</v>
-      </c>
-      <c r="B189" t="s">
-        <v>1256</v>
       </c>
       <c r="C189" t="s">
         <v>233</v>
@@ -8297,10 +8297,10 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>847</v>
+      </c>
+      <c r="B190" t="s">
         <v>848</v>
-      </c>
-      <c r="B190" t="s">
-        <v>849</v>
       </c>
       <c r="C190" t="s">
         <v>233</v>
@@ -8317,10 +8317,10 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B191" t="s">
         <v>1178</v>
-      </c>
-      <c r="B191" t="s">
-        <v>1179</v>
       </c>
       <c r="C191" t="s">
         <v>233</v>
@@ -8337,10 +8337,10 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>529</v>
+      </c>
+      <c r="B192" t="s">
         <v>530</v>
-      </c>
-      <c r="B192" t="s">
-        <v>531</v>
       </c>
       <c r="C192" t="s">
         <v>233</v>
@@ -8357,10 +8357,10 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>970</v>
+      </c>
+      <c r="B193" t="s">
         <v>971</v>
-      </c>
-      <c r="B193" t="s">
-        <v>972</v>
       </c>
       <c r="C193" t="s">
         <v>233</v>
@@ -8377,10 +8377,10 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>675</v>
+      </c>
+      <c r="B194" t="s">
         <v>676</v>
-      </c>
-      <c r="B194" t="s">
-        <v>677</v>
       </c>
       <c r="C194" t="s">
         <v>233</v>
@@ -8397,10 +8397,10 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>705</v>
+      </c>
+      <c r="B195" t="s">
         <v>706</v>
-      </c>
-      <c r="B195" t="s">
-        <v>707</v>
       </c>
       <c r="C195" t="s">
         <v>233</v>
@@ -8451,10 +8451,10 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C198" t="s">
         <v>233</v>
@@ -8474,7 +8474,7 @@
         <v>87</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C199" t="s">
         <v>58</v>
@@ -8491,7 +8491,7 @@
         <v>88</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C200" t="s">
         <v>58</v>
@@ -8505,10 +8505,10 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>845</v>
+      </c>
+      <c r="B201" t="s">
         <v>846</v>
-      </c>
-      <c r="B201" t="s">
-        <v>847</v>
       </c>
       <c r="C201" t="s">
         <v>233</v>
@@ -8562,10 +8562,10 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B204" t="s">
         <v>1314</v>
-      </c>
-      <c r="B204" t="s">
-        <v>1315</v>
       </c>
       <c r="C204" t="s">
         <v>233</v>
@@ -8582,10 +8582,10 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B205" t="s">
         <v>1292</v>
-      </c>
-      <c r="B205" t="s">
-        <v>1293</v>
       </c>
       <c r="C205" t="s">
         <v>233</v>
@@ -8670,10 +8670,10 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>755</v>
+      </c>
+      <c r="B210" t="s">
         <v>756</v>
-      </c>
-      <c r="B210" t="s">
-        <v>757</v>
       </c>
       <c r="C210" t="s">
         <v>233</v>
@@ -8690,10 +8690,10 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B211" t="s">
         <v>1035</v>
-      </c>
-      <c r="B211" t="s">
-        <v>1036</v>
       </c>
       <c r="C211" t="s">
         <v>233</v>
@@ -8727,10 +8727,10 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B213" t="s">
         <v>1236</v>
-      </c>
-      <c r="B213" t="s">
-        <v>1237</v>
       </c>
       <c r="C213" t="s">
         <v>233</v>
@@ -8747,10 +8747,10 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B214" t="s">
         <v>1238</v>
-      </c>
-      <c r="B214" t="s">
-        <v>1239</v>
       </c>
       <c r="C214" t="s">
         <v>233</v>
@@ -8767,10 +8767,10 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>657</v>
+      </c>
+      <c r="B215" t="s">
         <v>658</v>
-      </c>
-      <c r="B215" t="s">
-        <v>659</v>
       </c>
       <c r="C215" t="s">
         <v>233</v>
@@ -8787,10 +8787,10 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B216" t="s">
         <v>1214</v>
-      </c>
-      <c r="B216" t="s">
-        <v>1215</v>
       </c>
       <c r="C216" t="s">
         <v>233</v>
@@ -8807,10 +8807,10 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C217" t="s">
         <v>233</v>
@@ -8827,10 +8827,10 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B218" t="s">
         <v>1247</v>
-      </c>
-      <c r="B218" t="s">
-        <v>1248</v>
       </c>
       <c r="C218" t="s">
         <v>233</v>
@@ -8847,10 +8847,10 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C219" t="s">
         <v>233</v>
@@ -8921,10 +8921,10 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B223" t="s">
         <v>1012</v>
-      </c>
-      <c r="B223" t="s">
-        <v>1013</v>
       </c>
       <c r="C223" t="s">
         <v>233</v>
@@ -8941,7 +8941,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C224" t="s">
         <v>233</v>
@@ -9018,10 +9018,10 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B228" t="s">
         <v>1354</v>
-      </c>
-      <c r="B228" t="s">
-        <v>1355</v>
       </c>
       <c r="C228" t="s">
         <v>233</v>
@@ -9078,10 +9078,10 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
+        <v>655</v>
+      </c>
+      <c r="B231" t="s">
         <v>656</v>
-      </c>
-      <c r="B231" t="s">
-        <v>657</v>
       </c>
       <c r="C231" t="s">
         <v>233</v>
@@ -9098,10 +9098,10 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B232" t="s">
         <v>1304</v>
-      </c>
-      <c r="B232" t="s">
-        <v>1305</v>
       </c>
       <c r="C232" t="s">
         <v>233</v>
@@ -9118,10 +9118,10 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
+        <v>783</v>
+      </c>
+      <c r="B233" t="s">
         <v>784</v>
-      </c>
-      <c r="B233" t="s">
-        <v>785</v>
       </c>
       <c r="C233" t="s">
         <v>233</v>
@@ -9175,10 +9175,10 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B236" t="s">
         <v>1059</v>
-      </c>
-      <c r="B236" t="s">
-        <v>1060</v>
       </c>
       <c r="C236" t="s">
         <v>233</v>
@@ -9195,10 +9195,10 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
+        <v>997</v>
+      </c>
+      <c r="B237" t="s">
         <v>998</v>
-      </c>
-      <c r="B237" t="s">
-        <v>999</v>
       </c>
       <c r="C237" t="s">
         <v>233</v>
@@ -9215,10 +9215,10 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B238" t="s">
         <v>1057</v>
-      </c>
-      <c r="B238" t="s">
-        <v>1058</v>
       </c>
       <c r="C238" t="s">
         <v>233</v>
@@ -9252,10 +9252,10 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>670</v>
+      </c>
+      <c r="B240" t="s">
         <v>671</v>
-      </c>
-      <c r="B240" t="s">
-        <v>672</v>
       </c>
       <c r="C240" t="s">
         <v>233</v>
@@ -9272,10 +9272,10 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B241" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C241" t="s">
         <v>233</v>
@@ -9372,7 +9372,7 @@
         <v>189</v>
       </c>
       <c r="B246" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C246" t="s">
         <v>233</v>
@@ -9426,10 +9426,10 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B249" t="s">
         <v>1251</v>
-      </c>
-      <c r="B249" t="s">
-        <v>1252</v>
       </c>
       <c r="C249" t="s">
         <v>233</v>
@@ -9446,10 +9446,10 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B250" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C250" t="s">
         <v>233</v>
@@ -9466,10 +9466,10 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B251" t="s">
         <v>1053</v>
-      </c>
-      <c r="B251" t="s">
-        <v>1054</v>
       </c>
       <c r="C251" t="s">
         <v>233</v>
@@ -9486,10 +9486,10 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
+        <v>701</v>
+      </c>
+      <c r="B252" t="s">
         <v>702</v>
-      </c>
-      <c r="B252" t="s">
-        <v>703</v>
       </c>
       <c r="C252" t="s">
         <v>233</v>
@@ -9506,10 +9506,10 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
+        <v>871</v>
+      </c>
+      <c r="B253" t="s">
         <v>872</v>
-      </c>
-      <c r="B253" t="s">
-        <v>873</v>
       </c>
       <c r="C253" t="s">
         <v>233</v>
@@ -9583,10 +9583,10 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
+        <v>559</v>
+      </c>
+      <c r="B257" t="s">
         <v>560</v>
-      </c>
-      <c r="B257" t="s">
-        <v>561</v>
       </c>
       <c r="C257" t="s">
         <v>233</v>
@@ -9603,10 +9603,10 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
+        <v>703</v>
+      </c>
+      <c r="B258" t="s">
         <v>704</v>
-      </c>
-      <c r="B258" t="s">
-        <v>705</v>
       </c>
       <c r="C258" t="s">
         <v>233</v>
@@ -9666,7 +9666,7 @@
         <v>348</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C261" t="s">
         <v>233</v>
@@ -9683,10 +9683,10 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
+        <v>590</v>
+      </c>
+      <c r="B262" t="s">
         <v>591</v>
-      </c>
-      <c r="B262" t="s">
-        <v>592</v>
       </c>
       <c r="C262" t="s">
         <v>233</v>
@@ -9703,10 +9703,10 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B263" t="s">
         <v>1045</v>
-      </c>
-      <c r="B263" t="s">
-        <v>1046</v>
       </c>
       <c r="C263" t="s">
         <v>233</v>
@@ -9723,10 +9723,10 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
+        <v>610</v>
+      </c>
+      <c r="B264" t="s">
         <v>611</v>
-      </c>
-      <c r="B264" t="s">
-        <v>612</v>
       </c>
       <c r="C264" t="s">
         <v>233</v>
@@ -9743,10 +9743,10 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
+        <v>683</v>
+      </c>
+      <c r="B265" t="s">
         <v>684</v>
-      </c>
-      <c r="B265" t="s">
-        <v>685</v>
       </c>
       <c r="C265" t="s">
         <v>233</v>
@@ -9763,10 +9763,10 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
+        <v>687</v>
+      </c>
+      <c r="B266" t="s">
         <v>688</v>
-      </c>
-      <c r="B266" t="s">
-        <v>689</v>
       </c>
       <c r="C266" t="s">
         <v>233</v>
@@ -9783,10 +9783,10 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
+        <v>691</v>
+      </c>
+      <c r="B267" t="s">
         <v>692</v>
-      </c>
-      <c r="B267" t="s">
-        <v>693</v>
       </c>
       <c r="C267" t="s">
         <v>233</v>
@@ -9803,10 +9803,10 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
+        <v>697</v>
+      </c>
+      <c r="B268" t="s">
         <v>698</v>
-      </c>
-      <c r="B268" t="s">
-        <v>699</v>
       </c>
       <c r="C268" t="s">
         <v>233</v>
@@ -9823,10 +9823,10 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
+        <v>699</v>
+      </c>
+      <c r="B269" t="s">
         <v>700</v>
-      </c>
-      <c r="B269" t="s">
-        <v>701</v>
       </c>
       <c r="C269" t="s">
         <v>233</v>
@@ -9843,10 +9843,10 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
+        <v>693</v>
+      </c>
+      <c r="B270" t="s">
         <v>694</v>
-      </c>
-      <c r="B270" t="s">
-        <v>695</v>
       </c>
       <c r="C270" t="s">
         <v>233</v>
@@ -9863,10 +9863,10 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
+        <v>695</v>
+      </c>
+      <c r="B271" t="s">
         <v>696</v>
-      </c>
-      <c r="B271" t="s">
-        <v>697</v>
       </c>
       <c r="C271" t="s">
         <v>233</v>
@@ -9883,10 +9883,10 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
+        <v>685</v>
+      </c>
+      <c r="B272" t="s">
         <v>686</v>
-      </c>
-      <c r="B272" t="s">
-        <v>687</v>
       </c>
       <c r="C272" t="s">
         <v>233</v>
@@ -9903,10 +9903,10 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
+        <v>681</v>
+      </c>
+      <c r="B273" t="s">
         <v>682</v>
-      </c>
-      <c r="B273" t="s">
-        <v>683</v>
       </c>
       <c r="C273" t="s">
         <v>233</v>
@@ -9923,10 +9923,10 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
+        <v>689</v>
+      </c>
+      <c r="B274" t="s">
         <v>690</v>
-      </c>
-      <c r="B274" t="s">
-        <v>691</v>
       </c>
       <c r="C274" t="s">
         <v>233</v>
@@ -9963,10 +9963,10 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="C276" t="s">
         <v>233</v>
@@ -9983,10 +9983,10 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B277" t="s">
         <v>1362</v>
-      </c>
-      <c r="B277" t="s">
-        <v>1363</v>
       </c>
       <c r="C277" t="s">
         <v>233</v>
@@ -10023,10 +10023,10 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B279" t="s">
         <v>1106</v>
-      </c>
-      <c r="B279" t="s">
-        <v>1107</v>
       </c>
       <c r="C279" t="s">
         <v>233</v>
@@ -10043,10 +10043,10 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B280" t="s">
         <v>1069</v>
-      </c>
-      <c r="B280" t="s">
-        <v>1070</v>
       </c>
       <c r="C280" t="s">
         <v>233</v>
@@ -10063,10 +10063,10 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
+        <v>851</v>
+      </c>
+      <c r="B281" t="s">
         <v>852</v>
-      </c>
-      <c r="B281" t="s">
-        <v>853</v>
       </c>
       <c r="C281" t="s">
         <v>233</v>
@@ -10083,10 +10083,10 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B282" t="s">
         <v>1161</v>
-      </c>
-      <c r="B282" t="s">
-        <v>1162</v>
       </c>
       <c r="C282" t="s">
         <v>233</v>
@@ -10103,10 +10103,10 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
+        <v>853</v>
+      </c>
+      <c r="B283" t="s">
         <v>854</v>
-      </c>
-      <c r="B283" t="s">
-        <v>855</v>
       </c>
       <c r="C283" t="s">
         <v>233</v>
@@ -10123,10 +10123,10 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B284" t="s">
         <v>1102</v>
-      </c>
-      <c r="B284" t="s">
-        <v>1103</v>
       </c>
       <c r="C284" t="s">
         <v>233</v>
@@ -10143,10 +10143,10 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B285" t="s">
         <v>1224</v>
-      </c>
-      <c r="B285" t="s">
-        <v>1225</v>
       </c>
       <c r="C285" t="s">
         <v>233</v>
@@ -10183,10 +10183,10 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
+        <v>630</v>
+      </c>
+      <c r="B287" t="s">
         <v>631</v>
-      </c>
-      <c r="B287" t="s">
-        <v>632</v>
       </c>
       <c r="C287" t="s">
         <v>233</v>
@@ -10203,10 +10203,10 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
+        <v>714</v>
+      </c>
+      <c r="B288" t="s">
         <v>715</v>
-      </c>
-      <c r="B288" t="s">
-        <v>716</v>
       </c>
       <c r="C288" t="s">
         <v>233</v>
@@ -10223,10 +10223,10 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
+        <v>737</v>
+      </c>
+      <c r="B289" t="s">
         <v>738</v>
-      </c>
-      <c r="B289" t="s">
-        <v>739</v>
       </c>
       <c r="C289" t="s">
         <v>233</v>
@@ -10243,10 +10243,10 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B290" t="s">
         <v>1055</v>
-      </c>
-      <c r="B290" t="s">
-        <v>1056</v>
       </c>
       <c r="C290" t="s">
         <v>233</v>
@@ -10283,10 +10283,10 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
+        <v>841</v>
+      </c>
+      <c r="B292" t="s">
         <v>842</v>
-      </c>
-      <c r="B292" t="s">
-        <v>843</v>
       </c>
       <c r="C292" t="s">
         <v>233</v>
@@ -10323,10 +10323,10 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
+        <v>924</v>
+      </c>
+      <c r="B294" t="s">
         <v>925</v>
-      </c>
-      <c r="B294" t="s">
-        <v>926</v>
       </c>
       <c r="C294" t="s">
         <v>233</v>
@@ -10363,10 +10363,10 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
+        <v>545</v>
+      </c>
+      <c r="B296" t="s">
         <v>546</v>
-      </c>
-      <c r="B296" t="s">
-        <v>547</v>
       </c>
       <c r="C296" t="s">
         <v>233</v>
@@ -10383,10 +10383,10 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B297" t="s">
         <v>1310</v>
-      </c>
-      <c r="B297" t="s">
-        <v>1311</v>
       </c>
       <c r="C297" t="s">
         <v>233</v>
@@ -10403,10 +10403,10 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
+        <v>549</v>
+      </c>
+      <c r="B298" t="s">
         <v>550</v>
-      </c>
-      <c r="B298" t="s">
-        <v>551</v>
       </c>
       <c r="C298" t="s">
         <v>233</v>
@@ -10423,10 +10423,10 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B299" t="s">
         <v>1336</v>
-      </c>
-      <c r="B299" t="s">
-        <v>1337</v>
       </c>
       <c r="C299" t="s">
         <v>233</v>
@@ -10460,10 +10460,10 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B301" t="s">
         <v>1352</v>
-      </c>
-      <c r="B301" t="s">
-        <v>1353</v>
       </c>
       <c r="C301" t="s">
         <v>233</v>
@@ -10480,10 +10480,10 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
+        <v>857</v>
+      </c>
+      <c r="B302" t="s">
         <v>858</v>
-      </c>
-      <c r="B302" t="s">
-        <v>859</v>
       </c>
       <c r="C302" t="s">
         <v>233</v>
@@ -10500,10 +10500,10 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
+        <v>765</v>
+      </c>
+      <c r="B303" t="s">
         <v>766</v>
-      </c>
-      <c r="B303" t="s">
-        <v>767</v>
       </c>
       <c r="C303" t="s">
         <v>233</v>
@@ -10577,10 +10577,10 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B307" t="s">
         <v>1063</v>
-      </c>
-      <c r="B307" t="s">
-        <v>1064</v>
       </c>
       <c r="C307" t="s">
         <v>233</v>
@@ -10597,10 +10597,10 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B308" t="s">
         <v>1157</v>
-      </c>
-      <c r="B308" t="s">
-        <v>1158</v>
       </c>
       <c r="C308" t="s">
         <v>233</v>
@@ -10637,10 +10637,10 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B310" t="s">
         <v>1077</v>
-      </c>
-      <c r="B310" t="s">
-        <v>1078</v>
       </c>
       <c r="C310" t="s">
         <v>233</v>
@@ -10697,10 +10697,10 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B313" t="s">
         <v>1342</v>
-      </c>
-      <c r="B313" t="s">
-        <v>1343</v>
       </c>
       <c r="C313" t="s">
         <v>233</v>
@@ -10717,10 +10717,10 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B314" t="s">
         <v>1033</v>
-      </c>
-      <c r="B314" t="s">
-        <v>1034</v>
       </c>
       <c r="C314" t="s">
         <v>233</v>
@@ -10737,10 +10737,10 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
+        <v>795</v>
+      </c>
+      <c r="B315" t="s">
         <v>796</v>
-      </c>
-      <c r="B315" t="s">
-        <v>797</v>
       </c>
       <c r="C315" t="s">
         <v>233</v>
@@ -10757,10 +10757,10 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
+        <v>797</v>
+      </c>
+      <c r="B316" t="s">
         <v>798</v>
-      </c>
-      <c r="B316" t="s">
-        <v>799</v>
       </c>
       <c r="C316" t="s">
         <v>233</v>
@@ -10794,10 +10794,10 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B318" t="s">
         <v>1104</v>
-      </c>
-      <c r="B318" t="s">
-        <v>1105</v>
       </c>
       <c r="C318" t="s">
         <v>233</v>
@@ -10814,10 +10814,10 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B319" t="s">
         <v>1083</v>
-      </c>
-      <c r="B319" t="s">
-        <v>1084</v>
       </c>
       <c r="C319" t="s">
         <v>233</v>
@@ -10874,10 +10874,10 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B322" t="s">
         <v>1234</v>
-      </c>
-      <c r="B322" t="s">
-        <v>1235</v>
       </c>
       <c r="C322" t="s">
         <v>233</v>
@@ -10894,10 +10894,10 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
+        <v>618</v>
+      </c>
+      <c r="B323" t="s">
         <v>619</v>
-      </c>
-      <c r="B323" t="s">
-        <v>620</v>
       </c>
       <c r="C323" t="s">
         <v>233</v>
@@ -10931,10 +10931,10 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B325" t="s">
         <v>1115</v>
-      </c>
-      <c r="B325" t="s">
-        <v>1116</v>
       </c>
       <c r="C325" t="s">
         <v>233</v>
@@ -10951,7 +10951,7 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C326" t="s">
         <v>233</v>
@@ -10968,10 +10968,10 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
+        <v>553</v>
+      </c>
+      <c r="B327" t="s">
         <v>554</v>
-      </c>
-      <c r="B327" t="s">
-        <v>555</v>
       </c>
       <c r="C327" t="s">
         <v>233</v>
@@ -10988,10 +10988,10 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
+        <v>555</v>
+      </c>
+      <c r="B328" t="s">
         <v>556</v>
-      </c>
-      <c r="B328" t="s">
-        <v>557</v>
       </c>
       <c r="C328" t="s">
         <v>233</v>
@@ -11008,10 +11008,10 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
+        <v>557</v>
+      </c>
+      <c r="B329" t="s">
         <v>558</v>
-      </c>
-      <c r="B329" t="s">
-        <v>559</v>
       </c>
       <c r="C329" t="s">
         <v>233</v>
@@ -11028,10 +11028,10 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
+        <v>531</v>
+      </c>
+      <c r="B330" t="s">
         <v>532</v>
-      </c>
-      <c r="B330" t="s">
-        <v>533</v>
       </c>
       <c r="C330" t="s">
         <v>233</v>
@@ -11088,10 +11088,10 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B333" t="s">
         <v>1306</v>
-      </c>
-      <c r="B333" t="s">
-        <v>1307</v>
       </c>
       <c r="C333" t="s">
         <v>233</v>
@@ -11110,8 +11110,8 @@
       <c r="A334" t="s">
         <v>513</v>
       </c>
-      <c r="B334" t="s">
-        <v>514</v>
+      <c r="B334" s="1" t="s">
+        <v>1398</v>
       </c>
       <c r="C334" t="s">
         <v>233</v>
@@ -11128,10 +11128,10 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B335" t="s">
         <v>1228</v>
-      </c>
-      <c r="B335" t="s">
-        <v>1229</v>
       </c>
       <c r="C335" t="s">
         <v>233</v>
@@ -11148,10 +11148,10 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B336" t="s">
         <v>1129</v>
-      </c>
-      <c r="B336" t="s">
-        <v>1130</v>
       </c>
       <c r="C336" t="s">
         <v>233</v>
@@ -11185,10 +11185,10 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
+        <v>873</v>
+      </c>
+      <c r="B338" t="s">
         <v>874</v>
-      </c>
-      <c r="B338" t="s">
-        <v>875</v>
       </c>
       <c r="C338" t="s">
         <v>233</v>
@@ -11245,10 +11245,10 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
+        <v>809</v>
+      </c>
+      <c r="B341" t="s">
         <v>810</v>
-      </c>
-      <c r="B341" t="s">
-        <v>811</v>
       </c>
       <c r="C341" t="s">
         <v>233</v>
@@ -11285,10 +11285,10 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
+        <v>659</v>
+      </c>
+      <c r="B343" t="s">
         <v>660</v>
-      </c>
-      <c r="B343" t="s">
-        <v>661</v>
       </c>
       <c r="C343" t="s">
         <v>233</v>
@@ -11305,10 +11305,10 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B344" t="s">
         <v>1081</v>
-      </c>
-      <c r="B344" t="s">
-        <v>1082</v>
       </c>
       <c r="C344" t="s">
         <v>233</v>
@@ -11325,10 +11325,10 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B345" t="s">
         <v>1279</v>
-      </c>
-      <c r="B345" t="s">
-        <v>1280</v>
       </c>
       <c r="C345" t="s">
         <v>233</v>
@@ -11365,10 +11365,10 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B347" t="s">
         <v>1120</v>
-      </c>
-      <c r="B347" t="s">
-        <v>1121</v>
       </c>
       <c r="C347" t="s">
         <v>233</v>
@@ -11385,10 +11385,10 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
+        <v>673</v>
+      </c>
+      <c r="B348" t="s">
         <v>674</v>
-      </c>
-      <c r="B348" t="s">
-        <v>675</v>
       </c>
       <c r="C348" t="s">
         <v>233</v>
@@ -11439,10 +11439,10 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
+        <v>829</v>
+      </c>
+      <c r="B351" t="s">
         <v>830</v>
-      </c>
-      <c r="B351" t="s">
-        <v>831</v>
       </c>
       <c r="C351" t="s">
         <v>233</v>
@@ -11510,10 +11510,10 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
+        <v>869</v>
+      </c>
+      <c r="B355" t="s">
         <v>870</v>
-      </c>
-      <c r="B355" t="s">
-        <v>871</v>
       </c>
       <c r="C355" t="s">
         <v>233</v>
@@ -11530,10 +11530,10 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
+        <v>759</v>
+      </c>
+      <c r="B356" t="s">
         <v>760</v>
-      </c>
-      <c r="B356" t="s">
-        <v>761</v>
       </c>
       <c r="C356" t="s">
         <v>233</v>
@@ -11550,10 +11550,10 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
+        <v>928</v>
+      </c>
+      <c r="B357" t="s">
         <v>929</v>
-      </c>
-      <c r="B357" t="s">
-        <v>930</v>
       </c>
       <c r="C357" t="s">
         <v>233</v>
@@ -11587,10 +11587,10 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
+        <v>914</v>
+      </c>
+      <c r="B359" t="s">
         <v>915</v>
-      </c>
-      <c r="B359" t="s">
-        <v>916</v>
       </c>
       <c r="C359" t="s">
         <v>233</v>
@@ -11624,10 +11624,10 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
+        <v>916</v>
+      </c>
+      <c r="B361" t="s">
         <v>917</v>
-      </c>
-      <c r="B361" t="s">
-        <v>918</v>
       </c>
       <c r="C361" t="s">
         <v>233</v>
@@ -11698,10 +11698,10 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
+        <v>885</v>
+      </c>
+      <c r="B365" t="s">
         <v>886</v>
-      </c>
-      <c r="B365" t="s">
-        <v>887</v>
       </c>
       <c r="C365" t="s">
         <v>233</v>
@@ -11772,10 +11772,10 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
+        <v>594</v>
+      </c>
+      <c r="B369" t="s">
         <v>595</v>
-      </c>
-      <c r="B369" t="s">
-        <v>596</v>
       </c>
       <c r="C369" t="s">
         <v>233</v>
@@ -11792,10 +11792,10 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B370" t="s">
         <v>1326</v>
-      </c>
-      <c r="B370" t="s">
-        <v>1327</v>
       </c>
       <c r="C370" t="s">
         <v>233</v>
@@ -11812,10 +11812,10 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
+        <v>948</v>
+      </c>
+      <c r="B371" t="s">
         <v>949</v>
-      </c>
-      <c r="B371" t="s">
-        <v>950</v>
       </c>
       <c r="C371" t="s">
         <v>233</v>
@@ -11852,10 +11852,10 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B373" t="s">
         <v>1300</v>
-      </c>
-      <c r="B373" t="s">
-        <v>1301</v>
       </c>
       <c r="C373" t="s">
         <v>233</v>
@@ -11872,10 +11872,10 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
+        <v>957</v>
+      </c>
+      <c r="B374" t="s">
         <v>958</v>
-      </c>
-      <c r="B374" t="s">
-        <v>959</v>
       </c>
       <c r="C374" t="s">
         <v>233</v>
@@ -11946,10 +11946,10 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B378" t="s">
         <v>1091</v>
-      </c>
-      <c r="B378" t="s">
-        <v>1092</v>
       </c>
       <c r="C378" t="s">
         <v>233</v>
@@ -11966,10 +11966,10 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B379" t="s">
         <v>1122</v>
-      </c>
-      <c r="B379" t="s">
-        <v>1123</v>
       </c>
       <c r="C379" t="s">
         <v>233</v>
@@ -11986,10 +11986,10 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
+        <v>757</v>
+      </c>
+      <c r="B380" t="s">
         <v>758</v>
-      </c>
-      <c r="B380" t="s">
-        <v>759</v>
       </c>
       <c r="C380" t="s">
         <v>233</v>
@@ -12006,10 +12006,10 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
+        <v>893</v>
+      </c>
+      <c r="B381" t="s">
         <v>894</v>
-      </c>
-      <c r="B381" t="s">
-        <v>895</v>
       </c>
       <c r="C381" t="s">
         <v>233</v>
@@ -12046,10 +12046,10 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B383" t="s">
         <v>1210</v>
-      </c>
-      <c r="B383" t="s">
-        <v>1211</v>
       </c>
       <c r="C383" t="s">
         <v>233</v>
@@ -12066,10 +12066,10 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B384" t="s">
         <v>1200</v>
-      </c>
-      <c r="B384" t="s">
-        <v>1201</v>
       </c>
       <c r="C384" t="s">
         <v>233</v>
@@ -12086,10 +12086,10 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B385" t="s">
         <v>1196</v>
-      </c>
-      <c r="B385" t="s">
-        <v>1197</v>
       </c>
       <c r="C385" t="s">
         <v>233</v>
@@ -12106,10 +12106,10 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B386" t="s">
         <v>1194</v>
-      </c>
-      <c r="B386" t="s">
-        <v>1195</v>
       </c>
       <c r="C386" t="s">
         <v>233</v>
@@ -12126,10 +12126,10 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B387" t="s">
         <v>1198</v>
-      </c>
-      <c r="B387" t="s">
-        <v>1199</v>
       </c>
       <c r="C387" t="s">
         <v>233</v>
@@ -12146,10 +12146,10 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B388" t="s">
         <v>1206</v>
-      </c>
-      <c r="B388" t="s">
-        <v>1207</v>
       </c>
       <c r="C388" t="s">
         <v>233</v>
@@ -12166,10 +12166,10 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B389" t="s">
         <v>1208</v>
-      </c>
-      <c r="B389" t="s">
-        <v>1209</v>
       </c>
       <c r="C389" t="s">
         <v>233</v>
@@ -12203,10 +12203,10 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B391" t="s">
         <v>1190</v>
-      </c>
-      <c r="B391" t="s">
-        <v>1191</v>
       </c>
       <c r="C391" t="s">
         <v>233</v>
@@ -12223,10 +12223,10 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B392" t="s">
         <v>1202</v>
-      </c>
-      <c r="B392" t="s">
-        <v>1203</v>
       </c>
       <c r="C392" t="s">
         <v>233</v>
@@ -12243,10 +12243,10 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B393" t="s">
         <v>1204</v>
-      </c>
-      <c r="B393" t="s">
-        <v>1205</v>
       </c>
       <c r="C393" t="s">
         <v>233</v>
@@ -12263,10 +12263,10 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B394" t="s">
         <v>1192</v>
-      </c>
-      <c r="B394" t="s">
-        <v>1193</v>
       </c>
       <c r="C394" t="s">
         <v>233</v>
@@ -12283,10 +12283,10 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
+        <v>911</v>
+      </c>
+      <c r="B395" t="s">
         <v>912</v>
-      </c>
-      <c r="B395" t="s">
-        <v>913</v>
       </c>
       <c r="C395" t="s">
         <v>233</v>
@@ -12303,7 +12303,7 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C396" t="s">
         <v>233</v>
@@ -12320,7 +12320,7 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C397" t="s">
         <v>233</v>
@@ -12337,10 +12337,10 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
+        <v>899</v>
+      </c>
+      <c r="B398" t="s">
         <v>900</v>
-      </c>
-      <c r="B398" t="s">
-        <v>901</v>
       </c>
       <c r="C398" t="s">
         <v>233</v>
@@ -12357,10 +12357,10 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
+        <v>901</v>
+      </c>
+      <c r="B399" t="s">
         <v>902</v>
-      </c>
-      <c r="B399" t="s">
-        <v>903</v>
       </c>
       <c r="C399" t="s">
         <v>233</v>
@@ -12377,10 +12377,10 @@
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
+        <v>903</v>
+      </c>
+      <c r="B400" t="s">
         <v>904</v>
-      </c>
-      <c r="B400" t="s">
-        <v>905</v>
       </c>
       <c r="C400" t="s">
         <v>233</v>
@@ -12397,10 +12397,10 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
+        <v>905</v>
+      </c>
+      <c r="B401" t="s">
         <v>906</v>
-      </c>
-      <c r="B401" t="s">
-        <v>907</v>
       </c>
       <c r="C401" t="s">
         <v>233</v>
@@ -12417,10 +12417,10 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
+        <v>907</v>
+      </c>
+      <c r="B402" t="s">
         <v>908</v>
-      </c>
-      <c r="B402" t="s">
-        <v>909</v>
       </c>
       <c r="C402" t="s">
         <v>233</v>
@@ -12437,10 +12437,10 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
+        <v>909</v>
+      </c>
+      <c r="B403" t="s">
         <v>910</v>
-      </c>
-      <c r="B403" t="s">
-        <v>911</v>
       </c>
       <c r="C403" t="s">
         <v>233</v>
@@ -12457,10 +12457,10 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B404" t="s">
         <v>1344</v>
-      </c>
-      <c r="B404" t="s">
-        <v>1345</v>
       </c>
       <c r="C404" t="s">
         <v>233</v>
@@ -12514,10 +12514,10 @@
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
+        <v>775</v>
+      </c>
+      <c r="B407" t="s">
         <v>776</v>
-      </c>
-      <c r="B407" t="s">
-        <v>777</v>
       </c>
       <c r="C407" t="s">
         <v>233</v>
@@ -12534,10 +12534,10 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B408" t="s">
         <v>1118</v>
-      </c>
-      <c r="B408" t="s">
-        <v>1119</v>
       </c>
       <c r="C408" t="s">
         <v>233</v>
@@ -12563,7 +12563,7 @@
         <v>228</v>
       </c>
       <c r="D409" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="E409" t="s">
         <v>229</v>
@@ -12591,10 +12591,10 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B411" t="s">
         <v>1267</v>
-      </c>
-      <c r="B411" t="s">
-        <v>1268</v>
       </c>
       <c r="C411" t="s">
         <v>233</v>
@@ -12611,10 +12611,10 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B412" t="s">
         <v>1360</v>
-      </c>
-      <c r="B412" t="s">
-        <v>1361</v>
       </c>
       <c r="C412" t="s">
         <v>233</v>
@@ -12631,10 +12631,10 @@
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
+        <v>940</v>
+      </c>
+      <c r="B413" t="s">
         <v>941</v>
-      </c>
-      <c r="B413" t="s">
-        <v>942</v>
       </c>
       <c r="C413" t="s">
         <v>233</v>
@@ -12651,10 +12651,10 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B414" t="s">
         <v>1348</v>
-      </c>
-      <c r="B414" t="s">
-        <v>1349</v>
       </c>
       <c r="C414" t="s">
         <v>233</v>
@@ -12671,10 +12671,10 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B415" t="s">
         <v>1002</v>
-      </c>
-      <c r="B415" t="s">
-        <v>1003</v>
       </c>
       <c r="C415" t="s">
         <v>233</v>
@@ -12765,10 +12765,10 @@
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B420" t="s">
         <v>1041</v>
-      </c>
-      <c r="B420" t="s">
-        <v>1042</v>
       </c>
       <c r="C420" t="s">
         <v>233</v>
@@ -12825,10 +12825,10 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B423" t="s">
         <v>1240</v>
-      </c>
-      <c r="B423" t="s">
-        <v>1241</v>
       </c>
       <c r="C423" t="s">
         <v>233</v>
@@ -12845,10 +12845,10 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B424" t="s">
         <v>1113</v>
-      </c>
-      <c r="B424" t="s">
-        <v>1114</v>
       </c>
       <c r="C424" t="s">
         <v>233</v>
@@ -12885,10 +12885,10 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B426" t="s">
         <v>1330</v>
-      </c>
-      <c r="B426" t="s">
-        <v>1331</v>
       </c>
       <c r="C426" t="s">
         <v>233</v>
@@ -12905,10 +12905,10 @@
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
+        <v>668</v>
+      </c>
+      <c r="B427" t="s">
         <v>669</v>
-      </c>
-      <c r="B427" t="s">
-        <v>670</v>
       </c>
       <c r="C427" t="s">
         <v>233</v>
@@ -12925,10 +12925,10 @@
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
+        <v>793</v>
+      </c>
+      <c r="B428" t="s">
         <v>794</v>
-      </c>
-      <c r="B428" t="s">
-        <v>795</v>
       </c>
       <c r="C428" t="s">
         <v>233</v>
@@ -12982,10 +12982,10 @@
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B431" t="s">
         <v>1061</v>
-      </c>
-      <c r="B431" t="s">
-        <v>1062</v>
       </c>
       <c r="C431" t="s">
         <v>233</v>
@@ -13039,10 +13039,10 @@
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B434" t="s">
         <v>1027</v>
-      </c>
-      <c r="B434" t="s">
-        <v>1028</v>
       </c>
       <c r="C434" t="s">
         <v>233</v>
@@ -13116,10 +13116,10 @@
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
+        <v>602</v>
+      </c>
+      <c r="B438" t="s">
         <v>603</v>
-      </c>
-      <c r="B438" t="s">
-        <v>604</v>
       </c>
       <c r="C438" t="s">
         <v>233</v>
@@ -13153,7 +13153,7 @@
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B440" t="s">
         <v>149</v>
@@ -13173,10 +13173,10 @@
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B441" t="s">
         <v>1163</v>
-      </c>
-      <c r="B441" t="s">
-        <v>1164</v>
       </c>
       <c r="C441" t="s">
         <v>233</v>
@@ -13210,10 +13210,10 @@
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
+        <v>897</v>
+      </c>
+      <c r="B443" t="s">
         <v>898</v>
-      </c>
-      <c r="B443" t="s">
-        <v>899</v>
       </c>
       <c r="C443" t="s">
         <v>233</v>
@@ -13230,10 +13230,10 @@
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
+        <v>661</v>
+      </c>
+      <c r="B444" t="s">
         <v>662</v>
-      </c>
-      <c r="B444" t="s">
-        <v>663</v>
       </c>
       <c r="C444" t="s">
         <v>233</v>
@@ -13250,10 +13250,10 @@
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
+        <v>720</v>
+      </c>
+      <c r="B445" t="s">
         <v>721</v>
-      </c>
-      <c r="B445" t="s">
-        <v>722</v>
       </c>
       <c r="C445" t="s">
         <v>233</v>
@@ -13287,10 +13287,10 @@
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
+        <v>815</v>
+      </c>
+      <c r="B447" t="s">
         <v>816</v>
-      </c>
-      <c r="B447" t="s">
-        <v>817</v>
       </c>
       <c r="C447" t="s">
         <v>233</v>
@@ -13324,10 +13324,10 @@
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
+        <v>817</v>
+      </c>
+      <c r="B449" t="s">
         <v>818</v>
-      </c>
-      <c r="B449" t="s">
-        <v>819</v>
       </c>
       <c r="C449" t="s">
         <v>233</v>
@@ -13344,10 +13344,10 @@
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
+        <v>813</v>
+      </c>
+      <c r="B450" t="s">
         <v>814</v>
-      </c>
-      <c r="B450" t="s">
-        <v>815</v>
       </c>
       <c r="C450" t="s">
         <v>233</v>
@@ -13364,10 +13364,10 @@
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
+        <v>811</v>
+      </c>
+      <c r="B451" t="s">
         <v>812</v>
-      </c>
-      <c r="B451" t="s">
-        <v>813</v>
       </c>
       <c r="C451" t="s">
         <v>233</v>
@@ -13407,7 +13407,7 @@
         <v>343</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C453" t="s">
         <v>233</v>
@@ -13424,10 +13424,10 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="C454" t="s">
         <v>233</v>
@@ -13444,10 +13444,10 @@
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B455" t="s">
         <v>1334</v>
-      </c>
-      <c r="B455" t="s">
-        <v>1335</v>
       </c>
       <c r="C455" t="s">
         <v>233</v>
@@ -13464,10 +13464,10 @@
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B456" t="s">
         <v>1111</v>
-      </c>
-      <c r="B456" t="s">
-        <v>1112</v>
       </c>
       <c r="C456" t="s">
         <v>233</v>
@@ -13504,10 +13504,10 @@
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B458" t="s">
         <v>1127</v>
-      </c>
-      <c r="B458" t="s">
-        <v>1128</v>
       </c>
       <c r="C458" t="s">
         <v>233</v>
@@ -13544,10 +13544,10 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B460" t="s">
         <v>1318</v>
-      </c>
-      <c r="B460" t="s">
-        <v>1319</v>
       </c>
       <c r="C460" t="s">
         <v>233</v>
@@ -13581,10 +13581,10 @@
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
+        <v>664</v>
+      </c>
+      <c r="B462" t="s">
         <v>665</v>
-      </c>
-      <c r="B462" t="s">
-        <v>666</v>
       </c>
       <c r="C462" t="s">
         <v>233</v>
@@ -13601,10 +13601,10 @@
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
+        <v>666</v>
+      </c>
+      <c r="B463" t="s">
         <v>667</v>
-      </c>
-      <c r="B463" t="s">
-        <v>668</v>
       </c>
       <c r="C463" t="s">
         <v>233</v>
@@ -13621,10 +13621,10 @@
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
+        <v>620</v>
+      </c>
+      <c r="B464" t="s">
         <v>621</v>
-      </c>
-      <c r="B464" t="s">
-        <v>622</v>
       </c>
       <c r="C464" t="s">
         <v>233</v>
@@ -13661,10 +13661,10 @@
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
+        <v>543</v>
+      </c>
+      <c r="B466" t="s">
         <v>544</v>
-      </c>
-      <c r="B466" t="s">
-        <v>545</v>
       </c>
       <c r="C466" t="s">
         <v>233</v>
@@ -13698,10 +13698,10 @@
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
+        <v>779</v>
+      </c>
+      <c r="B468" t="s">
         <v>780</v>
-      </c>
-      <c r="B468" t="s">
-        <v>781</v>
       </c>
       <c r="C468" t="s">
         <v>233</v>
@@ -13718,10 +13718,10 @@
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B469" t="s">
         <v>1144</v>
-      </c>
-      <c r="B469" t="s">
-        <v>1145</v>
       </c>
       <c r="C469" t="s">
         <v>233</v>
@@ -13758,10 +13758,10 @@
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
+        <v>743</v>
+      </c>
+      <c r="B471" t="s">
         <v>744</v>
-      </c>
-      <c r="B471" t="s">
-        <v>745</v>
       </c>
       <c r="C471" t="s">
         <v>233</v>
@@ -13778,10 +13778,10 @@
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B472" t="s">
         <v>1021</v>
-      </c>
-      <c r="B472" t="s">
-        <v>1022</v>
       </c>
       <c r="C472" t="s">
         <v>233</v>
@@ -13798,7 +13798,7 @@
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B473" t="s">
         <v>308</v>
@@ -13818,7 +13818,7 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B474" t="s">
         <v>325</v>
@@ -13838,10 +13838,10 @@
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B475" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C475" t="s">
         <v>233</v>
@@ -13858,7 +13858,7 @@
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B476" t="s">
         <v>382</v>
@@ -13878,7 +13878,7 @@
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B477" t="s">
         <v>303</v>
@@ -13898,10 +13898,10 @@
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B478" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C478" t="s">
         <v>233</v>
@@ -13918,10 +13918,10 @@
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B479" t="s">
         <v>564</v>
-      </c>
-      <c r="B479" t="s">
-        <v>565</v>
       </c>
       <c r="C479" t="s">
         <v>233</v>
@@ -13958,10 +13958,10 @@
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
+        <v>733</v>
+      </c>
+      <c r="B481" t="s">
         <v>734</v>
-      </c>
-      <c r="B481" t="s">
-        <v>735</v>
       </c>
       <c r="C481" t="s">
         <v>233</v>
@@ -14038,10 +14038,10 @@
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B485" t="s">
         <v>1186</v>
-      </c>
-      <c r="B485" t="s">
-        <v>1187</v>
       </c>
       <c r="C485" t="s">
         <v>233</v>
@@ -14058,10 +14058,10 @@
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B486" t="s">
         <v>1170</v>
-      </c>
-      <c r="B486" t="s">
-        <v>1171</v>
       </c>
       <c r="C486" t="s">
         <v>233</v>
@@ -14078,10 +14078,10 @@
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
+        <v>573</v>
+      </c>
+      <c r="B487" t="s">
         <v>574</v>
-      </c>
-      <c r="B487" t="s">
-        <v>575</v>
       </c>
       <c r="C487" t="s">
         <v>233</v>
@@ -14098,10 +14098,10 @@
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B488" t="s">
         <v>1023</v>
-      </c>
-      <c r="B488" t="s">
-        <v>1024</v>
       </c>
       <c r="C488" t="s">
         <v>233</v>
@@ -14118,10 +14118,10 @@
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
+        <v>877</v>
+      </c>
+      <c r="B489" t="s">
         <v>878</v>
-      </c>
-      <c r="B489" t="s">
-        <v>879</v>
       </c>
       <c r="C489" t="s">
         <v>233</v>
@@ -14198,10 +14198,10 @@
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B493" t="s">
         <v>1302</v>
-      </c>
-      <c r="B493" t="s">
-        <v>1303</v>
       </c>
       <c r="C493" t="s">
         <v>233</v>
@@ -14218,10 +14218,10 @@
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B494" t="s">
         <v>1176</v>
-      </c>
-      <c r="B494" t="s">
-        <v>1177</v>
       </c>
       <c r="C494" t="s">
         <v>233</v>
@@ -14238,10 +14238,10 @@
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
+        <v>729</v>
+      </c>
+      <c r="B495" t="s">
         <v>730</v>
-      </c>
-      <c r="B495" t="s">
-        <v>731</v>
       </c>
       <c r="C495" t="s">
         <v>233</v>
@@ -14258,10 +14258,10 @@
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B496" t="s">
         <v>1148</v>
-      </c>
-      <c r="B496" t="s">
-        <v>1149</v>
       </c>
       <c r="C496" t="s">
         <v>233</v>
@@ -14278,10 +14278,10 @@
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
+        <v>598</v>
+      </c>
+      <c r="B497" t="s">
         <v>599</v>
-      </c>
-      <c r="B497" t="s">
-        <v>600</v>
       </c>
       <c r="C497" t="s">
         <v>233</v>
@@ -14338,7 +14338,7 @@
         <v>43</v>
       </c>
       <c r="B500" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C500" t="s">
         <v>233</v>
@@ -14355,10 +14355,10 @@
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B501" t="s">
         <v>1322</v>
-      </c>
-      <c r="B501" t="s">
-        <v>1323</v>
       </c>
       <c r="C501" t="s">
         <v>233</v>
@@ -14449,10 +14449,10 @@
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
+        <v>646</v>
+      </c>
+      <c r="B506" t="s">
         <v>647</v>
-      </c>
-      <c r="B506" t="s">
-        <v>648</v>
       </c>
       <c r="C506" t="s">
         <v>233</v>
@@ -14469,10 +14469,10 @@
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B507" t="s">
         <v>1216</v>
-      </c>
-      <c r="B507" t="s">
-        <v>1217</v>
       </c>
       <c r="C507" t="s">
         <v>233</v>
@@ -14489,10 +14489,10 @@
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
+        <v>995</v>
+      </c>
+      <c r="B508" t="s">
         <v>996</v>
-      </c>
-      <c r="B508" t="s">
-        <v>997</v>
       </c>
       <c r="C508" t="s">
         <v>233</v>
@@ -14509,10 +14509,10 @@
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B509" t="s">
         <v>1006</v>
-      </c>
-      <c r="B509" t="s">
-        <v>1007</v>
       </c>
       <c r="C509" t="s">
         <v>233</v>
@@ -14529,10 +14529,10 @@
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B510" t="s">
         <v>1222</v>
-      </c>
-      <c r="B510" t="s">
-        <v>1223</v>
       </c>
       <c r="C510" t="s">
         <v>233</v>
@@ -14549,10 +14549,10 @@
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B511" t="s">
         <v>1073</v>
-      </c>
-      <c r="B511" t="s">
-        <v>1074</v>
       </c>
       <c r="C511" t="s">
         <v>233</v>
@@ -14569,10 +14569,10 @@
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
+        <v>569</v>
+      </c>
+      <c r="B512" t="s">
         <v>570</v>
-      </c>
-      <c r="B512" t="s">
-        <v>571</v>
       </c>
       <c r="C512" t="s">
         <v>233</v>
@@ -14606,10 +14606,10 @@
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B514" t="s">
         <v>1296</v>
-      </c>
-      <c r="B514" t="s">
-        <v>1297</v>
       </c>
       <c r="C514" t="s">
         <v>233</v>
@@ -14626,10 +14626,10 @@
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
+        <v>773</v>
+      </c>
+      <c r="B515" t="s">
         <v>774</v>
-      </c>
-      <c r="B515" t="s">
-        <v>775</v>
       </c>
       <c r="C515" t="s">
         <v>233</v>
@@ -14646,10 +14646,10 @@
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
+        <v>944</v>
+      </c>
+      <c r="B516" t="s">
         <v>945</v>
-      </c>
-      <c r="B516" t="s">
-        <v>946</v>
       </c>
       <c r="C516" t="s">
         <v>233</v>
@@ -14666,10 +14666,10 @@
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
+        <v>926</v>
+      </c>
+      <c r="B517" t="s">
         <v>927</v>
-      </c>
-      <c r="B517" t="s">
-        <v>928</v>
       </c>
       <c r="C517" t="s">
         <v>233</v>
@@ -14780,10 +14780,10 @@
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
+        <v>932</v>
+      </c>
+      <c r="B523" t="s">
         <v>933</v>
-      </c>
-      <c r="B523" t="s">
-        <v>934</v>
       </c>
       <c r="C523" t="s">
         <v>233</v>
@@ -14800,10 +14800,10 @@
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B524" t="s">
         <v>1212</v>
-      </c>
-      <c r="B524" t="s">
-        <v>1213</v>
       </c>
       <c r="C524" t="s">
         <v>233</v>
@@ -14820,10 +14820,10 @@
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B525" t="s">
         <v>1071</v>
-      </c>
-      <c r="B525" t="s">
-        <v>1072</v>
       </c>
       <c r="C525" t="s">
         <v>233</v>
@@ -14840,10 +14840,10 @@
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
+        <v>653</v>
+      </c>
+      <c r="B526" t="s">
         <v>654</v>
-      </c>
-      <c r="B526" t="s">
-        <v>655</v>
       </c>
       <c r="C526" t="s">
         <v>233</v>
@@ -14860,10 +14860,10 @@
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
+        <v>803</v>
+      </c>
+      <c r="B527" t="s">
         <v>804</v>
-      </c>
-      <c r="B527" t="s">
-        <v>805</v>
       </c>
       <c r="C527" t="s">
         <v>233</v>
@@ -14880,10 +14880,10 @@
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B528" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C528" t="s">
         <v>233</v>
@@ -14900,10 +14900,10 @@
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
+        <v>968</v>
+      </c>
+      <c r="B529" t="s">
         <v>969</v>
-      </c>
-      <c r="B529" t="s">
-        <v>970</v>
       </c>
       <c r="C529" t="s">
         <v>233</v>
@@ -14920,10 +14920,10 @@
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B530" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C530" t="s">
         <v>233</v>
@@ -14960,10 +14960,10 @@
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
+        <v>966</v>
+      </c>
+      <c r="B532" t="s">
         <v>967</v>
-      </c>
-      <c r="B532" t="s">
-        <v>968</v>
       </c>
       <c r="C532" t="s">
         <v>233</v>
@@ -14980,10 +14980,10 @@
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B533" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C533" t="s">
         <v>233</v>
@@ -15000,10 +15000,10 @@
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
+        <v>807</v>
+      </c>
+      <c r="B534" t="s">
         <v>808</v>
-      </c>
-      <c r="B534" t="s">
-        <v>809</v>
       </c>
       <c r="C534" t="s">
         <v>233</v>
@@ -15054,10 +15054,10 @@
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
+        <v>712</v>
+      </c>
+      <c r="B537" t="s">
         <v>713</v>
-      </c>
-      <c r="B537" t="s">
-        <v>714</v>
       </c>
       <c r="C537" t="s">
         <v>233</v>
@@ -15074,10 +15074,10 @@
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
+        <v>551</v>
+      </c>
+      <c r="B538" t="s">
         <v>552</v>
-      </c>
-      <c r="B538" t="s">
-        <v>553</v>
       </c>
       <c r="C538" t="s">
         <v>233</v>
@@ -15094,10 +15094,10 @@
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
+        <v>843</v>
+      </c>
+      <c r="B539" t="s">
         <v>844</v>
-      </c>
-      <c r="B539" t="s">
-        <v>845</v>
       </c>
       <c r="C539" t="s">
         <v>233</v>
@@ -15114,10 +15114,10 @@
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
+        <v>710</v>
+      </c>
+      <c r="B540" t="s">
         <v>711</v>
-      </c>
-      <c r="B540" t="s">
-        <v>712</v>
       </c>
       <c r="C540" t="s">
         <v>233</v>
@@ -15134,10 +15134,10 @@
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B541" t="s">
         <v>1338</v>
-      </c>
-      <c r="B541" t="s">
-        <v>1339</v>
       </c>
       <c r="C541" t="s">
         <v>233</v>
@@ -15154,10 +15154,10 @@
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
+        <v>833</v>
+      </c>
+      <c r="B542" t="s">
         <v>834</v>
-      </c>
-      <c r="B542" t="s">
-        <v>835</v>
       </c>
       <c r="C542" t="s">
         <v>233</v>
@@ -15174,10 +15174,10 @@
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
+        <v>918</v>
+      </c>
+      <c r="B543" t="s">
         <v>919</v>
-      </c>
-      <c r="B543" t="s">
-        <v>920</v>
       </c>
       <c r="C543" t="s">
         <v>233</v>
@@ -15194,10 +15194,10 @@
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
+        <v>922</v>
+      </c>
+      <c r="B544" t="s">
         <v>923</v>
-      </c>
-      <c r="B544" t="s">
-        <v>924</v>
       </c>
       <c r="C544" t="s">
         <v>233</v>
@@ -15214,10 +15214,10 @@
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
+        <v>920</v>
+      </c>
+      <c r="B545" t="s">
         <v>921</v>
-      </c>
-      <c r="B545" t="s">
-        <v>922</v>
       </c>
       <c r="C545" t="s">
         <v>233</v>
@@ -15234,10 +15234,10 @@
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B546" t="s">
         <v>1015</v>
-      </c>
-      <c r="B546" t="s">
-        <v>1016</v>
       </c>
       <c r="C546" t="s">
         <v>233</v>
@@ -15254,10 +15254,10 @@
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
+        <v>781</v>
+      </c>
+      <c r="B547" t="s">
         <v>782</v>
-      </c>
-      <c r="B547" t="s">
-        <v>783</v>
       </c>
       <c r="C547" t="s">
         <v>233</v>
@@ -15274,10 +15274,10 @@
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
+        <v>577</v>
+      </c>
+      <c r="B548" t="s">
         <v>578</v>
-      </c>
-      <c r="B548" t="s">
-        <v>579</v>
       </c>
       <c r="C548" t="s">
         <v>233</v>
@@ -15314,10 +15314,10 @@
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
+        <v>849</v>
+      </c>
+      <c r="B550" t="s">
         <v>850</v>
-      </c>
-      <c r="B550" t="s">
-        <v>851</v>
       </c>
       <c r="C550" t="s">
         <v>233</v>
@@ -15334,7 +15334,7 @@
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C551" t="s">
         <v>233</v>
@@ -15351,10 +15351,10 @@
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B552" t="s">
         <v>1253</v>
-      </c>
-      <c r="B552" t="s">
-        <v>1254</v>
       </c>
       <c r="C552" t="s">
         <v>233</v>
@@ -15371,10 +15371,10 @@
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
+        <v>644</v>
+      </c>
+      <c r="B553" t="s">
         <v>645</v>
-      </c>
-      <c r="B553" t="s">
-        <v>646</v>
       </c>
       <c r="C553" t="s">
         <v>233</v>
@@ -15411,10 +15411,10 @@
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
+        <v>978</v>
+      </c>
+      <c r="B555" t="s">
         <v>979</v>
-      </c>
-      <c r="B555" t="s">
-        <v>980</v>
       </c>
       <c r="C555" t="s">
         <v>233</v>
@@ -15431,10 +15431,10 @@
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B556" t="s">
         <v>1095</v>
-      </c>
-      <c r="B556" t="s">
-        <v>1096</v>
       </c>
       <c r="C556" t="s">
         <v>233</v>
@@ -15451,10 +15451,10 @@
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B557" t="s">
         <v>1290</v>
-      </c>
-      <c r="B557" t="s">
-        <v>1291</v>
       </c>
       <c r="C557" t="s">
         <v>233</v>
@@ -15559,10 +15559,10 @@
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
+        <v>636</v>
+      </c>
+      <c r="B563" t="s">
         <v>637</v>
-      </c>
-      <c r="B563" t="s">
-        <v>638</v>
       </c>
       <c r="C563" t="s">
         <v>233</v>
@@ -15579,10 +15579,10 @@
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
+        <v>638</v>
+      </c>
+      <c r="B564" t="s">
         <v>639</v>
-      </c>
-      <c r="B564" t="s">
-        <v>640</v>
       </c>
       <c r="C564" t="s">
         <v>233</v>
@@ -15599,10 +15599,10 @@
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B565" t="s">
         <v>1019</v>
-      </c>
-      <c r="B565" t="s">
-        <v>1020</v>
       </c>
       <c r="C565" t="s">
         <v>233</v>
@@ -15619,10 +15619,10 @@
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
+        <v>837</v>
+      </c>
+      <c r="B566" t="s">
         <v>838</v>
-      </c>
-      <c r="B566" t="s">
-        <v>839</v>
       </c>
       <c r="C566" t="s">
         <v>233</v>
@@ -15639,10 +15639,10 @@
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
+        <v>950</v>
+      </c>
+      <c r="B567" t="s">
         <v>951</v>
-      </c>
-      <c r="B567" t="s">
-        <v>952</v>
       </c>
       <c r="C567" t="s">
         <v>233</v>
@@ -15699,10 +15699,10 @@
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B570" t="s">
         <v>1230</v>
-      </c>
-      <c r="B570" t="s">
-        <v>1231</v>
       </c>
       <c r="C570" t="s">
         <v>233</v>
@@ -15759,10 +15759,10 @@
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
+        <v>955</v>
+      </c>
+      <c r="B573" t="s">
         <v>956</v>
-      </c>
-      <c r="B573" t="s">
-        <v>957</v>
       </c>
       <c r="C573" t="s">
         <v>233</v>
@@ -15779,10 +15779,10 @@
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
+        <v>624</v>
+      </c>
+      <c r="B574" t="s">
         <v>625</v>
-      </c>
-      <c r="B574" t="s">
-        <v>626</v>
       </c>
       <c r="C574" t="s">
         <v>233</v>
@@ -15799,10 +15799,10 @@
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
+        <v>626</v>
+      </c>
+      <c r="B575" t="s">
         <v>627</v>
-      </c>
-      <c r="B575" t="s">
-        <v>628</v>
       </c>
       <c r="C575" t="s">
         <v>233</v>
@@ -15819,10 +15819,10 @@
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B576" t="s">
         <v>1167</v>
-      </c>
-      <c r="B576" t="s">
-        <v>1168</v>
       </c>
       <c r="C576" t="s">
         <v>233</v>
@@ -15859,10 +15859,10 @@
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B578" t="s">
         <v>1332</v>
-      </c>
-      <c r="B578" t="s">
-        <v>1333</v>
       </c>
       <c r="C578" t="s">
         <v>233</v>
@@ -15879,10 +15879,10 @@
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B579" t="s">
         <v>1220</v>
-      </c>
-      <c r="B579" t="s">
-        <v>1221</v>
       </c>
       <c r="C579" t="s">
         <v>233</v>
@@ -15899,10 +15899,10 @@
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
+        <v>596</v>
+      </c>
+      <c r="B580" t="s">
         <v>597</v>
-      </c>
-      <c r="B580" t="s">
-        <v>598</v>
       </c>
       <c r="C580" t="s">
         <v>233</v>
@@ -15919,10 +15919,10 @@
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B581" t="s">
         <v>1265</v>
-      </c>
-      <c r="B581" t="s">
-        <v>1266</v>
       </c>
       <c r="C581" t="s">
         <v>233</v>
@@ -15939,10 +15939,10 @@
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B582" t="s">
         <v>1232</v>
-      </c>
-      <c r="B582" t="s">
-        <v>1233</v>
       </c>
       <c r="C582" t="s">
         <v>233</v>
@@ -15959,10 +15959,10 @@
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
+        <v>632</v>
+      </c>
+      <c r="B583" t="s">
         <v>633</v>
-      </c>
-      <c r="B583" t="s">
-        <v>634</v>
       </c>
       <c r="C583" t="s">
         <v>233</v>
@@ -15979,10 +15979,10 @@
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B584" t="s">
         <v>1089</v>
-      </c>
-      <c r="B584" t="s">
-        <v>1090</v>
       </c>
       <c r="C584" t="s">
         <v>233</v>
@@ -16019,10 +16019,10 @@
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B586" t="s">
         <v>1133</v>
-      </c>
-      <c r="B586" t="s">
-        <v>1134</v>
       </c>
       <c r="C586" t="s">
         <v>233</v>
@@ -16039,10 +16039,10 @@
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B587" t="s">
         <v>1142</v>
-      </c>
-      <c r="B587" t="s">
-        <v>1143</v>
       </c>
       <c r="C587" t="s">
         <v>233</v>
@@ -16076,10 +16076,10 @@
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
+        <v>567</v>
+      </c>
+      <c r="B589" t="s">
         <v>568</v>
-      </c>
-      <c r="B589" t="s">
-        <v>569</v>
       </c>
       <c r="C589" t="s">
         <v>233</v>
@@ -16130,10 +16130,10 @@
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
+        <v>679</v>
+      </c>
+      <c r="B592" t="s">
         <v>680</v>
-      </c>
-      <c r="B592" t="s">
-        <v>681</v>
       </c>
       <c r="C592" t="s">
         <v>233</v>
@@ -16170,10 +16170,10 @@
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
+        <v>722</v>
+      </c>
+      <c r="B594" t="s">
         <v>723</v>
-      </c>
-      <c r="B594" t="s">
-        <v>724</v>
       </c>
       <c r="C594" t="s">
         <v>233</v>
@@ -16190,10 +16190,10 @@
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
+        <v>535</v>
+      </c>
+      <c r="B595" t="s">
         <v>536</v>
-      </c>
-      <c r="B595" t="s">
-        <v>537</v>
       </c>
       <c r="C595" t="s">
         <v>233</v>
@@ -16247,10 +16247,10 @@
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
+        <v>541</v>
+      </c>
+      <c r="B598" t="s">
         <v>542</v>
-      </c>
-      <c r="B598" t="s">
-        <v>543</v>
       </c>
       <c r="C598" t="s">
         <v>233</v>
@@ -16287,10 +16287,10 @@
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B600" t="s">
         <v>1138</v>
-      </c>
-      <c r="B600" t="s">
-        <v>1139</v>
       </c>
       <c r="C600" t="s">
         <v>233</v>
@@ -16324,10 +16324,10 @@
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
+        <v>976</v>
+      </c>
+      <c r="B602" t="s">
         <v>977</v>
-      </c>
-      <c r="B602" t="s">
-        <v>978</v>
       </c>
       <c r="C602" t="s">
         <v>233</v>
@@ -16401,10 +16401,10 @@
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B606" t="s">
         <v>1188</v>
-      </c>
-      <c r="B606" t="s">
-        <v>1189</v>
       </c>
       <c r="C606" t="s">
         <v>233</v>
@@ -16478,10 +16478,10 @@
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
+        <v>648</v>
+      </c>
+      <c r="B610" t="s">
         <v>649</v>
-      </c>
-      <c r="B610" t="s">
-        <v>650</v>
       </c>
       <c r="C610" t="s">
         <v>233</v>
@@ -16515,10 +16515,10 @@
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
+        <v>604</v>
+      </c>
+      <c r="B612" t="s">
         <v>605</v>
-      </c>
-      <c r="B612" t="s">
-        <v>606</v>
       </c>
       <c r="C612" t="s">
         <v>233</v>
@@ -16535,10 +16535,10 @@
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
+        <v>789</v>
+      </c>
+      <c r="B613" t="s">
         <v>790</v>
-      </c>
-      <c r="B613" t="s">
-        <v>791</v>
       </c>
       <c r="C613" t="s">
         <v>233</v>
@@ -16612,10 +16612,10 @@
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
+        <v>522</v>
+      </c>
+      <c r="B617" t="s">
         <v>523</v>
-      </c>
-      <c r="B617" t="s">
-        <v>524</v>
       </c>
       <c r="C617" t="s">
         <v>233</v>
@@ -16632,10 +16632,10 @@
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
+        <v>767</v>
+      </c>
+      <c r="B618" t="s">
         <v>768</v>
-      </c>
-      <c r="B618" t="s">
-        <v>769</v>
       </c>
       <c r="C618" t="s">
         <v>233</v>
@@ -16652,10 +16652,10 @@
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B619" t="s">
         <v>1275</v>
-      </c>
-      <c r="B619" t="s">
-        <v>1276</v>
       </c>
       <c r="C619" t="s">
         <v>233</v>
@@ -16672,10 +16672,10 @@
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
+        <v>608</v>
+      </c>
+      <c r="B620" t="s">
         <v>609</v>
-      </c>
-      <c r="B620" t="s">
-        <v>610</v>
       </c>
       <c r="C620" t="s">
         <v>233</v>
@@ -16692,10 +16692,10 @@
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
+        <v>514</v>
+      </c>
+      <c r="B621" t="s">
         <v>515</v>
-      </c>
-      <c r="B621" t="s">
-        <v>516</v>
       </c>
       <c r="C621" t="s">
         <v>233</v>
@@ -16712,10 +16712,10 @@
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
+        <v>861</v>
+      </c>
+      <c r="B622" t="s">
         <v>862</v>
-      </c>
-      <c r="B622" t="s">
-        <v>863</v>
       </c>
       <c r="C622" t="s">
         <v>233</v>
@@ -16735,7 +16735,7 @@
         <v>134</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C623" t="s">
         <v>1</v>
@@ -16749,10 +16749,10 @@
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
+        <v>580</v>
+      </c>
+      <c r="B624" t="s">
         <v>581</v>
-      </c>
-      <c r="B624" t="s">
-        <v>582</v>
       </c>
       <c r="C624" t="s">
         <v>233</v>
@@ -16769,10 +16769,10 @@
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
+        <v>791</v>
+      </c>
+      <c r="B625" t="s">
         <v>792</v>
-      </c>
-      <c r="B625" t="s">
-        <v>793</v>
       </c>
       <c r="C625" t="s">
         <v>233</v>
@@ -16789,10 +16789,10 @@
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
+        <v>863</v>
+      </c>
+      <c r="B626" t="s">
         <v>864</v>
-      </c>
-      <c r="B626" t="s">
-        <v>865</v>
       </c>
       <c r="C626" t="s">
         <v>233</v>
@@ -16829,10 +16829,10 @@
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="C628" t="s">
         <v>233</v>
@@ -16849,10 +16849,10 @@
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B629" t="s">
         <v>1350</v>
-      </c>
-      <c r="B629" t="s">
-        <v>1351</v>
       </c>
       <c r="C629" t="s">
         <v>233</v>
@@ -16869,10 +16869,10 @@
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B630" t="s">
         <v>1180</v>
-      </c>
-      <c r="B630" t="s">
-        <v>1181</v>
       </c>
       <c r="C630" t="s">
         <v>233</v>
@@ -16909,10 +16909,10 @@
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
+        <v>724</v>
+      </c>
+      <c r="B632" t="s">
         <v>725</v>
-      </c>
-      <c r="B632" t="s">
-        <v>726</v>
       </c>
       <c r="C632" t="s">
         <v>233</v>
@@ -16929,10 +16929,10 @@
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
+        <v>881</v>
+      </c>
+      <c r="B633" t="s">
         <v>882</v>
-      </c>
-      <c r="B633" t="s">
-        <v>883</v>
       </c>
       <c r="C633" t="s">
         <v>233</v>
@@ -16949,10 +16949,10 @@
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B634" t="s">
         <v>1259</v>
-      </c>
-      <c r="B634" t="s">
-        <v>1260</v>
       </c>
       <c r="C634" t="s">
         <v>233</v>
@@ -16986,10 +16986,10 @@
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
+        <v>785</v>
+      </c>
+      <c r="B636" t="s">
         <v>786</v>
-      </c>
-      <c r="B636" t="s">
-        <v>787</v>
       </c>
       <c r="C636" t="s">
         <v>233</v>
@@ -17006,10 +17006,10 @@
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
+        <v>962</v>
+      </c>
+      <c r="B637" t="s">
         <v>963</v>
-      </c>
-      <c r="B637" t="s">
-        <v>964</v>
       </c>
       <c r="C637" t="s">
         <v>233</v>
@@ -17026,10 +17026,10 @@
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B638" t="s">
         <v>1079</v>
-      </c>
-      <c r="B638" t="s">
-        <v>1080</v>
       </c>
       <c r="C638" t="s">
         <v>233</v>
@@ -17046,10 +17046,10 @@
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
+        <v>612</v>
+      </c>
+      <c r="B639" t="s">
         <v>613</v>
-      </c>
-      <c r="B639" t="s">
-        <v>614</v>
       </c>
       <c r="C639" t="s">
         <v>233</v>
@@ -17066,10 +17066,10 @@
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B640" t="s">
         <v>1269</v>
-      </c>
-      <c r="B640" t="s">
-        <v>1270</v>
       </c>
       <c r="C640" t="s">
         <v>233</v>
@@ -17086,10 +17086,10 @@
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B641" t="s">
         <v>1271</v>
-      </c>
-      <c r="B641" t="s">
-        <v>1272</v>
       </c>
       <c r="C641" t="s">
         <v>233</v>
@@ -17106,10 +17106,10 @@
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B642" t="s">
         <v>1146</v>
-      </c>
-      <c r="B642" t="s">
-        <v>1147</v>
       </c>
       <c r="C642" t="s">
         <v>233</v>
@@ -17126,10 +17126,10 @@
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B643" t="s">
         <v>1152</v>
-      </c>
-      <c r="B643" t="s">
-        <v>1153</v>
       </c>
       <c r="C643" t="s">
         <v>233</v>
@@ -17146,7 +17146,7 @@
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C644" t="s">
         <v>233</v>
@@ -17180,10 +17180,10 @@
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B646" t="s">
         <v>1159</v>
-      </c>
-      <c r="B646" t="s">
-        <v>1160</v>
       </c>
       <c r="C646" t="s">
         <v>233</v>
@@ -17200,10 +17200,10 @@
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B647" t="s">
         <v>1364</v>
-      </c>
-      <c r="B647" t="s">
-        <v>1365</v>
       </c>
       <c r="C647" t="s">
         <v>233</v>
@@ -17220,10 +17220,10 @@
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B648" t="s">
         <v>1366</v>
-      </c>
-      <c r="B648" t="s">
-        <v>1367</v>
       </c>
       <c r="C648" t="s">
         <v>233</v>
@@ -17257,10 +17257,10 @@
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
+        <v>887</v>
+      </c>
+      <c r="B650" t="s">
         <v>888</v>
-      </c>
-      <c r="B650" t="s">
-        <v>889</v>
       </c>
       <c r="C650" t="s">
         <v>233</v>
@@ -17277,10 +17277,10 @@
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
+        <v>642</v>
+      </c>
+      <c r="B651" t="s">
         <v>643</v>
-      </c>
-      <c r="B651" t="s">
-        <v>644</v>
       </c>
       <c r="C651" t="s">
         <v>233</v>
@@ -17297,10 +17297,10 @@
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B652" t="s">
         <v>1043</v>
-      </c>
-      <c r="B652" t="s">
-        <v>1044</v>
       </c>
       <c r="C652" t="s">
         <v>233</v>
@@ -17317,10 +17317,10 @@
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B653" t="s">
         <v>1174</v>
-      </c>
-      <c r="B653" t="s">
-        <v>1175</v>
       </c>
       <c r="C653" t="s">
         <v>233</v>
@@ -17371,10 +17371,10 @@
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
+        <v>614</v>
+      </c>
+      <c r="B656" t="s">
         <v>615</v>
-      </c>
-      <c r="B656" t="s">
-        <v>616</v>
       </c>
       <c r="C656" t="s">
         <v>233</v>
@@ -17391,10 +17391,10 @@
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
+        <v>865</v>
+      </c>
+      <c r="B657" t="s">
         <v>866</v>
-      </c>
-      <c r="B657" t="s">
-        <v>867</v>
       </c>
       <c r="C657" t="s">
         <v>233</v>
@@ -17451,10 +17451,10 @@
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
+        <v>539</v>
+      </c>
+      <c r="B660" t="s">
         <v>540</v>
-      </c>
-      <c r="B660" t="s">
-        <v>541</v>
       </c>
       <c r="C660" t="s">
         <v>233</v>
@@ -17471,10 +17471,10 @@
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
+        <v>934</v>
+      </c>
+      <c r="B661" t="s">
         <v>935</v>
-      </c>
-      <c r="B661" t="s">
-        <v>936</v>
       </c>
       <c r="C661" t="s">
         <v>233</v>
@@ -17491,10 +17491,10 @@
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B662" t="s">
         <v>1097</v>
-      </c>
-      <c r="B662" t="s">
-        <v>1098</v>
       </c>
       <c r="C662" t="s">
         <v>233</v>
@@ -17511,10 +17511,10 @@
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
+        <v>946</v>
+      </c>
+      <c r="B663" t="s">
         <v>947</v>
-      </c>
-      <c r="B663" t="s">
-        <v>948</v>
       </c>
       <c r="C663" t="s">
         <v>233</v>
@@ -17568,10 +17568,10 @@
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
+        <v>575</v>
+      </c>
+      <c r="B666" t="s">
         <v>576</v>
-      </c>
-      <c r="B666" t="s">
-        <v>577</v>
       </c>
       <c r="C666" t="s">
         <v>233</v>
@@ -17682,10 +17682,10 @@
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B672" t="s">
         <v>1172</v>
-      </c>
-      <c r="B672" t="s">
-        <v>1173</v>
       </c>
       <c r="C672" t="s">
         <v>233</v>
@@ -17702,10 +17702,10 @@
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B673" t="s">
         <v>1182</v>
-      </c>
-      <c r="B673" t="s">
-        <v>1183</v>
       </c>
       <c r="C673" t="s">
         <v>233</v>
@@ -17722,10 +17722,10 @@
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
+        <v>825</v>
+      </c>
+      <c r="B674" t="s">
         <v>826</v>
-      </c>
-      <c r="B674" t="s">
-        <v>827</v>
       </c>
       <c r="C674" t="s">
         <v>233</v>
@@ -17742,10 +17742,10 @@
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
+        <v>930</v>
+      </c>
+      <c r="B675" t="s">
         <v>931</v>
-      </c>
-      <c r="B675" t="s">
-        <v>932</v>
       </c>
       <c r="C675" t="s">
         <v>233</v>
@@ -17762,10 +17762,10 @@
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
+        <v>571</v>
+      </c>
+      <c r="B676" t="s">
         <v>572</v>
-      </c>
-      <c r="B676" t="s">
-        <v>573</v>
       </c>
       <c r="C676" t="s">
         <v>233</v>
@@ -17782,10 +17782,10 @@
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
+        <v>805</v>
+      </c>
+      <c r="B677" t="s">
         <v>806</v>
-      </c>
-      <c r="B677" t="s">
-        <v>807</v>
       </c>
       <c r="C677" t="s">
         <v>233</v>
@@ -17822,10 +17822,10 @@
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
+        <v>751</v>
+      </c>
+      <c r="B679" t="s">
         <v>752</v>
-      </c>
-      <c r="B679" t="s">
-        <v>753</v>
       </c>
       <c r="C679" t="s">
         <v>233</v>
@@ -17842,10 +17842,10 @@
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
+        <v>936</v>
+      </c>
+      <c r="B680" t="s">
         <v>937</v>
-      </c>
-      <c r="B680" t="s">
-        <v>938</v>
       </c>
       <c r="C680" t="s">
         <v>233</v>
@@ -17862,10 +17862,10 @@
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B681" t="s">
         <v>1008</v>
-      </c>
-      <c r="B681" t="s">
-        <v>1009</v>
       </c>
       <c r="C681" t="s">
         <v>233</v>
@@ -17882,10 +17882,10 @@
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
+        <v>561</v>
+      </c>
+      <c r="B682" t="s">
         <v>562</v>
-      </c>
-      <c r="B682" t="s">
-        <v>563</v>
       </c>
       <c r="C682" t="s">
         <v>233</v>
@@ -17902,10 +17902,10 @@
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
+        <v>855</v>
+      </c>
+      <c r="B683" t="s">
         <v>856</v>
-      </c>
-      <c r="B683" t="s">
-        <v>857</v>
       </c>
       <c r="C683" t="s">
         <v>233</v>
@@ -17922,10 +17922,10 @@
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B684" t="s">
         <v>1108</v>
-      </c>
-      <c r="B684" t="s">
-        <v>1109</v>
       </c>
       <c r="C684" t="s">
         <v>233</v>
@@ -17982,7 +17982,7 @@
         <v>57</v>
       </c>
       <c r="B687" s="1" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C687" t="s">
         <v>58</v>
@@ -17996,10 +17996,10 @@
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
+        <v>520</v>
+      </c>
+      <c r="B688" t="s">
         <v>521</v>
-      </c>
-      <c r="B688" t="s">
-        <v>522</v>
       </c>
       <c r="C688" t="s">
         <v>233</v>
@@ -18016,10 +18016,10 @@
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
+        <v>622</v>
+      </c>
+      <c r="B689" t="s">
         <v>623</v>
-      </c>
-      <c r="B689" t="s">
-        <v>624</v>
       </c>
       <c r="C689" t="s">
         <v>233</v>
@@ -18039,7 +18039,7 @@
         <v>139</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C690" t="s">
         <v>1</v>
@@ -18053,10 +18053,10 @@
     </row>
     <row r="691" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
+        <v>761</v>
+      </c>
+      <c r="B691" t="s">
         <v>762</v>
-      </c>
-      <c r="B691" t="s">
-        <v>763</v>
       </c>
       <c r="C691" t="s">
         <v>233</v>
@@ -18073,10 +18073,10 @@
     </row>
     <row r="692" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B692" t="s">
         <v>1340</v>
-      </c>
-      <c r="B692" t="s">
-        <v>1341</v>
       </c>
       <c r="C692" t="s">
         <v>233</v>
@@ -18096,7 +18096,7 @@
         <v>59</v>
       </c>
       <c r="B693" s="1" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C693" t="s">
         <v>58</v>
@@ -18167,10 +18167,10 @@
     </row>
     <row r="697" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
+        <v>839</v>
+      </c>
+      <c r="B697" t="s">
         <v>840</v>
-      </c>
-      <c r="B697" t="s">
-        <v>841</v>
       </c>
       <c r="C697" t="s">
         <v>233</v>
@@ -18187,10 +18187,10 @@
     </row>
     <row r="698" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
+        <v>547</v>
+      </c>
+      <c r="B698" t="s">
         <v>548</v>
-      </c>
-      <c r="B698" t="s">
-        <v>549</v>
       </c>
       <c r="C698" t="s">
         <v>233</v>
@@ -18227,10 +18227,10 @@
     </row>
     <row r="700" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B700" t="s">
         <v>1124</v>
-      </c>
-      <c r="B700" t="s">
-        <v>1125</v>
       </c>
       <c r="C700" t="s">
         <v>233</v>
@@ -18247,10 +18247,10 @@
     </row>
     <row r="701" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
+        <v>823</v>
+      </c>
+      <c r="B701" t="s">
         <v>824</v>
-      </c>
-      <c r="B701" t="s">
-        <v>825</v>
       </c>
       <c r="C701" t="s">
         <v>233</v>
@@ -18267,10 +18267,10 @@
     </row>
     <row r="702" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
+        <v>883</v>
+      </c>
+      <c r="B702" t="s">
         <v>884</v>
-      </c>
-      <c r="B702" t="s">
-        <v>885</v>
       </c>
       <c r="C702" t="s">
         <v>233</v>
@@ -18287,10 +18287,10 @@
     </row>
     <row r="703" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
+        <v>938</v>
+      </c>
+      <c r="B703" t="s">
         <v>939</v>
-      </c>
-      <c r="B703" t="s">
-        <v>940</v>
       </c>
       <c r="C703" t="s">
         <v>233</v>
@@ -18307,10 +18307,10 @@
     </row>
     <row r="704" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B704" t="s">
         <v>1294</v>
-      </c>
-      <c r="B704" t="s">
-        <v>1295</v>
       </c>
       <c r="C704" t="s">
         <v>233</v>
@@ -18327,10 +18327,10 @@
     </row>
     <row r="705" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
+        <v>891</v>
+      </c>
+      <c r="B705" t="s">
         <v>892</v>
-      </c>
-      <c r="B705" t="s">
-        <v>893</v>
       </c>
       <c r="C705" t="s">
         <v>233</v>
@@ -18347,7 +18347,7 @@
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B706" t="s">
         <v>232</v>
@@ -18367,7 +18367,7 @@
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B707" t="s">
         <v>232</v>
@@ -18407,8 +18407,9 @@
     <hyperlink ref="B628" r:id="rId18" xr:uid="{664182BC-FA6A-43F8-8AAE-720A44F5C719}"/>
     <hyperlink ref="B261" r:id="rId19" xr:uid="{0266ACB1-89AB-4372-9D3C-E6857AF63B5D}"/>
     <hyperlink ref="B276" r:id="rId20" xr:uid="{5D9C1709-B0FF-4228-9905-47394063674E}"/>
+    <hyperlink ref="B334" r:id="rId21" xr:uid="{A0C56171-B818-446C-B795-9CE1959A6BB4}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
--- a/jogos.xlsx
+++ b/jogos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\mycollections-cli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E362265A-05C6-4EB8-82BB-6B86DB538231}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A173259C-3477-44EB-BD2F-BAA744644679}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{0C35237A-6EB4-4B02-9651-931FED775CEC}"/>
   </bookViews>
@@ -3369,9 +3369,6 @@
     <t>Orwell</t>
   </si>
   <si>
-    <t>http://media.steampowered.com/steamcommunity/public/images/apps/491950/22c422a5f68c4d1bcced09b18638dd6664d95d45.jpg</t>
-  </si>
-  <si>
     <t>Left 4 Dead 2</t>
   </si>
   <si>
@@ -4225,6 +4222,9 @@
   </si>
   <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSYdcWf_uFrKoB_IKa9tcyZ4_HfM4FFG8bYP94gqvfJo-u2nZW_</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRZmVH68-o6rnNIT4ccDadETKMbC-58T-Pwj3AjSvyrQWgVK9sA</t>
   </si>
 </sst>
 </file>
@@ -4598,8 +4598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E073D1A-5126-4785-A652-5C66939BBDE3}">
   <dimension ref="A1:F707"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A430" workbookViewId="0">
-      <selection activeCell="A449" sqref="A449"/>
+    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
+      <selection activeCell="B425" sqref="B425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4633,10 +4633,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B2" t="s">
         <v>1286</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1287</v>
       </c>
       <c r="C2" t="s">
         <v>232</v>
@@ -4753,10 +4753,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B8" t="s">
         <v>1310</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1311</v>
       </c>
       <c r="C8" t="s">
         <v>232</v>
@@ -4773,10 +4773,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B9" t="s">
         <v>1275</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1276</v>
       </c>
       <c r="C9" t="s">
         <v>232</v>
@@ -4830,10 +4830,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B12" t="s">
         <v>1322</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1323</v>
       </c>
       <c r="C12" t="s">
         <v>232</v>
@@ -4867,10 +4867,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B14" t="s">
         <v>1163</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1164</v>
       </c>
       <c r="C14" t="s">
         <v>232</v>
@@ -4907,10 +4907,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B16" t="s">
         <v>1129</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1130</v>
       </c>
       <c r="C16" t="s">
         <v>232</v>
@@ -4927,10 +4927,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B17" t="s">
         <v>1354</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1355</v>
       </c>
       <c r="C17" t="s">
         <v>232</v>
@@ -5121,7 +5121,7 @@
         <v>120</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="C27" t="s">
         <v>58</v>
@@ -5172,10 +5172,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C30" t="s">
         <v>232</v>
@@ -5272,7 +5272,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B35" t="s">
         <v>28</v>
@@ -5289,10 +5289,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B36" t="s">
         <v>1344</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1345</v>
       </c>
       <c r="C36" t="s">
         <v>232</v>
@@ -5352,7 +5352,7 @@
         <v>202</v>
       </c>
       <c r="B39" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C39" t="s">
         <v>163</v>
@@ -5369,7 +5369,7 @@
         <v>202</v>
       </c>
       <c r="B40" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C40" t="s">
         <v>232</v>
@@ -5386,10 +5386,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B41" t="s">
         <v>1182</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1183</v>
       </c>
       <c r="C41" t="s">
         <v>232</v>
@@ -5571,10 +5571,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B51" t="s">
         <v>1306</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1307</v>
       </c>
       <c r="C51" t="s">
         <v>232</v>
@@ -5594,7 +5594,7 @@
         <v>84</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C52" t="s">
         <v>58</v>
@@ -5728,10 +5728,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B59" t="s">
         <v>1138</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1139</v>
       </c>
       <c r="C59" t="s">
         <v>232</v>
@@ -5885,10 +5885,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B67" t="s">
         <v>1271</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1272</v>
       </c>
       <c r="C67" t="s">
         <v>232</v>
@@ -6179,10 +6179,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B82" t="s">
         <v>1296</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1297</v>
       </c>
       <c r="C82" t="s">
         <v>232</v>
@@ -6276,10 +6276,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B87" t="s">
         <v>1153</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1154</v>
       </c>
       <c r="C87" t="s">
         <v>232</v>
@@ -6436,10 +6436,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B95" t="s">
         <v>1314</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1315</v>
       </c>
       <c r="C95" t="s">
         <v>232</v>
@@ -6473,10 +6473,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B97" t="s">
         <v>1255</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1256</v>
       </c>
       <c r="C97" t="s">
         <v>232</v>
@@ -6533,10 +6533,10 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B100" t="s">
         <v>1134</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1135</v>
       </c>
       <c r="C100" t="s">
         <v>232</v>
@@ -6573,10 +6573,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B102" t="s">
         <v>1281</v>
-      </c>
-      <c r="B102" t="s">
-        <v>1282</v>
       </c>
       <c r="C102" t="s">
         <v>232</v>
@@ -6653,10 +6653,10 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C106" t="s">
         <v>232</v>
@@ -6887,7 +6887,7 @@
         <v>110</v>
       </c>
       <c r="B118" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C118" t="s">
         <v>232</v>
@@ -6978,10 +6978,10 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B123" t="s">
         <v>1216</v>
-      </c>
-      <c r="B123" t="s">
-        <v>1217</v>
       </c>
       <c r="C123" t="s">
         <v>232</v>
@@ -7158,10 +7158,10 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B132" t="s">
         <v>1356</v>
-      </c>
-      <c r="B132" t="s">
-        <v>1357</v>
       </c>
       <c r="C132" t="s">
         <v>232</v>
@@ -7346,10 +7346,10 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B142" t="s">
         <v>1224</v>
-      </c>
-      <c r="B142" t="s">
-        <v>1225</v>
       </c>
       <c r="C142" t="s">
         <v>232</v>
@@ -7369,7 +7369,7 @@
         <v>649</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C143" t="s">
         <v>232</v>
@@ -7466,10 +7466,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B148" t="s">
         <v>1318</v>
-      </c>
-      <c r="B148" t="s">
-        <v>1319</v>
       </c>
       <c r="C148" t="s">
         <v>232</v>
@@ -7586,10 +7586,10 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B154" t="s">
         <v>1366</v>
-      </c>
-      <c r="B154" t="s">
-        <v>1367</v>
       </c>
       <c r="C154" t="s">
         <v>232</v>
@@ -7666,7 +7666,7 @@
         <v>0</v>
       </c>
       <c r="B158" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C158" t="s">
         <v>1</v>
@@ -7760,7 +7760,7 @@
         <v>953</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C163" t="s">
         <v>232</v>
@@ -7834,10 +7834,10 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B167" t="s">
         <v>1326</v>
-      </c>
-      <c r="B167" t="s">
-        <v>1327</v>
       </c>
       <c r="C167" t="s">
         <v>232</v>
@@ -7874,10 +7874,10 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B169" t="s">
         <v>1148</v>
-      </c>
-      <c r="B169" t="s">
-        <v>1149</v>
       </c>
       <c r="C169" t="s">
         <v>232</v>
@@ -8034,10 +8034,10 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B177" t="s">
         <v>1284</v>
-      </c>
-      <c r="B177" t="s">
-        <v>1285</v>
       </c>
       <c r="C177" t="s">
         <v>232</v>
@@ -8054,10 +8054,10 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B178" t="s">
         <v>1261</v>
-      </c>
-      <c r="B178" t="s">
-        <v>1262</v>
       </c>
       <c r="C178" t="s">
         <v>232</v>
@@ -8194,10 +8194,10 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B185" t="s">
         <v>1279</v>
-      </c>
-      <c r="B185" t="s">
-        <v>1280</v>
       </c>
       <c r="C185" t="s">
         <v>232</v>
@@ -8274,10 +8274,10 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B189" t="s">
         <v>1253</v>
-      </c>
-      <c r="B189" t="s">
-        <v>1254</v>
       </c>
       <c r="C189" t="s">
         <v>232</v>
@@ -8314,10 +8314,10 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B191" t="s">
         <v>1176</v>
-      </c>
-      <c r="B191" t="s">
-        <v>1177</v>
       </c>
       <c r="C191" t="s">
         <v>232</v>
@@ -8448,10 +8448,10 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C198" t="s">
         <v>232</v>
@@ -8471,7 +8471,7 @@
         <v>87</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C199" t="s">
         <v>58</v>
@@ -8488,7 +8488,7 @@
         <v>88</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C200" t="s">
         <v>58</v>
@@ -8559,10 +8559,10 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B204" t="s">
         <v>1312</v>
-      </c>
-      <c r="B204" t="s">
-        <v>1313</v>
       </c>
       <c r="C204" t="s">
         <v>232</v>
@@ -8579,10 +8579,10 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B205" t="s">
         <v>1290</v>
-      </c>
-      <c r="B205" t="s">
-        <v>1291</v>
       </c>
       <c r="C205" t="s">
         <v>232</v>
@@ -8724,10 +8724,10 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B213" t="s">
         <v>1234</v>
-      </c>
-      <c r="B213" t="s">
-        <v>1235</v>
       </c>
       <c r="C213" t="s">
         <v>232</v>
@@ -8744,10 +8744,10 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B214" t="s">
         <v>1236</v>
-      </c>
-      <c r="B214" t="s">
-        <v>1237</v>
       </c>
       <c r="C214" t="s">
         <v>232</v>
@@ -8784,10 +8784,10 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B216" t="s">
         <v>1212</v>
-      </c>
-      <c r="B216" t="s">
-        <v>1213</v>
       </c>
       <c r="C216" t="s">
         <v>232</v>
@@ -8804,10 +8804,10 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C217" t="s">
         <v>232</v>
@@ -8824,10 +8824,10 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B218" t="s">
         <v>1245</v>
-      </c>
-      <c r="B218" t="s">
-        <v>1246</v>
       </c>
       <c r="C218" t="s">
         <v>232</v>
@@ -8847,7 +8847,7 @@
         <v>960</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C219" t="s">
         <v>232</v>
@@ -9015,10 +9015,10 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B228" t="s">
         <v>1352</v>
-      </c>
-      <c r="B228" t="s">
-        <v>1353</v>
       </c>
       <c r="C228" t="s">
         <v>232</v>
@@ -9095,10 +9095,10 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B232" t="s">
         <v>1302</v>
-      </c>
-      <c r="B232" t="s">
-        <v>1303</v>
       </c>
       <c r="C232" t="s">
         <v>232</v>
@@ -9272,7 +9272,7 @@
         <v>669</v>
       </c>
       <c r="B241" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C241" t="s">
         <v>232</v>
@@ -9423,10 +9423,10 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B249" t="s">
         <v>1249</v>
-      </c>
-      <c r="B249" t="s">
-        <v>1250</v>
       </c>
       <c r="C249" t="s">
         <v>232</v>
@@ -9443,10 +9443,10 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B250" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C250" t="s">
         <v>232</v>
@@ -9663,7 +9663,7 @@
         <v>347</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="C261" t="s">
         <v>232</v>
@@ -9963,7 +9963,7 @@
         <v>1108</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="C276" t="s">
         <v>232</v>
@@ -9980,10 +9980,10 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B277" t="s">
         <v>1360</v>
-      </c>
-      <c r="B277" t="s">
-        <v>1361</v>
       </c>
       <c r="C277" t="s">
         <v>232</v>
@@ -10080,10 +10080,10 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B282" t="s">
         <v>1159</v>
-      </c>
-      <c r="B282" t="s">
-        <v>1160</v>
       </c>
       <c r="C282" t="s">
         <v>232</v>
@@ -10140,10 +10140,10 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B285" t="s">
         <v>1222</v>
-      </c>
-      <c r="B285" t="s">
-        <v>1223</v>
       </c>
       <c r="C285" t="s">
         <v>232</v>
@@ -10380,10 +10380,10 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B297" t="s">
         <v>1308</v>
-      </c>
-      <c r="B297" t="s">
-        <v>1309</v>
       </c>
       <c r="C297" t="s">
         <v>232</v>
@@ -10420,10 +10420,10 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B299" t="s">
         <v>1334</v>
-      </c>
-      <c r="B299" t="s">
-        <v>1335</v>
       </c>
       <c r="C299" t="s">
         <v>232</v>
@@ -10457,10 +10457,10 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B301" t="s">
         <v>1350</v>
-      </c>
-      <c r="B301" t="s">
-        <v>1351</v>
       </c>
       <c r="C301" t="s">
         <v>232</v>
@@ -10594,10 +10594,10 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B308" t="s">
         <v>1155</v>
-      </c>
-      <c r="B308" t="s">
-        <v>1156</v>
       </c>
       <c r="C308" t="s">
         <v>232</v>
@@ -10694,10 +10694,10 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B313" t="s">
         <v>1340</v>
-      </c>
-      <c r="B313" t="s">
-        <v>1341</v>
       </c>
       <c r="C313" t="s">
         <v>232</v>
@@ -10871,10 +10871,10 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B322" t="s">
         <v>1232</v>
-      </c>
-      <c r="B322" t="s">
-        <v>1233</v>
       </c>
       <c r="C322" t="s">
         <v>232</v>
@@ -10928,10 +10928,10 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B325" t="s">
         <v>1113</v>
-      </c>
-      <c r="B325" t="s">
-        <v>1114</v>
       </c>
       <c r="C325" t="s">
         <v>232</v>
@@ -11085,10 +11085,10 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B333" t="s">
         <v>1304</v>
-      </c>
-      <c r="B333" t="s">
-        <v>1305</v>
       </c>
       <c r="C333" t="s">
         <v>232</v>
@@ -11108,7 +11108,7 @@
         <v>512</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C334" t="s">
         <v>232</v>
@@ -11125,10 +11125,10 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B335" t="s">
         <v>1226</v>
-      </c>
-      <c r="B335" t="s">
-        <v>1227</v>
       </c>
       <c r="C335" t="s">
         <v>232</v>
@@ -11145,10 +11145,10 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B336" t="s">
         <v>1127</v>
-      </c>
-      <c r="B336" t="s">
-        <v>1128</v>
       </c>
       <c r="C336" t="s">
         <v>232</v>
@@ -11322,10 +11322,10 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B345" t="s">
         <v>1277</v>
-      </c>
-      <c r="B345" t="s">
-        <v>1278</v>
       </c>
       <c r="C345" t="s">
         <v>232</v>
@@ -11362,10 +11362,10 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B347" t="s">
         <v>1118</v>
-      </c>
-      <c r="B347" t="s">
-        <v>1119</v>
       </c>
       <c r="C347" t="s">
         <v>232</v>
@@ -11789,10 +11789,10 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B370" t="s">
         <v>1324</v>
-      </c>
-      <c r="B370" t="s">
-        <v>1325</v>
       </c>
       <c r="C370" t="s">
         <v>232</v>
@@ -11849,10 +11849,10 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B373" t="s">
         <v>1298</v>
-      </c>
-      <c r="B373" t="s">
-        <v>1299</v>
       </c>
       <c r="C373" t="s">
         <v>232</v>
@@ -11963,10 +11963,10 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B379" t="s">
         <v>1120</v>
-      </c>
-      <c r="B379" t="s">
-        <v>1121</v>
       </c>
       <c r="C379" t="s">
         <v>232</v>
@@ -12043,10 +12043,10 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B383" t="s">
         <v>1208</v>
-      </c>
-      <c r="B383" t="s">
-        <v>1209</v>
       </c>
       <c r="C383" t="s">
         <v>232</v>
@@ -12063,10 +12063,10 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B384" t="s">
         <v>1198</v>
-      </c>
-      <c r="B384" t="s">
-        <v>1199</v>
       </c>
       <c r="C384" t="s">
         <v>232</v>
@@ -12083,10 +12083,10 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B385" t="s">
         <v>1194</v>
-      </c>
-      <c r="B385" t="s">
-        <v>1195</v>
       </c>
       <c r="C385" t="s">
         <v>232</v>
@@ -12103,10 +12103,10 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B386" t="s">
         <v>1192</v>
-      </c>
-      <c r="B386" t="s">
-        <v>1193</v>
       </c>
       <c r="C386" t="s">
         <v>232</v>
@@ -12123,10 +12123,10 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B387" t="s">
         <v>1196</v>
-      </c>
-      <c r="B387" t="s">
-        <v>1197</v>
       </c>
       <c r="C387" t="s">
         <v>232</v>
@@ -12143,10 +12143,10 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B388" t="s">
         <v>1204</v>
-      </c>
-      <c r="B388" t="s">
-        <v>1205</v>
       </c>
       <c r="C388" t="s">
         <v>232</v>
@@ -12163,10 +12163,10 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B389" t="s">
         <v>1206</v>
-      </c>
-      <c r="B389" t="s">
-        <v>1207</v>
       </c>
       <c r="C389" t="s">
         <v>232</v>
@@ -12200,10 +12200,10 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B391" t="s">
         <v>1188</v>
-      </c>
-      <c r="B391" t="s">
-        <v>1189</v>
       </c>
       <c r="C391" t="s">
         <v>232</v>
@@ -12220,10 +12220,10 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B392" t="s">
         <v>1200</v>
-      </c>
-      <c r="B392" t="s">
-        <v>1201</v>
       </c>
       <c r="C392" t="s">
         <v>232</v>
@@ -12240,10 +12240,10 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B393" t="s">
         <v>1202</v>
-      </c>
-      <c r="B393" t="s">
-        <v>1203</v>
       </c>
       <c r="C393" t="s">
         <v>232</v>
@@ -12260,10 +12260,10 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B394" t="s">
         <v>1190</v>
-      </c>
-      <c r="B394" t="s">
-        <v>1191</v>
       </c>
       <c r="C394" t="s">
         <v>232</v>
@@ -12454,10 +12454,10 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B404" t="s">
         <v>1342</v>
-      </c>
-      <c r="B404" t="s">
-        <v>1343</v>
       </c>
       <c r="C404" t="s">
         <v>232</v>
@@ -12531,10 +12531,10 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B408" t="s">
         <v>1116</v>
-      </c>
-      <c r="B408" t="s">
-        <v>1117</v>
       </c>
       <c r="C408" t="s">
         <v>232</v>
@@ -12560,7 +12560,7 @@
         <v>227</v>
       </c>
       <c r="D409" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="E409" t="s">
         <v>228</v>
@@ -12588,10 +12588,10 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B411" t="s">
         <v>1265</v>
-      </c>
-      <c r="B411" t="s">
-        <v>1266</v>
       </c>
       <c r="C411" t="s">
         <v>232</v>
@@ -12608,10 +12608,10 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B412" t="s">
         <v>1358</v>
-      </c>
-      <c r="B412" t="s">
-        <v>1359</v>
       </c>
       <c r="C412" t="s">
         <v>232</v>
@@ -12648,10 +12648,10 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B414" t="s">
         <v>1346</v>
-      </c>
-      <c r="B414" t="s">
-        <v>1347</v>
       </c>
       <c r="C414" t="s">
         <v>232</v>
@@ -12822,10 +12822,10 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B423" t="s">
         <v>1238</v>
-      </c>
-      <c r="B423" t="s">
-        <v>1239</v>
       </c>
       <c r="C423" t="s">
         <v>232</v>
@@ -12844,8 +12844,8 @@
       <c r="A424" t="s">
         <v>1111</v>
       </c>
-      <c r="B424" t="s">
-        <v>1112</v>
+      <c r="B424" s="1" t="s">
+        <v>1397</v>
       </c>
       <c r="C424" t="s">
         <v>232</v>
@@ -12882,10 +12882,10 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B426" t="s">
         <v>1328</v>
-      </c>
-      <c r="B426" t="s">
-        <v>1329</v>
       </c>
       <c r="C426" t="s">
         <v>232</v>
@@ -13170,10 +13170,10 @@
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B441" t="s">
         <v>1161</v>
-      </c>
-      <c r="B441" t="s">
-        <v>1162</v>
       </c>
       <c r="C441" t="s">
         <v>232</v>
@@ -13404,7 +13404,7 @@
         <v>342</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C453" t="s">
         <v>232</v>
@@ -13421,10 +13421,10 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C454" t="s">
         <v>232</v>
@@ -13441,10 +13441,10 @@
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B455" t="s">
         <v>1332</v>
-      </c>
-      <c r="B455" t="s">
-        <v>1333</v>
       </c>
       <c r="C455" t="s">
         <v>232</v>
@@ -13501,10 +13501,10 @@
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B458" t="s">
         <v>1125</v>
-      </c>
-      <c r="B458" t="s">
-        <v>1126</v>
       </c>
       <c r="C458" t="s">
         <v>232</v>
@@ -13541,10 +13541,10 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B460" t="s">
         <v>1316</v>
-      </c>
-      <c r="B460" t="s">
-        <v>1317</v>
       </c>
       <c r="C460" t="s">
         <v>232</v>
@@ -13715,10 +13715,10 @@
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B469" t="s">
         <v>1142</v>
-      </c>
-      <c r="B469" t="s">
-        <v>1143</v>
       </c>
       <c r="C469" t="s">
         <v>232</v>
@@ -13795,7 +13795,7 @@
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B473" t="s">
         <v>307</v>
@@ -13815,7 +13815,7 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B474" t="s">
         <v>324</v>
@@ -13835,10 +13835,10 @@
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B475" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C475" t="s">
         <v>232</v>
@@ -13855,7 +13855,7 @@
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B476" t="s">
         <v>381</v>
@@ -13875,7 +13875,7 @@
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B477" t="s">
         <v>302</v>
@@ -13895,7 +13895,7 @@
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B478" t="s">
         <v>1097</v>
@@ -14035,10 +14035,10 @@
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B485" t="s">
         <v>1184</v>
-      </c>
-      <c r="B485" t="s">
-        <v>1185</v>
       </c>
       <c r="C485" t="s">
         <v>232</v>
@@ -14055,10 +14055,10 @@
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B486" t="s">
         <v>1168</v>
-      </c>
-      <c r="B486" t="s">
-        <v>1169</v>
       </c>
       <c r="C486" t="s">
         <v>232</v>
@@ -14195,10 +14195,10 @@
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B493" t="s">
         <v>1300</v>
-      </c>
-      <c r="B493" t="s">
-        <v>1301</v>
       </c>
       <c r="C493" t="s">
         <v>232</v>
@@ -14215,10 +14215,10 @@
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B494" t="s">
         <v>1174</v>
-      </c>
-      <c r="B494" t="s">
-        <v>1175</v>
       </c>
       <c r="C494" t="s">
         <v>232</v>
@@ -14255,10 +14255,10 @@
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B496" t="s">
         <v>1146</v>
-      </c>
-      <c r="B496" t="s">
-        <v>1147</v>
       </c>
       <c r="C496" t="s">
         <v>232</v>
@@ -14352,10 +14352,10 @@
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B501" t="s">
         <v>1320</v>
-      </c>
-      <c r="B501" t="s">
-        <v>1321</v>
       </c>
       <c r="C501" t="s">
         <v>232</v>
@@ -14466,10 +14466,10 @@
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B507" t="s">
         <v>1214</v>
-      </c>
-      <c r="B507" t="s">
-        <v>1215</v>
       </c>
       <c r="C507" t="s">
         <v>232</v>
@@ -14526,10 +14526,10 @@
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B510" t="s">
         <v>1220</v>
-      </c>
-      <c r="B510" t="s">
-        <v>1221</v>
       </c>
       <c r="C510" t="s">
         <v>232</v>
@@ -14603,10 +14603,10 @@
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B514" t="s">
         <v>1294</v>
-      </c>
-      <c r="B514" t="s">
-        <v>1295</v>
       </c>
       <c r="C514" t="s">
         <v>232</v>
@@ -14797,10 +14797,10 @@
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B524" t="s">
         <v>1210</v>
-      </c>
-      <c r="B524" t="s">
-        <v>1211</v>
       </c>
       <c r="C524" t="s">
         <v>232</v>
@@ -14880,7 +14880,7 @@
         <v>802</v>
       </c>
       <c r="B528" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C528" t="s">
         <v>232</v>
@@ -14920,7 +14920,7 @@
         <v>967</v>
       </c>
       <c r="B530" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C530" t="s">
         <v>232</v>
@@ -14980,7 +14980,7 @@
         <v>965</v>
       </c>
       <c r="B533" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C533" t="s">
         <v>232</v>
@@ -15131,10 +15131,10 @@
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B541" t="s">
         <v>1336</v>
-      </c>
-      <c r="B541" t="s">
-        <v>1337</v>
       </c>
       <c r="C541" t="s">
         <v>232</v>
@@ -15348,10 +15348,10 @@
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B552" t="s">
         <v>1251</v>
-      </c>
-      <c r="B552" t="s">
-        <v>1252</v>
       </c>
       <c r="C552" t="s">
         <v>232</v>
@@ -15448,10 +15448,10 @@
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B557" t="s">
         <v>1288</v>
-      </c>
-      <c r="B557" t="s">
-        <v>1289</v>
       </c>
       <c r="C557" t="s">
         <v>232</v>
@@ -15696,10 +15696,10 @@
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B570" t="s">
         <v>1228</v>
-      </c>
-      <c r="B570" t="s">
-        <v>1229</v>
       </c>
       <c r="C570" t="s">
         <v>232</v>
@@ -15816,10 +15816,10 @@
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B576" t="s">
         <v>1165</v>
-      </c>
-      <c r="B576" t="s">
-        <v>1166</v>
       </c>
       <c r="C576" t="s">
         <v>232</v>
@@ -15856,10 +15856,10 @@
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B578" t="s">
         <v>1330</v>
-      </c>
-      <c r="B578" t="s">
-        <v>1331</v>
       </c>
       <c r="C578" t="s">
         <v>232</v>
@@ -15876,10 +15876,10 @@
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B579" t="s">
         <v>1218</v>
-      </c>
-      <c r="B579" t="s">
-        <v>1219</v>
       </c>
       <c r="C579" t="s">
         <v>232</v>
@@ -15916,10 +15916,10 @@
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B581" t="s">
         <v>1263</v>
-      </c>
-      <c r="B581" t="s">
-        <v>1264</v>
       </c>
       <c r="C581" t="s">
         <v>232</v>
@@ -15936,10 +15936,10 @@
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B582" t="s">
         <v>1230</v>
-      </c>
-      <c r="B582" t="s">
-        <v>1231</v>
       </c>
       <c r="C582" t="s">
         <v>232</v>
@@ -16016,10 +16016,10 @@
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B586" t="s">
         <v>1131</v>
-      </c>
-      <c r="B586" t="s">
-        <v>1132</v>
       </c>
       <c r="C586" t="s">
         <v>232</v>
@@ -16036,10 +16036,10 @@
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B587" t="s">
         <v>1140</v>
-      </c>
-      <c r="B587" t="s">
-        <v>1141</v>
       </c>
       <c r="C587" t="s">
         <v>232</v>
@@ -16284,10 +16284,10 @@
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B600" t="s">
         <v>1136</v>
-      </c>
-      <c r="B600" t="s">
-        <v>1137</v>
       </c>
       <c r="C600" t="s">
         <v>232</v>
@@ -16398,10 +16398,10 @@
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B606" t="s">
         <v>1186</v>
-      </c>
-      <c r="B606" t="s">
-        <v>1187</v>
       </c>
       <c r="C606" t="s">
         <v>232</v>
@@ -16649,10 +16649,10 @@
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B619" t="s">
         <v>1273</v>
-      </c>
-      <c r="B619" t="s">
-        <v>1274</v>
       </c>
       <c r="C619" t="s">
         <v>232</v>
@@ -16732,7 +16732,7 @@
         <v>133</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C623" t="s">
         <v>1</v>
@@ -16826,10 +16826,10 @@
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C628" t="s">
         <v>232</v>
@@ -16846,10 +16846,10 @@
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B629" t="s">
         <v>1348</v>
-      </c>
-      <c r="B629" t="s">
-        <v>1349</v>
       </c>
       <c r="C629" t="s">
         <v>232</v>
@@ -16866,10 +16866,10 @@
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B630" t="s">
         <v>1178</v>
-      </c>
-      <c r="B630" t="s">
-        <v>1179</v>
       </c>
       <c r="C630" t="s">
         <v>232</v>
@@ -16946,10 +16946,10 @@
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B634" t="s">
         <v>1257</v>
-      </c>
-      <c r="B634" t="s">
-        <v>1258</v>
       </c>
       <c r="C634" t="s">
         <v>232</v>
@@ -17063,10 +17063,10 @@
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B640" t="s">
         <v>1267</v>
-      </c>
-      <c r="B640" t="s">
-        <v>1268</v>
       </c>
       <c r="C640" t="s">
         <v>232</v>
@@ -17083,10 +17083,10 @@
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B641" t="s">
         <v>1269</v>
-      </c>
-      <c r="B641" t="s">
-        <v>1270</v>
       </c>
       <c r="C641" t="s">
         <v>232</v>
@@ -17103,10 +17103,10 @@
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B642" t="s">
         <v>1144</v>
-      </c>
-      <c r="B642" t="s">
-        <v>1145</v>
       </c>
       <c r="C642" t="s">
         <v>232</v>
@@ -17123,10 +17123,10 @@
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B643" t="s">
         <v>1150</v>
-      </c>
-      <c r="B643" t="s">
-        <v>1151</v>
       </c>
       <c r="C643" t="s">
         <v>232</v>
@@ -17143,7 +17143,7 @@
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C644" t="s">
         <v>232</v>
@@ -17177,10 +17177,10 @@
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B646" t="s">
         <v>1157</v>
-      </c>
-      <c r="B646" t="s">
-        <v>1158</v>
       </c>
       <c r="C646" t="s">
         <v>232</v>
@@ -17197,10 +17197,10 @@
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B647" t="s">
         <v>1362</v>
-      </c>
-      <c r="B647" t="s">
-        <v>1363</v>
       </c>
       <c r="C647" t="s">
         <v>232</v>
@@ -17217,10 +17217,10 @@
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B648" t="s">
         <v>1364</v>
-      </c>
-      <c r="B648" t="s">
-        <v>1365</v>
       </c>
       <c r="C648" t="s">
         <v>232</v>
@@ -17314,10 +17314,10 @@
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B653" t="s">
         <v>1172</v>
-      </c>
-      <c r="B653" t="s">
-        <v>1173</v>
       </c>
       <c r="C653" t="s">
         <v>232</v>
@@ -17679,10 +17679,10 @@
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B672" t="s">
         <v>1170</v>
-      </c>
-      <c r="B672" t="s">
-        <v>1171</v>
       </c>
       <c r="C672" t="s">
         <v>232</v>
@@ -17699,10 +17699,10 @@
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B673" t="s">
         <v>1180</v>
-      </c>
-      <c r="B673" t="s">
-        <v>1181</v>
       </c>
       <c r="C673" t="s">
         <v>232</v>
@@ -17979,7 +17979,7 @@
         <v>57</v>
       </c>
       <c r="B687" s="1" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C687" t="s">
         <v>58</v>
@@ -18036,7 +18036,7 @@
         <v>138</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C690" t="s">
         <v>1</v>
@@ -18070,10 +18070,10 @@
     </row>
     <row r="692" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B692" t="s">
         <v>1338</v>
-      </c>
-      <c r="B692" t="s">
-        <v>1339</v>
       </c>
       <c r="C692" t="s">
         <v>232</v>
@@ -18093,7 +18093,7 @@
         <v>59</v>
       </c>
       <c r="B693" s="1" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C693" t="s">
         <v>58</v>
@@ -18224,10 +18224,10 @@
     </row>
     <row r="700" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B700" t="s">
         <v>1122</v>
-      </c>
-      <c r="B700" t="s">
-        <v>1123</v>
       </c>
       <c r="C700" t="s">
         <v>232</v>
@@ -18304,10 +18304,10 @@
     </row>
     <row r="704" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B704" t="s">
         <v>1292</v>
-      </c>
-      <c r="B704" t="s">
-        <v>1293</v>
       </c>
       <c r="C704" t="s">
         <v>232</v>
@@ -18344,7 +18344,7 @@
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B706" t="s">
         <v>231</v>
@@ -18364,7 +18364,7 @@
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B707" t="s">
         <v>231</v>
@@ -18405,8 +18405,9 @@
     <hyperlink ref="B261" r:id="rId19" xr:uid="{0266ACB1-89AB-4372-9D3C-E6857AF63B5D}"/>
     <hyperlink ref="B276" r:id="rId20" xr:uid="{5D9C1709-B0FF-4228-9905-47394063674E}"/>
     <hyperlink ref="B334" r:id="rId21" xr:uid="{A0C56171-B818-446C-B795-9CE1959A6BB4}"/>
+    <hyperlink ref="B424" r:id="rId22" xr:uid="{D1BF80C7-A4E5-4726-B423-A8554E853A45}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
--- a/jogos.xlsx
+++ b/jogos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\mycollections-cli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A173259C-3477-44EB-BD2F-BAA744644679}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3088BD3B-3F00-4E94-B2C3-DC788279DF02}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{0C35237A-6EB4-4B02-9651-931FED775CEC}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3526" uniqueCount="1398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3526" uniqueCount="1396">
   <si>
     <t>Dragon Age Origins</t>
   </si>
@@ -1576,12 +1576,6 @@
   </si>
   <si>
     <t>http://media.steampowered.com/steamcommunity/public/images/apps/265590/cc33fb26c140d04a20fb0fd5f549454458122322.jpg</t>
-  </si>
-  <si>
-    <t>Bully: Scholarship Edition</t>
-  </si>
-  <si>
-    <t>http://media.steampowered.com/steamcommunity/public/images/apps/12200/e2aad562be7e67c2477972fa738675e005cb73df.jpg</t>
   </si>
   <si>
     <t>http://media.steampowered.com/steamcommunity/public/images/apps/9480/2b9558ad2e909957d66b4d8aa5e8b51eda951f69.jpg</t>
@@ -4598,8 +4592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E073D1A-5126-4785-A652-5C66939BBDE3}">
   <dimension ref="A1:F707"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="B425" sqref="B425"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4613,10 +4607,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B1" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C1" t="s">
         <v>232</v>
@@ -4633,10 +4627,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="B2" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="C2" t="s">
         <v>232</v>
@@ -4673,10 +4667,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B4" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C4" t="s">
         <v>232</v>
@@ -4753,10 +4747,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="B8" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="C8" t="s">
         <v>232</v>
@@ -4773,10 +4767,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="B9" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="C9" t="s">
         <v>232</v>
@@ -4793,10 +4787,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B10" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C10" t="s">
         <v>232</v>
@@ -4830,10 +4824,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="B12" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="C12" t="s">
         <v>232</v>
@@ -4867,10 +4861,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B14" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="C14" t="s">
         <v>232</v>
@@ -4907,10 +4901,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="B16" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="C16" t="s">
         <v>232</v>
@@ -4927,10 +4921,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="B17" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C17" t="s">
         <v>232</v>
@@ -4967,7 +4961,7 @@
         <v>139</v>
       </c>
       <c r="B19" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C19" t="s">
         <v>232</v>
@@ -4984,10 +4978,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B20" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="C20" t="s">
         <v>232</v>
@@ -5004,10 +4998,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B21" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C21" t="s">
         <v>232</v>
@@ -5024,10 +5018,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B22" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C22" t="s">
         <v>232</v>
@@ -5044,10 +5038,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B23" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C23" t="s">
         <v>232</v>
@@ -5081,10 +5075,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B25" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C25" t="s">
         <v>232</v>
@@ -5121,7 +5115,7 @@
         <v>120</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="C27" t="s">
         <v>58</v>
@@ -5172,10 +5166,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="C30" t="s">
         <v>232</v>
@@ -5192,10 +5186,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B31" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C31" t="s">
         <v>232</v>
@@ -5212,10 +5206,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B32" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C32" t="s">
         <v>232</v>
@@ -5232,10 +5226,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B33" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C33" t="s">
         <v>232</v>
@@ -5252,10 +5246,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B34" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C34" t="s">
         <v>232</v>
@@ -5272,7 +5266,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="B35" t="s">
         <v>28</v>
@@ -5289,10 +5283,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="B36" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="C36" t="s">
         <v>232</v>
@@ -5309,10 +5303,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B37" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C37" t="s">
         <v>232</v>
@@ -5352,7 +5346,7 @@
         <v>202</v>
       </c>
       <c r="B39" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="C39" t="s">
         <v>163</v>
@@ -5369,7 +5363,7 @@
         <v>202</v>
       </c>
       <c r="B40" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="C40" t="s">
         <v>232</v>
@@ -5386,10 +5380,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B41" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="C41" t="s">
         <v>232</v>
@@ -5571,10 +5565,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="B51" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="C51" t="s">
         <v>232</v>
@@ -5594,7 +5588,7 @@
         <v>84</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="C52" t="s">
         <v>58</v>
@@ -5608,10 +5602,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B53" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C53" t="s">
         <v>232</v>
@@ -5628,10 +5622,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B54" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C54" t="s">
         <v>232</v>
@@ -5648,10 +5642,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B55" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C55" t="s">
         <v>232</v>
@@ -5668,10 +5662,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B56" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C56" t="s">
         <v>232</v>
@@ -5728,10 +5722,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="B59" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C59" t="s">
         <v>232</v>
@@ -5748,10 +5742,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B60" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C60" t="s">
         <v>232</v>
@@ -5768,10 +5762,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B61" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C61" t="s">
         <v>232</v>
@@ -5788,10 +5782,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B62" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C62" t="s">
         <v>232</v>
@@ -5808,10 +5802,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B63" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="C63" t="s">
         <v>232</v>
@@ -5828,10 +5822,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B64" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C64" t="s">
         <v>232</v>
@@ -5865,10 +5859,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B66" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C66" t="s">
         <v>232</v>
@@ -5885,10 +5879,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="B67" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="C67" t="s">
         <v>232</v>
@@ -5965,10 +5959,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B71" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="C71" t="s">
         <v>232</v>
@@ -6005,10 +5999,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B73" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C73" t="s">
         <v>232</v>
@@ -6062,10 +6056,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>515</v>
+        <v>184</v>
       </c>
       <c r="B76" t="s">
-        <v>516</v>
+        <v>185</v>
       </c>
       <c r="C76" t="s">
         <v>232</v>
@@ -6119,10 +6113,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B79" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C79" t="s">
         <v>232</v>
@@ -6139,10 +6133,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B80" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C80" t="s">
         <v>232</v>
@@ -6159,10 +6153,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B81" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C81" t="s">
         <v>232</v>
@@ -6179,10 +6173,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="B82" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="C82" t="s">
         <v>232</v>
@@ -6256,10 +6250,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B86" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C86" t="s">
         <v>232</v>
@@ -6276,10 +6270,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="B87" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="C87" t="s">
         <v>232</v>
@@ -6296,10 +6290,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B88" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="C88" t="s">
         <v>232</v>
@@ -6316,10 +6310,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B89" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C89" t="s">
         <v>232</v>
@@ -6336,10 +6330,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B90" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C90" t="s">
         <v>232</v>
@@ -6376,10 +6370,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B92" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C92" t="s">
         <v>232</v>
@@ -6436,10 +6430,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="B95" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="C95" t="s">
         <v>232</v>
@@ -6473,10 +6467,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B97" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="C97" t="s">
         <v>232</v>
@@ -6493,10 +6487,10 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B98" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C98" t="s">
         <v>232</v>
@@ -6513,10 +6507,10 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B99" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C99" t="s">
         <v>232</v>
@@ -6533,10 +6527,10 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="B100" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="C100" t="s">
         <v>232</v>
@@ -6553,10 +6547,10 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B101" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C101" t="s">
         <v>232</v>
@@ -6573,10 +6567,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="B102" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="C102" t="s">
         <v>232</v>
@@ -6593,10 +6587,10 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B103" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C103" t="s">
         <v>232</v>
@@ -6613,10 +6607,10 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B104" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C104" t="s">
         <v>232</v>
@@ -6633,10 +6627,10 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B105" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C105" t="s">
         <v>232</v>
@@ -6653,10 +6647,10 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="C106" t="s">
         <v>232</v>
@@ -6673,10 +6667,10 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B107" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C107" t="s">
         <v>232</v>
@@ -6733,10 +6727,10 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B110" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C110" t="s">
         <v>232</v>
@@ -6753,10 +6747,10 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B111" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C111" t="s">
         <v>232</v>
@@ -6773,10 +6767,10 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B112" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C112" t="s">
         <v>232</v>
@@ -6793,10 +6787,10 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B113" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C113" t="s">
         <v>232</v>
@@ -6813,10 +6807,10 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B114" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C114" t="s">
         <v>232</v>
@@ -6887,7 +6881,7 @@
         <v>110</v>
       </c>
       <c r="B118" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="C118" t="s">
         <v>232</v>
@@ -6938,10 +6932,10 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B121" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C121" t="s">
         <v>232</v>
@@ -6978,10 +6972,10 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B123" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="C123" t="s">
         <v>232</v>
@@ -6998,10 +6992,10 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B124" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C124" t="s">
         <v>232</v>
@@ -7038,10 +7032,10 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B126" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C126" t="s">
         <v>232</v>
@@ -7058,10 +7052,10 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B127" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C127" t="s">
         <v>232</v>
@@ -7078,10 +7072,10 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B128" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C128" t="s">
         <v>232</v>
@@ -7098,10 +7092,10 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B129" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C129" t="s">
         <v>232</v>
@@ -7118,10 +7112,10 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B130" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C130" t="s">
         <v>232</v>
@@ -7138,10 +7132,10 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B131" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C131" t="s">
         <v>232</v>
@@ -7158,10 +7152,10 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="B132" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C132" t="s">
         <v>232</v>
@@ -7198,7 +7192,7 @@
         <v>114</v>
       </c>
       <c r="B134" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C134" t="s">
         <v>232</v>
@@ -7249,10 +7243,10 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B137" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C137" t="s">
         <v>232</v>
@@ -7269,10 +7263,10 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B138" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C138" t="s">
         <v>232</v>
@@ -7326,10 +7320,10 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B141" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C141" t="s">
         <v>232</v>
@@ -7346,10 +7340,10 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B142" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="C142" t="s">
         <v>232</v>
@@ -7366,10 +7360,10 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="C143" t="s">
         <v>232</v>
@@ -7386,10 +7380,10 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B144" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C144" t="s">
         <v>232</v>
@@ -7406,10 +7400,10 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B145" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C145" t="s">
         <v>232</v>
@@ -7426,10 +7420,10 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B146" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C146" t="s">
         <v>232</v>
@@ -7446,10 +7440,10 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B147" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C147" t="s">
         <v>232</v>
@@ -7466,10 +7460,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="B148" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="C148" t="s">
         <v>232</v>
@@ -7486,10 +7480,10 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B149" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C149" t="s">
         <v>232</v>
@@ -7506,10 +7500,10 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B150" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C150" t="s">
         <v>232</v>
@@ -7526,10 +7520,10 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B151" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C151" t="s">
         <v>232</v>
@@ -7546,10 +7540,10 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="B152" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C152" t="s">
         <v>232</v>
@@ -7566,10 +7560,10 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B153" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C153" t="s">
         <v>232</v>
@@ -7586,10 +7580,10 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="B154" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="C154" t="s">
         <v>232</v>
@@ -7606,10 +7600,10 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B155" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C155" t="s">
         <v>232</v>
@@ -7626,7 +7620,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C156" t="s">
         <v>232</v>
@@ -7643,10 +7637,10 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B157" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C157" t="s">
         <v>232</v>
@@ -7666,7 +7660,7 @@
         <v>0</v>
       </c>
       <c r="B158" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C158" t="s">
         <v>1</v>
@@ -7717,10 +7711,10 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B161" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C161" t="s">
         <v>232</v>
@@ -7737,10 +7731,10 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B162" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C162" t="s">
         <v>232</v>
@@ -7757,10 +7751,10 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="C163" t="s">
         <v>232</v>
@@ -7777,10 +7771,10 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B164" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C164" t="s">
         <v>232</v>
@@ -7814,10 +7808,10 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B166" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C166" t="s">
         <v>232</v>
@@ -7834,10 +7828,10 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="B167" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="C167" t="s">
         <v>232</v>
@@ -7854,10 +7848,10 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B168" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C168" t="s">
         <v>232</v>
@@ -7874,10 +7868,10 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B169" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="C169" t="s">
         <v>232</v>
@@ -7954,10 +7948,10 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B173" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C173" t="s">
         <v>232</v>
@@ -7974,10 +7968,10 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B174" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C174" t="s">
         <v>232</v>
@@ -7994,10 +7988,10 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B175" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C175" t="s">
         <v>232</v>
@@ -8014,10 +8008,10 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B176" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C176" t="s">
         <v>232</v>
@@ -8034,10 +8028,10 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="B177" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C177" t="s">
         <v>232</v>
@@ -8054,10 +8048,10 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="B178" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="C178" t="s">
         <v>232</v>
@@ -8094,10 +8088,10 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B180" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C180" t="s">
         <v>232</v>
@@ -8134,10 +8128,10 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B182" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C182" t="s">
         <v>232</v>
@@ -8154,10 +8148,10 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B183" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C183" t="s">
         <v>232</v>
@@ -8194,10 +8188,10 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="B185" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="C185" t="s">
         <v>232</v>
@@ -8234,10 +8228,10 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B187" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C187" t="s">
         <v>232</v>
@@ -8274,10 +8268,10 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B189" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="C189" t="s">
         <v>232</v>
@@ -8294,10 +8288,10 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B190" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C190" t="s">
         <v>232</v>
@@ -8314,10 +8308,10 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="B191" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="C191" t="s">
         <v>232</v>
@@ -8334,10 +8328,10 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B192" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C192" t="s">
         <v>232</v>
@@ -8354,10 +8348,10 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B193" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C193" t="s">
         <v>232</v>
@@ -8374,10 +8368,10 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B194" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C194" t="s">
         <v>232</v>
@@ -8394,10 +8388,10 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B195" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C195" t="s">
         <v>232</v>
@@ -8448,10 +8442,10 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="C198" t="s">
         <v>232</v>
@@ -8471,7 +8465,7 @@
         <v>87</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="C199" t="s">
         <v>58</v>
@@ -8488,7 +8482,7 @@
         <v>88</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="C200" t="s">
         <v>58</v>
@@ -8502,10 +8496,10 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B201" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C201" t="s">
         <v>232</v>
@@ -8559,10 +8553,10 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="B204" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C204" t="s">
         <v>232</v>
@@ -8579,10 +8573,10 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="B205" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="C205" t="s">
         <v>232</v>
@@ -8667,10 +8661,10 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B210" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C210" t="s">
         <v>232</v>
@@ -8687,10 +8681,10 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B211" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C211" t="s">
         <v>232</v>
@@ -8724,10 +8718,10 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B213" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C213" t="s">
         <v>232</v>
@@ -8744,10 +8738,10 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="B214" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="C214" t="s">
         <v>232</v>
@@ -8764,10 +8758,10 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B215" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C215" t="s">
         <v>232</v>
@@ -8784,10 +8778,10 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B216" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C216" t="s">
         <v>232</v>
@@ -8804,10 +8798,10 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="C217" t="s">
         <v>232</v>
@@ -8824,10 +8818,10 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B218" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C218" t="s">
         <v>232</v>
@@ -8844,10 +8838,10 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="C219" t="s">
         <v>232</v>
@@ -8918,10 +8912,10 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B223" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C223" t="s">
         <v>232</v>
@@ -8938,7 +8932,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C224" t="s">
         <v>232</v>
@@ -9015,10 +9009,10 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="B228" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="C228" t="s">
         <v>232</v>
@@ -9075,10 +9069,10 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B231" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C231" t="s">
         <v>232</v>
@@ -9095,10 +9089,10 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="B232" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="C232" t="s">
         <v>232</v>
@@ -9115,10 +9109,10 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B233" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C233" t="s">
         <v>232</v>
@@ -9172,10 +9166,10 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B236" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C236" t="s">
         <v>232</v>
@@ -9192,10 +9186,10 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B237" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C237" t="s">
         <v>232</v>
@@ -9212,10 +9206,10 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B238" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="C238" t="s">
         <v>232</v>
@@ -9249,10 +9243,10 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B240" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C240" t="s">
         <v>232</v>
@@ -9269,10 +9263,10 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B241" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C241" t="s">
         <v>232</v>
@@ -9369,7 +9363,7 @@
         <v>188</v>
       </c>
       <c r="B246" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C246" t="s">
         <v>232</v>
@@ -9423,10 +9417,10 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B249" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="C249" t="s">
         <v>232</v>
@@ -9443,10 +9437,10 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B250" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C250" t="s">
         <v>232</v>
@@ -9463,10 +9457,10 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B251" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C251" t="s">
         <v>232</v>
@@ -9483,10 +9477,10 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B252" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C252" t="s">
         <v>232</v>
@@ -9503,10 +9497,10 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B253" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C253" t="s">
         <v>232</v>
@@ -9580,10 +9574,10 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B257" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C257" t="s">
         <v>232</v>
@@ -9600,10 +9594,10 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B258" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C258" t="s">
         <v>232</v>
@@ -9663,7 +9657,7 @@
         <v>347</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="C261" t="s">
         <v>232</v>
@@ -9680,10 +9674,10 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B262" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C262" t="s">
         <v>232</v>
@@ -9700,10 +9694,10 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B263" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="C263" t="s">
         <v>232</v>
@@ -9720,10 +9714,10 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B264" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C264" t="s">
         <v>232</v>
@@ -9740,10 +9734,10 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B265" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C265" t="s">
         <v>232</v>
@@ -9760,10 +9754,10 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B266" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C266" t="s">
         <v>232</v>
@@ -9780,10 +9774,10 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B267" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C267" t="s">
         <v>232</v>
@@ -9800,10 +9794,10 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B268" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C268" t="s">
         <v>232</v>
@@ -9820,10 +9814,10 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B269" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C269" t="s">
         <v>232</v>
@@ -9840,10 +9834,10 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B270" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C270" t="s">
         <v>232</v>
@@ -9860,10 +9854,10 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B271" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C271" t="s">
         <v>232</v>
@@ -9880,10 +9874,10 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B272" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C272" t="s">
         <v>232</v>
@@ -9900,10 +9894,10 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B273" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C273" t="s">
         <v>232</v>
@@ -9920,10 +9914,10 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B274" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C274" t="s">
         <v>232</v>
@@ -9960,10 +9954,10 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="C276" t="s">
         <v>232</v>
@@ -9980,10 +9974,10 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="B277" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="C277" t="s">
         <v>232</v>
@@ -10020,10 +10014,10 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B279" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C279" t="s">
         <v>232</v>
@@ -10040,10 +10034,10 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B280" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C280" t="s">
         <v>232</v>
@@ -10060,10 +10054,10 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B281" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C281" t="s">
         <v>232</v>
@@ -10080,10 +10074,10 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="B282" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C282" t="s">
         <v>232</v>
@@ -10100,10 +10094,10 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B283" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C283" t="s">
         <v>232</v>
@@ -10120,10 +10114,10 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B284" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="C284" t="s">
         <v>232</v>
@@ -10140,10 +10134,10 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B285" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C285" t="s">
         <v>232</v>
@@ -10180,10 +10174,10 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B287" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C287" t="s">
         <v>232</v>
@@ -10200,10 +10194,10 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B288" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C288" t="s">
         <v>232</v>
@@ -10220,10 +10214,10 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B289" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C289" t="s">
         <v>232</v>
@@ -10240,10 +10234,10 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B290" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C290" t="s">
         <v>232</v>
@@ -10280,10 +10274,10 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B292" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C292" t="s">
         <v>232</v>
@@ -10320,10 +10314,10 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B294" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C294" t="s">
         <v>232</v>
@@ -10360,10 +10354,10 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B296" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C296" t="s">
         <v>232</v>
@@ -10380,10 +10374,10 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="B297" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="C297" t="s">
         <v>232</v>
@@ -10400,10 +10394,10 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B298" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C298" t="s">
         <v>232</v>
@@ -10420,10 +10414,10 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="B299" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="C299" t="s">
         <v>232</v>
@@ -10457,10 +10451,10 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="B301" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C301" t="s">
         <v>232</v>
@@ -10477,10 +10471,10 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B302" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C302" t="s">
         <v>232</v>
@@ -10497,10 +10491,10 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B303" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C303" t="s">
         <v>232</v>
@@ -10574,10 +10568,10 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B307" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="C307" t="s">
         <v>232</v>
@@ -10594,10 +10588,10 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="B308" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="C308" t="s">
         <v>232</v>
@@ -10634,10 +10628,10 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B310" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C310" t="s">
         <v>232</v>
@@ -10694,10 +10688,10 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="B313" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="C313" t="s">
         <v>232</v>
@@ -10714,10 +10708,10 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B314" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C314" t="s">
         <v>232</v>
@@ -10734,10 +10728,10 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B315" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C315" t="s">
         <v>232</v>
@@ -10754,10 +10748,10 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B316" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C316" t="s">
         <v>232</v>
@@ -10791,10 +10785,10 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B318" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C318" t="s">
         <v>232</v>
@@ -10811,10 +10805,10 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B319" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C319" t="s">
         <v>232</v>
@@ -10871,10 +10865,10 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="B322" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="C322" t="s">
         <v>232</v>
@@ -10891,10 +10885,10 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B323" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C323" t="s">
         <v>232</v>
@@ -10928,10 +10922,10 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B325" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C325" t="s">
         <v>232</v>
@@ -10948,7 +10942,7 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C326" t="s">
         <v>232</v>
@@ -10965,10 +10959,10 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B327" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C327" t="s">
         <v>232</v>
@@ -10985,10 +10979,10 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B328" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C328" t="s">
         <v>232</v>
@@ -11005,10 +10999,10 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B329" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C329" t="s">
         <v>232</v>
@@ -11025,10 +11019,10 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B330" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C330" t="s">
         <v>232</v>
@@ -11085,10 +11079,10 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="B333" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="C333" t="s">
         <v>232</v>
@@ -11108,7 +11102,7 @@
         <v>512</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="C334" t="s">
         <v>232</v>
@@ -11125,10 +11119,10 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B335" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C335" t="s">
         <v>232</v>
@@ -11145,10 +11139,10 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B336" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="C336" t="s">
         <v>232</v>
@@ -11182,10 +11176,10 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B338" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C338" t="s">
         <v>232</v>
@@ -11242,10 +11236,10 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B341" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C341" t="s">
         <v>232</v>
@@ -11282,10 +11276,10 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B343" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C343" t="s">
         <v>232</v>
@@ -11302,10 +11296,10 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B344" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C344" t="s">
         <v>232</v>
@@ -11322,10 +11316,10 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="B345" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="C345" t="s">
         <v>232</v>
@@ -11362,10 +11356,10 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="B347" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="C347" t="s">
         <v>232</v>
@@ -11382,10 +11376,10 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B348" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C348" t="s">
         <v>232</v>
@@ -11436,10 +11430,10 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B351" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C351" t="s">
         <v>232</v>
@@ -11507,10 +11501,10 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B355" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C355" t="s">
         <v>232</v>
@@ -11527,10 +11521,10 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B356" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C356" t="s">
         <v>232</v>
@@ -11547,10 +11541,10 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B357" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C357" t="s">
         <v>232</v>
@@ -11584,10 +11578,10 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B359" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C359" t="s">
         <v>232</v>
@@ -11621,10 +11615,10 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B361" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C361" t="s">
         <v>232</v>
@@ -11695,10 +11689,10 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B365" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C365" t="s">
         <v>232</v>
@@ -11769,10 +11763,10 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B369" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C369" t="s">
         <v>232</v>
@@ -11789,10 +11783,10 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="B370" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="C370" t="s">
         <v>232</v>
@@ -11809,10 +11803,10 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B371" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C371" t="s">
         <v>232</v>
@@ -11849,10 +11843,10 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="B373" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="C373" t="s">
         <v>232</v>
@@ -11869,10 +11863,10 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B374" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C374" t="s">
         <v>232</v>
@@ -11943,10 +11937,10 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B378" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C378" t="s">
         <v>232</v>
@@ -11963,10 +11957,10 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="B379" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C379" t="s">
         <v>232</v>
@@ -11983,10 +11977,10 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B380" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C380" t="s">
         <v>232</v>
@@ -12003,10 +11997,10 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B381" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C381" t="s">
         <v>232</v>
@@ -12043,10 +12037,10 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B383" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C383" t="s">
         <v>232</v>
@@ -12063,10 +12057,10 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B384" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="C384" t="s">
         <v>232</v>
@@ -12083,10 +12077,10 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B385" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="C385" t="s">
         <v>232</v>
@@ -12103,10 +12097,10 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B386" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="C386" t="s">
         <v>232</v>
@@ -12123,10 +12117,10 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B387" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="C387" t="s">
         <v>232</v>
@@ -12143,10 +12137,10 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B388" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C388" t="s">
         <v>232</v>
@@ -12163,10 +12157,10 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B389" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C389" t="s">
         <v>232</v>
@@ -12200,10 +12194,10 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B391" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C391" t="s">
         <v>232</v>
@@ -12220,10 +12214,10 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B392" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="C392" t="s">
         <v>232</v>
@@ -12240,10 +12234,10 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B393" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="C393" t="s">
         <v>232</v>
@@ -12260,10 +12254,10 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B394" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="C394" t="s">
         <v>232</v>
@@ -12280,10 +12274,10 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B395" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C395" t="s">
         <v>232</v>
@@ -12300,7 +12294,7 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C396" t="s">
         <v>232</v>
@@ -12317,7 +12311,7 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C397" t="s">
         <v>232</v>
@@ -12334,10 +12328,10 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B398" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C398" t="s">
         <v>232</v>
@@ -12354,10 +12348,10 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B399" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C399" t="s">
         <v>232</v>
@@ -12374,10 +12368,10 @@
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B400" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C400" t="s">
         <v>232</v>
@@ -12394,10 +12388,10 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B401" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C401" t="s">
         <v>232</v>
@@ -12414,10 +12408,10 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B402" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C402" t="s">
         <v>232</v>
@@ -12434,10 +12428,10 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B403" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C403" t="s">
         <v>232</v>
@@ -12454,10 +12448,10 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="B404" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="C404" t="s">
         <v>232</v>
@@ -12511,10 +12505,10 @@
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B407" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C407" t="s">
         <v>232</v>
@@ -12531,10 +12525,10 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B408" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="C408" t="s">
         <v>232</v>
@@ -12560,7 +12554,7 @@
         <v>227</v>
       </c>
       <c r="D409" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="E409" t="s">
         <v>228</v>
@@ -12588,10 +12582,10 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="B411" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="C411" t="s">
         <v>232</v>
@@ -12608,10 +12602,10 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="B412" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="C412" t="s">
         <v>232</v>
@@ -12628,10 +12622,10 @@
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B413" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C413" t="s">
         <v>232</v>
@@ -12648,10 +12642,10 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="B414" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="C414" t="s">
         <v>232</v>
@@ -12668,10 +12662,10 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B415" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C415" t="s">
         <v>232</v>
@@ -12762,10 +12756,10 @@
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B420" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C420" t="s">
         <v>232</v>
@@ -12822,10 +12816,10 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="B423" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="C423" t="s">
         <v>232</v>
@@ -12842,10 +12836,10 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="C424" t="s">
         <v>232</v>
@@ -12882,10 +12876,10 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="B426" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="C426" t="s">
         <v>232</v>
@@ -12902,10 +12896,10 @@
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B427" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C427" t="s">
         <v>232</v>
@@ -12922,10 +12916,10 @@
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B428" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C428" t="s">
         <v>232</v>
@@ -12979,10 +12973,10 @@
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B431" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C431" t="s">
         <v>232</v>
@@ -13036,10 +13030,10 @@
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B434" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C434" t="s">
         <v>232</v>
@@ -13113,10 +13107,10 @@
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B438" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C438" t="s">
         <v>232</v>
@@ -13150,7 +13144,7 @@
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B440" t="s">
         <v>148</v>
@@ -13170,10 +13164,10 @@
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B441" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="C441" t="s">
         <v>232</v>
@@ -13207,10 +13201,10 @@
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B443" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C443" t="s">
         <v>232</v>
@@ -13227,10 +13221,10 @@
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B444" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C444" t="s">
         <v>232</v>
@@ -13247,10 +13241,10 @@
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B445" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C445" t="s">
         <v>232</v>
@@ -13284,10 +13278,10 @@
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B447" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C447" t="s">
         <v>232</v>
@@ -13304,7 +13298,7 @@
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B448" t="s">
         <v>89</v>
@@ -13321,10 +13315,10 @@
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B449" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C449" t="s">
         <v>232</v>
@@ -13341,10 +13335,10 @@
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B450" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C450" t="s">
         <v>232</v>
@@ -13361,10 +13355,10 @@
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B451" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C451" t="s">
         <v>232</v>
@@ -13404,7 +13398,7 @@
         <v>342</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="C453" t="s">
         <v>232</v>
@@ -13421,10 +13415,10 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="C454" t="s">
         <v>232</v>
@@ -13441,10 +13435,10 @@
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="B455" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="C455" t="s">
         <v>232</v>
@@ -13461,10 +13455,10 @@
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="B456" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C456" t="s">
         <v>232</v>
@@ -13501,10 +13495,10 @@
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="B458" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="C458" t="s">
         <v>232</v>
@@ -13541,10 +13535,10 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="B460" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="C460" t="s">
         <v>232</v>
@@ -13578,10 +13572,10 @@
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B462" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C462" t="s">
         <v>232</v>
@@ -13598,10 +13592,10 @@
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B463" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C463" t="s">
         <v>232</v>
@@ -13618,10 +13612,10 @@
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B464" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C464" t="s">
         <v>232</v>
@@ -13658,10 +13652,10 @@
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B466" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C466" t="s">
         <v>232</v>
@@ -13695,10 +13689,10 @@
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B468" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C468" t="s">
         <v>232</v>
@@ -13715,10 +13709,10 @@
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B469" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C469" t="s">
         <v>232</v>
@@ -13755,10 +13749,10 @@
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B471" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C471" t="s">
         <v>232</v>
@@ -13775,10 +13769,10 @@
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B472" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C472" t="s">
         <v>232</v>
@@ -13795,7 +13789,7 @@
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B473" t="s">
         <v>307</v>
@@ -13815,7 +13809,7 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="B474" t="s">
         <v>324</v>
@@ -13835,10 +13829,10 @@
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="B475" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C475" t="s">
         <v>232</v>
@@ -13855,7 +13849,7 @@
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="B476" t="s">
         <v>381</v>
@@ -13875,7 +13869,7 @@
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="B477" t="s">
         <v>302</v>
@@ -13895,10 +13889,10 @@
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="B478" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="C478" t="s">
         <v>232</v>
@@ -13915,10 +13909,10 @@
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B479" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C479" t="s">
         <v>232</v>
@@ -13955,10 +13949,10 @@
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B481" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C481" t="s">
         <v>232</v>
@@ -14035,10 +14029,10 @@
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="B485" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="C485" t="s">
         <v>232</v>
@@ -14055,10 +14049,10 @@
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="B486" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="C486" t="s">
         <v>232</v>
@@ -14075,10 +14069,10 @@
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B487" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C487" t="s">
         <v>232</v>
@@ -14095,10 +14089,10 @@
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B488" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C488" t="s">
         <v>232</v>
@@ -14115,10 +14109,10 @@
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B489" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C489" t="s">
         <v>232</v>
@@ -14195,10 +14189,10 @@
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="B493" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="C493" t="s">
         <v>232</v>
@@ -14215,10 +14209,10 @@
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B494" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="C494" t="s">
         <v>232</v>
@@ -14235,10 +14229,10 @@
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B495" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C495" t="s">
         <v>232</v>
@@ -14255,10 +14249,10 @@
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="B496" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C496" t="s">
         <v>232</v>
@@ -14275,10 +14269,10 @@
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B497" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C497" t="s">
         <v>232</v>
@@ -14335,7 +14329,7 @@
         <v>43</v>
       </c>
       <c r="B500" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C500" t="s">
         <v>232</v>
@@ -14352,10 +14346,10 @@
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="B501" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="C501" t="s">
         <v>232</v>
@@ -14446,10 +14440,10 @@
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B506" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C506" t="s">
         <v>232</v>
@@ -14466,10 +14460,10 @@
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B507" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="C507" t="s">
         <v>232</v>
@@ -14486,10 +14480,10 @@
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B508" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C508" t="s">
         <v>232</v>
@@ -14506,10 +14500,10 @@
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B509" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C509" t="s">
         <v>232</v>
@@ -14526,10 +14520,10 @@
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B510" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="C510" t="s">
         <v>232</v>
@@ -14546,10 +14540,10 @@
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B511" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="C511" t="s">
         <v>232</v>
@@ -14566,10 +14560,10 @@
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B512" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C512" t="s">
         <v>232</v>
@@ -14603,10 +14597,10 @@
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="B514" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="C514" t="s">
         <v>232</v>
@@ -14623,10 +14617,10 @@
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B515" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C515" t="s">
         <v>232</v>
@@ -14643,10 +14637,10 @@
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B516" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C516" t="s">
         <v>232</v>
@@ -14663,10 +14657,10 @@
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B517" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C517" t="s">
         <v>232</v>
@@ -14777,10 +14771,10 @@
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B523" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C523" t="s">
         <v>232</v>
@@ -14797,10 +14791,10 @@
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B524" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C524" t="s">
         <v>232</v>
@@ -14817,10 +14811,10 @@
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B525" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="C525" t="s">
         <v>232</v>
@@ -14837,10 +14831,10 @@
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B526" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C526" t="s">
         <v>232</v>
@@ -14857,10 +14851,10 @@
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B527" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C527" t="s">
         <v>232</v>
@@ -14877,10 +14871,10 @@
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B528" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C528" t="s">
         <v>232</v>
@@ -14897,10 +14891,10 @@
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B529" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C529" t="s">
         <v>232</v>
@@ -14917,10 +14911,10 @@
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B530" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C530" t="s">
         <v>232</v>
@@ -14957,10 +14951,10 @@
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B532" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C532" t="s">
         <v>232</v>
@@ -14977,10 +14971,10 @@
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B533" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="C533" t="s">
         <v>232</v>
@@ -14997,10 +14991,10 @@
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B534" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C534" t="s">
         <v>232</v>
@@ -15051,10 +15045,10 @@
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B537" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C537" t="s">
         <v>232</v>
@@ -15071,10 +15065,10 @@
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B538" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C538" t="s">
         <v>232</v>
@@ -15091,10 +15085,10 @@
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B539" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C539" t="s">
         <v>232</v>
@@ -15111,10 +15105,10 @@
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B540" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C540" t="s">
         <v>232</v>
@@ -15131,10 +15125,10 @@
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="B541" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="C541" t="s">
         <v>232</v>
@@ -15151,10 +15145,10 @@
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B542" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C542" t="s">
         <v>232</v>
@@ -15171,10 +15165,10 @@
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B543" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C543" t="s">
         <v>232</v>
@@ -15191,10 +15185,10 @@
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B544" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C544" t="s">
         <v>232</v>
@@ -15211,10 +15205,10 @@
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B545" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C545" t="s">
         <v>232</v>
@@ -15231,10 +15225,10 @@
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B546" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C546" t="s">
         <v>232</v>
@@ -15251,10 +15245,10 @@
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B547" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C547" t="s">
         <v>232</v>
@@ -15271,10 +15265,10 @@
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B548" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C548" t="s">
         <v>232</v>
@@ -15311,10 +15305,10 @@
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B550" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C550" t="s">
         <v>232</v>
@@ -15331,7 +15325,7 @@
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C551" t="s">
         <v>232</v>
@@ -15348,10 +15342,10 @@
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B552" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="C552" t="s">
         <v>232</v>
@@ -15368,10 +15362,10 @@
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B553" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C553" t="s">
         <v>232</v>
@@ -15408,10 +15402,10 @@
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B555" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C555" t="s">
         <v>232</v>
@@ -15428,10 +15422,10 @@
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B556" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="C556" t="s">
         <v>232</v>
@@ -15448,10 +15442,10 @@
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="B557" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="C557" t="s">
         <v>232</v>
@@ -15556,10 +15550,10 @@
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B563" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C563" t="s">
         <v>232</v>
@@ -15576,10 +15570,10 @@
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B564" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C564" t="s">
         <v>232</v>
@@ -15596,10 +15590,10 @@
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B565" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C565" t="s">
         <v>232</v>
@@ -15616,10 +15610,10 @@
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B566" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C566" t="s">
         <v>232</v>
@@ -15636,10 +15630,10 @@
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B567" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C567" t="s">
         <v>232</v>
@@ -15696,10 +15690,10 @@
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B570" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="C570" t="s">
         <v>232</v>
@@ -15756,10 +15750,10 @@
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B573" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C573" t="s">
         <v>232</v>
@@ -15776,10 +15770,10 @@
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B574" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C574" t="s">
         <v>232</v>
@@ -15796,10 +15790,10 @@
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B575" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C575" t="s">
         <v>232</v>
@@ -15816,10 +15810,10 @@
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B576" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="C576" t="s">
         <v>232</v>
@@ -15856,10 +15850,10 @@
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="B578" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="C578" t="s">
         <v>232</v>
@@ -15876,10 +15870,10 @@
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B579" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="C579" t="s">
         <v>232</v>
@@ -15896,10 +15890,10 @@
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B580" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C580" t="s">
         <v>232</v>
@@ -15916,10 +15910,10 @@
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="B581" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="C581" t="s">
         <v>232</v>
@@ -15936,10 +15930,10 @@
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B582" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="C582" t="s">
         <v>232</v>
@@ -15956,10 +15950,10 @@
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B583" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C583" t="s">
         <v>232</v>
@@ -15976,10 +15970,10 @@
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B584" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="C584" t="s">
         <v>232</v>
@@ -16016,10 +16010,10 @@
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B586" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="C586" t="s">
         <v>232</v>
@@ -16036,10 +16030,10 @@
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B587" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="C587" t="s">
         <v>232</v>
@@ -16073,10 +16067,10 @@
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B589" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C589" t="s">
         <v>232</v>
@@ -16127,10 +16121,10 @@
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B592" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C592" t="s">
         <v>232</v>
@@ -16167,10 +16161,10 @@
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B594" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C594" t="s">
         <v>232</v>
@@ -16187,10 +16181,10 @@
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B595" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C595" t="s">
         <v>232</v>
@@ -16244,10 +16238,10 @@
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B598" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C598" t="s">
         <v>232</v>
@@ -16284,10 +16278,10 @@
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B600" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C600" t="s">
         <v>232</v>
@@ -16321,10 +16315,10 @@
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B602" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C602" t="s">
         <v>232</v>
@@ -16398,10 +16392,10 @@
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="B606" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="C606" t="s">
         <v>232</v>
@@ -16475,10 +16469,10 @@
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B610" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C610" t="s">
         <v>232</v>
@@ -16512,10 +16506,10 @@
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B612" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C612" t="s">
         <v>232</v>
@@ -16532,10 +16526,10 @@
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B613" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C613" t="s">
         <v>232</v>
@@ -16609,10 +16603,10 @@
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B617" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C617" t="s">
         <v>232</v>
@@ -16629,10 +16623,10 @@
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B618" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C618" t="s">
         <v>232</v>
@@ -16649,10 +16643,10 @@
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B619" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="C619" t="s">
         <v>232</v>
@@ -16669,10 +16663,10 @@
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B620" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C620" t="s">
         <v>232</v>
@@ -16709,10 +16703,10 @@
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B622" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C622" t="s">
         <v>232</v>
@@ -16732,7 +16726,7 @@
         <v>133</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C623" t="s">
         <v>1</v>
@@ -16746,10 +16740,10 @@
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B624" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C624" t="s">
         <v>232</v>
@@ -16766,10 +16760,10 @@
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B625" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C625" t="s">
         <v>232</v>
@@ -16786,10 +16780,10 @@
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B626" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C626" t="s">
         <v>232</v>
@@ -16826,10 +16820,10 @@
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="C628" t="s">
         <v>232</v>
@@ -16846,10 +16840,10 @@
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="B629" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="C629" t="s">
         <v>232</v>
@@ -16866,10 +16860,10 @@
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B630" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="C630" t="s">
         <v>232</v>
@@ -16906,10 +16900,10 @@
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B632" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C632" t="s">
         <v>232</v>
@@ -16926,10 +16920,10 @@
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B633" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C633" t="s">
         <v>232</v>
@@ -16946,10 +16940,10 @@
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B634" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="C634" t="s">
         <v>232</v>
@@ -16983,10 +16977,10 @@
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B636" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C636" t="s">
         <v>232</v>
@@ -17003,10 +16997,10 @@
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B637" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C637" t="s">
         <v>232</v>
@@ -17023,10 +17017,10 @@
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B638" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C638" t="s">
         <v>232</v>
@@ -17043,10 +17037,10 @@
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B639" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C639" t="s">
         <v>232</v>
@@ -17063,10 +17057,10 @@
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="B640" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="C640" t="s">
         <v>232</v>
@@ -17083,10 +17077,10 @@
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="B641" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="C641" t="s">
         <v>232</v>
@@ -17103,10 +17097,10 @@
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="B642" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="C642" t="s">
         <v>232</v>
@@ -17123,10 +17117,10 @@
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B643" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="C643" t="s">
         <v>232</v>
@@ -17143,7 +17137,7 @@
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="C644" t="s">
         <v>232</v>
@@ -17177,10 +17171,10 @@
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="B646" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="C646" t="s">
         <v>232</v>
@@ -17197,10 +17191,10 @@
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="B647" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="C647" t="s">
         <v>232</v>
@@ -17217,10 +17211,10 @@
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="B648" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C648" t="s">
         <v>232</v>
@@ -17254,10 +17248,10 @@
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B650" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C650" t="s">
         <v>232</v>
@@ -17274,10 +17268,10 @@
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B651" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C651" t="s">
         <v>232</v>
@@ -17294,10 +17288,10 @@
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B652" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C652" t="s">
         <v>232</v>
@@ -17314,10 +17308,10 @@
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B653" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C653" t="s">
         <v>232</v>
@@ -17368,10 +17362,10 @@
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B656" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C656" t="s">
         <v>232</v>
@@ -17388,10 +17382,10 @@
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B657" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C657" t="s">
         <v>232</v>
@@ -17448,10 +17442,10 @@
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B660" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C660" t="s">
         <v>232</v>
@@ -17468,10 +17462,10 @@
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B661" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C661" t="s">
         <v>232</v>
@@ -17488,10 +17482,10 @@
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="B662" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="C662" t="s">
         <v>232</v>
@@ -17508,10 +17502,10 @@
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B663" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C663" t="s">
         <v>232</v>
@@ -17565,10 +17559,10 @@
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B666" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C666" t="s">
         <v>232</v>
@@ -17679,10 +17673,10 @@
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B672" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="C672" t="s">
         <v>232</v>
@@ -17699,10 +17693,10 @@
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B673" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="C673" t="s">
         <v>232</v>
@@ -17719,10 +17713,10 @@
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B674" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C674" t="s">
         <v>232</v>
@@ -17739,10 +17733,10 @@
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B675" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C675" t="s">
         <v>232</v>
@@ -17759,10 +17753,10 @@
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B676" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C676" t="s">
         <v>232</v>
@@ -17779,10 +17773,10 @@
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B677" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C677" t="s">
         <v>232</v>
@@ -17819,10 +17813,10 @@
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B679" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C679" t="s">
         <v>232</v>
@@ -17839,10 +17833,10 @@
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B680" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C680" t="s">
         <v>232</v>
@@ -17859,10 +17853,10 @@
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B681" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C681" t="s">
         <v>232</v>
@@ -17879,10 +17873,10 @@
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B682" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C682" t="s">
         <v>232</v>
@@ -17899,10 +17893,10 @@
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B683" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C683" t="s">
         <v>232</v>
@@ -17919,10 +17913,10 @@
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B684" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="C684" t="s">
         <v>232</v>
@@ -17979,7 +17973,7 @@
         <v>57</v>
       </c>
       <c r="B687" s="1" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="C687" t="s">
         <v>58</v>
@@ -17993,10 +17987,10 @@
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B688" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C688" t="s">
         <v>232</v>
@@ -18013,10 +18007,10 @@
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B689" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C689" t="s">
         <v>232</v>
@@ -18036,7 +18030,7 @@
         <v>138</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="C690" t="s">
         <v>1</v>
@@ -18050,10 +18044,10 @@
     </row>
     <row r="691" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B691" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C691" t="s">
         <v>232</v>
@@ -18070,10 +18064,10 @@
     </row>
     <row r="692" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="B692" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="C692" t="s">
         <v>232</v>
@@ -18093,7 +18087,7 @@
         <v>59</v>
       </c>
       <c r="B693" s="1" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="C693" t="s">
         <v>58</v>
@@ -18164,10 +18158,10 @@
     </row>
     <row r="697" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B697" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C697" t="s">
         <v>232</v>
@@ -18184,10 +18178,10 @@
     </row>
     <row r="698" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B698" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C698" t="s">
         <v>232</v>
@@ -18224,10 +18218,10 @@
     </row>
     <row r="700" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B700" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="C700" t="s">
         <v>232</v>
@@ -18244,10 +18238,10 @@
     </row>
     <row r="701" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B701" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C701" t="s">
         <v>232</v>
@@ -18264,10 +18258,10 @@
     </row>
     <row r="702" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B702" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C702" t="s">
         <v>232</v>
@@ -18284,10 +18278,10 @@
     </row>
     <row r="703" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B703" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C703" t="s">
         <v>232</v>
@@ -18304,10 +18298,10 @@
     </row>
     <row r="704" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="B704" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="C704" t="s">
         <v>232</v>
@@ -18324,10 +18318,10 @@
     </row>
     <row r="705" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B705" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C705" t="s">
         <v>232</v>
@@ -18344,7 +18338,7 @@
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="B706" t="s">
         <v>231</v>
@@ -18364,7 +18358,7 @@
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="B707" t="s">
         <v>231</v>

--- a/jogos.xlsx
+++ b/jogos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\mycollections-cli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3088BD3B-3F00-4E94-B2C3-DC788279DF02}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4058B57F-94BA-4D92-A25A-2DCE015CF7A7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{0C35237A-6EB4-4B02-9651-931FED775CEC}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3526" uniqueCount="1396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3526" uniqueCount="1395">
   <si>
     <t>Dragon Age Origins</t>
   </si>
@@ -3787,9 +3787,6 @@
   </si>
   <si>
     <t>http://media.steampowered.com/steamcommunity/public/images/apps/737800/c6512a6c8e346f84165799f7d38b611b7f24c2b3.jpg</t>
-  </si>
-  <si>
-    <t>Command and Conquer: Red Alert 3 - Uprising</t>
   </si>
   <si>
     <t>http://media.steampowered.com/steamcommunity/public/images/apps/24800/de6777c6cf277967764224514fb200af9197ae2e.jpg</t>
@@ -4592,8 +4589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E073D1A-5126-4785-A652-5C66939BBDE3}">
   <dimension ref="A1:F707"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4627,10 +4624,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B2" t="s">
         <v>1283</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1284</v>
       </c>
       <c r="C2" t="s">
         <v>232</v>
@@ -4747,10 +4744,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B8" t="s">
         <v>1307</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1308</v>
       </c>
       <c r="C8" t="s">
         <v>232</v>
@@ -4767,10 +4764,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B9" t="s">
         <v>1272</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1273</v>
       </c>
       <c r="C9" t="s">
         <v>232</v>
@@ -4824,10 +4821,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B12" t="s">
         <v>1319</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1320</v>
       </c>
       <c r="C12" t="s">
         <v>232</v>
@@ -4921,10 +4918,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B17" t="s">
         <v>1351</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1352</v>
       </c>
       <c r="C17" t="s">
         <v>232</v>
@@ -5115,7 +5112,7 @@
         <v>120</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C27" t="s">
         <v>58</v>
@@ -5169,7 +5166,7 @@
         <v>1239</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C30" t="s">
         <v>232</v>
@@ -5266,7 +5263,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B35" t="s">
         <v>28</v>
@@ -5283,10 +5280,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B36" t="s">
         <v>1341</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1342</v>
       </c>
       <c r="C36" t="s">
         <v>232</v>
@@ -5565,10 +5562,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B51" t="s">
         <v>1303</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1304</v>
       </c>
       <c r="C51" t="s">
         <v>232</v>
@@ -5588,7 +5585,7 @@
         <v>84</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C52" t="s">
         <v>58</v>
@@ -5879,10 +5876,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B67" t="s">
         <v>1268</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1269</v>
       </c>
       <c r="C67" t="s">
         <v>232</v>
@@ -6173,10 +6170,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B82" t="s">
         <v>1293</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1294</v>
       </c>
       <c r="C82" t="s">
         <v>232</v>
@@ -6430,10 +6427,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B95" t="s">
         <v>1311</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1312</v>
       </c>
       <c r="C95" t="s">
         <v>232</v>
@@ -6467,10 +6464,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>217</v>
+      </c>
+      <c r="B97" t="s">
         <v>1252</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1253</v>
       </c>
       <c r="C97" t="s">
         <v>232</v>
@@ -6486,7 +6483,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" s="2" t="s">
         <v>892</v>
       </c>
       <c r="B98" t="s">
@@ -6567,10 +6564,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B102" t="s">
         <v>1278</v>
-      </c>
-      <c r="B102" t="s">
-        <v>1279</v>
       </c>
       <c r="C102" t="s">
         <v>232</v>
@@ -6650,7 +6647,7 @@
         <v>1237</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C106" t="s">
         <v>232</v>
@@ -7152,10 +7149,10 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B132" t="s">
         <v>1353</v>
-      </c>
-      <c r="B132" t="s">
-        <v>1354</v>
       </c>
       <c r="C132" t="s">
         <v>232</v>
@@ -7363,7 +7360,7 @@
         <v>647</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C143" t="s">
         <v>232</v>
@@ -7460,10 +7457,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B148" t="s">
         <v>1315</v>
-      </c>
-      <c r="B148" t="s">
-        <v>1316</v>
       </c>
       <c r="C148" t="s">
         <v>232</v>
@@ -7580,10 +7577,10 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B154" t="s">
         <v>1363</v>
-      </c>
-      <c r="B154" t="s">
-        <v>1364</v>
       </c>
       <c r="C154" t="s">
         <v>232</v>
@@ -7660,7 +7657,7 @@
         <v>0</v>
       </c>
       <c r="B158" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C158" t="s">
         <v>1</v>
@@ -7754,7 +7751,7 @@
         <v>951</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C163" t="s">
         <v>232</v>
@@ -7828,10 +7825,10 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B167" t="s">
         <v>1323</v>
-      </c>
-      <c r="B167" t="s">
-        <v>1324</v>
       </c>
       <c r="C167" t="s">
         <v>232</v>
@@ -8028,10 +8025,10 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B177" t="s">
         <v>1281</v>
-      </c>
-      <c r="B177" t="s">
-        <v>1282</v>
       </c>
       <c r="C177" t="s">
         <v>232</v>
@@ -8048,10 +8045,10 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B178" t="s">
         <v>1258</v>
-      </c>
-      <c r="B178" t="s">
-        <v>1259</v>
       </c>
       <c r="C178" t="s">
         <v>232</v>
@@ -8188,10 +8185,10 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B185" t="s">
         <v>1276</v>
-      </c>
-      <c r="B185" t="s">
-        <v>1277</v>
       </c>
       <c r="C185" t="s">
         <v>232</v>
@@ -8445,7 +8442,7 @@
         <v>1240</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C198" t="s">
         <v>232</v>
@@ -8465,7 +8462,7 @@
         <v>87</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="C199" t="s">
         <v>58</v>
@@ -8482,7 +8479,7 @@
         <v>88</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C200" t="s">
         <v>58</v>
@@ -8553,10 +8550,10 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B204" t="s">
         <v>1309</v>
-      </c>
-      <c r="B204" t="s">
-        <v>1310</v>
       </c>
       <c r="C204" t="s">
         <v>232</v>
@@ -8573,10 +8570,10 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B205" t="s">
         <v>1287</v>
-      </c>
-      <c r="B205" t="s">
-        <v>1288</v>
       </c>
       <c r="C205" t="s">
         <v>232</v>
@@ -8801,7 +8798,7 @@
         <v>1241</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C217" t="s">
         <v>232</v>
@@ -8841,7 +8838,7 @@
         <v>958</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C219" t="s">
         <v>232</v>
@@ -9009,10 +9006,10 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B228" t="s">
         <v>1349</v>
-      </c>
-      <c r="B228" t="s">
-        <v>1350</v>
       </c>
       <c r="C228" t="s">
         <v>232</v>
@@ -9089,10 +9086,10 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B232" t="s">
         <v>1299</v>
-      </c>
-      <c r="B232" t="s">
-        <v>1300</v>
       </c>
       <c r="C232" t="s">
         <v>232</v>
@@ -9440,7 +9437,7 @@
         <v>1246</v>
       </c>
       <c r="B250" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C250" t="s">
         <v>232</v>
@@ -9657,7 +9654,7 @@
         <v>347</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C261" t="s">
         <v>232</v>
@@ -9957,7 +9954,7 @@
         <v>1106</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C276" t="s">
         <v>232</v>
@@ -9974,10 +9971,10 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B277" t="s">
         <v>1357</v>
-      </c>
-      <c r="B277" t="s">
-        <v>1358</v>
       </c>
       <c r="C277" t="s">
         <v>232</v>
@@ -10374,10 +10371,10 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B297" t="s">
         <v>1305</v>
-      </c>
-      <c r="B297" t="s">
-        <v>1306</v>
       </c>
       <c r="C297" t="s">
         <v>232</v>
@@ -10414,10 +10411,10 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B299" t="s">
         <v>1331</v>
-      </c>
-      <c r="B299" t="s">
-        <v>1332</v>
       </c>
       <c r="C299" t="s">
         <v>232</v>
@@ -10451,10 +10448,10 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B301" t="s">
         <v>1347</v>
-      </c>
-      <c r="B301" t="s">
-        <v>1348</v>
       </c>
       <c r="C301" t="s">
         <v>232</v>
@@ -10688,10 +10685,10 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B313" t="s">
         <v>1337</v>
-      </c>
-      <c r="B313" t="s">
-        <v>1338</v>
       </c>
       <c r="C313" t="s">
         <v>232</v>
@@ -11079,10 +11076,10 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B333" t="s">
         <v>1301</v>
-      </c>
-      <c r="B333" t="s">
-        <v>1302</v>
       </c>
       <c r="C333" t="s">
         <v>232</v>
@@ -11102,7 +11099,7 @@
         <v>512</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C334" t="s">
         <v>232</v>
@@ -11316,10 +11313,10 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B345" t="s">
         <v>1274</v>
-      </c>
-      <c r="B345" t="s">
-        <v>1275</v>
       </c>
       <c r="C345" t="s">
         <v>232</v>
@@ -11783,10 +11780,10 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B370" t="s">
         <v>1321</v>
-      </c>
-      <c r="B370" t="s">
-        <v>1322</v>
       </c>
       <c r="C370" t="s">
         <v>232</v>
@@ -11843,10 +11840,10 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B373" t="s">
         <v>1295</v>
-      </c>
-      <c r="B373" t="s">
-        <v>1296</v>
       </c>
       <c r="C373" t="s">
         <v>232</v>
@@ -12448,10 +12445,10 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B404" t="s">
         <v>1339</v>
-      </c>
-      <c r="B404" t="s">
-        <v>1340</v>
       </c>
       <c r="C404" t="s">
         <v>232</v>
@@ -12554,7 +12551,7 @@
         <v>227</v>
       </c>
       <c r="D409" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="E409" t="s">
         <v>228</v>
@@ -12582,10 +12579,10 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B411" t="s">
         <v>1262</v>
-      </c>
-      <c r="B411" t="s">
-        <v>1263</v>
       </c>
       <c r="C411" t="s">
         <v>232</v>
@@ -12602,10 +12599,10 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B412" t="s">
         <v>1355</v>
-      </c>
-      <c r="B412" t="s">
-        <v>1356</v>
       </c>
       <c r="C412" t="s">
         <v>232</v>
@@ -12642,10 +12639,10 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B414" t="s">
         <v>1343</v>
-      </c>
-      <c r="B414" t="s">
-        <v>1344</v>
       </c>
       <c r="C414" t="s">
         <v>232</v>
@@ -12839,7 +12836,7 @@
         <v>1109</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="C424" t="s">
         <v>232</v>
@@ -12876,10 +12873,10 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B426" t="s">
         <v>1325</v>
-      </c>
-      <c r="B426" t="s">
-        <v>1326</v>
       </c>
       <c r="C426" t="s">
         <v>232</v>
@@ -13398,7 +13395,7 @@
         <v>342</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C453" t="s">
         <v>232</v>
@@ -13418,7 +13415,7 @@
         <v>1238</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C454" t="s">
         <v>232</v>
@@ -13435,10 +13432,10 @@
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B455" t="s">
         <v>1329</v>
-      </c>
-      <c r="B455" t="s">
-        <v>1330</v>
       </c>
       <c r="C455" t="s">
         <v>232</v>
@@ -13535,10 +13532,10 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B460" t="s">
         <v>1313</v>
-      </c>
-      <c r="B460" t="s">
-        <v>1314</v>
       </c>
       <c r="C460" t="s">
         <v>232</v>
@@ -13789,7 +13786,7 @@
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B473" t="s">
         <v>307</v>
@@ -13809,7 +13806,7 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B474" t="s">
         <v>324</v>
@@ -13829,7 +13826,7 @@
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B475" t="s">
         <v>1164</v>
@@ -13849,7 +13846,7 @@
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B476" t="s">
         <v>381</v>
@@ -13869,7 +13866,7 @@
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B477" t="s">
         <v>302</v>
@@ -13889,7 +13886,7 @@
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B478" t="s">
         <v>1095</v>
@@ -14189,10 +14186,10 @@
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B493" t="s">
         <v>1297</v>
-      </c>
-      <c r="B493" t="s">
-        <v>1298</v>
       </c>
       <c r="C493" t="s">
         <v>232</v>
@@ -14346,10 +14343,10 @@
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B501" t="s">
         <v>1317</v>
-      </c>
-      <c r="B501" t="s">
-        <v>1318</v>
       </c>
       <c r="C501" t="s">
         <v>232</v>
@@ -14597,10 +14594,10 @@
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B514" t="s">
         <v>1291</v>
-      </c>
-      <c r="B514" t="s">
-        <v>1292</v>
       </c>
       <c r="C514" t="s">
         <v>232</v>
@@ -14914,7 +14911,7 @@
         <v>965</v>
       </c>
       <c r="B530" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C530" t="s">
         <v>232</v>
@@ -14974,7 +14971,7 @@
         <v>963</v>
       </c>
       <c r="B533" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C533" t="s">
         <v>232</v>
@@ -15125,10 +15122,10 @@
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B541" t="s">
         <v>1333</v>
-      </c>
-      <c r="B541" t="s">
-        <v>1334</v>
       </c>
       <c r="C541" t="s">
         <v>232</v>
@@ -15442,10 +15439,10 @@
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B557" t="s">
         <v>1285</v>
-      </c>
-      <c r="B557" t="s">
-        <v>1286</v>
       </c>
       <c r="C557" t="s">
         <v>232</v>
@@ -15850,10 +15847,10 @@
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B578" t="s">
         <v>1327</v>
-      </c>
-      <c r="B578" t="s">
-        <v>1328</v>
       </c>
       <c r="C578" t="s">
         <v>232</v>
@@ -15910,10 +15907,10 @@
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B581" t="s">
         <v>1260</v>
-      </c>
-      <c r="B581" t="s">
-        <v>1261</v>
       </c>
       <c r="C581" t="s">
         <v>232</v>
@@ -16643,10 +16640,10 @@
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B619" t="s">
         <v>1270</v>
-      </c>
-      <c r="B619" t="s">
-        <v>1271</v>
       </c>
       <c r="C619" t="s">
         <v>232</v>
@@ -16726,7 +16723,7 @@
         <v>133</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C623" t="s">
         <v>1</v>
@@ -16823,7 +16820,7 @@
         <v>1244</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C628" t="s">
         <v>232</v>
@@ -16840,10 +16837,10 @@
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B629" t="s">
         <v>1345</v>
-      </c>
-      <c r="B629" t="s">
-        <v>1346</v>
       </c>
       <c r="C629" t="s">
         <v>232</v>
@@ -16940,10 +16937,10 @@
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B634" t="s">
         <v>1254</v>
-      </c>
-      <c r="B634" t="s">
-        <v>1255</v>
       </c>
       <c r="C634" t="s">
         <v>232</v>
@@ -17057,10 +17054,10 @@
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B640" t="s">
         <v>1264</v>
-      </c>
-      <c r="B640" t="s">
-        <v>1265</v>
       </c>
       <c r="C640" t="s">
         <v>232</v>
@@ -17077,10 +17074,10 @@
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B641" t="s">
         <v>1266</v>
-      </c>
-      <c r="B641" t="s">
-        <v>1267</v>
       </c>
       <c r="C641" t="s">
         <v>232</v>
@@ -17191,10 +17188,10 @@
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B647" t="s">
         <v>1359</v>
-      </c>
-      <c r="B647" t="s">
-        <v>1360</v>
       </c>
       <c r="C647" t="s">
         <v>232</v>
@@ -17211,10 +17208,10 @@
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B648" t="s">
         <v>1361</v>
-      </c>
-      <c r="B648" t="s">
-        <v>1362</v>
       </c>
       <c r="C648" t="s">
         <v>232</v>
@@ -17973,7 +17970,7 @@
         <v>57</v>
       </c>
       <c r="B687" s="1" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C687" t="s">
         <v>58</v>
@@ -18030,7 +18027,7 @@
         <v>138</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C690" t="s">
         <v>1</v>
@@ -18064,10 +18061,10 @@
     </row>
     <row r="692" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B692" t="s">
         <v>1335</v>
-      </c>
-      <c r="B692" t="s">
-        <v>1336</v>
       </c>
       <c r="C692" t="s">
         <v>232</v>
@@ -18087,7 +18084,7 @@
         <v>59</v>
       </c>
       <c r="B693" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C693" t="s">
         <v>58</v>
@@ -18298,10 +18295,10 @@
     </row>
     <row r="704" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B704" t="s">
         <v>1289</v>
-      </c>
-      <c r="B704" t="s">
-        <v>1290</v>
       </c>
       <c r="C704" t="s">
         <v>232</v>
@@ -18338,7 +18335,7 @@
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B706" t="s">
         <v>231</v>
@@ -18358,7 +18355,7 @@
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B707" t="s">
         <v>231</v>

--- a/jogos.xlsx
+++ b/jogos.xlsx
@@ -1,30 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\mycollections-cli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4058B57F-94BA-4D92-A25A-2DCE015CF7A7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{37583A64-23E7-4A36-8FD3-EF79830A0B4D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{0C35237A-6EB4-4B02-9651-931FED775CEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -4589,14 +4583,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E073D1A-5126-4785-A652-5C66939BBDE3}">
   <dimension ref="A1:F707"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="196.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -6322,7 +6316,7 @@
         <v>2</v>
       </c>
       <c r="F89" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -18371,7 +18365,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:F707">
+  <sortState ref="A1:F707">
     <sortCondition ref="A1"/>
   </sortState>
   <hyperlinks>

--- a/jogos.xlsx
+++ b/jogos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\mycollections-cli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{37583A64-23E7-4A36-8FD3-EF79830A0B4D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF3B044-D62A-478D-9743-B32427D024B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{0C35237A-6EB4-4B02-9651-931FED775CEC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3526" uniqueCount="1395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3606" uniqueCount="1418">
   <si>
     <t>Dragon Age Origins</t>
   </si>
@@ -4210,13 +4210,82 @@
   </si>
   <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRZmVH68-o6rnNIT4ccDadETKMbC-58T-Pwj3AjSvyrQWgVK9sA</t>
+  </si>
+  <si>
+    <t>Subnautica</t>
+  </si>
+  <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>https://i.ebayimg.com/images/g/h~cAAOSwNphWYLE5/s-l300.jpg</t>
+  </si>
+  <si>
+    <t>PS3</t>
+  </si>
+  <si>
+    <t>Resident Evil 2</t>
+  </si>
+  <si>
+    <t>Epic Mickey</t>
+  </si>
+  <si>
+    <t>Duck Tales Remastered</t>
+  </si>
+  <si>
+    <t>Castle of Illusions</t>
+  </si>
+  <si>
+    <t>Puppeteer</t>
+  </si>
+  <si>
+    <t>Ni No Kuni</t>
+  </si>
+  <si>
+    <t>Mirrors Edge</t>
+  </si>
+  <si>
+    <t>Resident Evil Directors Cut</t>
+  </si>
+  <si>
+    <t>Metal Gear Solid</t>
+  </si>
+  <si>
+    <t>Metal Gear Solid VR Missions</t>
+  </si>
+  <si>
+    <t>https://steamcdn-a.akamaihd.net/steam/apps/883710/header.jpg?t=1545269519</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRE0fvT_3ncn-mIh9w39JQFbdptckgDnxFW1RYW0GRtuHZ_pF1Y</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTtv6GnwarQ2M_p9tVz4DXX35BbpJ2Mhxi94Es8ZIi4SjYMTTAU1A</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSmoXKNphVmrSlIntTsT-47Mx4vLcziuZlmQ18uhknsS5HRHTgl1g</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSMQaUqTdYoVa7wlWyFB6gyed8Yg8tH4s-Yh3MzXvLBe-rq6A4x</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQM4zMPbxjP_9YBozqykTKY6W8X496XSJD56UYGhdTQW4K_O8CV</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT-3su4Rors0QSGelW9hgCozPG7M_V1RdLPDLBAS-iJDyf3pW1d</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRdWXO2O5y68pwIcGwUAFvt2dO8IXtz4QXuFcku-jL4KNpZgPy2jw</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTUnXcMAHizEe3zP8NaFLtXgQqf1IvUkNdNL0Yfz0psWp4qP2rK9w</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4228,14 +4297,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4262,10 +4323,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -4581,10 +4641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E073D1A-5126-4785-A652-5C66939BBDE3}">
-  <dimension ref="A1:F707"/>
+  <dimension ref="A1:F723"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90"/>
+    <sheetView tabSelected="1" topLeftCell="A692" workbookViewId="0">
+      <selection activeCell="A685" sqref="A685"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4598,76 +4658,76 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1089</v>
+        <v>225</v>
       </c>
       <c r="B1" t="s">
-        <v>1090</v>
+        <v>226</v>
       </c>
       <c r="C1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D1">
-        <v>508290</v>
+        <v>227</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1364</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>228</v>
       </c>
       <c r="F1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1282</v>
+        <v>1089</v>
       </c>
       <c r="B2" t="s">
-        <v>1283</v>
+        <v>1090</v>
       </c>
       <c r="C2" t="s">
         <v>232</v>
       </c>
       <c r="D2">
-        <v>223850</v>
+        <v>508290</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>488</v>
+        <v>1282</v>
       </c>
       <c r="B3" t="s">
-        <v>489</v>
+        <v>1283</v>
       </c>
       <c r="C3" t="s">
         <v>232</v>
       </c>
       <c r="D3">
-        <v>384190</v>
+        <v>223850</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>876</v>
+        <v>488</v>
       </c>
       <c r="B4" t="s">
-        <v>877</v>
+        <v>489</v>
       </c>
       <c r="C4" t="s">
         <v>232</v>
       </c>
       <c r="D4">
-        <v>228400</v>
+        <v>384190</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -4678,16 +4738,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>404</v>
+        <v>876</v>
       </c>
       <c r="B5" t="s">
-        <v>405</v>
+        <v>877</v>
       </c>
       <c r="C5" t="s">
         <v>232</v>
       </c>
       <c r="D5">
-        <v>300060</v>
+        <v>228400</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
@@ -4698,16 +4758,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C6" t="s">
         <v>232</v>
       </c>
       <c r="D6">
-        <v>300280</v>
+        <v>300060</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
@@ -4718,16 +4778,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>244</v>
+        <v>406</v>
       </c>
       <c r="B7" t="s">
-        <v>245</v>
+        <v>407</v>
       </c>
       <c r="C7" t="s">
         <v>232</v>
       </c>
       <c r="D7">
-        <v>105450</v>
+        <v>300280</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
@@ -4738,16 +4798,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1306</v>
+        <v>244</v>
       </c>
       <c r="B8" t="s">
-        <v>1307</v>
+        <v>245</v>
       </c>
       <c r="C8" t="s">
         <v>232</v>
       </c>
       <c r="D8">
-        <v>226840</v>
+        <v>105450</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
@@ -4758,16 +4818,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1271</v>
+        <v>1306</v>
       </c>
       <c r="B9" t="s">
-        <v>1272</v>
+        <v>1307</v>
       </c>
       <c r="C9" t="s">
         <v>232</v>
       </c>
       <c r="D9">
-        <v>108710</v>
+        <v>226840</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
@@ -4778,16 +4838,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>977</v>
+        <v>1271</v>
       </c>
       <c r="B10" t="s">
-        <v>978</v>
+        <v>1272</v>
       </c>
       <c r="C10" t="s">
         <v>232</v>
       </c>
       <c r="D10">
-        <v>202750</v>
+        <v>108710</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
@@ -4798,13 +4858,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>167</v>
+        <v>977</v>
       </c>
       <c r="B11" t="s">
-        <v>168</v>
+        <v>978</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>232</v>
+      </c>
+      <c r="D11">
+        <v>202750</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
@@ -4815,16 +4878,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1318</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s">
-        <v>1319</v>
+        <v>168</v>
       </c>
       <c r="C12" t="s">
-        <v>232</v>
-      </c>
-      <c r="D12">
-        <v>214490</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
@@ -4835,13 +4895,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>1318</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>1319</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>232</v>
+      </c>
+      <c r="D13">
+        <v>214490</v>
       </c>
       <c r="E13" t="s">
         <v>2</v>
@@ -4852,16 +4915,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1160</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>1161</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>232</v>
-      </c>
-      <c r="D14">
-        <v>270880</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
         <v>2</v>
@@ -4872,16 +4932,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>284</v>
+        <v>1160</v>
       </c>
       <c r="B15" t="s">
-        <v>285</v>
+        <v>1161</v>
       </c>
       <c r="C15" t="s">
         <v>232</v>
       </c>
       <c r="D15">
-        <v>239200</v>
+        <v>270880</v>
       </c>
       <c r="E15" t="s">
         <v>2</v>
@@ -4892,16 +4952,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1126</v>
+        <v>284</v>
       </c>
       <c r="B16" t="s">
-        <v>1127</v>
+        <v>285</v>
       </c>
       <c r="C16" t="s">
         <v>232</v>
       </c>
       <c r="D16">
-        <v>57300</v>
+        <v>239200</v>
       </c>
       <c r="E16" t="s">
         <v>2</v>
@@ -4912,16 +4972,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1350</v>
+        <v>1126</v>
       </c>
       <c r="B17" t="s">
-        <v>1351</v>
+        <v>1127</v>
       </c>
       <c r="C17" t="s">
         <v>232</v>
       </c>
       <c r="D17">
-        <v>410210</v>
+        <v>57300</v>
       </c>
       <c r="E17" t="s">
         <v>2</v>
@@ -4932,13 +4992,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>139</v>
+        <v>1350</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>1351</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>232</v>
+      </c>
+      <c r="D18">
+        <v>410210</v>
       </c>
       <c r="E18" t="s">
         <v>2</v>
@@ -4952,13 +5015,10 @@
         <v>139</v>
       </c>
       <c r="B19" t="s">
-        <v>723</v>
+        <v>140</v>
       </c>
       <c r="C19" t="s">
-        <v>232</v>
-      </c>
-      <c r="D19">
-        <v>48240</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
         <v>2</v>
@@ -4969,16 +5029,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1045</v>
+        <v>139</v>
       </c>
       <c r="B20" t="s">
-        <v>1046</v>
+        <v>723</v>
       </c>
       <c r="C20" t="s">
         <v>232</v>
       </c>
       <c r="D20">
-        <v>314360</v>
+        <v>48240</v>
       </c>
       <c r="E20" t="s">
         <v>2</v>
@@ -4989,16 +5049,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>589</v>
+        <v>1045</v>
       </c>
       <c r="B21" t="s">
-        <v>590</v>
+        <v>1046</v>
       </c>
       <c r="C21" t="s">
         <v>232</v>
       </c>
       <c r="D21">
-        <v>65790</v>
+        <v>314360</v>
       </c>
       <c r="E21" t="s">
         <v>2</v>
@@ -5009,16 +5069,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>674</v>
+        <v>589</v>
       </c>
       <c r="B22" t="s">
-        <v>675</v>
+        <v>590</v>
       </c>
       <c r="C22" t="s">
         <v>232</v>
       </c>
       <c r="D22">
-        <v>15100</v>
+        <v>65790</v>
       </c>
       <c r="E22" t="s">
         <v>2</v>
@@ -5029,16 +5089,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>715</v>
+        <v>674</v>
       </c>
       <c r="B23" t="s">
-        <v>716</v>
+        <v>675</v>
       </c>
       <c r="C23" t="s">
         <v>232</v>
       </c>
       <c r="D23">
-        <v>48190</v>
+        <v>15100</v>
       </c>
       <c r="E23" t="s">
         <v>2</v>
@@ -5049,13 +5109,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>715</v>
       </c>
       <c r="B24" t="s">
-        <v>124</v>
+        <v>716</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>232</v>
+      </c>
+      <c r="D24">
+        <v>48190</v>
       </c>
       <c r="E24" t="s">
         <v>2</v>
@@ -5066,16 +5129,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>705</v>
+        <v>123</v>
       </c>
       <c r="B25" t="s">
-        <v>706</v>
+        <v>124</v>
       </c>
       <c r="C25" t="s">
-        <v>232</v>
-      </c>
-      <c r="D25">
-        <v>33230</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
         <v>2</v>
@@ -5086,13 +5146,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>118</v>
+        <v>705</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>706</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>232</v>
+      </c>
+      <c r="D26">
+        <v>33230</v>
       </c>
       <c r="E26" t="s">
         <v>2</v>
@@ -5103,10 +5166,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>120</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>1365</v>
+        <v>118</v>
+      </c>
+      <c r="B27" t="s">
+        <v>119</v>
       </c>
       <c r="C27" t="s">
         <v>58</v>
@@ -5120,10 +5183,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>1365</v>
       </c>
       <c r="C28" t="s">
         <v>58</v>
@@ -5137,16 +5200,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>310</v>
+        <v>121</v>
       </c>
       <c r="B29" t="s">
-        <v>311</v>
+        <v>122</v>
       </c>
       <c r="C29" t="s">
-        <v>232</v>
-      </c>
-      <c r="D29">
-        <v>244210</v>
+        <v>58</v>
       </c>
       <c r="E29" t="s">
         <v>2</v>
@@ -5157,16 +5217,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>1387</v>
+        <v>310</v>
+      </c>
+      <c r="B30" t="s">
+        <v>311</v>
       </c>
       <c r="C30" t="s">
         <v>232</v>
       </c>
       <c r="D30">
-        <v>805550</v>
+        <v>244210</v>
       </c>
       <c r="E30" t="s">
         <v>2</v>
@@ -5177,16 +5237,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>581</v>
+        <v>1239</v>
       </c>
       <c r="B31" t="s">
-        <v>582</v>
+        <v>1387</v>
       </c>
       <c r="C31" t="s">
         <v>232</v>
       </c>
       <c r="D31">
-        <v>431600</v>
+        <v>805550</v>
       </c>
       <c r="E31" t="s">
         <v>2</v>
@@ -5197,16 +5257,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>956</v>
+        <v>581</v>
       </c>
       <c r="B32" t="s">
-        <v>957</v>
+        <v>582</v>
       </c>
       <c r="C32" t="s">
         <v>232</v>
       </c>
       <c r="D32">
-        <v>308040</v>
+        <v>431600</v>
       </c>
       <c r="E32" t="s">
         <v>2</v>
@@ -5217,16 +5277,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>732</v>
+        <v>956</v>
       </c>
       <c r="B33" t="s">
-        <v>733</v>
+        <v>957</v>
       </c>
       <c r="C33" t="s">
         <v>232</v>
       </c>
       <c r="D33">
-        <v>207020</v>
+        <v>308040</v>
       </c>
       <c r="E33" t="s">
         <v>2</v>
@@ -5237,16 +5297,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>864</v>
+        <v>732</v>
       </c>
       <c r="B34" t="s">
-        <v>865</v>
+        <v>733</v>
       </c>
       <c r="C34" t="s">
         <v>232</v>
       </c>
       <c r="D34">
-        <v>242920</v>
+        <v>207020</v>
       </c>
       <c r="E34" t="s">
         <v>2</v>
@@ -5257,13 +5317,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1340</v>
+        <v>864</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>865</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>232</v>
+      </c>
+      <c r="D35">
+        <v>242920</v>
       </c>
       <c r="E35" t="s">
         <v>2</v>
@@ -5277,13 +5340,10 @@
         <v>1340</v>
       </c>
       <c r="B36" t="s">
-        <v>1341</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>232</v>
-      </c>
-      <c r="D36">
-        <v>366230</v>
+        <v>25</v>
       </c>
       <c r="E36" t="s">
         <v>2</v>
@@ -5294,16 +5354,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>824</v>
+        <v>1340</v>
       </c>
       <c r="B37" t="s">
-        <v>825</v>
+        <v>1341</v>
       </c>
       <c r="C37" t="s">
         <v>232</v>
       </c>
       <c r="D37">
-        <v>107100</v>
+        <v>366230</v>
       </c>
       <c r="E37" t="s">
         <v>2</v>
@@ -5314,16 +5374,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>256</v>
+        <v>824</v>
       </c>
       <c r="B38" t="s">
-        <v>257</v>
+        <v>825</v>
       </c>
       <c r="C38" t="s">
         <v>232</v>
       </c>
       <c r="D38">
-        <v>35140</v>
+        <v>107100</v>
       </c>
       <c r="E38" t="s">
         <v>2</v>
@@ -5334,16 +5394,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c r="B39" t="s">
-        <v>1130</v>
+        <v>257</v>
       </c>
       <c r="C39" t="s">
-        <v>163</v>
+        <v>232</v>
+      </c>
+      <c r="D39">
+        <v>35140</v>
       </c>
       <c r="E39" t="s">
-        <v>164</v>
+        <v>2</v>
       </c>
       <c r="F39" t="s">
         <v>230</v>
@@ -5357,13 +5420,10 @@
         <v>1130</v>
       </c>
       <c r="C40" t="s">
-        <v>232</v>
-      </c>
-      <c r="D40">
-        <v>200260</v>
+        <v>163</v>
       </c>
       <c r="E40" t="s">
-        <v>2</v>
+        <v>164</v>
       </c>
       <c r="F40" t="s">
         <v>230</v>
@@ -5371,16 +5431,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1179</v>
+        <v>202</v>
       </c>
       <c r="B41" t="s">
-        <v>1180</v>
+        <v>1130</v>
       </c>
       <c r="C41" t="s">
         <v>232</v>
       </c>
       <c r="D41">
-        <v>208650</v>
+        <v>200260</v>
       </c>
       <c r="E41" t="s">
         <v>2</v>
@@ -5391,16 +5451,16 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>268</v>
+        <v>1179</v>
       </c>
       <c r="B42" t="s">
-        <v>269</v>
+        <v>1180</v>
       </c>
       <c r="C42" t="s">
         <v>232</v>
       </c>
       <c r="D42">
-        <v>209000</v>
+        <v>208650</v>
       </c>
       <c r="E42" t="s">
         <v>2</v>
@@ -5411,16 +5471,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>418</v>
+        <v>268</v>
       </c>
       <c r="B43" t="s">
-        <v>419</v>
+        <v>269</v>
       </c>
       <c r="C43" t="s">
         <v>232</v>
       </c>
       <c r="D43">
-        <v>267490</v>
+        <v>209000</v>
       </c>
       <c r="E43" t="s">
         <v>2</v>
@@ -5431,16 +5491,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>464</v>
+        <v>418</v>
       </c>
       <c r="B44" t="s">
-        <v>465</v>
+        <v>419</v>
       </c>
       <c r="C44" t="s">
         <v>232</v>
       </c>
       <c r="D44">
-        <v>394230</v>
+        <v>267490</v>
       </c>
       <c r="E44" t="s">
         <v>2</v>
@@ -5451,13 +5511,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>209</v>
+        <v>464</v>
       </c>
       <c r="B45" t="s">
-        <v>210</v>
+        <v>465</v>
       </c>
       <c r="C45" t="s">
-        <v>1</v>
+        <v>232</v>
+      </c>
+      <c r="D45">
+        <v>394230</v>
       </c>
       <c r="E45" t="s">
         <v>2</v>
@@ -5468,10 +5531,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B46" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
@@ -5485,10 +5548,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="B47" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
@@ -5502,16 +5565,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>290</v>
+        <v>165</v>
       </c>
       <c r="B48" t="s">
-        <v>291</v>
+        <v>166</v>
       </c>
       <c r="C48" t="s">
-        <v>232</v>
-      </c>
-      <c r="D48">
-        <v>284160</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
         <v>2</v>
@@ -5522,13 +5582,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>213</v>
+        <v>290</v>
       </c>
       <c r="B49" t="s">
-        <v>214</v>
+        <v>291</v>
       </c>
       <c r="C49" t="s">
-        <v>1</v>
+        <v>232</v>
+      </c>
+      <c r="D49">
+        <v>284160</v>
       </c>
       <c r="E49" t="s">
         <v>2</v>
@@ -5539,13 +5602,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>213</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>214</v>
       </c>
       <c r="C50" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E50" t="s">
         <v>2</v>
@@ -5556,16 +5619,13 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1302</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>1303</v>
+        <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>232</v>
-      </c>
-      <c r="D51">
-        <v>267340</v>
+        <v>25</v>
       </c>
       <c r="E51" t="s">
         <v>2</v>
@@ -5576,13 +5636,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>84</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>1383</v>
+        <v>1302</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1303</v>
       </c>
       <c r="C52" t="s">
-        <v>58</v>
+        <v>232</v>
+      </c>
+      <c r="D52">
+        <v>267340</v>
       </c>
       <c r="E52" t="s">
         <v>2</v>
@@ -5593,16 +5656,13 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>724</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>725</v>
+        <v>1383</v>
       </c>
       <c r="C53" t="s">
-        <v>232</v>
-      </c>
-      <c r="D53">
-        <v>203750</v>
+        <v>58</v>
       </c>
       <c r="E53" t="s">
         <v>2</v>
@@ -5613,16 +5673,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>798</v>
+        <v>724</v>
       </c>
       <c r="B54" t="s">
-        <v>799</v>
+        <v>725</v>
       </c>
       <c r="C54" t="s">
         <v>232</v>
       </c>
       <c r="D54">
-        <v>21670</v>
+        <v>203750</v>
       </c>
       <c r="E54" t="s">
         <v>2</v>
@@ -5633,16 +5693,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B55" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C55" t="s">
         <v>232</v>
       </c>
       <c r="D55">
-        <v>21680</v>
+        <v>21670</v>
       </c>
       <c r="E55" t="s">
         <v>2</v>
@@ -5653,16 +5713,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>979</v>
+        <v>796</v>
       </c>
       <c r="B56" t="s">
-        <v>980</v>
+        <v>797</v>
       </c>
       <c r="C56" t="s">
         <v>232</v>
       </c>
       <c r="D56">
-        <v>7670</v>
+        <v>21680</v>
       </c>
       <c r="E56" t="s">
         <v>2</v>
@@ -5673,16 +5733,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>276</v>
+        <v>979</v>
       </c>
       <c r="B57" t="s">
-        <v>277</v>
+        <v>980</v>
       </c>
       <c r="C57" t="s">
         <v>232</v>
       </c>
       <c r="D57">
-        <v>8850</v>
+        <v>7670</v>
       </c>
       <c r="E57" t="s">
         <v>2</v>
@@ -5693,16 +5753,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B58" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C58" t="s">
         <v>232</v>
       </c>
       <c r="D58">
-        <v>409720</v>
+        <v>8850</v>
       </c>
       <c r="E58" t="s">
         <v>2</v>
@@ -5713,16 +5773,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1135</v>
+        <v>278</v>
       </c>
       <c r="B59" t="s">
-        <v>1136</v>
+        <v>279</v>
       </c>
       <c r="C59" t="s">
         <v>232</v>
       </c>
       <c r="D59">
-        <v>8870</v>
+        <v>409720</v>
       </c>
       <c r="E59" t="s">
         <v>2</v>
@@ -5733,16 +5793,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>981</v>
+        <v>1135</v>
       </c>
       <c r="B60" t="s">
-        <v>982</v>
+        <v>1136</v>
       </c>
       <c r="C60" t="s">
         <v>232</v>
       </c>
       <c r="D60">
-        <v>409710</v>
+        <v>8870</v>
       </c>
       <c r="E60" t="s">
         <v>2</v>
@@ -5753,16 +5813,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>597</v>
+        <v>981</v>
       </c>
       <c r="B61" t="s">
-        <v>598</v>
+        <v>982</v>
       </c>
       <c r="C61" t="s">
         <v>232</v>
       </c>
       <c r="D61">
-        <v>331440</v>
+        <v>409710</v>
       </c>
       <c r="E61" t="s">
         <v>2</v>
@@ -5773,16 +5833,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>713</v>
+        <v>597</v>
       </c>
       <c r="B62" t="s">
-        <v>714</v>
+        <v>598</v>
       </c>
       <c r="C62" t="s">
         <v>232</v>
       </c>
       <c r="D62">
-        <v>63710</v>
+        <v>331440</v>
       </c>
       <c r="E62" t="s">
         <v>2</v>
@@ -5793,16 +5853,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1033</v>
+        <v>713</v>
       </c>
       <c r="B63" t="s">
-        <v>1034</v>
+        <v>714</v>
       </c>
       <c r="C63" t="s">
         <v>232</v>
       </c>
       <c r="D63">
-        <v>208670</v>
+        <v>63710</v>
       </c>
       <c r="E63" t="s">
         <v>2</v>
@@ -5813,16 +5873,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1043</v>
+        <v>1033</v>
       </c>
       <c r="B64" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
       <c r="C64" t="s">
         <v>232</v>
       </c>
       <c r="D64">
-        <v>302710</v>
+        <v>208670</v>
       </c>
       <c r="E64" t="s">
         <v>2</v>
@@ -5833,13 +5893,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>23</v>
+        <v>1043</v>
       </c>
       <c r="B65" t="s">
-        <v>24</v>
+        <v>1044</v>
       </c>
       <c r="C65" t="s">
-        <v>25</v>
+        <v>232</v>
+      </c>
+      <c r="D65">
+        <v>302710</v>
       </c>
       <c r="E65" t="s">
         <v>2</v>
@@ -5850,16 +5913,13 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1061</v>
+        <v>23</v>
       </c>
       <c r="B66" t="s">
-        <v>1062</v>
+        <v>24</v>
       </c>
       <c r="C66" t="s">
-        <v>232</v>
-      </c>
-      <c r="D66">
-        <v>365670</v>
+        <v>25</v>
       </c>
       <c r="E66" t="s">
         <v>2</v>
@@ -5870,16 +5930,16 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1267</v>
+        <v>1061</v>
       </c>
       <c r="B67" t="s">
-        <v>1268</v>
+        <v>1062</v>
       </c>
       <c r="C67" t="s">
         <v>232</v>
       </c>
       <c r="D67">
-        <v>8980</v>
+        <v>365670</v>
       </c>
       <c r="E67" t="s">
         <v>2</v>
@@ -5890,16 +5950,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>369</v>
+        <v>1267</v>
       </c>
       <c r="B68" t="s">
-        <v>370</v>
+        <v>1268</v>
       </c>
       <c r="C68" t="s">
         <v>232</v>
       </c>
       <c r="D68">
-        <v>49520</v>
+        <v>8980</v>
       </c>
       <c r="E68" t="s">
         <v>2</v>
@@ -5910,56 +5970,56 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>438</v>
+        <v>369</v>
       </c>
       <c r="B69" t="s">
-        <v>439</v>
+        <v>370</v>
       </c>
       <c r="C69" t="s">
         <v>232</v>
       </c>
       <c r="D69">
-        <v>388080</v>
+        <v>49520</v>
       </c>
       <c r="E69" t="s">
         <v>2</v>
       </c>
       <c r="F69" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>363</v>
+        <v>438</v>
       </c>
       <c r="B70" t="s">
-        <v>364</v>
+        <v>439</v>
       </c>
       <c r="C70" t="s">
         <v>232</v>
       </c>
       <c r="D70">
-        <v>26800</v>
+        <v>388080</v>
       </c>
       <c r="E70" t="s">
         <v>2</v>
       </c>
       <c r="F70" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1035</v>
+        <v>363</v>
       </c>
       <c r="B71" t="s">
-        <v>1036</v>
+        <v>364</v>
       </c>
       <c r="C71" t="s">
         <v>232</v>
       </c>
       <c r="D71">
-        <v>274190</v>
+        <v>26800</v>
       </c>
       <c r="E71" t="s">
         <v>2</v>
@@ -5970,16 +6030,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>384</v>
+        <v>1035</v>
       </c>
       <c r="B72" t="s">
-        <v>385</v>
+        <v>1036</v>
       </c>
       <c r="C72" t="s">
         <v>232</v>
       </c>
       <c r="D72">
-        <v>225080</v>
+        <v>274190</v>
       </c>
       <c r="E72" t="s">
         <v>2</v>
@@ -5990,16 +6050,16 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1013</v>
+        <v>384</v>
       </c>
       <c r="B73" t="s">
-        <v>1014</v>
+        <v>385</v>
       </c>
       <c r="C73" t="s">
         <v>232</v>
       </c>
       <c r="D73">
-        <v>225260</v>
+        <v>225080</v>
       </c>
       <c r="E73" t="s">
         <v>2</v>
@@ -6010,16 +6070,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>498</v>
+        <v>1013</v>
       </c>
       <c r="B74" t="s">
-        <v>499</v>
+        <v>1014</v>
       </c>
       <c r="C74" t="s">
         <v>232</v>
       </c>
       <c r="D74">
-        <v>436530</v>
+        <v>225260</v>
       </c>
       <c r="E74" t="s">
         <v>2</v>
@@ -6030,16 +6090,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>184</v>
+        <v>498</v>
       </c>
       <c r="B75" t="s">
-        <v>185</v>
+        <v>499</v>
       </c>
       <c r="C75" t="s">
-        <v>182</v>
+        <v>232</v>
+      </c>
+      <c r="D75">
+        <v>436530</v>
       </c>
       <c r="E75" t="s">
-        <v>183</v>
+        <v>2</v>
       </c>
       <c r="F75" t="s">
         <v>230</v>
@@ -6053,13 +6116,10 @@
         <v>185</v>
       </c>
       <c r="C76" t="s">
-        <v>232</v>
-      </c>
-      <c r="D76">
-        <v>12200</v>
+        <v>182</v>
       </c>
       <c r="E76" t="s">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="F76" t="s">
         <v>230</v>
@@ -6067,16 +6127,16 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>462</v>
+        <v>184</v>
       </c>
       <c r="B77" t="s">
-        <v>463</v>
+        <v>185</v>
       </c>
       <c r="C77" t="s">
         <v>232</v>
       </c>
       <c r="D77">
-        <v>549810</v>
+        <v>12200</v>
       </c>
       <c r="E77" t="s">
         <v>2</v>
@@ -6087,13 +6147,16 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>215</v>
+        <v>462</v>
       </c>
       <c r="B78" t="s">
-        <v>216</v>
+        <v>463</v>
       </c>
       <c r="C78" t="s">
-        <v>1</v>
+        <v>232</v>
+      </c>
+      <c r="D78">
+        <v>549810</v>
       </c>
       <c r="E78" t="s">
         <v>2</v>
@@ -6104,16 +6167,13 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>521</v>
+        <v>215</v>
       </c>
       <c r="B79" t="s">
-        <v>522</v>
+        <v>216</v>
       </c>
       <c r="C79" t="s">
-        <v>232</v>
-      </c>
-      <c r="D79">
-        <v>24740</v>
+        <v>1</v>
       </c>
       <c r="E79" t="s">
         <v>2</v>
@@ -6124,16 +6184,16 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1027</v>
+        <v>521</v>
       </c>
       <c r="B80" t="s">
-        <v>1028</v>
+        <v>522</v>
       </c>
       <c r="C80" t="s">
         <v>232</v>
       </c>
       <c r="D80">
-        <v>253770</v>
+        <v>24740</v>
       </c>
       <c r="E80" t="s">
         <v>2</v>
@@ -6144,16 +6204,16 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1081</v>
+        <v>1027</v>
       </c>
       <c r="B81" t="s">
-        <v>1082</v>
+        <v>1028</v>
       </c>
       <c r="C81" t="s">
         <v>232</v>
       </c>
       <c r="D81">
-        <v>449200</v>
+        <v>253770</v>
       </c>
       <c r="E81" t="s">
         <v>2</v>
@@ -6164,16 +6224,16 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1292</v>
+        <v>1081</v>
       </c>
       <c r="B82" t="s">
-        <v>1293</v>
+        <v>1082</v>
       </c>
       <c r="C82" t="s">
         <v>232</v>
       </c>
       <c r="D82">
-        <v>204450</v>
+        <v>449200</v>
       </c>
       <c r="E82" t="s">
         <v>2</v>
@@ -6184,13 +6244,16 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>60</v>
+        <v>1292</v>
       </c>
       <c r="B83" t="s">
-        <v>61</v>
+        <v>1293</v>
       </c>
       <c r="C83" t="s">
-        <v>25</v>
+        <v>232</v>
+      </c>
+      <c r="D83">
+        <v>204450</v>
       </c>
       <c r="E83" t="s">
         <v>2</v>
@@ -6201,16 +6264,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>367</v>
+        <v>60</v>
       </c>
       <c r="B84" t="s">
-        <v>368</v>
+        <v>61</v>
       </c>
       <c r="C84" t="s">
-        <v>232</v>
-      </c>
-      <c r="D84">
-        <v>204360</v>
+        <v>25</v>
       </c>
       <c r="E84" t="s">
         <v>2</v>
@@ -6221,16 +6281,16 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>288</v>
+        <v>367</v>
       </c>
       <c r="B85" t="s">
-        <v>289</v>
+        <v>368</v>
       </c>
       <c r="C85" t="s">
         <v>232</v>
       </c>
       <c r="D85">
-        <v>282530</v>
+        <v>204360</v>
       </c>
       <c r="E85" t="s">
         <v>2</v>
@@ -6241,16 +6301,16 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1021</v>
+        <v>288</v>
       </c>
       <c r="B86" t="s">
-        <v>1022</v>
+        <v>289</v>
       </c>
       <c r="C86" t="s">
         <v>232</v>
       </c>
       <c r="D86">
-        <v>234080</v>
+        <v>282530</v>
       </c>
       <c r="E86" t="s">
         <v>2</v>
@@ -6261,16 +6321,16 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1150</v>
+        <v>1021</v>
       </c>
       <c r="B87" t="s">
-        <v>1151</v>
+        <v>1022</v>
       </c>
       <c r="C87" t="s">
         <v>232</v>
       </c>
       <c r="D87">
-        <v>239250</v>
+        <v>234080</v>
       </c>
       <c r="E87" t="s">
         <v>2</v>
@@ -6281,16 +6341,16 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1083</v>
+        <v>1150</v>
       </c>
       <c r="B88" t="s">
-        <v>1084</v>
+        <v>1151</v>
       </c>
       <c r="C88" t="s">
         <v>232</v>
       </c>
       <c r="D88">
-        <v>451880</v>
+        <v>239250</v>
       </c>
       <c r="E88" t="s">
         <v>2</v>
@@ -6301,56 +6361,56 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>760</v>
+        <v>1083</v>
       </c>
       <c r="B89" t="s">
-        <v>761</v>
+        <v>1084</v>
       </c>
       <c r="C89" t="s">
         <v>232</v>
       </c>
       <c r="D89">
-        <v>261920</v>
+        <v>451880</v>
       </c>
       <c r="E89" t="s">
         <v>2</v>
       </c>
       <c r="F89" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>990</v>
+        <v>760</v>
       </c>
       <c r="B90" t="s">
-        <v>991</v>
+        <v>761</v>
       </c>
       <c r="C90" t="s">
         <v>232</v>
       </c>
       <c r="D90">
-        <v>219640</v>
+        <v>261920</v>
       </c>
       <c r="E90" t="s">
         <v>2</v>
       </c>
       <c r="F90" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>392</v>
+        <v>990</v>
       </c>
       <c r="B91" t="s">
-        <v>393</v>
+        <v>991</v>
       </c>
       <c r="C91" t="s">
         <v>232</v>
       </c>
       <c r="D91">
-        <v>251130</v>
+        <v>219640</v>
       </c>
       <c r="E91" t="s">
         <v>2</v>
@@ -6361,16 +6421,16 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>603</v>
+        <v>392</v>
       </c>
       <c r="B92" t="s">
-        <v>604</v>
+        <v>393</v>
       </c>
       <c r="C92" t="s">
         <v>232</v>
       </c>
       <c r="D92">
-        <v>255710</v>
+        <v>251130</v>
       </c>
       <c r="E92" t="s">
         <v>2</v>
@@ -6381,16 +6441,16 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>331</v>
+        <v>603</v>
       </c>
       <c r="B93" t="s">
-        <v>332</v>
+        <v>604</v>
       </c>
       <c r="C93" t="s">
         <v>232</v>
       </c>
       <c r="D93">
-        <v>493490</v>
+        <v>255710</v>
       </c>
       <c r="E93" t="s">
         <v>2</v>
@@ -6401,16 +6461,16 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>446</v>
+        <v>331</v>
       </c>
       <c r="B94" t="s">
-        <v>447</v>
+        <v>332</v>
       </c>
       <c r="C94" t="s">
         <v>232</v>
       </c>
       <c r="D94">
-        <v>403900</v>
+        <v>493490</v>
       </c>
       <c r="E94" t="s">
         <v>2</v>
@@ -6421,16 +6481,16 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1310</v>
+        <v>446</v>
       </c>
       <c r="B95" t="s">
-        <v>1311</v>
+        <v>447</v>
       </c>
       <c r="C95" t="s">
         <v>232</v>
       </c>
       <c r="D95">
-        <v>287340</v>
+        <v>403900</v>
       </c>
       <c r="E95" t="s">
         <v>2</v>
@@ -6441,13 +6501,16 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>217</v>
+        <v>1310</v>
       </c>
       <c r="B96" t="s">
-        <v>218</v>
+        <v>1311</v>
       </c>
       <c r="C96" t="s">
-        <v>1</v>
+        <v>232</v>
+      </c>
+      <c r="D96">
+        <v>287340</v>
       </c>
       <c r="E96" t="s">
         <v>2</v>
@@ -6461,33 +6524,30 @@
         <v>217</v>
       </c>
       <c r="B97" t="s">
+        <v>218</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
+        <v>2</v>
+      </c>
+      <c r="F97" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>217</v>
+      </c>
+      <c r="B98" t="s">
         <v>1252</v>
       </c>
-      <c r="C97" t="s">
-        <v>232</v>
-      </c>
-      <c r="D97">
+      <c r="C98" t="s">
+        <v>232</v>
+      </c>
+      <c r="D98">
         <v>24800</v>
-      </c>
-      <c r="E97" t="s">
-        <v>2</v>
-      </c>
-      <c r="F97" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>892</v>
-      </c>
-      <c r="B98" t="s">
-        <v>893</v>
-      </c>
-      <c r="C98" t="s">
-        <v>232</v>
-      </c>
-      <c r="D98">
-        <v>356070</v>
       </c>
       <c r="E98" t="s">
         <v>2</v>
@@ -6498,16 +6558,16 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>742</v>
+        <v>892</v>
       </c>
       <c r="B99" t="s">
-        <v>743</v>
+        <v>893</v>
       </c>
       <c r="C99" t="s">
         <v>232</v>
       </c>
       <c r="D99">
-        <v>228200</v>
+        <v>356070</v>
       </c>
       <c r="E99" t="s">
         <v>2</v>
@@ -6518,56 +6578,56 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1131</v>
+        <v>742</v>
       </c>
       <c r="B100" t="s">
-        <v>1132</v>
+        <v>743</v>
       </c>
       <c r="C100" t="s">
         <v>232</v>
       </c>
       <c r="D100">
-        <v>4560</v>
+        <v>228200</v>
       </c>
       <c r="E100" t="s">
         <v>2</v>
       </c>
       <c r="F100" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1071</v>
+        <v>1131</v>
       </c>
       <c r="B101" t="s">
-        <v>1072</v>
+        <v>1132</v>
       </c>
       <c r="C101" t="s">
         <v>232</v>
       </c>
       <c r="D101">
-        <v>231430</v>
+        <v>4560</v>
       </c>
       <c r="E101" t="s">
         <v>2</v>
       </c>
       <c r="F101" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1277</v>
+        <v>1071</v>
       </c>
       <c r="B102" t="s">
-        <v>1278</v>
+        <v>1072</v>
       </c>
       <c r="C102" t="s">
         <v>232</v>
       </c>
       <c r="D102">
-        <v>9340</v>
+        <v>231430</v>
       </c>
       <c r="E102" t="s">
         <v>2</v>
@@ -6578,16 +6638,16 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>736</v>
+        <v>1277</v>
       </c>
       <c r="B103" t="s">
-        <v>737</v>
+        <v>1278</v>
       </c>
       <c r="C103" t="s">
         <v>232</v>
       </c>
       <c r="D103">
-        <v>20540</v>
+        <v>9340</v>
       </c>
       <c r="E103" t="s">
         <v>2</v>
@@ -6598,56 +6658,56 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>1063</v>
+        <v>736</v>
       </c>
       <c r="B104" t="s">
-        <v>1064</v>
+        <v>737</v>
       </c>
       <c r="C104" t="s">
         <v>232</v>
       </c>
       <c r="D104">
-        <v>367670</v>
+        <v>20540</v>
       </c>
       <c r="E104" t="s">
         <v>2</v>
       </c>
       <c r="F104" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>562</v>
+        <v>1063</v>
       </c>
       <c r="B105" t="s">
-        <v>563</v>
+        <v>1064</v>
       </c>
       <c r="C105" t="s">
         <v>232</v>
       </c>
       <c r="D105">
-        <v>247020</v>
+        <v>367670</v>
       </c>
       <c r="E105" t="s">
         <v>2</v>
       </c>
       <c r="F105" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>1378</v>
+        <v>562</v>
+      </c>
+      <c r="B106" t="s">
+        <v>563</v>
       </c>
       <c r="C106" t="s">
         <v>232</v>
       </c>
       <c r="D106">
-        <v>209670</v>
+        <v>247020</v>
       </c>
       <c r="E106" t="s">
         <v>2</v>
@@ -6658,16 +6718,16 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>939</v>
+        <v>1237</v>
       </c>
       <c r="B107" t="s">
-        <v>940</v>
+        <v>1378</v>
       </c>
       <c r="C107" t="s">
         <v>232</v>
       </c>
       <c r="D107">
-        <v>473560</v>
+        <v>209670</v>
       </c>
       <c r="E107" t="s">
         <v>2</v>
@@ -6678,16 +6738,16 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>303</v>
+        <v>939</v>
       </c>
       <c r="B108" t="s">
-        <v>304</v>
+        <v>940</v>
       </c>
       <c r="C108" t="s">
         <v>232</v>
       </c>
       <c r="D108">
-        <v>115100</v>
+        <v>473560</v>
       </c>
       <c r="E108" t="s">
         <v>2</v>
@@ -6698,16 +6758,16 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B109" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C109" t="s">
         <v>232</v>
       </c>
       <c r="D109">
-        <v>275180</v>
+        <v>115100</v>
       </c>
       <c r="E109" t="s">
         <v>2</v>
@@ -6718,16 +6778,16 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>832</v>
+        <v>305</v>
       </c>
       <c r="B110" t="s">
-        <v>833</v>
+        <v>306</v>
       </c>
       <c r="C110" t="s">
         <v>232</v>
       </c>
       <c r="D110">
-        <v>730</v>
+        <v>275180</v>
       </c>
       <c r="E110" t="s">
         <v>2</v>
@@ -6738,16 +6798,16 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>961</v>
+        <v>832</v>
       </c>
       <c r="B111" t="s">
-        <v>962</v>
+        <v>833</v>
       </c>
       <c r="C111" t="s">
         <v>232</v>
       </c>
       <c r="D111">
-        <v>11390</v>
+        <v>730</v>
       </c>
       <c r="E111" t="s">
         <v>2</v>
@@ -6758,16 +6818,16 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>524</v>
+        <v>961</v>
       </c>
       <c r="B112" t="s">
-        <v>525</v>
+        <v>962</v>
       </c>
       <c r="C112" t="s">
         <v>232</v>
       </c>
       <c r="D112">
-        <v>33620</v>
+        <v>11390</v>
       </c>
       <c r="E112" t="s">
         <v>2</v>
@@ -6778,16 +6838,16 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>1000</v>
+        <v>524</v>
       </c>
       <c r="B113" t="s">
-        <v>1001</v>
+        <v>525</v>
       </c>
       <c r="C113" t="s">
         <v>232</v>
       </c>
       <c r="D113">
-        <v>71230</v>
+        <v>33620</v>
       </c>
       <c r="E113" t="s">
         <v>2</v>
@@ -6798,16 +6858,16 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>949</v>
+        <v>1000</v>
       </c>
       <c r="B114" t="s">
-        <v>950</v>
+        <v>1001</v>
       </c>
       <c r="C114" t="s">
         <v>232</v>
       </c>
       <c r="D114">
-        <v>203770</v>
+        <v>71230</v>
       </c>
       <c r="E114" t="s">
         <v>2</v>
@@ -6818,13 +6878,16 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>219</v>
+        <v>949</v>
       </c>
       <c r="B115" t="s">
-        <v>220</v>
+        <v>950</v>
       </c>
       <c r="C115" t="s">
-        <v>1</v>
+        <v>232</v>
+      </c>
+      <c r="D115">
+        <v>203770</v>
       </c>
       <c r="E115" t="s">
         <v>2</v>
@@ -6835,10 +6898,10 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B116" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C116" t="s">
         <v>1</v>
@@ -6852,10 +6915,10 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>110</v>
+        <v>223</v>
       </c>
       <c r="B117" t="s">
-        <v>111</v>
+        <v>224</v>
       </c>
       <c r="C117" t="s">
         <v>1</v>
@@ -6872,13 +6935,10 @@
         <v>110</v>
       </c>
       <c r="B118" t="s">
-        <v>1121</v>
+        <v>111</v>
       </c>
       <c r="C118" t="s">
-        <v>232</v>
-      </c>
-      <c r="D118">
-        <v>108800</v>
+        <v>1</v>
       </c>
       <c r="E118" t="s">
         <v>2</v>
@@ -6889,13 +6949,16 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B119" t="s">
-        <v>113</v>
+        <v>1121</v>
       </c>
       <c r="C119" t="s">
-        <v>1</v>
+        <v>232</v>
+      </c>
+      <c r="D119">
+        <v>108800</v>
       </c>
       <c r="E119" t="s">
         <v>2</v>
@@ -6906,10 +6969,10 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>221</v>
+        <v>112</v>
       </c>
       <c r="B120" t="s">
-        <v>222</v>
+        <v>113</v>
       </c>
       <c r="C120" t="s">
         <v>1</v>
@@ -6923,16 +6986,13 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>766</v>
+        <v>221</v>
       </c>
       <c r="B121" t="s">
-        <v>767</v>
+        <v>222</v>
       </c>
       <c r="C121" t="s">
-        <v>232</v>
-      </c>
-      <c r="D121">
-        <v>268910</v>
+        <v>1</v>
       </c>
       <c r="E121" t="s">
         <v>2</v>
@@ -6943,16 +7003,16 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>280</v>
+        <v>766</v>
       </c>
       <c r="B122" t="s">
-        <v>281</v>
+        <v>767</v>
       </c>
       <c r="C122" t="s">
         <v>232</v>
       </c>
       <c r="D122">
-        <v>251170</v>
+        <v>268910</v>
       </c>
       <c r="E122" t="s">
         <v>2</v>
@@ -6963,16 +7023,16 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1213</v>
+        <v>280</v>
       </c>
       <c r="B123" t="s">
-        <v>1214</v>
+        <v>281</v>
       </c>
       <c r="C123" t="s">
         <v>232</v>
       </c>
       <c r="D123">
-        <v>405500</v>
+        <v>251170</v>
       </c>
       <c r="E123" t="s">
         <v>2</v>
@@ -6983,16 +7043,16 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>784</v>
+        <v>1213</v>
       </c>
       <c r="B124" t="s">
-        <v>785</v>
+        <v>1214</v>
       </c>
       <c r="C124" t="s">
         <v>232</v>
       </c>
       <c r="D124">
-        <v>335300</v>
+        <v>405500</v>
       </c>
       <c r="E124" t="s">
         <v>2</v>
@@ -7003,16 +7063,16 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>416</v>
+        <v>784</v>
       </c>
       <c r="B125" t="s">
-        <v>417</v>
+        <v>785</v>
       </c>
       <c r="C125" t="s">
         <v>232</v>
       </c>
       <c r="D125">
-        <v>211420</v>
+        <v>335300</v>
       </c>
       <c r="E125" t="s">
         <v>2</v>
@@ -7023,16 +7083,16 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>738</v>
+        <v>416</v>
       </c>
       <c r="B126" t="s">
-        <v>739</v>
+        <v>417</v>
       </c>
       <c r="C126" t="s">
         <v>232</v>
       </c>
       <c r="D126">
-        <v>50620</v>
+        <v>211420</v>
       </c>
       <c r="E126" t="s">
         <v>2</v>
@@ -7043,16 +7103,16 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>828</v>
+        <v>738</v>
       </c>
       <c r="B127" t="s">
-        <v>829</v>
+        <v>739</v>
       </c>
       <c r="C127" t="s">
         <v>232</v>
       </c>
       <c r="D127">
-        <v>50650</v>
+        <v>50620</v>
       </c>
       <c r="E127" t="s">
         <v>2</v>
@@ -7063,16 +7123,16 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>744</v>
+        <v>828</v>
       </c>
       <c r="B128" t="s">
-        <v>745</v>
+        <v>829</v>
       </c>
       <c r="C128" t="s">
         <v>232</v>
       </c>
       <c r="D128">
-        <v>462780</v>
+        <v>50650</v>
       </c>
       <c r="E128" t="s">
         <v>2</v>
@@ -7083,16 +7143,16 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>648</v>
+        <v>744</v>
       </c>
       <c r="B129" t="s">
-        <v>649</v>
+        <v>745</v>
       </c>
       <c r="C129" t="s">
         <v>232</v>
       </c>
       <c r="D129">
-        <v>300</v>
+        <v>462780</v>
       </c>
       <c r="E129" t="s">
         <v>2</v>
@@ -7103,16 +7163,16 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1006</v>
+        <v>648</v>
       </c>
       <c r="B130" t="s">
-        <v>1007</v>
+        <v>649</v>
       </c>
       <c r="C130" t="s">
         <v>232</v>
       </c>
       <c r="D130">
-        <v>223750</v>
+        <v>300</v>
       </c>
       <c r="E130" t="s">
         <v>2</v>
@@ -7123,16 +7183,16 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>983</v>
+        <v>1006</v>
       </c>
       <c r="B131" t="s">
-        <v>984</v>
+        <v>1007</v>
       </c>
       <c r="C131" t="s">
         <v>232</v>
       </c>
       <c r="D131">
-        <v>91310</v>
+        <v>223750</v>
       </c>
       <c r="E131" t="s">
         <v>2</v>
@@ -7143,16 +7203,16 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>1352</v>
+        <v>983</v>
       </c>
       <c r="B132" t="s">
-        <v>1353</v>
+        <v>984</v>
       </c>
       <c r="C132" t="s">
         <v>232</v>
       </c>
       <c r="D132">
-        <v>427190</v>
+        <v>91310</v>
       </c>
       <c r="E132" t="s">
         <v>2</v>
@@ -7163,13 +7223,16 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>114</v>
+        <v>1352</v>
       </c>
       <c r="B133" t="s">
-        <v>115</v>
+        <v>1353</v>
       </c>
       <c r="C133" t="s">
-        <v>1</v>
+        <v>232</v>
+      </c>
+      <c r="D133">
+        <v>427190</v>
       </c>
       <c r="E133" t="s">
         <v>2</v>
@@ -7183,13 +7246,10 @@
         <v>114</v>
       </c>
       <c r="B134" t="s">
-        <v>516</v>
+        <v>115</v>
       </c>
       <c r="C134" t="s">
-        <v>232</v>
-      </c>
-      <c r="D134">
-        <v>17470</v>
+        <v>1</v>
       </c>
       <c r="E134" t="s">
         <v>2</v>
@@ -7200,13 +7260,16 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B135" t="s">
-        <v>109</v>
+        <v>516</v>
       </c>
       <c r="C135" t="s">
-        <v>1</v>
+        <v>232</v>
+      </c>
+      <c r="D135">
+        <v>17470</v>
       </c>
       <c r="E135" t="s">
         <v>2</v>
@@ -7217,10 +7280,10 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B136" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C136" t="s">
         <v>1</v>
@@ -7234,16 +7297,13 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>583</v>
+        <v>116</v>
       </c>
       <c r="B137" t="s">
-        <v>584</v>
+        <v>117</v>
       </c>
       <c r="C137" t="s">
-        <v>232</v>
-      </c>
-      <c r="D137">
-        <v>284460</v>
+        <v>1</v>
       </c>
       <c r="E137" t="s">
         <v>2</v>
@@ -7254,16 +7314,16 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>996</v>
+        <v>583</v>
       </c>
       <c r="B138" t="s">
-        <v>997</v>
+        <v>584</v>
       </c>
       <c r="C138" t="s">
         <v>232</v>
       </c>
       <c r="D138">
-        <v>211400</v>
+        <v>284460</v>
       </c>
       <c r="E138" t="s">
         <v>2</v>
@@ -7274,13 +7334,16 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>70</v>
+        <v>996</v>
       </c>
       <c r="B139" t="s">
-        <v>71</v>
+        <v>997</v>
       </c>
       <c r="C139" t="s">
-        <v>25</v>
+        <v>232</v>
+      </c>
+      <c r="D139">
+        <v>211400</v>
       </c>
       <c r="E139" t="s">
         <v>2</v>
@@ -7291,16 +7354,13 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>425</v>
+        <v>70</v>
       </c>
       <c r="B140" t="s">
-        <v>426</v>
+        <v>71</v>
       </c>
       <c r="C140" t="s">
-        <v>232</v>
-      </c>
-      <c r="D140">
-        <v>358270</v>
+        <v>25</v>
       </c>
       <c r="E140" t="s">
         <v>2</v>
@@ -7311,16 +7371,16 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>886</v>
+        <v>425</v>
       </c>
       <c r="B141" t="s">
-        <v>887</v>
+        <v>426</v>
       </c>
       <c r="C141" t="s">
         <v>232</v>
       </c>
       <c r="D141">
-        <v>325090</v>
+        <v>358270</v>
       </c>
       <c r="E141" t="s">
         <v>2</v>
@@ -7331,16 +7391,16 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>1221</v>
+        <v>886</v>
       </c>
       <c r="B142" t="s">
-        <v>1222</v>
+        <v>887</v>
       </c>
       <c r="C142" t="s">
         <v>232</v>
       </c>
       <c r="D142">
-        <v>493650</v>
+        <v>325090</v>
       </c>
       <c r="E142" t="s">
         <v>2</v>
@@ -7351,16 +7411,16 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>647</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>1385</v>
+        <v>1221</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1222</v>
       </c>
       <c r="C143" t="s">
         <v>232</v>
       </c>
       <c r="D143">
-        <v>356280</v>
+        <v>493650</v>
       </c>
       <c r="E143" t="s">
         <v>2</v>
@@ -7371,16 +7431,16 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>534</v>
+        <v>647</v>
       </c>
       <c r="B144" t="s">
-        <v>535</v>
+        <v>1385</v>
       </c>
       <c r="C144" t="s">
         <v>232</v>
       </c>
       <c r="D144">
-        <v>28050</v>
+        <v>356280</v>
       </c>
       <c r="E144" t="s">
         <v>2</v>
@@ -7391,16 +7451,16 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>1047</v>
+        <v>534</v>
       </c>
       <c r="B145" t="s">
-        <v>1048</v>
+        <v>535</v>
       </c>
       <c r="C145" t="s">
         <v>232</v>
       </c>
       <c r="D145">
-        <v>6550</v>
+        <v>28050</v>
       </c>
       <c r="E145" t="s">
         <v>2</v>
@@ -7411,56 +7471,56 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>816</v>
+        <v>1047</v>
       </c>
       <c r="B146" t="s">
-        <v>817</v>
+        <v>1048</v>
       </c>
       <c r="C146" t="s">
         <v>232</v>
       </c>
       <c r="D146">
-        <v>44320</v>
+        <v>6550</v>
       </c>
       <c r="E146" t="s">
         <v>2</v>
       </c>
       <c r="F146" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B147" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C147" t="s">
         <v>232</v>
       </c>
       <c r="D147">
-        <v>321040</v>
+        <v>44320</v>
       </c>
       <c r="E147" t="s">
         <v>2</v>
       </c>
       <c r="F147" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>1314</v>
+        <v>818</v>
       </c>
       <c r="B148" t="s">
-        <v>1315</v>
+        <v>819</v>
       </c>
       <c r="C148" t="s">
         <v>232</v>
       </c>
       <c r="D148">
-        <v>310560</v>
+        <v>321040</v>
       </c>
       <c r="E148" t="s">
         <v>2</v>
@@ -7471,16 +7531,16 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>728</v>
+        <v>1314</v>
       </c>
       <c r="B149" t="s">
-        <v>729</v>
+        <v>1315</v>
       </c>
       <c r="C149" t="s">
         <v>232</v>
       </c>
       <c r="D149">
-        <v>201700</v>
+        <v>310560</v>
       </c>
       <c r="E149" t="s">
         <v>2</v>
@@ -7491,16 +7551,16 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>985</v>
+        <v>728</v>
       </c>
       <c r="B150" t="s">
-        <v>986</v>
+        <v>729</v>
       </c>
       <c r="C150" t="s">
         <v>232</v>
       </c>
       <c r="D150">
-        <v>205100</v>
+        <v>201700</v>
       </c>
       <c r="E150" t="s">
         <v>2</v>
@@ -7511,56 +7571,56 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>856</v>
+        <v>985</v>
       </c>
       <c r="B151" t="s">
-        <v>857</v>
+        <v>986</v>
       </c>
       <c r="C151" t="s">
         <v>232</v>
       </c>
       <c r="D151">
-        <v>227260</v>
+        <v>205100</v>
       </c>
       <c r="E151" t="s">
         <v>2</v>
       </c>
       <c r="F151" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>1096</v>
+        <v>856</v>
       </c>
       <c r="B152" t="s">
-        <v>1097</v>
+        <v>857</v>
       </c>
       <c r="C152" t="s">
         <v>232</v>
       </c>
       <c r="D152">
-        <v>569610</v>
+        <v>227260</v>
       </c>
       <c r="E152" t="s">
         <v>2</v>
       </c>
       <c r="F152" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>746</v>
+        <v>1096</v>
       </c>
       <c r="B153" t="s">
-        <v>747</v>
+        <v>1097</v>
       </c>
       <c r="C153" t="s">
         <v>232</v>
       </c>
       <c r="D153">
-        <v>220440</v>
+        <v>569610</v>
       </c>
       <c r="E153" t="s">
         <v>2</v>
@@ -7571,16 +7631,16 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>1362</v>
+        <v>746</v>
       </c>
       <c r="B154" t="s">
-        <v>1363</v>
+        <v>747</v>
       </c>
       <c r="C154" t="s">
         <v>232</v>
       </c>
       <c r="D154">
-        <v>379720</v>
+        <v>220440</v>
       </c>
       <c r="E154" t="s">
         <v>2</v>
@@ -7591,16 +7651,16 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>988</v>
+        <v>1362</v>
       </c>
       <c r="B155" t="s">
-        <v>989</v>
+        <v>1363</v>
       </c>
       <c r="C155" t="s">
         <v>232</v>
       </c>
       <c r="D155">
-        <v>208200</v>
+        <v>379720</v>
       </c>
       <c r="E155" t="s">
         <v>2</v>
@@ -7611,50 +7671,53 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>987</v>
+        <v>988</v>
+      </c>
+      <c r="B156" t="s">
+        <v>989</v>
       </c>
       <c r="C156" t="s">
         <v>232</v>
       </c>
       <c r="D156">
-        <v>205790</v>
+        <v>208200</v>
       </c>
       <c r="E156" t="s">
         <v>2</v>
       </c>
       <c r="F156" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B157" t="s">
-        <v>1026</v>
+        <v>987</v>
       </c>
       <c r="C157" t="s">
         <v>232</v>
       </c>
       <c r="D157">
-        <v>252350</v>
+        <v>205790</v>
       </c>
       <c r="E157" t="s">
         <v>2</v>
       </c>
       <c r="F157" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>0</v>
+        <v>1025</v>
       </c>
       <c r="B158" t="s">
-        <v>1375</v>
+        <v>1026</v>
       </c>
       <c r="C158" t="s">
-        <v>1</v>
+        <v>232</v>
+      </c>
+      <c r="D158">
+        <v>252350</v>
       </c>
       <c r="E158" t="s">
         <v>2</v>
@@ -7665,13 +7728,13 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="B159" t="s">
-        <v>152</v>
+        <v>1375</v>
       </c>
       <c r="C159" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E159" t="s">
         <v>2</v>
@@ -7682,16 +7745,13 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>333</v>
+        <v>151</v>
       </c>
       <c r="B160" t="s">
-        <v>334</v>
+        <v>152</v>
       </c>
       <c r="C160" t="s">
-        <v>232</v>
-      </c>
-      <c r="D160">
-        <v>502140</v>
+        <v>25</v>
       </c>
       <c r="E160" t="s">
         <v>2</v>
@@ -7702,16 +7762,16 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>774</v>
+        <v>333</v>
       </c>
       <c r="B161" t="s">
-        <v>775</v>
+        <v>334</v>
       </c>
       <c r="C161" t="s">
         <v>232</v>
       </c>
       <c r="D161">
-        <v>296870</v>
+        <v>502140</v>
       </c>
       <c r="E161" t="s">
         <v>2</v>
@@ -7722,16 +7782,16 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>637</v>
+        <v>774</v>
       </c>
       <c r="B162" t="s">
-        <v>638</v>
+        <v>775</v>
       </c>
       <c r="C162" t="s">
         <v>232</v>
       </c>
       <c r="D162">
-        <v>514970</v>
+        <v>296870</v>
       </c>
       <c r="E162" t="s">
         <v>2</v>
@@ -7742,16 +7802,16 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>951</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>1379</v>
+        <v>637</v>
+      </c>
+      <c r="B163" t="s">
+        <v>638</v>
       </c>
       <c r="C163" t="s">
         <v>232</v>
       </c>
       <c r="D163">
-        <v>21780</v>
+        <v>514970</v>
       </c>
       <c r="E163" t="s">
         <v>2</v>
@@ -7762,16 +7822,16 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>631</v>
+        <v>951</v>
       </c>
       <c r="B164" t="s">
-        <v>632</v>
+        <v>1379</v>
       </c>
       <c r="C164" t="s">
         <v>232</v>
       </c>
       <c r="D164">
-        <v>456780</v>
+        <v>21780</v>
       </c>
       <c r="E164" t="s">
         <v>2</v>
@@ -7782,13 +7842,16 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>3</v>
+        <v>631</v>
       </c>
       <c r="B165" t="s">
-        <v>4</v>
+        <v>632</v>
       </c>
       <c r="C165" t="s">
-        <v>1</v>
+        <v>232</v>
+      </c>
+      <c r="D165">
+        <v>456780</v>
       </c>
       <c r="E165" t="s">
         <v>2</v>
@@ -7799,16 +7862,13 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>613</v>
+        <v>3</v>
       </c>
       <c r="B166" t="s">
-        <v>614</v>
+        <v>4</v>
       </c>
       <c r="C166" t="s">
-        <v>232</v>
-      </c>
-      <c r="D166">
-        <v>383230</v>
+        <v>1</v>
       </c>
       <c r="E166" t="s">
         <v>2</v>
@@ -7819,16 +7879,16 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>1322</v>
+        <v>613</v>
       </c>
       <c r="B167" t="s">
-        <v>1323</v>
+        <v>614</v>
       </c>
       <c r="C167" t="s">
         <v>232</v>
       </c>
       <c r="D167">
-        <v>239140</v>
+        <v>383230</v>
       </c>
       <c r="E167" t="s">
         <v>2</v>
@@ -7839,16 +7899,16 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>625</v>
+        <v>1322</v>
       </c>
       <c r="B168" t="s">
-        <v>626</v>
+        <v>1323</v>
       </c>
       <c r="C168" t="s">
         <v>232</v>
       </c>
       <c r="D168">
-        <v>403560</v>
+        <v>239140</v>
       </c>
       <c r="E168" t="s">
         <v>2</v>
@@ -7859,16 +7919,16 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>1145</v>
+        <v>625</v>
       </c>
       <c r="B169" t="s">
-        <v>1146</v>
+        <v>626</v>
       </c>
       <c r="C169" t="s">
         <v>232</v>
       </c>
       <c r="D169">
-        <v>38740</v>
+        <v>403560</v>
       </c>
       <c r="E169" t="s">
         <v>2</v>
@@ -7879,16 +7939,16 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>272</v>
+        <v>1145</v>
       </c>
       <c r="B170" t="s">
-        <v>273</v>
+        <v>1146</v>
       </c>
       <c r="C170" t="s">
         <v>232</v>
       </c>
       <c r="D170">
-        <v>245280</v>
+        <v>38740</v>
       </c>
       <c r="E170" t="s">
         <v>2</v>
@@ -7899,16 +7959,16 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>502</v>
+        <v>272</v>
       </c>
       <c r="B171" t="s">
-        <v>503</v>
+        <v>273</v>
       </c>
       <c r="C171" t="s">
         <v>232</v>
       </c>
       <c r="D171">
-        <v>382050</v>
+        <v>245280</v>
       </c>
       <c r="E171" t="s">
         <v>2</v>
@@ -7919,16 +7979,16 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>430</v>
+        <v>502</v>
       </c>
       <c r="B172" t="s">
-        <v>431</v>
+        <v>503</v>
       </c>
       <c r="C172" t="s">
         <v>232</v>
       </c>
       <c r="D172">
-        <v>363490</v>
+        <v>382050</v>
       </c>
       <c r="E172" t="s">
         <v>2</v>
@@ -7939,16 +7999,16 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>579</v>
+        <v>430</v>
       </c>
       <c r="B173" t="s">
-        <v>580</v>
+        <v>431</v>
       </c>
       <c r="C173" t="s">
         <v>232</v>
       </c>
       <c r="D173">
-        <v>266330</v>
+        <v>363490</v>
       </c>
       <c r="E173" t="s">
         <v>2</v>
@@ -7959,16 +8019,16 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>768</v>
+        <v>579</v>
       </c>
       <c r="B174" t="s">
-        <v>769</v>
+        <v>580</v>
       </c>
       <c r="C174" t="s">
         <v>232</v>
       </c>
       <c r="D174">
-        <v>270770</v>
+        <v>266330</v>
       </c>
       <c r="E174" t="s">
         <v>2</v>
@@ -7979,16 +8039,16 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>872</v>
+        <v>768</v>
       </c>
       <c r="B175" t="s">
-        <v>873</v>
+        <v>769</v>
       </c>
       <c r="C175" t="s">
         <v>232</v>
       </c>
       <c r="D175">
-        <v>270790</v>
+        <v>270770</v>
       </c>
       <c r="E175" t="s">
         <v>2</v>
@@ -7999,16 +8059,16 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>750</v>
+        <v>872</v>
       </c>
       <c r="B176" t="s">
-        <v>751</v>
+        <v>873</v>
       </c>
       <c r="C176" t="s">
         <v>232</v>
       </c>
       <c r="D176">
-        <v>232010</v>
+        <v>270790</v>
       </c>
       <c r="E176" t="s">
         <v>2</v>
@@ -8019,16 +8079,16 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>1280</v>
+        <v>750</v>
       </c>
       <c r="B177" t="s">
-        <v>1281</v>
+        <v>751</v>
       </c>
       <c r="C177" t="s">
         <v>232</v>
       </c>
       <c r="D177">
-        <v>227300</v>
+        <v>232010</v>
       </c>
       <c r="E177" t="s">
         <v>2</v>
@@ -8039,16 +8099,16 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>1257</v>
+        <v>1280</v>
       </c>
       <c r="B178" t="s">
-        <v>1258</v>
+        <v>1281</v>
       </c>
       <c r="C178" t="s">
         <v>232</v>
       </c>
       <c r="D178">
-        <v>33680</v>
+        <v>227300</v>
       </c>
       <c r="E178" t="s">
         <v>2</v>
@@ -8059,16 +8119,16 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>458</v>
+        <v>1257</v>
       </c>
       <c r="B179" t="s">
-        <v>459</v>
+        <v>1258</v>
       </c>
       <c r="C179" t="s">
         <v>232</v>
       </c>
       <c r="D179">
-        <v>273350</v>
+        <v>33680</v>
       </c>
       <c r="E179" t="s">
         <v>2</v>
@@ -8079,16 +8139,16 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>969</v>
+        <v>458</v>
       </c>
       <c r="B180" t="s">
-        <v>970</v>
+        <v>459</v>
       </c>
       <c r="C180" t="s">
         <v>232</v>
       </c>
       <c r="D180">
-        <v>21090</v>
+        <v>273350</v>
       </c>
       <c r="E180" t="s">
         <v>2</v>
@@ -8099,16 +8159,16 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>242</v>
+        <v>969</v>
       </c>
       <c r="B181" t="s">
-        <v>243</v>
+        <v>970</v>
       </c>
       <c r="C181" t="s">
         <v>232</v>
       </c>
       <c r="D181">
-        <v>16450</v>
+        <v>21090</v>
       </c>
       <c r="E181" t="s">
         <v>2</v>
@@ -8119,16 +8179,16 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>530</v>
+        <v>242</v>
       </c>
       <c r="B182" t="s">
-        <v>531</v>
+        <v>243</v>
       </c>
       <c r="C182" t="s">
         <v>232</v>
       </c>
       <c r="D182">
-        <v>21100</v>
+        <v>16450</v>
       </c>
       <c r="E182" t="s">
         <v>2</v>
@@ -8139,36 +8199,36 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>971</v>
+        <v>530</v>
       </c>
       <c r="B183" t="s">
-        <v>972</v>
+        <v>531</v>
       </c>
       <c r="C183" t="s">
         <v>232</v>
       </c>
       <c r="D183">
-        <v>21110</v>
+        <v>21100</v>
       </c>
       <c r="E183" t="s">
         <v>2</v>
       </c>
       <c r="F183" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>239</v>
+        <v>971</v>
       </c>
       <c r="B184" t="s">
-        <v>240</v>
+        <v>972</v>
       </c>
       <c r="C184" t="s">
         <v>232</v>
       </c>
       <c r="D184">
-        <v>21120</v>
+        <v>21110</v>
       </c>
       <c r="E184" t="s">
         <v>2</v>
@@ -8179,36 +8239,36 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>1275</v>
+        <v>239</v>
       </c>
       <c r="B185" t="s">
-        <v>1276</v>
+        <v>240</v>
       </c>
       <c r="C185" t="s">
         <v>232</v>
       </c>
       <c r="D185">
-        <v>208500</v>
+        <v>21120</v>
       </c>
       <c r="E185" t="s">
         <v>2</v>
       </c>
       <c r="F185" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>388</v>
+        <v>1275</v>
       </c>
       <c r="B186" t="s">
-        <v>389</v>
+        <v>1276</v>
       </c>
       <c r="C186" t="s">
         <v>232</v>
       </c>
       <c r="D186">
-        <v>223670</v>
+        <v>208500</v>
       </c>
       <c r="E186" t="s">
         <v>2</v>
@@ -8219,16 +8279,16 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>585</v>
+        <v>388</v>
       </c>
       <c r="B187" t="s">
-        <v>586</v>
+        <v>389</v>
       </c>
       <c r="C187" t="s">
         <v>232</v>
       </c>
       <c r="D187">
-        <v>286570</v>
+        <v>223670</v>
       </c>
       <c r="E187" t="s">
         <v>2</v>
@@ -8239,16 +8299,16 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>442</v>
+        <v>585</v>
       </c>
       <c r="B188" t="s">
-        <v>443</v>
+        <v>586</v>
       </c>
       <c r="C188" t="s">
         <v>232</v>
       </c>
       <c r="D188">
-        <v>391040</v>
+        <v>286570</v>
       </c>
       <c r="E188" t="s">
         <v>2</v>
@@ -8259,16 +8319,16 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>1250</v>
+        <v>442</v>
       </c>
       <c r="B189" t="s">
-        <v>1251</v>
+        <v>443</v>
       </c>
       <c r="C189" t="s">
         <v>232</v>
       </c>
       <c r="D189">
-        <v>737800</v>
+        <v>391040</v>
       </c>
       <c r="E189" t="s">
         <v>2</v>
@@ -8279,16 +8339,16 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>844</v>
+        <v>1250</v>
       </c>
       <c r="B190" t="s">
-        <v>845</v>
+        <v>1251</v>
       </c>
       <c r="C190" t="s">
         <v>232</v>
       </c>
       <c r="D190">
-        <v>203680</v>
+        <v>737800</v>
       </c>
       <c r="E190" t="s">
         <v>2</v>
@@ -8299,16 +8359,16 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>1173</v>
+        <v>844</v>
       </c>
       <c r="B191" t="s">
-        <v>1174</v>
+        <v>845</v>
       </c>
       <c r="C191" t="s">
         <v>232</v>
       </c>
       <c r="D191">
-        <v>312840</v>
+        <v>203680</v>
       </c>
       <c r="E191" t="s">
         <v>2</v>
@@ -8319,16 +8379,16 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>526</v>
+        <v>1173</v>
       </c>
       <c r="B192" t="s">
-        <v>527</v>
+        <v>1174</v>
       </c>
       <c r="C192" t="s">
         <v>232</v>
       </c>
       <c r="D192">
-        <v>22370</v>
+        <v>312840</v>
       </c>
       <c r="E192" t="s">
         <v>2</v>
@@ -8339,16 +8399,16 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>967</v>
+        <v>526</v>
       </c>
       <c r="B193" t="s">
-        <v>968</v>
+        <v>527</v>
       </c>
       <c r="C193" t="s">
         <v>232</v>
       </c>
       <c r="D193">
-        <v>22380</v>
+        <v>22370</v>
       </c>
       <c r="E193" t="s">
         <v>2</v>
@@ -8359,16 +8419,16 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>672</v>
+        <v>967</v>
       </c>
       <c r="B194" t="s">
-        <v>673</v>
+        <v>968</v>
       </c>
       <c r="C194" t="s">
         <v>232</v>
       </c>
       <c r="D194">
-        <v>13520</v>
+        <v>22380</v>
       </c>
       <c r="E194" t="s">
         <v>2</v>
@@ -8379,16 +8439,16 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>702</v>
+        <v>672</v>
       </c>
       <c r="B195" t="s">
-        <v>703</v>
+        <v>673</v>
       </c>
       <c r="C195" t="s">
         <v>232</v>
       </c>
       <c r="D195">
-        <v>19900</v>
+        <v>13520</v>
       </c>
       <c r="E195" t="s">
         <v>2</v>
@@ -8399,13 +8459,16 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>85</v>
+        <v>702</v>
       </c>
       <c r="B196" t="s">
-        <v>86</v>
+        <v>703</v>
       </c>
       <c r="C196" t="s">
-        <v>58</v>
+        <v>232</v>
+      </c>
+      <c r="D196">
+        <v>19900</v>
       </c>
       <c r="E196" t="s">
         <v>2</v>
@@ -8422,44 +8485,44 @@
         <v>86</v>
       </c>
       <c r="C197" t="s">
-        <v>194</v>
+        <v>58</v>
       </c>
       <c r="E197" t="s">
-        <v>195</v>
+        <v>2</v>
       </c>
       <c r="F197" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>1240</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>1372</v>
+        <v>85</v>
+      </c>
+      <c r="B198" t="s">
+        <v>86</v>
       </c>
       <c r="C198" t="s">
-        <v>232</v>
-      </c>
-      <c r="D198">
-        <v>552520</v>
+        <v>194</v>
       </c>
       <c r="E198" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="F198" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>87</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>1374</v>
+        <v>1240</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1372</v>
       </c>
       <c r="C199" t="s">
-        <v>58</v>
+        <v>232</v>
+      </c>
+      <c r="D199">
+        <v>552520</v>
       </c>
       <c r="E199" t="s">
         <v>2</v>
@@ -8470,10 +8533,10 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>88</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>1373</v>
+        <v>87</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1374</v>
       </c>
       <c r="C200" t="s">
         <v>58</v>
@@ -8487,16 +8550,13 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>842</v>
+        <v>88</v>
       </c>
       <c r="B201" t="s">
-        <v>843</v>
+        <v>1373</v>
       </c>
       <c r="C201" t="s">
-        <v>232</v>
-      </c>
-      <c r="D201">
-        <v>220240</v>
+        <v>58</v>
       </c>
       <c r="E201" t="s">
         <v>2</v>
@@ -8507,16 +8567,16 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>298</v>
+        <v>842</v>
       </c>
       <c r="B202" t="s">
-        <v>299</v>
+        <v>843</v>
       </c>
       <c r="C202" t="s">
         <v>232</v>
       </c>
       <c r="D202">
-        <v>313160</v>
+        <v>220240</v>
       </c>
       <c r="E202" t="s">
         <v>2</v>
@@ -8527,13 +8587,16 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>76</v>
+        <v>298</v>
       </c>
       <c r="B203" t="s">
-        <v>77</v>
+        <v>299</v>
       </c>
       <c r="C203" t="s">
-        <v>25</v>
+        <v>232</v>
+      </c>
+      <c r="D203">
+        <v>313160</v>
       </c>
       <c r="E203" t="s">
         <v>2</v>
@@ -8544,16 +8607,13 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>1308</v>
+        <v>76</v>
       </c>
       <c r="B204" t="s">
-        <v>1309</v>
+        <v>77</v>
       </c>
       <c r="C204" t="s">
-        <v>232</v>
-      </c>
-      <c r="D204">
-        <v>276890</v>
+        <v>25</v>
       </c>
       <c r="E204" t="s">
         <v>2</v>
@@ -8564,16 +8624,16 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>1286</v>
+        <v>1308</v>
       </c>
       <c r="B205" t="s">
-        <v>1287</v>
+        <v>1309</v>
       </c>
       <c r="C205" t="s">
         <v>232</v>
       </c>
       <c r="D205">
-        <v>224760</v>
+        <v>276890</v>
       </c>
       <c r="E205" t="s">
         <v>2</v>
@@ -8584,13 +8644,16 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>9</v>
+        <v>1286</v>
       </c>
       <c r="B206" t="s">
-        <v>10</v>
+        <v>1287</v>
       </c>
       <c r="C206" t="s">
-        <v>1</v>
+        <v>232</v>
+      </c>
+      <c r="D206">
+        <v>224760</v>
       </c>
       <c r="E206" t="s">
         <v>2</v>
@@ -8601,10 +8664,10 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C207" t="s">
         <v>1</v>
@@ -8618,10 +8681,10 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C208" t="s">
         <v>1</v>
@@ -8635,10 +8698,10 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B209" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
         <v>1</v>
@@ -8652,16 +8715,13 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>752</v>
+        <v>11</v>
       </c>
       <c r="B210" t="s">
-        <v>753</v>
+        <v>12</v>
       </c>
       <c r="C210" t="s">
-        <v>232</v>
-      </c>
-      <c r="D210">
-        <v>39140</v>
+        <v>1</v>
       </c>
       <c r="E210" t="s">
         <v>2</v>
@@ -8672,16 +8732,16 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>1031</v>
+        <v>752</v>
       </c>
       <c r="B211" t="s">
-        <v>1032</v>
+        <v>753</v>
       </c>
       <c r="C211" t="s">
         <v>232</v>
       </c>
       <c r="D211">
-        <v>39150</v>
+        <v>39140</v>
       </c>
       <c r="E211" t="s">
         <v>2</v>
@@ -8692,16 +8752,19 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>178</v>
+        <v>1031</v>
       </c>
       <c r="B212" t="s">
-        <v>179</v>
+        <v>1032</v>
       </c>
       <c r="C212" t="s">
-        <v>163</v>
+        <v>232</v>
+      </c>
+      <c r="D212">
+        <v>39150</v>
       </c>
       <c r="E212" t="s">
-        <v>171</v>
+        <v>2</v>
       </c>
       <c r="F212" t="s">
         <v>230</v>
@@ -8709,19 +8772,16 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>1231</v>
+        <v>178</v>
       </c>
       <c r="B213" t="s">
-        <v>1232</v>
+        <v>179</v>
       </c>
       <c r="C213" t="s">
-        <v>232</v>
-      </c>
-      <c r="D213">
-        <v>512640</v>
+        <v>163</v>
       </c>
       <c r="E213" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="F213" t="s">
         <v>230</v>
@@ -8729,16 +8789,16 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B214" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C214" t="s">
         <v>232</v>
       </c>
       <c r="D214">
-        <v>540020</v>
+        <v>512640</v>
       </c>
       <c r="E214" t="s">
         <v>2</v>
@@ -8749,16 +8809,16 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>654</v>
+        <v>1233</v>
       </c>
       <c r="B215" t="s">
-        <v>655</v>
+        <v>1234</v>
       </c>
       <c r="C215" t="s">
         <v>232</v>
       </c>
       <c r="D215">
-        <v>2990</v>
+        <v>540020</v>
       </c>
       <c r="E215" t="s">
         <v>2</v>
@@ -8769,16 +8829,16 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>1209</v>
+        <v>654</v>
       </c>
       <c r="B216" t="s">
-        <v>1210</v>
+        <v>655</v>
       </c>
       <c r="C216" t="s">
         <v>232</v>
       </c>
       <c r="D216">
-        <v>383580</v>
+        <v>2990</v>
       </c>
       <c r="E216" t="s">
         <v>2</v>
@@ -8789,16 +8849,16 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>1241</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>1380</v>
+        <v>1209</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1210</v>
       </c>
       <c r="C217" t="s">
         <v>232</v>
       </c>
       <c r="D217">
-        <v>304390</v>
+        <v>383580</v>
       </c>
       <c r="E217" t="s">
         <v>2</v>
@@ -8809,56 +8869,59 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B218" t="s">
-        <v>1243</v>
+        <v>1380</v>
       </c>
       <c r="C218" t="s">
         <v>232</v>
       </c>
       <c r="D218">
-        <v>654310</v>
+        <v>304390</v>
       </c>
       <c r="E218" t="s">
         <v>2</v>
       </c>
       <c r="F218" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>958</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>1386</v>
+        <v>1242</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1243</v>
       </c>
       <c r="C219" t="s">
         <v>232</v>
       </c>
       <c r="D219">
-        <v>334210</v>
+        <v>654310</v>
       </c>
       <c r="E219" t="s">
         <v>2</v>
       </c>
       <c r="F219" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>172</v>
+        <v>958</v>
       </c>
       <c r="B220" t="s">
-        <v>173</v>
+        <v>1386</v>
       </c>
       <c r="C220" t="s">
-        <v>163</v>
+        <v>232</v>
+      </c>
+      <c r="D220">
+        <v>334210</v>
       </c>
       <c r="E220" t="s">
-        <v>171</v>
+        <v>2</v>
       </c>
       <c r="F220" t="s">
         <v>230</v>
@@ -8866,10 +8929,10 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B221" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C221" t="s">
         <v>163</v>
@@ -8883,19 +8946,16 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>450</v>
+        <v>174</v>
       </c>
       <c r="B222" t="s">
-        <v>451</v>
+        <v>175</v>
       </c>
       <c r="C222" t="s">
-        <v>232</v>
-      </c>
-      <c r="D222">
-        <v>310380</v>
+        <v>163</v>
       </c>
       <c r="E222" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="F222" t="s">
         <v>230</v>
@@ -8903,33 +8963,36 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>1008</v>
+        <v>450</v>
       </c>
       <c r="B223" t="s">
-        <v>1009</v>
+        <v>451</v>
       </c>
       <c r="C223" t="s">
         <v>232</v>
       </c>
       <c r="D223">
-        <v>245550</v>
+        <v>310380</v>
       </c>
       <c r="E223" t="s">
         <v>2</v>
       </c>
       <c r="F223" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>1010</v>
+        <v>1008</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1009</v>
       </c>
       <c r="C224" t="s">
         <v>232</v>
       </c>
       <c r="D224">
-        <v>343450</v>
+        <v>245550</v>
       </c>
       <c r="E224" t="s">
         <v>2</v>
@@ -8940,36 +9003,33 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>456</v>
-      </c>
-      <c r="B225" t="s">
-        <v>457</v>
+        <v>1010</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
       </c>
       <c r="D225">
-        <v>487220</v>
+        <v>343450</v>
       </c>
       <c r="E225" t="s">
         <v>2</v>
       </c>
       <c r="F225" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>258</v>
+        <v>456</v>
       </c>
       <c r="B226" t="s">
-        <v>259</v>
+        <v>457</v>
       </c>
       <c r="C226" t="s">
         <v>232</v>
       </c>
       <c r="D226">
-        <v>214150</v>
+        <v>487220</v>
       </c>
       <c r="E226" t="s">
         <v>2</v>
@@ -8980,16 +9040,16 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>375</v>
+        <v>258</v>
       </c>
       <c r="B227" t="s">
-        <v>376</v>
+        <v>259</v>
       </c>
       <c r="C227" t="s">
         <v>232</v>
       </c>
       <c r="D227">
-        <v>202200</v>
+        <v>214150</v>
       </c>
       <c r="E227" t="s">
         <v>2</v>
@@ -9000,16 +9060,16 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>1348</v>
+        <v>375</v>
       </c>
       <c r="B228" t="s">
-        <v>1349</v>
+        <v>376</v>
       </c>
       <c r="C228" t="s">
         <v>232</v>
       </c>
       <c r="D228">
-        <v>399670</v>
+        <v>202200</v>
       </c>
       <c r="E228" t="s">
         <v>2</v>
@@ -9020,16 +9080,16 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>270</v>
+        <v>1348</v>
       </c>
       <c r="B229" t="s">
-        <v>271</v>
+        <v>1349</v>
       </c>
       <c r="C229" t="s">
         <v>232</v>
       </c>
       <c r="D229">
-        <v>239820</v>
+        <v>399670</v>
       </c>
       <c r="E229" t="s">
         <v>2</v>
@@ -9040,56 +9100,56 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>454</v>
+        <v>270</v>
       </c>
       <c r="B230" t="s">
-        <v>455</v>
+        <v>271</v>
       </c>
       <c r="C230" t="s">
         <v>232</v>
       </c>
       <c r="D230">
-        <v>214850</v>
+        <v>239820</v>
       </c>
       <c r="E230" t="s">
         <v>2</v>
       </c>
       <c r="F230" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>652</v>
+        <v>454</v>
       </c>
       <c r="B231" t="s">
-        <v>653</v>
+        <v>455</v>
       </c>
       <c r="C231" t="s">
         <v>232</v>
       </c>
       <c r="D231">
-        <v>4000</v>
+        <v>214850</v>
       </c>
       <c r="E231" t="s">
         <v>2</v>
       </c>
       <c r="F231" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>1298</v>
+        <v>652</v>
       </c>
       <c r="B232" t="s">
-        <v>1299</v>
+        <v>653</v>
       </c>
       <c r="C232" t="s">
         <v>232</v>
       </c>
       <c r="D232">
-        <v>243800</v>
+        <v>4000</v>
       </c>
       <c r="E232" t="s">
         <v>2</v>
@@ -9100,16 +9160,16 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>780</v>
+        <v>1298</v>
       </c>
       <c r="B233" t="s">
-        <v>781</v>
+        <v>1299</v>
       </c>
       <c r="C233" t="s">
         <v>232</v>
       </c>
       <c r="D233">
-        <v>258970</v>
+        <v>243800</v>
       </c>
       <c r="E233" t="s">
         <v>2</v>
@@ -9120,16 +9180,19 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>169</v>
+        <v>780</v>
       </c>
       <c r="B234" t="s">
-        <v>170</v>
+        <v>781</v>
       </c>
       <c r="C234" t="s">
-        <v>163</v>
+        <v>232</v>
+      </c>
+      <c r="D234">
+        <v>258970</v>
       </c>
       <c r="E234" t="s">
-        <v>171</v>
+        <v>2</v>
       </c>
       <c r="F234" t="s">
         <v>230</v>
@@ -9137,19 +9200,16 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>338</v>
+        <v>169</v>
       </c>
       <c r="B235" t="s">
-        <v>339</v>
+        <v>170</v>
       </c>
       <c r="C235" t="s">
-        <v>232</v>
-      </c>
-      <c r="D235">
-        <v>557680</v>
+        <v>163</v>
       </c>
       <c r="E235" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="F235" t="s">
         <v>230</v>
@@ -9157,16 +9217,16 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>1055</v>
+        <v>338</v>
       </c>
       <c r="B236" t="s">
-        <v>1056</v>
+        <v>339</v>
       </c>
       <c r="C236" t="s">
         <v>232</v>
       </c>
       <c r="D236">
-        <v>352900</v>
+        <v>557680</v>
       </c>
       <c r="E236" t="s">
         <v>2</v>
@@ -9177,16 +9237,16 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>994</v>
+        <v>1055</v>
       </c>
       <c r="B237" t="s">
-        <v>995</v>
+        <v>1056</v>
       </c>
       <c r="C237" t="s">
         <v>232</v>
       </c>
       <c r="D237">
-        <v>223220</v>
+        <v>352900</v>
       </c>
       <c r="E237" t="s">
         <v>2</v>
@@ -9197,16 +9257,16 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>1053</v>
+        <v>994</v>
       </c>
       <c r="B238" t="s">
-        <v>1054</v>
+        <v>995</v>
       </c>
       <c r="C238" t="s">
         <v>232</v>
       </c>
       <c r="D238">
-        <v>341120</v>
+        <v>223220</v>
       </c>
       <c r="E238" t="s">
         <v>2</v>
@@ -9217,16 +9277,19 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>180</v>
+        <v>1053</v>
       </c>
       <c r="B239" t="s">
-        <v>181</v>
+        <v>1054</v>
       </c>
       <c r="C239" t="s">
-        <v>182</v>
+        <v>232</v>
+      </c>
+      <c r="D239">
+        <v>341120</v>
       </c>
       <c r="E239" t="s">
-        <v>183</v>
+        <v>2</v>
       </c>
       <c r="F239" t="s">
         <v>230</v>
@@ -9234,19 +9297,16 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>667</v>
+        <v>180</v>
       </c>
       <c r="B240" t="s">
-        <v>668</v>
+        <v>181</v>
       </c>
       <c r="C240" t="s">
-        <v>232</v>
-      </c>
-      <c r="D240">
-        <v>12100</v>
+        <v>182</v>
       </c>
       <c r="E240" t="s">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="F240" t="s">
         <v>230</v>
@@ -9257,53 +9317,53 @@
         <v>667</v>
       </c>
       <c r="B241" t="s">
-        <v>1245</v>
+        <v>668</v>
       </c>
       <c r="C241" t="s">
         <v>232</v>
       </c>
       <c r="D241">
-        <v>12230</v>
+        <v>12100</v>
       </c>
       <c r="E241" t="s">
         <v>2</v>
       </c>
       <c r="F241" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>235</v>
+        <v>667</v>
       </c>
       <c r="B242" t="s">
-        <v>236</v>
+        <v>1245</v>
       </c>
       <c r="C242" t="s">
         <v>232</v>
       </c>
       <c r="D242">
-        <v>12210</v>
+        <v>12230</v>
       </c>
       <c r="E242" t="s">
         <v>2</v>
       </c>
       <c r="F242" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>192</v>
+        <v>235</v>
       </c>
       <c r="B243" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="C243" t="s">
         <v>232</v>
       </c>
       <c r="D243">
-        <v>271590</v>
+        <v>12210</v>
       </c>
       <c r="E243" t="s">
         <v>2</v>
@@ -9320,10 +9380,13 @@
         <v>193</v>
       </c>
       <c r="C244" t="s">
-        <v>194</v>
+        <v>232</v>
+      </c>
+      <c r="D244">
+        <v>271590</v>
       </c>
       <c r="E244" t="s">
-        <v>183</v>
+        <v>2</v>
       </c>
       <c r="F244" t="s">
         <v>230</v>
@@ -9331,19 +9394,16 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="B245" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="C245" t="s">
-        <v>232</v>
-      </c>
-      <c r="D245">
-        <v>12220</v>
+        <v>194</v>
       </c>
       <c r="E245" t="s">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="F245" t="s">
         <v>230</v>
@@ -9351,16 +9411,16 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>188</v>
+        <v>237</v>
       </c>
       <c r="B246" t="s">
-        <v>669</v>
+        <v>238</v>
       </c>
       <c r="C246" t="s">
         <v>232</v>
       </c>
       <c r="D246">
-        <v>12120</v>
+        <v>12220</v>
       </c>
       <c r="E246" t="s">
         <v>2</v>
@@ -9374,13 +9434,16 @@
         <v>188</v>
       </c>
       <c r="B247" t="s">
-        <v>189</v>
+        <v>669</v>
       </c>
       <c r="C247" t="s">
-        <v>190</v>
+        <v>232</v>
+      </c>
+      <c r="D247">
+        <v>12120</v>
       </c>
       <c r="E247" t="s">
-        <v>191</v>
+        <v>2</v>
       </c>
       <c r="F247" t="s">
         <v>230</v>
@@ -9394,13 +9457,10 @@
         <v>189</v>
       </c>
       <c r="C248" t="s">
-        <v>232</v>
-      </c>
-      <c r="D248">
-        <v>12250</v>
+        <v>190</v>
       </c>
       <c r="E248" t="s">
-        <v>2</v>
+        <v>191</v>
       </c>
       <c r="F248" t="s">
         <v>230</v>
@@ -9408,16 +9468,16 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>1246</v>
+        <v>188</v>
       </c>
       <c r="B249" t="s">
-        <v>1247</v>
+        <v>189</v>
       </c>
       <c r="C249" t="s">
         <v>232</v>
       </c>
       <c r="D249">
-        <v>12240</v>
+        <v>12250</v>
       </c>
       <c r="E249" t="s">
         <v>2</v>
@@ -9431,13 +9491,13 @@
         <v>1246</v>
       </c>
       <c r="B250" t="s">
-        <v>1279</v>
+        <v>1247</v>
       </c>
       <c r="C250" t="s">
         <v>232</v>
       </c>
       <c r="D250">
-        <v>12110</v>
+        <v>12240</v>
       </c>
       <c r="E250" t="s">
         <v>2</v>
@@ -9448,16 +9508,16 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>1049</v>
+        <v>1246</v>
       </c>
       <c r="B251" t="s">
-        <v>1050</v>
+        <v>1279</v>
       </c>
       <c r="C251" t="s">
         <v>232</v>
       </c>
       <c r="D251">
-        <v>330390</v>
+        <v>12110</v>
       </c>
       <c r="E251" t="s">
         <v>2</v>
@@ -9468,16 +9528,16 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>698</v>
+        <v>1049</v>
       </c>
       <c r="B252" t="s">
-        <v>699</v>
+        <v>1050</v>
       </c>
       <c r="C252" t="s">
         <v>232</v>
       </c>
       <c r="D252">
-        <v>12750</v>
+        <v>330390</v>
       </c>
       <c r="E252" t="s">
         <v>2</v>
@@ -9488,16 +9548,16 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>868</v>
+        <v>698</v>
       </c>
       <c r="B253" t="s">
-        <v>869</v>
+        <v>699</v>
       </c>
       <c r="C253" t="s">
         <v>232</v>
       </c>
       <c r="D253">
-        <v>255220</v>
+        <v>12750</v>
       </c>
       <c r="E253" t="s">
         <v>2</v>
@@ -9508,13 +9568,16 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>62</v>
+        <v>868</v>
       </c>
       <c r="B254" t="s">
-        <v>63</v>
+        <v>869</v>
       </c>
       <c r="C254" t="s">
-        <v>25</v>
+        <v>232</v>
+      </c>
+      <c r="D254">
+        <v>255220</v>
       </c>
       <c r="E254" t="s">
         <v>2</v>
@@ -9531,10 +9594,7 @@
         <v>63</v>
       </c>
       <c r="C255" t="s">
-        <v>232</v>
-      </c>
-      <c r="D255">
-        <v>316790</v>
+        <v>25</v>
       </c>
       <c r="E255" t="s">
         <v>2</v>
@@ -9545,16 +9605,16 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>414</v>
+        <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>415</v>
+        <v>63</v>
       </c>
       <c r="C256" t="s">
         <v>232</v>
       </c>
       <c r="D256">
-        <v>323320</v>
+        <v>316790</v>
       </c>
       <c r="E256" t="s">
         <v>2</v>
@@ -9565,16 +9625,16 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>556</v>
+        <v>414</v>
       </c>
       <c r="B257" t="s">
-        <v>557</v>
+        <v>415</v>
       </c>
       <c r="C257" t="s">
         <v>232</v>
       </c>
       <c r="D257">
-        <v>8790</v>
+        <v>323320</v>
       </c>
       <c r="E257" t="s">
         <v>2</v>
@@ -9585,16 +9645,16 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>700</v>
+        <v>556</v>
       </c>
       <c r="B258" t="s">
-        <v>701</v>
+        <v>557</v>
       </c>
       <c r="C258" t="s">
         <v>232</v>
       </c>
       <c r="D258">
-        <v>8660</v>
+        <v>8790</v>
       </c>
       <c r="E258" t="s">
         <v>2</v>
@@ -9605,16 +9665,16 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>390</v>
+        <v>700</v>
       </c>
       <c r="B259" t="s">
-        <v>391</v>
+        <v>701</v>
       </c>
       <c r="C259" t="s">
         <v>232</v>
       </c>
       <c r="D259">
-        <v>111900</v>
+        <v>8660</v>
       </c>
       <c r="E259" t="s">
         <v>2</v>
@@ -9625,16 +9685,16 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>472</v>
+        <v>390</v>
       </c>
       <c r="B260" t="s">
-        <v>473</v>
+        <v>391</v>
       </c>
       <c r="C260" t="s">
         <v>232</v>
       </c>
       <c r="D260">
-        <v>608800</v>
+        <v>111900</v>
       </c>
       <c r="E260" t="s">
         <v>2</v>
@@ -9645,16 +9705,16 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>347</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>1391</v>
+        <v>472</v>
+      </c>
+      <c r="B261" t="s">
+        <v>473</v>
       </c>
       <c r="C261" t="s">
         <v>232</v>
       </c>
       <c r="D261">
-        <v>209080</v>
+        <v>608800</v>
       </c>
       <c r="E261" t="s">
         <v>2</v>
@@ -9665,16 +9725,16 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>587</v>
+        <v>347</v>
       </c>
       <c r="B262" t="s">
-        <v>588</v>
+        <v>1391</v>
       </c>
       <c r="C262" t="s">
         <v>232</v>
       </c>
       <c r="D262">
-        <v>433850</v>
+        <v>209080</v>
       </c>
       <c r="E262" t="s">
         <v>2</v>
@@ -9685,56 +9745,56 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>1041</v>
+        <v>587</v>
       </c>
       <c r="B263" t="s">
-        <v>1042</v>
+        <v>588</v>
       </c>
       <c r="C263" t="s">
         <v>232</v>
       </c>
       <c r="D263">
-        <v>439700</v>
+        <v>433850</v>
       </c>
       <c r="E263" t="s">
         <v>2</v>
       </c>
       <c r="F263" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>607</v>
+        <v>1041</v>
       </c>
       <c r="B264" t="s">
-        <v>608</v>
+        <v>1042</v>
       </c>
       <c r="C264" t="s">
         <v>232</v>
       </c>
       <c r="D264">
-        <v>365450</v>
+        <v>439700</v>
       </c>
       <c r="E264" t="s">
         <v>2</v>
       </c>
       <c r="F264" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>680</v>
+        <v>607</v>
       </c>
       <c r="B265" t="s">
-        <v>681</v>
+        <v>608</v>
       </c>
       <c r="C265" t="s">
         <v>232</v>
       </c>
       <c r="D265">
-        <v>70</v>
+        <v>365450</v>
       </c>
       <c r="E265" t="s">
         <v>2</v>
@@ -9745,16 +9805,16 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B266" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C266" t="s">
         <v>232</v>
       </c>
       <c r="D266">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="E266" t="s">
         <v>2</v>
@@ -9765,16 +9825,16 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B267" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="C267" t="s">
         <v>232</v>
       </c>
       <c r="D267">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="E267" t="s">
         <v>2</v>
@@ -9785,16 +9845,16 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="B268" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="C268" t="s">
         <v>232</v>
       </c>
       <c r="D268">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="E268" t="s">
         <v>2</v>
@@ -9805,16 +9865,16 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B269" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C269" t="s">
         <v>232</v>
       </c>
       <c r="D269">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="E269" t="s">
         <v>2</v>
@@ -9825,16 +9885,16 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="B270" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="C270" t="s">
         <v>232</v>
       </c>
       <c r="D270">
-        <v>340</v>
+        <v>420</v>
       </c>
       <c r="E270" t="s">
         <v>2</v>
@@ -9845,16 +9905,16 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B271" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C271" t="s">
         <v>232</v>
       </c>
       <c r="D271">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="E271" t="s">
         <v>2</v>
@@ -9865,16 +9925,16 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>682</v>
+        <v>692</v>
       </c>
       <c r="B272" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
       <c r="C272" t="s">
         <v>232</v>
       </c>
       <c r="D272">
-        <v>130</v>
+        <v>360</v>
       </c>
       <c r="E272" t="s">
         <v>2</v>
@@ -9885,16 +9945,16 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="B273" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="C273" t="s">
         <v>232</v>
       </c>
       <c r="D273">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="E273" t="s">
         <v>2</v>
@@ -9905,56 +9965,56 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="B274" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="C274" t="s">
         <v>232</v>
       </c>
       <c r="D274">
-        <v>280</v>
+        <v>50</v>
       </c>
       <c r="E274" t="s">
         <v>2</v>
       </c>
       <c r="F274" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>254</v>
+        <v>686</v>
       </c>
       <c r="B275" t="s">
-        <v>255</v>
+        <v>687</v>
       </c>
       <c r="C275" t="s">
         <v>232</v>
       </c>
       <c r="D275">
-        <v>98400</v>
+        <v>280</v>
       </c>
       <c r="E275" t="s">
         <v>2</v>
       </c>
       <c r="F275" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>1392</v>
+        <v>254</v>
+      </c>
+      <c r="B276" t="s">
+        <v>255</v>
       </c>
       <c r="C276" t="s">
         <v>232</v>
       </c>
       <c r="D276">
-        <v>331360</v>
+        <v>98400</v>
       </c>
       <c r="E276" t="s">
         <v>2</v>
@@ -9965,16 +10025,16 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>1356</v>
+        <v>1106</v>
       </c>
       <c r="B277" t="s">
-        <v>1357</v>
+        <v>1392</v>
       </c>
       <c r="C277" t="s">
         <v>232</v>
       </c>
       <c r="D277">
-        <v>205230</v>
+        <v>331360</v>
       </c>
       <c r="E277" t="s">
         <v>2</v>
@@ -9985,16 +10045,16 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>340</v>
+        <v>1356</v>
       </c>
       <c r="B278" t="s">
-        <v>341</v>
+        <v>1357</v>
       </c>
       <c r="C278" t="s">
         <v>232</v>
       </c>
       <c r="D278">
-        <v>414340</v>
+        <v>205230</v>
       </c>
       <c r="E278" t="s">
         <v>2</v>
@@ -10005,56 +10065,56 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>1102</v>
+        <v>340</v>
       </c>
       <c r="B279" t="s">
-        <v>1103</v>
+        <v>341</v>
       </c>
       <c r="C279" t="s">
         <v>232</v>
       </c>
       <c r="D279">
-        <v>747350</v>
+        <v>414340</v>
       </c>
       <c r="E279" t="s">
         <v>2</v>
       </c>
       <c r="F279" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>1065</v>
+        <v>1102</v>
       </c>
       <c r="B280" t="s">
-        <v>1066</v>
+        <v>1103</v>
       </c>
       <c r="C280" t="s">
         <v>232</v>
       </c>
       <c r="D280">
-        <v>368370</v>
+        <v>747350</v>
       </c>
       <c r="E280" t="s">
         <v>2</v>
       </c>
       <c r="F280" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>848</v>
+        <v>1065</v>
       </c>
       <c r="B281" t="s">
-        <v>849</v>
+        <v>1066</v>
       </c>
       <c r="C281" t="s">
         <v>232</v>
       </c>
       <c r="D281">
-        <v>203140</v>
+        <v>368370</v>
       </c>
       <c r="E281" t="s">
         <v>2</v>
@@ -10065,16 +10125,16 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>1156</v>
+        <v>848</v>
       </c>
       <c r="B282" t="s">
-        <v>1157</v>
+        <v>849</v>
       </c>
       <c r="C282" t="s">
         <v>232</v>
       </c>
       <c r="D282">
-        <v>247430</v>
+        <v>203140</v>
       </c>
       <c r="E282" t="s">
         <v>2</v>
@@ -10085,16 +10145,16 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>850</v>
+        <v>1156</v>
       </c>
       <c r="B283" t="s">
-        <v>851</v>
+        <v>1157</v>
       </c>
       <c r="C283" t="s">
         <v>232</v>
       </c>
       <c r="D283">
-        <v>205930</v>
+        <v>247430</v>
       </c>
       <c r="E283" t="s">
         <v>2</v>
@@ -10105,16 +10165,16 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>1098</v>
+        <v>850</v>
       </c>
       <c r="B284" t="s">
-        <v>1099</v>
+        <v>851</v>
       </c>
       <c r="C284" t="s">
         <v>232</v>
       </c>
       <c r="D284">
-        <v>236870</v>
+        <v>205930</v>
       </c>
       <c r="E284" t="s">
         <v>2</v>
@@ -10125,16 +10185,16 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>1219</v>
+        <v>1098</v>
       </c>
       <c r="B285" t="s">
-        <v>1220</v>
+        <v>1099</v>
       </c>
       <c r="C285" t="s">
         <v>232</v>
       </c>
       <c r="D285">
-        <v>370770</v>
+        <v>236870</v>
       </c>
       <c r="E285" t="s">
         <v>2</v>
@@ -10145,16 +10205,16 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>252</v>
+        <v>1219</v>
       </c>
       <c r="B286" t="s">
-        <v>253</v>
+        <v>1220</v>
       </c>
       <c r="C286" t="s">
         <v>232</v>
       </c>
       <c r="D286">
-        <v>215670</v>
+        <v>370770</v>
       </c>
       <c r="E286" t="s">
         <v>2</v>
@@ -10165,56 +10225,56 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>627</v>
+        <v>252</v>
       </c>
       <c r="B287" t="s">
-        <v>628</v>
+        <v>253</v>
       </c>
       <c r="C287" t="s">
         <v>232</v>
       </c>
       <c r="D287">
-        <v>420000</v>
+        <v>215670</v>
       </c>
       <c r="E287" t="s">
         <v>2</v>
       </c>
       <c r="F287" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>711</v>
+        <v>627</v>
       </c>
       <c r="B288" t="s">
-        <v>712</v>
+        <v>628</v>
       </c>
       <c r="C288" t="s">
         <v>232</v>
       </c>
       <c r="D288">
-        <v>55100</v>
+        <v>420000</v>
       </c>
       <c r="E288" t="s">
         <v>2</v>
       </c>
       <c r="F288" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>734</v>
+        <v>711</v>
       </c>
       <c r="B289" t="s">
-        <v>735</v>
+        <v>712</v>
       </c>
       <c r="C289" t="s">
         <v>232</v>
       </c>
       <c r="D289">
-        <v>219150</v>
+        <v>55100</v>
       </c>
       <c r="E289" t="s">
         <v>2</v>
@@ -10225,16 +10285,16 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>1051</v>
+        <v>734</v>
       </c>
       <c r="B290" t="s">
-        <v>1052</v>
+        <v>735</v>
       </c>
       <c r="C290" t="s">
         <v>232</v>
       </c>
       <c r="D290">
-        <v>339800</v>
+        <v>219150</v>
       </c>
       <c r="E290" t="s">
         <v>2</v>
@@ -10245,16 +10305,16 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>460</v>
+        <v>1051</v>
       </c>
       <c r="B291" t="s">
-        <v>461</v>
+        <v>1052</v>
       </c>
       <c r="C291" t="s">
         <v>232</v>
       </c>
       <c r="D291">
-        <v>515470</v>
+        <v>339800</v>
       </c>
       <c r="E291" t="s">
         <v>2</v>
@@ -10265,16 +10325,16 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>838</v>
+        <v>460</v>
       </c>
       <c r="B292" t="s">
-        <v>839</v>
+        <v>461</v>
       </c>
       <c r="C292" t="s">
         <v>232</v>
       </c>
       <c r="D292">
-        <v>214250</v>
+        <v>515470</v>
       </c>
       <c r="E292" t="s">
         <v>2</v>
@@ -10285,16 +10345,16 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>282</v>
+        <v>838</v>
       </c>
       <c r="B293" t="s">
-        <v>283</v>
+        <v>839</v>
       </c>
       <c r="C293" t="s">
         <v>232</v>
       </c>
       <c r="D293">
-        <v>242700</v>
+        <v>214250</v>
       </c>
       <c r="E293" t="s">
         <v>2</v>
@@ -10305,16 +10365,16 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>921</v>
+        <v>282</v>
       </c>
       <c r="B294" t="s">
-        <v>922</v>
+        <v>283</v>
       </c>
       <c r="C294" t="s">
         <v>232</v>
       </c>
       <c r="D294">
-        <v>385710</v>
+        <v>242700</v>
       </c>
       <c r="E294" t="s">
         <v>2</v>
@@ -10325,16 +10385,16 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>308</v>
+        <v>921</v>
       </c>
       <c r="B295" t="s">
-        <v>309</v>
+        <v>922</v>
       </c>
       <c r="C295" t="s">
         <v>232</v>
       </c>
       <c r="D295">
-        <v>343740</v>
+        <v>385710</v>
       </c>
       <c r="E295" t="s">
         <v>2</v>
@@ -10345,16 +10405,16 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>542</v>
+        <v>308</v>
       </c>
       <c r="B296" t="s">
-        <v>543</v>
+        <v>309</v>
       </c>
       <c r="C296" t="s">
         <v>232</v>
       </c>
       <c r="D296">
-        <v>110400</v>
+        <v>343740</v>
       </c>
       <c r="E296" t="s">
         <v>2</v>
@@ -10365,16 +10425,16 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>1304</v>
+        <v>542</v>
       </c>
       <c r="B297" t="s">
-        <v>1305</v>
+        <v>543</v>
       </c>
       <c r="C297" t="s">
         <v>232</v>
       </c>
       <c r="D297">
-        <v>222880</v>
+        <v>110400</v>
       </c>
       <c r="E297" t="s">
         <v>2</v>
@@ -10385,16 +10445,16 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>546</v>
+        <v>1304</v>
       </c>
       <c r="B298" t="s">
-        <v>547</v>
+        <v>1305</v>
       </c>
       <c r="C298" t="s">
         <v>232</v>
       </c>
       <c r="D298">
-        <v>212410</v>
+        <v>222880</v>
       </c>
       <c r="E298" t="s">
         <v>2</v>
@@ -10405,16 +10465,16 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>1330</v>
+        <v>546</v>
       </c>
       <c r="B299" t="s">
-        <v>1331</v>
+        <v>547</v>
       </c>
       <c r="C299" t="s">
         <v>232</v>
       </c>
       <c r="D299">
-        <v>266410</v>
+        <v>212410</v>
       </c>
       <c r="E299" t="s">
         <v>2</v>
@@ -10425,13 +10485,16 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>13</v>
+        <v>1330</v>
       </c>
       <c r="B300" t="s">
-        <v>14</v>
+        <v>1331</v>
       </c>
       <c r="C300" t="s">
-        <v>1</v>
+        <v>232</v>
+      </c>
+      <c r="D300">
+        <v>266410</v>
       </c>
       <c r="E300" t="s">
         <v>2</v>
@@ -10442,16 +10505,13 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>1346</v>
+        <v>13</v>
       </c>
       <c r="B301" t="s">
-        <v>1347</v>
+        <v>14</v>
       </c>
       <c r="C301" t="s">
-        <v>232</v>
-      </c>
-      <c r="D301">
-        <v>385270</v>
+        <v>1</v>
       </c>
       <c r="E301" t="s">
         <v>2</v>
@@ -10462,16 +10522,16 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>854</v>
+        <v>1346</v>
       </c>
       <c r="B302" t="s">
-        <v>855</v>
+        <v>1347</v>
       </c>
       <c r="C302" t="s">
         <v>232</v>
       </c>
       <c r="D302">
-        <v>205950</v>
+        <v>385270</v>
       </c>
       <c r="E302" t="s">
         <v>2</v>
@@ -10482,16 +10542,16 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>762</v>
+        <v>854</v>
       </c>
       <c r="B303" t="s">
-        <v>763</v>
+        <v>855</v>
       </c>
       <c r="C303" t="s">
         <v>232</v>
       </c>
       <c r="D303">
-        <v>262260</v>
+        <v>205950</v>
       </c>
       <c r="E303" t="s">
         <v>2</v>
@@ -10502,16 +10562,16 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>506</v>
+        <v>762</v>
       </c>
       <c r="B304" t="s">
-        <v>507</v>
+        <v>763</v>
       </c>
       <c r="C304" t="s">
         <v>232</v>
       </c>
       <c r="D304">
-        <v>513740</v>
+        <v>262260</v>
       </c>
       <c r="E304" t="s">
         <v>2</v>
@@ -10522,16 +10582,16 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>470</v>
+        <v>506</v>
       </c>
       <c r="B305" t="s">
-        <v>471</v>
+        <v>507</v>
       </c>
       <c r="C305" t="s">
         <v>232</v>
       </c>
       <c r="D305">
-        <v>323580</v>
+        <v>513740</v>
       </c>
       <c r="E305" t="s">
         <v>2</v>
@@ -10542,16 +10602,19 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>186</v>
+        <v>470</v>
       </c>
       <c r="B306" t="s">
-        <v>187</v>
+        <v>471</v>
       </c>
       <c r="C306" t="s">
-        <v>182</v>
+        <v>232</v>
+      </c>
+      <c r="D306">
+        <v>323580</v>
       </c>
       <c r="E306" t="s">
-        <v>183</v>
+        <v>2</v>
       </c>
       <c r="F306" t="s">
         <v>230</v>
@@ -10559,19 +10622,16 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>1059</v>
+        <v>186</v>
       </c>
       <c r="B307" t="s">
-        <v>1060</v>
+        <v>187</v>
       </c>
       <c r="C307" t="s">
-        <v>232</v>
-      </c>
-      <c r="D307">
-        <v>329460</v>
+        <v>182</v>
       </c>
       <c r="E307" t="s">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="F307" t="s">
         <v>230</v>
@@ -10579,16 +10639,16 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>1152</v>
+        <v>1059</v>
       </c>
       <c r="B308" t="s">
-        <v>1153</v>
+        <v>1060</v>
       </c>
       <c r="C308" t="s">
         <v>232</v>
       </c>
       <c r="D308">
-        <v>6880</v>
+        <v>329460</v>
       </c>
       <c r="E308" t="s">
         <v>2</v>
@@ -10599,16 +10659,16 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>264</v>
+        <v>1152</v>
       </c>
       <c r="B309" t="s">
-        <v>265</v>
+        <v>1153</v>
       </c>
       <c r="C309" t="s">
         <v>232</v>
       </c>
       <c r="D309">
-        <v>8190</v>
+        <v>6880</v>
       </c>
       <c r="E309" t="s">
         <v>2</v>
@@ -10619,16 +10679,16 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>1073</v>
+        <v>264</v>
       </c>
       <c r="B310" t="s">
-        <v>1074</v>
+        <v>265</v>
       </c>
       <c r="C310" t="s">
         <v>232</v>
       </c>
       <c r="D310">
-        <v>225540</v>
+        <v>8190</v>
       </c>
       <c r="E310" t="s">
         <v>2</v>
@@ -10639,16 +10699,16 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>294</v>
+        <v>1073</v>
       </c>
       <c r="B311" t="s">
-        <v>295</v>
+        <v>1074</v>
       </c>
       <c r="C311" t="s">
         <v>232</v>
       </c>
       <c r="D311">
-        <v>295110</v>
+        <v>225540</v>
       </c>
       <c r="E311" t="s">
         <v>2</v>
@@ -10659,56 +10719,56 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>402</v>
+        <v>294</v>
       </c>
       <c r="B312" t="s">
-        <v>403</v>
+        <v>295</v>
       </c>
       <c r="C312" t="s">
         <v>232</v>
       </c>
       <c r="D312">
-        <v>362300</v>
+        <v>295110</v>
       </c>
       <c r="E312" t="s">
         <v>2</v>
       </c>
       <c r="F312" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>1336</v>
+        <v>402</v>
       </c>
       <c r="B313" t="s">
-        <v>1337</v>
+        <v>403</v>
       </c>
       <c r="C313" t="s">
         <v>232</v>
       </c>
       <c r="D313">
-        <v>347670</v>
+        <v>362300</v>
       </c>
       <c r="E313" t="s">
         <v>2</v>
       </c>
       <c r="F313" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>1029</v>
+        <v>1336</v>
       </c>
       <c r="B314" t="s">
-        <v>1030</v>
+        <v>1337</v>
       </c>
       <c r="C314" t="s">
         <v>232</v>
       </c>
       <c r="D314">
-        <v>261110</v>
+        <v>347670</v>
       </c>
       <c r="E314" t="s">
         <v>2</v>
@@ -10719,16 +10779,16 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>792</v>
+        <v>1029</v>
       </c>
       <c r="B315" t="s">
-        <v>793</v>
+        <v>1030</v>
       </c>
       <c r="C315" t="s">
         <v>232</v>
       </c>
       <c r="D315">
-        <v>1250</v>
+        <v>261110</v>
       </c>
       <c r="E315" t="s">
         <v>2</v>
@@ -10739,16 +10799,16 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B316" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C316" t="s">
         <v>232</v>
       </c>
       <c r="D316">
-        <v>35420</v>
+        <v>1250</v>
       </c>
       <c r="E316" t="s">
         <v>2</v>
@@ -10759,13 +10819,16 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>33</v>
+        <v>794</v>
       </c>
       <c r="B317" t="s">
-        <v>34</v>
+        <v>795</v>
       </c>
       <c r="C317" t="s">
-        <v>25</v>
+        <v>232</v>
+      </c>
+      <c r="D317">
+        <v>35420</v>
       </c>
       <c r="E317" t="s">
         <v>2</v>
@@ -10776,16 +10839,13 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>1100</v>
+        <v>33</v>
       </c>
       <c r="B318" t="s">
-        <v>1101</v>
+        <v>34</v>
       </c>
       <c r="C318" t="s">
-        <v>232</v>
-      </c>
-      <c r="D318">
-        <v>368230</v>
+        <v>25</v>
       </c>
       <c r="E318" t="s">
         <v>2</v>
@@ -10796,16 +10856,16 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>1079</v>
+        <v>1100</v>
       </c>
       <c r="B319" t="s">
-        <v>1080</v>
+        <v>1101</v>
       </c>
       <c r="C319" t="s">
         <v>232</v>
       </c>
       <c r="D319">
-        <v>428950</v>
+        <v>368230</v>
       </c>
       <c r="E319" t="s">
         <v>2</v>
@@ -10816,16 +10876,16 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>486</v>
+        <v>1079</v>
       </c>
       <c r="B320" t="s">
-        <v>487</v>
+        <v>1080</v>
       </c>
       <c r="C320" t="s">
         <v>232</v>
       </c>
       <c r="D320">
-        <v>374570</v>
+        <v>428950</v>
       </c>
       <c r="E320" t="s">
         <v>2</v>
@@ -10836,16 +10896,16 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>361</v>
+        <v>486</v>
       </c>
       <c r="B321" t="s">
-        <v>362</v>
+        <v>487</v>
       </c>
       <c r="C321" t="s">
         <v>232</v>
       </c>
       <c r="D321">
-        <v>110800</v>
+        <v>374570</v>
       </c>
       <c r="E321" t="s">
         <v>2</v>
@@ -10856,16 +10916,16 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>1229</v>
+        <v>361</v>
       </c>
       <c r="B322" t="s">
-        <v>1230</v>
+        <v>362</v>
       </c>
       <c r="C322" t="s">
         <v>232</v>
       </c>
       <c r="D322">
-        <v>493710</v>
+        <v>110800</v>
       </c>
       <c r="E322" t="s">
         <v>2</v>
@@ -10876,16 +10936,16 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>615</v>
+        <v>1229</v>
       </c>
       <c r="B323" t="s">
-        <v>616</v>
+        <v>1230</v>
       </c>
       <c r="C323" t="s">
         <v>232</v>
       </c>
       <c r="D323">
-        <v>391720</v>
+        <v>493710</v>
       </c>
       <c r="E323" t="s">
         <v>2</v>
@@ -10896,90 +10956,90 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>337</v>
+        <v>615</v>
+      </c>
+      <c r="B324" t="s">
+        <v>616</v>
       </c>
       <c r="C324" t="s">
         <v>232</v>
       </c>
       <c r="D324">
-        <v>550210</v>
+        <v>391720</v>
       </c>
       <c r="E324" t="s">
         <v>2</v>
       </c>
       <c r="F324" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B325" t="s">
-        <v>1111</v>
+        <v>337</v>
       </c>
       <c r="C325" t="s">
         <v>232</v>
       </c>
       <c r="D325">
-        <v>550</v>
+        <v>550210</v>
       </c>
       <c r="E325" t="s">
         <v>2</v>
       </c>
       <c r="F325" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>523</v>
+        <v>1110</v>
+      </c>
+      <c r="B326" t="s">
+        <v>1111</v>
       </c>
       <c r="C326" t="s">
         <v>232</v>
       </c>
       <c r="D326">
-        <v>223530</v>
+        <v>550</v>
       </c>
       <c r="E326" t="s">
         <v>2</v>
       </c>
       <c r="F326" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>550</v>
-      </c>
-      <c r="B327" t="s">
-        <v>551</v>
+        <v>523</v>
       </c>
       <c r="C327" t="s">
         <v>232</v>
       </c>
       <c r="D327">
-        <v>224300</v>
+        <v>223530</v>
       </c>
       <c r="E327" t="s">
         <v>2</v>
       </c>
       <c r="F327" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B328" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C328" t="s">
         <v>232</v>
       </c>
       <c r="D328">
-        <v>224920</v>
+        <v>224300</v>
       </c>
       <c r="E328" t="s">
         <v>2</v>
@@ -10990,16 +11050,16 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B329" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C329" t="s">
         <v>232</v>
       </c>
       <c r="D329">
-        <v>224940</v>
+        <v>224920</v>
       </c>
       <c r="E329" t="s">
         <v>2</v>
@@ -11010,16 +11070,16 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>528</v>
+        <v>554</v>
       </c>
       <c r="B330" t="s">
-        <v>529</v>
+        <v>555</v>
       </c>
       <c r="C330" t="s">
         <v>232</v>
       </c>
       <c r="D330">
-        <v>21130</v>
+        <v>224940</v>
       </c>
       <c r="E330" t="s">
         <v>2</v>
@@ -11030,16 +11090,16 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>246</v>
+        <v>528</v>
       </c>
       <c r="B331" t="s">
-        <v>247</v>
+        <v>529</v>
       </c>
       <c r="C331" t="s">
         <v>232</v>
       </c>
       <c r="D331">
-        <v>204120</v>
+        <v>21130</v>
       </c>
       <c r="E331" t="s">
         <v>2</v>
@@ -11050,16 +11110,16 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="B332" t="s">
-        <v>301</v>
+        <v>247</v>
       </c>
       <c r="C332" t="s">
         <v>232</v>
       </c>
       <c r="D332">
-        <v>313690</v>
+        <v>204120</v>
       </c>
       <c r="E332" t="s">
         <v>2</v>
@@ -11070,16 +11130,16 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="B333" t="s">
-        <v>1301</v>
+        <v>301</v>
       </c>
       <c r="C333" t="s">
         <v>232</v>
       </c>
       <c r="D333">
-        <v>249130</v>
+        <v>313690</v>
       </c>
       <c r="E333" t="s">
         <v>2</v>
@@ -11090,16 +11150,16 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>512</v>
-      </c>
-      <c r="B334" s="1" t="s">
-        <v>1393</v>
+        <v>1300</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1301</v>
       </c>
       <c r="C334" t="s">
         <v>232</v>
       </c>
       <c r="D334">
-        <v>261180</v>
+        <v>249130</v>
       </c>
       <c r="E334" t="s">
         <v>2</v>
@@ -11110,16 +11170,16 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>1223</v>
+        <v>512</v>
       </c>
       <c r="B335" t="s">
-        <v>1224</v>
+        <v>1393</v>
       </c>
       <c r="C335" t="s">
         <v>232</v>
       </c>
       <c r="D335">
-        <v>319630</v>
+        <v>261180</v>
       </c>
       <c r="E335" t="s">
         <v>2</v>
@@ -11130,16 +11190,16 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>1124</v>
+        <v>1223</v>
       </c>
       <c r="B336" t="s">
-        <v>1125</v>
+        <v>1224</v>
       </c>
       <c r="C336" t="s">
         <v>232</v>
       </c>
       <c r="D336">
-        <v>48000</v>
+        <v>319630</v>
       </c>
       <c r="E336" t="s">
         <v>2</v>
@@ -11150,13 +11210,16 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>47</v>
+        <v>1124</v>
       </c>
       <c r="B337" t="s">
-        <v>48</v>
+        <v>1125</v>
       </c>
       <c r="C337" t="s">
-        <v>25</v>
+        <v>232</v>
+      </c>
+      <c r="D337">
+        <v>48000</v>
       </c>
       <c r="E337" t="s">
         <v>2</v>
@@ -11167,16 +11230,13 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>870</v>
+        <v>47</v>
       </c>
       <c r="B338" t="s">
-        <v>871</v>
+        <v>48</v>
       </c>
       <c r="C338" t="s">
-        <v>232</v>
-      </c>
-      <c r="D338">
-        <v>262690</v>
+        <v>25</v>
       </c>
       <c r="E338" t="s">
         <v>2</v>
@@ -11187,16 +11247,16 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>365</v>
+        <v>870</v>
       </c>
       <c r="B339" t="s">
-        <v>366</v>
+        <v>871</v>
       </c>
       <c r="C339" t="s">
         <v>232</v>
       </c>
       <c r="D339">
-        <v>209830</v>
+        <v>262690</v>
       </c>
       <c r="E339" t="s">
         <v>2</v>
@@ -11207,16 +11267,16 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>396</v>
+        <v>365</v>
       </c>
       <c r="B340" t="s">
-        <v>397</v>
+        <v>366</v>
       </c>
       <c r="C340" t="s">
         <v>232</v>
       </c>
       <c r="D340">
-        <v>265300</v>
+        <v>209830</v>
       </c>
       <c r="E340" t="s">
         <v>2</v>
@@ -11227,16 +11287,16 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>806</v>
+        <v>396</v>
       </c>
       <c r="B341" t="s">
-        <v>807</v>
+        <v>397</v>
       </c>
       <c r="C341" t="s">
         <v>232</v>
       </c>
       <c r="D341">
-        <v>45750</v>
+        <v>265300</v>
       </c>
       <c r="E341" t="s">
         <v>2</v>
@@ -11247,16 +11307,16 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>274</v>
+        <v>806</v>
       </c>
       <c r="B342" t="s">
-        <v>275</v>
+        <v>807</v>
       </c>
       <c r="C342" t="s">
         <v>232</v>
       </c>
       <c r="D342">
-        <v>226720</v>
+        <v>45750</v>
       </c>
       <c r="E342" t="s">
         <v>2</v>
@@ -11267,16 +11327,16 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>656</v>
+        <v>274</v>
       </c>
       <c r="B343" t="s">
-        <v>657</v>
+        <v>275</v>
       </c>
       <c r="C343" t="s">
         <v>232</v>
       </c>
       <c r="D343">
-        <v>6510</v>
+        <v>226720</v>
       </c>
       <c r="E343" t="s">
         <v>2</v>
@@ -11287,16 +11347,16 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>1077</v>
+        <v>656</v>
       </c>
       <c r="B344" t="s">
-        <v>1078</v>
+        <v>657</v>
       </c>
       <c r="C344" t="s">
         <v>232</v>
       </c>
       <c r="D344">
-        <v>412600</v>
+        <v>6510</v>
       </c>
       <c r="E344" t="s">
         <v>2</v>
@@ -11307,16 +11367,16 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>1273</v>
+        <v>1077</v>
       </c>
       <c r="B345" t="s">
-        <v>1274</v>
+        <v>1078</v>
       </c>
       <c r="C345" t="s">
         <v>232</v>
       </c>
       <c r="D345">
-        <v>205830</v>
+        <v>412600</v>
       </c>
       <c r="E345" t="s">
         <v>2</v>
@@ -11327,16 +11387,16 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>492</v>
+        <v>1273</v>
       </c>
       <c r="B346" t="s">
-        <v>493</v>
+        <v>1274</v>
       </c>
       <c r="C346" t="s">
         <v>232</v>
       </c>
       <c r="D346">
-        <v>234140</v>
+        <v>205830</v>
       </c>
       <c r="E346" t="s">
         <v>2</v>
@@ -11347,16 +11407,16 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>1115</v>
+        <v>492</v>
       </c>
       <c r="B347" t="s">
-        <v>1116</v>
+        <v>493</v>
       </c>
       <c r="C347" t="s">
         <v>232</v>
       </c>
       <c r="D347">
-        <v>50130</v>
+        <v>234140</v>
       </c>
       <c r="E347" t="s">
         <v>2</v>
@@ -11367,16 +11427,16 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>670</v>
+        <v>1115</v>
       </c>
       <c r="B348" t="s">
-        <v>671</v>
+        <v>1116</v>
       </c>
       <c r="C348" t="s">
         <v>232</v>
       </c>
       <c r="D348">
-        <v>12130</v>
+        <v>50130</v>
       </c>
       <c r="E348" t="s">
         <v>2</v>
@@ -11387,16 +11447,19 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>161</v>
+        <v>670</v>
       </c>
       <c r="B349" t="s">
-        <v>162</v>
+        <v>671</v>
       </c>
       <c r="C349" t="s">
-        <v>163</v>
+        <v>232</v>
+      </c>
+      <c r="D349">
+        <v>12130</v>
       </c>
       <c r="E349" t="s">
-        <v>164</v>
+        <v>2</v>
       </c>
       <c r="F349" t="s">
         <v>230</v>
@@ -11404,16 +11467,16 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="B350" t="s">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="C350" t="s">
-        <v>1</v>
+        <v>163</v>
       </c>
       <c r="E350" t="s">
-        <v>2</v>
+        <v>164</v>
       </c>
       <c r="F350" t="s">
         <v>230</v>
@@ -11421,16 +11484,13 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>826</v>
+        <v>15</v>
       </c>
       <c r="B351" t="s">
-        <v>827</v>
+        <v>16</v>
       </c>
       <c r="C351" t="s">
-        <v>232</v>
-      </c>
-      <c r="D351">
-        <v>204100</v>
+        <v>1</v>
       </c>
       <c r="E351" t="s">
         <v>2</v>
@@ -11441,13 +11501,16 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>64</v>
+        <v>826</v>
       </c>
       <c r="B352" t="s">
-        <v>65</v>
+        <v>827</v>
       </c>
       <c r="C352" t="s">
-        <v>25</v>
+        <v>232</v>
+      </c>
+      <c r="D352">
+        <v>204100</v>
       </c>
       <c r="E352" t="s">
         <v>2</v>
@@ -11458,13 +11521,13 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="B353" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="C353" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E353" t="s">
         <v>2</v>
@@ -11475,10 +11538,10 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B354" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C354" t="s">
         <v>1</v>
@@ -11492,36 +11555,33 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>866</v>
+        <v>19</v>
       </c>
       <c r="B355" t="s">
-        <v>867</v>
+        <v>20</v>
       </c>
       <c r="C355" t="s">
-        <v>232</v>
-      </c>
-      <c r="D355">
-        <v>47830</v>
+        <v>1</v>
       </c>
       <c r="E355" t="s">
         <v>2</v>
       </c>
       <c r="F355" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>756</v>
+        <v>866</v>
       </c>
       <c r="B356" t="s">
-        <v>757</v>
+        <v>867</v>
       </c>
       <c r="C356" t="s">
         <v>232</v>
       </c>
       <c r="D356">
-        <v>47790</v>
+        <v>47830</v>
       </c>
       <c r="E356" t="s">
         <v>2</v>
@@ -11532,33 +11592,36 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>925</v>
+        <v>756</v>
       </c>
       <c r="B357" t="s">
-        <v>926</v>
+        <v>757</v>
       </c>
       <c r="C357" t="s">
         <v>232</v>
       </c>
       <c r="D357">
-        <v>4700</v>
+        <v>47790</v>
       </c>
       <c r="E357" t="s">
         <v>2</v>
       </c>
       <c r="F357" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>74</v>
+        <v>925</v>
       </c>
       <c r="B358" t="s">
-        <v>75</v>
+        <v>926</v>
       </c>
       <c r="C358" t="s">
-        <v>25</v>
+        <v>232</v>
+      </c>
+      <c r="D358">
+        <v>4700</v>
       </c>
       <c r="E358" t="s">
         <v>2</v>
@@ -11569,16 +11632,13 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>911</v>
+        <v>74</v>
       </c>
       <c r="B359" t="s">
-        <v>912</v>
+        <v>75</v>
       </c>
       <c r="C359" t="s">
-        <v>232</v>
-      </c>
-      <c r="D359">
-        <v>366250</v>
+        <v>25</v>
       </c>
       <c r="E359" t="s">
         <v>2</v>
@@ -11589,13 +11649,16 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>78</v>
+        <v>911</v>
       </c>
       <c r="B360" t="s">
-        <v>79</v>
+        <v>912</v>
       </c>
       <c r="C360" t="s">
-        <v>25</v>
+        <v>232</v>
+      </c>
+      <c r="D360">
+        <v>366250</v>
       </c>
       <c r="E360" t="s">
         <v>2</v>
@@ -11606,16 +11669,13 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>913</v>
+        <v>78</v>
       </c>
       <c r="B361" t="s">
-        <v>914</v>
+        <v>79</v>
       </c>
       <c r="C361" t="s">
-        <v>232</v>
-      </c>
-      <c r="D361">
-        <v>366260</v>
+        <v>25</v>
       </c>
       <c r="E361" t="s">
         <v>2</v>
@@ -11626,16 +11686,16 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>386</v>
+        <v>913</v>
       </c>
       <c r="B362" t="s">
-        <v>387</v>
+        <v>914</v>
       </c>
       <c r="C362" t="s">
         <v>232</v>
       </c>
       <c r="D362">
-        <v>250180</v>
+        <v>366260</v>
       </c>
       <c r="E362" t="s">
         <v>2</v>
@@ -11646,13 +11706,16 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>82</v>
+        <v>386</v>
       </c>
       <c r="B363" t="s">
-        <v>83</v>
+        <v>387</v>
       </c>
       <c r="C363" t="s">
-        <v>25</v>
+        <v>232</v>
+      </c>
+      <c r="D363">
+        <v>250180</v>
       </c>
       <c r="E363" t="s">
         <v>2</v>
@@ -11663,10 +11726,10 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="B364" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="C364" t="s">
         <v>25</v>
@@ -11680,16 +11743,13 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>882</v>
+        <v>35</v>
       </c>
       <c r="B365" t="s">
-        <v>883</v>
+        <v>36</v>
       </c>
       <c r="C365" t="s">
-        <v>232</v>
-      </c>
-      <c r="D365">
-        <v>312610</v>
+        <v>25</v>
       </c>
       <c r="E365" t="s">
         <v>2</v>
@@ -11700,16 +11760,16 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>350</v>
+        <v>882</v>
       </c>
       <c r="B366" t="s">
-        <v>351</v>
+        <v>883</v>
       </c>
       <c r="C366" t="s">
         <v>232</v>
       </c>
       <c r="D366">
-        <v>43110</v>
+        <v>312610</v>
       </c>
       <c r="E366" t="s">
         <v>2</v>
@@ -11720,16 +11780,19 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>205</v>
+        <v>350</v>
       </c>
       <c r="B367" t="s">
-        <v>206</v>
+        <v>351</v>
       </c>
       <c r="C367" t="s">
-        <v>163</v>
+        <v>232</v>
+      </c>
+      <c r="D367">
+        <v>43110</v>
       </c>
       <c r="E367" t="s">
-        <v>171</v>
+        <v>2</v>
       </c>
       <c r="F367" t="s">
         <v>230</v>
@@ -11737,16 +11800,16 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B368" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C368" t="s">
         <v>163</v>
       </c>
       <c r="E368" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F368" t="s">
         <v>230</v>
@@ -11754,19 +11817,16 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>591</v>
+        <v>200</v>
       </c>
       <c r="B369" t="s">
-        <v>592</v>
+        <v>201</v>
       </c>
       <c r="C369" t="s">
-        <v>232</v>
-      </c>
-      <c r="D369">
-        <v>314160</v>
+        <v>163</v>
       </c>
       <c r="E369" t="s">
-        <v>2</v>
+        <v>164</v>
       </c>
       <c r="F369" t="s">
         <v>230</v>
@@ -11774,16 +11834,16 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>1320</v>
+        <v>591</v>
       </c>
       <c r="B370" t="s">
-        <v>1321</v>
+        <v>592</v>
       </c>
       <c r="C370" t="s">
         <v>232</v>
       </c>
       <c r="D370">
-        <v>241930</v>
+        <v>314160</v>
       </c>
       <c r="E370" t="s">
         <v>2</v>
@@ -11794,16 +11854,16 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>945</v>
+        <v>1320</v>
       </c>
       <c r="B371" t="s">
-        <v>946</v>
+        <v>1321</v>
       </c>
       <c r="C371" t="s">
         <v>232</v>
       </c>
       <c r="D371">
-        <v>546980</v>
+        <v>241930</v>
       </c>
       <c r="E371" t="s">
         <v>2</v>
@@ -11814,16 +11874,16 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>329</v>
+        <v>945</v>
       </c>
       <c r="B372" t="s">
-        <v>330</v>
+        <v>946</v>
       </c>
       <c r="C372" t="s">
         <v>232</v>
       </c>
       <c r="D372">
-        <v>314710</v>
+        <v>546980</v>
       </c>
       <c r="E372" t="s">
         <v>2</v>
@@ -11834,16 +11894,16 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>1294</v>
+        <v>329</v>
       </c>
       <c r="B373" t="s">
-        <v>1295</v>
+        <v>330</v>
       </c>
       <c r="C373" t="s">
         <v>232</v>
       </c>
       <c r="D373">
-        <v>209520</v>
+        <v>314710</v>
       </c>
       <c r="E373" t="s">
         <v>2</v>
@@ -11854,16 +11914,16 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>954</v>
+        <v>1294</v>
       </c>
       <c r="B374" t="s">
-        <v>955</v>
+        <v>1295</v>
       </c>
       <c r="C374" t="s">
         <v>232</v>
       </c>
       <c r="D374">
-        <v>368420</v>
+        <v>209520</v>
       </c>
       <c r="E374" t="s">
         <v>2</v>
@@ -11874,13 +11934,16 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>21</v>
+        <v>954</v>
       </c>
       <c r="B375" t="s">
-        <v>22</v>
+        <v>955</v>
       </c>
       <c r="C375" t="s">
-        <v>1</v>
+        <v>232</v>
+      </c>
+      <c r="D375">
+        <v>368420</v>
       </c>
       <c r="E375" t="s">
         <v>2</v>
@@ -11894,13 +11957,10 @@
         <v>21</v>
       </c>
       <c r="B376" t="s">
-        <v>354</v>
+        <v>22</v>
       </c>
       <c r="C376" t="s">
-        <v>232</v>
-      </c>
-      <c r="D376">
-        <v>17410</v>
+        <v>1</v>
       </c>
       <c r="E376" t="s">
         <v>2</v>
@@ -11911,16 +11971,19 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>196</v>
+        <v>21</v>
       </c>
       <c r="B377" t="s">
-        <v>197</v>
+        <v>354</v>
       </c>
       <c r="C377" t="s">
-        <v>163</v>
+        <v>232</v>
+      </c>
+      <c r="D377">
+        <v>17410</v>
       </c>
       <c r="E377" t="s">
-        <v>164</v>
+        <v>2</v>
       </c>
       <c r="F377" t="s">
         <v>230</v>
@@ -11928,19 +11991,16 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>1087</v>
+        <v>196</v>
       </c>
       <c r="B378" t="s">
-        <v>1088</v>
+        <v>197</v>
       </c>
       <c r="C378" t="s">
-        <v>232</v>
-      </c>
-      <c r="D378">
-        <v>493700</v>
+        <v>163</v>
       </c>
       <c r="E378" t="s">
-        <v>2</v>
+        <v>164</v>
       </c>
       <c r="F378" t="s">
         <v>230</v>
@@ -11948,16 +12008,16 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>1117</v>
+        <v>1087</v>
       </c>
       <c r="B379" t="s">
-        <v>1118</v>
+        <v>1088</v>
       </c>
       <c r="C379" t="s">
         <v>232</v>
       </c>
       <c r="D379">
-        <v>205350</v>
+        <v>493700</v>
       </c>
       <c r="E379" t="s">
         <v>2</v>
@@ -11968,16 +12028,16 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>754</v>
+        <v>1117</v>
       </c>
       <c r="B380" t="s">
-        <v>755</v>
+        <v>1118</v>
       </c>
       <c r="C380" t="s">
         <v>232</v>
       </c>
       <c r="D380">
-        <v>237110</v>
+        <v>205350</v>
       </c>
       <c r="E380" t="s">
         <v>2</v>
@@ -11988,16 +12048,16 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>890</v>
+        <v>754</v>
       </c>
       <c r="B381" t="s">
-        <v>891</v>
+        <v>755</v>
       </c>
       <c r="C381" t="s">
         <v>232</v>
       </c>
       <c r="D381">
-        <v>307780</v>
+        <v>237110</v>
       </c>
       <c r="E381" t="s">
         <v>2</v>
@@ -12008,36 +12068,36 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>482</v>
+        <v>890</v>
       </c>
       <c r="B382" t="s">
-        <v>483</v>
+        <v>891</v>
       </c>
       <c r="C382" t="s">
         <v>232</v>
       </c>
       <c r="D382">
-        <v>361700</v>
+        <v>307780</v>
       </c>
       <c r="E382" t="s">
         <v>2</v>
       </c>
       <c r="F382" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>1205</v>
+        <v>482</v>
       </c>
       <c r="B383" t="s">
-        <v>1206</v>
+        <v>483</v>
       </c>
       <c r="C383" t="s">
         <v>232</v>
       </c>
       <c r="D383">
-        <v>362280</v>
+        <v>361700</v>
       </c>
       <c r="E383" t="s">
         <v>2</v>
@@ -12048,16 +12108,16 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>1195</v>
+        <v>1205</v>
       </c>
       <c r="B384" t="s">
-        <v>1196</v>
+        <v>1206</v>
       </c>
       <c r="C384" t="s">
         <v>232</v>
       </c>
       <c r="D384">
-        <v>362230</v>
+        <v>362280</v>
       </c>
       <c r="E384" t="s">
         <v>2</v>
@@ -12068,16 +12128,16 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>1191</v>
+        <v>1195</v>
       </c>
       <c r="B385" t="s">
-        <v>1192</v>
+        <v>1196</v>
       </c>
       <c r="C385" t="s">
         <v>232</v>
       </c>
       <c r="D385">
-        <v>362210</v>
+        <v>362230</v>
       </c>
       <c r="E385" t="s">
         <v>2</v>
@@ -12088,16 +12148,16 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="B386" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="C386" t="s">
         <v>232</v>
       </c>
       <c r="D386">
-        <v>362200</v>
+        <v>362210</v>
       </c>
       <c r="E386" t="s">
         <v>2</v>
@@ -12108,16 +12168,16 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="B387" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="C387" t="s">
         <v>232</v>
       </c>
       <c r="D387">
-        <v>362220</v>
+        <v>362200</v>
       </c>
       <c r="E387" t="s">
         <v>2</v>
@@ -12128,16 +12188,16 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="B388" t="s">
-        <v>1202</v>
+        <v>1194</v>
       </c>
       <c r="C388" t="s">
         <v>232</v>
       </c>
       <c r="D388">
-        <v>362260</v>
+        <v>362220</v>
       </c>
       <c r="E388" t="s">
         <v>2</v>
@@ -12148,16 +12208,16 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B389" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C389" t="s">
         <v>232</v>
       </c>
       <c r="D389">
-        <v>362270</v>
+        <v>362260</v>
       </c>
       <c r="E389" t="s">
         <v>2</v>
@@ -12168,13 +12228,16 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>429</v>
+        <v>1203</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1204</v>
       </c>
       <c r="C390" t="s">
         <v>232</v>
       </c>
       <c r="D390">
-        <v>495470</v>
+        <v>362270</v>
       </c>
       <c r="E390" t="s">
         <v>2</v>
@@ -12185,16 +12248,13 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B391" t="s">
-        <v>1186</v>
+        <v>429</v>
       </c>
       <c r="C391" t="s">
         <v>232</v>
       </c>
       <c r="D391">
-        <v>362180</v>
+        <v>495470</v>
       </c>
       <c r="E391" t="s">
         <v>2</v>
@@ -12205,16 +12265,16 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1197</v>
+        <v>1185</v>
       </c>
       <c r="B392" t="s">
-        <v>1198</v>
+        <v>1186</v>
       </c>
       <c r="C392" t="s">
         <v>232</v>
       </c>
       <c r="D392">
-        <v>362240</v>
+        <v>362180</v>
       </c>
       <c r="E392" t="s">
         <v>2</v>
@@ -12225,16 +12285,16 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B393" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="C393" t="s">
         <v>232</v>
       </c>
       <c r="D393">
-        <v>362250</v>
+        <v>362240</v>
       </c>
       <c r="E393" t="s">
         <v>2</v>
@@ -12245,16 +12305,16 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>1187</v>
+        <v>1199</v>
       </c>
       <c r="B394" t="s">
-        <v>1188</v>
+        <v>1200</v>
       </c>
       <c r="C394" t="s">
         <v>232</v>
       </c>
       <c r="D394">
-        <v>362190</v>
+        <v>362250</v>
       </c>
       <c r="E394" t="s">
         <v>2</v>
@@ -12265,16 +12325,16 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>908</v>
+        <v>1187</v>
       </c>
       <c r="B395" t="s">
-        <v>909</v>
+        <v>1188</v>
       </c>
       <c r="C395" t="s">
         <v>232</v>
       </c>
       <c r="D395">
-        <v>361780</v>
+        <v>362190</v>
       </c>
       <c r="E395" t="s">
         <v>2</v>
@@ -12285,13 +12345,16 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>910</v>
+        <v>908</v>
+      </c>
+      <c r="B396" t="s">
+        <v>909</v>
       </c>
       <c r="C396" t="s">
         <v>232</v>
       </c>
       <c r="D396">
-        <v>495460</v>
+        <v>361780</v>
       </c>
       <c r="E396" t="s">
         <v>2</v>
@@ -12302,13 +12365,13 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>660</v>
+        <v>910</v>
       </c>
       <c r="C397" t="s">
         <v>232</v>
       </c>
       <c r="D397">
-        <v>361710</v>
+        <v>495460</v>
       </c>
       <c r="E397" t="s">
         <v>2</v>
@@ -12319,16 +12382,13 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>896</v>
-      </c>
-      <c r="B398" t="s">
-        <v>897</v>
+        <v>660</v>
       </c>
       <c r="C398" t="s">
         <v>232</v>
       </c>
       <c r="D398">
-        <v>361720</v>
+        <v>361710</v>
       </c>
       <c r="E398" t="s">
         <v>2</v>
@@ -12339,16 +12399,16 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B399" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C399" t="s">
         <v>232</v>
       </c>
       <c r="D399">
-        <v>361730</v>
+        <v>361720</v>
       </c>
       <c r="E399" t="s">
         <v>2</v>
@@ -12359,16 +12419,16 @@
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B400" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C400" t="s">
         <v>232</v>
       </c>
       <c r="D400">
-        <v>361740</v>
+        <v>361730</v>
       </c>
       <c r="E400" t="s">
         <v>2</v>
@@ -12379,16 +12439,16 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B401" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C401" t="s">
         <v>232</v>
       </c>
       <c r="D401">
-        <v>361750</v>
+        <v>361740</v>
       </c>
       <c r="E401" t="s">
         <v>2</v>
@@ -12399,16 +12459,16 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B402" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C402" t="s">
         <v>232</v>
       </c>
       <c r="D402">
-        <v>361760</v>
+        <v>361750</v>
       </c>
       <c r="E402" t="s">
         <v>2</v>
@@ -12419,16 +12479,16 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B403" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C403" t="s">
         <v>232</v>
       </c>
       <c r="D403">
-        <v>361770</v>
+        <v>361760</v>
       </c>
       <c r="E403" t="s">
         <v>2</v>
@@ -12439,36 +12499,36 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>1338</v>
+        <v>906</v>
       </c>
       <c r="B404" t="s">
-        <v>1339</v>
+        <v>907</v>
       </c>
       <c r="C404" t="s">
         <v>232</v>
       </c>
       <c r="D404">
-        <v>361300</v>
+        <v>361770</v>
       </c>
       <c r="E404" t="s">
         <v>2</v>
       </c>
       <c r="F404" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>496</v>
+        <v>1338</v>
       </c>
       <c r="B405" t="s">
-        <v>497</v>
+        <v>1339</v>
       </c>
       <c r="C405" t="s">
         <v>232</v>
       </c>
       <c r="D405">
-        <v>415200</v>
+        <v>361300</v>
       </c>
       <c r="E405" t="s">
         <v>2</v>
@@ -12479,13 +12539,16 @@
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>41</v>
+        <v>496</v>
       </c>
       <c r="B406" t="s">
-        <v>42</v>
+        <v>497</v>
       </c>
       <c r="C406" t="s">
-        <v>25</v>
+        <v>232</v>
+      </c>
+      <c r="D406">
+        <v>415200</v>
       </c>
       <c r="E406" t="s">
         <v>2</v>
@@ -12496,16 +12559,13 @@
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>772</v>
+        <v>41</v>
       </c>
       <c r="B407" t="s">
-        <v>773</v>
+        <v>42</v>
       </c>
       <c r="C407" t="s">
-        <v>232</v>
-      </c>
-      <c r="D407">
-        <v>233290</v>
+        <v>25</v>
       </c>
       <c r="E407" t="s">
         <v>2</v>
@@ -12516,16 +12576,16 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>1113</v>
+        <v>772</v>
       </c>
       <c r="B408" t="s">
-        <v>1114</v>
+        <v>773</v>
       </c>
       <c r="C408" t="s">
         <v>232</v>
       </c>
       <c r="D408">
-        <v>55140</v>
+        <v>233290</v>
       </c>
       <c r="E408" t="s">
         <v>2</v>
@@ -12536,22 +12596,22 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>225</v>
+        <v>1113</v>
       </c>
       <c r="B409" t="s">
-        <v>226</v>
+        <v>1114</v>
       </c>
       <c r="C409" t="s">
-        <v>227</v>
-      </c>
-      <c r="D409" t="s">
-        <v>1364</v>
+        <v>232</v>
+      </c>
+      <c r="D409">
+        <v>55140</v>
       </c>
       <c r="E409" t="s">
-        <v>228</v>
+        <v>2</v>
       </c>
       <c r="F409" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
@@ -12829,7 +12889,7 @@
       <c r="A424" t="s">
         <v>1109</v>
       </c>
-      <c r="B424" s="1" t="s">
+      <c r="B424" t="s">
         <v>1394</v>
       </c>
       <c r="C424" t="s">
@@ -13305,7 +13365,7 @@
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A449" s="2" t="s">
+      <c r="A449" t="s">
         <v>814</v>
       </c>
       <c r="B449" t="s">
@@ -13388,7 +13448,7 @@
       <c r="A453" t="s">
         <v>342</v>
       </c>
-      <c r="B453" s="1" t="s">
+      <c r="B453" t="s">
         <v>1388</v>
       </c>
       <c r="C453" t="s">
@@ -13408,7 +13468,7 @@
       <c r="A454" t="s">
         <v>1238</v>
       </c>
-      <c r="B454" s="1" t="s">
+      <c r="B454" t="s">
         <v>1389</v>
       </c>
       <c r="C454" t="s">
@@ -13899,7 +13959,7 @@
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A479" s="2" t="s">
+      <c r="A479" t="s">
         <v>560</v>
       </c>
       <c r="B479" t="s">
@@ -16716,7 +16776,7 @@
       <c r="A623" t="s">
         <v>133</v>
       </c>
-      <c r="B623" s="1" t="s">
+      <c r="B623" t="s">
         <v>1376</v>
       </c>
       <c r="C623" t="s">
@@ -16813,7 +16873,7 @@
       <c r="A628" t="s">
         <v>1244</v>
       </c>
-      <c r="B628" s="1" t="s">
+      <c r="B628" t="s">
         <v>1390</v>
       </c>
       <c r="C628" t="s">
@@ -17963,7 +18023,7 @@
       <c r="A687" t="s">
         <v>57</v>
       </c>
-      <c r="B687" s="1" t="s">
+      <c r="B687" t="s">
         <v>1384</v>
       </c>
       <c r="C687" t="s">
@@ -18020,7 +18080,7 @@
       <c r="A690" t="s">
         <v>138</v>
       </c>
-      <c r="B690" s="1" t="s">
+      <c r="B690" t="s">
         <v>1382</v>
       </c>
       <c r="C690" t="s">
@@ -18077,7 +18137,7 @@
       <c r="A693" t="s">
         <v>59</v>
       </c>
-      <c r="B693" s="1" t="s">
+      <c r="B693" t="s">
         <v>1381</v>
       </c>
       <c r="C693" t="s">
@@ -18364,35 +18424,308 @@
         <v>230</v>
       </c>
     </row>
+    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B708" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C708" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E708" t="s">
+        <v>2</v>
+      </c>
+      <c r="F708" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B709" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C709" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E709" t="s">
+        <v>2</v>
+      </c>
+      <c r="F709" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B710" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C710" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E710" t="s">
+        <v>2</v>
+      </c>
+      <c r="F710" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B711" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C711" t="s">
+        <v>182</v>
+      </c>
+      <c r="E711" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F711" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>186</v>
+      </c>
+      <c r="B712" t="s">
+        <v>187</v>
+      </c>
+      <c r="C712" t="s">
+        <v>182</v>
+      </c>
+      <c r="E712" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F712" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B713" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C713" t="s">
+        <v>182</v>
+      </c>
+      <c r="E713" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F713" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B714" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C714" t="s">
+        <v>182</v>
+      </c>
+      <c r="E714" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F714" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B715" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C715" t="s">
+        <v>182</v>
+      </c>
+      <c r="E715" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F715" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
+        <v>112</v>
+      </c>
+      <c r="B716" t="s">
+        <v>113</v>
+      </c>
+      <c r="C716" t="s">
+        <v>182</v>
+      </c>
+      <c r="E716" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F716" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B717" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C717" t="s">
+        <v>182</v>
+      </c>
+      <c r="E717" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F717" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>388</v>
+      </c>
+      <c r="B718" t="s">
+        <v>389</v>
+      </c>
+      <c r="C718" t="s">
+        <v>182</v>
+      </c>
+      <c r="E718" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F718" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B719" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C719" t="s">
+        <v>182</v>
+      </c>
+      <c r="E719" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F719" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B720" t="s">
+        <v>22</v>
+      </c>
+      <c r="C720" t="s">
+        <v>182</v>
+      </c>
+      <c r="E720" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F720" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B721" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C721" t="s">
+        <v>182</v>
+      </c>
+      <c r="E721" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F721" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B722" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C722" t="s">
+        <v>182</v>
+      </c>
+      <c r="E722" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F722" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B723" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C723" t="s">
+        <v>182</v>
+      </c>
+      <c r="E723" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F723" t="s">
+        <v>230</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:F707">
-    <sortCondition ref="A1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F707">
+    <sortCondition ref="A2"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B27" r:id="rId1" xr:uid="{2726AE12-75BD-43F3-877F-718C53B6A31E}"/>
-    <hyperlink ref="B198" r:id="rId2" xr:uid="{54B91D1C-A5C9-42F6-AB6F-986F2E826D57}"/>
-    <hyperlink ref="B200" r:id="rId3" xr:uid="{4E35327B-7306-4FE5-9D1E-D0901F76B578}"/>
-    <hyperlink ref="B199" r:id="rId4" xr:uid="{C4FF15A8-DCFB-45FE-9508-C49A5355DD2E}"/>
+    <hyperlink ref="B28" r:id="rId1" xr:uid="{2726AE12-75BD-43F3-877F-718C53B6A31E}"/>
+    <hyperlink ref="B199" r:id="rId2" xr:uid="{54B91D1C-A5C9-42F6-AB6F-986F2E826D57}"/>
+    <hyperlink ref="B201" r:id="rId3" xr:uid="{4E35327B-7306-4FE5-9D1E-D0901F76B578}"/>
+    <hyperlink ref="B200" r:id="rId4" xr:uid="{C4FF15A8-DCFB-45FE-9508-C49A5355DD2E}"/>
     <hyperlink ref="B623" r:id="rId5" xr:uid="{1E7235ED-C73D-4A75-ACE8-FC1876A7D02C}"/>
-    <hyperlink ref="B106" r:id="rId6" xr:uid="{419B2CD6-76F3-456C-894C-496997E3F2C1}"/>
-    <hyperlink ref="B163" r:id="rId7" xr:uid="{F723D508-E6CE-40BC-960E-F2B1B9CA372B}"/>
-    <hyperlink ref="B217" r:id="rId8" xr:uid="{FB40AEB8-DF48-4191-A4BC-673A6FD43EA3}"/>
+    <hyperlink ref="B107" r:id="rId6" xr:uid="{419B2CD6-76F3-456C-894C-496997E3F2C1}"/>
+    <hyperlink ref="B164" r:id="rId7" xr:uid="{F723D508-E6CE-40BC-960E-F2B1B9CA372B}"/>
+    <hyperlink ref="B218" r:id="rId8" xr:uid="{FB40AEB8-DF48-4191-A4BC-673A6FD43EA3}"/>
     <hyperlink ref="B693" r:id="rId9" xr:uid="{E69B2788-3231-4301-AA5A-C0EC9C810CA9}"/>
     <hyperlink ref="B690" r:id="rId10" xr:uid="{AA568B96-FA0C-458D-8733-B95E26833E38}"/>
-    <hyperlink ref="B52" r:id="rId11" xr:uid="{42256FEE-B4A9-42EE-A425-53B52A85F2F0}"/>
+    <hyperlink ref="B53" r:id="rId11" xr:uid="{42256FEE-B4A9-42EE-A425-53B52A85F2F0}"/>
     <hyperlink ref="B687" r:id="rId12" xr:uid="{80AC7A6C-2585-434D-8440-D423D1E44702}"/>
-    <hyperlink ref="B143" r:id="rId13" xr:uid="{CDB438B1-006B-4DFB-89E8-D2D1CCBA5052}"/>
-    <hyperlink ref="B219" r:id="rId14" xr:uid="{339843D2-85DC-4628-A722-25E26AA8AF0D}"/>
-    <hyperlink ref="B30" r:id="rId15" xr:uid="{215A46A2-82E0-4B6D-B504-0E5A5A70C33F}"/>
+    <hyperlink ref="B144" r:id="rId13" xr:uid="{CDB438B1-006B-4DFB-89E8-D2D1CCBA5052}"/>
+    <hyperlink ref="B220" r:id="rId14" xr:uid="{339843D2-85DC-4628-A722-25E26AA8AF0D}"/>
+    <hyperlink ref="B31" r:id="rId15" xr:uid="{215A46A2-82E0-4B6D-B504-0E5A5A70C33F}"/>
     <hyperlink ref="B453" r:id="rId16" xr:uid="{7456A75E-B322-40A3-B0C6-9F7EA724B355}"/>
     <hyperlink ref="B454" r:id="rId17" xr:uid="{AC1E1B17-333E-4473-AA0B-084C855E2282}"/>
     <hyperlink ref="B628" r:id="rId18" xr:uid="{664182BC-FA6A-43F8-8AAE-720A44F5C719}"/>
-    <hyperlink ref="B261" r:id="rId19" xr:uid="{0266ACB1-89AB-4372-9D3C-E6857AF63B5D}"/>
-    <hyperlink ref="B276" r:id="rId20" xr:uid="{5D9C1709-B0FF-4228-9905-47394063674E}"/>
-    <hyperlink ref="B334" r:id="rId21" xr:uid="{A0C56171-B818-446C-B795-9CE1959A6BB4}"/>
+    <hyperlink ref="B262" r:id="rId19" xr:uid="{0266ACB1-89AB-4372-9D3C-E6857AF63B5D}"/>
+    <hyperlink ref="B277" r:id="rId20" xr:uid="{5D9C1709-B0FF-4228-9905-47394063674E}"/>
+    <hyperlink ref="B335" r:id="rId21" xr:uid="{A0C56171-B818-446C-B795-9CE1959A6BB4}"/>
     <hyperlink ref="B424" r:id="rId22" xr:uid="{D1BF80C7-A4E5-4726-B423-A8554E853A45}"/>
+    <hyperlink ref="B711" r:id="rId23" xr:uid="{1DB4C5A1-65C6-497B-AC49-2C13AA1FC146}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
--- a/jogos.xlsx
+++ b/jogos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\mycollections-cli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF3B044-D62A-478D-9743-B32427D024B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92940F6-5864-42E2-B138-FBDA39D2BB45}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{0C35237A-6EB4-4B02-9651-931FED775CEC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3606" uniqueCount="1418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3702" uniqueCount="1462">
   <si>
     <t>Dragon Age Origins</t>
   </si>
@@ -4279,6 +4279,138 @@
   </si>
   <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTUnXcMAHizEe3zP8NaFLtXgQqf1IvUkNdNL0Yfz0psWp4qP2rK9w</t>
+  </si>
+  <si>
+    <t>Ratchet and Clank All 4 One</t>
+  </si>
+  <si>
+    <t>Heavy Rain Movie Edition</t>
+  </si>
+  <si>
+    <t>Gran Turismo 5 XL Edition</t>
+  </si>
+  <si>
+    <t>Little Big Planet 2</t>
+  </si>
+  <si>
+    <t>Motorstorm</t>
+  </si>
+  <si>
+    <t>PES 2013</t>
+  </si>
+  <si>
+    <t>inFamous</t>
+  </si>
+  <si>
+    <t>Mortal Kombat</t>
+  </si>
+  <si>
+    <t>Killzone Trilogy</t>
+  </si>
+  <si>
+    <t>Gran Turismo 6</t>
+  </si>
+  <si>
+    <t>Red Dead Redemption</t>
+  </si>
+  <si>
+    <t>Beyond Two Souls</t>
+  </si>
+  <si>
+    <t>Dragon Age 2</t>
+  </si>
+  <si>
+    <t>Lost Planet Extreme Condition</t>
+  </si>
+  <si>
+    <t>God of War Collection</t>
+  </si>
+  <si>
+    <t>Midnight Club Log Angeles Complete Edition</t>
+  </si>
+  <si>
+    <t>Uncharted Drakes Fortune</t>
+  </si>
+  <si>
+    <t>The ICO Shadow of Colossus Collection</t>
+  </si>
+  <si>
+    <t>God of War Ascension</t>
+  </si>
+  <si>
+    <t>God of War 3</t>
+  </si>
+  <si>
+    <t>Uncharted 3 Drakes Deception</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTRm5XEFnZ71oYQLvAMQJ6A4tgfW2_gE6RsAca-aoSKl-acXmIW</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTe0_v-hOzSjRoRvLRZ4Ll20Nj1FKGQSfjwWya2olg1WDSMgFm9</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSwvdVJPIgLTc2giqWyKcinp0ulFm-A81beGE2akmU7SSBUY5G9</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSpk_RTsoY4jVMnQBqwTzzjW00Ls2Lb5KzZNOhsUlzlh57cJKXxQg</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSDbrdfTrndAE9but-T0iF2GnCEO6lK8RQ1re1fCm4ChkPM2gooZA</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRZT6_X-qlUEGMuxU0lk776z52Mtxy2mmZ3taAJjGcOaa04-PeH</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTyZCJ5o2cMBRMobU-qldhJyYXUWqJGT4FJU1pJphzgDXms2ThSVA</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ7AAjB3c-VuhZvATzHNBRHs6r00wRt1SOvK5zJ5vixoBHEHLsL</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRa2cyjejKWx57Vfu2OpZHjB1Jbkn8CC8uCbwfMp3fhD6PljR5o-Q</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTzsUHfpvqJ1Dn6ZiPuShRJXTTHog7qf4Z_ttSUH6Bdv37GzqN3</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSLyExBvi23HGeKr5R5UgauBoP_DgP8_PVhmmWEt-6nul5K13FSBg</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTR9AmwnSDcKC7w2CXPHnRVTSoaEm6QQMVNoakZDRAzYfYKtMGmlg</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ_jakGPOZGqEuSdN6FRpKrhZCnQMZ4lYLe2fKorMYjpkyz0LNQ</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSQWOy0WXJL2e0bfDPZgdqO4Km355R2xmxWNNNSLg3vffF9YOLb</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTd79SqojbqNrRmf6a8cszFR7zoJRq26DlQ0DXtvA_oatKJR6fz</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT20gHGrOmDYZx3xZ_EBb8EpRCJBeZzHgAKTCI7DTT4w94Yivue0g</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRcfiuqf8Cp3vq3nAeJhjDPU0sUQEced9FT4T_X3Agaqqdkjpxu</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTc9-osM_8ThlNZ6-7f_EYhk-qVnYZtoaPjLkTeXX56vo3VBUq_</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRMe8HaTwp-2-ENp3h6IatV3rZAG1oXIWIvz-aRp3sBLoeuBdul5A</t>
+  </si>
+  <si>
+    <t>Uncharted 2 Among thieves</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSrBzivi2eISmBFdA3CMHXlVeBThZickS_hINQl6WBfBvLCtv5UNA</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRS9TRkOnpVGNEt6CtJaOTEBxSEJbVo3ltV6AM2gNAS2Fge_c8FYw</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRwQfe_qAwJZyfhwwuXDjwFfKYx5kk4ovykayUOnEHQ0g1IFQNn</t>
   </si>
 </sst>
 </file>
@@ -4641,10 +4773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E073D1A-5126-4785-A652-5C66939BBDE3}">
-  <dimension ref="A1:F723"/>
+  <dimension ref="A1:F747"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A692" workbookViewId="0">
-      <selection activeCell="A685" sqref="A685"/>
+    <sheetView tabSelected="1" topLeftCell="A714" workbookViewId="0">
+      <selection activeCell="B744" sqref="B744"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18696,9 +18828,345 @@
         <v>230</v>
       </c>
     </row>
+    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B724" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E724" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F724" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B725" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E725" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F725" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
+        <v>85</v>
+      </c>
+      <c r="B726" t="s">
+        <v>86</v>
+      </c>
+      <c r="E726" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F726" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B727" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E727" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F727" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B728" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E728" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F728" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="729" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A729" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B729" t="s">
+        <v>1443</v>
+      </c>
+      <c r="E729" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F729" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B730" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E730" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F730" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="731" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A731" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B731" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E731" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F731" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="732" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A732" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B732" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E732" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F732" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="733" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B733" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E733" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F733" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="734" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B734" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E734" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F734" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B735" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E735" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F735" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="736" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
+        <v>806</v>
+      </c>
+      <c r="B736" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E736" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F736" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="737" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B737" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E737" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F737" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="738" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B738" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E738" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F738" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="739" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B739" t="s">
+        <v>755</v>
+      </c>
+      <c r="E739" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F739" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="740" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B740" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E740" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F740" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="741" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B741" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E741" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F741" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="742" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A742" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B742" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E742" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F742" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="743" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B743" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E743" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F743" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="744" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A744" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B744" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E744" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F744" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="745" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B745" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E745" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F745" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="746" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B746" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E746" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F746" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="747" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A747" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B747" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E747" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F747" t="s">
+        <v>230</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F707">
-    <sortCondition ref="A2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A724:A747">
+    <sortCondition ref="A724"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="B28" r:id="rId1" xr:uid="{2726AE12-75BD-43F3-877F-718C53B6A31E}"/>

--- a/jogos.xlsx
+++ b/jogos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\mycollections-cli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92940F6-5864-42E2-B138-FBDA39D2BB45}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4CB371-DA3F-448C-BCA7-08112F72BDA3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{0C35237A-6EB4-4B02-9651-931FED775CEC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3702" uniqueCount="1462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3911" uniqueCount="1527">
   <si>
     <t>Dragon Age Origins</t>
   </si>
@@ -4411,6 +4411,201 @@
   </si>
   <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRwQfe_qAwJZyfhwwuXDjwFfKYx5kk4ovykayUOnEHQ0g1IFQNn</t>
+  </si>
+  <si>
+    <t>Mídia Física</t>
+  </si>
+  <si>
+    <t>PES 2018</t>
+  </si>
+  <si>
+    <t>The Order 1886</t>
+  </si>
+  <si>
+    <t>Killzone Shadow Fall</t>
+  </si>
+  <si>
+    <t>Infamous Second Son</t>
+  </si>
+  <si>
+    <t>DriveClub</t>
+  </si>
+  <si>
+    <t>Far Cry 4</t>
+  </si>
+  <si>
+    <t>Call of Duty Advanced Warfare</t>
+  </si>
+  <si>
+    <t>FIFA 14</t>
+  </si>
+  <si>
+    <t>NBA 2K14</t>
+  </si>
+  <si>
+    <t>The Last of Us Remastered</t>
+  </si>
+  <si>
+    <t>Grand Theft Auto 5</t>
+  </si>
+  <si>
+    <t>Assassins Creed Syndicate</t>
+  </si>
+  <si>
+    <t>Ratchet and Clank</t>
+  </si>
+  <si>
+    <t>Evolve</t>
+  </si>
+  <si>
+    <t>Bloodborne</t>
+  </si>
+  <si>
+    <t>Horizon Zero Dawn</t>
+  </si>
+  <si>
+    <t>Dark Souls 3</t>
+  </si>
+  <si>
+    <t>Gran Turismo Sport</t>
+  </si>
+  <si>
+    <t>Red Dead Redemption 2</t>
+  </si>
+  <si>
+    <t>PS4</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcThDPDmdYWLV30hYNX-h3M7VJZNOWhJUf-sZ2JUAX6E4DaiJa2b</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ8YBCVG9Vek1UTKiHbhNJzUEG8WOk38hPy-NoiOVWqeBf66Uuwfw</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTFlC-2e0cG4bzb-XCP-1DvpGoL_TnfoodEKE3TuOf69ubWUAbrsw</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSL9z3MbvM5z7A6CI79kLfxrIh4Yr4breMyuZT0yo-lhUitHeL-jA</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSEvgOwLofhyFRx1ToodvRnsZT_msvtzQI1t1aMO-kTIaP4cl-4</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTx0-4nKjoqh2szgJa30HAq5LidZEY4s4WwYGDwi0H94W918giBog</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSRlRmqt2RV45uLRj6lhYakRTsglF_B96uj72yV9ujStdjqKsiE</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcR-OKyM1DUuk06uI7U5abLssZ7AYCSJrGybauDUbK3arb1KIuZp</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSL_M7lh8PH9S1OyFMfwyhl4FAAUIGY1LcmeVfxQT3ux3tTGi-46Q</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSUvv7eYbgjnlVTW7cS58wsYbxbewIxfRei1a0fHQcw4wsy14QnAA</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRuqVu6_9I_ZgH1f7DpObYqQ2LepVcHufU5K46p6A_EJfjWeqR0</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT_gIUCWGtlAGBBqRAvW2k3Z0Nkp1RS7rOKjSisL5fLZGKB8Wma7w</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRRkA2Lzh2Nr8f1IxcaWr9fzVG8ZJBdgL9nASxZX3OhEN4_Qe1V</t>
+  </si>
+  <si>
+    <t>Uncharted 4 A Thiefs End</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTCgb2dAW09y_DdFt6ryRL9f1zBmnJdhk4a3cLQcw0eJQonEDQt</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRAggmdCtsIRgA--TjWbzS27ad3vkk88sfWU25-VteDoCoOHl9bHQ</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSnk5Q2XLKSSFwoJQ_QTMIER3UqdOiCZuZYFuzVamvQaGoEo8vj</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTLcYjo6_ZVZgiYqeQDhEXDzc3BCD9CQcUnWcJKwU-ptUBcYpmQgA</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQPJHPkiz8giw0FrzO8RxjPuC0nvUDVm1Y_8nuDpH6VPatekCkQWA</t>
+  </si>
+  <si>
+    <t>https://4gnews.pt/wp-content/uploads/2018/10/red-dead-redemption-ii-3755-600.jpg</t>
+  </si>
+  <si>
+    <t>Metal Gear Solid The Phantom Pain</t>
+  </si>
+  <si>
+    <t>PES 2016</t>
+  </si>
+  <si>
+    <t>Halo 5</t>
+  </si>
+  <si>
+    <t>Dead Rising 3</t>
+  </si>
+  <si>
+    <t>Sunset Overdrive</t>
+  </si>
+  <si>
+    <t>Gear of War Ultimate Edition</t>
+  </si>
+  <si>
+    <t>Rise of Tomb Raider</t>
+  </si>
+  <si>
+    <t>Dragon Age Inquisition</t>
+  </si>
+  <si>
+    <t>Titanfall</t>
+  </si>
+  <si>
+    <t>Forza 5</t>
+  </si>
+  <si>
+    <t>Dead Rising 4</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ-Lmi5qcc73NBQE0JKaoF5215snYJ11oHeGZiEyfXZjZQhNPtzsg</t>
+  </si>
+  <si>
+    <t>Crash Bandicoot Insane Trilogy</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRjGK3V4s8dLLdMaDZBSMsnPp94oH9-v7FsAobLJ97PTnOyd_Jl</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT53Le6Q7zXkK5YoZjLVv1JFYzN95zdkmCe8VQYHJM7FlxONl0h5g</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT-fl98YBgZACbeM18QXYNRWo0NxtbuwhY-dk9BZF_6cQkg68Q4</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQdg2-XlMqwUeIKmx4Iil-CMAind2I_vHr4heHuIuzKChAxSRNf</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS-RdlN-WZrzy3J65F9jcQbf1eA9Z8zmVX09au3gu1RbbaN90Nk</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRMGtEusWY1gxQZxJ_M1qVsXdtczEkbr1hAH1R0Giaj6BcSxpS3</t>
+  </si>
+  <si>
+    <t>https://www.meups4.com.br/wp-content/uploads/2015/03/Metal-Gear-Solid-V-The-Phantom-Pain1.jpg</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ2iMubiGIAgXAbiLfP0YOJ78mD2sKz5IYBUb_naRyvLH-U8db54Q</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcR_0VLGXdPQyXlXOEOkThmsEkU3FgJfnbzP3CZtvIwCS1KUU5raDg</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTixF7cMbyljJbluC5z9wWQ65tZNWAKCdCfjfJCJuguq8_iHXUtUQ</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcR4KZPqO_tC9D-dLTCplwUlLBgM322UKKzRWHkIu1RWHK71D2UX</t>
   </si>
 </sst>
 </file>
@@ -4773,10 +4968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E073D1A-5126-4785-A652-5C66939BBDE3}">
-  <dimension ref="A1:F747"/>
+  <dimension ref="A1:F784"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A714" workbookViewId="0">
-      <selection activeCell="B744" sqref="B744"/>
+    <sheetView tabSelected="1" topLeftCell="A762" workbookViewId="0">
+      <selection activeCell="B784" sqref="B784"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18835,6 +19030,9 @@
       <c r="B724" t="s">
         <v>1439</v>
       </c>
+      <c r="C724" t="s">
+        <v>1462</v>
+      </c>
       <c r="E724" t="s">
         <v>1398</v>
       </c>
@@ -18849,6 +19047,9 @@
       <c r="B725" t="s">
         <v>1440</v>
       </c>
+      <c r="C725" t="s">
+        <v>1462</v>
+      </c>
       <c r="E725" t="s">
         <v>1398</v>
       </c>
@@ -18863,6 +19064,9 @@
       <c r="B726" t="s">
         <v>86</v>
       </c>
+      <c r="C726" t="s">
+        <v>1462</v>
+      </c>
       <c r="E726" t="s">
         <v>1398</v>
       </c>
@@ -18877,6 +19081,9 @@
       <c r="B727" t="s">
         <v>1441</v>
       </c>
+      <c r="C727" t="s">
+        <v>1462</v>
+      </c>
       <c r="E727" t="s">
         <v>1398</v>
       </c>
@@ -18891,6 +19098,9 @@
       <c r="B728" t="s">
         <v>1442</v>
       </c>
+      <c r="C728" t="s">
+        <v>1462</v>
+      </c>
       <c r="E728" t="s">
         <v>1398</v>
       </c>
@@ -18905,6 +19115,9 @@
       <c r="B729" t="s">
         <v>1443</v>
       </c>
+      <c r="C729" t="s">
+        <v>1462</v>
+      </c>
       <c r="E729" t="s">
         <v>1398</v>
       </c>
@@ -18919,6 +19132,9 @@
       <c r="B730" t="s">
         <v>1444</v>
       </c>
+      <c r="C730" t="s">
+        <v>1462</v>
+      </c>
       <c r="E730" t="s">
         <v>1398</v>
       </c>
@@ -18933,6 +19149,9 @@
       <c r="B731" t="s">
         <v>1445</v>
       </c>
+      <c r="C731" t="s">
+        <v>1462</v>
+      </c>
       <c r="E731" t="s">
         <v>1398</v>
       </c>
@@ -18947,6 +19166,9 @@
       <c r="B732" t="s">
         <v>1446</v>
       </c>
+      <c r="C732" t="s">
+        <v>1462</v>
+      </c>
       <c r="E732" t="s">
         <v>1398</v>
       </c>
@@ -18961,6 +19183,9 @@
       <c r="B733" t="s">
         <v>1447</v>
       </c>
+      <c r="C733" t="s">
+        <v>1462</v>
+      </c>
       <c r="E733" t="s">
         <v>1398</v>
       </c>
@@ -18975,6 +19200,9 @@
       <c r="B734" t="s">
         <v>1448</v>
       </c>
+      <c r="C734" t="s">
+        <v>1462</v>
+      </c>
       <c r="E734" t="s">
         <v>1398</v>
       </c>
@@ -18989,6 +19217,9 @@
       <c r="B735" t="s">
         <v>1449</v>
       </c>
+      <c r="C735" t="s">
+        <v>1462</v>
+      </c>
       <c r="E735" t="s">
         <v>1398</v>
       </c>
@@ -19003,6 +19234,9 @@
       <c r="B736" t="s">
         <v>1450</v>
       </c>
+      <c r="C736" t="s">
+        <v>1462</v>
+      </c>
       <c r="E736" t="s">
         <v>1398</v>
       </c>
@@ -19017,6 +19251,9 @@
       <c r="B737" t="s">
         <v>1451</v>
       </c>
+      <c r="C737" t="s">
+        <v>1462</v>
+      </c>
       <c r="E737" t="s">
         <v>1398</v>
       </c>
@@ -19031,6 +19268,9 @@
       <c r="B738" t="s">
         <v>1452</v>
       </c>
+      <c r="C738" t="s">
+        <v>1462</v>
+      </c>
       <c r="E738" t="s">
         <v>1398</v>
       </c>
@@ -19045,6 +19285,9 @@
       <c r="B739" t="s">
         <v>755</v>
       </c>
+      <c r="C739" t="s">
+        <v>1462</v>
+      </c>
       <c r="E739" t="s">
         <v>1398</v>
       </c>
@@ -19059,6 +19302,9 @@
       <c r="B740" t="s">
         <v>1453</v>
       </c>
+      <c r="C740" t="s">
+        <v>1462</v>
+      </c>
       <c r="E740" t="s">
         <v>1398</v>
       </c>
@@ -19073,6 +19319,9 @@
       <c r="B741" t="s">
         <v>1454</v>
       </c>
+      <c r="C741" t="s">
+        <v>1462</v>
+      </c>
       <c r="E741" t="s">
         <v>1398</v>
       </c>
@@ -19087,6 +19336,9 @@
       <c r="B742" t="s">
         <v>1455</v>
       </c>
+      <c r="C742" t="s">
+        <v>1462</v>
+      </c>
       <c r="E742" t="s">
         <v>1398</v>
       </c>
@@ -19101,6 +19353,9 @@
       <c r="B743" t="s">
         <v>1456</v>
       </c>
+      <c r="C743" t="s">
+        <v>1462</v>
+      </c>
       <c r="E743" t="s">
         <v>1398</v>
       </c>
@@ -19115,6 +19370,9 @@
       <c r="B744" t="s">
         <v>1457</v>
       </c>
+      <c r="C744" t="s">
+        <v>1462</v>
+      </c>
       <c r="E744" t="s">
         <v>1398</v>
       </c>
@@ -19129,6 +19387,9 @@
       <c r="B745" t="s">
         <v>1459</v>
       </c>
+      <c r="C745" t="s">
+        <v>1462</v>
+      </c>
       <c r="E745" t="s">
         <v>1398</v>
       </c>
@@ -19143,6 +19404,9 @@
       <c r="B746" t="s">
         <v>1460</v>
       </c>
+      <c r="C746" t="s">
+        <v>1462</v>
+      </c>
       <c r="E746" t="s">
         <v>1398</v>
       </c>
@@ -19157,6 +19421,9 @@
       <c r="B747" t="s">
         <v>1461</v>
       </c>
+      <c r="C747" t="s">
+        <v>1462</v>
+      </c>
       <c r="E747" t="s">
         <v>1398</v>
       </c>
@@ -19164,9 +19431,638 @@
         <v>230</v>
       </c>
     </row>
+    <row r="748" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B748" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C748" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E748" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F748" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="749" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>211</v>
+      </c>
+      <c r="B749" t="s">
+        <v>212</v>
+      </c>
+      <c r="C749" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E749" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F749" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="750" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B750" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C750" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E750" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F750" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="751" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B751" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C751" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E751" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F751" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B752" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C752" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E752" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F752" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B753" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C753" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E753" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F753" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B754" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C754" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E754" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F754" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A755" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B755" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C755" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E755" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F755" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A756" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B756" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C756" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E756" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F756" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A757" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B757" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C757" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E757" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F757" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B758" t="s">
+        <v>193</v>
+      </c>
+      <c r="C758" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E758" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F758" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B759" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C759" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E759" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F759" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A760" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B760" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C760" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E760" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F760" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A761" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B761" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C761" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E761" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F761" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A762" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B762" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C762" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E762" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F762" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A763" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B763" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C763" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E763" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F763" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A764" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B764" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C764" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E764" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F764" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A765" t="s">
+        <v>90</v>
+      </c>
+      <c r="B765" t="s">
+        <v>91</v>
+      </c>
+      <c r="C765" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E765" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F765" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A766" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B766" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C766" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E766" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F766" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A767" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B767" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C767" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E767" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F767" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="768" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A768" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B768" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C768" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E768" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F768" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="769" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A769" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B769" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C769" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E769" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F769" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="770" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A770" t="s">
+        <v>57</v>
+      </c>
+      <c r="B770" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C770" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E770" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F770" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A771" t="s">
+        <v>120</v>
+      </c>
+      <c r="B771" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C771" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E771" t="s">
+        <v>171</v>
+      </c>
+      <c r="F771" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="772" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A772" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B772" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C772" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E772" t="s">
+        <v>171</v>
+      </c>
+      <c r="F772" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="773" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A773" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B773" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C773" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E773" t="s">
+        <v>171</v>
+      </c>
+      <c r="F773" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="774" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A774" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B774" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C774" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E774" t="s">
+        <v>171</v>
+      </c>
+      <c r="F774" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A775" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B775" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C775" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E775" t="s">
+        <v>171</v>
+      </c>
+      <c r="F775" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="776" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A776" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B776" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C776" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E776" t="s">
+        <v>171</v>
+      </c>
+      <c r="F776" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="777" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A777" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B777" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C777" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E777" t="s">
+        <v>171</v>
+      </c>
+      <c r="F777" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="778" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A778" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B778" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C778" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E778" t="s">
+        <v>171</v>
+      </c>
+      <c r="F778" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="779" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A779" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B779" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C779" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E779" t="s">
+        <v>171</v>
+      </c>
+      <c r="F779" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="780" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B780" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C780" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E780" t="s">
+        <v>171</v>
+      </c>
+      <c r="F780" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A781" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B781" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C781" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E781" t="s">
+        <v>171</v>
+      </c>
+      <c r="F781" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A782" t="s">
+        <v>595</v>
+      </c>
+      <c r="B782" t="s">
+        <v>596</v>
+      </c>
+      <c r="C782" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E782" t="s">
+        <v>171</v>
+      </c>
+      <c r="F782" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="783" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B783" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C783" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E783" t="s">
+        <v>171</v>
+      </c>
+      <c r="F783" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="784" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A784" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B784" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C784" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E784" t="s">
+        <v>171</v>
+      </c>
+      <c r="F784" t="s">
+        <v>230</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A724:A747">
-    <sortCondition ref="A724"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A771:A784">
+    <sortCondition ref="A771"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="B28" r:id="rId1" xr:uid="{2726AE12-75BD-43F3-877F-718C53B6A31E}"/>
@@ -19192,8 +20088,10 @@
     <hyperlink ref="B335" r:id="rId21" xr:uid="{A0C56171-B818-446C-B795-9CE1959A6BB4}"/>
     <hyperlink ref="B424" r:id="rId22" xr:uid="{D1BF80C7-A4E5-4726-B423-A8554E853A45}"/>
     <hyperlink ref="B711" r:id="rId23" xr:uid="{1DB4C5A1-65C6-497B-AC49-2C13AA1FC146}"/>
+    <hyperlink ref="B770" r:id="rId24" xr:uid="{A4C7122C-1E7B-462A-AD13-52551FC281A2}"/>
+    <hyperlink ref="B771" r:id="rId25" xr:uid="{B93F069A-7583-419B-B11E-F3B4B1BF7471}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
--- a/jogos.xlsx
+++ b/jogos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\mycollections-cli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF9D8C6-640C-49CA-B13C-AE75E02F7B5F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3516F148-6895-4411-9EC9-7C7280DE5181}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{0C35237A-6EB4-4B02-9651-931FED775CEC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3911" uniqueCount="1522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3911" uniqueCount="1521">
   <si>
     <t>Dragon Age Origins</t>
   </si>
@@ -4278,9 +4278,6 @@
     <t>Motorstorm</t>
   </si>
   <si>
-    <t>PES 2013</t>
-  </si>
-  <si>
     <t>inFamous</t>
   </si>
   <si>
@@ -4398,9 +4395,6 @@
     <t>Mídia Física</t>
   </si>
   <si>
-    <t>PES 2018</t>
-  </si>
-  <si>
     <t>The Order 1886</t>
   </si>
   <si>
@@ -4518,9 +4512,6 @@
     <t>Metal Gear Solid The Phantom Pain</t>
   </si>
   <si>
-    <t>PES 2016</t>
-  </si>
-  <si>
     <t>Halo 5</t>
   </si>
   <si>
@@ -4591,6 +4582,12 @@
   </si>
   <si>
     <t>Fifa Soccer 14</t>
+  </si>
+  <si>
+    <t>PRO EVOLUTION SOCCER 2013</t>
+  </si>
+  <si>
+    <t>PRO EVOLUTION SOCCER 2016</t>
   </si>
 </sst>
 </file>
@@ -4964,8 +4961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E073D1A-5126-4785-A652-5C66939BBDE3}">
   <dimension ref="A1:F784"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A701" workbookViewId="0">
-      <selection activeCell="A720" sqref="A720"/>
+    <sheetView tabSelected="1" topLeftCell="A761" workbookViewId="0">
+      <selection activeCell="A780" sqref="A780"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8985,7 +8982,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="B207" t="s">
         <v>9</v>
@@ -19019,13 +19016,13 @@
     </row>
     <row r="724" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B724" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="C724" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E724" t="s">
         <v>1393</v>
@@ -19036,13 +19033,13 @@
     </row>
     <row r="725" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B725" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="C725" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E725" t="s">
         <v>1393</v>
@@ -19059,7 +19056,7 @@
         <v>85</v>
       </c>
       <c r="C726" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E726" t="s">
         <v>1393</v>
@@ -19070,13 +19067,13 @@
     </row>
     <row r="727" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B727" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C727" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E727" t="s">
         <v>1393</v>
@@ -19087,13 +19084,13 @@
     </row>
     <row r="728" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B728" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="C728" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E728" t="s">
         <v>1393</v>
@@ -19104,13 +19101,13 @@
     </row>
     <row r="729" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B729" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C729" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E729" t="s">
         <v>1393</v>
@@ -19124,10 +19121,10 @@
         <v>1414</v>
       </c>
       <c r="B730" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="C730" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E730" t="s">
         <v>1393</v>
@@ -19138,13 +19135,13 @@
     </row>
     <row r="731" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B731" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="C731" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E731" t="s">
         <v>1393</v>
@@ -19158,10 +19155,10 @@
         <v>1413</v>
       </c>
       <c r="B732" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="C732" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E732" t="s">
         <v>1393</v>
@@ -19172,13 +19169,13 @@
     </row>
     <row r="733" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B733" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="C733" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E733" t="s">
         <v>1393</v>
@@ -19189,13 +19186,13 @@
     </row>
     <row r="734" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B734" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="C734" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E734" t="s">
         <v>1393</v>
@@ -19209,10 +19206,10 @@
         <v>1415</v>
       </c>
       <c r="B735" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="C735" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E735" t="s">
         <v>1393</v>
@@ -19226,10 +19223,10 @@
         <v>804</v>
       </c>
       <c r="B736" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="C736" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E736" t="s">
         <v>1393</v>
@@ -19240,13 +19237,13 @@
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B737" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="C737" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E737" t="s">
         <v>1393</v>
@@ -19257,13 +19254,13 @@
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B738" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="C738" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E738" t="s">
         <v>1393</v>
@@ -19274,13 +19271,13 @@
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B739" t="s">
         <v>753</v>
       </c>
       <c r="C739" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E739" t="s">
         <v>1393</v>
@@ -19294,10 +19291,10 @@
         <v>1416</v>
       </c>
       <c r="B740" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="C740" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E740" t="s">
         <v>1393</v>
@@ -19308,13 +19305,13 @@
     </row>
     <row r="741" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>1417</v>
+        <v>1519</v>
       </c>
       <c r="B741" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="C741" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E741" t="s">
         <v>1393</v>
@@ -19328,10 +19325,10 @@
         <v>1412</v>
       </c>
       <c r="B742" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="C742" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E742" t="s">
         <v>1393</v>
@@ -19342,13 +19339,13 @@
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B743" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="C743" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E743" t="s">
         <v>1393</v>
@@ -19359,13 +19356,13 @@
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B744" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="C744" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E744" t="s">
         <v>1393</v>
@@ -19376,13 +19373,13 @@
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B745" t="s">
         <v>1452</v>
       </c>
-      <c r="B745" t="s">
-        <v>1453</v>
-      </c>
       <c r="C745" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E745" t="s">
         <v>1393</v>
@@ -19393,13 +19390,13 @@
     </row>
     <row r="746" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B746" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="C746" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E746" t="s">
         <v>1393</v>
@@ -19410,13 +19407,13 @@
     </row>
     <row r="747" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B747" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C747" t="s">
         <v>1455</v>
-      </c>
-      <c r="C747" t="s">
-        <v>1456</v>
       </c>
       <c r="E747" t="s">
         <v>1393</v>
@@ -19427,16 +19424,16 @@
     </row>
     <row r="748" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="B748" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="C748" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E748" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="F748" t="s">
         <v>229</v>
@@ -19450,10 +19447,10 @@
         <v>211</v>
       </c>
       <c r="C749" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E749" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="F749" t="s">
         <v>229</v>
@@ -19461,16 +19458,16 @@
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B750" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C750" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E750" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="F750" t="s">
         <v>229</v>
@@ -19478,16 +19475,16 @@
     </row>
     <row r="751" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="B751" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="C751" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E751" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="F751" t="s">
         <v>229</v>
@@ -19495,16 +19492,16 @@
     </row>
     <row r="752" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="B752" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="C752" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E752" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="F752" t="s">
         <v>229</v>
@@ -19512,16 +19509,16 @@
     </row>
     <row r="753" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="B753" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="C753" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E753" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="F753" t="s">
         <v>229</v>
@@ -19529,16 +19526,16 @@
     </row>
     <row r="754" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="B754" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="C754" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E754" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="F754" t="s">
         <v>229</v>
@@ -19546,16 +19543,16 @@
     </row>
     <row r="755" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="B755" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="C755" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E755" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="F755" t="s">
         <v>229</v>
@@ -19563,16 +19560,16 @@
     </row>
     <row r="756" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="B756" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="C756" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E756" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="F756" t="s">
         <v>229</v>
@@ -19580,16 +19577,16 @@
     </row>
     <row r="757" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B757" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C757" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E757" t="s">
         <v>1473</v>
-      </c>
-      <c r="B757" t="s">
-        <v>1494</v>
-      </c>
-      <c r="C757" t="s">
-        <v>1456</v>
-      </c>
-      <c r="E757" t="s">
-        <v>1475</v>
       </c>
       <c r="F757" t="s">
         <v>229</v>
@@ -19597,16 +19594,16 @@
     </row>
     <row r="758" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="B758" t="s">
         <v>192</v>
       </c>
       <c r="C758" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E758" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="F758" t="s">
         <v>229</v>
@@ -19614,16 +19611,16 @@
     </row>
     <row r="759" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="B759" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="C759" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E759" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="F759" t="s">
         <v>229</v>
@@ -19631,16 +19628,16 @@
     </row>
     <row r="760" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="B760" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="C760" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E760" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="F760" t="s">
         <v>229</v>
@@ -19648,16 +19645,16 @@
     </row>
     <row r="761" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="B761" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="C761" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E761" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="F761" t="s">
         <v>229</v>
@@ -19665,16 +19662,16 @@
     </row>
     <row r="762" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="B762" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="C762" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E762" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="F762" t="s">
         <v>229</v>
@@ -19682,16 +19679,16 @@
     </row>
     <row r="763" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
-        <v>1457</v>
+        <v>341</v>
       </c>
       <c r="B763" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="C763" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E763" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="F763" t="s">
         <v>229</v>
@@ -19699,16 +19696,16 @@
     </row>
     <row r="764" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="B764" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="C764" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E764" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="F764" t="s">
         <v>229</v>
@@ -19722,10 +19719,10 @@
         <v>90</v>
       </c>
       <c r="C765" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E765" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="F765" t="s">
         <v>229</v>
@@ -19733,16 +19730,16 @@
     </row>
     <row r="766" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="B766" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="C766" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E766" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="F766" t="s">
         <v>229</v>
@@ -19750,16 +19747,16 @@
     </row>
     <row r="767" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="B767" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="C767" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E767" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="F767" t="s">
         <v>229</v>
@@ -19767,16 +19764,16 @@
     </row>
     <row r="768" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B768" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="C768" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E768" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="F768" t="s">
         <v>229</v>
@@ -19784,16 +19781,16 @@
     </row>
     <row r="769" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="B769" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="C769" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E769" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="F769" t="s">
         <v>229</v>
@@ -19807,10 +19804,10 @@
         <v>1379</v>
       </c>
       <c r="C770" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E770" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="F770" t="s">
         <v>229</v>
@@ -19824,7 +19821,7 @@
         <v>1360</v>
       </c>
       <c r="C771" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E771" t="s">
         <v>170</v>
@@ -19835,13 +19832,13 @@
     </row>
     <row r="772" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="B772" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="C772" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E772" t="s">
         <v>170</v>
@@ -19852,13 +19849,13 @@
     </row>
     <row r="773" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="B773" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="C773" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E773" t="s">
         <v>170</v>
@@ -19869,13 +19866,13 @@
     </row>
     <row r="774" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="B774" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="C774" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E774" t="s">
         <v>170</v>
@@ -19886,13 +19883,13 @@
     </row>
     <row r="775" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="B775" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="C775" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E775" t="s">
         <v>170</v>
@@ -19903,13 +19900,13 @@
     </row>
     <row r="776" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="B776" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C776" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E776" t="s">
         <v>170</v>
@@ -19920,13 +19917,13 @@
     </row>
     <row r="777" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="B777" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="C777" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E777" t="s">
         <v>170</v>
@@ -19937,13 +19934,13 @@
     </row>
     <row r="778" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="B778" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="C778" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E778" t="s">
         <v>170</v>
@@ -19954,13 +19951,13 @@
     </row>
     <row r="779" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="B779" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="C779" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E779" t="s">
         <v>170</v>
@@ -19971,13 +19968,13 @@
     </row>
     <row r="780" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
-        <v>1497</v>
+        <v>1520</v>
       </c>
       <c r="B780" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="C780" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E780" t="s">
         <v>170</v>
@@ -19988,13 +19985,13 @@
     </row>
     <row r="781" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="B781" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="C781" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E781" t="s">
         <v>170</v>
@@ -20011,7 +20008,7 @@
         <v>594</v>
       </c>
       <c r="C782" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E782" t="s">
         <v>170</v>
@@ -20022,13 +20019,13 @@
     </row>
     <row r="783" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="B783" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="C783" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E783" t="s">
         <v>170</v>
@@ -20039,13 +20036,13 @@
     </row>
     <row r="784" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="B784" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="C784" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E784" t="s">
         <v>170</v>

--- a/jogos.xlsx
+++ b/jogos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\mycollections-cli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3516F148-6895-4411-9EC9-7C7280DE5181}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ECBBD3-2570-47C4-AECC-9EFAA775A786}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{0C35237A-6EB4-4B02-9651-931FED775CEC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3911" uniqueCount="1521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4001" uniqueCount="1556">
   <si>
     <t>Dragon Age Origins</t>
   </si>
@@ -4588,6 +4588,111 @@
   </si>
   <si>
     <t>PRO EVOLUTION SOCCER 2016</t>
+  </si>
+  <si>
+    <t>Gears of War</t>
+  </si>
+  <si>
+    <t>Gears of War 2</t>
+  </si>
+  <si>
+    <t>Gears of War 3</t>
+  </si>
+  <si>
+    <t>Gears of War Judgement</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTuCOqWFQ10b3zOq9O8OyfQtS2LD_sd0rP3Ip4iRX4oep69Xwc0</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSVNIHJw8-XsYsAGaNK6tNtE0UAD-Qrz1Cp7SfKbqnK3ichiXTC</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTWb0ricljrhot41Tm1hBKid157iphAndcjfeSnPBGDwY7Ks-g7Fw</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRlvwhwLXvywBXo7kOkxYBOrTggBs-xs2FtYtzWGHhoVm7Jz3X55Q</t>
+  </si>
+  <si>
+    <t>Assassins Creed Unity</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTcp6x7rM0N3sre7cHNSiv66VRKWGz_npaG7MbFMq06iloqK3-z</t>
+  </si>
+  <si>
+    <t>Mario Kart</t>
+  </si>
+  <si>
+    <t>Donkey Kong Country Returns</t>
+  </si>
+  <si>
+    <t>The Legend of Zelda Twilight Princess</t>
+  </si>
+  <si>
+    <t>The Last Story</t>
+  </si>
+  <si>
+    <t>Wii Sports Resort</t>
+  </si>
+  <si>
+    <t>New Super Mario Bros Wii</t>
+  </si>
+  <si>
+    <t>Super Mario Galaxy</t>
+  </si>
+  <si>
+    <t>Pikmin 2</t>
+  </si>
+  <si>
+    <t>Super Paper Mario</t>
+  </si>
+  <si>
+    <t>The Legend of Zelda Skyward Sword</t>
+  </si>
+  <si>
+    <t>Wii Sports</t>
+  </si>
+  <si>
+    <t>Super Mario Galaxy 2</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTJhjYxcs0DSUxaCjTRTRQXeJtPzjnUTbQe7rqckOBYUymXuur2</t>
+  </si>
+  <si>
+    <t>Wii</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSbwqWLNZS7t5txSQ_J4QnOTTUQp19tdyf6lIsJwP6XRbmMUihV</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcR7kJCv5tK9CHK6WCEcpv7cFyRHeRJehX4it4-oFyVejYawpR-gjw</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSMnHlTIyYkstE9M9XFTVz9HmTdwRgP0nHjj_9C-OGNkSuo16kTlg</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQZAb6EFYyMel2Vs6HtrFksXLTAROFPeQ9tpS5iNYubKS1LImsb</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSIHeicEMJFtogkX0mzINLEi2P_KJ3B4JtXxh44-UcXe-gbCgJW</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTFHG5N3acPGb1NW2R3LYG-nY5tvZnDLEs2hYsrxS-atIsS0UmLdQ</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTTTwDR4q2bqlSOuP3q3M8eRVJXFH6FKzfsQH6yX1d7JWttSbDD</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQLpB6nukw_R5S_f19hKMjs1Jiadp74wSofWxvDszN9V60T2S-C</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRBOH61IB-_qkPZI7sVkVi_3yKdpG-KL-F3qUvVOjIlI21Zl8WqNQ</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS7v5-aEv5YciskPBhO__KnXNelmyFdr-4AyqMYy63A-DwazsKAWA</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTdpmEhrBIB59nSV1jD6wqI1jUzwwF12JSMiEWt2g_FXCUOoXxs</t>
   </si>
 </sst>
 </file>
@@ -4959,10 +5064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E073D1A-5126-4785-A652-5C66939BBDE3}">
-  <dimension ref="A1:F784"/>
+  <dimension ref="A1:F802"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A761" workbookViewId="0">
-      <selection activeCell="A780" sqref="A780"/>
+    <sheetView tabSelected="1" topLeftCell="A766" workbookViewId="0">
+      <selection activeCell="B803" sqref="B803"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20051,9 +20156,315 @@
         <v>229</v>
       </c>
     </row>
+    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A785" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B785" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C785" t="s">
+        <v>162</v>
+      </c>
+      <c r="E785" t="s">
+        <v>170</v>
+      </c>
+      <c r="F785" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A786" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B786" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C786" t="s">
+        <v>162</v>
+      </c>
+      <c r="E786" t="s">
+        <v>170</v>
+      </c>
+      <c r="F786" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="787" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B787" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C787" t="s">
+        <v>162</v>
+      </c>
+      <c r="E787" t="s">
+        <v>170</v>
+      </c>
+      <c r="F787" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="788" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B788" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C788" t="s">
+        <v>162</v>
+      </c>
+      <c r="E788" t="s">
+        <v>170</v>
+      </c>
+      <c r="F788" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="789" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B789" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C789" t="s">
+        <v>162</v>
+      </c>
+      <c r="E789" t="s">
+        <v>170</v>
+      </c>
+      <c r="F789" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="790" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A790" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B790" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C790" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E790" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F790" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="791" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A791" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B791" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C791" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E791" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F791" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A792" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B792" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C792" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E792" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F792" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="793" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A793" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B793" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C793" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E793" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F793" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="794" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A794" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B794" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C794" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E794" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F794" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="795" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B795" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C795" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E795" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F795" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="796" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A796" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B796" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C796" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E796" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F796" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B797" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C797" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E797" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F797" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="798" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B798" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C798" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E798" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F798" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="799" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A799" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B799" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C799" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E799" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F799" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="800" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A800" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B800" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C800" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E800" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F800" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="801" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A801" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B801" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C801" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E801" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F801" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="802" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A802" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B802" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C802" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E802" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F802" t="s">
+        <v>229</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A771:A784">
-    <sortCondition ref="A771"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A790:A802">
+    <sortCondition ref="A790"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="B28" r:id="rId1" xr:uid="{2726AE12-75BD-43F3-877F-718C53B6A31E}"/>

--- a/jogos.xlsx
+++ b/jogos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\mycollections-cli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ECBBD3-2570-47C4-AECC-9EFAA775A786}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E33919-75E2-4017-8697-4C0300196B99}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{0C35237A-6EB4-4B02-9651-931FED775CEC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4001" uniqueCount="1556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4011" uniqueCount="1560">
   <si>
     <t>Dragon Age Origins</t>
   </si>
@@ -4693,6 +4693,18 @@
   </si>
   <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTdpmEhrBIB59nSV1jD6wqI1jUzwwF12JSMiEWt2g_FXCUOoXxs</t>
+  </si>
+  <si>
+    <t>Battlefield 1</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS0thXqCkspumwY2X3sT86PAlK3FUOWvbTrcSKT0pPFc3D_ckYB</t>
+  </si>
+  <si>
+    <t>Flashback</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRrKVOXH0AH9AjXAgnymFpsiMNi3y0pljwNF_n8bKvSFYNByeT5</t>
   </si>
 </sst>
 </file>
@@ -5064,10 +5076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E073D1A-5126-4785-A652-5C66939BBDE3}">
-  <dimension ref="A1:F802"/>
+  <dimension ref="A1:F804"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A766" workbookViewId="0">
-      <selection activeCell="B803" sqref="B803"/>
+    <sheetView tabSelected="1" topLeftCell="A779" workbookViewId="0">
+      <selection activeCell="B804" sqref="B804"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20459,6 +20471,40 @@
         <v>1544</v>
       </c>
       <c r="F802" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="803" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A803" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B803" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C803" t="s">
+        <v>1</v>
+      </c>
+      <c r="E803" t="s">
+        <v>2</v>
+      </c>
+      <c r="F803" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="804" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A804" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B804" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C804" t="s">
+        <v>162</v>
+      </c>
+      <c r="E804" t="s">
+        <v>170</v>
+      </c>
+      <c r="F804" t="s">
         <v>229</v>
       </c>
     </row>

--- a/jogos.xlsx
+++ b/jogos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\mycollections-cli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E33919-75E2-4017-8697-4C0300196B99}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E9031D-B92F-4E93-92F6-D7CB77DF84D6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{0C35237A-6EB4-4B02-9651-931FED775CEC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4011" uniqueCount="1560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4016" uniqueCount="1562">
   <si>
     <t>Dragon Age Origins</t>
   </si>
@@ -4705,6 +4705,12 @@
   </si>
   <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRrKVOXH0AH9AjXAgnymFpsiMNi3y0pljwNF_n8bKvSFYNByeT5</t>
+  </si>
+  <si>
+    <t>Child of Light</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTxbul9Ap4wqQOuJVQCbjuLInYqPsrkoACX4_nfzb_PY58ZszqM</t>
   </si>
 </sst>
 </file>
@@ -5076,10 +5082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E073D1A-5126-4785-A652-5C66939BBDE3}">
-  <dimension ref="A1:F804"/>
+  <dimension ref="A1:F805"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A779" workbookViewId="0">
-      <selection activeCell="B804" sqref="B804"/>
+      <selection activeCell="B805" sqref="B805"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20505,6 +20511,23 @@
         <v>170</v>
       </c>
       <c r="F804" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="805" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A805" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B805" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C805" t="s">
+        <v>181</v>
+      </c>
+      <c r="E805" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F805" t="s">
         <v>229</v>
       </c>
     </row>
